--- a/AdvancedJava/_docs/Notlar.xlsx
+++ b/AdvancedJava/_docs/Notlar.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e048482\Desktop\Medipol\2018bahar\ilerijava\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_SRC\GIT\MY\MyCourses\AdvancedJava\_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="96">
   <si>
     <t>Adı</t>
   </si>
@@ -76,15 +76,6 @@
     <t>Soyadı</t>
   </si>
   <si>
-    <t>H5150011</t>
-  </si>
-  <si>
-    <t>MUHARREM ÜMİT</t>
-  </si>
-  <si>
-    <t>SUCUOĞLU</t>
-  </si>
-  <si>
     <t>H5150012</t>
   </si>
   <si>
@@ -94,30 +85,12 @@
     <t>KARAASLAN</t>
   </si>
   <si>
-    <t>H5150015</t>
-  </si>
-  <si>
-    <t>HASAN</t>
-  </si>
-  <si>
-    <t>SOMUNCU</t>
-  </si>
-  <si>
     <t>H5150017</t>
   </si>
   <si>
     <t>ÇELİK</t>
   </si>
   <si>
-    <t>H5150025</t>
-  </si>
-  <si>
-    <t>ERHAN</t>
-  </si>
-  <si>
-    <t>KILIÇ</t>
-  </si>
-  <si>
     <t>H5150037</t>
   </si>
   <si>
@@ -127,33 +100,9 @@
     <t>YILMAZ</t>
   </si>
   <si>
-    <t>H5150038</t>
-  </si>
-  <si>
     <t>EMRE</t>
   </si>
   <si>
-    <t>ÖZCAN</t>
-  </si>
-  <si>
-    <t>H5150054</t>
-  </si>
-  <si>
-    <t>NESLİHAN</t>
-  </si>
-  <si>
-    <t>DALKILIÇ</t>
-  </si>
-  <si>
-    <t>H5150056</t>
-  </si>
-  <si>
-    <t>MUHAMMED KERİM</t>
-  </si>
-  <si>
-    <t>KILIÇÖZ</t>
-  </si>
-  <si>
     <t>H5150057</t>
   </si>
   <si>
@@ -172,60 +121,6 @@
     <t>KÖYSÜREN</t>
   </si>
   <si>
-    <t>H5150063</t>
-  </si>
-  <si>
-    <t>FUAT</t>
-  </si>
-  <si>
-    <t>SEKİZKARDEŞ</t>
-  </si>
-  <si>
-    <t>H5150067</t>
-  </si>
-  <si>
-    <t>HAVVA</t>
-  </si>
-  <si>
-    <t>AKBAŞ</t>
-  </si>
-  <si>
-    <t>H5150069</t>
-  </si>
-  <si>
-    <t>MUSA</t>
-  </si>
-  <si>
-    <t>SOYSAL</t>
-  </si>
-  <si>
-    <t>H5160001</t>
-  </si>
-  <si>
-    <t>ATAKAN</t>
-  </si>
-  <si>
-    <t>TALAY</t>
-  </si>
-  <si>
-    <t>H5160011</t>
-  </si>
-  <si>
-    <t>EMİNE</t>
-  </si>
-  <si>
-    <t>AYÇİÇEK</t>
-  </si>
-  <si>
-    <t>H5160018</t>
-  </si>
-  <si>
-    <t>RECEP SEZER</t>
-  </si>
-  <si>
-    <t>AYDOĞAN</t>
-  </si>
-  <si>
     <t>H5160019</t>
   </si>
   <si>
@@ -235,24 +130,6 @@
     <t>ÖKSÜZ</t>
   </si>
   <si>
-    <t>H5160022</t>
-  </si>
-  <si>
-    <t>GAMZE NUR</t>
-  </si>
-  <si>
-    <t>KESKİN</t>
-  </si>
-  <si>
-    <t>H5160031</t>
-  </si>
-  <si>
-    <t>ÇAĞLA</t>
-  </si>
-  <si>
-    <t>ÖZ</t>
-  </si>
-  <si>
     <t>H5160032</t>
   </si>
   <si>
@@ -271,15 +148,6 @@
     <t>ERGİN</t>
   </si>
   <si>
-    <t>H5160036</t>
-  </si>
-  <si>
-    <t>CEM</t>
-  </si>
-  <si>
-    <t>HANOĞLU</t>
-  </si>
-  <si>
     <t>H5160040</t>
   </si>
   <si>
@@ -287,60 +155,6 @@
   </si>
   <si>
     <t>ÇAKIN</t>
-  </si>
-  <si>
-    <t>H5160057</t>
-  </si>
-  <si>
-    <t>MERTCAN</t>
-  </si>
-  <si>
-    <t>ARICI</t>
-  </si>
-  <si>
-    <t>H5160065</t>
-  </si>
-  <si>
-    <t>HATİCE</t>
-  </si>
-  <si>
-    <t>ERDEM</t>
-  </si>
-  <si>
-    <t>HR160007</t>
-  </si>
-  <si>
-    <t>CİHAN</t>
-  </si>
-  <si>
-    <t>GÜNAÇTI</t>
-  </si>
-  <si>
-    <t>HR160032</t>
-  </si>
-  <si>
-    <t>DOĞAN</t>
-  </si>
-  <si>
-    <t>KOÇ</t>
-  </si>
-  <si>
-    <t>HR160037</t>
-  </si>
-  <si>
-    <t>DİDEM</t>
-  </si>
-  <si>
-    <t>LALOĞLU</t>
-  </si>
-  <si>
-    <t>HR160040</t>
-  </si>
-  <si>
-    <t>İBRAHİM</t>
-  </si>
-  <si>
-    <t>KANDEMİR</t>
   </si>
   <si>
     <t>Öğrenci No</t>
@@ -929,7 +743,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1024,11 +838,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="37">
+  <dxfs count="22">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1132,150 +958,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor theme="5" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1666,11 +1348,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z77"/>
+  <dimension ref="A1:AB76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AD18" sqref="AD18"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Y3" sqref="Y3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1681,37 +1363,39 @@
     <col min="4" max="5" width="3.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="2.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="2.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.44140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="3.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="17" width="2.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="2.5546875" style="1" customWidth="1"/>
     <col min="19" max="19" width="4.77734375" style="1" customWidth="1"/>
-    <col min="20" max="21" width="2.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5" style="1" customWidth="1"/>
-    <col min="23" max="23" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7" style="1" customWidth="1"/>
-    <col min="25" max="25" width="5.77734375" style="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="1"/>
+    <col min="20" max="20" width="2.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="2.77734375" style="1" customWidth="1"/>
+    <col min="23" max="23" width="2.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5" style="1" customWidth="1"/>
+    <col min="25" max="25" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7" style="1" customWidth="1"/>
+    <col min="27" max="27" width="5.77734375" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="4" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30">
-        <v>1</v>
-      </c>
+    <row r="1" spans="1:28" s="4" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="30"/>
       <c r="B1" s="18"/>
       <c r="C1" s="29"/>
-      <c r="D1" s="45" t="s">
-        <v>100</v>
-      </c>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="47"/>
+      <c r="D1" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="51">
+        <v>2</v>
+      </c>
       <c r="L1" s="45" t="s">
-        <v>101</v>
+        <v>39</v>
       </c>
       <c r="M1" s="46"/>
       <c r="N1" s="46"/>
@@ -1719,25 +1403,31 @@
       <c r="P1" s="46"/>
       <c r="Q1" s="46"/>
       <c r="R1" s="46"/>
-      <c r="S1" s="47"/>
+      <c r="S1" s="48">
+        <v>1</v>
+      </c>
       <c r="T1" s="45" t="s">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c r="U1" s="46"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="X1" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y1" s="19" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" s="5" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
+      <c r="X1" s="48">
+        <v>1</v>
+      </c>
+      <c r="Y1" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z1" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA1" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" s="5" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>0</v>
@@ -1767,7 +1457,7 @@
         <v>7</v>
       </c>
       <c r="K2" s="28" t="s">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="L2" s="26">
         <v>1</v>
@@ -1791,49 +1481,60 @@
         <v>7</v>
       </c>
       <c r="S2" s="28" t="s">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="T2" s="26">
         <v>1</v>
       </c>
-      <c r="U2" s="27">
+      <c r="U2" s="37">
         <v>2</v>
       </c>
-      <c r="V2" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="W2" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="X2" s="43" t="s">
-        <v>105</v>
-      </c>
-      <c r="Y2" s="19" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V2" s="37">
+        <v>3</v>
+      </c>
+      <c r="W2" s="27">
+        <v>4</v>
+      </c>
+      <c r="X2" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y2" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z2" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA2" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>111</v>
+        <v>49</v>
       </c>
       <c r="D3" s="12">
         <v>2</v>
       </c>
       <c r="E3" s="7">
-        <v>1</v>
-      </c>
-      <c r="F3" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="F3" s="7">
+        <v>2</v>
+      </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
-      <c r="K3" s="16"/>
+      <c r="K3" s="16">
+        <f>SUM(D3:J3)*50/K$1</f>
+        <v>150</v>
+      </c>
       <c r="L3" s="14"/>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
@@ -1841,42 +1542,57 @@
       <c r="P3" s="6"/>
       <c r="Q3" s="6"/>
       <c r="R3" s="6"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="14"/>
+      <c r="S3" s="16">
+        <f>SUM(L3:R3)/S$1</f>
+        <v>0</v>
+      </c>
+      <c r="T3" s="14">
+        <v>60</v>
+      </c>
       <c r="U3" s="14"/>
-      <c r="V3" s="16"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="44"/>
-      <c r="Y3" s="21">
-        <f t="shared" ref="Y3:Y26" si="0">K3*0.2+S3*0.25+V3*0.25+W3*0.3+X3*0.15</f>
-        <v>0</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="16">
+        <f>SUM(T3:W3)/X$1</f>
+        <v>60</v>
+      </c>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="44"/>
+      <c r="AA3" s="21">
+        <f t="shared" ref="AA3:AA25" si="0">K3*0.2+S3*0.25+X3*0.25+Y3*0.3+Z3*0.15</f>
+        <v>45</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D4" s="12">
         <v>2</v>
       </c>
       <c r="E4" s="7">
-        <v>1</v>
-      </c>
-      <c r="F4" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="F4" s="7">
+        <v>2</v>
+      </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="16"/>
+      <c r="K4" s="16">
+        <f t="shared" ref="K4:K30" si="1">SUM(D4:J4)*50/K$1</f>
+        <v>150</v>
+      </c>
       <c r="L4" s="14"/>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
@@ -1884,39 +1600,54 @@
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="14"/>
+      <c r="S4" s="16">
+        <f t="shared" ref="S4:S30" si="2">SUM(L4:R4)/S$1</f>
+        <v>0</v>
+      </c>
+      <c r="T4" s="14">
+        <v>60</v>
+      </c>
       <c r="U4" s="14"/>
-      <c r="V4" s="16"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="44"/>
-      <c r="Y4" s="21">
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="16">
+        <f t="shared" ref="X4:X30" si="3">SUM(T4:W4)/X$1</f>
+        <v>60</v>
+      </c>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="44"/>
+      <c r="AA4" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
-        <v>119</v>
+        <v>57</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>114</v>
+        <v>52</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>115</v>
+        <v>53</v>
       </c>
       <c r="D5" s="12">
         <v>2</v>
       </c>
       <c r="E5" s="7">
-        <v>1</v>
-      </c>
-      <c r="F5" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="F5" s="7">
+        <v>2</v>
+      </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
-      <c r="K5" s="16"/>
+      <c r="K5" s="16">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
       <c r="L5" s="14"/>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
@@ -1924,39 +1655,54 @@
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="14"/>
+      <c r="S5" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T5" s="14">
+        <v>60</v>
+      </c>
       <c r="U5" s="14"/>
-      <c r="V5" s="16"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="44"/>
-      <c r="Y5" s="21">
+      <c r="V5" s="14"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="16">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="44"/>
+      <c r="AA5" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>118</v>
+        <v>56</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>116</v>
+        <v>54</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>117</v>
+        <v>55</v>
       </c>
       <c r="D6" s="12">
         <v>2</v>
       </c>
       <c r="E6" s="7">
-        <v>1</v>
-      </c>
-      <c r="F6" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="F6" s="7">
+        <v>2</v>
+      </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
-      <c r="K6" s="16"/>
+      <c r="K6" s="16">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
       <c r="L6" s="14"/>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
@@ -1964,39 +1710,52 @@
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
-      <c r="S6" s="16"/>
+      <c r="S6" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="T6" s="14"/>
       <c r="U6" s="14"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="44"/>
-      <c r="Y6" s="21">
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="44"/>
+      <c r="AA6" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>122</v>
+        <v>60</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>120</v>
+        <v>58</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>121</v>
+        <v>59</v>
       </c>
       <c r="D7" s="12">
         <v>2</v>
       </c>
       <c r="E7" s="7">
-        <v>1</v>
-      </c>
-      <c r="F7" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="F7" s="7">
+        <v>2</v>
+      </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
-      <c r="K7" s="16"/>
+      <c r="K7" s="16">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
       <c r="L7" s="14"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
@@ -2004,26 +1763,34 @@
       <c r="P7" s="6"/>
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
-      <c r="S7" s="16"/>
+      <c r="S7" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="T7" s="14"/>
       <c r="U7" s="14"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="44"/>
-      <c r="Y7" s="21">
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="44"/>
+      <c r="AA7" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="7"/>
@@ -2032,7 +1799,10 @@
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
-      <c r="K8" s="16"/>
+      <c r="K8" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L8" s="14"/>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
@@ -2040,26 +1810,34 @@
       <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
-      <c r="S8" s="16"/>
+      <c r="S8" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="T8" s="14"/>
       <c r="U8" s="14"/>
-      <c r="V8" s="16"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="44"/>
-      <c r="Y8" s="21">
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="44"/>
+      <c r="AA8" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>123</v>
+        <v>61</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="7"/>
@@ -2068,7 +1846,10 @@
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
-      <c r="K9" s="16"/>
+      <c r="K9" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L9" s="14"/>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
@@ -2076,26 +1857,34 @@
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
-      <c r="S9" s="16"/>
+      <c r="S9" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="T9" s="14"/>
       <c r="U9" s="14"/>
-      <c r="V9" s="16"/>
-      <c r="W9" s="6"/>
-      <c r="X9" s="44"/>
-      <c r="Y9" s="21">
+      <c r="V9" s="14"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="44"/>
+      <c r="AA9" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
-        <v>124</v>
+        <v>62</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="7"/>
@@ -2104,7 +1893,10 @@
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
-      <c r="K10" s="16"/>
+      <c r="K10" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L10" s="14"/>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
@@ -2112,26 +1904,34 @@
       <c r="P10" s="6"/>
       <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
-      <c r="S10" s="16"/>
+      <c r="S10" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="T10" s="14"/>
       <c r="U10" s="14"/>
-      <c r="V10" s="16"/>
-      <c r="W10" s="6"/>
-      <c r="X10" s="44"/>
-      <c r="Y10" s="21">
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="44"/>
+      <c r="AA10" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="7"/>
@@ -2140,7 +1940,10 @@
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
-      <c r="K11" s="16"/>
+      <c r="K11" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L11" s="14"/>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
@@ -2148,26 +1951,34 @@
       <c r="P11" s="6"/>
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
-      <c r="S11" s="16"/>
+      <c r="S11" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="T11" s="14"/>
       <c r="U11" s="14"/>
-      <c r="V11" s="16"/>
-      <c r="W11" s="6"/>
-      <c r="X11" s="44"/>
-      <c r="Y11" s="21">
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="44"/>
+      <c r="AA11" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="7"/>
@@ -2176,7 +1987,10 @@
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
-      <c r="K12" s="16"/>
+      <c r="K12" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L12" s="14"/>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
@@ -2184,26 +1998,34 @@
       <c r="P12" s="6"/>
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
-      <c r="S12" s="16"/>
+      <c r="S12" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="T12" s="14"/>
       <c r="U12" s="14"/>
-      <c r="V12" s="16"/>
-      <c r="W12" s="6"/>
-      <c r="X12" s="44"/>
-      <c r="Y12" s="21">
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="44"/>
+      <c r="AA12" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="7"/>
@@ -2212,7 +2034,10 @@
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
-      <c r="K13" s="16"/>
+      <c r="K13" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L13" s="14"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
@@ -2220,37 +2045,50 @@
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
-      <c r="S13" s="16"/>
+      <c r="S13" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="T13" s="14"/>
       <c r="U13" s="14"/>
-      <c r="V13" s="16"/>
-      <c r="W13" s="6"/>
-      <c r="X13" s="44"/>
-      <c r="Y13" s="21">
+      <c r="V13" s="14"/>
+      <c r="W13" s="14"/>
+      <c r="X13" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="44"/>
+      <c r="AA13" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
-        <v>125</v>
+        <v>63</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>126</v>
+        <v>64</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>127</v>
+        <v>65</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="7">
-        <v>1</v>
-      </c>
-      <c r="F14" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="F14" s="7">
+        <v>2</v>
+      </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
-      <c r="K14" s="16"/>
+      <c r="K14" s="16">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
       <c r="L14" s="14"/>
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
@@ -2258,37 +2096,50 @@
       <c r="P14" s="6"/>
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
-      <c r="S14" s="16"/>
-      <c r="T14" s="14"/>
+      <c r="S14" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="14">
+        <v>60</v>
+      </c>
       <c r="U14" s="14"/>
-      <c r="V14" s="16"/>
-      <c r="W14" s="6"/>
-      <c r="X14" s="44"/>
-      <c r="Y14" s="21">
+      <c r="V14" s="14"/>
+      <c r="W14" s="14"/>
+      <c r="X14" s="16">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="44"/>
+      <c r="AA14" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
-        <v>128</v>
+        <v>66</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>129</v>
+        <v>67</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>130</v>
+        <v>68</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
-      <c r="K15" s="16"/>
+      <c r="K15" s="16">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
       <c r="L15" s="14"/>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
@@ -2296,37 +2147,50 @@
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
-      <c r="S15" s="16"/>
+      <c r="S15" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="T15" s="14"/>
       <c r="U15" s="14"/>
-      <c r="V15" s="16"/>
-      <c r="W15" s="6"/>
-      <c r="X15" s="44"/>
-      <c r="Y15" s="21">
+      <c r="V15" s="14"/>
+      <c r="W15" s="14"/>
+      <c r="X15" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="44"/>
+      <c r="AA15" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
-        <v>131</v>
+        <v>69</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>132</v>
+        <v>70</v>
       </c>
       <c r="D16" s="12"/>
       <c r="E16" s="7">
-        <v>1</v>
-      </c>
-      <c r="F16" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="F16" s="7">
+        <v>2</v>
+      </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
-      <c r="K16" s="16"/>
+      <c r="K16" s="16">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
       <c r="L16" s="14"/>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
@@ -2334,37 +2198,52 @@
       <c r="P16" s="6"/>
       <c r="Q16" s="6"/>
       <c r="R16" s="6"/>
-      <c r="S16" s="16"/>
-      <c r="T16" s="14"/>
+      <c r="S16" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T16" s="14">
+        <v>60</v>
+      </c>
       <c r="U16" s="14"/>
-      <c r="V16" s="16"/>
-      <c r="W16" s="6"/>
-      <c r="X16" s="44"/>
-      <c r="Y16" s="21">
+      <c r="V16" s="14"/>
+      <c r="W16" s="14"/>
+      <c r="X16" s="16">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="44"/>
+      <c r="AA16" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="D17" s="12"/>
       <c r="E17" s="7">
-        <v>1</v>
-      </c>
-      <c r="F17" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="F17" s="7">
+        <v>2</v>
+      </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
-      <c r="K17" s="16"/>
+      <c r="K17" s="16">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
       <c r="L17" s="14"/>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
@@ -2372,37 +2251,52 @@
       <c r="P17" s="6"/>
       <c r="Q17" s="6"/>
       <c r="R17" s="6"/>
-      <c r="S17" s="16"/>
-      <c r="T17" s="14"/>
+      <c r="S17" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T17" s="14">
+        <v>60</v>
+      </c>
       <c r="U17" s="14"/>
-      <c r="V17" s="16"/>
-      <c r="W17" s="6"/>
-      <c r="X17" s="44"/>
-      <c r="Y17" s="21">
+      <c r="V17" s="14"/>
+      <c r="W17" s="14"/>
+      <c r="X17" s="16">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="44"/>
+      <c r="AA17" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>133</v>
+        <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>134</v>
+        <v>18</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>135</v>
+        <v>19</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="7">
-        <v>1</v>
-      </c>
-      <c r="F18" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="F18" s="7">
+        <v>2</v>
+      </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
-      <c r="K18" s="16"/>
+      <c r="K18" s="16">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
       <c r="L18" s="14"/>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
@@ -2410,37 +2304,46 @@
       <c r="P18" s="6"/>
       <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
-      <c r="S18" s="16"/>
+      <c r="S18" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="T18" s="14"/>
       <c r="U18" s="14"/>
-      <c r="V18" s="16"/>
-      <c r="W18" s="6"/>
-      <c r="X18" s="44"/>
-      <c r="Y18" s="21">
+      <c r="V18" s="14"/>
+      <c r="W18" s="14"/>
+      <c r="X18" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="44"/>
+      <c r="AA18" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="D19" s="12"/>
-      <c r="E19" s="7">
-        <v>1</v>
-      </c>
+      <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
-      <c r="K19" s="16"/>
+      <c r="K19" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L19" s="14"/>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
@@ -2448,26 +2351,34 @@
       <c r="P19" s="6"/>
       <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
-      <c r="S19" s="16"/>
+      <c r="S19" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="T19" s="14"/>
       <c r="U19" s="14"/>
-      <c r="V19" s="16"/>
-      <c r="W19" s="6"/>
-      <c r="X19" s="44"/>
-      <c r="Y19" s="21">
+      <c r="V19" s="14"/>
+      <c r="W19" s="14"/>
+      <c r="X19" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="44"/>
+      <c r="AA19" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="7"/>
@@ -2476,7 +2387,10 @@
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
-      <c r="K20" s="16"/>
+      <c r="K20" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L20" s="14"/>
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
@@ -2484,26 +2398,34 @@
       <c r="P20" s="6"/>
       <c r="Q20" s="6"/>
       <c r="R20" s="6"/>
-      <c r="S20" s="16"/>
+      <c r="S20" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="T20" s="14"/>
       <c r="U20" s="14"/>
-      <c r="V20" s="16"/>
-      <c r="W20" s="6"/>
-      <c r="X20" s="44"/>
-      <c r="Y20" s="21">
+      <c r="V20" s="14"/>
+      <c r="W20" s="14"/>
+      <c r="X20" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="44"/>
+      <c r="AA20" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="7"/>
@@ -2512,7 +2434,10 @@
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
-      <c r="K21" s="16"/>
+      <c r="K21" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L21" s="14"/>
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
@@ -2520,35 +2445,50 @@
       <c r="P21" s="6"/>
       <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
-      <c r="S21" s="16"/>
+      <c r="S21" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="T21" s="14"/>
       <c r="U21" s="14"/>
-      <c r="V21" s="16"/>
-      <c r="W21" s="6"/>
-      <c r="X21" s="44"/>
-      <c r="Y21" s="21">
+      <c r="V21" s="14"/>
+      <c r="W21" s="14"/>
+      <c r="X21" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="44"/>
+      <c r="AA21" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="D22" s="12"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
+      <c r="E22" s="12">
+        <v>2</v>
+      </c>
+      <c r="F22" s="7">
+        <v>2</v>
+      </c>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
-      <c r="K22" s="16"/>
+      <c r="K22" s="16">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
       <c r="L22" s="14"/>
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
@@ -2556,37 +2496,52 @@
       <c r="P22" s="6"/>
       <c r="Q22" s="6"/>
       <c r="R22" s="6"/>
-      <c r="S22" s="16"/>
-      <c r="T22" s="14"/>
+      <c r="S22" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T22" s="14">
+        <v>60</v>
+      </c>
       <c r="U22" s="14"/>
-      <c r="V22" s="16"/>
-      <c r="W22" s="6"/>
-      <c r="X22" s="44"/>
-      <c r="Y22" s="21">
+      <c r="V22" s="14"/>
+      <c r="W22" s="14"/>
+      <c r="X22" s="16">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="Y22" s="6"/>
+      <c r="Z22" s="44"/>
+      <c r="AA22" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="D23" s="12"/>
-      <c r="E23" s="12">
-        <v>1</v>
-      </c>
-      <c r="F23" s="7"/>
+      <c r="E23" s="7">
+        <v>2</v>
+      </c>
+      <c r="F23" s="7">
+        <v>2</v>
+      </c>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
-      <c r="K23" s="16"/>
+      <c r="K23" s="16">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
       <c r="L23" s="14"/>
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
@@ -2594,37 +2549,50 @@
       <c r="P23" s="6"/>
       <c r="Q23" s="6"/>
       <c r="R23" s="6"/>
-      <c r="S23" s="16"/>
+      <c r="S23" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="T23" s="14"/>
       <c r="U23" s="14"/>
-      <c r="V23" s="16"/>
-      <c r="W23" s="6"/>
-      <c r="X23" s="44"/>
-      <c r="Y23" s="21">
+      <c r="V23" s="14"/>
+      <c r="W23" s="14"/>
+      <c r="X23" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y23" s="6"/>
+      <c r="Z23" s="44"/>
+      <c r="AA23" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>139</v>
+        <v>10</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="D24" s="12"/>
       <c r="E24" s="7">
-        <v>1</v>
-      </c>
-      <c r="F24" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="F24" s="7">
+        <v>2</v>
+      </c>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
-      <c r="K24" s="16"/>
+      <c r="K24" s="16">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
       <c r="L24" s="14"/>
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
@@ -2632,37 +2600,52 @@
       <c r="P24" s="6"/>
       <c r="Q24" s="6"/>
       <c r="R24" s="6"/>
-      <c r="S24" s="16"/>
-      <c r="T24" s="14"/>
+      <c r="S24" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T24" s="14">
+        <v>60</v>
+      </c>
       <c r="U24" s="14"/>
-      <c r="V24" s="16"/>
-      <c r="W24" s="6"/>
-      <c r="X24" s="44"/>
-      <c r="Y24" s="21">
+      <c r="V24" s="14"/>
+      <c r="W24" s="14"/>
+      <c r="X24" s="16">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="Y24" s="6"/>
+      <c r="Z24" s="44"/>
+      <c r="AA24" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
-        <v>141</v>
+        <v>81</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>142</v>
+        <v>83</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="7">
-        <v>1</v>
-      </c>
-      <c r="F25" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="F25" s="7">
+        <v>2</v>
+      </c>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
-      <c r="K25" s="16"/>
+      <c r="K25" s="16">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
       <c r="L25" s="14"/>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
@@ -2670,37 +2653,52 @@
       <c r="P25" s="6"/>
       <c r="Q25" s="6"/>
       <c r="R25" s="6"/>
-      <c r="S25" s="16"/>
-      <c r="T25" s="14"/>
+      <c r="S25" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T25" s="14">
+        <v>60</v>
+      </c>
       <c r="U25" s="14"/>
-      <c r="V25" s="16"/>
-      <c r="W25" s="6"/>
-      <c r="X25" s="44"/>
-      <c r="Y25" s="21">
+      <c r="V25" s="14"/>
+      <c r="W25" s="14"/>
+      <c r="X25" s="16">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="Y25" s="6"/>
+      <c r="Z25" s="44"/>
+      <c r="AA25" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
-        <v>143</v>
+        <v>84</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>144</v>
+        <v>85</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>145</v>
+        <v>86</v>
       </c>
       <c r="D26" s="12"/>
       <c r="E26" s="7">
-        <v>1</v>
-      </c>
-      <c r="F26" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="F26" s="7">
+        <v>2</v>
+      </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
-      <c r="K26" s="16"/>
+      <c r="K26" s="16">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
       <c r="L26" s="14"/>
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
@@ -2708,37 +2706,48 @@
       <c r="P26" s="6"/>
       <c r="Q26" s="6"/>
       <c r="R26" s="6"/>
-      <c r="S26" s="16"/>
-      <c r="T26" s="14"/>
+      <c r="S26" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T26" s="14">
+        <v>60</v>
+      </c>
       <c r="U26" s="14"/>
-      <c r="V26" s="16"/>
-      <c r="W26" s="6"/>
-      <c r="X26" s="44"/>
-      <c r="Y26" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V26" s="14"/>
+      <c r="W26" s="14"/>
+      <c r="X26" s="16">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="Y26" s="6"/>
+      <c r="Z26" s="44"/>
+      <c r="AA26" s="21">
+        <f>K26*0.2+S26*0.25+X26*0.25+Y26*0.3+Z26*0.1</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
-        <v>146</v>
+        <v>87</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>147</v>
+        <v>88</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>148</v>
+        <v>89</v>
       </c>
       <c r="D27" s="12"/>
-      <c r="E27" s="7">
-        <v>1</v>
-      </c>
+      <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
-      <c r="K27" s="16"/>
+      <c r="K27" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L27" s="14"/>
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
@@ -2746,26 +2755,34 @@
       <c r="P27" s="6"/>
       <c r="Q27" s="6"/>
       <c r="R27" s="6"/>
-      <c r="S27" s="16"/>
+      <c r="S27" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="T27" s="14"/>
       <c r="U27" s="14"/>
-      <c r="V27" s="16"/>
-      <c r="W27" s="6"/>
-      <c r="X27" s="44"/>
-      <c r="Y27" s="21">
-        <f>K27*0.2+S27*0.25+V27*0.25+W27*0.3+X27*0.1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V27" s="14"/>
+      <c r="W27" s="14"/>
+      <c r="X27" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y27" s="6"/>
+      <c r="Z27" s="44"/>
+      <c r="AA27" s="21">
+        <f>K27*0.2+S27*0.25+X27*0.25+Y27*0.3+Z27*0.1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
-        <v>149</v>
+        <v>90</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>150</v>
+        <v>91</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>151</v>
+        <v>92</v>
       </c>
       <c r="D28" s="12"/>
       <c r="E28" s="7"/>
@@ -2774,7 +2791,10 @@
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
-      <c r="K28" s="16"/>
+      <c r="K28" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L28" s="14"/>
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
@@ -2782,26 +2802,34 @@
       <c r="P28" s="6"/>
       <c r="Q28" s="6"/>
       <c r="R28" s="6"/>
-      <c r="S28" s="16"/>
+      <c r="S28" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="T28" s="14"/>
       <c r="U28" s="14"/>
-      <c r="V28" s="16"/>
-      <c r="W28" s="6"/>
-      <c r="X28" s="44"/>
-      <c r="Y28" s="21">
-        <f>K28*0.2+S28*0.25+V28*0.25+W28*0.3+X28*0.1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V28" s="14"/>
+      <c r="W28" s="14"/>
+      <c r="X28" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y28" s="6"/>
+      <c r="Z28" s="44"/>
+      <c r="AA28" s="21">
+        <f t="shared" ref="AA28:AA30" si="4">K28*0.2+S28*0.25+X28*0.25+Y28*0.3+Z28*0.1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" s="9" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
-        <v>152</v>
+        <v>93</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>153</v>
+        <v>94</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>154</v>
+        <v>95</v>
       </c>
       <c r="D29" s="12"/>
       <c r="E29" s="7"/>
@@ -2810,7 +2838,10 @@
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
-      <c r="K29" s="16"/>
+      <c r="K29" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L29" s="14"/>
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
@@ -2818,27 +2849,29 @@
       <c r="P29" s="6"/>
       <c r="Q29" s="6"/>
       <c r="R29" s="6"/>
-      <c r="S29" s="16"/>
+      <c r="S29" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="T29" s="14"/>
       <c r="U29" s="14"/>
-      <c r="V29" s="16"/>
-      <c r="W29" s="6"/>
-      <c r="X29" s="44"/>
-      <c r="Y29" s="21">
-        <f t="shared" ref="Y29:Y31" si="1">K29*0.2+S29*0.25+V29*0.25+W29*0.3+X29*0.1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25" s="9" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>157</v>
-      </c>
+      <c r="V29" s="14"/>
+      <c r="W29" s="14"/>
+      <c r="X29" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y29" s="6"/>
+      <c r="Z29" s="44"/>
+      <c r="AA29" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="20"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="11"/>
       <c r="D30" s="12"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
@@ -2846,7 +2879,10 @@
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
-      <c r="K30" s="16"/>
+      <c r="K30" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L30" s="14"/>
       <c r="M30" s="6"/>
       <c r="N30" s="6"/>
@@ -2854,48 +2890,52 @@
       <c r="P30" s="6"/>
       <c r="Q30" s="6"/>
       <c r="R30" s="6"/>
-      <c r="S30" s="16"/>
+      <c r="S30" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="T30" s="14"/>
       <c r="U30" s="14"/>
-      <c r="V30" s="16"/>
-      <c r="W30" s="6"/>
-      <c r="X30" s="44"/>
-      <c r="Y30" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="20"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="6"/>
-      <c r="R31" s="6"/>
-      <c r="S31" s="16"/>
-      <c r="T31" s="14"/>
-      <c r="U31" s="14"/>
-      <c r="V31" s="16"/>
-      <c r="W31" s="6"/>
-      <c r="X31" s="44"/>
-      <c r="Y31" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V30" s="14"/>
+      <c r="W30" s="14"/>
+      <c r="X30" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y30" s="6"/>
+      <c r="Z30" s="44"/>
+      <c r="AA30" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="9"/>
+      <c r="T31" s="9"/>
+      <c r="U31" s="9"/>
+      <c r="V31" s="9"/>
+      <c r="W31" s="9"/>
+      <c r="X31" s="9"/>
+    </row>
+    <row r="32" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -2918,8 +2958,10 @@
       <c r="T32" s="9"/>
       <c r="U32" s="9"/>
       <c r="V32" s="9"/>
-    </row>
-    <row r="33" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W32" s="9"/>
+      <c r="X32" s="9"/>
+    </row>
+    <row r="33" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -2942,8 +2984,10 @@
       <c r="T33" s="9"/>
       <c r="U33" s="9"/>
       <c r="V33" s="9"/>
-    </row>
-    <row r="34" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W33" s="9"/>
+      <c r="X33" s="9"/>
+    </row>
+    <row r="34" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -2966,8 +3010,10 @@
       <c r="T34" s="9"/>
       <c r="U34" s="9"/>
       <c r="V34" s="9"/>
-    </row>
-    <row r="35" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W34" s="9"/>
+      <c r="X34" s="9"/>
+    </row>
+    <row r="35" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -2990,8 +3036,10 @@
       <c r="T35" s="9"/>
       <c r="U35" s="9"/>
       <c r="V35" s="9"/>
-    </row>
-    <row r="36" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W35" s="9"/>
+      <c r="X35" s="9"/>
+    </row>
+    <row r="36" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -3014,8 +3062,10 @@
       <c r="T36" s="9"/>
       <c r="U36" s="9"/>
       <c r="V36" s="9"/>
-    </row>
-    <row r="37" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W36" s="9"/>
+      <c r="X36" s="9"/>
+    </row>
+    <row r="37" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -3038,8 +3088,10 @@
       <c r="T37" s="9"/>
       <c r="U37" s="9"/>
       <c r="V37" s="9"/>
-    </row>
-    <row r="38" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W37" s="9"/>
+      <c r="X37" s="9"/>
+    </row>
+    <row r="38" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -3062,8 +3114,10 @@
       <c r="T38" s="9"/>
       <c r="U38" s="9"/>
       <c r="V38" s="9"/>
-    </row>
-    <row r="39" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W38" s="9"/>
+      <c r="X38" s="9"/>
+    </row>
+    <row r="39" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -3086,8 +3140,10 @@
       <c r="T39" s="9"/>
       <c r="U39" s="9"/>
       <c r="V39" s="9"/>
-    </row>
-    <row r="40" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W39" s="9"/>
+      <c r="X39" s="9"/>
+    </row>
+    <row r="40" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -3110,8 +3166,10 @@
       <c r="T40" s="9"/>
       <c r="U40" s="9"/>
       <c r="V40" s="9"/>
-    </row>
-    <row r="41" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W40" s="9"/>
+      <c r="X40" s="9"/>
+    </row>
+    <row r="41" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -3134,8 +3192,10 @@
       <c r="T41" s="9"/>
       <c r="U41" s="9"/>
       <c r="V41" s="9"/>
-    </row>
-    <row r="42" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W41" s="9"/>
+      <c r="X41" s="9"/>
+    </row>
+    <row r="42" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -3158,8 +3218,10 @@
       <c r="T42" s="9"/>
       <c r="U42" s="9"/>
       <c r="V42" s="9"/>
-    </row>
-    <row r="43" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W42" s="9"/>
+      <c r="X42" s="9"/>
+    </row>
+    <row r="43" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -3182,8 +3244,10 @@
       <c r="T43" s="9"/>
       <c r="U43" s="9"/>
       <c r="V43" s="9"/>
-    </row>
-    <row r="44" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W43" s="9"/>
+      <c r="X43" s="9"/>
+    </row>
+    <row r="44" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -3206,8 +3270,10 @@
       <c r="T44" s="9"/>
       <c r="U44" s="9"/>
       <c r="V44" s="9"/>
-    </row>
-    <row r="45" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W44" s="9"/>
+      <c r="X44" s="9"/>
+    </row>
+    <row r="45" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -3230,8 +3296,10 @@
       <c r="T45" s="9"/>
       <c r="U45" s="9"/>
       <c r="V45" s="9"/>
-    </row>
-    <row r="46" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W45" s="9"/>
+      <c r="X45" s="9"/>
+    </row>
+    <row r="46" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -3254,8 +3322,10 @@
       <c r="T46" s="9"/>
       <c r="U46" s="9"/>
       <c r="V46" s="9"/>
-    </row>
-    <row r="47" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W46" s="9"/>
+      <c r="X46" s="9"/>
+    </row>
+    <row r="47" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -3278,8 +3348,10 @@
       <c r="T47" s="9"/>
       <c r="U47" s="9"/>
       <c r="V47" s="9"/>
-    </row>
-    <row r="48" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W47" s="9"/>
+      <c r="X47" s="9"/>
+    </row>
+    <row r="48" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -3302,8 +3374,10 @@
       <c r="T48" s="9"/>
       <c r="U48" s="9"/>
       <c r="V48" s="9"/>
-    </row>
-    <row r="49" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W48" s="9"/>
+      <c r="X48" s="9"/>
+    </row>
+    <row r="49" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -3326,8 +3400,10 @@
       <c r="T49" s="9"/>
       <c r="U49" s="9"/>
       <c r="V49" s="9"/>
-    </row>
-    <row r="50" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W49" s="9"/>
+      <c r="X49" s="9"/>
+    </row>
+    <row r="50" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -3350,8 +3426,10 @@
       <c r="T50" s="9"/>
       <c r="U50" s="9"/>
       <c r="V50" s="9"/>
-    </row>
-    <row r="51" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W50" s="9"/>
+      <c r="X50" s="9"/>
+    </row>
+    <row r="51" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -3374,8 +3452,10 @@
       <c r="T51" s="9"/>
       <c r="U51" s="9"/>
       <c r="V51" s="9"/>
-    </row>
-    <row r="52" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W51" s="9"/>
+      <c r="X51" s="9"/>
+    </row>
+    <row r="52" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -3398,8 +3478,10 @@
       <c r="T52" s="9"/>
       <c r="U52" s="9"/>
       <c r="V52" s="9"/>
-    </row>
-    <row r="53" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W52" s="9"/>
+      <c r="X52" s="9"/>
+    </row>
+    <row r="53" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -3422,8 +3504,10 @@
       <c r="T53" s="9"/>
       <c r="U53" s="9"/>
       <c r="V53" s="9"/>
-    </row>
-    <row r="54" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W53" s="9"/>
+      <c r="X53" s="9"/>
+    </row>
+    <row r="54" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -3446,8 +3530,10 @@
       <c r="T54" s="9"/>
       <c r="U54" s="9"/>
       <c r="V54" s="9"/>
-    </row>
-    <row r="55" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W54" s="9"/>
+      <c r="X54" s="9"/>
+    </row>
+    <row r="55" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -3470,8 +3556,10 @@
       <c r="T55" s="9"/>
       <c r="U55" s="9"/>
       <c r="V55" s="9"/>
-    </row>
-    <row r="56" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W55" s="9"/>
+      <c r="X55" s="9"/>
+    </row>
+    <row r="56" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -3494,8 +3582,10 @@
       <c r="T56" s="9"/>
       <c r="U56" s="9"/>
       <c r="V56" s="9"/>
-    </row>
-    <row r="57" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W56" s="9"/>
+      <c r="X56" s="9"/>
+    </row>
+    <row r="57" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -3518,8 +3608,10 @@
       <c r="T57" s="9"/>
       <c r="U57" s="9"/>
       <c r="V57" s="9"/>
-    </row>
-    <row r="58" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W57" s="9"/>
+      <c r="X57" s="9"/>
+    </row>
+    <row r="58" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -3542,8 +3634,10 @@
       <c r="T58" s="9"/>
       <c r="U58" s="9"/>
       <c r="V58" s="9"/>
-    </row>
-    <row r="59" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W58" s="9"/>
+      <c r="X58" s="9"/>
+    </row>
+    <row r="59" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -3566,8 +3660,10 @@
       <c r="T59" s="9"/>
       <c r="U59" s="9"/>
       <c r="V59" s="9"/>
-    </row>
-    <row r="60" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W59" s="9"/>
+      <c r="X59" s="9"/>
+    </row>
+    <row r="60" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -3590,8 +3686,10 @@
       <c r="T60" s="9"/>
       <c r="U60" s="9"/>
       <c r="V60" s="9"/>
-    </row>
-    <row r="61" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W60" s="9"/>
+      <c r="X60" s="9"/>
+    </row>
+    <row r="61" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -3614,8 +3712,10 @@
       <c r="T61" s="9"/>
       <c r="U61" s="9"/>
       <c r="V61" s="9"/>
-    </row>
-    <row r="62" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W61" s="9"/>
+      <c r="X61" s="9"/>
+    </row>
+    <row r="62" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -3638,8 +3738,10 @@
       <c r="T62" s="9"/>
       <c r="U62" s="9"/>
       <c r="V62" s="9"/>
-    </row>
-    <row r="63" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W62" s="9"/>
+      <c r="X62" s="9"/>
+    </row>
+    <row r="63" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -3662,8 +3764,10 @@
       <c r="T63" s="9"/>
       <c r="U63" s="9"/>
       <c r="V63" s="9"/>
-    </row>
-    <row r="64" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W63" s="9"/>
+      <c r="X63" s="9"/>
+    </row>
+    <row r="64" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -3686,8 +3790,10 @@
       <c r="T64" s="9"/>
       <c r="U64" s="9"/>
       <c r="V64" s="9"/>
-    </row>
-    <row r="65" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W64" s="9"/>
+      <c r="X64" s="9"/>
+    </row>
+    <row r="65" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -3710,8 +3816,10 @@
       <c r="T65" s="9"/>
       <c r="U65" s="9"/>
       <c r="V65" s="9"/>
-    </row>
-    <row r="66" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W65" s="9"/>
+      <c r="X65" s="9"/>
+    </row>
+    <row r="66" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -3734,8 +3842,10 @@
       <c r="T66" s="9"/>
       <c r="U66" s="9"/>
       <c r="V66" s="9"/>
-    </row>
-    <row r="67" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W66" s="9"/>
+      <c r="X66" s="9"/>
+    </row>
+    <row r="67" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -3758,8 +3868,10 @@
       <c r="T67" s="9"/>
       <c r="U67" s="9"/>
       <c r="V67" s="9"/>
-    </row>
-    <row r="68" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W67" s="9"/>
+      <c r="X67" s="9"/>
+    </row>
+    <row r="68" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -3782,8 +3894,10 @@
       <c r="T68" s="9"/>
       <c r="U68" s="9"/>
       <c r="V68" s="9"/>
-    </row>
-    <row r="69" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W68" s="9"/>
+      <c r="X68" s="9"/>
+    </row>
+    <row r="69" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -3806,8 +3920,10 @@
       <c r="T69" s="9"/>
       <c r="U69" s="9"/>
       <c r="V69" s="9"/>
-    </row>
-    <row r="70" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W69" s="9"/>
+      <c r="X69" s="9"/>
+    </row>
+    <row r="70" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -3830,8 +3946,10 @@
       <c r="T70" s="9"/>
       <c r="U70" s="9"/>
       <c r="V70" s="9"/>
-    </row>
-    <row r="71" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W70" s="9"/>
+      <c r="X70" s="9"/>
+    </row>
+    <row r="71" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -3854,8 +3972,10 @@
       <c r="T71" s="9"/>
       <c r="U71" s="9"/>
       <c r="V71" s="9"/>
-    </row>
-    <row r="72" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W71" s="9"/>
+      <c r="X71" s="9"/>
+    </row>
+    <row r="72" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -3878,8 +3998,10 @@
       <c r="T72" s="9"/>
       <c r="U72" s="9"/>
       <c r="V72" s="9"/>
-    </row>
-    <row r="73" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W72" s="9"/>
+      <c r="X72" s="9"/>
+    </row>
+    <row r="73" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -3902,8 +4024,10 @@
       <c r="T73" s="9"/>
       <c r="U73" s="9"/>
       <c r="V73" s="9"/>
-    </row>
-    <row r="74" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W73" s="9"/>
+      <c r="X73" s="9"/>
+    </row>
+    <row r="74" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -3926,8 +4050,10 @@
       <c r="T74" s="9"/>
       <c r="U74" s="9"/>
       <c r="V74" s="9"/>
-    </row>
-    <row r="75" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W74" s="9"/>
+      <c r="X74" s="9"/>
+    </row>
+    <row r="75" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -3950,8 +4076,10 @@
       <c r="T75" s="9"/>
       <c r="U75" s="9"/>
       <c r="V75" s="9"/>
-    </row>
-    <row r="76" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W75" s="9"/>
+      <c r="X75" s="9"/>
+    </row>
+    <row r="76" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -3974,41 +4102,19 @@
       <c r="T76" s="9"/>
       <c r="U76" s="9"/>
       <c r="V76" s="9"/>
-    </row>
-    <row r="77" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="8"/>
-      <c r="B77" s="8"/>
-      <c r="C77" s="8"/>
-      <c r="D77" s="8"/>
-      <c r="E77" s="8"/>
-      <c r="F77" s="8"/>
-      <c r="G77" s="8"/>
-      <c r="H77" s="9"/>
-      <c r="I77" s="9"/>
-      <c r="J77" s="9"/>
-      <c r="K77" s="9"/>
-      <c r="L77" s="9"/>
-      <c r="M77" s="9"/>
-      <c r="N77" s="9"/>
-      <c r="O77" s="9"/>
-      <c r="P77" s="9"/>
-      <c r="Q77" s="9"/>
-      <c r="R77" s="9"/>
-      <c r="S77" s="9"/>
-      <c r="T77" s="9"/>
-      <c r="U77" s="9"/>
-      <c r="V77" s="9"/>
+      <c r="W76" s="9"/>
+      <c r="X76" s="9"/>
     </row>
   </sheetData>
-  <sortState ref="A3:Z33">
-    <sortCondition descending="1" ref="Y3"/>
+  <sortState ref="A3:AB33">
+    <sortCondition descending="1" ref="AA3"/>
   </sortState>
   <mergeCells count="3">
-    <mergeCell ref="T1:V1"/>
-    <mergeCell ref="D1:K1"/>
-    <mergeCell ref="L1:S1"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="T1:W1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D3:J31">
+  <conditionalFormatting sqref="D3:J30">
     <cfRule type="cellIs" dxfId="21" priority="19" operator="between">
       <formula>0.1</formula>
       <formula>1.99</formula>
@@ -4020,7 +4126,7 @@
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L3:R31 W3:X31">
+  <conditionalFormatting sqref="L3:R30 Y3:Z30">
     <cfRule type="cellIs" dxfId="18" priority="10" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
@@ -4037,7 +4143,7 @@
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T3:U31">
+  <conditionalFormatting sqref="T3:W30">
     <cfRule type="cellIs" dxfId="14" priority="6" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
@@ -4054,8 +4160,8 @@
       <formula>200</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K3:K31">
-    <cfRule type="dataBar" priority="145">
+  <conditionalFormatting sqref="K3:K30">
+    <cfRule type="dataBar" priority="182">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4068,8 +4174,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S3:S31">
-    <cfRule type="dataBar" priority="147">
+  <conditionalFormatting sqref="S3:S30">
+    <cfRule type="dataBar" priority="184">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4082,8 +4188,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V3:V31">
-    <cfRule type="dataBar" priority="149">
+  <conditionalFormatting sqref="X3:X30">
+    <cfRule type="dataBar" priority="186">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4096,8 +4202,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y3:Y31">
-    <cfRule type="dataBar" priority="151">
+  <conditionalFormatting sqref="AA3:AA30">
+    <cfRule type="dataBar" priority="188">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4125,7 +4231,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>K3:K31</xm:sqref>
+          <xm:sqref>K3:K30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C1E54EB9-FD52-4CFD-8B29-7F3B7B6681D5}">
@@ -4136,7 +4242,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>S3:S31</xm:sqref>
+          <xm:sqref>S3:S30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{03C5F189-3F43-4B84-A0F5-49F108E9F2B6}">
@@ -4147,7 +4253,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>V3:V31</xm:sqref>
+          <xm:sqref>X3:X30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{43DC70F4-8291-4430-AFF0-577FC5E79CD9}">
@@ -4158,7 +4264,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>Y3:Y31</xm:sqref>
+          <xm:sqref>AA3:AA30</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -4174,8 +4280,8 @@
   <dimension ref="A1:S81"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V34" sqref="V34"/>
+      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:S33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4204,7 +4310,7 @@
       <c r="C1" s="34"/>
       <c r="D1" s="40"/>
       <c r="E1" s="45" t="s">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="F1" s="46"/>
       <c r="G1" s="46"/>
@@ -4212,7 +4318,7 @@
       <c r="I1" s="46"/>
       <c r="J1" s="47"/>
       <c r="K1" s="45" t="s">
-        <v>107</v>
+        <v>45</v>
       </c>
       <c r="L1" s="46"/>
       <c r="M1" s="46"/>
@@ -4220,18 +4326,18 @@
       <c r="O1" s="46"/>
       <c r="P1" s="47"/>
       <c r="Q1" s="33" t="s">
-        <v>108</v>
+        <v>46</v>
       </c>
       <c r="R1" s="19" t="s">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="S1" s="19" t="s">
-        <v>104</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:19" s="5" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>0</v>
@@ -4240,7 +4346,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="E2" s="37">
         <v>1</v>
@@ -4258,7 +4364,7 @@
         <v>5</v>
       </c>
       <c r="J2" s="28" t="s">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="K2" s="26">
         <v>1</v>
@@ -4276,1999 +4382,668 @@
         <v>5</v>
       </c>
       <c r="P2" s="28" t="s">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="Q2" s="26" t="s">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="R2" s="19" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="S2" s="19" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="D3" s="21">
-        <v>100.34166666666667</v>
-      </c>
-      <c r="E3" s="38">
-        <v>1.4</v>
-      </c>
-      <c r="F3" s="7">
-        <v>1.4</v>
-      </c>
-      <c r="G3" s="7">
-        <v>2</v>
-      </c>
-      <c r="H3" s="7">
-        <v>1.4</v>
-      </c>
-      <c r="I3" s="7">
-        <v>1.3</v>
-      </c>
-      <c r="J3" s="16">
-        <f t="shared" ref="J3:J33" si="0">100*SUM(E3:I3)/(2*A$1)</f>
-        <v>74.999999999999986</v>
-      </c>
-      <c r="K3" s="14">
-        <v>75</v>
-      </c>
-      <c r="L3" s="6">
-        <v>75</v>
-      </c>
-      <c r="M3" s="6">
-        <v>100</v>
-      </c>
-      <c r="N3" s="6">
-        <v>75</v>
-      </c>
-      <c r="O3" s="6">
-        <f>I3*62</f>
-        <v>80.600000000000009</v>
-      </c>
-      <c r="P3" s="16">
-        <f t="shared" ref="P3:P33" si="1">SUM(K3:O3)/(A$1)</f>
-        <v>81.12</v>
-      </c>
-      <c r="Q3" s="6">
-        <v>120</v>
-      </c>
-      <c r="R3" s="21">
-        <f t="shared" ref="R3:R20" si="2">IF(J3*0.2+P3*0.3+Q3*0.5+25&gt;100,100,J3*0.2+P3*0.3+Q3*0.5+25)</f>
-        <v>100</v>
-      </c>
-      <c r="S3" s="21">
-        <f t="shared" ref="S3:S33" si="3">D3*0.4+R3*0.6</f>
-        <v>100.13666666666667</v>
-      </c>
+      <c r="A3" s="20"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
     </row>
     <row r="4" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" s="21">
-        <v>96.333333333333329</v>
-      </c>
-      <c r="E4" s="38">
-        <v>2</v>
-      </c>
-      <c r="F4" s="7">
-        <v>2</v>
-      </c>
-      <c r="G4" s="7">
-        <v>2</v>
-      </c>
-      <c r="H4" s="7">
-        <v>2</v>
-      </c>
-      <c r="I4" s="7">
-        <v>2</v>
-      </c>
-      <c r="J4" s="16">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="K4" s="14">
-        <v>95</v>
-      </c>
-      <c r="L4" s="6">
-        <v>100</v>
-      </c>
-      <c r="M4" s="6">
-        <v>100</v>
-      </c>
-      <c r="N4" s="6">
-        <v>100</v>
-      </c>
-      <c r="O4" s="6">
-        <f>I4*47</f>
-        <v>94</v>
-      </c>
-      <c r="P4" s="16">
-        <f t="shared" si="1"/>
-        <v>97.8</v>
-      </c>
-      <c r="Q4" s="6">
-        <v>115</v>
-      </c>
-      <c r="R4" s="21">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="S4" s="21">
-        <f t="shared" si="3"/>
-        <v>98.533333333333331</v>
-      </c>
+      <c r="A4" s="20"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
     </row>
     <row r="5" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="21">
-        <v>90.866666666666674</v>
-      </c>
-      <c r="E5" s="38">
-        <v>2</v>
-      </c>
-      <c r="F5" s="7">
-        <v>2</v>
-      </c>
-      <c r="G5" s="7">
-        <v>2</v>
-      </c>
-      <c r="H5" s="7">
-        <v>2</v>
-      </c>
-      <c r="I5" s="7">
-        <v>1.9</v>
-      </c>
-      <c r="J5" s="16">
-        <f t="shared" si="0"/>
-        <v>99</v>
-      </c>
-      <c r="K5" s="14">
-        <v>90</v>
-      </c>
-      <c r="L5" s="6">
-        <v>100</v>
-      </c>
-      <c r="M5" s="6">
-        <v>100</v>
-      </c>
-      <c r="N5" s="6">
-        <v>100</v>
-      </c>
-      <c r="O5" s="6">
-        <f>I5*51</f>
-        <v>96.899999999999991</v>
-      </c>
-      <c r="P5" s="16">
-        <f t="shared" si="1"/>
-        <v>97.38</v>
-      </c>
-      <c r="Q5" s="6">
-        <v>60</v>
-      </c>
-      <c r="R5" s="21">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="S5" s="21">
-        <f t="shared" si="3"/>
-        <v>96.346666666666664</v>
-      </c>
+      <c r="A5" s="20"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
     </row>
     <row r="6" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="21">
-        <v>84.85</v>
-      </c>
-      <c r="E6" s="38">
-        <v>0</v>
-      </c>
-      <c r="F6" s="7">
-        <v>2</v>
-      </c>
-      <c r="G6" s="7">
-        <v>2</v>
-      </c>
-      <c r="H6" s="7">
-        <v>2</v>
-      </c>
-      <c r="I6" s="7">
-        <v>2</v>
-      </c>
-      <c r="J6" s="16">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="K6" s="14">
-        <v>0</v>
-      </c>
-      <c r="L6" s="6">
-        <v>100</v>
-      </c>
-      <c r="M6" s="6">
-        <v>100</v>
-      </c>
-      <c r="N6" s="6">
-        <v>100</v>
-      </c>
-      <c r="O6" s="6">
-        <f t="shared" ref="O6:O16" si="4">I6*47</f>
-        <v>94</v>
-      </c>
-      <c r="P6" s="16">
-        <f t="shared" si="1"/>
-        <v>78.8</v>
-      </c>
-      <c r="Q6" s="6">
-        <v>70</v>
-      </c>
-      <c r="R6" s="21">
-        <f t="shared" si="2"/>
-        <v>99.64</v>
-      </c>
-      <c r="S6" s="21">
-        <f t="shared" si="3"/>
-        <v>93.72399999999999</v>
-      </c>
+      <c r="A6" s="20"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
     </row>
     <row r="7" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="21">
-        <v>83.98333333333332</v>
-      </c>
-      <c r="E7" s="38">
-        <v>1.9</v>
-      </c>
-      <c r="F7" s="7">
-        <v>2</v>
-      </c>
-      <c r="G7" s="7">
-        <v>2</v>
-      </c>
-      <c r="H7" s="7">
-        <v>2</v>
-      </c>
-      <c r="I7" s="7">
-        <v>1.8</v>
-      </c>
-      <c r="J7" s="16">
-        <f t="shared" si="0"/>
-        <v>97.000000000000014</v>
-      </c>
-      <c r="K7" s="14">
-        <v>85</v>
-      </c>
-      <c r="L7" s="6">
-        <v>100</v>
-      </c>
-      <c r="M7" s="6">
-        <v>100</v>
-      </c>
-      <c r="N7" s="6">
-        <v>100</v>
-      </c>
-      <c r="O7" s="6">
-        <f t="shared" si="4"/>
-        <v>84.600000000000009</v>
-      </c>
-      <c r="P7" s="16">
-        <f t="shared" si="1"/>
-        <v>93.92</v>
-      </c>
-      <c r="Q7" s="6">
-        <v>70</v>
-      </c>
-      <c r="R7" s="21">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="S7" s="21">
-        <f t="shared" si="3"/>
-        <v>93.593333333333334</v>
-      </c>
+      <c r="A7" s="20"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
     </row>
     <row r="8" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="D8" s="21">
-        <v>83.98333333333332</v>
-      </c>
-      <c r="E8" s="38">
-        <v>1</v>
-      </c>
-      <c r="F8" s="7">
-        <v>2</v>
-      </c>
-      <c r="G8" s="7">
-        <v>2</v>
-      </c>
-      <c r="H8" s="7">
-        <v>2</v>
-      </c>
-      <c r="I8" s="7">
-        <v>1.9</v>
-      </c>
-      <c r="J8" s="16">
-        <f t="shared" si="0"/>
-        <v>89</v>
-      </c>
-      <c r="K8" s="14">
-        <v>85</v>
-      </c>
-      <c r="L8" s="6">
-        <v>100</v>
-      </c>
-      <c r="M8" s="6">
-        <v>100</v>
-      </c>
-      <c r="N8" s="6">
-        <v>100</v>
-      </c>
-      <c r="O8" s="6">
-        <f t="shared" si="4"/>
-        <v>89.3</v>
-      </c>
-      <c r="P8" s="16">
-        <f t="shared" si="1"/>
-        <v>94.86</v>
-      </c>
-      <c r="Q8" s="6">
-        <v>70</v>
-      </c>
-      <c r="R8" s="21">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="S8" s="21">
-        <f t="shared" si="3"/>
-        <v>93.593333333333334</v>
-      </c>
+      <c r="A8" s="20"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
     </row>
     <row r="9" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="D9" s="21">
-        <v>90.766666666666666</v>
-      </c>
-      <c r="E9" s="38">
-        <v>0</v>
-      </c>
-      <c r="F9" s="7">
-        <v>0</v>
-      </c>
-      <c r="G9" s="7">
-        <v>2</v>
-      </c>
-      <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7">
-        <v>0</v>
-      </c>
-      <c r="J9" s="16">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="K9" s="14">
-        <v>0</v>
-      </c>
-      <c r="L9" s="6">
-        <v>0</v>
-      </c>
-      <c r="M9" s="6">
-        <v>100</v>
-      </c>
-      <c r="N9" s="6">
-        <v>0</v>
-      </c>
-      <c r="O9" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P9" s="16">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="Q9" s="6">
-        <v>108</v>
-      </c>
-      <c r="R9" s="21">
-        <f t="shared" si="2"/>
-        <v>89</v>
-      </c>
-      <c r="S9" s="21">
-        <f t="shared" si="3"/>
-        <v>89.706666666666663</v>
-      </c>
+      <c r="A9" s="20"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
     </row>
     <row r="10" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="21">
-        <v>72.858333333333334</v>
-      </c>
-      <c r="E10" s="38">
-        <v>2</v>
-      </c>
-      <c r="F10" s="7">
-        <v>2</v>
-      </c>
-      <c r="G10" s="7">
-        <v>2</v>
-      </c>
-      <c r="H10" s="7">
-        <v>2</v>
-      </c>
-      <c r="I10" s="7">
-        <v>2</v>
-      </c>
-      <c r="J10" s="16">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="K10" s="14">
-        <v>70</v>
-      </c>
-      <c r="L10" s="6">
-        <v>100</v>
-      </c>
-      <c r="M10" s="6">
-        <v>100</v>
-      </c>
-      <c r="N10" s="6">
-        <v>100</v>
-      </c>
-      <c r="O10" s="6">
-        <f t="shared" si="4"/>
-        <v>94</v>
-      </c>
-      <c r="P10" s="16">
-        <f t="shared" si="1"/>
-        <v>92.8</v>
-      </c>
-      <c r="Q10" s="6">
-        <v>75</v>
-      </c>
-      <c r="R10" s="21">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="S10" s="21">
-        <f t="shared" si="3"/>
-        <v>89.143333333333331</v>
-      </c>
+      <c r="A10" s="20"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
     </row>
     <row r="11" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="21">
-        <v>75.38333333333334</v>
-      </c>
-      <c r="E11" s="38">
-        <v>2</v>
-      </c>
-      <c r="F11" s="7">
-        <v>2</v>
-      </c>
-      <c r="G11" s="7">
-        <v>2</v>
-      </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7">
-        <v>2</v>
-      </c>
-      <c r="J11" s="16">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="K11" s="14">
-        <v>65</v>
-      </c>
-      <c r="L11" s="6">
-        <v>100</v>
-      </c>
-      <c r="M11" s="6">
-        <v>100</v>
-      </c>
-      <c r="N11" s="6">
-        <v>0</v>
-      </c>
-      <c r="O11" s="6">
-        <f t="shared" si="4"/>
-        <v>94</v>
-      </c>
-      <c r="P11" s="16">
-        <f t="shared" si="1"/>
-        <v>71.8</v>
-      </c>
-      <c r="Q11" s="6">
-        <v>70</v>
-      </c>
-      <c r="R11" s="21">
-        <f t="shared" si="2"/>
-        <v>97.539999999999992</v>
-      </c>
-      <c r="S11" s="21">
-        <f t="shared" si="3"/>
-        <v>88.677333333333337</v>
-      </c>
+      <c r="A11" s="20"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
     </row>
     <row r="12" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="21">
-        <v>68.375</v>
-      </c>
-      <c r="E12" s="38">
-        <v>2</v>
-      </c>
-      <c r="F12" s="7">
-        <v>2</v>
-      </c>
-      <c r="G12" s="7">
-        <v>2</v>
-      </c>
-      <c r="H12" s="7">
-        <v>2</v>
-      </c>
-      <c r="I12" s="7">
-        <v>2</v>
-      </c>
-      <c r="J12" s="16">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="K12" s="14">
-        <v>95</v>
-      </c>
-      <c r="L12" s="6">
-        <v>100</v>
-      </c>
-      <c r="M12" s="6">
-        <v>100</v>
-      </c>
-      <c r="N12" s="6">
-        <v>100</v>
-      </c>
-      <c r="O12" s="6">
-        <f t="shared" si="4"/>
-        <v>94</v>
-      </c>
-      <c r="P12" s="16">
-        <f t="shared" si="1"/>
-        <v>97.8</v>
-      </c>
-      <c r="Q12" s="6">
-        <v>50</v>
-      </c>
-      <c r="R12" s="21">
-        <f t="shared" si="2"/>
-        <v>99.34</v>
-      </c>
-      <c r="S12" s="21">
-        <f t="shared" si="3"/>
-        <v>86.954000000000008</v>
-      </c>
+      <c r="A12" s="20"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="21"/>
     </row>
     <row r="13" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="21">
-        <v>59.625</v>
-      </c>
-      <c r="E13" s="38">
-        <v>2</v>
-      </c>
-      <c r="F13" s="7">
-        <v>2</v>
-      </c>
-      <c r="G13" s="7">
-        <v>2</v>
-      </c>
-      <c r="H13" s="7">
-        <v>2</v>
-      </c>
-      <c r="I13" s="7">
-        <v>2</v>
-      </c>
-      <c r="J13" s="16">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="K13" s="14">
-        <v>85</v>
-      </c>
-      <c r="L13" s="6">
-        <v>100</v>
-      </c>
-      <c r="M13" s="6">
-        <v>100</v>
-      </c>
-      <c r="N13" s="6">
-        <v>90</v>
-      </c>
-      <c r="O13" s="6">
-        <f t="shared" si="4"/>
-        <v>94</v>
-      </c>
-      <c r="P13" s="16">
-        <f t="shared" si="1"/>
-        <v>93.8</v>
-      </c>
-      <c r="Q13" s="6">
-        <v>60</v>
-      </c>
-      <c r="R13" s="21">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="S13" s="21">
-        <f t="shared" si="3"/>
-        <v>83.85</v>
-      </c>
+      <c r="A13" s="20"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
     </row>
     <row r="14" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="21">
-        <v>51.533333333333331</v>
-      </c>
-      <c r="E14" s="38">
-        <v>2</v>
-      </c>
-      <c r="F14" s="7">
-        <v>2</v>
-      </c>
-      <c r="G14" s="7">
-        <v>2</v>
-      </c>
-      <c r="H14" s="7">
-        <v>2</v>
-      </c>
-      <c r="I14" s="7">
-        <v>2</v>
-      </c>
-      <c r="J14" s="16">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="K14" s="14">
-        <v>85</v>
-      </c>
-      <c r="L14" s="6">
-        <v>100</v>
-      </c>
-      <c r="M14" s="6">
-        <v>100</v>
-      </c>
-      <c r="N14" s="6">
-        <v>90</v>
-      </c>
-      <c r="O14" s="6">
-        <f t="shared" si="4"/>
-        <v>94</v>
-      </c>
-      <c r="P14" s="16">
-        <f t="shared" si="1"/>
-        <v>93.8</v>
-      </c>
-      <c r="Q14" s="6">
-        <v>60</v>
-      </c>
-      <c r="R14" s="21">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="S14" s="21">
-        <f t="shared" si="3"/>
-        <v>80.61333333333333</v>
-      </c>
+      <c r="A14" s="20"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
     </row>
     <row r="15" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="21">
-        <v>38.891666666666673</v>
-      </c>
-      <c r="E15" s="38">
-        <v>2</v>
-      </c>
-      <c r="F15" s="7">
-        <v>2</v>
-      </c>
-      <c r="G15" s="7">
-        <v>2</v>
-      </c>
-      <c r="H15" s="7">
-        <v>2</v>
-      </c>
-      <c r="I15" s="7">
-        <v>2</v>
-      </c>
-      <c r="J15" s="16">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="K15" s="14">
-        <v>70</v>
-      </c>
-      <c r="L15" s="6">
-        <v>100</v>
-      </c>
-      <c r="M15" s="6">
-        <v>100</v>
-      </c>
-      <c r="N15" s="6">
-        <v>100</v>
-      </c>
-      <c r="O15" s="6">
-        <f t="shared" si="4"/>
-        <v>94</v>
-      </c>
-      <c r="P15" s="16">
-        <f t="shared" si="1"/>
-        <v>92.8</v>
-      </c>
-      <c r="Q15" s="6">
-        <v>70</v>
-      </c>
-      <c r="R15" s="21">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="S15" s="21">
-        <f t="shared" si="3"/>
-        <v>75.556666666666672</v>
-      </c>
+      <c r="A15" s="20"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
     </row>
     <row r="16" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="21">
-        <v>59.833333333333336</v>
-      </c>
-      <c r="E16" s="38">
-        <v>2</v>
-      </c>
-      <c r="F16" s="7">
-        <v>2</v>
-      </c>
-      <c r="G16" s="7">
-        <v>2</v>
-      </c>
-      <c r="H16" s="7">
-        <v>2</v>
-      </c>
-      <c r="I16" s="7">
-        <v>2</v>
-      </c>
-      <c r="J16" s="16">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="K16" s="14">
-        <v>70</v>
-      </c>
-      <c r="L16" s="6">
-        <v>100</v>
-      </c>
-      <c r="M16" s="6">
-        <v>100</v>
-      </c>
-      <c r="N16" s="6">
-        <v>90</v>
-      </c>
-      <c r="O16" s="6">
-        <f t="shared" si="4"/>
-        <v>94</v>
-      </c>
-      <c r="P16" s="16">
-        <f t="shared" si="1"/>
-        <v>90.8</v>
-      </c>
-      <c r="Q16" s="6">
-        <v>0</v>
-      </c>
-      <c r="R16" s="21">
-        <f t="shared" si="2"/>
-        <v>72.239999999999995</v>
-      </c>
-      <c r="S16" s="21">
-        <f t="shared" si="3"/>
-        <v>67.277333333333331</v>
-      </c>
+      <c r="A16" s="20"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
     </row>
     <row r="17" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C17" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="D17" s="21">
-        <v>49.333333333333336</v>
-      </c>
-      <c r="E17" s="38">
-        <v>0</v>
-      </c>
-      <c r="F17" s="7">
-        <v>0</v>
-      </c>
-      <c r="G17" s="7">
-        <v>0</v>
-      </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K17" s="14">
-        <v>0</v>
-      </c>
-      <c r="L17" s="6">
-        <v>0</v>
-      </c>
-      <c r="M17" s="6">
-        <v>0</v>
-      </c>
-      <c r="N17" s="6">
-        <v>0</v>
-      </c>
-      <c r="O17" s="6">
-        <f>I17*35</f>
-        <v>0</v>
-      </c>
-      <c r="P17" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q17" s="6">
-        <v>90</v>
-      </c>
-      <c r="R17" s="21">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-      <c r="S17" s="21">
-        <f t="shared" si="3"/>
-        <v>61.733333333333334</v>
-      </c>
+      <c r="A17" s="20"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="21"/>
     </row>
     <row r="18" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="21">
-        <v>47.125</v>
-      </c>
-      <c r="E18" s="38">
-        <v>2</v>
-      </c>
-      <c r="F18" s="7">
-        <v>2</v>
-      </c>
-      <c r="G18" s="7">
-        <v>2</v>
-      </c>
-      <c r="H18" s="7">
-        <v>0</v>
-      </c>
-      <c r="I18" s="7">
-        <v>0</v>
-      </c>
-      <c r="J18" s="16">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="K18" s="14">
-        <v>55</v>
-      </c>
-      <c r="L18" s="6">
-        <v>100</v>
-      </c>
-      <c r="M18" s="6">
-        <v>100</v>
-      </c>
-      <c r="N18" s="6">
-        <v>0</v>
-      </c>
-      <c r="O18" s="6">
-        <f>I18*47</f>
-        <v>0</v>
-      </c>
-      <c r="P18" s="16">
-        <f t="shared" si="1"/>
-        <v>51</v>
-      </c>
-      <c r="Q18" s="6">
-        <v>35</v>
-      </c>
-      <c r="R18" s="21">
-        <f t="shared" si="2"/>
-        <v>69.8</v>
-      </c>
-      <c r="S18" s="21">
-        <f t="shared" si="3"/>
-        <v>60.73</v>
-      </c>
+      <c r="A18" s="20"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="21"/>
+      <c r="S18" s="21"/>
     </row>
     <row r="19" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="21">
-        <v>41.041666666666664</v>
-      </c>
-      <c r="E19" s="38">
-        <v>2</v>
-      </c>
-      <c r="F19" s="42">
-        <v>0</v>
-      </c>
-      <c r="G19" s="7">
-        <v>0</v>
-      </c>
-      <c r="H19" s="7">
-        <v>2</v>
-      </c>
-      <c r="I19" s="7">
-        <v>2</v>
-      </c>
-      <c r="J19" s="16">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="K19" s="14">
-        <v>70</v>
-      </c>
-      <c r="L19" s="6">
-        <v>0</v>
-      </c>
-      <c r="M19" s="6">
-        <v>0</v>
-      </c>
-      <c r="N19" s="6">
-        <v>90</v>
-      </c>
-      <c r="O19" s="6">
-        <f>I19*47</f>
-        <v>94</v>
-      </c>
-      <c r="P19" s="16">
-        <f t="shared" si="1"/>
-        <v>50.8</v>
-      </c>
-      <c r="Q19" s="6">
-        <v>0</v>
-      </c>
-      <c r="R19" s="21">
-        <f t="shared" si="2"/>
-        <v>52.239999999999995</v>
-      </c>
-      <c r="S19" s="21">
-        <f t="shared" si="3"/>
-        <v>47.760666666666665</v>
-      </c>
+      <c r="A19" s="20"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="21"/>
+      <c r="S19" s="21"/>
     </row>
     <row r="20" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="21">
-        <v>31.208333333333336</v>
-      </c>
-      <c r="E20" s="38">
-        <v>1.9</v>
-      </c>
-      <c r="F20" s="7">
-        <v>0</v>
-      </c>
-      <c r="G20" s="7">
-        <v>2</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="16">
-        <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-      <c r="K20" s="14">
-        <v>60</v>
-      </c>
-      <c r="L20" s="6">
-        <v>0</v>
-      </c>
-      <c r="M20" s="6">
-        <v>100</v>
-      </c>
-      <c r="N20" s="6">
-        <v>90</v>
-      </c>
-      <c r="O20" s="6">
-        <f t="shared" ref="O20:O33" si="5">I20*35</f>
-        <v>0</v>
-      </c>
-      <c r="P20" s="16">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="Q20" s="6">
-        <v>0</v>
-      </c>
-      <c r="R20" s="21">
-        <f t="shared" si="2"/>
-        <v>51.8</v>
-      </c>
-      <c r="S20" s="21">
-        <f t="shared" si="3"/>
-        <v>43.563333333333333</v>
-      </c>
+      <c r="A20" s="20"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="21"/>
+      <c r="S20" s="21"/>
     </row>
     <row r="21" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="21">
-        <v>37.583333333333336</v>
-      </c>
-      <c r="E21" s="38">
-        <v>0</v>
-      </c>
-      <c r="F21" s="7">
-        <v>0</v>
-      </c>
-      <c r="G21" s="7">
-        <v>0</v>
-      </c>
-      <c r="H21" s="7">
-        <v>0</v>
-      </c>
-      <c r="I21" s="7">
-        <v>0</v>
-      </c>
-      <c r="J21" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="14">
-        <v>0</v>
-      </c>
-      <c r="L21" s="6">
-        <v>0</v>
-      </c>
-      <c r="M21" s="6">
-        <v>0</v>
-      </c>
-      <c r="N21" s="6">
-        <v>0</v>
-      </c>
-      <c r="O21" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P21" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q21" s="6">
-        <v>0</v>
-      </c>
-      <c r="R21" s="21">
-        <f t="shared" ref="R21:R33" si="6">J21*0.2+P21*0.3+Q21*0.5</f>
-        <v>0</v>
-      </c>
-      <c r="S21" s="21">
-        <f t="shared" si="3"/>
-        <v>15.033333333333335</v>
-      </c>
+      <c r="A21" s="20"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="21"/>
+      <c r="S21" s="21"/>
     </row>
     <row r="22" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="20"/>
-      <c r="B22" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C22" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="D22" s="21">
-        <v>11.25</v>
-      </c>
-      <c r="E22" s="38">
-        <v>0</v>
-      </c>
-      <c r="F22" s="7">
-        <v>0</v>
-      </c>
-      <c r="G22" s="7">
-        <v>0</v>
-      </c>
-      <c r="H22" s="7">
-        <v>0</v>
-      </c>
-      <c r="I22" s="7">
-        <v>0</v>
-      </c>
-      <c r="J22" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K22" s="14">
-        <v>0</v>
-      </c>
-      <c r="L22" s="6">
-        <v>0</v>
-      </c>
-      <c r="M22" s="6">
-        <v>0</v>
-      </c>
-      <c r="N22" s="6">
-        <v>0</v>
-      </c>
-      <c r="O22" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P22" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q22" s="6">
-        <v>0</v>
-      </c>
-      <c r="R22" s="21">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="S22" s="21">
-        <f t="shared" si="3"/>
-        <v>4.5</v>
-      </c>
+      <c r="B22" s="11"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="21"/>
+      <c r="S22" s="21"/>
     </row>
     <row r="23" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="21">
-        <v>7.7083333333333339</v>
-      </c>
-      <c r="E23" s="38">
-        <v>0</v>
-      </c>
-      <c r="F23" s="7">
-        <v>0</v>
-      </c>
-      <c r="G23" s="7">
-        <v>0</v>
-      </c>
-      <c r="H23" s="7">
-        <v>0</v>
-      </c>
-      <c r="I23" s="7">
-        <v>0</v>
-      </c>
-      <c r="J23" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K23" s="14">
-        <v>0</v>
-      </c>
-      <c r="L23" s="6">
-        <v>0</v>
-      </c>
-      <c r="M23" s="6">
-        <v>0</v>
-      </c>
-      <c r="N23" s="6">
-        <v>0</v>
-      </c>
-      <c r="O23" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P23" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q23" s="6">
-        <v>0</v>
-      </c>
-      <c r="R23" s="21">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="S23" s="21">
-        <f t="shared" si="3"/>
-        <v>3.0833333333333339</v>
-      </c>
+      <c r="A23" s="20"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="21"/>
+      <c r="S23" s="21"/>
     </row>
     <row r="24" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="21">
-        <v>7.5</v>
-      </c>
-      <c r="E24" s="38">
-        <v>0</v>
-      </c>
-      <c r="F24" s="7">
-        <v>0</v>
-      </c>
-      <c r="G24" s="7">
-        <v>0</v>
-      </c>
-      <c r="H24" s="7">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7">
-        <v>0</v>
-      </c>
-      <c r="J24" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K24" s="14">
-        <v>0</v>
-      </c>
-      <c r="L24" s="6">
-        <v>0</v>
-      </c>
-      <c r="M24" s="6">
-        <v>0</v>
-      </c>
-      <c r="N24" s="6">
-        <v>0</v>
-      </c>
-      <c r="O24" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P24" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q24" s="6">
-        <v>0</v>
-      </c>
-      <c r="R24" s="21">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="S24" s="21">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
+      <c r="A24" s="20"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="21"/>
+      <c r="S24" s="21"/>
     </row>
     <row r="25" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="21">
-        <v>5.8333333333333339</v>
-      </c>
-      <c r="E25" s="38">
-        <v>0</v>
-      </c>
-      <c r="F25" s="12">
-        <v>0</v>
-      </c>
-      <c r="G25" s="7">
-        <v>0</v>
-      </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7">
-        <v>0</v>
-      </c>
-      <c r="J25" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K25" s="14">
-        <v>0</v>
-      </c>
-      <c r="L25" s="6">
-        <v>0</v>
-      </c>
-      <c r="M25" s="6">
-        <v>0</v>
-      </c>
-      <c r="N25" s="6">
-        <v>0</v>
-      </c>
-      <c r="O25" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P25" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q25" s="6">
-        <v>0</v>
-      </c>
-      <c r="R25" s="21">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="S25" s="21">
-        <f t="shared" si="3"/>
-        <v>2.3333333333333335</v>
-      </c>
+      <c r="A25" s="20"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="21"/>
+      <c r="S25" s="21"/>
     </row>
     <row r="26" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" s="21">
-        <v>0</v>
-      </c>
-      <c r="E26" s="38">
-        <v>0</v>
-      </c>
-      <c r="F26" s="7">
-        <v>0</v>
-      </c>
-      <c r="G26" s="7">
-        <v>0</v>
-      </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7">
-        <v>0</v>
-      </c>
-      <c r="J26" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K26" s="14">
-        <v>0</v>
-      </c>
-      <c r="L26" s="6">
-        <v>0</v>
-      </c>
-      <c r="M26" s="6">
-        <v>0</v>
-      </c>
-      <c r="N26" s="6">
-        <v>0</v>
-      </c>
-      <c r="O26" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P26" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q26" s="6">
-        <v>0</v>
-      </c>
-      <c r="R26" s="21">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="S26" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="A26" s="20"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="21"/>
+      <c r="S26" s="21"/>
     </row>
     <row r="27" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" s="21">
-        <v>0</v>
-      </c>
-      <c r="E27" s="38">
-        <v>0</v>
-      </c>
-      <c r="F27" s="7">
-        <v>0</v>
-      </c>
-      <c r="G27" s="7">
-        <v>0</v>
-      </c>
-      <c r="H27" s="7">
-        <v>0</v>
-      </c>
-      <c r="I27" s="7">
-        <v>0</v>
-      </c>
-      <c r="J27" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K27" s="14">
-        <v>0</v>
-      </c>
-      <c r="L27" s="6">
-        <v>0</v>
-      </c>
-      <c r="M27" s="6">
-        <v>0</v>
-      </c>
-      <c r="N27" s="6">
-        <v>0</v>
-      </c>
-      <c r="O27" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P27" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q27" s="6">
-        <v>0</v>
-      </c>
-      <c r="R27" s="21">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="S27" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="A27" s="20"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="21"/>
+      <c r="S27" s="21"/>
     </row>
     <row r="28" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="21">
-        <v>0</v>
-      </c>
-      <c r="E28" s="38">
-        <v>0</v>
-      </c>
-      <c r="F28" s="7">
-        <v>0</v>
-      </c>
-      <c r="G28" s="7">
-        <v>0</v>
-      </c>
-      <c r="H28" s="7">
-        <v>0</v>
-      </c>
-      <c r="I28" s="7">
-        <v>0</v>
-      </c>
-      <c r="J28" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K28" s="14">
-        <v>0</v>
-      </c>
-      <c r="L28" s="6">
-        <v>0</v>
-      </c>
-      <c r="M28" s="6">
-        <v>0</v>
-      </c>
-      <c r="N28" s="6">
-        <v>0</v>
-      </c>
-      <c r="O28" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P28" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q28" s="6">
-        <v>0</v>
-      </c>
-      <c r="R28" s="21">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="S28" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="A28" s="20"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="21"/>
+      <c r="S28" s="21"/>
     </row>
     <row r="29" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C29" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="D29" s="21">
-        <v>0</v>
-      </c>
-      <c r="E29" s="38">
-        <v>0</v>
-      </c>
-      <c r="F29" s="7">
-        <v>0</v>
-      </c>
-      <c r="G29" s="7">
-        <v>0</v>
-      </c>
-      <c r="H29" s="7">
-        <v>0</v>
-      </c>
-      <c r="I29" s="7">
-        <v>0</v>
-      </c>
-      <c r="J29" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K29" s="14">
-        <v>0</v>
-      </c>
-      <c r="L29" s="6">
-        <v>0</v>
-      </c>
-      <c r="M29" s="6">
-        <v>0</v>
-      </c>
-      <c r="N29" s="6">
-        <v>0</v>
-      </c>
-      <c r="O29" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P29" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q29" s="6">
-        <v>0</v>
-      </c>
-      <c r="R29" s="21">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="S29" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="A29" s="20"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="21"/>
+      <c r="S29" s="21"/>
     </row>
     <row r="30" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="D30" s="21">
-        <v>0</v>
-      </c>
-      <c r="E30" s="38">
-        <v>0</v>
-      </c>
-      <c r="F30" s="7">
-        <v>0</v>
-      </c>
-      <c r="G30" s="7">
-        <v>0</v>
-      </c>
-      <c r="H30" s="7">
-        <v>0</v>
-      </c>
-      <c r="I30" s="7">
-        <v>0</v>
-      </c>
-      <c r="J30" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K30" s="14">
-        <v>0</v>
-      </c>
-      <c r="L30" s="6">
-        <v>0</v>
-      </c>
-      <c r="M30" s="6">
-        <v>0</v>
-      </c>
-      <c r="N30" s="6">
-        <v>0</v>
-      </c>
-      <c r="O30" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P30" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q30" s="6">
-        <v>0</v>
-      </c>
-      <c r="R30" s="21">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="S30" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="A30" s="20"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="21"/>
+      <c r="S30" s="21"/>
     </row>
     <row r="31" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C31" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="D31" s="21">
-        <v>0</v>
-      </c>
-      <c r="E31" s="38">
-        <v>0</v>
-      </c>
-      <c r="F31" s="7">
-        <v>0</v>
-      </c>
-      <c r="G31" s="7">
-        <v>0</v>
-      </c>
-      <c r="H31" s="7">
-        <v>0</v>
-      </c>
-      <c r="I31" s="7">
-        <v>0</v>
-      </c>
-      <c r="J31" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K31" s="14">
-        <v>0</v>
-      </c>
-      <c r="L31" s="6">
-        <v>0</v>
-      </c>
-      <c r="M31" s="6">
-        <v>0</v>
-      </c>
-      <c r="N31" s="6">
-        <v>0</v>
-      </c>
-      <c r="O31" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P31" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q31" s="6">
-        <v>0</v>
-      </c>
-      <c r="R31" s="21">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="S31" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="A31" s="20"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="21"/>
+      <c r="S31" s="21"/>
     </row>
     <row r="32" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="B32" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="C32" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="D32" s="21">
-        <v>0</v>
-      </c>
-      <c r="E32" s="38">
-        <v>0</v>
-      </c>
-      <c r="F32" s="7">
-        <v>0</v>
-      </c>
-      <c r="G32" s="7">
-        <v>0</v>
-      </c>
-      <c r="H32" s="7">
-        <v>0</v>
-      </c>
-      <c r="I32" s="7">
-        <v>0</v>
-      </c>
-      <c r="J32" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K32" s="14">
-        <v>0</v>
-      </c>
-      <c r="L32" s="6">
-        <v>0</v>
-      </c>
-      <c r="M32" s="6">
-        <v>0</v>
-      </c>
-      <c r="N32" s="6">
-        <v>0</v>
-      </c>
-      <c r="O32" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P32" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q32" s="6">
-        <v>0</v>
-      </c>
-      <c r="R32" s="21">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="S32" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="A32" s="31"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="21"/>
+      <c r="S32" s="21"/>
     </row>
     <row r="33" spans="1:19" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="B33" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="D33" s="21">
-        <v>0</v>
-      </c>
-      <c r="E33" s="39">
-        <v>0</v>
-      </c>
-      <c r="F33" s="13">
-        <v>0</v>
-      </c>
-      <c r="G33" s="7">
-        <v>0</v>
-      </c>
-      <c r="H33" s="7">
-        <v>0</v>
-      </c>
-      <c r="I33" s="13">
-        <v>0</v>
-      </c>
-      <c r="J33" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K33" s="14">
-        <v>0</v>
-      </c>
-      <c r="L33" s="6">
-        <v>0</v>
-      </c>
-      <c r="M33" s="6">
-        <v>0</v>
-      </c>
-      <c r="N33" s="15">
-        <v>0</v>
-      </c>
-      <c r="O33" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P33" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q33" s="6">
-        <v>0</v>
-      </c>
-      <c r="R33" s="21">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="S33" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="A33" s="22"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="21"/>
+      <c r="S33" s="21"/>
     </row>
     <row r="34" spans="1:19" s="9" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>

--- a/AdvancedJava/_docs/Notlar.xlsx
+++ b/AdvancedJava/_docs/Notlar.xlsx
@@ -365,7 +365,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -402,6 +402,18 @@
     <font>
       <sz val="8"/>
       <color indexed="81"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
       <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
@@ -743,7 +755,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -829,6 +841,18 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -838,18 +862,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="6" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1352,7 +1376,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y3" sqref="Y3"/>
+      <selection pane="bottomLeft" activeCell="AD24" sqref="AD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1382,37 +1406,37 @@
       <c r="A1" s="30"/>
       <c r="B1" s="18"/>
       <c r="C1" s="29"/>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="51">
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="46">
         <v>2</v>
       </c>
-      <c r="L1" s="45" t="s">
+      <c r="L1" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="48">
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="45">
         <v>1</v>
       </c>
-      <c r="T1" s="45" t="s">
+      <c r="T1" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="U1" s="46"/>
-      <c r="V1" s="46"/>
-      <c r="W1" s="46"/>
-      <c r="X1" s="48">
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="45">
         <v>1</v>
       </c>
       <c r="Y1" s="17" t="s">
@@ -1527,13 +1551,15 @@
       <c r="F3" s="7">
         <v>2</v>
       </c>
-      <c r="G3" s="7"/>
+      <c r="G3" s="7">
+        <v>2</v>
+      </c>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
       <c r="K3" s="16">
         <f>SUM(D3:J3)*50/K$1</f>
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="L3" s="14"/>
       <c r="M3" s="6"/>
@@ -1559,8 +1585,8 @@
       <c r="Y3" s="6"/>
       <c r="Z3" s="44"/>
       <c r="AA3" s="21">
-        <f t="shared" ref="AA3:AA25" si="0">K3*0.2+S3*0.25+X3*0.25+Y3*0.3+Z3*0.15</f>
-        <v>45</v>
+        <f>K3*0.2+S3*0.25+X3*0.25+Y3*0.3+Z3*0.15</f>
+        <v>55</v>
       </c>
       <c r="AB3" s="1" t="s">
         <v>37</v>
@@ -1585,13 +1611,15 @@
       <c r="F4" s="7">
         <v>2</v>
       </c>
-      <c r="G4" s="7"/>
+      <c r="G4" s="7">
+        <v>2</v>
+      </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="16">
-        <f t="shared" ref="K4:K30" si="1">SUM(D4:J4)*50/K$1</f>
-        <v>150</v>
+        <f>SUM(D4:J4)*50/K$1</f>
+        <v>200</v>
       </c>
       <c r="L4" s="14"/>
       <c r="M4" s="6"/>
@@ -1601,7 +1629,7 @@
       <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
       <c r="S4" s="16">
-        <f t="shared" ref="S4:S30" si="2">SUM(L4:R4)/S$1</f>
+        <f>SUM(L4:R4)/S$1</f>
         <v>0</v>
       </c>
       <c r="T4" s="14">
@@ -1611,14 +1639,14 @@
       <c r="V4" s="14"/>
       <c r="W4" s="14"/>
       <c r="X4" s="16">
-        <f t="shared" ref="X4:X30" si="3">SUM(T4:W4)/X$1</f>
+        <f>SUM(T4:W4)/X$1</f>
         <v>60</v>
       </c>
       <c r="Y4" s="6"/>
       <c r="Z4" s="44"/>
       <c r="AA4" s="21">
-        <f t="shared" si="0"/>
-        <v>45</v>
+        <f>K4*0.2+S4*0.25+X4*0.25+Y4*0.3+Z4*0.15</f>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1640,12 +1668,14 @@
       <c r="F5" s="7">
         <v>2</v>
       </c>
-      <c r="G5" s="7"/>
+      <c r="G5" s="7">
+        <v>0</v>
+      </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="16">
-        <f t="shared" si="1"/>
+        <f>SUM(D5:J5)*50/K$1</f>
         <v>150</v>
       </c>
       <c r="L5" s="14"/>
@@ -1656,7 +1686,7 @@
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
       <c r="S5" s="16">
-        <f t="shared" si="2"/>
+        <f>SUM(L5:R5)/S$1</f>
         <v>0</v>
       </c>
       <c r="T5" s="14">
@@ -1666,41 +1696,41 @@
       <c r="V5" s="14"/>
       <c r="W5" s="14"/>
       <c r="X5" s="16">
-        <f t="shared" si="3"/>
+        <f>SUM(T5:W5)/X$1</f>
         <v>60</v>
       </c>
       <c r="Y5" s="6"/>
       <c r="Z5" s="44"/>
       <c r="AA5" s="21">
-        <f t="shared" si="0"/>
+        <f>K5*0.2+S5*0.25+X5*0.25+Y5*0.3+Z5*0.15</f>
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="12">
-        <v>2</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="D6" s="12"/>
       <c r="E6" s="7">
         <v>2</v>
       </c>
       <c r="F6" s="7">
         <v>2</v>
       </c>
-      <c r="G6" s="7"/>
+      <c r="G6" s="7">
+        <v>2</v>
+      </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
       <c r="K6" s="16">
-        <f t="shared" si="1"/>
+        <f>SUM(D6:J6)*50/K$1</f>
         <v>150</v>
       </c>
       <c r="L6" s="14"/>
@@ -1711,49 +1741,51 @@
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
       <c r="S6" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T6" s="14"/>
+        <f>SUM(L6:R6)/S$1</f>
+        <v>0</v>
+      </c>
+      <c r="T6" s="14">
+        <v>60</v>
+      </c>
       <c r="U6" s="14"/>
       <c r="V6" s="14"/>
       <c r="W6" s="14"/>
       <c r="X6" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>SUM(T6:W6)/X$1</f>
+        <v>60</v>
       </c>
       <c r="Y6" s="6"/>
       <c r="Z6" s="44"/>
       <c r="AA6" s="21">
-        <f t="shared" si="0"/>
-        <v>30</v>
+        <f>K6*0.2+S6*0.25+X6*0.25+Y6*0.3+Z6*0.15</f>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:28" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="12">
-        <v>2</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="D7" s="12"/>
       <c r="E7" s="7">
         <v>2</v>
       </c>
       <c r="F7" s="7">
         <v>2</v>
       </c>
-      <c r="G7" s="7"/>
+      <c r="G7" s="7">
+        <v>2</v>
+      </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="16">
-        <f t="shared" si="1"/>
+        <f>SUM(D7:J7)*50/K$1</f>
         <v>150</v>
       </c>
       <c r="L7" s="14"/>
@@ -1764,44 +1796,52 @@
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
       <c r="S7" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T7" s="14"/>
+        <f>SUM(L7:R7)/S$1</f>
+        <v>0</v>
+      </c>
+      <c r="T7" s="14">
+        <v>60</v>
+      </c>
       <c r="U7" s="14"/>
       <c r="V7" s="14"/>
       <c r="W7" s="14"/>
       <c r="X7" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>SUM(T7:W7)/X$1</f>
+        <v>60</v>
       </c>
       <c r="Y7" s="6"/>
       <c r="Z7" s="44"/>
       <c r="AA7" s="21">
-        <f t="shared" si="0"/>
-        <v>30</v>
+        <f>K7*0.2+S7*0.25+X7*0.25+Y7*0.3+Z7*0.15</f>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="7">
         <v>2</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="F8" s="7">
+        <v>2</v>
+      </c>
+      <c r="G8" s="7">
+        <v>2</v>
+      </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(D8:J8)*50/K$1</f>
+        <v>150</v>
       </c>
       <c r="L8" s="14"/>
       <c r="M8" s="6"/>
@@ -1811,44 +1851,52 @@
       <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
       <c r="S8" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T8" s="14"/>
+        <f>SUM(L8:R8)/S$1</f>
+        <v>0</v>
+      </c>
+      <c r="T8" s="14">
+        <v>60</v>
+      </c>
       <c r="U8" s="14"/>
       <c r="V8" s="14"/>
       <c r="W8" s="14"/>
       <c r="X8" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>SUM(T8:W8)/X$1</f>
+        <v>60</v>
       </c>
       <c r="Y8" s="6"/>
       <c r="Z8" s="44"/>
       <c r="AA8" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>K8*0.2+S8*0.25+X8*0.25+Y8*0.3+Z8*0.15</f>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:28" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="D9" s="12"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="E9" s="7">
+        <v>2</v>
+      </c>
+      <c r="F9" s="7">
+        <v>2</v>
+      </c>
+      <c r="G9" s="7">
+        <v>2</v>
+      </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(D9:J9)*50/K$1</f>
+        <v>150</v>
       </c>
       <c r="L9" s="14"/>
       <c r="M9" s="6"/>
@@ -1858,44 +1906,52 @@
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
       <c r="S9" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T9" s="14"/>
+        <f>SUM(L9:R9)/S$1</f>
+        <v>0</v>
+      </c>
+      <c r="T9" s="14">
+        <v>60</v>
+      </c>
       <c r="U9" s="14"/>
       <c r="V9" s="14"/>
       <c r="W9" s="14"/>
       <c r="X9" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>SUM(T9:W9)/X$1</f>
+        <v>60</v>
       </c>
       <c r="Y9" s="6"/>
       <c r="Z9" s="44"/>
       <c r="AA9" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>K9*0.2+S9*0.25+X9*0.25+Y9*0.3+Z9*0.15</f>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="D10" s="12"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
+      <c r="E10" s="7">
+        <v>2</v>
+      </c>
+      <c r="F10" s="7">
+        <v>2</v>
+      </c>
+      <c r="G10" s="7">
+        <v>2</v>
+      </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(D10:J10)*50/K$1</f>
+        <v>150</v>
       </c>
       <c r="L10" s="14"/>
       <c r="M10" s="6"/>
@@ -1905,44 +1961,52 @@
       <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
       <c r="S10" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T10" s="14"/>
+        <f>SUM(L10:R10)/S$1</f>
+        <v>0</v>
+      </c>
+      <c r="T10" s="14">
+        <v>60</v>
+      </c>
       <c r="U10" s="14"/>
       <c r="V10" s="14"/>
       <c r="W10" s="14"/>
       <c r="X10" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>SUM(T10:W10)/X$1</f>
+        <v>60</v>
       </c>
       <c r="Y10" s="6"/>
       <c r="Z10" s="44"/>
       <c r="AA10" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>K10*0.2+S10*0.25+X10*0.25+Y10*0.3+Z10*0.15</f>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:28" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="D11" s="12"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
+      <c r="E11" s="7">
+        <v>2</v>
+      </c>
+      <c r="F11" s="7">
+        <v>2</v>
+      </c>
+      <c r="G11" s="7">
+        <v>2</v>
+      </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(D11:J11)*50/K$1</f>
+        <v>150</v>
       </c>
       <c r="L11" s="14"/>
       <c r="M11" s="6"/>
@@ -1952,44 +2016,52 @@
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
       <c r="S11" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T11" s="14"/>
+        <f>SUM(L11:R11)/S$1</f>
+        <v>0</v>
+      </c>
+      <c r="T11" s="14">
+        <v>60</v>
+      </c>
       <c r="U11" s="14"/>
       <c r="V11" s="14"/>
       <c r="W11" s="14"/>
       <c r="X11" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>SUM(T11:W11)/X$1</f>
+        <v>60</v>
       </c>
       <c r="Y11" s="6"/>
       <c r="Z11" s="44"/>
       <c r="AA11" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>K11*0.2+S11*0.25+X11*0.25+Y11*0.3+Z11*0.1</f>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:28" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="D12" s="12"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
+      <c r="E12" s="7">
+        <v>2</v>
+      </c>
+      <c r="F12" s="7">
+        <v>2</v>
+      </c>
+      <c r="G12" s="7">
+        <v>1.7</v>
+      </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="K12" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(D12:J12)*50/K$1</f>
+        <v>142.5</v>
       </c>
       <c r="L12" s="14"/>
       <c r="M12" s="6"/>
@@ -1999,44 +2071,54 @@
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
       <c r="S12" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T12" s="14"/>
+        <f>SUM(L12:R12)/S$1</f>
+        <v>0</v>
+      </c>
+      <c r="T12" s="14">
+        <v>60</v>
+      </c>
       <c r="U12" s="14"/>
       <c r="V12" s="14"/>
       <c r="W12" s="14"/>
       <c r="X12" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>SUM(T12:W12)/X$1</f>
+        <v>60</v>
       </c>
       <c r="Y12" s="6"/>
       <c r="Z12" s="44"/>
       <c r="AA12" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>K12*0.2+S12*0.25+X12*0.25+Y12*0.3+Z12*0.15</f>
+        <v>43.5</v>
       </c>
     </row>
     <row r="13" spans="1:28" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
+        <v>55</v>
+      </c>
+      <c r="D13" s="12">
+        <v>2</v>
+      </c>
+      <c r="E13" s="7">
+        <v>2</v>
+      </c>
+      <c r="F13" s="7">
+        <v>2</v>
+      </c>
+      <c r="G13" s="7">
+        <v>2</v>
+      </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="K13" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(D13:J13)*50/K$1</f>
+        <v>200</v>
       </c>
       <c r="L13" s="14"/>
       <c r="M13" s="6"/>
@@ -2046,48 +2128,54 @@
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
       <c r="S13" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T13" s="14"/>
+        <f>SUM(L13:R13)/S$1</f>
+        <v>0</v>
+      </c>
+      <c r="T13" s="14">
+        <v>0</v>
+      </c>
       <c r="U13" s="14"/>
       <c r="V13" s="14"/>
       <c r="W13" s="14"/>
       <c r="X13" s="16">
-        <f t="shared" si="3"/>
+        <f>SUM(T13:W13)/X$1</f>
         <v>0</v>
       </c>
       <c r="Y13" s="6"/>
       <c r="Z13" s="44"/>
       <c r="AA13" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>K13*0.2+S13*0.25+X13*0.25+Y13*0.3+Z13*0.15</f>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="12"/>
+        <v>59</v>
+      </c>
+      <c r="D14" s="12">
+        <v>2</v>
+      </c>
       <c r="E14" s="7">
         <v>2</v>
       </c>
       <c r="F14" s="7">
         <v>2</v>
       </c>
-      <c r="G14" s="7"/>
+      <c r="G14" s="7">
+        <v>2</v>
+      </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="16">
-        <f t="shared" si="1"/>
-        <v>100</v>
+        <f>SUM(D14:J14)*50/K$1</f>
+        <v>200</v>
       </c>
       <c r="L14" s="14"/>
       <c r="M14" s="6"/>
@@ -2097,48 +2185,52 @@
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
       <c r="S14" s="16">
-        <f t="shared" si="2"/>
+        <f>SUM(L14:R14)/S$1</f>
         <v>0</v>
       </c>
       <c r="T14" s="14">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="U14" s="14"/>
       <c r="V14" s="14"/>
       <c r="W14" s="14"/>
       <c r="X14" s="16">
-        <f t="shared" si="3"/>
-        <v>60</v>
+        <f>SUM(T14:W14)/X$1</f>
+        <v>0</v>
       </c>
       <c r="Y14" s="6"/>
       <c r="Z14" s="44"/>
       <c r="AA14" s="21">
-        <f t="shared" si="0"/>
-        <v>35</v>
+        <f>K14*0.2+S14*0.25+X14*0.25+Y14*0.3+Z14*0.15</f>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="7">
         <v>2</v>
       </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
+      <c r="F15" s="7">
+        <v>2</v>
+      </c>
+      <c r="G15" s="7">
+        <v>2</v>
+      </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
       <c r="K15" s="16">
-        <f t="shared" si="1"/>
-        <v>50</v>
+        <f>SUM(D15:J15)*50/K$1</f>
+        <v>150</v>
       </c>
       <c r="L15" s="14"/>
       <c r="M15" s="6"/>
@@ -2148,33 +2240,35 @@
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
       <c r="S15" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T15" s="14"/>
+        <f>SUM(L15:R15)/S$1</f>
+        <v>0</v>
+      </c>
+      <c r="T15" s="14">
+        <v>0</v>
+      </c>
       <c r="U15" s="14"/>
       <c r="V15" s="14"/>
       <c r="W15" s="14"/>
       <c r="X15" s="16">
-        <f t="shared" si="3"/>
+        <f>SUM(T15:W15)/X$1</f>
         <v>0</v>
       </c>
       <c r="Y15" s="6"/>
       <c r="Z15" s="44"/>
       <c r="AA15" s="21">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f>K15*0.2+S15*0.25+X15*0.25+Y15*0.3+Z15*0.15</f>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="D16" s="12"/>
       <c r="E16" s="7">
@@ -2183,13 +2277,15 @@
       <c r="F16" s="7">
         <v>2</v>
       </c>
-      <c r="G16" s="7"/>
+      <c r="G16" s="7">
+        <v>2</v>
+      </c>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="16">
-        <f t="shared" si="1"/>
-        <v>100</v>
+        <f>SUM(D16:J16)*50/K$1</f>
+        <v>150</v>
       </c>
       <c r="L16" s="14"/>
       <c r="M16" s="6"/>
@@ -2199,49 +2295,49 @@
       <c r="Q16" s="6"/>
       <c r="R16" s="6"/>
       <c r="S16" s="16">
-        <f t="shared" si="2"/>
+        <f>SUM(L16:R16)/S$1</f>
         <v>0</v>
       </c>
       <c r="T16" s="14">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="U16" s="14"/>
       <c r="V16" s="14"/>
       <c r="W16" s="14"/>
       <c r="X16" s="16">
-        <f t="shared" si="3"/>
-        <v>60</v>
+        <f>SUM(T16:W16)/X$1</f>
+        <v>0</v>
       </c>
       <c r="Y16" s="6"/>
       <c r="Z16" s="44"/>
       <c r="AA16" s="21">
-        <f t="shared" si="0"/>
-        <v>35</v>
+        <f>K16*0.2+S16*0.25+X16*0.25+Y16*0.3+Z16*0.15</f>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D17" s="12"/>
       <c r="E17" s="7">
         <v>2</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="7"/>
+      <c r="G17" s="7">
         <v>2</v>
       </c>
-      <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="K17" s="16">
-        <f t="shared" si="1"/>
+        <f>SUM(D17:J17)*50/K$1</f>
         <v>100</v>
       </c>
       <c r="L17" s="14"/>
@@ -2252,619 +2348,587 @@
       <c r="Q17" s="6"/>
       <c r="R17" s="6"/>
       <c r="S17" s="16">
-        <f t="shared" si="2"/>
+        <f>SUM(L17:R17)/S$1</f>
         <v>0</v>
       </c>
       <c r="T17" s="14">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="U17" s="14"/>
       <c r="V17" s="14"/>
       <c r="W17" s="14"/>
       <c r="X17" s="16">
-        <f t="shared" si="3"/>
-        <v>60</v>
+        <f>SUM(T17:W17)/X$1</f>
+        <v>0</v>
       </c>
       <c r="Y17" s="6"/>
       <c r="Z17" s="44"/>
       <c r="AA17" s="21">
-        <f t="shared" si="0"/>
+        <f>K17*0.2+S17*0.25+X17*0.25+Y17*0.3+Z17*0.15</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" s="62" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="57">
+        <f>SUM(D18:J18)*50/K$1</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="58"/>
+      <c r="M18" s="59"/>
+      <c r="N18" s="59"/>
+      <c r="O18" s="59"/>
+      <c r="P18" s="59"/>
+      <c r="Q18" s="59"/>
+      <c r="R18" s="59"/>
+      <c r="S18" s="57">
+        <f>SUM(L18:R18)/S$1</f>
+        <v>0</v>
+      </c>
+      <c r="T18" s="58"/>
+      <c r="U18" s="58"/>
+      <c r="V18" s="58"/>
+      <c r="W18" s="58"/>
+      <c r="X18" s="57">
+        <f>SUM(T18:W18)/X$1</f>
+        <v>0</v>
+      </c>
+      <c r="Y18" s="59"/>
+      <c r="Z18" s="60"/>
+      <c r="AA18" s="61">
+        <f>K18*0.2+S18*0.25+X18*0.25+Y18*0.3+Z18*0.15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" s="62" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="55"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="57">
+        <f>SUM(D19:J19)*50/K$1</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="58"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="59"/>
+      <c r="O19" s="59"/>
+      <c r="P19" s="59"/>
+      <c r="Q19" s="59"/>
+      <c r="R19" s="59"/>
+      <c r="S19" s="57">
+        <f>SUM(L19:R19)/S$1</f>
+        <v>0</v>
+      </c>
+      <c r="T19" s="58"/>
+      <c r="U19" s="58"/>
+      <c r="V19" s="58"/>
+      <c r="W19" s="58"/>
+      <c r="X19" s="57">
+        <f>SUM(T19:W19)/X$1</f>
+        <v>0</v>
+      </c>
+      <c r="Y19" s="59"/>
+      <c r="Z19" s="60"/>
+      <c r="AA19" s="61">
+        <f>K19*0.2+S19*0.25+X19*0.25+Y19*0.3+Z19*0.15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" s="62" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="53" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="18" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="7">
-        <v>2</v>
-      </c>
-      <c r="F18" s="7">
-        <v>2</v>
-      </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="16">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="L18" s="14"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T18" s="14"/>
-      <c r="U18" s="14"/>
-      <c r="V18" s="14"/>
-      <c r="W18" s="14"/>
-      <c r="X18" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y18" s="6"/>
-      <c r="Z18" s="44"/>
-      <c r="AA18" s="21">
-        <f t="shared" si="0"/>
+      <c r="C20" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="57">
+        <f>SUM(D20:J20)*50/K$1</f>
+        <v>0</v>
+      </c>
+      <c r="L20" s="58"/>
+      <c r="M20" s="59"/>
+      <c r="N20" s="59"/>
+      <c r="O20" s="59"/>
+      <c r="P20" s="59"/>
+      <c r="Q20" s="59"/>
+      <c r="R20" s="59"/>
+      <c r="S20" s="57">
+        <f>SUM(L20:R20)/S$1</f>
+        <v>0</v>
+      </c>
+      <c r="T20" s="58"/>
+      <c r="U20" s="58"/>
+      <c r="V20" s="58"/>
+      <c r="W20" s="58"/>
+      <c r="X20" s="57">
+        <f>SUM(T20:W20)/X$1</f>
+        <v>0</v>
+      </c>
+      <c r="Y20" s="59"/>
+      <c r="Z20" s="60"/>
+      <c r="AA20" s="61">
+        <f>K20*0.2+S20*0.25+X20*0.25+Y20*0.3+Z20*0.15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" s="62" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="55"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="57">
+        <f>SUM(D21:J21)*50/K$1</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="58"/>
+      <c r="M21" s="59"/>
+      <c r="N21" s="59"/>
+      <c r="O21" s="59"/>
+      <c r="P21" s="59"/>
+      <c r="Q21" s="59"/>
+      <c r="R21" s="59"/>
+      <c r="S21" s="57">
+        <f>SUM(L21:R21)/S$1</f>
+        <v>0</v>
+      </c>
+      <c r="T21" s="58"/>
+      <c r="U21" s="58"/>
+      <c r="V21" s="58"/>
+      <c r="W21" s="58"/>
+      <c r="X21" s="57">
+        <f>SUM(T21:W21)/X$1</f>
+        <v>0</v>
+      </c>
+      <c r="Y21" s="59"/>
+      <c r="Z21" s="60"/>
+      <c r="AA21" s="61">
+        <f>K21*0.2+S21*0.25+X21*0.25+Y21*0.3+Z21*0.15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" s="62" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="57">
+        <f>SUM(D22:J22)*50/K$1</f>
+        <v>0</v>
+      </c>
+      <c r="L22" s="58"/>
+      <c r="M22" s="59"/>
+      <c r="N22" s="59"/>
+      <c r="O22" s="59"/>
+      <c r="P22" s="59"/>
+      <c r="Q22" s="59"/>
+      <c r="R22" s="59"/>
+      <c r="S22" s="57">
+        <f>SUM(L22:R22)/S$1</f>
+        <v>0</v>
+      </c>
+      <c r="T22" s="58"/>
+      <c r="U22" s="58"/>
+      <c r="V22" s="58"/>
+      <c r="W22" s="58"/>
+      <c r="X22" s="57">
+        <f>SUM(T22:W22)/X$1</f>
+        <v>0</v>
+      </c>
+      <c r="Y22" s="59"/>
+      <c r="Z22" s="60"/>
+      <c r="AA22" s="61">
+        <f>K22*0.2+S22*0.25+X22*0.25+Y22*0.3+Z22*0.15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" s="62" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="55"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="57">
+        <f>SUM(D23:J23)*50/K$1</f>
+        <v>0</v>
+      </c>
+      <c r="L23" s="58"/>
+      <c r="M23" s="59"/>
+      <c r="N23" s="59"/>
+      <c r="O23" s="59"/>
+      <c r="P23" s="59"/>
+      <c r="Q23" s="59"/>
+      <c r="R23" s="59"/>
+      <c r="S23" s="57">
+        <f>SUM(L23:R23)/S$1</f>
+        <v>0</v>
+      </c>
+      <c r="T23" s="58"/>
+      <c r="U23" s="58"/>
+      <c r="V23" s="58"/>
+      <c r="W23" s="58"/>
+      <c r="X23" s="57">
+        <f>SUM(T23:W23)/X$1</f>
+        <v>0</v>
+      </c>
+      <c r="Y23" s="59"/>
+      <c r="Z23" s="60"/>
+      <c r="AA23" s="61">
+        <f>K23*0.2+S23*0.25+X23*0.25+Y23*0.3+Z23*0.15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" s="62" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="52" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="3" t="s">
+      <c r="B24" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C24" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L19" s="14"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T19" s="14"/>
-      <c r="U19" s="14"/>
-      <c r="V19" s="14"/>
-      <c r="W19" s="14"/>
-      <c r="X19" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y19" s="6"/>
-      <c r="Z19" s="44"/>
-      <c r="AA19" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
+      <c r="D24" s="55"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="57">
+        <f>SUM(D24:J24)*50/K$1</f>
+        <v>0</v>
+      </c>
+      <c r="L24" s="58"/>
+      <c r="M24" s="59"/>
+      <c r="N24" s="59"/>
+      <c r="O24" s="59"/>
+      <c r="P24" s="59"/>
+      <c r="Q24" s="59"/>
+      <c r="R24" s="59"/>
+      <c r="S24" s="57">
+        <f>SUM(L24:R24)/S$1</f>
+        <v>0</v>
+      </c>
+      <c r="T24" s="58"/>
+      <c r="U24" s="58"/>
+      <c r="V24" s="58"/>
+      <c r="W24" s="58"/>
+      <c r="X24" s="57">
+        <f>SUM(T24:W24)/X$1</f>
+        <v>0</v>
+      </c>
+      <c r="Y24" s="59"/>
+      <c r="Z24" s="60"/>
+      <c r="AA24" s="61">
+        <f>K24*0.2+S24*0.25+X24*0.25+Y24*0.3+Z24*0.15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" s="62" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B25" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C25" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L20" s="14"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T20" s="14"/>
-      <c r="U20" s="14"/>
-      <c r="V20" s="14"/>
-      <c r="W20" s="14"/>
-      <c r="X20" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y20" s="6"/>
-      <c r="Z20" s="44"/>
-      <c r="AA20" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
+      <c r="D25" s="55"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="57">
+        <f>SUM(D25:J25)*50/K$1</f>
+        <v>0</v>
+      </c>
+      <c r="L25" s="58"/>
+      <c r="M25" s="59"/>
+      <c r="N25" s="59"/>
+      <c r="O25" s="59"/>
+      <c r="P25" s="59"/>
+      <c r="Q25" s="59"/>
+      <c r="R25" s="59"/>
+      <c r="S25" s="57">
+        <f>SUM(L25:R25)/S$1</f>
+        <v>0</v>
+      </c>
+      <c r="T25" s="58"/>
+      <c r="U25" s="58"/>
+      <c r="V25" s="58"/>
+      <c r="W25" s="58"/>
+      <c r="X25" s="57">
+        <f>SUM(T25:W25)/X$1</f>
+        <v>0</v>
+      </c>
+      <c r="Y25" s="59"/>
+      <c r="Z25" s="60"/>
+      <c r="AA25" s="61">
+        <f>K25*0.2+S25*0.25+X25*0.25+Y25*0.3+Z25*0.15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" s="62" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B26" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C26" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L21" s="14"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
-      <c r="S21" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T21" s="14"/>
-      <c r="U21" s="14"/>
-      <c r="V21" s="14"/>
-      <c r="W21" s="14"/>
-      <c r="X21" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y21" s="6"/>
-      <c r="Z21" s="44"/>
-      <c r="AA21" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12">
-        <v>2</v>
-      </c>
-      <c r="F22" s="7">
-        <v>2</v>
-      </c>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="16">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="L22" s="14"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6"/>
-      <c r="S22" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T22" s="14">
-        <v>60</v>
-      </c>
-      <c r="U22" s="14"/>
-      <c r="V22" s="14"/>
-      <c r="W22" s="14"/>
-      <c r="X22" s="16">
-        <f t="shared" si="3"/>
-        <v>60</v>
-      </c>
-      <c r="Y22" s="6"/>
-      <c r="Z22" s="44"/>
-      <c r="AA22" s="21">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="7">
-        <v>2</v>
-      </c>
-      <c r="F23" s="7">
-        <v>2</v>
-      </c>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="16">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="L23" s="14"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
-      <c r="S23" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T23" s="14"/>
-      <c r="U23" s="14"/>
-      <c r="V23" s="14"/>
-      <c r="W23" s="14"/>
-      <c r="X23" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y23" s="6"/>
-      <c r="Z23" s="44"/>
-      <c r="AA23" s="21">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D24" s="12"/>
-      <c r="E24" s="7">
-        <v>2</v>
-      </c>
-      <c r="F24" s="7">
-        <v>2</v>
-      </c>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="16">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="L24" s="14"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6"/>
-      <c r="S24" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T24" s="14">
-        <v>60</v>
-      </c>
-      <c r="U24" s="14"/>
-      <c r="V24" s="14"/>
-      <c r="W24" s="14"/>
-      <c r="X24" s="16">
-        <f t="shared" si="3"/>
-        <v>60</v>
-      </c>
-      <c r="Y24" s="6"/>
-      <c r="Z24" s="44"/>
-      <c r="AA24" s="21">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D25" s="12"/>
-      <c r="E25" s="7">
-        <v>2</v>
-      </c>
-      <c r="F25" s="7">
-        <v>2</v>
-      </c>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="16">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="L25" s="14"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="6"/>
-      <c r="S25" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T25" s="14">
-        <v>60</v>
-      </c>
-      <c r="U25" s="14"/>
-      <c r="V25" s="14"/>
-      <c r="W25" s="14"/>
-      <c r="X25" s="16">
-        <f t="shared" si="3"/>
-        <v>60</v>
-      </c>
-      <c r="Y25" s="6"/>
-      <c r="Z25" s="44"/>
-      <c r="AA25" s="21">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D26" s="12"/>
-      <c r="E26" s="7">
-        <v>2</v>
-      </c>
-      <c r="F26" s="7">
-        <v>2</v>
-      </c>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="16">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="L26" s="14"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="6"/>
-      <c r="S26" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T26" s="14">
-        <v>60</v>
-      </c>
-      <c r="U26" s="14"/>
-      <c r="V26" s="14"/>
-      <c r="W26" s="14"/>
-      <c r="X26" s="16">
-        <f t="shared" si="3"/>
-        <v>60</v>
-      </c>
-      <c r="Y26" s="6"/>
-      <c r="Z26" s="44"/>
-      <c r="AA26" s="21">
-        <f>K26*0.2+S26*0.25+X26*0.25+Y26*0.3+Z26*0.1</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="20" t="s">
+      <c r="D26" s="55"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="57">
+        <f>SUM(D26:J26)*50/K$1</f>
+        <v>0</v>
+      </c>
+      <c r="L26" s="58"/>
+      <c r="M26" s="59"/>
+      <c r="N26" s="59"/>
+      <c r="O26" s="59"/>
+      <c r="P26" s="59"/>
+      <c r="Q26" s="59"/>
+      <c r="R26" s="59"/>
+      <c r="S26" s="57">
+        <f>SUM(L26:R26)/S$1</f>
+        <v>0</v>
+      </c>
+      <c r="T26" s="58"/>
+      <c r="U26" s="58"/>
+      <c r="V26" s="58"/>
+      <c r="W26" s="58"/>
+      <c r="X26" s="57">
+        <f>SUM(T26:W26)/X$1</f>
+        <v>0</v>
+      </c>
+      <c r="Y26" s="59"/>
+      <c r="Z26" s="60"/>
+      <c r="AA26" s="61">
+        <f>K26*0.2+S26*0.25+X26*0.25+Y26*0.3+Z26*0.15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" s="62" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="D27" s="12"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L27" s="14"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="6"/>
-      <c r="S27" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T27" s="14"/>
-      <c r="U27" s="14"/>
-      <c r="V27" s="14"/>
-      <c r="W27" s="14"/>
-      <c r="X27" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y27" s="6"/>
-      <c r="Z27" s="44"/>
-      <c r="AA27" s="21">
+      <c r="D27" s="55"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="57">
+        <f>SUM(D27:J27)*50/K$1</f>
+        <v>0</v>
+      </c>
+      <c r="L27" s="58"/>
+      <c r="M27" s="59"/>
+      <c r="N27" s="59"/>
+      <c r="O27" s="59"/>
+      <c r="P27" s="59"/>
+      <c r="Q27" s="59"/>
+      <c r="R27" s="59"/>
+      <c r="S27" s="57">
+        <f>SUM(L27:R27)/S$1</f>
+        <v>0</v>
+      </c>
+      <c r="T27" s="58"/>
+      <c r="U27" s="58"/>
+      <c r="V27" s="58"/>
+      <c r="W27" s="58"/>
+      <c r="X27" s="57">
+        <f>SUM(T27:W27)/X$1</f>
+        <v>0</v>
+      </c>
+      <c r="Y27" s="59"/>
+      <c r="Z27" s="60"/>
+      <c r="AA27" s="61">
         <f>K27*0.2+S27*0.25+X27*0.25+Y27*0.3+Z27*0.1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="20" t="s">
+    <row r="28" spans="1:27" s="62" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="D28" s="12"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L28" s="14"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="6"/>
-      <c r="R28" s="6"/>
-      <c r="S28" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T28" s="14"/>
-      <c r="U28" s="14"/>
-      <c r="V28" s="14"/>
-      <c r="W28" s="14"/>
-      <c r="X28" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y28" s="6"/>
-      <c r="Z28" s="44"/>
-      <c r="AA28" s="21">
-        <f t="shared" ref="AA28:AA30" si="4">K28*0.2+S28*0.25+X28*0.25+Y28*0.3+Z28*0.1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27" s="9" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
+      <c r="D28" s="55"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="57">
+        <f>SUM(D28:J28)*50/K$1</f>
+        <v>0</v>
+      </c>
+      <c r="L28" s="58"/>
+      <c r="M28" s="59"/>
+      <c r="N28" s="59"/>
+      <c r="O28" s="59"/>
+      <c r="P28" s="59"/>
+      <c r="Q28" s="59"/>
+      <c r="R28" s="59"/>
+      <c r="S28" s="57">
+        <f>SUM(L28:R28)/S$1</f>
+        <v>0</v>
+      </c>
+      <c r="T28" s="58"/>
+      <c r="U28" s="58"/>
+      <c r="V28" s="58"/>
+      <c r="W28" s="58"/>
+      <c r="X28" s="57">
+        <f>SUM(T28:W28)/X$1</f>
+        <v>0</v>
+      </c>
+      <c r="Y28" s="59"/>
+      <c r="Z28" s="60"/>
+      <c r="AA28" s="61">
+        <f>K28*0.2+S28*0.25+X28*0.25+Y28*0.3+Z28*0.1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" s="63" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="D29" s="12"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L29" s="14"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="6"/>
-      <c r="R29" s="6"/>
-      <c r="S29" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T29" s="14"/>
-      <c r="U29" s="14"/>
-      <c r="V29" s="14"/>
-      <c r="W29" s="14"/>
-      <c r="X29" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y29" s="6"/>
-      <c r="Z29" s="44"/>
-      <c r="AA29" s="21">
-        <f t="shared" si="4"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="57">
+        <f>SUM(D29:J29)*50/K$1</f>
+        <v>0</v>
+      </c>
+      <c r="L29" s="58"/>
+      <c r="M29" s="59"/>
+      <c r="N29" s="59"/>
+      <c r="O29" s="59"/>
+      <c r="P29" s="59"/>
+      <c r="Q29" s="59"/>
+      <c r="R29" s="59"/>
+      <c r="S29" s="57">
+        <f>SUM(L29:R29)/S$1</f>
+        <v>0</v>
+      </c>
+      <c r="T29" s="58"/>
+      <c r="U29" s="58"/>
+      <c r="V29" s="58"/>
+      <c r="W29" s="58"/>
+      <c r="X29" s="57">
+        <f>SUM(T29:W29)/X$1</f>
+        <v>0</v>
+      </c>
+      <c r="Y29" s="59"/>
+      <c r="Z29" s="60"/>
+      <c r="AA29" s="61">
+        <f>K29*0.2+S29*0.25+X29*0.25+Y29*0.3+Z29*0.1</f>
         <v>0</v>
       </c>
     </row>
@@ -2880,7 +2944,7 @@
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
       <c r="K30" s="16">
-        <f t="shared" si="1"/>
+        <f>SUM(D30:J30)*50/K$1</f>
         <v>0</v>
       </c>
       <c r="L30" s="14"/>
@@ -2891,7 +2955,7 @@
       <c r="Q30" s="6"/>
       <c r="R30" s="6"/>
       <c r="S30" s="16">
-        <f t="shared" si="2"/>
+        <f>SUM(L30:R30)/S$1</f>
         <v>0</v>
       </c>
       <c r="T30" s="14"/>
@@ -2899,13 +2963,13 @@
       <c r="V30" s="14"/>
       <c r="W30" s="14"/>
       <c r="X30" s="16">
-        <f t="shared" si="3"/>
+        <f>SUM(T30:W30)/X$1</f>
         <v>0</v>
       </c>
       <c r="Y30" s="6"/>
       <c r="Z30" s="44"/>
       <c r="AA30" s="21">
-        <f t="shared" si="4"/>
+        <f>K30*0.2+S30*0.25+X30*0.25+Y30*0.3+Z30*0.1</f>
         <v>0</v>
       </c>
     </row>
@@ -4106,8 +4170,8 @@
       <c r="X76" s="9"/>
     </row>
   </sheetData>
-  <sortState ref="A3:AB33">
-    <sortCondition descending="1" ref="AA3"/>
+  <sortState ref="A3:AB30">
+    <sortCondition descending="1" ref="AA2"/>
   </sortState>
   <mergeCells count="3">
     <mergeCell ref="D1:J1"/>
@@ -4280,8 +4344,8 @@
   <dimension ref="A1:S81"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:S33"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Y34" sqref="Y34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4309,22 +4373,22 @@
       <c r="B1" s="18"/>
       <c r="C1" s="34"/>
       <c r="D1" s="40"/>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="45" t="s">
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="47"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="51"/>
       <c r="Q1" s="33" t="s">
         <v>46</v>
       </c>

--- a/AdvancedJava/_docs/Notlar.xlsx
+++ b/AdvancedJava/_docs/Notlar.xlsx
@@ -187,9 +187,6 @@
     <t>DEVAM DURUMU (%20)</t>
   </si>
   <si>
-    <t>LAB ÇALIŞMALARI (%25)</t>
-  </si>
-  <si>
     <t>ÖDEVLER (%25)</t>
   </si>
   <si>
@@ -356,6 +353,9 @@
   </si>
   <si>
     <t>ÖZALP</t>
+  </si>
+  <si>
+    <t>LAB (%25)</t>
   </si>
 </sst>
 </file>
@@ -847,6 +847,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="6" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -862,18 +874,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1372,11 +1372,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB76"/>
+  <dimension ref="A1:Y76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AD24" sqref="AD24"/>
+      <selection pane="bottomLeft" activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1389,67 +1389,64 @@
     <col min="8" max="10" width="2.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="3.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="2.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.5546875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="4.77734375" style="1" customWidth="1"/>
+    <col min="13" max="14" width="2.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="2.5546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="4.77734375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="2.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="2.77734375" style="1" customWidth="1"/>
     <col min="20" max="20" width="2.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="2.77734375" style="1" customWidth="1"/>
-    <col min="23" max="23" width="2.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5" style="1" customWidth="1"/>
-    <col min="25" max="25" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7" style="1" customWidth="1"/>
-    <col min="27" max="27" width="5.77734375" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="8.88671875" style="1"/>
+    <col min="21" max="21" width="5" style="1" customWidth="1"/>
+    <col min="22" max="22" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7" style="1" customWidth="1"/>
+    <col min="24" max="24" width="5.77734375" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="4" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" s="4" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30"/>
       <c r="B1" s="18"/>
       <c r="C1" s="29"/>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
       <c r="K1" s="46">
         <v>2</v>
       </c>
-      <c r="L1" s="49" t="s">
+      <c r="L1" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="45">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="45">
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="45">
         <v>1</v>
       </c>
-      <c r="T1" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="45">
-        <v>1</v>
-      </c>
-      <c r="Y1" s="17" t="s">
+      <c r="V1" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="Z1" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA1" s="19" t="s">
+      <c r="W1" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="X1" s="19" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="5" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" s="5" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>29</v>
       </c>
@@ -1484,63 +1481,54 @@
         <v>30</v>
       </c>
       <c r="L2" s="26">
+        <v>4</v>
+      </c>
+      <c r="M2" s="27">
+        <v>5</v>
+      </c>
+      <c r="N2" s="27">
+        <v>6</v>
+      </c>
+      <c r="O2" s="27">
+        <v>7</v>
+      </c>
+      <c r="P2" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="26">
         <v>1</v>
       </c>
-      <c r="M2" s="27">
+      <c r="R2" s="37">
         <v>2</v>
       </c>
-      <c r="N2" s="27">
+      <c r="S2" s="37">
         <v>3</v>
       </c>
-      <c r="O2" s="27">
+      <c r="T2" s="27">
         <v>4</v>
       </c>
-      <c r="P2" s="27">
-        <v>5</v>
-      </c>
-      <c r="Q2" s="27">
-        <v>6</v>
-      </c>
-      <c r="R2" s="27">
-        <v>7</v>
-      </c>
-      <c r="S2" s="28" t="s">
+      <c r="U2" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="T2" s="26">
-        <v>1</v>
-      </c>
-      <c r="U2" s="37">
-        <v>2</v>
-      </c>
-      <c r="V2" s="37">
-        <v>3</v>
-      </c>
-      <c r="W2" s="27">
-        <v>4</v>
-      </c>
-      <c r="X2" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y2" s="26" t="s">
+      <c r="V2" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="Z2" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA2" s="19" t="s">
+      <c r="W2" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="X2" s="19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="11" t="s">
         <v>48</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>49</v>
       </c>
       <c r="D3" s="12">
         <v>2</v>
@@ -1558,46 +1546,45 @@
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
       <c r="K3" s="16">
-        <f>SUM(D3:J3)*50/K$1</f>
+        <f t="shared" ref="K3:K30" si="0">SUM(D3:J3)*50/K$1</f>
         <v>200</v>
       </c>
-      <c r="L3" s="14"/>
+      <c r="L3" s="14">
+        <v>100</v>
+      </c>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="16">
-        <f>SUM(L3:R3)/S$1</f>
-        <v>0</v>
-      </c>
-      <c r="T3" s="14">
+      <c r="P3" s="16">
+        <f>SUM(L3:O3)/P$1</f>
+        <v>100</v>
+      </c>
+      <c r="Q3" s="14">
         <v>60</v>
       </c>
-      <c r="U3" s="14"/>
-      <c r="V3" s="14"/>
-      <c r="W3" s="14"/>
-      <c r="X3" s="16">
-        <f>SUM(T3:W3)/X$1</f>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="16">
+        <f t="shared" ref="U3:U30" si="1">SUM(Q3:T3)/U$1</f>
         <v>60</v>
       </c>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="44"/>
-      <c r="AA3" s="21">
-        <f>K3*0.2+S3*0.25+X3*0.25+Y3*0.3+Z3*0.15</f>
-        <v>55</v>
-      </c>
-      <c r="AB3" s="1" t="s">
+      <c r="V3" s="6"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="21">
+        <f>K3*0.2+P3*0.25+U3*0.25+V3*0.3+W3*0.15</f>
+        <v>80</v>
+      </c>
+      <c r="Y3" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>6</v>
@@ -1618,46 +1605,45 @@
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="16">
-        <f>SUM(D4:J4)*50/K$1</f>
+        <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="L4" s="14"/>
+      <c r="L4" s="14">
+        <v>95</v>
+      </c>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="16">
-        <f>SUM(L4:R4)/S$1</f>
-        <v>0</v>
-      </c>
-      <c r="T4" s="14">
+      <c r="P4" s="16">
+        <f>SUM(L4:O4)/P$1</f>
+        <v>95</v>
+      </c>
+      <c r="Q4" s="14">
         <v>60</v>
       </c>
-      <c r="U4" s="14"/>
-      <c r="V4" s="14"/>
-      <c r="W4" s="14"/>
-      <c r="X4" s="16">
-        <f>SUM(T4:W4)/X$1</f>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="16">
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="44"/>
-      <c r="AA4" s="21">
-        <f>K4*0.2+S4*0.25+X4*0.25+Y4*0.3+Z4*0.15</f>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V4" s="6"/>
+      <c r="W4" s="44"/>
+      <c r="X4" s="21">
+        <f>K4*0.2+P4*0.25+U4*0.25+V4*0.3+W4*0.15</f>
+        <v>78.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>52</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>53</v>
       </c>
       <c r="D5" s="12">
         <v>2</v>
@@ -1675,46 +1661,45 @@
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="16">
-        <f>SUM(D5:J5)*50/K$1</f>
+        <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="L5" s="14"/>
+      <c r="L5" s="14">
+        <v>0</v>
+      </c>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="16">
-        <f>SUM(L5:R5)/S$1</f>
-        <v>0</v>
-      </c>
-      <c r="T5" s="14">
+      <c r="P5" s="16">
+        <f>SUM(L5:O5)/P$1</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="14">
         <v>60</v>
       </c>
-      <c r="U5" s="14"/>
-      <c r="V5" s="14"/>
-      <c r="W5" s="14"/>
-      <c r="X5" s="16">
-        <f>SUM(T5:W5)/X$1</f>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="16">
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="44"/>
-      <c r="AA5" s="21">
-        <f>K5*0.2+S5*0.25+X5*0.25+Y5*0.3+Z5*0.15</f>
+      <c r="V5" s="6"/>
+      <c r="W5" s="44"/>
+      <c r="X5" s="21">
+        <f>K5*0.2+P5*0.25+U5*0.25+V5*0.3+W5*0.15</f>
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="11" t="s">
         <v>64</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>65</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="7">
@@ -1730,46 +1715,45 @@
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
       <c r="K6" s="16">
-        <f>SUM(D6:J6)*50/K$1</f>
+        <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="L6" s="14"/>
+      <c r="L6" s="14">
+        <v>95</v>
+      </c>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="16">
-        <f>SUM(L6:R6)/S$1</f>
-        <v>0</v>
-      </c>
-      <c r="T6" s="14">
+      <c r="P6" s="16">
+        <f>SUM(L6:O6)/P$1</f>
+        <v>95</v>
+      </c>
+      <c r="Q6" s="14">
         <v>60</v>
       </c>
-      <c r="U6" s="14"/>
-      <c r="V6" s="14"/>
-      <c r="W6" s="14"/>
-      <c r="X6" s="16">
-        <f>SUM(T6:W6)/X$1</f>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="16">
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="44"/>
-      <c r="AA6" s="21">
-        <f>K6*0.2+S6*0.25+X6*0.25+Y6*0.3+Z6*0.15</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V6" s="6"/>
+      <c r="W6" s="44"/>
+      <c r="X6" s="21">
+        <f>K6*0.2+P6*0.25+U6*0.25+V6*0.3+W6*0.15</f>
+        <v>68.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="7">
@@ -1785,46 +1769,45 @@
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="16">
-        <f>SUM(D7:J7)*50/K$1</f>
+        <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="L7" s="14"/>
+      <c r="L7" s="14">
+        <v>90</v>
+      </c>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="16">
-        <f>SUM(L7:R7)/S$1</f>
-        <v>0</v>
-      </c>
-      <c r="T7" s="14">
+      <c r="P7" s="16">
+        <f>SUM(L7:O7)/P$1</f>
+        <v>90</v>
+      </c>
+      <c r="Q7" s="14">
         <v>60</v>
       </c>
-      <c r="U7" s="14"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="14"/>
-      <c r="X7" s="16">
-        <f>SUM(T7:W7)/X$1</f>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="16">
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="44"/>
-      <c r="AA7" s="21">
-        <f>K7*0.2+S7*0.25+X7*0.25+Y7*0.3+Z7*0.15</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V7" s="6"/>
+      <c r="W7" s="44"/>
+      <c r="X7" s="21">
+        <f>K7*0.2+P7*0.25+U7*0.25+V7*0.3+W7*0.15</f>
+        <v>67.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="11" t="s">
         <v>72</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>73</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="7">
@@ -1840,46 +1823,45 @@
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="16">
-        <f>SUM(D8:J8)*50/K$1</f>
+        <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="L8" s="14"/>
+      <c r="L8" s="14">
+        <v>95</v>
+      </c>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="16">
-        <f>SUM(L8:R8)/S$1</f>
-        <v>0</v>
-      </c>
-      <c r="T8" s="14">
+      <c r="P8" s="16">
+        <f>SUM(L8:O8)/P$1</f>
+        <v>95</v>
+      </c>
+      <c r="Q8" s="14">
         <v>60</v>
       </c>
-      <c r="U8" s="14"/>
-      <c r="V8" s="14"/>
-      <c r="W8" s="14"/>
-      <c r="X8" s="16">
-        <f>SUM(T8:W8)/X$1</f>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="16">
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="44"/>
-      <c r="AA8" s="21">
-        <f>K8*0.2+S8*0.25+X8*0.25+Y8*0.3+Z8*0.15</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V8" s="6"/>
+      <c r="W8" s="44"/>
+      <c r="X8" s="21">
+        <f>K8*0.2+P8*0.25+U8*0.25+V8*0.3+W8*0.15</f>
+        <v>68.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>75</v>
-      </c>
       <c r="C9" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="7">
@@ -1895,46 +1877,45 @@
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="16">
-        <f>SUM(D9:J9)*50/K$1</f>
+        <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="L9" s="14"/>
+      <c r="L9" s="14">
+        <v>90</v>
+      </c>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="16">
-        <f>SUM(L9:R9)/S$1</f>
-        <v>0</v>
-      </c>
-      <c r="T9" s="14">
+      <c r="P9" s="16">
+        <f>SUM(L9:O9)/P$1</f>
+        <v>90</v>
+      </c>
+      <c r="Q9" s="14">
         <v>60</v>
       </c>
-      <c r="U9" s="14"/>
-      <c r="V9" s="14"/>
-      <c r="W9" s="14"/>
-      <c r="X9" s="16">
-        <f>SUM(T9:W9)/X$1</f>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="16">
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="Y9" s="6"/>
-      <c r="Z9" s="44"/>
-      <c r="AA9" s="21">
-        <f>K9*0.2+S9*0.25+X9*0.25+Y9*0.3+Z9*0.15</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V9" s="6"/>
+      <c r="W9" s="44"/>
+      <c r="X9" s="21">
+        <f>K9*0.2+P9*0.25+U9*0.25+V9*0.3+W9*0.15</f>
+        <v>67.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="11" t="s">
         <v>82</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>83</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="7">
@@ -1950,46 +1931,45 @@
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="16">
-        <f>SUM(D10:J10)*50/K$1</f>
+        <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="L10" s="14"/>
+      <c r="L10" s="14">
+        <v>90</v>
+      </c>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="16">
-        <f>SUM(L10:R10)/S$1</f>
-        <v>0</v>
-      </c>
-      <c r="T10" s="14">
+      <c r="P10" s="16">
+        <f>SUM(L10:O10)/P$1</f>
+        <v>90</v>
+      </c>
+      <c r="Q10" s="14">
         <v>60</v>
       </c>
-      <c r="U10" s="14"/>
-      <c r="V10" s="14"/>
-      <c r="W10" s="14"/>
-      <c r="X10" s="16">
-        <f>SUM(T10:W10)/X$1</f>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="16">
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="Y10" s="6"/>
-      <c r="Z10" s="44"/>
-      <c r="AA10" s="21">
-        <f>K10*0.2+S10*0.25+X10*0.25+Y10*0.3+Z10*0.15</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V10" s="6"/>
+      <c r="W10" s="44"/>
+      <c r="X10" s="21">
+        <f>K10*0.2+P10*0.25+U10*0.25+V10*0.3+W10*0.15</f>
+        <v>67.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="C11" s="11" t="s">
         <v>85</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>86</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="7">
@@ -2005,46 +1985,45 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="16">
-        <f>SUM(D11:J11)*50/K$1</f>
+        <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="L11" s="14"/>
+      <c r="L11" s="14">
+        <v>100</v>
+      </c>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="16">
-        <f>SUM(L11:R11)/S$1</f>
-        <v>0</v>
-      </c>
-      <c r="T11" s="14">
+      <c r="P11" s="16">
+        <f>SUM(L11:O11)/P$1</f>
+        <v>100</v>
+      </c>
+      <c r="Q11" s="14">
         <v>60</v>
       </c>
-      <c r="U11" s="14"/>
-      <c r="V11" s="14"/>
-      <c r="W11" s="14"/>
-      <c r="X11" s="16">
-        <f>SUM(T11:W11)/X$1</f>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="16">
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="Y11" s="6"/>
-      <c r="Z11" s="44"/>
-      <c r="AA11" s="21">
-        <f>K11*0.2+S11*0.25+X11*0.25+Y11*0.3+Z11*0.1</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V11" s="6"/>
+      <c r="W11" s="44"/>
+      <c r="X11" s="21">
+        <f>K11*0.2+P11*0.25+U11*0.25+V11*0.3+W11*0.1</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="7">
@@ -2054,52 +2033,51 @@
         <v>2</v>
       </c>
       <c r="G12" s="7">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="K12" s="16">
-        <f>SUM(D12:J12)*50/K$1</f>
-        <v>142.5</v>
-      </c>
-      <c r="L12" s="14"/>
+        <f t="shared" si="0"/>
+        <v>145</v>
+      </c>
+      <c r="L12" s="14">
+        <v>95</v>
+      </c>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="16">
-        <f>SUM(L12:R12)/S$1</f>
-        <v>0</v>
-      </c>
-      <c r="T12" s="14">
+      <c r="P12" s="16">
+        <f>SUM(L12:O12)/P$1</f>
+        <v>95</v>
+      </c>
+      <c r="Q12" s="14">
         <v>60</v>
       </c>
-      <c r="U12" s="14"/>
-      <c r="V12" s="14"/>
-      <c r="W12" s="14"/>
-      <c r="X12" s="16">
-        <f>SUM(T12:W12)/X$1</f>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="16">
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="Y12" s="6"/>
-      <c r="Z12" s="44"/>
-      <c r="AA12" s="21">
-        <f>K12*0.2+S12*0.25+X12*0.25+Y12*0.3+Z12*0.15</f>
-        <v>43.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V12" s="6"/>
+      <c r="W12" s="44"/>
+      <c r="X12" s="21">
+        <f>K12*0.2+P12*0.25+U12*0.25+V12*0.3+W12*0.15</f>
+        <v>67.75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>54</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>55</v>
       </c>
       <c r="D13" s="12">
         <v>2</v>
@@ -2117,46 +2095,45 @@
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="K13" s="16">
-        <f>SUM(D13:J13)*50/K$1</f>
+        <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="L13" s="14"/>
+      <c r="L13" s="14">
+        <v>85</v>
+      </c>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="16">
-        <f>SUM(L13:R13)/S$1</f>
-        <v>0</v>
-      </c>
-      <c r="T13" s="14">
-        <v>0</v>
-      </c>
-      <c r="U13" s="14"/>
-      <c r="V13" s="14"/>
-      <c r="W13" s="14"/>
-      <c r="X13" s="16">
-        <f>SUM(T13:W13)/X$1</f>
-        <v>0</v>
-      </c>
-      <c r="Y13" s="6"/>
-      <c r="Z13" s="44"/>
-      <c r="AA13" s="21">
-        <f>K13*0.2+S13*0.25+X13*0.25+Y13*0.3+Z13*0.15</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P13" s="16">
+        <f>SUM(L13:O13)/P$1</f>
+        <v>85</v>
+      </c>
+      <c r="Q13" s="14">
+        <v>0</v>
+      </c>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V13" s="6"/>
+      <c r="W13" s="44"/>
+      <c r="X13" s="21">
+        <f>K13*0.2+P13*0.25+U13*0.25+V13*0.3+W13*0.15</f>
+        <v>61.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>58</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>59</v>
       </c>
       <c r="D14" s="12">
         <v>2</v>
@@ -2174,38 +2151,37 @@
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="16">
-        <f>SUM(D14:J14)*50/K$1</f>
+        <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="L14" s="14"/>
+      <c r="L14" s="14">
+        <v>80</v>
+      </c>
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="16">
-        <f>SUM(L14:R14)/S$1</f>
-        <v>0</v>
-      </c>
-      <c r="T14" s="14">
-        <v>0</v>
-      </c>
-      <c r="U14" s="14"/>
-      <c r="V14" s="14"/>
-      <c r="W14" s="14"/>
-      <c r="X14" s="16">
-        <f>SUM(T14:W14)/X$1</f>
-        <v>0</v>
-      </c>
-      <c r="Y14" s="6"/>
-      <c r="Z14" s="44"/>
-      <c r="AA14" s="21">
-        <f>K14*0.2+S14*0.25+X14*0.25+Y14*0.3+Z14*0.15</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P14" s="16">
+        <f>SUM(L14:O14)/P$1</f>
+        <v>80</v>
+      </c>
+      <c r="Q14" s="14">
+        <v>0</v>
+      </c>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V14" s="6"/>
+      <c r="W14" s="44"/>
+      <c r="X14" s="21">
+        <f>K14*0.2+P14*0.25+U14*0.25+V14*0.3+W14*0.15</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
         <v>17</v>
       </c>
@@ -2229,46 +2205,45 @@
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
       <c r="K15" s="16">
-        <f>SUM(D15:J15)*50/K$1</f>
+        <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="L15" s="14"/>
+      <c r="L15" s="14">
+        <v>85</v>
+      </c>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="16">
-        <f>SUM(L15:R15)/S$1</f>
-        <v>0</v>
-      </c>
-      <c r="T15" s="14">
-        <v>0</v>
-      </c>
-      <c r="U15" s="14"/>
-      <c r="V15" s="14"/>
-      <c r="W15" s="14"/>
-      <c r="X15" s="16">
-        <f>SUM(T15:W15)/X$1</f>
-        <v>0</v>
-      </c>
-      <c r="Y15" s="6"/>
-      <c r="Z15" s="44"/>
-      <c r="AA15" s="21">
-        <f>K15*0.2+S15*0.25+X15*0.25+Y15*0.3+Z15*0.15</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P15" s="16">
+        <f>SUM(L15:O15)/P$1</f>
+        <v>85</v>
+      </c>
+      <c r="Q15" s="14">
+        <v>0</v>
+      </c>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V15" s="6"/>
+      <c r="W15" s="44"/>
+      <c r="X15" s="21">
+        <f>K15*0.2+P15*0.25+U15*0.25+V15*0.3+W15*0.15</f>
+        <v>51.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="C16" s="11" t="s">
         <v>77</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>78</v>
       </c>
       <c r="D16" s="12"/>
       <c r="E16" s="7">
@@ -2284,46 +2259,45 @@
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="16">
-        <f>SUM(D16:J16)*50/K$1</f>
+        <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="L16" s="14"/>
+      <c r="L16" s="14">
+        <v>90</v>
+      </c>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="16">
-        <f>SUM(L16:R16)/S$1</f>
-        <v>0</v>
-      </c>
-      <c r="T16" s="14">
-        <v>0</v>
-      </c>
-      <c r="U16" s="14"/>
-      <c r="V16" s="14"/>
-      <c r="W16" s="14"/>
-      <c r="X16" s="16">
-        <f>SUM(T16:W16)/X$1</f>
-        <v>0</v>
-      </c>
-      <c r="Y16" s="6"/>
-      <c r="Z16" s="44"/>
-      <c r="AA16" s="21">
-        <f>K16*0.2+S16*0.25+X16*0.25+Y16*0.3+Z16*0.15</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P16" s="16">
+        <f>SUM(L16:O16)/P$1</f>
+        <v>90</v>
+      </c>
+      <c r="Q16" s="14">
+        <v>0</v>
+      </c>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V16" s="6"/>
+      <c r="W16" s="44"/>
+      <c r="X16" s="21">
+        <f>K16*0.2+P16*0.25+U16*0.25+V16*0.3+W16*0.15</f>
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="C17" s="11" t="s">
         <v>67</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>68</v>
       </c>
       <c r="D17" s="12"/>
       <c r="E17" s="7">
@@ -2337,602 +2311,565 @@
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="K17" s="16">
-        <f>SUM(D17:J17)*50/K$1</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="L17" s="14"/>
+      <c r="L17" s="14">
+        <v>90</v>
+      </c>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="16">
-        <f>SUM(L17:R17)/S$1</f>
-        <v>0</v>
-      </c>
-      <c r="T17" s="14">
-        <v>0</v>
-      </c>
-      <c r="U17" s="14"/>
-      <c r="V17" s="14"/>
-      <c r="W17" s="14"/>
-      <c r="X17" s="16">
-        <f>SUM(T17:W17)/X$1</f>
-        <v>0</v>
-      </c>
-      <c r="Y17" s="6"/>
-      <c r="Z17" s="44"/>
-      <c r="AA17" s="21">
-        <f>K17*0.2+S17*0.25+X17*0.25+Y17*0.3+Z17*0.15</f>
+      <c r="P17" s="16">
+        <f>SUM(L17:O17)/P$1</f>
+        <v>90</v>
+      </c>
+      <c r="Q17" s="14">
+        <v>0</v>
+      </c>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V17" s="6"/>
+      <c r="W17" s="44"/>
+      <c r="X17" s="21">
+        <f>K17*0.2+P17*0.25+U17*0.25+V17*0.3+W17*0.15</f>
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" s="57" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="50"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="53"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="54"/>
+      <c r="P18" s="52">
+        <f>SUM(L18:O18)/P$1</f>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="53"/>
+      <c r="R18" s="53"/>
+      <c r="S18" s="53"/>
+      <c r="T18" s="53"/>
+      <c r="U18" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V18" s="54"/>
+      <c r="W18" s="55"/>
+      <c r="X18" s="56">
+        <f>K18*0.2+P18*0.25+U18*0.25+V18*0.3+W18*0.15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" s="57" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="50"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="53"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="54"/>
+      <c r="P19" s="52">
+        <f>SUM(L19:O19)/P$1</f>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="53"/>
+      <c r="R19" s="53"/>
+      <c r="S19" s="53"/>
+      <c r="T19" s="53"/>
+      <c r="U19" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V19" s="54"/>
+      <c r="W19" s="55"/>
+      <c r="X19" s="56">
+        <f>K19*0.2+P19*0.25+U19*0.25+V19*0.3+W19*0.15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" s="57" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="50"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="53"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="54"/>
+      <c r="O20" s="54"/>
+      <c r="P20" s="52">
+        <f>SUM(L20:O20)/P$1</f>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="53"/>
+      <c r="R20" s="53"/>
+      <c r="S20" s="53"/>
+      <c r="T20" s="53"/>
+      <c r="U20" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V20" s="54"/>
+      <c r="W20" s="55"/>
+      <c r="X20" s="56">
+        <f>K20*0.2+P20*0.25+U20*0.25+V20*0.3+W20*0.15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" s="57" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="50"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="53"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="54"/>
+      <c r="O21" s="54"/>
+      <c r="P21" s="52">
+        <f>SUM(L21:O21)/P$1</f>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="53"/>
+      <c r="R21" s="53"/>
+      <c r="S21" s="53"/>
+      <c r="T21" s="53"/>
+      <c r="U21" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V21" s="54"/>
+      <c r="W21" s="55"/>
+      <c r="X21" s="56">
+        <f>K21*0.2+P21*0.25+U21*0.25+V21*0.3+W21*0.15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" s="57" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="53"/>
+      <c r="M22" s="54"/>
+      <c r="N22" s="54"/>
+      <c r="O22" s="54"/>
+      <c r="P22" s="52">
+        <f>SUM(L22:O22)/P$1</f>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="53"/>
+      <c r="R22" s="53"/>
+      <c r="S22" s="53"/>
+      <c r="T22" s="53"/>
+      <c r="U22" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V22" s="54"/>
+      <c r="W22" s="55"/>
+      <c r="X22" s="56">
+        <f>K22*0.2+P22*0.25+U22*0.25+V22*0.3+W22*0.15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" s="57" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="50"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="53"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="54"/>
+      <c r="O23" s="54"/>
+      <c r="P23" s="52">
+        <f>SUM(L23:O23)/P$1</f>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="53"/>
+      <c r="R23" s="53"/>
+      <c r="S23" s="53"/>
+      <c r="T23" s="53"/>
+      <c r="U23" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V23" s="54"/>
+      <c r="W23" s="55"/>
+      <c r="X23" s="56">
+        <f>K23*0.2+P23*0.25+U23*0.25+V23*0.3+W23*0.15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" s="57" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="47" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:27" s="62" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="52" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="53" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="57">
-        <f>SUM(D18:J18)*50/K$1</f>
-        <v>0</v>
-      </c>
-      <c r="L18" s="58"/>
-      <c r="M18" s="59"/>
-      <c r="N18" s="59"/>
-      <c r="O18" s="59"/>
-      <c r="P18" s="59"/>
-      <c r="Q18" s="59"/>
-      <c r="R18" s="59"/>
-      <c r="S18" s="57">
-        <f>SUM(L18:R18)/S$1</f>
-        <v>0</v>
-      </c>
-      <c r="T18" s="58"/>
-      <c r="U18" s="58"/>
-      <c r="V18" s="58"/>
-      <c r="W18" s="58"/>
-      <c r="X18" s="57">
-        <f>SUM(T18:W18)/X$1</f>
-        <v>0</v>
-      </c>
-      <c r="Y18" s="59"/>
-      <c r="Z18" s="60"/>
-      <c r="AA18" s="61">
-        <f>K18*0.2+S18*0.25+X18*0.25+Y18*0.3+Z18*0.15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27" s="62" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="55"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="57">
-        <f>SUM(D19:J19)*50/K$1</f>
-        <v>0</v>
-      </c>
-      <c r="L19" s="58"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="59"/>
-      <c r="O19" s="59"/>
-      <c r="P19" s="59"/>
-      <c r="Q19" s="59"/>
-      <c r="R19" s="59"/>
-      <c r="S19" s="57">
-        <f>SUM(L19:R19)/S$1</f>
-        <v>0</v>
-      </c>
-      <c r="T19" s="58"/>
-      <c r="U19" s="58"/>
-      <c r="V19" s="58"/>
-      <c r="W19" s="58"/>
-      <c r="X19" s="57">
-        <f>SUM(T19:W19)/X$1</f>
-        <v>0</v>
-      </c>
-      <c r="Y19" s="59"/>
-      <c r="Z19" s="60"/>
-      <c r="AA19" s="61">
-        <f>K19*0.2+S19*0.25+X19*0.25+Y19*0.3+Z19*0.15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27" s="62" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20" s="53" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="57">
-        <f>SUM(D20:J20)*50/K$1</f>
-        <v>0</v>
-      </c>
-      <c r="L20" s="58"/>
-      <c r="M20" s="59"/>
-      <c r="N20" s="59"/>
-      <c r="O20" s="59"/>
-      <c r="P20" s="59"/>
-      <c r="Q20" s="59"/>
-      <c r="R20" s="59"/>
-      <c r="S20" s="57">
-        <f>SUM(L20:R20)/S$1</f>
-        <v>0</v>
-      </c>
-      <c r="T20" s="58"/>
-      <c r="U20" s="58"/>
-      <c r="V20" s="58"/>
-      <c r="W20" s="58"/>
-      <c r="X20" s="57">
-        <f>SUM(T20:W20)/X$1</f>
-        <v>0</v>
-      </c>
-      <c r="Y20" s="59"/>
-      <c r="Z20" s="60"/>
-      <c r="AA20" s="61">
-        <f>K20*0.2+S20*0.25+X20*0.25+Y20*0.3+Z20*0.15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27" s="62" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="54" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="55"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="57">
-        <f>SUM(D21:J21)*50/K$1</f>
-        <v>0</v>
-      </c>
-      <c r="L21" s="58"/>
-      <c r="M21" s="59"/>
-      <c r="N21" s="59"/>
-      <c r="O21" s="59"/>
-      <c r="P21" s="59"/>
-      <c r="Q21" s="59"/>
-      <c r="R21" s="59"/>
-      <c r="S21" s="57">
-        <f>SUM(L21:R21)/S$1</f>
-        <v>0</v>
-      </c>
-      <c r="T21" s="58"/>
-      <c r="U21" s="58"/>
-      <c r="V21" s="58"/>
-      <c r="W21" s="58"/>
-      <c r="X21" s="57">
-        <f>SUM(T21:W21)/X$1</f>
-        <v>0</v>
-      </c>
-      <c r="Y21" s="59"/>
-      <c r="Z21" s="60"/>
-      <c r="AA21" s="61">
-        <f>K21*0.2+S21*0.25+X21*0.25+Y21*0.3+Z21*0.15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27" s="62" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="57">
-        <f>SUM(D22:J22)*50/K$1</f>
-        <v>0</v>
-      </c>
-      <c r="L22" s="58"/>
-      <c r="M22" s="59"/>
-      <c r="N22" s="59"/>
-      <c r="O22" s="59"/>
-      <c r="P22" s="59"/>
-      <c r="Q22" s="59"/>
-      <c r="R22" s="59"/>
-      <c r="S22" s="57">
-        <f>SUM(L22:R22)/S$1</f>
-        <v>0</v>
-      </c>
-      <c r="T22" s="58"/>
-      <c r="U22" s="58"/>
-      <c r="V22" s="58"/>
-      <c r="W22" s="58"/>
-      <c r="X22" s="57">
-        <f>SUM(T22:W22)/X$1</f>
-        <v>0</v>
-      </c>
-      <c r="Y22" s="59"/>
-      <c r="Z22" s="60"/>
-      <c r="AA22" s="61">
-        <f>K22*0.2+S22*0.25+X22*0.25+Y22*0.3+Z22*0.15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27" s="62" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="55"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="56"/>
-      <c r="K23" s="57">
-        <f>SUM(D23:J23)*50/K$1</f>
-        <v>0</v>
-      </c>
-      <c r="L23" s="58"/>
-      <c r="M23" s="59"/>
-      <c r="N23" s="59"/>
-      <c r="O23" s="59"/>
-      <c r="P23" s="59"/>
-      <c r="Q23" s="59"/>
-      <c r="R23" s="59"/>
-      <c r="S23" s="57">
-        <f>SUM(L23:R23)/S$1</f>
-        <v>0</v>
-      </c>
-      <c r="T23" s="58"/>
-      <c r="U23" s="58"/>
-      <c r="V23" s="58"/>
-      <c r="W23" s="58"/>
-      <c r="X23" s="57">
-        <f>SUM(T23:W23)/X$1</f>
-        <v>0</v>
-      </c>
-      <c r="Y23" s="59"/>
-      <c r="Z23" s="60"/>
-      <c r="AA23" s="61">
-        <f>K23*0.2+S23*0.25+X23*0.25+Y23*0.3+Z23*0.15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27" s="62" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="53" t="s">
+      <c r="B24" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="54" t="s">
+      <c r="C24" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="55"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="56"/>
-      <c r="K24" s="57">
-        <f>SUM(D24:J24)*50/K$1</f>
-        <v>0</v>
-      </c>
-      <c r="L24" s="58"/>
-      <c r="M24" s="59"/>
-      <c r="N24" s="59"/>
-      <c r="O24" s="59"/>
-      <c r="P24" s="59"/>
-      <c r="Q24" s="59"/>
-      <c r="R24" s="59"/>
-      <c r="S24" s="57">
-        <f>SUM(L24:R24)/S$1</f>
-        <v>0</v>
-      </c>
-      <c r="T24" s="58"/>
-      <c r="U24" s="58"/>
-      <c r="V24" s="58"/>
-      <c r="W24" s="58"/>
-      <c r="X24" s="57">
-        <f>SUM(T24:W24)/X$1</f>
-        <v>0</v>
-      </c>
-      <c r="Y24" s="59"/>
-      <c r="Z24" s="60"/>
-      <c r="AA24" s="61">
-        <f>K24*0.2+S24*0.25+X24*0.25+Y24*0.3+Z24*0.15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27" s="62" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="52" t="s">
+      <c r="D24" s="50"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="53"/>
+      <c r="M24" s="54"/>
+      <c r="N24" s="54"/>
+      <c r="O24" s="54"/>
+      <c r="P24" s="52">
+        <f>SUM(L24:O24)/P$1</f>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="53"/>
+      <c r="R24" s="53"/>
+      <c r="S24" s="53"/>
+      <c r="T24" s="53"/>
+      <c r="U24" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V24" s="54"/>
+      <c r="W24" s="55"/>
+      <c r="X24" s="56">
+        <f>K24*0.2+P24*0.25+U24*0.25+V24*0.3+W24*0.15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" s="57" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="53" t="s">
+      <c r="B25" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="54" t="s">
+      <c r="C25" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="55"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="56"/>
-      <c r="K25" s="57">
-        <f>SUM(D25:J25)*50/K$1</f>
-        <v>0</v>
-      </c>
-      <c r="L25" s="58"/>
-      <c r="M25" s="59"/>
-      <c r="N25" s="59"/>
-      <c r="O25" s="59"/>
-      <c r="P25" s="59"/>
-      <c r="Q25" s="59"/>
-      <c r="R25" s="59"/>
-      <c r="S25" s="57">
-        <f>SUM(L25:R25)/S$1</f>
-        <v>0</v>
-      </c>
-      <c r="T25" s="58"/>
-      <c r="U25" s="58"/>
-      <c r="V25" s="58"/>
-      <c r="W25" s="58"/>
-      <c r="X25" s="57">
-        <f>SUM(T25:W25)/X$1</f>
-        <v>0</v>
-      </c>
-      <c r="Y25" s="59"/>
-      <c r="Z25" s="60"/>
-      <c r="AA25" s="61">
-        <f>K25*0.2+S25*0.25+X25*0.25+Y25*0.3+Z25*0.15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27" s="62" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="52" t="s">
+      <c r="D25" s="50"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="53"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="54"/>
+      <c r="O25" s="54"/>
+      <c r="P25" s="52">
+        <f>SUM(L25:O25)/P$1</f>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="53"/>
+      <c r="R25" s="53"/>
+      <c r="S25" s="53"/>
+      <c r="T25" s="53"/>
+      <c r="U25" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V25" s="54"/>
+      <c r="W25" s="55"/>
+      <c r="X25" s="56">
+        <f>K25*0.2+P25*0.25+U25*0.25+V25*0.3+W25*0.15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" s="57" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="53" t="s">
+      <c r="B26" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="54" t="s">
+      <c r="C26" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="55"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="56"/>
-      <c r="J26" s="56"/>
-      <c r="K26" s="57">
-        <f>SUM(D26:J26)*50/K$1</f>
-        <v>0</v>
-      </c>
-      <c r="L26" s="58"/>
-      <c r="M26" s="59"/>
-      <c r="N26" s="59"/>
-      <c r="O26" s="59"/>
-      <c r="P26" s="59"/>
-      <c r="Q26" s="59"/>
-      <c r="R26" s="59"/>
-      <c r="S26" s="57">
-        <f>SUM(L26:R26)/S$1</f>
-        <v>0</v>
-      </c>
-      <c r="T26" s="58"/>
-      <c r="U26" s="58"/>
-      <c r="V26" s="58"/>
-      <c r="W26" s="58"/>
-      <c r="X26" s="57">
-        <f>SUM(T26:W26)/X$1</f>
-        <v>0</v>
-      </c>
-      <c r="Y26" s="59"/>
-      <c r="Z26" s="60"/>
-      <c r="AA26" s="61">
-        <f>K26*0.2+S26*0.25+X26*0.25+Y26*0.3+Z26*0.15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27" s="62" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="52" t="s">
+      <c r="D26" s="50"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="53"/>
+      <c r="M26" s="54"/>
+      <c r="N26" s="54"/>
+      <c r="O26" s="54"/>
+      <c r="P26" s="52">
+        <f>SUM(L26:O26)/P$1</f>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="53"/>
+      <c r="R26" s="53"/>
+      <c r="S26" s="53"/>
+      <c r="T26" s="53"/>
+      <c r="U26" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V26" s="54"/>
+      <c r="W26" s="55"/>
+      <c r="X26" s="56">
+        <f>K26*0.2+P26*0.25+U26*0.25+V26*0.3+W26*0.15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" s="57" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="B27" s="53" t="s">
+      <c r="C27" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="C27" s="54" t="s">
+      <c r="D27" s="50"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="53"/>
+      <c r="M27" s="54"/>
+      <c r="N27" s="54"/>
+      <c r="O27" s="54"/>
+      <c r="P27" s="52">
+        <f>SUM(L27:O27)/P$1</f>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="53"/>
+      <c r="R27" s="53"/>
+      <c r="S27" s="53"/>
+      <c r="T27" s="53"/>
+      <c r="U27" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V27" s="54"/>
+      <c r="W27" s="55"/>
+      <c r="X27" s="56">
+        <f>K27*0.2+P27*0.25+U27*0.25+V27*0.3+W27*0.1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" s="57" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="D27" s="55"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="56"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="56"/>
-      <c r="J27" s="56"/>
-      <c r="K27" s="57">
-        <f>SUM(D27:J27)*50/K$1</f>
-        <v>0</v>
-      </c>
-      <c r="L27" s="58"/>
-      <c r="M27" s="59"/>
-      <c r="N27" s="59"/>
-      <c r="O27" s="59"/>
-      <c r="P27" s="59"/>
-      <c r="Q27" s="59"/>
-      <c r="R27" s="59"/>
-      <c r="S27" s="57">
-        <f>SUM(L27:R27)/S$1</f>
-        <v>0</v>
-      </c>
-      <c r="T27" s="58"/>
-      <c r="U27" s="58"/>
-      <c r="V27" s="58"/>
-      <c r="W27" s="58"/>
-      <c r="X27" s="57">
-        <f>SUM(T27:W27)/X$1</f>
-        <v>0</v>
-      </c>
-      <c r="Y27" s="59"/>
-      <c r="Z27" s="60"/>
-      <c r="AA27" s="61">
-        <f>K27*0.2+S27*0.25+X27*0.25+Y27*0.3+Z27*0.1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27" s="62" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="52" t="s">
+      <c r="B28" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="B28" s="53" t="s">
+      <c r="C28" s="49" t="s">
         <v>91</v>
       </c>
-      <c r="C28" s="54" t="s">
+      <c r="D28" s="50"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="51"/>
+      <c r="K28" s="52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="53"/>
+      <c r="M28" s="54"/>
+      <c r="N28" s="54"/>
+      <c r="O28" s="54"/>
+      <c r="P28" s="52">
+        <f>SUM(L28:O28)/P$1</f>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="53"/>
+      <c r="R28" s="53"/>
+      <c r="S28" s="53"/>
+      <c r="T28" s="53"/>
+      <c r="U28" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V28" s="54"/>
+      <c r="W28" s="55"/>
+      <c r="X28" s="56">
+        <f>K28*0.2+P28*0.25+U28*0.25+V28*0.3+W28*0.1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" s="58" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="D28" s="55"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="56"/>
-      <c r="K28" s="57">
-        <f>SUM(D28:J28)*50/K$1</f>
-        <v>0</v>
-      </c>
-      <c r="L28" s="58"/>
-      <c r="M28" s="59"/>
-      <c r="N28" s="59"/>
-      <c r="O28" s="59"/>
-      <c r="P28" s="59"/>
-      <c r="Q28" s="59"/>
-      <c r="R28" s="59"/>
-      <c r="S28" s="57">
-        <f>SUM(L28:R28)/S$1</f>
-        <v>0</v>
-      </c>
-      <c r="T28" s="58"/>
-      <c r="U28" s="58"/>
-      <c r="V28" s="58"/>
-      <c r="W28" s="58"/>
-      <c r="X28" s="57">
-        <f>SUM(T28:W28)/X$1</f>
-        <v>0</v>
-      </c>
-      <c r="Y28" s="59"/>
-      <c r="Z28" s="60"/>
-      <c r="AA28" s="61">
-        <f>K28*0.2+S28*0.25+X28*0.25+Y28*0.3+Z28*0.1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27" s="63" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="52" t="s">
+      <c r="B29" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="B29" s="53" t="s">
+      <c r="C29" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="C29" s="54" t="s">
-        <v>95</v>
-      </c>
-      <c r="D29" s="55"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="56"/>
-      <c r="G29" s="56"/>
-      <c r="H29" s="56"/>
-      <c r="I29" s="56"/>
-      <c r="J29" s="56"/>
-      <c r="K29" s="57">
-        <f>SUM(D29:J29)*50/K$1</f>
-        <v>0</v>
-      </c>
-      <c r="L29" s="58"/>
-      <c r="M29" s="59"/>
-      <c r="N29" s="59"/>
-      <c r="O29" s="59"/>
-      <c r="P29" s="59"/>
-      <c r="Q29" s="59"/>
-      <c r="R29" s="59"/>
-      <c r="S29" s="57">
-        <f>SUM(L29:R29)/S$1</f>
-        <v>0</v>
-      </c>
-      <c r="T29" s="58"/>
-      <c r="U29" s="58"/>
-      <c r="V29" s="58"/>
-      <c r="W29" s="58"/>
-      <c r="X29" s="57">
-        <f>SUM(T29:W29)/X$1</f>
-        <v>0</v>
-      </c>
-      <c r="Y29" s="59"/>
-      <c r="Z29" s="60"/>
-      <c r="AA29" s="61">
-        <f>K29*0.2+S29*0.25+X29*0.25+Y29*0.3+Z29*0.1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D29" s="50"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="51"/>
+      <c r="K29" s="52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="53"/>
+      <c r="M29" s="54"/>
+      <c r="N29" s="54"/>
+      <c r="O29" s="54"/>
+      <c r="P29" s="52">
+        <f>SUM(L29:O29)/P$1</f>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="53"/>
+      <c r="R29" s="53"/>
+      <c r="S29" s="53"/>
+      <c r="T29" s="53"/>
+      <c r="U29" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V29" s="54"/>
+      <c r="W29" s="55"/>
+      <c r="X29" s="56">
+        <f>K29*0.2+P29*0.25+U29*0.25+V29*0.3+W29*0.1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="20"/>
       <c r="B30" s="3"/>
       <c r="C30" s="11"/>
@@ -2944,36 +2881,33 @@
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
       <c r="K30" s="16">
-        <f>SUM(D30:J30)*50/K$1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L30" s="14"/>
       <c r="M30" s="6"/>
       <c r="N30" s="6"/>
       <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="6"/>
-      <c r="R30" s="6"/>
-      <c r="S30" s="16">
-        <f>SUM(L30:R30)/S$1</f>
-        <v>0</v>
-      </c>
+      <c r="P30" s="16">
+        <f>SUM(L30:O30)/P$1</f>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="14"/>
+      <c r="S30" s="14"/>
       <c r="T30" s="14"/>
-      <c r="U30" s="14"/>
-      <c r="V30" s="14"/>
-      <c r="W30" s="14"/>
-      <c r="X30" s="16">
-        <f>SUM(T30:W30)/X$1</f>
-        <v>0</v>
-      </c>
-      <c r="Y30" s="6"/>
-      <c r="Z30" s="44"/>
-      <c r="AA30" s="21">
-        <f>K30*0.2+S30*0.25+X30*0.25+Y30*0.3+Z30*0.1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U30" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V30" s="6"/>
+      <c r="W30" s="44"/>
+      <c r="X30" s="21">
+        <f>K30*0.2+P30*0.25+U30*0.25+V30*0.3+W30*0.1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -2995,11 +2929,8 @@
       <c r="S31" s="9"/>
       <c r="T31" s="9"/>
       <c r="U31" s="9"/>
-      <c r="V31" s="9"/>
-      <c r="W31" s="9"/>
-      <c r="X31" s="9"/>
-    </row>
-    <row r="32" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -3021,11 +2952,8 @@
       <c r="S32" s="9"/>
       <c r="T32" s="9"/>
       <c r="U32" s="9"/>
-      <c r="V32" s="9"/>
-      <c r="W32" s="9"/>
-      <c r="X32" s="9"/>
-    </row>
-    <row r="33" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -3047,11 +2975,8 @@
       <c r="S33" s="9"/>
       <c r="T33" s="9"/>
       <c r="U33" s="9"/>
-      <c r="V33" s="9"/>
-      <c r="W33" s="9"/>
-      <c r="X33" s="9"/>
-    </row>
-    <row r="34" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -3073,11 +2998,8 @@
       <c r="S34" s="9"/>
       <c r="T34" s="9"/>
       <c r="U34" s="9"/>
-      <c r="V34" s="9"/>
-      <c r="W34" s="9"/>
-      <c r="X34" s="9"/>
-    </row>
-    <row r="35" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -3099,11 +3021,8 @@
       <c r="S35" s="9"/>
       <c r="T35" s="9"/>
       <c r="U35" s="9"/>
-      <c r="V35" s="9"/>
-      <c r="W35" s="9"/>
-      <c r="X35" s="9"/>
-    </row>
-    <row r="36" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -3125,11 +3044,8 @@
       <c r="S36" s="9"/>
       <c r="T36" s="9"/>
       <c r="U36" s="9"/>
-      <c r="V36" s="9"/>
-      <c r="W36" s="9"/>
-      <c r="X36" s="9"/>
-    </row>
-    <row r="37" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -3151,11 +3067,8 @@
       <c r="S37" s="9"/>
       <c r="T37" s="9"/>
       <c r="U37" s="9"/>
-      <c r="V37" s="9"/>
-      <c r="W37" s="9"/>
-      <c r="X37" s="9"/>
-    </row>
-    <row r="38" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -3177,11 +3090,8 @@
       <c r="S38" s="9"/>
       <c r="T38" s="9"/>
       <c r="U38" s="9"/>
-      <c r="V38" s="9"/>
-      <c r="W38" s="9"/>
-      <c r="X38" s="9"/>
-    </row>
-    <row r="39" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -3203,11 +3113,8 @@
       <c r="S39" s="9"/>
       <c r="T39" s="9"/>
       <c r="U39" s="9"/>
-      <c r="V39" s="9"/>
-      <c r="W39" s="9"/>
-      <c r="X39" s="9"/>
-    </row>
-    <row r="40" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -3229,11 +3136,8 @@
       <c r="S40" s="9"/>
       <c r="T40" s="9"/>
       <c r="U40" s="9"/>
-      <c r="V40" s="9"/>
-      <c r="W40" s="9"/>
-      <c r="X40" s="9"/>
-    </row>
-    <row r="41" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -3255,11 +3159,8 @@
       <c r="S41" s="9"/>
       <c r="T41" s="9"/>
       <c r="U41" s="9"/>
-      <c r="V41" s="9"/>
-      <c r="W41" s="9"/>
-      <c r="X41" s="9"/>
-    </row>
-    <row r="42" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -3281,11 +3182,8 @@
       <c r="S42" s="9"/>
       <c r="T42" s="9"/>
       <c r="U42" s="9"/>
-      <c r="V42" s="9"/>
-      <c r="W42" s="9"/>
-      <c r="X42" s="9"/>
-    </row>
-    <row r="43" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -3307,11 +3205,8 @@
       <c r="S43" s="9"/>
       <c r="T43" s="9"/>
       <c r="U43" s="9"/>
-      <c r="V43" s="9"/>
-      <c r="W43" s="9"/>
-      <c r="X43" s="9"/>
-    </row>
-    <row r="44" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -3333,11 +3228,8 @@
       <c r="S44" s="9"/>
       <c r="T44" s="9"/>
       <c r="U44" s="9"/>
-      <c r="V44" s="9"/>
-      <c r="W44" s="9"/>
-      <c r="X44" s="9"/>
-    </row>
-    <row r="45" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -3359,11 +3251,8 @@
       <c r="S45" s="9"/>
       <c r="T45" s="9"/>
       <c r="U45" s="9"/>
-      <c r="V45" s="9"/>
-      <c r="W45" s="9"/>
-      <c r="X45" s="9"/>
-    </row>
-    <row r="46" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -3385,11 +3274,8 @@
       <c r="S46" s="9"/>
       <c r="T46" s="9"/>
       <c r="U46" s="9"/>
-      <c r="V46" s="9"/>
-      <c r="W46" s="9"/>
-      <c r="X46" s="9"/>
-    </row>
-    <row r="47" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -3411,11 +3297,8 @@
       <c r="S47" s="9"/>
       <c r="T47" s="9"/>
       <c r="U47" s="9"/>
-      <c r="V47" s="9"/>
-      <c r="W47" s="9"/>
-      <c r="X47" s="9"/>
-    </row>
-    <row r="48" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -3437,11 +3320,8 @@
       <c r="S48" s="9"/>
       <c r="T48" s="9"/>
       <c r="U48" s="9"/>
-      <c r="V48" s="9"/>
-      <c r="W48" s="9"/>
-      <c r="X48" s="9"/>
-    </row>
-    <row r="49" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -3463,11 +3343,8 @@
       <c r="S49" s="9"/>
       <c r="T49" s="9"/>
       <c r="U49" s="9"/>
-      <c r="V49" s="9"/>
-      <c r="W49" s="9"/>
-      <c r="X49" s="9"/>
-    </row>
-    <row r="50" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -3489,11 +3366,8 @@
       <c r="S50" s="9"/>
       <c r="T50" s="9"/>
       <c r="U50" s="9"/>
-      <c r="V50" s="9"/>
-      <c r="W50" s="9"/>
-      <c r="X50" s="9"/>
-    </row>
-    <row r="51" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -3515,11 +3389,8 @@
       <c r="S51" s="9"/>
       <c r="T51" s="9"/>
       <c r="U51" s="9"/>
-      <c r="V51" s="9"/>
-      <c r="W51" s="9"/>
-      <c r="X51" s="9"/>
-    </row>
-    <row r="52" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -3541,11 +3412,8 @@
       <c r="S52" s="9"/>
       <c r="T52" s="9"/>
       <c r="U52" s="9"/>
-      <c r="V52" s="9"/>
-      <c r="W52" s="9"/>
-      <c r="X52" s="9"/>
-    </row>
-    <row r="53" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -3567,11 +3435,8 @@
       <c r="S53" s="9"/>
       <c r="T53" s="9"/>
       <c r="U53" s="9"/>
-      <c r="V53" s="9"/>
-      <c r="W53" s="9"/>
-      <c r="X53" s="9"/>
-    </row>
-    <row r="54" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -3593,11 +3458,8 @@
       <c r="S54" s="9"/>
       <c r="T54" s="9"/>
       <c r="U54" s="9"/>
-      <c r="V54" s="9"/>
-      <c r="W54" s="9"/>
-      <c r="X54" s="9"/>
-    </row>
-    <row r="55" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -3619,11 +3481,8 @@
       <c r="S55" s="9"/>
       <c r="T55" s="9"/>
       <c r="U55" s="9"/>
-      <c r="V55" s="9"/>
-      <c r="W55" s="9"/>
-      <c r="X55" s="9"/>
-    </row>
-    <row r="56" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -3645,11 +3504,8 @@
       <c r="S56" s="9"/>
       <c r="T56" s="9"/>
       <c r="U56" s="9"/>
-      <c r="V56" s="9"/>
-      <c r="W56" s="9"/>
-      <c r="X56" s="9"/>
-    </row>
-    <row r="57" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -3671,11 +3527,8 @@
       <c r="S57" s="9"/>
       <c r="T57" s="9"/>
       <c r="U57" s="9"/>
-      <c r="V57" s="9"/>
-      <c r="W57" s="9"/>
-      <c r="X57" s="9"/>
-    </row>
-    <row r="58" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -3697,11 +3550,8 @@
       <c r="S58" s="9"/>
       <c r="T58" s="9"/>
       <c r="U58" s="9"/>
-      <c r="V58" s="9"/>
-      <c r="W58" s="9"/>
-      <c r="X58" s="9"/>
-    </row>
-    <row r="59" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -3723,11 +3573,8 @@
       <c r="S59" s="9"/>
       <c r="T59" s="9"/>
       <c r="U59" s="9"/>
-      <c r="V59" s="9"/>
-      <c r="W59" s="9"/>
-      <c r="X59" s="9"/>
-    </row>
-    <row r="60" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -3749,11 +3596,8 @@
       <c r="S60" s="9"/>
       <c r="T60" s="9"/>
       <c r="U60" s="9"/>
-      <c r="V60" s="9"/>
-      <c r="W60" s="9"/>
-      <c r="X60" s="9"/>
-    </row>
-    <row r="61" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -3775,11 +3619,8 @@
       <c r="S61" s="9"/>
       <c r="T61" s="9"/>
       <c r="U61" s="9"/>
-      <c r="V61" s="9"/>
-      <c r="W61" s="9"/>
-      <c r="X61" s="9"/>
-    </row>
-    <row r="62" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -3801,11 +3642,8 @@
       <c r="S62" s="9"/>
       <c r="T62" s="9"/>
       <c r="U62" s="9"/>
-      <c r="V62" s="9"/>
-      <c r="W62" s="9"/>
-      <c r="X62" s="9"/>
-    </row>
-    <row r="63" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -3827,11 +3665,8 @@
       <c r="S63" s="9"/>
       <c r="T63" s="9"/>
       <c r="U63" s="9"/>
-      <c r="V63" s="9"/>
-      <c r="W63" s="9"/>
-      <c r="X63" s="9"/>
-    </row>
-    <row r="64" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -3853,11 +3688,8 @@
       <c r="S64" s="9"/>
       <c r="T64" s="9"/>
       <c r="U64" s="9"/>
-      <c r="V64" s="9"/>
-      <c r="W64" s="9"/>
-      <c r="X64" s="9"/>
-    </row>
-    <row r="65" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -3879,11 +3711,8 @@
       <c r="S65" s="9"/>
       <c r="T65" s="9"/>
       <c r="U65" s="9"/>
-      <c r="V65" s="9"/>
-      <c r="W65" s="9"/>
-      <c r="X65" s="9"/>
-    </row>
-    <row r="66" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -3905,11 +3734,8 @@
       <c r="S66" s="9"/>
       <c r="T66" s="9"/>
       <c r="U66" s="9"/>
-      <c r="V66" s="9"/>
-      <c r="W66" s="9"/>
-      <c r="X66" s="9"/>
-    </row>
-    <row r="67" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -3931,11 +3757,8 @@
       <c r="S67" s="9"/>
       <c r="T67" s="9"/>
       <c r="U67" s="9"/>
-      <c r="V67" s="9"/>
-      <c r="W67" s="9"/>
-      <c r="X67" s="9"/>
-    </row>
-    <row r="68" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -3957,11 +3780,8 @@
       <c r="S68" s="9"/>
       <c r="T68" s="9"/>
       <c r="U68" s="9"/>
-      <c r="V68" s="9"/>
-      <c r="W68" s="9"/>
-      <c r="X68" s="9"/>
-    </row>
-    <row r="69" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -3983,11 +3803,8 @@
       <c r="S69" s="9"/>
       <c r="T69" s="9"/>
       <c r="U69" s="9"/>
-      <c r="V69" s="9"/>
-      <c r="W69" s="9"/>
-      <c r="X69" s="9"/>
-    </row>
-    <row r="70" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -4009,11 +3826,8 @@
       <c r="S70" s="9"/>
       <c r="T70" s="9"/>
       <c r="U70" s="9"/>
-      <c r="V70" s="9"/>
-      <c r="W70" s="9"/>
-      <c r="X70" s="9"/>
-    </row>
-    <row r="71" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -4035,11 +3849,8 @@
       <c r="S71" s="9"/>
       <c r="T71" s="9"/>
       <c r="U71" s="9"/>
-      <c r="V71" s="9"/>
-      <c r="W71" s="9"/>
-      <c r="X71" s="9"/>
-    </row>
-    <row r="72" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -4061,11 +3872,8 @@
       <c r="S72" s="9"/>
       <c r="T72" s="9"/>
       <c r="U72" s="9"/>
-      <c r="V72" s="9"/>
-      <c r="W72" s="9"/>
-      <c r="X72" s="9"/>
-    </row>
-    <row r="73" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -4087,11 +3895,8 @@
       <c r="S73" s="9"/>
       <c r="T73" s="9"/>
       <c r="U73" s="9"/>
-      <c r="V73" s="9"/>
-      <c r="W73" s="9"/>
-      <c r="X73" s="9"/>
-    </row>
-    <row r="74" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -4113,11 +3918,8 @@
       <c r="S74" s="9"/>
       <c r="T74" s="9"/>
       <c r="U74" s="9"/>
-      <c r="V74" s="9"/>
-      <c r="W74" s="9"/>
-      <c r="X74" s="9"/>
-    </row>
-    <row r="75" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -4139,11 +3941,8 @@
       <c r="S75" s="9"/>
       <c r="T75" s="9"/>
       <c r="U75" s="9"/>
-      <c r="V75" s="9"/>
-      <c r="W75" s="9"/>
-      <c r="X75" s="9"/>
-    </row>
-    <row r="76" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -4165,18 +3964,15 @@
       <c r="S76" s="9"/>
       <c r="T76" s="9"/>
       <c r="U76" s="9"/>
-      <c r="V76" s="9"/>
-      <c r="W76" s="9"/>
-      <c r="X76" s="9"/>
     </row>
   </sheetData>
   <sortState ref="A3:AB30">
-    <sortCondition descending="1" ref="AA2"/>
+    <sortCondition descending="1" ref="X2"/>
   </sortState>
   <mergeCells count="3">
     <mergeCell ref="D1:J1"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="Q1:T1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:J30">
     <cfRule type="cellIs" dxfId="21" priority="19" operator="between">
@@ -4190,7 +3986,7 @@
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L3:R30 Y3:Z30">
+  <conditionalFormatting sqref="V3:W30 L3:O30">
     <cfRule type="cellIs" dxfId="18" priority="10" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
@@ -4207,7 +4003,7 @@
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T3:W30">
+  <conditionalFormatting sqref="Q3:T30">
     <cfRule type="cellIs" dxfId="14" priority="6" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
@@ -4238,7 +4034,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S3:S30">
+  <conditionalFormatting sqref="P3:P30">
     <cfRule type="dataBar" priority="184">
       <dataBar>
         <cfvo type="min"/>
@@ -4252,7 +4048,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X3:X30">
+  <conditionalFormatting sqref="U3:U30">
     <cfRule type="dataBar" priority="186">
       <dataBar>
         <cfvo type="min"/>
@@ -4266,7 +4062,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA3:AA30">
+  <conditionalFormatting sqref="X3:X30">
     <cfRule type="dataBar" priority="188">
       <dataBar>
         <cfvo type="min"/>
@@ -4306,7 +4102,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>S3:S30</xm:sqref>
+          <xm:sqref>P3:P30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{03C5F189-3F43-4B84-A0F5-49F108E9F2B6}">
@@ -4317,7 +4113,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>X3:X30</xm:sqref>
+          <xm:sqref>U3:U30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{43DC70F4-8291-4430-AFF0-577FC5E79CD9}">
@@ -4328,7 +4124,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>AA3:AA30</xm:sqref>
+          <xm:sqref>X3:X30</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -4373,30 +4169,30 @@
       <c r="B1" s="18"/>
       <c r="C1" s="34"/>
       <c r="D1" s="40"/>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="49" t="s">
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="61" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="33" t="s">
-        <v>46</v>
-      </c>
       <c r="R1" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="S1" s="19" t="s">
         <v>41</v>
-      </c>
-      <c r="S1" s="19" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:19" s="5" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">

--- a/AdvancedJava/_docs/Notlar.xlsx
+++ b/AdvancedJava/_docs/Notlar.xlsx
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="97">
   <si>
     <t>Adı</t>
   </si>
@@ -356,6 +356,9 @@
   </si>
   <si>
     <t>LAB (%25)</t>
+  </si>
+  <si>
+    <t>M</t>
   </si>
 </sst>
 </file>
@@ -418,7 +421,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -434,6 +437,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -755,7 +764,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -874,11 +883,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="47">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1058,6 +1084,248 @@
         <patternFill>
           <fgColor auto="1"/>
           <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1372,11 +1640,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y76"/>
+  <dimension ref="A1:Z75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L16" sqref="L16"/>
+      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1386,23 +1654,26 @@
     <col min="3" max="3" width="9.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="3.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="2.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="2.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="2.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="2.5546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="4.77734375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="2.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="2.77734375" style="1" customWidth="1"/>
-    <col min="20" max="20" width="2.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5" style="1" customWidth="1"/>
-    <col min="22" max="22" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7" style="1" customWidth="1"/>
-    <col min="24" max="24" width="5.77734375" style="1" customWidth="1"/>
-    <col min="25" max="16384" width="8.88671875" style="1"/>
+    <col min="8" max="8" width="2.44140625" style="70" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.44140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="2.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="2.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="2.5546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.77734375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="2.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="2.77734375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="2.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5" style="1" customWidth="1"/>
+    <col min="23" max="23" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7" style="1" customWidth="1"/>
+    <col min="25" max="25" width="5.77734375" style="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="4" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" s="4" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30"/>
       <c r="B1" s="18"/>
       <c r="C1" s="29"/>
@@ -1415,38 +1686,39 @@
       <c r="H1" s="60"/>
       <c r="I1" s="60"/>
       <c r="J1" s="60"/>
-      <c r="K1" s="46">
-        <v>2</v>
-      </c>
-      <c r="L1" s="61" t="s">
+      <c r="K1" s="60"/>
+      <c r="L1" s="46">
+        <v>4</v>
+      </c>
+      <c r="M1" s="61" t="s">
         <v>95</v>
       </c>
-      <c r="M1" s="62"/>
       <c r="N1" s="62"/>
       <c r="O1" s="62"/>
-      <c r="P1" s="45">
+      <c r="P1" s="62"/>
+      <c r="Q1" s="45">
         <v>1</v>
       </c>
-      <c r="Q1" s="61" t="s">
+      <c r="R1" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="R1" s="62"/>
       <c r="S1" s="62"/>
       <c r="T1" s="62"/>
-      <c r="U1" s="45">
+      <c r="U1" s="62"/>
+      <c r="V1" s="45">
         <v>1</v>
       </c>
-      <c r="V1" s="17" t="s">
+      <c r="W1" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="W1" s="41" t="s">
+      <c r="X1" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="X1" s="19" t="s">
+      <c r="Y1" s="19" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="5" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" s="5" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>29</v>
       </c>
@@ -1468,7 +1740,7 @@
       <c r="G2" s="27">
         <v>4</v>
       </c>
-      <c r="H2" s="27">
+      <c r="H2" s="66">
         <v>5</v>
       </c>
       <c r="I2" s="27">
@@ -1477,50 +1749,53 @@
       <c r="J2" s="27">
         <v>7</v>
       </c>
-      <c r="K2" s="28" t="s">
+      <c r="K2" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="L2" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="26">
+      <c r="M2" s="26">
         <v>4</v>
       </c>
-      <c r="M2" s="27">
+      <c r="N2" s="27">
         <v>5</v>
       </c>
-      <c r="N2" s="27">
+      <c r="O2" s="27">
         <v>6</v>
       </c>
-      <c r="O2" s="27">
+      <c r="P2" s="27">
         <v>7</v>
       </c>
-      <c r="P2" s="28" t="s">
+      <c r="Q2" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="Q2" s="26">
+      <c r="R2" s="26">
         <v>1</v>
       </c>
-      <c r="R2" s="37">
+      <c r="S2" s="37">
         <v>2</v>
       </c>
-      <c r="S2" s="37">
+      <c r="T2" s="37">
         <v>3</v>
       </c>
-      <c r="T2" s="27">
+      <c r="U2" s="27">
         <v>4</v>
       </c>
-      <c r="U2" s="28" t="s">
+      <c r="V2" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="V2" s="26" t="s">
+      <c r="W2" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="W2" s="43" t="s">
+      <c r="X2" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="X2" s="19" t="s">
+      <c r="Y2" s="19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>46</v>
       </c>
@@ -1542,44 +1817,49 @@
       <c r="G3" s="7">
         <v>2</v>
       </c>
-      <c r="H3" s="7"/>
+      <c r="H3" s="67">
+        <v>2</v>
+      </c>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
-      <c r="K3" s="16">
-        <f t="shared" ref="K3:K30" si="0">SUM(D3:J3)*50/K$1</f>
-        <v>200</v>
-      </c>
-      <c r="L3" s="14">
+      <c r="K3" s="64">
+        <v>0</v>
+      </c>
+      <c r="L3" s="16">
+        <f>SUM(D3:J3)*50/(L$1-K3)</f>
+        <v>125</v>
+      </c>
+      <c r="M3" s="14">
         <v>100</v>
       </c>
-      <c r="M3" s="6"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
-      <c r="P3" s="16">
-        <f>SUM(L3:O3)/P$1</f>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="16">
+        <f>SUM(M3:P3)/Q$1</f>
         <v>100</v>
       </c>
-      <c r="Q3" s="14">
+      <c r="R3" s="14">
         <v>60</v>
       </c>
-      <c r="R3" s="14"/>
       <c r="S3" s="14"/>
       <c r="T3" s="14"/>
-      <c r="U3" s="16">
-        <f t="shared" ref="U3:U30" si="1">SUM(Q3:T3)/U$1</f>
+      <c r="U3" s="14"/>
+      <c r="V3" s="16">
+        <f>SUM(R3:U3)/V$1</f>
         <v>60</v>
       </c>
-      <c r="V3" s="6"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="21">
-        <f>K3*0.2+P3*0.25+U3*0.25+V3*0.3+W3*0.15</f>
-        <v>80</v>
-      </c>
-      <c r="Y3" s="1" t="s">
+      <c r="W3" s="6"/>
+      <c r="X3" s="44"/>
+      <c r="Y3" s="21">
+        <f>L3*0.2+Q3*0.25+V3*0.25+W3*0.3+X3*0.15</f>
+        <v>65</v>
+      </c>
+      <c r="Z3" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>50</v>
       </c>
@@ -1601,52 +1881,57 @@
       <c r="G4" s="7">
         <v>2</v>
       </c>
-      <c r="H4" s="7"/>
+      <c r="H4" s="67">
+        <v>2</v>
+      </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="16">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="L4" s="14">
+      <c r="K4" s="64">
+        <v>0</v>
+      </c>
+      <c r="L4" s="16">
+        <f t="shared" ref="L4:L29" si="0">SUM(D4:J4)*50/(L$1-K4)</f>
+        <v>125</v>
+      </c>
+      <c r="M4" s="14">
         <v>95</v>
       </c>
-      <c r="M4" s="6"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
-      <c r="P4" s="16">
-        <f>SUM(L4:O4)/P$1</f>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="16">
+        <f>SUM(M4:P4)/Q$1</f>
         <v>95</v>
       </c>
-      <c r="Q4" s="14">
+      <c r="R4" s="14">
         <v>60</v>
       </c>
-      <c r="R4" s="14"/>
       <c r="S4" s="14"/>
       <c r="T4" s="14"/>
-      <c r="U4" s="16">
-        <f t="shared" si="1"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="16">
+        <f>SUM(R4:U4)/V$1</f>
         <v>60</v>
       </c>
-      <c r="V4" s="6"/>
-      <c r="W4" s="44"/>
-      <c r="X4" s="21">
-        <f>K4*0.2+P4*0.25+U4*0.25+V4*0.3+W4*0.15</f>
-        <v>78.75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W4" s="6"/>
+      <c r="X4" s="44"/>
+      <c r="Y4" s="21">
+        <f>L4*0.2+Q4*0.25+V4*0.25+W4*0.3+X4*0.15</f>
+        <v>63.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="D5" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7">
         <v>2</v>
@@ -1655,43 +1940,48 @@
         <v>2</v>
       </c>
       <c r="G5" s="7">
-        <v>0</v>
-      </c>
-      <c r="H5" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="H5" s="67">
+        <v>2</v>
+      </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
-      <c r="K5" s="16">
+      <c r="K5" s="64">
+        <v>0</v>
+      </c>
+      <c r="L5" s="16">
         <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="L5" s="14">
-        <v>0</v>
-      </c>
-      <c r="M5" s="6"/>
+        <v>100</v>
+      </c>
+      <c r="M5" s="14">
+        <v>100</v>
+      </c>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
-      <c r="P5" s="16">
-        <f>SUM(L5:O5)/P$1</f>
-        <v>0</v>
-      </c>
-      <c r="Q5" s="14">
+      <c r="P5" s="6"/>
+      <c r="Q5" s="16">
+        <f>SUM(M5:P5)/Q$1</f>
+        <v>100</v>
+      </c>
+      <c r="R5" s="14">
         <v>60</v>
       </c>
-      <c r="R5" s="14"/>
       <c r="S5" s="14"/>
       <c r="T5" s="14"/>
-      <c r="U5" s="16">
-        <f t="shared" si="1"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="16">
+        <f>SUM(R5:U5)/V$1</f>
         <v>60</v>
       </c>
-      <c r="V5" s="6"/>
-      <c r="W5" s="44"/>
-      <c r="X5" s="21">
-        <f>K5*0.2+P5*0.25+U5*0.25+V5*0.3+W5*0.15</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W5" s="6"/>
+      <c r="X5" s="44"/>
+      <c r="Y5" s="21">
+        <f>L5*0.2+Q5*0.25+V5*0.25+W5*0.3+X5*0.1</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>62</v>
       </c>
@@ -1701,7 +1991,9 @@
       <c r="C6" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="12"/>
+      <c r="D6" s="12">
+        <v>0</v>
+      </c>
       <c r="E6" s="7">
         <v>2</v>
       </c>
@@ -1711,51 +2003,58 @@
       <c r="G6" s="7">
         <v>2</v>
       </c>
-      <c r="H6" s="7"/>
+      <c r="H6" s="67">
+        <v>2</v>
+      </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
-      <c r="K6" s="16">
+      <c r="K6" s="64">
+        <v>0</v>
+      </c>
+      <c r="L6" s="16">
         <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="L6" s="14">
+        <v>100</v>
+      </c>
+      <c r="M6" s="14">
         <v>95</v>
       </c>
-      <c r="M6" s="6"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
-      <c r="P6" s="16">
-        <f>SUM(L6:O6)/P$1</f>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="16">
+        <f>SUM(M6:P6)/Q$1</f>
         <v>95</v>
       </c>
-      <c r="Q6" s="14">
+      <c r="R6" s="14">
         <v>60</v>
       </c>
-      <c r="R6" s="14"/>
       <c r="S6" s="14"/>
       <c r="T6" s="14"/>
-      <c r="U6" s="16">
-        <f t="shared" si="1"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="16">
+        <f>SUM(R6:U6)/V$1</f>
         <v>60</v>
       </c>
-      <c r="V6" s="6"/>
-      <c r="W6" s="44"/>
-      <c r="X6" s="21">
-        <f>K6*0.2+P6*0.25+U6*0.25+V6*0.3+W6*0.15</f>
-        <v>68.75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W6" s="6"/>
+      <c r="X6" s="44"/>
+      <c r="Y6" s="21">
+        <f>L6*0.2+Q6*0.25+V6*0.25+W6*0.3+X6*0.15</f>
+        <v>58.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="12"/>
+        <v>72</v>
+      </c>
+      <c r="D7" s="12">
+        <v>0</v>
+      </c>
       <c r="E7" s="7">
         <v>2</v>
       </c>
@@ -1765,51 +2064,58 @@
       <c r="G7" s="7">
         <v>2</v>
       </c>
-      <c r="H7" s="7"/>
+      <c r="H7" s="67" t="s">
+        <v>96</v>
+      </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
-      <c r="K7" s="16">
+      <c r="K7" s="65">
+        <v>1</v>
+      </c>
+      <c r="L7" s="16">
         <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="L7" s="14">
-        <v>90</v>
-      </c>
-      <c r="M7" s="6"/>
+        <v>100</v>
+      </c>
+      <c r="M7" s="14">
+        <v>95</v>
+      </c>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
-      <c r="P7" s="16">
-        <f>SUM(L7:O7)/P$1</f>
-        <v>90</v>
-      </c>
-      <c r="Q7" s="14">
+      <c r="P7" s="6"/>
+      <c r="Q7" s="16">
+        <f>SUM(M7:P7)/Q$1</f>
+        <v>95</v>
+      </c>
+      <c r="R7" s="14">
         <v>60</v>
       </c>
-      <c r="R7" s="14"/>
       <c r="S7" s="14"/>
       <c r="T7" s="14"/>
-      <c r="U7" s="16">
-        <f t="shared" si="1"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="16">
+        <f>SUM(R7:U7)/V$1</f>
         <v>60</v>
       </c>
-      <c r="V7" s="6"/>
-      <c r="W7" s="44"/>
-      <c r="X7" s="21">
-        <f>K7*0.2+P7*0.25+U7*0.25+V7*0.3+W7*0.15</f>
-        <v>67.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W7" s="6"/>
+      <c r="X7" s="44"/>
+      <c r="Y7" s="21">
+        <f>L7*0.2+Q7*0.25+V7*0.25+W7*0.3+X7*0.15</f>
+        <v>58.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D8" s="12"/>
+        <v>79</v>
+      </c>
+      <c r="D8" s="12">
+        <v>0</v>
+      </c>
       <c r="E8" s="7">
         <v>2</v>
       </c>
@@ -1817,53 +2123,60 @@
         <v>2</v>
       </c>
       <c r="G8" s="7">
+        <v>1.8</v>
+      </c>
+      <c r="H8" s="67">
         <v>2</v>
       </c>
-      <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
-      <c r="K8" s="16">
+      <c r="K8" s="64">
+        <v>0</v>
+      </c>
+      <c r="L8" s="16">
         <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="L8" s="14">
+        <v>97.5</v>
+      </c>
+      <c r="M8" s="14">
         <v>95</v>
       </c>
-      <c r="M8" s="6"/>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
-      <c r="P8" s="16">
-        <f>SUM(L8:O8)/P$1</f>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="16">
+        <f>SUM(M8:P8)/Q$1</f>
         <v>95</v>
       </c>
-      <c r="Q8" s="14">
+      <c r="R8" s="14">
         <v>60</v>
       </c>
-      <c r="R8" s="14"/>
       <c r="S8" s="14"/>
       <c r="T8" s="14"/>
-      <c r="U8" s="16">
-        <f t="shared" si="1"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="16">
+        <f>SUM(R8:U8)/V$1</f>
         <v>60</v>
       </c>
-      <c r="V8" s="6"/>
-      <c r="W8" s="44"/>
-      <c r="X8" s="21">
-        <f>K8*0.2+P8*0.25+U8*0.25+V8*0.3+W8*0.15</f>
-        <v>68.75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W8" s="6"/>
+      <c r="X8" s="44"/>
+      <c r="Y8" s="21">
+        <f>L8*0.2+Q8*0.25+V8*0.25+W8*0.3+X8*0.15</f>
+        <v>58.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="12"/>
+        <v>69</v>
+      </c>
+      <c r="D9" s="12">
+        <v>0</v>
+      </c>
       <c r="E9" s="7">
         <v>2</v>
       </c>
@@ -1873,51 +2186,58 @@
       <c r="G9" s="7">
         <v>2</v>
       </c>
-      <c r="H9" s="7"/>
+      <c r="H9" s="67">
+        <v>2</v>
+      </c>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
-      <c r="K9" s="16">
+      <c r="K9" s="64">
+        <v>0</v>
+      </c>
+      <c r="L9" s="16">
         <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="L9" s="14">
+        <v>100</v>
+      </c>
+      <c r="M9" s="14">
         <v>90</v>
       </c>
-      <c r="M9" s="6"/>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
-      <c r="P9" s="16">
-        <f>SUM(L9:O9)/P$1</f>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="16">
+        <f>SUM(M9:P9)/Q$1</f>
         <v>90</v>
       </c>
-      <c r="Q9" s="14">
+      <c r="R9" s="14">
         <v>60</v>
       </c>
-      <c r="R9" s="14"/>
       <c r="S9" s="14"/>
       <c r="T9" s="14"/>
-      <c r="U9" s="16">
-        <f t="shared" si="1"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="16">
+        <f>SUM(R9:U9)/V$1</f>
         <v>60</v>
       </c>
-      <c r="V9" s="6"/>
-      <c r="W9" s="44"/>
-      <c r="X9" s="21">
-        <f>K9*0.2+P9*0.25+U9*0.25+V9*0.3+W9*0.15</f>
-        <v>67.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W9" s="6"/>
+      <c r="X9" s="44"/>
+      <c r="Y9" s="21">
+        <f>L9*0.2+Q9*0.25+V9*0.25+W9*0.3+X9*0.15</f>
+        <v>57.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10" s="12"/>
+        <v>48</v>
+      </c>
+      <c r="D10" s="12">
+        <v>0</v>
+      </c>
       <c r="E10" s="7">
         <v>2</v>
       </c>
@@ -1927,51 +2247,58 @@
       <c r="G10" s="7">
         <v>2</v>
       </c>
-      <c r="H10" s="7"/>
+      <c r="H10" s="67">
+        <v>1.7</v>
+      </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
-      <c r="K10" s="16">
+      <c r="K10" s="64">
+        <v>0</v>
+      </c>
+      <c r="L10" s="16">
         <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="L10" s="14">
+        <v>96.25</v>
+      </c>
+      <c r="M10" s="14">
         <v>90</v>
       </c>
-      <c r="M10" s="6"/>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
-      <c r="P10" s="16">
-        <f>SUM(L10:O10)/P$1</f>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="16">
+        <f>SUM(M10:P10)/Q$1</f>
         <v>90</v>
       </c>
-      <c r="Q10" s="14">
+      <c r="R10" s="14">
         <v>60</v>
       </c>
-      <c r="R10" s="14"/>
       <c r="S10" s="14"/>
       <c r="T10" s="14"/>
-      <c r="U10" s="16">
-        <f t="shared" si="1"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="16">
+        <f>SUM(R10:U10)/V$1</f>
         <v>60</v>
       </c>
-      <c r="V10" s="6"/>
-      <c r="W10" s="44"/>
-      <c r="X10" s="21">
-        <f>K10*0.2+P10*0.25+U10*0.25+V10*0.3+W10*0.15</f>
-        <v>67.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W10" s="6"/>
+      <c r="X10" s="44"/>
+      <c r="Y10" s="21">
+        <f>L10*0.2+Q10*0.25+V10*0.25+W10*0.3+X10*0.15</f>
+        <v>56.75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D11" s="12"/>
+        <v>82</v>
+      </c>
+      <c r="D11" s="12">
+        <v>0</v>
+      </c>
       <c r="E11" s="7">
         <v>2</v>
       </c>
@@ -1981,51 +2308,58 @@
       <c r="G11" s="7">
         <v>2</v>
       </c>
-      <c r="H11" s="7"/>
+      <c r="H11" s="67">
+        <v>2</v>
+      </c>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
-      <c r="K11" s="16">
+      <c r="K11" s="64">
+        <v>0</v>
+      </c>
+      <c r="L11" s="16">
         <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="L11" s="14">
         <v>100</v>
       </c>
-      <c r="M11" s="6"/>
+      <c r="M11" s="14">
+        <v>90</v>
+      </c>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
-      <c r="P11" s="16">
-        <f>SUM(L11:O11)/P$1</f>
-        <v>100</v>
-      </c>
-      <c r="Q11" s="14">
+      <c r="P11" s="6"/>
+      <c r="Q11" s="16">
+        <f>SUM(M11:P11)/Q$1</f>
+        <v>90</v>
+      </c>
+      <c r="R11" s="14">
         <v>60</v>
       </c>
-      <c r="R11" s="14"/>
       <c r="S11" s="14"/>
       <c r="T11" s="14"/>
-      <c r="U11" s="16">
-        <f t="shared" si="1"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="16">
+        <f>SUM(R11:U11)/V$1</f>
         <v>60</v>
       </c>
-      <c r="V11" s="6"/>
-      <c r="W11" s="44"/>
-      <c r="X11" s="21">
-        <f>K11*0.2+P11*0.25+U11*0.25+V11*0.3+W11*0.1</f>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W11" s="6"/>
+      <c r="X11" s="44"/>
+      <c r="Y11" s="21">
+        <f>L11*0.2+Q11*0.25+V11*0.25+W11*0.3+X11*0.15</f>
+        <v>57.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D12" s="12"/>
+        <v>54</v>
+      </c>
+      <c r="D12" s="12">
+        <v>2</v>
+      </c>
       <c r="E12" s="7">
         <v>2</v>
       </c>
@@ -2033,51 +2367,56 @@
         <v>2</v>
       </c>
       <c r="G12" s="7">
-        <v>1.8</v>
-      </c>
-      <c r="H12" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="H12" s="67">
+        <v>2</v>
+      </c>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
-      <c r="K12" s="16">
+      <c r="K12" s="64">
+        <v>0</v>
+      </c>
+      <c r="L12" s="16">
         <f t="shared" si="0"/>
-        <v>145</v>
-      </c>
-      <c r="L12" s="14">
-        <v>95</v>
-      </c>
-      <c r="M12" s="6"/>
+        <v>125</v>
+      </c>
+      <c r="M12" s="14">
+        <v>85</v>
+      </c>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
-      <c r="P12" s="16">
-        <f>SUM(L12:O12)/P$1</f>
-        <v>95</v>
-      </c>
-      <c r="Q12" s="14">
-        <v>60</v>
-      </c>
-      <c r="R12" s="14"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="16">
+        <f>SUM(M12:P12)/Q$1</f>
+        <v>85</v>
+      </c>
+      <c r="R12" s="14">
+        <v>0</v>
+      </c>
       <c r="S12" s="14"/>
       <c r="T12" s="14"/>
-      <c r="U12" s="16">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="V12" s="6"/>
-      <c r="W12" s="44"/>
-      <c r="X12" s="21">
-        <f>K12*0.2+P12*0.25+U12*0.25+V12*0.3+W12*0.15</f>
-        <v>67.75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U12" s="14"/>
+      <c r="V12" s="16">
+        <f>SUM(R12:U12)/V$1</f>
+        <v>0</v>
+      </c>
+      <c r="W12" s="6"/>
+      <c r="X12" s="44"/>
+      <c r="Y12" s="21">
+        <f>L12*0.2+Q12*0.25+V12*0.25+W12*0.3+X12*0.15</f>
+        <v>46.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D13" s="12">
         <v>2</v>
@@ -2091,52 +2430,57 @@
       <c r="G13" s="7">
         <v>2</v>
       </c>
-      <c r="H13" s="7"/>
+      <c r="H13" s="67">
+        <v>2</v>
+      </c>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
-      <c r="K13" s="16">
+      <c r="K13" s="64">
+        <v>0</v>
+      </c>
+      <c r="L13" s="16">
         <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="L13" s="14">
-        <v>85</v>
-      </c>
-      <c r="M13" s="6"/>
+        <v>125</v>
+      </c>
+      <c r="M13" s="14">
+        <v>80</v>
+      </c>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
-      <c r="P13" s="16">
-        <f>SUM(L13:O13)/P$1</f>
-        <v>85</v>
-      </c>
-      <c r="Q13" s="14">
-        <v>0</v>
-      </c>
-      <c r="R13" s="14"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="16">
+        <f>SUM(M13:P13)/Q$1</f>
+        <v>80</v>
+      </c>
+      <c r="R13" s="14">
+        <v>0</v>
+      </c>
       <c r="S13" s="14"/>
       <c r="T13" s="14"/>
-      <c r="U13" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V13" s="6"/>
-      <c r="W13" s="44"/>
-      <c r="X13" s="21">
-        <f>K13*0.2+P13*0.25+U13*0.25+V13*0.3+W13*0.15</f>
-        <v>61.25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U13" s="14"/>
+      <c r="V13" s="16">
+        <f>SUM(R13:U13)/V$1</f>
+        <v>0</v>
+      </c>
+      <c r="W13" s="6"/>
+      <c r="X13" s="44"/>
+      <c r="Y13" s="21">
+        <f>L13*0.2+Q13*0.25+V13*0.25+W13*0.3+X13*0.15</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="D14" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7">
         <v>2</v>
@@ -2147,41 +2491,46 @@
       <c r="G14" s="7">
         <v>2</v>
       </c>
-      <c r="H14" s="7"/>
+      <c r="H14" s="67">
+        <v>2</v>
+      </c>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
-      <c r="K14" s="16">
+      <c r="K14" s="64">
+        <v>0</v>
+      </c>
+      <c r="L14" s="16">
         <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="L14" s="14">
-        <v>80</v>
-      </c>
-      <c r="M14" s="6"/>
+        <v>100</v>
+      </c>
+      <c r="M14" s="14">
+        <v>90</v>
+      </c>
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
-      <c r="P14" s="16">
-        <f>SUM(L14:O14)/P$1</f>
-        <v>80</v>
-      </c>
-      <c r="Q14" s="14">
-        <v>0</v>
-      </c>
-      <c r="R14" s="14"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="16">
+        <f>SUM(M14:P14)/Q$1</f>
+        <v>90</v>
+      </c>
+      <c r="R14" s="14">
+        <v>0</v>
+      </c>
       <c r="S14" s="14"/>
       <c r="T14" s="14"/>
-      <c r="U14" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V14" s="6"/>
-      <c r="W14" s="44"/>
-      <c r="X14" s="21">
-        <f>K14*0.2+P14*0.25+U14*0.25+V14*0.3+W14*0.15</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U14" s="14"/>
+      <c r="V14" s="16">
+        <f>SUM(R14:U14)/V$1</f>
+        <v>0</v>
+      </c>
+      <c r="W14" s="6"/>
+      <c r="X14" s="44"/>
+      <c r="Y14" s="21">
+        <f>L14*0.2+Q14*0.25+V14*0.25+W14*0.3+X14*0.15</f>
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
         <v>17</v>
       </c>
@@ -2191,7 +2540,9 @@
       <c r="C15" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="12"/>
+      <c r="D15" s="12">
+        <v>0</v>
+      </c>
       <c r="E15" s="7">
         <v>2</v>
       </c>
@@ -2201,51 +2552,58 @@
       <c r="G15" s="7">
         <v>2</v>
       </c>
-      <c r="H15" s="7"/>
+      <c r="H15" s="67">
+        <v>0</v>
+      </c>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
-      <c r="K15" s="16">
+      <c r="K15" s="64">
+        <v>0</v>
+      </c>
+      <c r="L15" s="16">
         <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="L15" s="14">
+        <v>75</v>
+      </c>
+      <c r="M15" s="14">
         <v>85</v>
       </c>
-      <c r="M15" s="6"/>
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
-      <c r="P15" s="16">
-        <f>SUM(L15:O15)/P$1</f>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="16">
+        <f>SUM(M15:P15)/Q$1</f>
         <v>85</v>
       </c>
-      <c r="Q15" s="14">
-        <v>0</v>
-      </c>
-      <c r="R15" s="14"/>
+      <c r="R15" s="14">
+        <v>0</v>
+      </c>
       <c r="S15" s="14"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V15" s="6"/>
-      <c r="W15" s="44"/>
-      <c r="X15" s="21">
-        <f>K15*0.2+P15*0.25+U15*0.25+V15*0.3+W15*0.15</f>
-        <v>51.25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U15" s="14"/>
+      <c r="V15" s="16">
+        <f>SUM(R15:U15)/V$1</f>
+        <v>0</v>
+      </c>
+      <c r="W15" s="6"/>
+      <c r="X15" s="44"/>
+      <c r="Y15" s="21">
+        <f>L15*0.2+Q15*0.25+V15*0.25+W15*0.3+X15*0.15</f>
+        <v>36.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="D16" s="12"/>
+        <v>52</v>
+      </c>
+      <c r="D16" s="12">
+        <v>2</v>
+      </c>
       <c r="E16" s="7">
         <v>2</v>
       </c>
@@ -2253,43 +2611,48 @@
         <v>2</v>
       </c>
       <c r="G16" s="7">
+        <v>0</v>
+      </c>
+      <c r="H16" s="67">
         <v>2</v>
       </c>
-      <c r="H16" s="7"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
-      <c r="K16" s="16">
+      <c r="K16" s="64">
+        <v>0</v>
+      </c>
+      <c r="L16" s="16">
         <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="L16" s="14">
-        <v>90</v>
-      </c>
-      <c r="M16" s="6"/>
+        <v>100</v>
+      </c>
+      <c r="M16" s="14">
+        <v>0</v>
+      </c>
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
-      <c r="P16" s="16">
-        <f>SUM(L16:O16)/P$1</f>
-        <v>90</v>
-      </c>
-      <c r="Q16" s="14">
-        <v>0</v>
-      </c>
-      <c r="R16" s="14"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="16">
+        <f>SUM(M16:P16)/Q$1</f>
+        <v>0</v>
+      </c>
+      <c r="R16" s="14">
+        <v>60</v>
+      </c>
       <c r="S16" s="14"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V16" s="6"/>
-      <c r="W16" s="44"/>
-      <c r="X16" s="21">
-        <f>K16*0.2+P16*0.25+U16*0.25+V16*0.3+W16*0.15</f>
-        <v>52.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U16" s="14"/>
+      <c r="V16" s="16">
+        <f>SUM(R16:U16)/V$1</f>
+        <v>60</v>
+      </c>
+      <c r="W16" s="6"/>
+      <c r="X16" s="44"/>
+      <c r="Y16" s="21">
+        <f>L16*0.2+Q16*0.25+V16*0.25+W16*0.3+X16*0.15</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>65</v>
       </c>
@@ -2299,181 +2662,243 @@
       <c r="C17" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D17" s="12"/>
+      <c r="D17" s="12">
+        <v>0</v>
+      </c>
       <c r="E17" s="7">
         <v>2</v>
       </c>
-      <c r="F17" s="7"/>
+      <c r="F17" s="7">
+        <v>0</v>
+      </c>
       <c r="G17" s="7">
         <v>2</v>
       </c>
-      <c r="H17" s="7"/>
+      <c r="H17" s="67">
+        <v>2</v>
+      </c>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
-      <c r="K17" s="16">
+      <c r="K17" s="64">
+        <v>0</v>
+      </c>
+      <c r="L17" s="16">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="L17" s="14">
+        <v>75</v>
+      </c>
+      <c r="M17" s="14">
         <v>90</v>
       </c>
-      <c r="M17" s="6"/>
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
-      <c r="P17" s="16">
-        <f>SUM(L17:O17)/P$1</f>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="16">
+        <f>SUM(M17:P17)/Q$1</f>
         <v>90</v>
       </c>
-      <c r="Q17" s="14">
-        <v>0</v>
-      </c>
-      <c r="R17" s="14"/>
+      <c r="R17" s="14">
+        <v>0</v>
+      </c>
       <c r="S17" s="14"/>
       <c r="T17" s="14"/>
-      <c r="U17" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V17" s="6"/>
-      <c r="W17" s="44"/>
-      <c r="X17" s="21">
-        <f>K17*0.2+P17*0.25+U17*0.25+V17*0.3+W17*0.15</f>
-        <v>42.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" s="57" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="47" t="s">
+      <c r="U17" s="14"/>
+      <c r="V17" s="16">
+        <f>SUM(R17:U17)/V$1</f>
+        <v>0</v>
+      </c>
+      <c r="W17" s="6"/>
+      <c r="X17" s="44"/>
+      <c r="Y17" s="21">
+        <f>L17*0.2+Q17*0.25+V17*0.25+W17*0.3+X17*0.15</f>
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" s="57" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="12">
+        <v>0</v>
+      </c>
+      <c r="E18" s="12">
+        <v>0</v>
+      </c>
+      <c r="F18" s="12">
+        <v>0</v>
+      </c>
+      <c r="G18" s="12">
+        <v>0</v>
+      </c>
+      <c r="H18" s="67">
         <v>2</v>
       </c>
-      <c r="B18" s="48" t="s">
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="64">
+        <v>0</v>
+      </c>
+      <c r="L18" s="16">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="M18" s="14">
+        <v>0</v>
+      </c>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="16">
+        <f>SUM(M18:P18)/Q$1</f>
+        <v>0</v>
+      </c>
+      <c r="R18" s="14">
+        <v>0</v>
+      </c>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="16">
+        <f>SUM(R18:U18)/V$1</f>
+        <v>0</v>
+      </c>
+      <c r="W18" s="6"/>
+      <c r="X18" s="44"/>
+      <c r="Y18" s="21">
+        <f>L18*0.2+Q18*0.25+V18*0.25+W18*0.3+X18*0.15</f>
+        <v>5</v>
+      </c>
+      <c r="Z18" s="1"/>
+    </row>
+    <row r="19" spans="1:26" s="57" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="49" t="s">
+      <c r="C19" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="50"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="52">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L18" s="53"/>
-      <c r="M18" s="54"/>
-      <c r="N18" s="54"/>
-      <c r="O18" s="54"/>
-      <c r="P18" s="52">
-        <f>SUM(L18:O18)/P$1</f>
-        <v>0</v>
-      </c>
-      <c r="Q18" s="53"/>
-      <c r="R18" s="53"/>
-      <c r="S18" s="53"/>
-      <c r="T18" s="53"/>
-      <c r="U18" s="52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V18" s="54"/>
-      <c r="W18" s="55"/>
-      <c r="X18" s="56">
-        <f>K18*0.2+P18*0.25+U18*0.25+V18*0.3+W18*0.15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" s="57" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="50"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
+      <c r="D19" s="50">
+        <v>0</v>
+      </c>
+      <c r="E19" s="50">
+        <v>0</v>
+      </c>
+      <c r="F19" s="50">
+        <v>0</v>
+      </c>
+      <c r="G19" s="50">
+        <v>0</v>
+      </c>
+      <c r="H19" s="68">
+        <v>0</v>
+      </c>
       <c r="I19" s="51"/>
       <c r="J19" s="51"/>
-      <c r="K19" s="52">
+      <c r="K19" s="64">
+        <v>0</v>
+      </c>
+      <c r="L19" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L19" s="53"/>
-      <c r="M19" s="54"/>
+      <c r="M19" s="53">
+        <v>0</v>
+      </c>
       <c r="N19" s="54"/>
       <c r="O19" s="54"/>
-      <c r="P19" s="52">
-        <f>SUM(L19:O19)/P$1</f>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="53"/>
-      <c r="R19" s="53"/>
+      <c r="P19" s="54"/>
+      <c r="Q19" s="52">
+        <f>SUM(M19:P19)/Q$1</f>
+        <v>0</v>
+      </c>
+      <c r="R19" s="53">
+        <v>0</v>
+      </c>
       <c r="S19" s="53"/>
       <c r="T19" s="53"/>
-      <c r="U19" s="52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V19" s="54"/>
-      <c r="W19" s="55"/>
-      <c r="X19" s="56">
-        <f>K19*0.2+P19*0.25+U19*0.25+V19*0.3+W19*0.15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" s="57" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U19" s="53"/>
+      <c r="V19" s="52">
+        <f>SUM(R19:U19)/V$1</f>
+        <v>0</v>
+      </c>
+      <c r="W19" s="54"/>
+      <c r="X19" s="55"/>
+      <c r="Y19" s="56">
+        <f>L19*0.2+Q19*0.25+V19*0.25+W19*0.3+X19*0.15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="47" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="B20" s="48" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="C20" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="50"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
+        <v>6</v>
+      </c>
+      <c r="D20" s="50">
+        <v>0</v>
+      </c>
+      <c r="E20" s="50">
+        <v>0</v>
+      </c>
+      <c r="F20" s="50">
+        <v>0</v>
+      </c>
+      <c r="G20" s="50">
+        <v>0</v>
+      </c>
+      <c r="H20" s="68">
+        <v>0</v>
+      </c>
       <c r="I20" s="51"/>
       <c r="J20" s="51"/>
-      <c r="K20" s="52">
+      <c r="K20" s="64">
+        <v>0</v>
+      </c>
+      <c r="L20" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L20" s="53"/>
-      <c r="M20" s="54"/>
+      <c r="M20" s="53">
+        <v>0</v>
+      </c>
       <c r="N20" s="54"/>
       <c r="O20" s="54"/>
-      <c r="P20" s="52">
-        <f>SUM(L20:O20)/P$1</f>
-        <v>0</v>
-      </c>
-      <c r="Q20" s="53"/>
-      <c r="R20" s="53"/>
+      <c r="P20" s="54"/>
+      <c r="Q20" s="52">
+        <f>SUM(M20:P20)/Q$1</f>
+        <v>0</v>
+      </c>
+      <c r="R20" s="53">
+        <v>0</v>
+      </c>
       <c r="S20" s="53"/>
       <c r="T20" s="53"/>
-      <c r="U20" s="52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V20" s="54"/>
-      <c r="W20" s="55"/>
-      <c r="X20" s="56">
-        <f>K20*0.2+P20*0.25+U20*0.25+V20*0.3+W20*0.15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" s="57" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U20" s="53"/>
+      <c r="V20" s="52">
+        <f>SUM(R20:U20)/V$1</f>
+        <v>0</v>
+      </c>
+      <c r="W20" s="54"/>
+      <c r="X20" s="55"/>
+      <c r="Y20" s="56">
+        <f>L20*0.2+Q20*0.25+V20*0.25+W20*0.3+X20*0.15</f>
+        <v>0</v>
+      </c>
+      <c r="Z20" s="57"/>
+    </row>
+    <row r="21" spans="1:26" s="57" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="47" t="s">
         <v>7</v>
       </c>
@@ -2483,41 +2908,58 @@
       <c r="C21" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="50"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
+      <c r="D21" s="50">
+        <v>0</v>
+      </c>
+      <c r="E21" s="50">
+        <v>0</v>
+      </c>
+      <c r="F21" s="50">
+        <v>0</v>
+      </c>
+      <c r="G21" s="50">
+        <v>0</v>
+      </c>
+      <c r="H21" s="68">
+        <v>0</v>
+      </c>
       <c r="I21" s="51"/>
       <c r="J21" s="51"/>
-      <c r="K21" s="52">
+      <c r="K21" s="64">
+        <v>0</v>
+      </c>
+      <c r="L21" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L21" s="53"/>
-      <c r="M21" s="54"/>
+      <c r="M21" s="53">
+        <v>0</v>
+      </c>
       <c r="N21" s="54"/>
       <c r="O21" s="54"/>
-      <c r="P21" s="52">
-        <f>SUM(L21:O21)/P$1</f>
-        <v>0</v>
-      </c>
-      <c r="Q21" s="53"/>
-      <c r="R21" s="53"/>
+      <c r="P21" s="54"/>
+      <c r="Q21" s="52">
+        <f>SUM(M21:P21)/Q$1</f>
+        <v>0</v>
+      </c>
+      <c r="R21" s="53">
+        <v>0</v>
+      </c>
       <c r="S21" s="53"/>
       <c r="T21" s="53"/>
-      <c r="U21" s="52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V21" s="54"/>
-      <c r="W21" s="55"/>
-      <c r="X21" s="56">
-        <f>K21*0.2+P21*0.25+U21*0.25+V21*0.3+W21*0.15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" s="57" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U21" s="53"/>
+      <c r="V21" s="52">
+        <f>SUM(R21:U21)/V$1</f>
+        <v>0</v>
+      </c>
+      <c r="W21" s="54"/>
+      <c r="X21" s="55"/>
+      <c r="Y21" s="56">
+        <f>L21*0.2+Q21*0.25+V21*0.25+W21*0.3+X21*0.15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" s="57" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="47" t="s">
         <v>11</v>
       </c>
@@ -2527,41 +2969,58 @@
       <c r="C22" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
+      <c r="D22" s="50">
+        <v>0</v>
+      </c>
+      <c r="E22" s="50">
+        <v>0</v>
+      </c>
+      <c r="F22" s="50">
+        <v>0</v>
+      </c>
+      <c r="G22" s="50">
+        <v>0</v>
+      </c>
+      <c r="H22" s="68">
+        <v>0</v>
+      </c>
       <c r="I22" s="51"/>
       <c r="J22" s="51"/>
-      <c r="K22" s="52">
+      <c r="K22" s="64">
+        <v>0</v>
+      </c>
+      <c r="L22" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L22" s="53"/>
-      <c r="M22" s="54"/>
+      <c r="M22" s="53">
+        <v>0</v>
+      </c>
       <c r="N22" s="54"/>
       <c r="O22" s="54"/>
-      <c r="P22" s="52">
-        <f>SUM(L22:O22)/P$1</f>
-        <v>0</v>
-      </c>
-      <c r="Q22" s="53"/>
-      <c r="R22" s="53"/>
+      <c r="P22" s="54"/>
+      <c r="Q22" s="52">
+        <f>SUM(M22:P22)/Q$1</f>
+        <v>0</v>
+      </c>
+      <c r="R22" s="53">
+        <v>0</v>
+      </c>
       <c r="S22" s="53"/>
       <c r="T22" s="53"/>
-      <c r="U22" s="52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V22" s="54"/>
-      <c r="W22" s="55"/>
-      <c r="X22" s="56">
-        <f>K22*0.2+P22*0.25+U22*0.25+V22*0.3+W22*0.15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" s="57" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U22" s="53"/>
+      <c r="V22" s="52">
+        <f>SUM(R22:U22)/V$1</f>
+        <v>0</v>
+      </c>
+      <c r="W22" s="54"/>
+      <c r="X22" s="55"/>
+      <c r="Y22" s="56">
+        <f>L22*0.2+Q22*0.25+V22*0.25+W22*0.3+X22*0.15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" s="57" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="47" t="s">
         <v>14</v>
       </c>
@@ -2571,41 +3030,58 @@
       <c r="C23" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="50"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
+      <c r="D23" s="50">
+        <v>0</v>
+      </c>
+      <c r="E23" s="50">
+        <v>0</v>
+      </c>
+      <c r="F23" s="50">
+        <v>0</v>
+      </c>
+      <c r="G23" s="50">
+        <v>0</v>
+      </c>
+      <c r="H23" s="68">
+        <v>0</v>
+      </c>
       <c r="I23" s="51"/>
       <c r="J23" s="51"/>
-      <c r="K23" s="52">
+      <c r="K23" s="64">
+        <v>0</v>
+      </c>
+      <c r="L23" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L23" s="53"/>
-      <c r="M23" s="54"/>
+      <c r="M23" s="53">
+        <v>0</v>
+      </c>
       <c r="N23" s="54"/>
       <c r="O23" s="54"/>
-      <c r="P23" s="52">
-        <f>SUM(L23:O23)/P$1</f>
-        <v>0</v>
-      </c>
-      <c r="Q23" s="53"/>
-      <c r="R23" s="53"/>
+      <c r="P23" s="54"/>
+      <c r="Q23" s="52">
+        <f>SUM(M23:P23)/Q$1</f>
+        <v>0</v>
+      </c>
+      <c r="R23" s="53">
+        <v>0</v>
+      </c>
       <c r="S23" s="53"/>
       <c r="T23" s="53"/>
-      <c r="U23" s="52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V23" s="54"/>
-      <c r="W23" s="55"/>
-      <c r="X23" s="56">
-        <f>K23*0.2+P23*0.25+U23*0.25+V23*0.3+W23*0.15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" s="57" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U23" s="53"/>
+      <c r="V23" s="52">
+        <f>SUM(R23:U23)/V$1</f>
+        <v>0</v>
+      </c>
+      <c r="W23" s="54"/>
+      <c r="X23" s="55"/>
+      <c r="Y23" s="56">
+        <f>L23*0.2+Q23*0.25+V23*0.25+W23*0.3+X23*0.15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" s="57" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="47" t="s">
         <v>20</v>
       </c>
@@ -2615,41 +3091,58 @@
       <c r="C24" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="50"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
+      <c r="D24" s="50">
+        <v>0</v>
+      </c>
+      <c r="E24" s="50">
+        <v>0</v>
+      </c>
+      <c r="F24" s="50">
+        <v>0</v>
+      </c>
+      <c r="G24" s="50">
+        <v>0</v>
+      </c>
+      <c r="H24" s="68">
+        <v>0</v>
+      </c>
       <c r="I24" s="51"/>
       <c r="J24" s="51"/>
-      <c r="K24" s="52">
+      <c r="K24" s="64">
+        <v>0</v>
+      </c>
+      <c r="L24" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L24" s="53"/>
-      <c r="M24" s="54"/>
+      <c r="M24" s="53">
+        <v>0</v>
+      </c>
       <c r="N24" s="54"/>
       <c r="O24" s="54"/>
-      <c r="P24" s="52">
-        <f>SUM(L24:O24)/P$1</f>
-        <v>0</v>
-      </c>
-      <c r="Q24" s="53"/>
-      <c r="R24" s="53"/>
+      <c r="P24" s="54"/>
+      <c r="Q24" s="52">
+        <f>SUM(M24:P24)/Q$1</f>
+        <v>0</v>
+      </c>
+      <c r="R24" s="53">
+        <v>0</v>
+      </c>
       <c r="S24" s="53"/>
       <c r="T24" s="53"/>
-      <c r="U24" s="52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V24" s="54"/>
-      <c r="W24" s="55"/>
-      <c r="X24" s="56">
-        <f>K24*0.2+P24*0.25+U24*0.25+V24*0.3+W24*0.15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" s="57" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U24" s="53"/>
+      <c r="V24" s="52">
+        <f>SUM(R24:U24)/V$1</f>
+        <v>0</v>
+      </c>
+      <c r="W24" s="54"/>
+      <c r="X24" s="55"/>
+      <c r="Y24" s="56">
+        <f>L24*0.2+Q24*0.25+V24*0.25+W24*0.3+X24*0.15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" s="57" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="47" t="s">
         <v>23</v>
       </c>
@@ -2659,41 +3152,58 @@
       <c r="C25" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="50"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
+      <c r="D25" s="50">
+        <v>0</v>
+      </c>
+      <c r="E25" s="50">
+        <v>0</v>
+      </c>
+      <c r="F25" s="50">
+        <v>0</v>
+      </c>
+      <c r="G25" s="50">
+        <v>0</v>
+      </c>
+      <c r="H25" s="68">
+        <v>0</v>
+      </c>
       <c r="I25" s="51"/>
       <c r="J25" s="51"/>
-      <c r="K25" s="52">
+      <c r="K25" s="64">
+        <v>0</v>
+      </c>
+      <c r="L25" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L25" s="53"/>
-      <c r="M25" s="54"/>
+      <c r="M25" s="53">
+        <v>0</v>
+      </c>
       <c r="N25" s="54"/>
       <c r="O25" s="54"/>
-      <c r="P25" s="52">
-        <f>SUM(L25:O25)/P$1</f>
-        <v>0</v>
-      </c>
-      <c r="Q25" s="53"/>
-      <c r="R25" s="53"/>
+      <c r="P25" s="54"/>
+      <c r="Q25" s="52">
+        <f>SUM(M25:P25)/Q$1</f>
+        <v>0</v>
+      </c>
+      <c r="R25" s="53">
+        <v>0</v>
+      </c>
       <c r="S25" s="53"/>
       <c r="T25" s="53"/>
-      <c r="U25" s="52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V25" s="54"/>
-      <c r="W25" s="55"/>
-      <c r="X25" s="56">
-        <f>K25*0.2+P25*0.25+U25*0.25+V25*0.3+W25*0.15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24" s="57" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U25" s="53"/>
+      <c r="V25" s="52">
+        <f>SUM(R25:U25)/V$1</f>
+        <v>0</v>
+      </c>
+      <c r="W25" s="54"/>
+      <c r="X25" s="55"/>
+      <c r="Y25" s="56">
+        <f>L25*0.2+Q25*0.25+V25*0.25+W25*0.3+X25*0.15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" s="57" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="47" t="s">
         <v>26</v>
       </c>
@@ -2703,41 +3213,58 @@
       <c r="C26" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="50"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
+      <c r="D26" s="50">
+        <v>0</v>
+      </c>
+      <c r="E26" s="50">
+        <v>0</v>
+      </c>
+      <c r="F26" s="50">
+        <v>0</v>
+      </c>
+      <c r="G26" s="50">
+        <v>0</v>
+      </c>
+      <c r="H26" s="68">
+        <v>0</v>
+      </c>
       <c r="I26" s="51"/>
       <c r="J26" s="51"/>
-      <c r="K26" s="52">
+      <c r="K26" s="64">
+        <v>0</v>
+      </c>
+      <c r="L26" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L26" s="53"/>
-      <c r="M26" s="54"/>
+      <c r="M26" s="53">
+        <v>0</v>
+      </c>
       <c r="N26" s="54"/>
       <c r="O26" s="54"/>
-      <c r="P26" s="52">
-        <f>SUM(L26:O26)/P$1</f>
-        <v>0</v>
-      </c>
-      <c r="Q26" s="53"/>
-      <c r="R26" s="53"/>
+      <c r="P26" s="54"/>
+      <c r="Q26" s="52">
+        <f>SUM(M26:P26)/Q$1</f>
+        <v>0</v>
+      </c>
+      <c r="R26" s="53">
+        <v>0</v>
+      </c>
       <c r="S26" s="53"/>
       <c r="T26" s="53"/>
-      <c r="U26" s="52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V26" s="54"/>
-      <c r="W26" s="55"/>
-      <c r="X26" s="56">
-        <f>K26*0.2+P26*0.25+U26*0.25+V26*0.3+W26*0.15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" s="57" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U26" s="53"/>
+      <c r="V26" s="52">
+        <f>SUM(R26:U26)/V$1</f>
+        <v>0</v>
+      </c>
+      <c r="W26" s="54"/>
+      <c r="X26" s="55"/>
+      <c r="Y26" s="56">
+        <f>L26*0.2+Q26*0.25+V26*0.25+W26*0.3+X26*0.15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" s="57" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="47" t="s">
         <v>86</v>
       </c>
@@ -2747,41 +3274,58 @@
       <c r="C27" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="D27" s="50"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
+      <c r="D27" s="50">
+        <v>0</v>
+      </c>
+      <c r="E27" s="50">
+        <v>0</v>
+      </c>
+      <c r="F27" s="50">
+        <v>0</v>
+      </c>
+      <c r="G27" s="50">
+        <v>0</v>
+      </c>
+      <c r="H27" s="68">
+        <v>0</v>
+      </c>
       <c r="I27" s="51"/>
       <c r="J27" s="51"/>
-      <c r="K27" s="52">
+      <c r="K27" s="64">
+        <v>0</v>
+      </c>
+      <c r="L27" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L27" s="53"/>
-      <c r="M27" s="54"/>
+      <c r="M27" s="53">
+        <v>0</v>
+      </c>
       <c r="N27" s="54"/>
       <c r="O27" s="54"/>
-      <c r="P27" s="52">
-        <f>SUM(L27:O27)/P$1</f>
-        <v>0</v>
-      </c>
-      <c r="Q27" s="53"/>
-      <c r="R27" s="53"/>
+      <c r="P27" s="54"/>
+      <c r="Q27" s="52">
+        <f>SUM(M27:P27)/Q$1</f>
+        <v>0</v>
+      </c>
+      <c r="R27" s="53">
+        <v>0</v>
+      </c>
       <c r="S27" s="53"/>
       <c r="T27" s="53"/>
-      <c r="U27" s="52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V27" s="54"/>
-      <c r="W27" s="55"/>
-      <c r="X27" s="56">
-        <f>K27*0.2+P27*0.25+U27*0.25+V27*0.3+W27*0.1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24" s="57" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U27" s="53"/>
+      <c r="V27" s="52">
+        <f>SUM(R27:U27)/V$1</f>
+        <v>0</v>
+      </c>
+      <c r="W27" s="54"/>
+      <c r="X27" s="55"/>
+      <c r="Y27" s="56">
+        <f>L27*0.2+Q27*0.25+V27*0.25+W27*0.3+X27*0.1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" s="57" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="47" t="s">
         <v>89</v>
       </c>
@@ -2791,41 +3335,58 @@
       <c r="C28" s="49" t="s">
         <v>91</v>
       </c>
-      <c r="D28" s="50"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
+      <c r="D28" s="50">
+        <v>0</v>
+      </c>
+      <c r="E28" s="50">
+        <v>0</v>
+      </c>
+      <c r="F28" s="50">
+        <v>0</v>
+      </c>
+      <c r="G28" s="50">
+        <v>0</v>
+      </c>
+      <c r="H28" s="68">
+        <v>0</v>
+      </c>
       <c r="I28" s="51"/>
       <c r="J28" s="51"/>
-      <c r="K28" s="52">
+      <c r="K28" s="64">
+        <v>0</v>
+      </c>
+      <c r="L28" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L28" s="53"/>
-      <c r="M28" s="54"/>
+      <c r="M28" s="53">
+        <v>0</v>
+      </c>
       <c r="N28" s="54"/>
       <c r="O28" s="54"/>
-      <c r="P28" s="52">
-        <f>SUM(L28:O28)/P$1</f>
-        <v>0</v>
-      </c>
-      <c r="Q28" s="53"/>
-      <c r="R28" s="53"/>
+      <c r="P28" s="54"/>
+      <c r="Q28" s="52">
+        <f>SUM(M28:P28)/Q$1</f>
+        <v>0</v>
+      </c>
+      <c r="R28" s="53">
+        <v>0</v>
+      </c>
       <c r="S28" s="53"/>
       <c r="T28" s="53"/>
-      <c r="U28" s="52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V28" s="54"/>
-      <c r="W28" s="55"/>
-      <c r="X28" s="56">
-        <f>K28*0.2+P28*0.25+U28*0.25+V28*0.3+W28*0.1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24" s="58" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U28" s="53"/>
+      <c r="V28" s="52">
+        <f>SUM(R28:U28)/V$1</f>
+        <v>0</v>
+      </c>
+      <c r="W28" s="54"/>
+      <c r="X28" s="55"/>
+      <c r="Y28" s="56">
+        <f>L28*0.2+Q28*0.25+V28*0.25+W28*0.3+X28*0.1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" s="58" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="47" t="s">
         <v>92</v>
       </c>
@@ -2835,79 +3396,82 @@
       <c r="C29" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="D29" s="50"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="51"/>
+      <c r="D29" s="50">
+        <v>0</v>
+      </c>
+      <c r="E29" s="50">
+        <v>0</v>
+      </c>
+      <c r="F29" s="50">
+        <v>0</v>
+      </c>
+      <c r="G29" s="50">
+        <v>0</v>
+      </c>
+      <c r="H29" s="68">
+        <v>0</v>
+      </c>
       <c r="I29" s="51"/>
       <c r="J29" s="51"/>
-      <c r="K29" s="52">
+      <c r="K29" s="64">
+        <v>0</v>
+      </c>
+      <c r="L29" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L29" s="53"/>
-      <c r="M29" s="54"/>
+      <c r="M29" s="53">
+        <v>0</v>
+      </c>
       <c r="N29" s="54"/>
       <c r="O29" s="54"/>
-      <c r="P29" s="52">
-        <f>SUM(L29:O29)/P$1</f>
-        <v>0</v>
-      </c>
-      <c r="Q29" s="53"/>
-      <c r="R29" s="53"/>
+      <c r="P29" s="54"/>
+      <c r="Q29" s="52">
+        <f>SUM(M29:P29)/Q$1</f>
+        <v>0</v>
+      </c>
+      <c r="R29" s="53">
+        <v>0</v>
+      </c>
       <c r="S29" s="53"/>
       <c r="T29" s="53"/>
-      <c r="U29" s="52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V29" s="54"/>
-      <c r="W29" s="55"/>
-      <c r="X29" s="56">
-        <f>K29*0.2+P29*0.25+U29*0.25+V29*0.3+W29*0.1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="20"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L30" s="14"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="16">
-        <f>SUM(L30:O30)/P$1</f>
-        <v>0</v>
-      </c>
-      <c r="Q30" s="14"/>
-      <c r="R30" s="14"/>
-      <c r="S30" s="14"/>
-      <c r="T30" s="14"/>
-      <c r="U30" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V30" s="6"/>
-      <c r="W30" s="44"/>
-      <c r="X30" s="21">
-        <f>K30*0.2+P30*0.25+U30*0.25+V30*0.3+W30*0.1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U29" s="53"/>
+      <c r="V29" s="52">
+        <f>SUM(R29:U29)/V$1</f>
+        <v>0</v>
+      </c>
+      <c r="W29" s="54"/>
+      <c r="X29" s="55"/>
+      <c r="Y29" s="56">
+        <f>L29*0.2+Q29*0.25+V29*0.25+W29*0.3+X29*0.1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="69"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="9"/>
+      <c r="T30" s="9"/>
+      <c r="U30" s="9"/>
+      <c r="V30" s="9"/>
+    </row>
+    <row r="31" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -2915,7 +3479,7 @@
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
-      <c r="H31" s="9"/>
+      <c r="H31" s="69"/>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
@@ -2929,8 +3493,9 @@
       <c r="S31" s="9"/>
       <c r="T31" s="9"/>
       <c r="U31" s="9"/>
-    </row>
-    <row r="32" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V31" s="9"/>
+    </row>
+    <row r="32" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -2938,7 +3503,7 @@
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
-      <c r="H32" s="9"/>
+      <c r="H32" s="69"/>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
@@ -2952,8 +3517,9 @@
       <c r="S32" s="9"/>
       <c r="T32" s="9"/>
       <c r="U32" s="9"/>
-    </row>
-    <row r="33" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V32" s="9"/>
+    </row>
+    <row r="33" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -2961,7 +3527,7 @@
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
-      <c r="H33" s="9"/>
+      <c r="H33" s="69"/>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
@@ -2975,8 +3541,9 @@
       <c r="S33" s="9"/>
       <c r="T33" s="9"/>
       <c r="U33" s="9"/>
-    </row>
-    <row r="34" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V33" s="9"/>
+    </row>
+    <row r="34" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -2984,7 +3551,7 @@
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
-      <c r="H34" s="9"/>
+      <c r="H34" s="69"/>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
@@ -2998,8 +3565,9 @@
       <c r="S34" s="9"/>
       <c r="T34" s="9"/>
       <c r="U34" s="9"/>
-    </row>
-    <row r="35" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V34" s="9"/>
+    </row>
+    <row r="35" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -3007,7 +3575,7 @@
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
-      <c r="H35" s="9"/>
+      <c r="H35" s="69"/>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
@@ -3021,8 +3589,9 @@
       <c r="S35" s="9"/>
       <c r="T35" s="9"/>
       <c r="U35" s="9"/>
-    </row>
-    <row r="36" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V35" s="9"/>
+    </row>
+    <row r="36" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -3030,7 +3599,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
-      <c r="H36" s="9"/>
+      <c r="H36" s="69"/>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
@@ -3044,8 +3613,9 @@
       <c r="S36" s="9"/>
       <c r="T36" s="9"/>
       <c r="U36" s="9"/>
-    </row>
-    <row r="37" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V36" s="9"/>
+    </row>
+    <row r="37" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -3053,7 +3623,7 @@
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
-      <c r="H37" s="9"/>
+      <c r="H37" s="69"/>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
@@ -3067,8 +3637,9 @@
       <c r="S37" s="9"/>
       <c r="T37" s="9"/>
       <c r="U37" s="9"/>
-    </row>
-    <row r="38" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V37" s="9"/>
+    </row>
+    <row r="38" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -3076,7 +3647,7 @@
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
-      <c r="H38" s="9"/>
+      <c r="H38" s="69"/>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
@@ -3090,8 +3661,9 @@
       <c r="S38" s="9"/>
       <c r="T38" s="9"/>
       <c r="U38" s="9"/>
-    </row>
-    <row r="39" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V38" s="9"/>
+    </row>
+    <row r="39" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -3099,7 +3671,7 @@
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
-      <c r="H39" s="9"/>
+      <c r="H39" s="69"/>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
@@ -3113,8 +3685,9 @@
       <c r="S39" s="9"/>
       <c r="T39" s="9"/>
       <c r="U39" s="9"/>
-    </row>
-    <row r="40" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V39" s="9"/>
+    </row>
+    <row r="40" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -3122,7 +3695,7 @@
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
-      <c r="H40" s="9"/>
+      <c r="H40" s="69"/>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
@@ -3136,8 +3709,9 @@
       <c r="S40" s="9"/>
       <c r="T40" s="9"/>
       <c r="U40" s="9"/>
-    </row>
-    <row r="41" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V40" s="9"/>
+    </row>
+    <row r="41" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -3145,7 +3719,7 @@
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
-      <c r="H41" s="9"/>
+      <c r="H41" s="69"/>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
@@ -3159,8 +3733,9 @@
       <c r="S41" s="9"/>
       <c r="T41" s="9"/>
       <c r="U41" s="9"/>
-    </row>
-    <row r="42" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V41" s="9"/>
+    </row>
+    <row r="42" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -3168,7 +3743,7 @@
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
-      <c r="H42" s="9"/>
+      <c r="H42" s="69"/>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
@@ -3182,8 +3757,9 @@
       <c r="S42" s="9"/>
       <c r="T42" s="9"/>
       <c r="U42" s="9"/>
-    </row>
-    <row r="43" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V42" s="9"/>
+    </row>
+    <row r="43" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -3191,7 +3767,7 @@
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
-      <c r="H43" s="9"/>
+      <c r="H43" s="69"/>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
@@ -3205,8 +3781,9 @@
       <c r="S43" s="9"/>
       <c r="T43" s="9"/>
       <c r="U43" s="9"/>
-    </row>
-    <row r="44" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V43" s="9"/>
+    </row>
+    <row r="44" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -3214,7 +3791,7 @@
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
-      <c r="H44" s="9"/>
+      <c r="H44" s="69"/>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
@@ -3228,8 +3805,9 @@
       <c r="S44" s="9"/>
       <c r="T44" s="9"/>
       <c r="U44" s="9"/>
-    </row>
-    <row r="45" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V44" s="9"/>
+    </row>
+    <row r="45" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -3237,7 +3815,7 @@
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
-      <c r="H45" s="9"/>
+      <c r="H45" s="69"/>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
@@ -3251,8 +3829,9 @@
       <c r="S45" s="9"/>
       <c r="T45" s="9"/>
       <c r="U45" s="9"/>
-    </row>
-    <row r="46" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V45" s="9"/>
+    </row>
+    <row r="46" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -3260,7 +3839,7 @@
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
-      <c r="H46" s="9"/>
+      <c r="H46" s="69"/>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
@@ -3274,8 +3853,9 @@
       <c r="S46" s="9"/>
       <c r="T46" s="9"/>
       <c r="U46" s="9"/>
-    </row>
-    <row r="47" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V46" s="9"/>
+    </row>
+    <row r="47" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -3283,7 +3863,7 @@
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
-      <c r="H47" s="9"/>
+      <c r="H47" s="69"/>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
@@ -3297,8 +3877,9 @@
       <c r="S47" s="9"/>
       <c r="T47" s="9"/>
       <c r="U47" s="9"/>
-    </row>
-    <row r="48" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V47" s="9"/>
+    </row>
+    <row r="48" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -3306,7 +3887,7 @@
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
-      <c r="H48" s="9"/>
+      <c r="H48" s="69"/>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
@@ -3320,8 +3901,9 @@
       <c r="S48" s="9"/>
       <c r="T48" s="9"/>
       <c r="U48" s="9"/>
-    </row>
-    <row r="49" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V48" s="9"/>
+    </row>
+    <row r="49" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -3329,7 +3911,7 @@
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
-      <c r="H49" s="9"/>
+      <c r="H49" s="69"/>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
@@ -3343,8 +3925,9 @@
       <c r="S49" s="9"/>
       <c r="T49" s="9"/>
       <c r="U49" s="9"/>
-    </row>
-    <row r="50" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V49" s="9"/>
+    </row>
+    <row r="50" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -3352,7 +3935,7 @@
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
-      <c r="H50" s="9"/>
+      <c r="H50" s="69"/>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
@@ -3366,8 +3949,9 @@
       <c r="S50" s="9"/>
       <c r="T50" s="9"/>
       <c r="U50" s="9"/>
-    </row>
-    <row r="51" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V50" s="9"/>
+    </row>
+    <row r="51" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -3375,7 +3959,7 @@
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
-      <c r="H51" s="9"/>
+      <c r="H51" s="69"/>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
@@ -3389,8 +3973,9 @@
       <c r="S51" s="9"/>
       <c r="T51" s="9"/>
       <c r="U51" s="9"/>
-    </row>
-    <row r="52" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V51" s="9"/>
+    </row>
+    <row r="52" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -3398,7 +3983,7 @@
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
-      <c r="H52" s="9"/>
+      <c r="H52" s="69"/>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
@@ -3412,8 +3997,9 @@
       <c r="S52" s="9"/>
       <c r="T52" s="9"/>
       <c r="U52" s="9"/>
-    </row>
-    <row r="53" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V52" s="9"/>
+    </row>
+    <row r="53" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -3421,7 +4007,7 @@
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
-      <c r="H53" s="9"/>
+      <c r="H53" s="69"/>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
@@ -3435,8 +4021,9 @@
       <c r="S53" s="9"/>
       <c r="T53" s="9"/>
       <c r="U53" s="9"/>
-    </row>
-    <row r="54" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V53" s="9"/>
+    </row>
+    <row r="54" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -3444,7 +4031,7 @@
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
-      <c r="H54" s="9"/>
+      <c r="H54" s="69"/>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
@@ -3458,8 +4045,9 @@
       <c r="S54" s="9"/>
       <c r="T54" s="9"/>
       <c r="U54" s="9"/>
-    </row>
-    <row r="55" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V54" s="9"/>
+    </row>
+    <row r="55" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -3467,7 +4055,7 @@
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
-      <c r="H55" s="9"/>
+      <c r="H55" s="69"/>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
@@ -3481,8 +4069,9 @@
       <c r="S55" s="9"/>
       <c r="T55" s="9"/>
       <c r="U55" s="9"/>
-    </row>
-    <row r="56" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V55" s="9"/>
+    </row>
+    <row r="56" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -3490,7 +4079,7 @@
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
-      <c r="H56" s="9"/>
+      <c r="H56" s="69"/>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
@@ -3504,8 +4093,9 @@
       <c r="S56" s="9"/>
       <c r="T56" s="9"/>
       <c r="U56" s="9"/>
-    </row>
-    <row r="57" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V56" s="9"/>
+    </row>
+    <row r="57" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -3513,7 +4103,7 @@
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
-      <c r="H57" s="9"/>
+      <c r="H57" s="69"/>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
@@ -3527,8 +4117,9 @@
       <c r="S57" s="9"/>
       <c r="T57" s="9"/>
       <c r="U57" s="9"/>
-    </row>
-    <row r="58" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V57" s="9"/>
+    </row>
+    <row r="58" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -3536,7 +4127,7 @@
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
-      <c r="H58" s="9"/>
+      <c r="H58" s="69"/>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
@@ -3550,8 +4141,9 @@
       <c r="S58" s="9"/>
       <c r="T58" s="9"/>
       <c r="U58" s="9"/>
-    </row>
-    <row r="59" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V58" s="9"/>
+    </row>
+    <row r="59" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -3559,7 +4151,7 @@
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
-      <c r="H59" s="9"/>
+      <c r="H59" s="69"/>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
@@ -3573,8 +4165,9 @@
       <c r="S59" s="9"/>
       <c r="T59" s="9"/>
       <c r="U59" s="9"/>
-    </row>
-    <row r="60" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V59" s="9"/>
+    </row>
+    <row r="60" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -3582,7 +4175,7 @@
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
-      <c r="H60" s="9"/>
+      <c r="H60" s="69"/>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
@@ -3596,8 +4189,9 @@
       <c r="S60" s="9"/>
       <c r="T60" s="9"/>
       <c r="U60" s="9"/>
-    </row>
-    <row r="61" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V60" s="9"/>
+    </row>
+    <row r="61" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -3605,7 +4199,7 @@
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
-      <c r="H61" s="9"/>
+      <c r="H61" s="69"/>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
@@ -3619,8 +4213,9 @@
       <c r="S61" s="9"/>
       <c r="T61" s="9"/>
       <c r="U61" s="9"/>
-    </row>
-    <row r="62" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V61" s="9"/>
+    </row>
+    <row r="62" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -3628,7 +4223,7 @@
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
-      <c r="H62" s="9"/>
+      <c r="H62" s="69"/>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
@@ -3642,8 +4237,9 @@
       <c r="S62" s="9"/>
       <c r="T62" s="9"/>
       <c r="U62" s="9"/>
-    </row>
-    <row r="63" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V62" s="9"/>
+    </row>
+    <row r="63" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -3651,7 +4247,7 @@
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
-      <c r="H63" s="9"/>
+      <c r="H63" s="69"/>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
@@ -3665,8 +4261,9 @@
       <c r="S63" s="9"/>
       <c r="T63" s="9"/>
       <c r="U63" s="9"/>
-    </row>
-    <row r="64" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V63" s="9"/>
+    </row>
+    <row r="64" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -3674,7 +4271,7 @@
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
-      <c r="H64" s="9"/>
+      <c r="H64" s="69"/>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
@@ -3688,8 +4285,9 @@
       <c r="S64" s="9"/>
       <c r="T64" s="9"/>
       <c r="U64" s="9"/>
-    </row>
-    <row r="65" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V64" s="9"/>
+    </row>
+    <row r="65" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -3697,7 +4295,7 @@
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
-      <c r="H65" s="9"/>
+      <c r="H65" s="69"/>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
@@ -3711,8 +4309,9 @@
       <c r="S65" s="9"/>
       <c r="T65" s="9"/>
       <c r="U65" s="9"/>
-    </row>
-    <row r="66" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V65" s="9"/>
+    </row>
+    <row r="66" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -3720,7 +4319,7 @@
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
-      <c r="H66" s="9"/>
+      <c r="H66" s="69"/>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
@@ -3734,8 +4333,9 @@
       <c r="S66" s="9"/>
       <c r="T66" s="9"/>
       <c r="U66" s="9"/>
-    </row>
-    <row r="67" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V66" s="9"/>
+    </row>
+    <row r="67" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -3743,7 +4343,7 @@
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
-      <c r="H67" s="9"/>
+      <c r="H67" s="69"/>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
@@ -3757,8 +4357,9 @@
       <c r="S67" s="9"/>
       <c r="T67" s="9"/>
       <c r="U67" s="9"/>
-    </row>
-    <row r="68" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V67" s="9"/>
+    </row>
+    <row r="68" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -3766,7 +4367,7 @@
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
-      <c r="H68" s="9"/>
+      <c r="H68" s="69"/>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
@@ -3780,8 +4381,9 @@
       <c r="S68" s="9"/>
       <c r="T68" s="9"/>
       <c r="U68" s="9"/>
-    </row>
-    <row r="69" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V68" s="9"/>
+    </row>
+    <row r="69" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -3789,7 +4391,7 @@
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
-      <c r="H69" s="9"/>
+      <c r="H69" s="69"/>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
@@ -3803,8 +4405,9 @@
       <c r="S69" s="9"/>
       <c r="T69" s="9"/>
       <c r="U69" s="9"/>
-    </row>
-    <row r="70" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V69" s="9"/>
+    </row>
+    <row r="70" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -3812,7 +4415,7 @@
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
-      <c r="H70" s="9"/>
+      <c r="H70" s="69"/>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
@@ -3826,8 +4429,9 @@
       <c r="S70" s="9"/>
       <c r="T70" s="9"/>
       <c r="U70" s="9"/>
-    </row>
-    <row r="71" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V70" s="9"/>
+    </row>
+    <row r="71" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -3835,7 +4439,7 @@
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
-      <c r="H71" s="9"/>
+      <c r="H71" s="69"/>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
@@ -3849,8 +4453,9 @@
       <c r="S71" s="9"/>
       <c r="T71" s="9"/>
       <c r="U71" s="9"/>
-    </row>
-    <row r="72" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V71" s="9"/>
+    </row>
+    <row r="72" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -3858,7 +4463,7 @@
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
-      <c r="H72" s="9"/>
+      <c r="H72" s="69"/>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
@@ -3872,8 +4477,9 @@
       <c r="S72" s="9"/>
       <c r="T72" s="9"/>
       <c r="U72" s="9"/>
-    </row>
-    <row r="73" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V72" s="9"/>
+    </row>
+    <row r="73" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -3881,7 +4487,7 @@
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
-      <c r="H73" s="9"/>
+      <c r="H73" s="69"/>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
@@ -3895,8 +4501,9 @@
       <c r="S73" s="9"/>
       <c r="T73" s="9"/>
       <c r="U73" s="9"/>
-    </row>
-    <row r="74" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V73" s="9"/>
+    </row>
+    <row r="74" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -3904,7 +4511,7 @@
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
-      <c r="H74" s="9"/>
+      <c r="H74" s="69"/>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
@@ -3918,8 +4525,9 @@
       <c r="S74" s="9"/>
       <c r="T74" s="9"/>
       <c r="U74" s="9"/>
-    </row>
-    <row r="75" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V74" s="9"/>
+    </row>
+    <row r="75" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -3927,7 +4535,7 @@
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
-      <c r="H75" s="9"/>
+      <c r="H75" s="69"/>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
@@ -3941,87 +4549,65 @@
       <c r="S75" s="9"/>
       <c r="T75" s="9"/>
       <c r="U75" s="9"/>
-    </row>
-    <row r="76" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="8"/>
-      <c r="B76" s="8"/>
-      <c r="C76" s="8"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="8"/>
-      <c r="F76" s="8"/>
-      <c r="G76" s="8"/>
-      <c r="H76" s="9"/>
-      <c r="I76" s="9"/>
-      <c r="J76" s="9"/>
-      <c r="K76" s="9"/>
-      <c r="L76" s="9"/>
-      <c r="M76" s="9"/>
-      <c r="N76" s="9"/>
-      <c r="O76" s="9"/>
-      <c r="P76" s="9"/>
-      <c r="Q76" s="9"/>
-      <c r="R76" s="9"/>
-      <c r="S76" s="9"/>
-      <c r="T76" s="9"/>
-      <c r="U76" s="9"/>
+      <c r="V75" s="9"/>
     </row>
   </sheetData>
-  <sortState ref="A3:AB30">
-    <sortCondition descending="1" ref="X2"/>
+  <sortState ref="A3:Z30">
+    <sortCondition descending="1" ref="Y3"/>
   </sortState>
   <mergeCells count="3">
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="Q1:T1"/>
+    <mergeCell ref="D1:K1"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="R1:U1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D3:J30">
-    <cfRule type="cellIs" dxfId="21" priority="19" operator="between">
+  <conditionalFormatting sqref="D3:J29">
+    <cfRule type="cellIs" dxfId="32" priority="19" operator="between">
       <formula>0.1</formula>
       <formula>1.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="20" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="21" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V3:W30 L3:O30">
-    <cfRule type="cellIs" dxfId="18" priority="10" operator="between">
+  <conditionalFormatting sqref="W3:X29 M3:P29">
+    <cfRule type="cellIs" dxfId="29" priority="10" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="12" operator="between">
+    <cfRule type="cellIs" dxfId="27" priority="12" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="13" operator="between">
+    <cfRule type="cellIs" dxfId="26" priority="13" operator="between">
       <formula>80</formula>
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q3:T30">
-    <cfRule type="cellIs" dxfId="14" priority="6" operator="between">
+  <conditionalFormatting sqref="R3:U29">
+    <cfRule type="cellIs" dxfId="25" priority="6" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="23" priority="8" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="9" operator="between">
+    <cfRule type="cellIs" dxfId="22" priority="9" operator="between">
       <formula>80</formula>
       <formula>200</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K3:K30">
-    <cfRule type="dataBar" priority="182">
+  <conditionalFormatting sqref="L3:L29">
+    <cfRule type="dataBar" priority="189">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4034,8 +4620,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P3:P30">
-    <cfRule type="dataBar" priority="184">
+  <conditionalFormatting sqref="Q3:Q29">
+    <cfRule type="dataBar" priority="190">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4048,8 +4634,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U3:U30">
-    <cfRule type="dataBar" priority="186">
+  <conditionalFormatting sqref="V3:V29">
+    <cfRule type="dataBar" priority="191">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4062,8 +4648,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X3:X30">
-    <cfRule type="dataBar" priority="188">
+  <conditionalFormatting sqref="Y3:Y29">
+    <cfRule type="dataBar" priority="192">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4091,7 +4677,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>K3:K30</xm:sqref>
+          <xm:sqref>L3:L29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C1E54EB9-FD52-4CFD-8B29-7F3B7B6681D5}">
@@ -4102,7 +4688,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>P3:P30</xm:sqref>
+          <xm:sqref>Q3:Q29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{03C5F189-3F43-4B84-A0F5-49F108E9F2B6}">
@@ -4113,7 +4699,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>U3:U30</xm:sqref>
+          <xm:sqref>V3:V29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{43DC70F4-8291-4430-AFF0-577FC5E79CD9}">
@@ -4124,7 +4710,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>X3:X30</xm:sqref>
+          <xm:sqref>Y3:Y29</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -5770,14 +6356,14 @@
     <mergeCell ref="K1:P1"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:I33">
-    <cfRule type="cellIs" dxfId="10" priority="25" operator="between">
+    <cfRule type="cellIs" dxfId="21" priority="25" operator="between">
       <formula>0.1</formula>
       <formula>1.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="26" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="27" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5824,18 +6410,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:O33">
-    <cfRule type="cellIs" dxfId="7" priority="16" operator="between">
+    <cfRule type="cellIs" dxfId="18" priority="16" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="18" operator="between">
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="19" operator="between">
+    <cfRule type="cellIs" dxfId="15" priority="19" operator="between">
       <formula>80</formula>
       <formula>100</formula>
     </cfRule>
@@ -5883,18 +6469,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3:Q33">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="greaterThanOrEqual">
       <formula>80</formula>
     </cfRule>
   </conditionalFormatting>

--- a/AdvancedJava/_docs/Notlar.xlsx
+++ b/AdvancedJava/_docs/Notlar.xlsx
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="100">
   <si>
     <t>Adı</t>
   </si>
@@ -359,6 +359,15 @@
   </si>
   <si>
     <t>M</t>
+  </si>
+  <si>
+    <t>FUAT</t>
+  </si>
+  <si>
+    <t>SEKİZKARDEŞ</t>
+  </si>
+  <si>
+    <t>H5150063</t>
   </si>
 </sst>
 </file>
@@ -764,7 +773,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -867,22 +876,6 @@
     <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -900,11 +893,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="47">
+  <dxfs count="22">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1084,248 +1092,6 @@
         <patternFill>
           <fgColor auto="1"/>
           <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1640,11 +1406,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z75"/>
+  <dimension ref="A1:Z76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomLeft" activeCell="AB16" sqref="AB16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1654,7 +1420,7 @@
     <col min="3" max="3" width="9.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="3.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="2.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.44140625" style="70" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.44140625" style="64" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="2.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="2.44140625" style="1" customWidth="1"/>
     <col min="11" max="11" width="2.44140625" style="1" bestFit="1" customWidth="1"/>
@@ -1677,36 +1443,36 @@
       <c r="A1" s="30"/>
       <c r="B1" s="18"/>
       <c r="C1" s="29"/>
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
       <c r="L1" s="46">
-        <v>4</v>
-      </c>
-      <c r="M1" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="67" t="s">
         <v>95</v>
       </c>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
       <c r="Q1" s="45">
-        <v>1</v>
-      </c>
-      <c r="R1" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="R1" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
       <c r="V1" s="45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W1" s="17" t="s">
         <v>34</v>
@@ -1740,7 +1506,7 @@
       <c r="G2" s="27">
         <v>4</v>
       </c>
-      <c r="H2" s="66">
+      <c r="H2" s="60">
         <v>5</v>
       </c>
       <c r="I2" s="27">
@@ -1817,22 +1583,26 @@
       <c r="G3" s="7">
         <v>2</v>
       </c>
-      <c r="H3" s="67">
-        <v>2</v>
-      </c>
-      <c r="I3" s="7"/>
+      <c r="H3" s="61">
+        <v>2</v>
+      </c>
+      <c r="I3" s="7">
+        <v>2</v>
+      </c>
       <c r="J3" s="7"/>
-      <c r="K3" s="64">
+      <c r="K3" s="58">
         <v>0</v>
       </c>
       <c r="L3" s="16">
         <f>SUM(D3:J3)*50/(L$1-K3)</f>
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="M3" s="14">
         <v>100</v>
       </c>
-      <c r="N3" s="6"/>
+      <c r="N3" s="6">
+        <v>100</v>
+      </c>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
       <c r="Q3" s="16">
@@ -1842,7 +1612,9 @@
       <c r="R3" s="14">
         <v>60</v>
       </c>
-      <c r="S3" s="14"/>
+      <c r="S3" s="14">
+        <v>60</v>
+      </c>
       <c r="T3" s="14"/>
       <c r="U3" s="14"/>
       <c r="V3" s="16">
@@ -1853,7 +1625,7 @@
       <c r="X3" s="44"/>
       <c r="Y3" s="21">
         <f>L3*0.2+Q3*0.25+V3*0.25+W3*0.3+X3*0.15</f>
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Z3" s="1" t="s">
         <v>37</v>
@@ -1881,32 +1653,38 @@
       <c r="G4" s="7">
         <v>2</v>
       </c>
-      <c r="H4" s="67">
-        <v>2</v>
-      </c>
-      <c r="I4" s="7"/>
+      <c r="H4" s="61">
+        <v>2</v>
+      </c>
+      <c r="I4" s="7">
+        <v>2</v>
+      </c>
       <c r="J4" s="7"/>
-      <c r="K4" s="64">
+      <c r="K4" s="58">
         <v>0</v>
       </c>
       <c r="L4" s="16">
-        <f t="shared" ref="L4:L29" si="0">SUM(D4:J4)*50/(L$1-K4)</f>
-        <v>125</v>
+        <f>SUM(D4:J4)*50/(L$1-K4)</f>
+        <v>120</v>
       </c>
       <c r="M4" s="14">
         <v>95</v>
       </c>
-      <c r="N4" s="6"/>
+      <c r="N4" s="6">
+        <v>100</v>
+      </c>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
       <c r="Q4" s="16">
         <f>SUM(M4:P4)/Q$1</f>
-        <v>95</v>
+        <v>97.5</v>
       </c>
       <c r="R4" s="14">
         <v>60</v>
       </c>
-      <c r="S4" s="14"/>
+      <c r="S4" s="14">
+        <v>60</v>
+      </c>
       <c r="T4" s="14"/>
       <c r="U4" s="14"/>
       <c r="V4" s="16">
@@ -1917,18 +1695,18 @@
       <c r="X4" s="44"/>
       <c r="Y4" s="21">
         <f>L4*0.2+Q4*0.25+V4*0.25+W4*0.3+X4*0.15</f>
-        <v>63.75</v>
+        <v>63.375</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="D5" s="12">
         <v>0</v>
@@ -1942,32 +1720,38 @@
       <c r="G5" s="7">
         <v>2</v>
       </c>
-      <c r="H5" s="67">
-        <v>2</v>
-      </c>
-      <c r="I5" s="7"/>
+      <c r="H5" s="61">
+        <v>2</v>
+      </c>
+      <c r="I5" s="7">
+        <v>2</v>
+      </c>
       <c r="J5" s="7"/>
-      <c r="K5" s="64">
+      <c r="K5" s="58">
         <v>0</v>
       </c>
       <c r="L5" s="16">
-        <f t="shared" si="0"/>
+        <f>SUM(D5:J5)*50/(L$1-K5)</f>
         <v>100</v>
       </c>
       <c r="M5" s="14">
+        <v>95</v>
+      </c>
+      <c r="N5" s="6">
         <v>100</v>
       </c>
-      <c r="N5" s="6"/>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
       <c r="Q5" s="16">
         <f>SUM(M5:P5)/Q$1</f>
-        <v>100</v>
+        <v>97.5</v>
       </c>
       <c r="R5" s="14">
         <v>60</v>
       </c>
-      <c r="S5" s="14"/>
+      <c r="S5" s="14">
+        <v>60</v>
+      </c>
       <c r="T5" s="14"/>
       <c r="U5" s="14"/>
       <c r="V5" s="16">
@@ -1977,19 +1761,19 @@
       <c r="W5" s="6"/>
       <c r="X5" s="44"/>
       <c r="Y5" s="21">
-        <f>L5*0.2+Q5*0.25+V5*0.25+W5*0.3+X5*0.1</f>
-        <v>60</v>
+        <f>L5*0.2+Q5*0.25+V5*0.25+W5*0.3+X5*0.15</f>
+        <v>59.375</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="D6" s="12">
         <v>0</v>
@@ -2003,32 +1787,38 @@
       <c r="G6" s="7">
         <v>2</v>
       </c>
-      <c r="H6" s="67">
-        <v>2</v>
-      </c>
-      <c r="I6" s="7"/>
+      <c r="H6" s="61" t="s">
+        <v>96</v>
+      </c>
+      <c r="I6" s="7">
+        <v>1.8</v>
+      </c>
       <c r="J6" s="7"/>
-      <c r="K6" s="64">
-        <v>0</v>
+      <c r="K6" s="59">
+        <v>1</v>
       </c>
       <c r="L6" s="16">
-        <f t="shared" si="0"/>
-        <v>100</v>
+        <f>SUM(D6:J6)*50/(L$1-K6)</f>
+        <v>97.5</v>
       </c>
       <c r="M6" s="14">
         <v>95</v>
       </c>
-      <c r="N6" s="6"/>
+      <c r="N6" s="6">
+        <v>100</v>
+      </c>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
       <c r="Q6" s="16">
         <f>SUM(M6:P6)/Q$1</f>
-        <v>95</v>
+        <v>97.5</v>
       </c>
       <c r="R6" s="14">
         <v>60</v>
       </c>
-      <c r="S6" s="14"/>
+      <c r="S6" s="14">
+        <v>60</v>
+      </c>
       <c r="T6" s="14"/>
       <c r="U6" s="14"/>
       <c r="V6" s="16">
@@ -2039,18 +1829,18 @@
       <c r="X6" s="44"/>
       <c r="Y6" s="21">
         <f>L6*0.2+Q6*0.25+V6*0.25+W6*0.3+X6*0.15</f>
-        <v>58.75</v>
+        <v>58.875</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="D7" s="12">
         <v>0</v>
@@ -2064,22 +1854,26 @@
       <c r="G7" s="7">
         <v>2</v>
       </c>
-      <c r="H7" s="67" t="s">
-        <v>96</v>
-      </c>
-      <c r="I7" s="7"/>
+      <c r="H7" s="61">
+        <v>2</v>
+      </c>
+      <c r="I7" s="7">
+        <v>2</v>
+      </c>
       <c r="J7" s="7"/>
-      <c r="K7" s="65">
-        <v>1</v>
+      <c r="K7" s="58">
+        <v>0</v>
       </c>
       <c r="L7" s="16">
-        <f t="shared" si="0"/>
+        <f>SUM(D7:J7)*50/(L$1-K7)</f>
         <v>100</v>
       </c>
       <c r="M7" s="14">
-        <v>95</v>
-      </c>
-      <c r="N7" s="6"/>
+        <v>100</v>
+      </c>
+      <c r="N7" s="6">
+        <v>90</v>
+      </c>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
       <c r="Q7" s="16">
@@ -2089,7 +1883,9 @@
       <c r="R7" s="14">
         <v>60</v>
       </c>
-      <c r="S7" s="14"/>
+      <c r="S7" s="14">
+        <v>60</v>
+      </c>
       <c r="T7" s="14"/>
       <c r="U7" s="14"/>
       <c r="V7" s="16">
@@ -2099,19 +1895,19 @@
       <c r="W7" s="6"/>
       <c r="X7" s="44"/>
       <c r="Y7" s="21">
-        <f>L7*0.2+Q7*0.25+V7*0.25+W7*0.3+X7*0.15</f>
+        <f>L7*0.2+Q7*0.25+V7*0.25+W7*0.3+X7*0.1</f>
         <v>58.75</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="D8" s="12">
         <v>0</v>
@@ -2123,24 +1919,28 @@
         <v>2</v>
       </c>
       <c r="G8" s="7">
-        <v>1.8</v>
-      </c>
-      <c r="H8" s="67">
-        <v>2</v>
-      </c>
-      <c r="I8" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="H8" s="61">
+        <v>2</v>
+      </c>
+      <c r="I8" s="7">
+        <v>2</v>
+      </c>
       <c r="J8" s="7"/>
-      <c r="K8" s="64">
+      <c r="K8" s="58">
         <v>0</v>
       </c>
       <c r="L8" s="16">
-        <f t="shared" si="0"/>
-        <v>97.5</v>
+        <f>SUM(D8:J8)*50/(L$1-K8)</f>
+        <v>100</v>
       </c>
       <c r="M8" s="14">
-        <v>95</v>
-      </c>
-      <c r="N8" s="6"/>
+        <v>90</v>
+      </c>
+      <c r="N8" s="6">
+        <v>100</v>
+      </c>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
       <c r="Q8" s="16">
@@ -2150,7 +1950,9 @@
       <c r="R8" s="14">
         <v>60</v>
       </c>
-      <c r="S8" s="14"/>
+      <c r="S8" s="14">
+        <v>60</v>
+      </c>
       <c r="T8" s="14"/>
       <c r="U8" s="14"/>
       <c r="V8" s="16">
@@ -2161,21 +1963,21 @@
       <c r="X8" s="44"/>
       <c r="Y8" s="21">
         <f>L8*0.2+Q8*0.25+V8*0.25+W8*0.3+X8*0.15</f>
-        <v>58.25</v>
+        <v>58.75</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="D9" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E9" s="7">
         <v>2</v>
@@ -2186,54 +1988,60 @@
       <c r="G9" s="7">
         <v>2</v>
       </c>
-      <c r="H9" s="67">
-        <v>2</v>
-      </c>
-      <c r="I9" s="7"/>
+      <c r="H9" s="61">
+        <v>2</v>
+      </c>
+      <c r="I9" s="7">
+        <v>2</v>
+      </c>
       <c r="J9" s="7"/>
-      <c r="K9" s="64">
+      <c r="K9" s="58">
         <v>0</v>
       </c>
       <c r="L9" s="16">
-        <f t="shared" si="0"/>
-        <v>100</v>
+        <f>SUM(D9:J9)*50/(L$1-K9)</f>
+        <v>120</v>
       </c>
       <c r="M9" s="14">
+        <v>85</v>
+      </c>
+      <c r="N9" s="6">
         <v>90</v>
       </c>
-      <c r="N9" s="6"/>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
       <c r="Q9" s="16">
         <f>SUM(M9:P9)/Q$1</f>
-        <v>90</v>
+        <v>87.5</v>
       </c>
       <c r="R9" s="14">
+        <v>40</v>
+      </c>
+      <c r="S9" s="14">
         <v>60</v>
       </c>
-      <c r="S9" s="14"/>
       <c r="T9" s="14"/>
       <c r="U9" s="14"/>
       <c r="V9" s="16">
         <f>SUM(R9:U9)/V$1</f>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="W9" s="6"/>
       <c r="X9" s="44"/>
       <c r="Y9" s="21">
         <f>L9*0.2+Q9*0.25+V9*0.25+W9*0.3+X9*0.15</f>
-        <v>57.5</v>
+        <v>58.375</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="D10" s="12">
         <v>0</v>
@@ -2245,34 +2053,40 @@
         <v>2</v>
       </c>
       <c r="G10" s="7">
-        <v>2</v>
-      </c>
-      <c r="H10" s="67">
-        <v>1.7</v>
-      </c>
-      <c r="I10" s="7"/>
+        <v>1.8</v>
+      </c>
+      <c r="H10" s="61">
+        <v>2</v>
+      </c>
+      <c r="I10" s="7">
+        <v>2</v>
+      </c>
       <c r="J10" s="7"/>
-      <c r="K10" s="64">
+      <c r="K10" s="58">
         <v>0</v>
       </c>
       <c r="L10" s="16">
-        <f t="shared" si="0"/>
-        <v>96.25</v>
+        <f>SUM(D10:J10)*50/(L$1-K10)</f>
+        <v>98.000000000000014</v>
       </c>
       <c r="M10" s="14">
-        <v>90</v>
-      </c>
-      <c r="N10" s="6"/>
+        <v>95</v>
+      </c>
+      <c r="N10" s="6">
+        <v>95</v>
+      </c>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
       <c r="Q10" s="16">
         <f>SUM(M10:P10)/Q$1</f>
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="R10" s="14">
         <v>60</v>
       </c>
-      <c r="S10" s="14"/>
+      <c r="S10" s="14">
+        <v>60</v>
+      </c>
       <c r="T10" s="14"/>
       <c r="U10" s="14"/>
       <c r="V10" s="16">
@@ -2283,18 +2097,18 @@
       <c r="X10" s="44"/>
       <c r="Y10" s="21">
         <f>L10*0.2+Q10*0.25+V10*0.25+W10*0.3+X10*0.15</f>
-        <v>56.75</v>
+        <v>58.350000000000009</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="D11" s="12">
         <v>0</v>
@@ -2308,32 +2122,38 @@
       <c r="G11" s="7">
         <v>2</v>
       </c>
-      <c r="H11" s="67">
-        <v>2</v>
-      </c>
-      <c r="I11" s="7"/>
+      <c r="H11" s="61">
+        <v>1.7</v>
+      </c>
+      <c r="I11" s="7">
+        <v>2</v>
+      </c>
       <c r="J11" s="7"/>
-      <c r="K11" s="64">
+      <c r="K11" s="58">
         <v>0</v>
       </c>
       <c r="L11" s="16">
-        <f t="shared" si="0"/>
-        <v>100</v>
+        <f>SUM(D11:J11)*50/(L$1-K11)</f>
+        <v>96.999999999999986</v>
       </c>
       <c r="M11" s="14">
         <v>90</v>
       </c>
-      <c r="N11" s="6"/>
+      <c r="N11" s="6">
+        <v>85</v>
+      </c>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
       <c r="Q11" s="16">
         <f>SUM(M11:P11)/Q$1</f>
-        <v>90</v>
+        <v>87.5</v>
       </c>
       <c r="R11" s="14">
         <v>60</v>
       </c>
-      <c r="S11" s="14"/>
+      <c r="S11" s="14">
+        <v>60</v>
+      </c>
       <c r="T11" s="14"/>
       <c r="U11" s="14"/>
       <c r="V11" s="16">
@@ -2344,21 +2164,21 @@
       <c r="X11" s="44"/>
       <c r="Y11" s="21">
         <f>L11*0.2+Q11*0.25+V11*0.25+W11*0.3+X11*0.15</f>
-        <v>57.5</v>
+        <v>56.274999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="D12" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E12" s="7">
         <v>2</v>
@@ -2369,22 +2189,26 @@
       <c r="G12" s="7">
         <v>2</v>
       </c>
-      <c r="H12" s="67">
-        <v>2</v>
-      </c>
-      <c r="I12" s="7"/>
+      <c r="H12" s="61">
+        <v>2</v>
+      </c>
+      <c r="I12" s="7">
+        <v>2</v>
+      </c>
       <c r="J12" s="7"/>
-      <c r="K12" s="64">
+      <c r="K12" s="58">
         <v>0</v>
       </c>
       <c r="L12" s="16">
-        <f t="shared" si="0"/>
-        <v>125</v>
+        <f>SUM(D12:J12)*50/(L$1-K12)</f>
+        <v>100</v>
       </c>
       <c r="M12" s="14">
-        <v>85</v>
-      </c>
-      <c r="N12" s="6"/>
+        <v>90</v>
+      </c>
+      <c r="N12" s="6">
+        <v>80</v>
+      </c>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
       <c r="Q12" s="16">
@@ -2392,34 +2216,36 @@
         <v>85</v>
       </c>
       <c r="R12" s="14">
-        <v>0</v>
-      </c>
-      <c r="S12" s="14"/>
+        <v>60</v>
+      </c>
+      <c r="S12" s="14">
+        <v>60</v>
+      </c>
       <c r="T12" s="14"/>
       <c r="U12" s="14"/>
       <c r="V12" s="16">
         <f>SUM(R12:U12)/V$1</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="W12" s="6"/>
       <c r="X12" s="44"/>
       <c r="Y12" s="21">
         <f>L12*0.2+Q12*0.25+V12*0.25+W12*0.3+X12*0.15</f>
-        <v>46.25</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="D13" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7">
         <v>2</v>
@@ -2430,57 +2256,63 @@
       <c r="G13" s="7">
         <v>2</v>
       </c>
-      <c r="H13" s="67">
-        <v>2</v>
-      </c>
-      <c r="I13" s="7"/>
+      <c r="H13" s="61">
+        <v>2</v>
+      </c>
+      <c r="I13" s="7">
+        <v>2</v>
+      </c>
       <c r="J13" s="7"/>
-      <c r="K13" s="64">
+      <c r="K13" s="58">
         <v>0</v>
       </c>
       <c r="L13" s="16">
-        <f t="shared" si="0"/>
-        <v>125</v>
+        <f>SUM(D13:J13)*50/(L$1-K13)</f>
+        <v>100</v>
       </c>
       <c r="M13" s="14">
-        <v>80</v>
-      </c>
-      <c r="N13" s="6"/>
+        <v>90</v>
+      </c>
+      <c r="N13" s="6">
+        <v>90</v>
+      </c>
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
       <c r="Q13" s="16">
         <f>SUM(M13:P13)/Q$1</f>
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="R13" s="14">
-        <v>0</v>
-      </c>
-      <c r="S13" s="14"/>
+        <v>40</v>
+      </c>
+      <c r="S13" s="14">
+        <v>60</v>
+      </c>
       <c r="T13" s="14"/>
       <c r="U13" s="14"/>
       <c r="V13" s="16">
         <f>SUM(R13:U13)/V$1</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W13" s="6"/>
       <c r="X13" s="44"/>
       <c r="Y13" s="21">
         <f>L13*0.2+Q13*0.25+V13*0.25+W13*0.3+X13*0.15</f>
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="D14" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E14" s="7">
         <v>2</v>
@@ -2491,54 +2323,60 @@
       <c r="G14" s="7">
         <v>2</v>
       </c>
-      <c r="H14" s="67">
-        <v>2</v>
-      </c>
-      <c r="I14" s="7"/>
+      <c r="H14" s="61">
+        <v>2</v>
+      </c>
+      <c r="I14" s="7">
+        <v>2</v>
+      </c>
       <c r="J14" s="7"/>
-      <c r="K14" s="64">
+      <c r="K14" s="58">
         <v>0</v>
       </c>
       <c r="L14" s="16">
-        <f t="shared" si="0"/>
-        <v>100</v>
+        <f>SUM(D14:J14)*50/(L$1-K14)</f>
+        <v>120</v>
       </c>
       <c r="M14" s="14">
+        <v>80</v>
+      </c>
+      <c r="N14" s="6">
         <v>90</v>
       </c>
-      <c r="N14" s="6"/>
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
       <c r="Q14" s="16">
         <f>SUM(M14:P14)/Q$1</f>
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R14" s="14">
         <v>0</v>
       </c>
-      <c r="S14" s="14"/>
+      <c r="S14" s="14">
+        <v>60</v>
+      </c>
       <c r="T14" s="14"/>
       <c r="U14" s="14"/>
       <c r="V14" s="16">
         <f>SUM(R14:U14)/V$1</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="W14" s="6"/>
       <c r="X14" s="44"/>
       <c r="Y14" s="21">
         <f>L14*0.2+Q14*0.25+V14*0.25+W14*0.3+X14*0.15</f>
-        <v>42.5</v>
+        <v>52.75</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="D15" s="12">
         <v>0</v>
@@ -2547,48 +2385,54 @@
         <v>2</v>
       </c>
       <c r="F15" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G15" s="7">
         <v>2</v>
       </c>
-      <c r="H15" s="67">
-        <v>0</v>
-      </c>
-      <c r="I15" s="7"/>
+      <c r="H15" s="61">
+        <v>2</v>
+      </c>
+      <c r="I15" s="7">
+        <v>1.8</v>
+      </c>
       <c r="J15" s="7"/>
-      <c r="K15" s="64">
+      <c r="K15" s="58">
         <v>0</v>
       </c>
       <c r="L15" s="16">
-        <f t="shared" si="0"/>
-        <v>75</v>
+        <f>SUM(D15:J15)*50/(L$1-K15)</f>
+        <v>78</v>
       </c>
       <c r="M15" s="14">
-        <v>85</v>
-      </c>
-      <c r="N15" s="6"/>
+        <v>90</v>
+      </c>
+      <c r="N15" s="6">
+        <v>100</v>
+      </c>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
       <c r="Q15" s="16">
         <f>SUM(M15:P15)/Q$1</f>
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="R15" s="14">
-        <v>0</v>
-      </c>
-      <c r="S15" s="14"/>
+        <v>40</v>
+      </c>
+      <c r="S15" s="14">
+        <v>60</v>
+      </c>
       <c r="T15" s="14"/>
       <c r="U15" s="14"/>
       <c r="V15" s="16">
         <f>SUM(R15:U15)/V$1</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W15" s="6"/>
       <c r="X15" s="44"/>
       <c r="Y15" s="21">
         <f>L15*0.2+Q15*0.25+V15*0.25+W15*0.3+X15*0.15</f>
-        <v>36.25</v>
+        <v>51.85</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2613,32 +2457,38 @@
       <c r="G16" s="7">
         <v>0</v>
       </c>
-      <c r="H16" s="67">
-        <v>2</v>
-      </c>
-      <c r="I16" s="7"/>
+      <c r="H16" s="61">
+        <v>2</v>
+      </c>
+      <c r="I16" s="7">
+        <v>2</v>
+      </c>
       <c r="J16" s="7"/>
-      <c r="K16" s="64">
+      <c r="K16" s="58">
         <v>0</v>
       </c>
       <c r="L16" s="16">
-        <f t="shared" si="0"/>
+        <f>SUM(D16:J16)*50/(L$1-K16)</f>
         <v>100</v>
       </c>
       <c r="M16" s="14">
         <v>0</v>
       </c>
-      <c r="N16" s="6"/>
+      <c r="N16" s="6">
+        <v>100</v>
+      </c>
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
       <c r="Q16" s="16">
         <f>SUM(M16:P16)/Q$1</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="R16" s="14">
         <v>60</v>
       </c>
-      <c r="S16" s="14"/>
+      <c r="S16" s="14">
+        <v>60</v>
+      </c>
       <c r="T16" s="14"/>
       <c r="U16" s="14"/>
       <c r="V16" s="16">
@@ -2649,18 +2499,18 @@
       <c r="X16" s="44"/>
       <c r="Y16" s="21">
         <f>L16*0.2+Q16*0.25+V16*0.25+W16*0.3+X16*0.15</f>
-        <v>35</v>
+        <v>47.5</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="D17" s="12">
         <v>0</v>
@@ -2669,27 +2519,31 @@
         <v>2</v>
       </c>
       <c r="F17" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G17" s="7">
         <v>2</v>
       </c>
-      <c r="H17" s="67">
-        <v>2</v>
-      </c>
-      <c r="I17" s="7"/>
+      <c r="H17" s="61">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>2</v>
+      </c>
       <c r="J17" s="7"/>
-      <c r="K17" s="64">
+      <c r="K17" s="58">
         <v>0</v>
       </c>
       <c r="L17" s="16">
-        <f t="shared" si="0"/>
-        <v>75</v>
+        <f>SUM(D17:J17)*50/(L$1-K17)</f>
+        <v>80</v>
       </c>
       <c r="M17" s="14">
-        <v>90</v>
-      </c>
-      <c r="N17" s="6"/>
+        <v>85</v>
+      </c>
+      <c r="N17" s="6">
+        <v>95</v>
+      </c>
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
       <c r="Q17" s="16">
@@ -2697,20 +2551,22 @@
         <v>90</v>
       </c>
       <c r="R17" s="14">
-        <v>0</v>
-      </c>
-      <c r="S17" s="14"/>
+        <v>40</v>
+      </c>
+      <c r="S17" s="14">
+        <v>0</v>
+      </c>
       <c r="T17" s="14"/>
       <c r="U17" s="14"/>
       <c r="V17" s="16">
         <f>SUM(R17:U17)/V$1</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="W17" s="6"/>
       <c r="X17" s="44"/>
       <c r="Y17" s="21">
         <f>L17*0.2+Q17*0.25+V17*0.25+W17*0.3+X17*0.15</f>
-        <v>37.5</v>
+        <v>43.5</v>
       </c>
     </row>
     <row r="18" spans="1:26" s="57" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2735,22 +2591,26 @@
       <c r="G18" s="12">
         <v>0</v>
       </c>
-      <c r="H18" s="67">
-        <v>2</v>
-      </c>
-      <c r="I18" s="7"/>
+      <c r="H18" s="61">
+        <v>2</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0</v>
+      </c>
       <c r="J18" s="7"/>
-      <c r="K18" s="64">
+      <c r="K18" s="58">
         <v>0</v>
       </c>
       <c r="L18" s="16">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <f>SUM(D18:J18)*50/(L$1-K18)</f>
+        <v>20</v>
       </c>
       <c r="M18" s="14">
         <v>0</v>
       </c>
-      <c r="N18" s="6"/>
+      <c r="N18" s="6">
+        <v>0</v>
+      </c>
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
       <c r="Q18" s="16">
@@ -2758,216 +2618,235 @@
         <v>0</v>
       </c>
       <c r="R18" s="14">
-        <v>0</v>
-      </c>
-      <c r="S18" s="14"/>
+        <v>40</v>
+      </c>
+      <c r="S18" s="14">
+        <v>60</v>
+      </c>
       <c r="T18" s="14"/>
       <c r="U18" s="14"/>
       <c r="V18" s="16">
         <f>SUM(R18:U18)/V$1</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W18" s="6"/>
       <c r="X18" s="44"/>
       <c r="Y18" s="21">
         <f>L18*0.2+Q18*0.25+V18*0.25+W18*0.3+X18*0.15</f>
-        <v>5</v>
+        <v>16.5</v>
       </c>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" spans="1:26" s="57" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="50">
-        <v>0</v>
-      </c>
-      <c r="E19" s="50">
-        <v>0</v>
-      </c>
-      <c r="F19" s="50">
-        <v>0</v>
-      </c>
-      <c r="G19" s="50">
-        <v>0</v>
-      </c>
-      <c r="H19" s="68">
-        <v>0</v>
-      </c>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="64">
-        <v>0</v>
-      </c>
+    <row r="19" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" s="12">
+        <v>0</v>
+      </c>
+      <c r="E19" s="12">
+        <v>0</v>
+      </c>
+      <c r="F19" s="12">
+        <v>0</v>
+      </c>
+      <c r="G19" s="12">
+        <v>0</v>
+      </c>
+      <c r="H19" s="61">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7">
+        <v>2</v>
+      </c>
+      <c r="J19" s="7"/>
+      <c r="K19" s="58"/>
       <c r="L19" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M19" s="53">
-        <v>0</v>
-      </c>
-      <c r="N19" s="54"/>
-      <c r="O19" s="54"/>
-      <c r="P19" s="54"/>
-      <c r="Q19" s="52">
+        <f>SUM(D19:J19)*50/(L$1-K19)</f>
+        <v>20</v>
+      </c>
+      <c r="M19" s="14">
+        <v>0</v>
+      </c>
+      <c r="N19" s="6">
+        <v>75</v>
+      </c>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="16">
         <f>SUM(M19:P19)/Q$1</f>
-        <v>0</v>
-      </c>
-      <c r="R19" s="53">
-        <v>0</v>
-      </c>
-      <c r="S19" s="53"/>
-      <c r="T19" s="53"/>
-      <c r="U19" s="53"/>
-      <c r="V19" s="52">
+        <v>37.5</v>
+      </c>
+      <c r="R19" s="14">
+        <v>0</v>
+      </c>
+      <c r="S19" s="14">
+        <v>0</v>
+      </c>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="16">
         <f>SUM(R19:U19)/V$1</f>
         <v>0</v>
       </c>
-      <c r="W19" s="54"/>
-      <c r="X19" s="55"/>
-      <c r="Y19" s="56">
-        <f>L19*0.2+Q19*0.25+V19*0.25+W19*0.3+X19*0.15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="50">
-        <v>0</v>
-      </c>
-      <c r="E20" s="50">
-        <v>0</v>
-      </c>
-      <c r="F20" s="50">
-        <v>0</v>
-      </c>
-      <c r="G20" s="50">
-        <v>0</v>
-      </c>
-      <c r="H20" s="68">
-        <v>0</v>
-      </c>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="64">
+      <c r="W19" s="6"/>
+      <c r="X19" s="44"/>
+      <c r="Y19" s="21">
+        <f>L19*0.2+Q19*0.25+V19*0.25+W19*0.3+X19*0.1</f>
+        <v>13.375</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" s="57" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" s="12">
+        <v>0</v>
+      </c>
+      <c r="E20" s="12">
+        <v>0</v>
+      </c>
+      <c r="F20" s="12">
+        <v>0</v>
+      </c>
+      <c r="G20" s="12">
+        <v>0</v>
+      </c>
+      <c r="H20" s="61">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>1.6</v>
+      </c>
+      <c r="J20" s="7"/>
+      <c r="K20" s="58">
         <v>0</v>
       </c>
       <c r="L20" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M20" s="53">
-        <v>0</v>
-      </c>
-      <c r="N20" s="54"/>
-      <c r="O20" s="54"/>
-      <c r="P20" s="54"/>
-      <c r="Q20" s="52">
+        <f>SUM(D20:J20)*50/(L$1-K20)</f>
+        <v>16</v>
+      </c>
+      <c r="M20" s="14">
+        <v>0</v>
+      </c>
+      <c r="N20" s="6">
+        <v>40</v>
+      </c>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="16">
         <f>SUM(M20:P20)/Q$1</f>
-        <v>0</v>
-      </c>
-      <c r="R20" s="53">
-        <v>0</v>
-      </c>
-      <c r="S20" s="53"/>
-      <c r="T20" s="53"/>
-      <c r="U20" s="53"/>
-      <c r="V20" s="52">
+        <v>20</v>
+      </c>
+      <c r="R20" s="14">
+        <v>0</v>
+      </c>
+      <c r="S20" s="14">
+        <v>0</v>
+      </c>
+      <c r="T20" s="14"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="16">
         <f>SUM(R20:U20)/V$1</f>
         <v>0</v>
       </c>
-      <c r="W20" s="54"/>
-      <c r="X20" s="55"/>
-      <c r="Y20" s="56">
-        <f>L20*0.2+Q20*0.25+V20*0.25+W20*0.3+X20*0.15</f>
-        <v>0</v>
-      </c>
-      <c r="Z20" s="57"/>
-    </row>
-    <row r="21" spans="1:26" s="57" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="49" t="s">
+      <c r="W20" s="6"/>
+      <c r="X20" s="44"/>
+      <c r="Y20" s="21">
+        <f>L20*0.2+Q20*0.25+V20*0.25+W20*0.3+X20*0.1</f>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="Z20" s="1"/>
+    </row>
+    <row r="21" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" s="12">
+        <v>0</v>
+      </c>
+      <c r="E21" s="12">
+        <v>0</v>
+      </c>
+      <c r="F21" s="12">
+        <v>0</v>
+      </c>
+      <c r="G21" s="12">
+        <v>0</v>
+      </c>
+      <c r="H21" s="61">
+        <v>0</v>
+      </c>
+      <c r="I21" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="J21" s="7"/>
+      <c r="K21" s="58">
+        <v>0</v>
+      </c>
+      <c r="L21" s="16">
+        <f>SUM(D21:J21)*50/(L$1-K21)</f>
         <v>9</v>
       </c>
-      <c r="D21" s="50">
-        <v>0</v>
-      </c>
-      <c r="E21" s="50">
-        <v>0</v>
-      </c>
-      <c r="F21" s="50">
-        <v>0</v>
-      </c>
-      <c r="G21" s="50">
-        <v>0</v>
-      </c>
-      <c r="H21" s="68">
-        <v>0</v>
-      </c>
-      <c r="I21" s="51"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="64">
-        <v>0</v>
-      </c>
-      <c r="L21" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M21" s="53">
-        <v>0</v>
-      </c>
-      <c r="N21" s="54"/>
-      <c r="O21" s="54"/>
-      <c r="P21" s="54"/>
-      <c r="Q21" s="52">
+      <c r="M21" s="14">
+        <v>0</v>
+      </c>
+      <c r="N21" s="6">
+        <v>40</v>
+      </c>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="16">
         <f>SUM(M21:P21)/Q$1</f>
-        <v>0</v>
-      </c>
-      <c r="R21" s="53">
-        <v>0</v>
-      </c>
-      <c r="S21" s="53"/>
-      <c r="T21" s="53"/>
-      <c r="U21" s="53"/>
-      <c r="V21" s="52">
+        <v>20</v>
+      </c>
+      <c r="R21" s="14">
+        <v>0</v>
+      </c>
+      <c r="S21" s="14">
+        <v>0</v>
+      </c>
+      <c r="T21" s="14"/>
+      <c r="U21" s="14"/>
+      <c r="V21" s="16">
         <f>SUM(R21:U21)/V$1</f>
         <v>0</v>
       </c>
-      <c r="W21" s="54"/>
-      <c r="X21" s="55"/>
-      <c r="Y21" s="56">
-        <f>L21*0.2+Q21*0.25+V21*0.25+W21*0.3+X21*0.15</f>
-        <v>0</v>
-      </c>
+      <c r="W21" s="6"/>
+      <c r="X21" s="44"/>
+      <c r="Y21" s="21">
+        <f>L21*0.2+Q21*0.25+V21*0.25+W21*0.3+X21*0.1</f>
+        <v>6.8</v>
+      </c>
+      <c r="Z21" s="9"/>
     </row>
     <row r="22" spans="1:26" s="57" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="47" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B22" s="48" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C22" s="49" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D22" s="50">
         <v>0</v>
@@ -2981,22 +2860,26 @@
       <c r="G22" s="50">
         <v>0</v>
       </c>
-      <c r="H22" s="68">
-        <v>0</v>
-      </c>
-      <c r="I22" s="51"/>
+      <c r="H22" s="62">
+        <v>0</v>
+      </c>
+      <c r="I22" s="51">
+        <v>0</v>
+      </c>
       <c r="J22" s="51"/>
-      <c r="K22" s="64">
+      <c r="K22" s="58">
         <v>0</v>
       </c>
       <c r="L22" s="16">
-        <f t="shared" si="0"/>
+        <f>SUM(D22:J22)*50/(L$1-K22)</f>
         <v>0</v>
       </c>
       <c r="M22" s="53">
         <v>0</v>
       </c>
-      <c r="N22" s="54"/>
+      <c r="N22" s="54">
+        <v>0</v>
+      </c>
       <c r="O22" s="54"/>
       <c r="P22" s="54"/>
       <c r="Q22" s="52">
@@ -3006,7 +2889,9 @@
       <c r="R22" s="53">
         <v>0</v>
       </c>
-      <c r="S22" s="53"/>
+      <c r="S22" s="53">
+        <v>0</v>
+      </c>
       <c r="T22" s="53"/>
       <c r="U22" s="53"/>
       <c r="V22" s="52">
@@ -3022,13 +2907,13 @@
     </row>
     <row r="23" spans="1:26" s="57" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="47" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B23" s="48" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="C23" s="49" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D23" s="50">
         <v>0</v>
@@ -3042,22 +2927,26 @@
       <c r="G23" s="50">
         <v>0</v>
       </c>
-      <c r="H23" s="68">
-        <v>0</v>
-      </c>
-      <c r="I23" s="51"/>
+      <c r="H23" s="62">
+        <v>0</v>
+      </c>
+      <c r="I23" s="51">
+        <v>0</v>
+      </c>
       <c r="J23" s="51"/>
-      <c r="K23" s="64">
+      <c r="K23" s="58">
         <v>0</v>
       </c>
       <c r="L23" s="16">
-        <f t="shared" si="0"/>
+        <f>SUM(D23:J23)*50/(L$1-K23)</f>
         <v>0</v>
       </c>
       <c r="M23" s="53">
         <v>0</v>
       </c>
-      <c r="N23" s="54"/>
+      <c r="N23" s="54">
+        <v>0</v>
+      </c>
       <c r="O23" s="54"/>
       <c r="P23" s="54"/>
       <c r="Q23" s="52">
@@ -3067,7 +2956,9 @@
       <c r="R23" s="53">
         <v>0</v>
       </c>
-      <c r="S23" s="53"/>
+      <c r="S23" s="53">
+        <v>0</v>
+      </c>
       <c r="T23" s="53"/>
       <c r="U23" s="53"/>
       <c r="V23" s="52">
@@ -3083,13 +2974,13 @@
     </row>
     <row r="24" spans="1:26" s="57" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="47" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B24" s="48" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C24" s="49" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D24" s="50">
         <v>0</v>
@@ -3103,22 +2994,26 @@
       <c r="G24" s="50">
         <v>0</v>
       </c>
-      <c r="H24" s="68">
-        <v>0</v>
-      </c>
-      <c r="I24" s="51"/>
+      <c r="H24" s="62">
+        <v>0</v>
+      </c>
+      <c r="I24" s="51">
+        <v>0</v>
+      </c>
       <c r="J24" s="51"/>
-      <c r="K24" s="64">
+      <c r="K24" s="58">
         <v>0</v>
       </c>
       <c r="L24" s="16">
-        <f t="shared" si="0"/>
+        <f>SUM(D24:J24)*50/(L$1-K24)</f>
         <v>0</v>
       </c>
       <c r="M24" s="53">
         <v>0</v>
       </c>
-      <c r="N24" s="54"/>
+      <c r="N24" s="54">
+        <v>0</v>
+      </c>
       <c r="O24" s="54"/>
       <c r="P24" s="54"/>
       <c r="Q24" s="52">
@@ -3128,7 +3023,9 @@
       <c r="R24" s="53">
         <v>0</v>
       </c>
-      <c r="S24" s="53"/>
+      <c r="S24" s="53">
+        <v>0</v>
+      </c>
       <c r="T24" s="53"/>
       <c r="U24" s="53"/>
       <c r="V24" s="52">
@@ -3144,13 +3041,13 @@
     </row>
     <row r="25" spans="1:26" s="57" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="47" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B25" s="48" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C25" s="49" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D25" s="50">
         <v>0</v>
@@ -3164,22 +3061,26 @@
       <c r="G25" s="50">
         <v>0</v>
       </c>
-      <c r="H25" s="68">
-        <v>0</v>
-      </c>
-      <c r="I25" s="51"/>
+      <c r="H25" s="62">
+        <v>0</v>
+      </c>
+      <c r="I25" s="51">
+        <v>0</v>
+      </c>
       <c r="J25" s="51"/>
-      <c r="K25" s="64">
+      <c r="K25" s="58">
         <v>0</v>
       </c>
       <c r="L25" s="16">
-        <f t="shared" si="0"/>
+        <f>SUM(D25:J25)*50/(L$1-K25)</f>
         <v>0</v>
       </c>
       <c r="M25" s="53">
         <v>0</v>
       </c>
-      <c r="N25" s="54"/>
+      <c r="N25" s="54">
+        <v>0</v>
+      </c>
       <c r="O25" s="54"/>
       <c r="P25" s="54"/>
       <c r="Q25" s="52">
@@ -3189,7 +3090,9 @@
       <c r="R25" s="53">
         <v>0</v>
       </c>
-      <c r="S25" s="53"/>
+      <c r="S25" s="53">
+        <v>0</v>
+      </c>
       <c r="T25" s="53"/>
       <c r="U25" s="53"/>
       <c r="V25" s="52">
@@ -3205,13 +3108,13 @@
     </row>
     <row r="26" spans="1:26" s="57" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="47" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B26" s="48" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C26" s="49" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D26" s="50">
         <v>0</v>
@@ -3225,22 +3128,26 @@
       <c r="G26" s="50">
         <v>0</v>
       </c>
-      <c r="H26" s="68">
-        <v>0</v>
-      </c>
-      <c r="I26" s="51"/>
+      <c r="H26" s="62">
+        <v>0</v>
+      </c>
+      <c r="I26" s="51">
+        <v>0</v>
+      </c>
       <c r="J26" s="51"/>
-      <c r="K26" s="64">
+      <c r="K26" s="58">
         <v>0</v>
       </c>
       <c r="L26" s="16">
-        <f t="shared" si="0"/>
+        <f>SUM(D26:J26)*50/(L$1-K26)</f>
         <v>0</v>
       </c>
       <c r="M26" s="53">
         <v>0</v>
       </c>
-      <c r="N26" s="54"/>
+      <c r="N26" s="54">
+        <v>0</v>
+      </c>
       <c r="O26" s="54"/>
       <c r="P26" s="54"/>
       <c r="Q26" s="52">
@@ -3250,7 +3157,9 @@
       <c r="R26" s="53">
         <v>0</v>
       </c>
-      <c r="S26" s="53"/>
+      <c r="S26" s="53">
+        <v>0</v>
+      </c>
       <c r="T26" s="53"/>
       <c r="U26" s="53"/>
       <c r="V26" s="52">
@@ -3264,15 +3173,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:26" s="57" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="47" t="s">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="B27" s="48" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="C27" s="49" t="s">
-        <v>88</v>
+        <v>22</v>
       </c>
       <c r="D27" s="50">
         <v>0</v>
@@ -3286,22 +3195,26 @@
       <c r="G27" s="50">
         <v>0</v>
       </c>
-      <c r="H27" s="68">
-        <v>0</v>
-      </c>
-      <c r="I27" s="51"/>
+      <c r="H27" s="62">
+        <v>0</v>
+      </c>
+      <c r="I27" s="51">
+        <v>0</v>
+      </c>
       <c r="J27" s="51"/>
-      <c r="K27" s="64">
+      <c r="K27" s="58">
         <v>0</v>
       </c>
       <c r="L27" s="16">
-        <f t="shared" si="0"/>
+        <f>SUM(D27:J27)*50/(L$1-K27)</f>
         <v>0</v>
       </c>
       <c r="M27" s="53">
         <v>0</v>
       </c>
-      <c r="N27" s="54"/>
+      <c r="N27" s="54">
+        <v>0</v>
+      </c>
       <c r="O27" s="54"/>
       <c r="P27" s="54"/>
       <c r="Q27" s="52">
@@ -3311,7 +3224,9 @@
       <c r="R27" s="53">
         <v>0</v>
       </c>
-      <c r="S27" s="53"/>
+      <c r="S27" s="53">
+        <v>0</v>
+      </c>
       <c r="T27" s="53"/>
       <c r="U27" s="53"/>
       <c r="V27" s="52">
@@ -3321,19 +3236,20 @@
       <c r="W27" s="54"/>
       <c r="X27" s="55"/>
       <c r="Y27" s="56">
-        <f>L27*0.2+Q27*0.25+V27*0.25+W27*0.3+X27*0.1</f>
-        <v>0</v>
-      </c>
+        <f>L27*0.2+Q27*0.25+V27*0.25+W27*0.3+X27*0.15</f>
+        <v>0</v>
+      </c>
+      <c r="Z27" s="57"/>
     </row>
     <row r="28" spans="1:26" s="57" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="47" t="s">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="B28" s="48" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="C28" s="49" t="s">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="D28" s="50">
         <v>0</v>
@@ -3347,22 +3263,26 @@
       <c r="G28" s="50">
         <v>0</v>
       </c>
-      <c r="H28" s="68">
-        <v>0</v>
-      </c>
-      <c r="I28" s="51"/>
+      <c r="H28" s="62">
+        <v>0</v>
+      </c>
+      <c r="I28" s="51">
+        <v>0</v>
+      </c>
       <c r="J28" s="51"/>
-      <c r="K28" s="64">
+      <c r="K28" s="58">
         <v>0</v>
       </c>
       <c r="L28" s="16">
-        <f t="shared" si="0"/>
+        <f>SUM(D28:J28)*50/(L$1-K28)</f>
         <v>0</v>
       </c>
       <c r="M28" s="53">
         <v>0</v>
       </c>
-      <c r="N28" s="54"/>
+      <c r="N28" s="54">
+        <v>0</v>
+      </c>
       <c r="O28" s="54"/>
       <c r="P28" s="54"/>
       <c r="Q28" s="52">
@@ -3372,7 +3292,9 @@
       <c r="R28" s="53">
         <v>0</v>
       </c>
-      <c r="S28" s="53"/>
+      <c r="S28" s="53">
+        <v>0</v>
+      </c>
       <c r="T28" s="53"/>
       <c r="U28" s="53"/>
       <c r="V28" s="52">
@@ -3382,19 +3304,19 @@
       <c r="W28" s="54"/>
       <c r="X28" s="55"/>
       <c r="Y28" s="56">
-        <f>L28*0.2+Q28*0.25+V28*0.25+W28*0.3+X28*0.1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26" s="58" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <f>L28*0.2+Q28*0.25+V28*0.25+W28*0.3+X28*0.15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" s="57" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="47" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="B29" s="48" t="s">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="C29" s="49" t="s">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="D29" s="50">
         <v>0</v>
@@ -3408,22 +3330,26 @@
       <c r="G29" s="50">
         <v>0</v>
       </c>
-      <c r="H29" s="68">
-        <v>0</v>
-      </c>
-      <c r="I29" s="51"/>
+      <c r="H29" s="62">
+        <v>0</v>
+      </c>
+      <c r="I29" s="51">
+        <v>0</v>
+      </c>
       <c r="J29" s="51"/>
-      <c r="K29" s="64">
+      <c r="K29" s="58">
         <v>0</v>
       </c>
       <c r="L29" s="16">
-        <f t="shared" si="0"/>
+        <f>SUM(D29:J29)*50/(L$1-K29)</f>
         <v>0</v>
       </c>
       <c r="M29" s="53">
         <v>0</v>
       </c>
-      <c r="N29" s="54"/>
+      <c r="N29" s="54">
+        <v>0</v>
+      </c>
       <c r="O29" s="54"/>
       <c r="P29" s="54"/>
       <c r="Q29" s="52">
@@ -3433,7 +3359,9 @@
       <c r="R29" s="53">
         <v>0</v>
       </c>
-      <c r="S29" s="53"/>
+      <c r="S29" s="53">
+        <v>0</v>
+      </c>
       <c r="T29" s="53"/>
       <c r="U29" s="53"/>
       <c r="V29" s="52">
@@ -3443,33 +3371,77 @@
       <c r="W29" s="54"/>
       <c r="X29" s="55"/>
       <c r="Y29" s="56">
-        <f>L29*0.2+Q29*0.25+V29*0.25+W29*0.3+X29*0.1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="69"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="9"/>
-      <c r="Q30" s="9"/>
-      <c r="R30" s="9"/>
-      <c r="S30" s="9"/>
-      <c r="T30" s="9"/>
-      <c r="U30" s="9"/>
-      <c r="V30" s="9"/>
+        <f>L29*0.2+Q29*0.25+V29*0.25+W29*0.3+X29*0.15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" s="9" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" s="50">
+        <v>0</v>
+      </c>
+      <c r="E30" s="50">
+        <v>0</v>
+      </c>
+      <c r="F30" s="50">
+        <v>0</v>
+      </c>
+      <c r="G30" s="50">
+        <v>0</v>
+      </c>
+      <c r="H30" s="62">
+        <v>0</v>
+      </c>
+      <c r="I30" s="51">
+        <v>0</v>
+      </c>
+      <c r="J30" s="51"/>
+      <c r="K30" s="58">
+        <v>0</v>
+      </c>
+      <c r="L30" s="16">
+        <f>SUM(D30:J30)*50/(L$1-K30)</f>
+        <v>0</v>
+      </c>
+      <c r="M30" s="53">
+        <v>0</v>
+      </c>
+      <c r="N30" s="54">
+        <v>0</v>
+      </c>
+      <c r="O30" s="54"/>
+      <c r="P30" s="54"/>
+      <c r="Q30" s="52">
+        <f>SUM(M30:P30)/Q$1</f>
+        <v>0</v>
+      </c>
+      <c r="R30" s="53">
+        <v>0</v>
+      </c>
+      <c r="S30" s="53">
+        <v>0</v>
+      </c>
+      <c r="T30" s="53"/>
+      <c r="U30" s="53"/>
+      <c r="V30" s="52">
+        <f>SUM(R30:U30)/V$1</f>
+        <v>0</v>
+      </c>
+      <c r="W30" s="54"/>
+      <c r="X30" s="55"/>
+      <c r="Y30" s="56">
+        <f>L30*0.2+Q30*0.25+V30*0.25+W30*0.3+X30*0.1</f>
+        <v>0</v>
+      </c>
+      <c r="Z30" s="57"/>
     </row>
     <row r="31" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
@@ -3479,7 +3451,7 @@
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
-      <c r="H31" s="69"/>
+      <c r="H31" s="63"/>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
@@ -3503,7 +3475,7 @@
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
-      <c r="H32" s="69"/>
+      <c r="H32" s="63"/>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
@@ -3527,7 +3499,7 @@
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
-      <c r="H33" s="69"/>
+      <c r="H33" s="63"/>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
@@ -3551,7 +3523,7 @@
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
-      <c r="H34" s="69"/>
+      <c r="H34" s="63"/>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
@@ -3575,7 +3547,7 @@
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
-      <c r="H35" s="69"/>
+      <c r="H35" s="63"/>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
@@ -3599,7 +3571,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
-      <c r="H36" s="69"/>
+      <c r="H36" s="63"/>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
@@ -3623,7 +3595,7 @@
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
-      <c r="H37" s="69"/>
+      <c r="H37" s="63"/>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
@@ -3647,7 +3619,7 @@
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
-      <c r="H38" s="69"/>
+      <c r="H38" s="63"/>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
@@ -3671,7 +3643,7 @@
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
-      <c r="H39" s="69"/>
+      <c r="H39" s="63"/>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
@@ -3695,7 +3667,7 @@
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
-      <c r="H40" s="69"/>
+      <c r="H40" s="63"/>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
@@ -3719,7 +3691,7 @@
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
-      <c r="H41" s="69"/>
+      <c r="H41" s="63"/>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
@@ -3743,7 +3715,7 @@
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
-      <c r="H42" s="69"/>
+      <c r="H42" s="63"/>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
@@ -3767,7 +3739,7 @@
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
-      <c r="H43" s="69"/>
+      <c r="H43" s="63"/>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
@@ -3791,7 +3763,7 @@
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
-      <c r="H44" s="69"/>
+      <c r="H44" s="63"/>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
@@ -3815,7 +3787,7 @@
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
-      <c r="H45" s="69"/>
+      <c r="H45" s="63"/>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
@@ -3839,7 +3811,7 @@
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
-      <c r="H46" s="69"/>
+      <c r="H46" s="63"/>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
@@ -3863,7 +3835,7 @@
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
-      <c r="H47" s="69"/>
+      <c r="H47" s="63"/>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
@@ -3887,7 +3859,7 @@
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
-      <c r="H48" s="69"/>
+      <c r="H48" s="63"/>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
@@ -3911,7 +3883,7 @@
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
-      <c r="H49" s="69"/>
+      <c r="H49" s="63"/>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
@@ -3935,7 +3907,7 @@
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
-      <c r="H50" s="69"/>
+      <c r="H50" s="63"/>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
@@ -3959,7 +3931,7 @@
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
-      <c r="H51" s="69"/>
+      <c r="H51" s="63"/>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
@@ -3983,7 +3955,7 @@
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
-      <c r="H52" s="69"/>
+      <c r="H52" s="63"/>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
@@ -4007,7 +3979,7 @@
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
-      <c r="H53" s="69"/>
+      <c r="H53" s="63"/>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
@@ -4031,7 +4003,7 @@
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
-      <c r="H54" s="69"/>
+      <c r="H54" s="63"/>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
@@ -4055,7 +4027,7 @@
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
-      <c r="H55" s="69"/>
+      <c r="H55" s="63"/>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
@@ -4079,7 +4051,7 @@
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
-      <c r="H56" s="69"/>
+      <c r="H56" s="63"/>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
@@ -4103,7 +4075,7 @@
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
-      <c r="H57" s="69"/>
+      <c r="H57" s="63"/>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
@@ -4127,7 +4099,7 @@
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
-      <c r="H58" s="69"/>
+      <c r="H58" s="63"/>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
@@ -4151,7 +4123,7 @@
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
-      <c r="H59" s="69"/>
+      <c r="H59" s="63"/>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
@@ -4175,7 +4147,7 @@
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
-      <c r="H60" s="69"/>
+      <c r="H60" s="63"/>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
@@ -4199,7 +4171,7 @@
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
-      <c r="H61" s="69"/>
+      <c r="H61" s="63"/>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
@@ -4223,7 +4195,7 @@
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
-      <c r="H62" s="69"/>
+      <c r="H62" s="63"/>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
@@ -4247,7 +4219,7 @@
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
-      <c r="H63" s="69"/>
+      <c r="H63" s="63"/>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
@@ -4271,7 +4243,7 @@
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
-      <c r="H64" s="69"/>
+      <c r="H64" s="63"/>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
@@ -4295,7 +4267,7 @@
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
-      <c r="H65" s="69"/>
+      <c r="H65" s="63"/>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
@@ -4319,7 +4291,7 @@
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
-      <c r="H66" s="69"/>
+      <c r="H66" s="63"/>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
@@ -4343,7 +4315,7 @@
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
-      <c r="H67" s="69"/>
+      <c r="H67" s="63"/>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
@@ -4367,7 +4339,7 @@
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
-      <c r="H68" s="69"/>
+      <c r="H68" s="63"/>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
@@ -4391,7 +4363,7 @@
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
-      <c r="H69" s="69"/>
+      <c r="H69" s="63"/>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
@@ -4415,7 +4387,7 @@
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
-      <c r="H70" s="69"/>
+      <c r="H70" s="63"/>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
@@ -4439,7 +4411,7 @@
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
-      <c r="H71" s="69"/>
+      <c r="H71" s="63"/>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
@@ -4463,7 +4435,7 @@
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
-      <c r="H72" s="69"/>
+      <c r="H72" s="63"/>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
@@ -4487,7 +4459,7 @@
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
-      <c r="H73" s="69"/>
+      <c r="H73" s="63"/>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
@@ -4511,7 +4483,7 @@
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
-      <c r="H74" s="69"/>
+      <c r="H74" s="63"/>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
@@ -4535,7 +4507,7 @@
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
-      <c r="H75" s="69"/>
+      <c r="H75" s="63"/>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
@@ -4551,6 +4523,30 @@
       <c r="U75" s="9"/>
       <c r="V75" s="9"/>
     </row>
+    <row r="76" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="8"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="63"/>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c r="L76" s="9"/>
+      <c r="M76" s="9"/>
+      <c r="N76" s="9"/>
+      <c r="O76" s="9"/>
+      <c r="P76" s="9"/>
+      <c r="Q76" s="9"/>
+      <c r="R76" s="9"/>
+      <c r="S76" s="9"/>
+      <c r="T76" s="9"/>
+      <c r="U76" s="9"/>
+      <c r="V76" s="9"/>
+    </row>
   </sheetData>
   <sortState ref="A3:Z30">
     <sortCondition descending="1" ref="Y3"/>
@@ -4560,53 +4556,53 @@
     <mergeCell ref="M1:P1"/>
     <mergeCell ref="R1:U1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D3:J29">
-    <cfRule type="cellIs" dxfId="32" priority="19" operator="between">
+  <conditionalFormatting sqref="D3:J30">
+    <cfRule type="cellIs" dxfId="21" priority="19" operator="between">
       <formula>0.1</formula>
       <formula>1.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W3:X29 M3:P29">
-    <cfRule type="cellIs" dxfId="29" priority="10" operator="between">
+  <conditionalFormatting sqref="W3:X30 M3:P30">
+    <cfRule type="cellIs" dxfId="18" priority="10" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="12" operator="between">
+    <cfRule type="cellIs" dxfId="16" priority="12" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="13" operator="between">
+    <cfRule type="cellIs" dxfId="15" priority="13" operator="between">
       <formula>80</formula>
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R3:U29">
-    <cfRule type="cellIs" dxfId="25" priority="6" operator="between">
+  <conditionalFormatting sqref="R3:U30">
+    <cfRule type="cellIs" dxfId="14" priority="6" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="12" priority="8" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="9" operator="between">
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="between">
       <formula>80</formula>
       <formula>200</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L3:L29">
+  <conditionalFormatting sqref="L3:L30">
     <cfRule type="dataBar" priority="189">
       <dataBar>
         <cfvo type="min"/>
@@ -4620,7 +4616,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q3:Q29">
+  <conditionalFormatting sqref="Q3:Q30">
     <cfRule type="dataBar" priority="190">
       <dataBar>
         <cfvo type="min"/>
@@ -4634,7 +4630,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V3:V29">
+  <conditionalFormatting sqref="V3:V30">
     <cfRule type="dataBar" priority="191">
       <dataBar>
         <cfvo type="min"/>
@@ -4648,7 +4644,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y3:Y29">
+  <conditionalFormatting sqref="Y3:Y30">
     <cfRule type="dataBar" priority="192">
       <dataBar>
         <cfvo type="min"/>
@@ -4677,7 +4673,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>L3:L29</xm:sqref>
+          <xm:sqref>L3:L30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C1E54EB9-FD52-4CFD-8B29-7F3B7B6681D5}">
@@ -4688,7 +4684,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>Q3:Q29</xm:sqref>
+          <xm:sqref>Q3:Q30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{03C5F189-3F43-4B84-A0F5-49F108E9F2B6}">
@@ -4699,7 +4695,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>V3:V29</xm:sqref>
+          <xm:sqref>V3:V30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{43DC70F4-8291-4430-AFF0-577FC5E79CD9}">
@@ -4710,7 +4706,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>Y3:Y29</xm:sqref>
+          <xm:sqref>Y3:Y30</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -4755,22 +4751,22 @@
       <c r="B1" s="18"/>
       <c r="C1" s="34"/>
       <c r="D1" s="40"/>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="61" t="s">
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="63"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="69"/>
       <c r="Q1" s="33" t="s">
         <v>45</v>
       </c>
@@ -6356,14 +6352,14 @@
     <mergeCell ref="K1:P1"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:I33">
-    <cfRule type="cellIs" dxfId="21" priority="25" operator="between">
+    <cfRule type="cellIs" dxfId="10" priority="25" operator="between">
       <formula>0.1</formula>
       <formula>1.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="26" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="27" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6410,18 +6406,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:O33">
-    <cfRule type="cellIs" dxfId="18" priority="16" operator="between">
+    <cfRule type="cellIs" dxfId="7" priority="16" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="18" operator="between">
+    <cfRule type="cellIs" dxfId="5" priority="18" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="19" operator="between">
+    <cfRule type="cellIs" dxfId="4" priority="19" operator="between">
       <formula>80</formula>
       <formula>100</formula>
     </cfRule>
@@ -6469,18 +6465,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3:Q33">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="greaterThanOrEqual">
       <formula>80</formula>
     </cfRule>
   </conditionalFormatting>

--- a/AdvancedJava/_docs/Notlar.xlsx
+++ b/AdvancedJava/_docs/Notlar.xlsx
@@ -1410,7 +1410,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AB16" sqref="AB16"/>
+      <selection pane="bottomLeft" activeCell="AC14" sqref="AC14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1700,16 +1700,16 @@
     </row>
     <row r="5" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D5" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E5" s="7">
         <v>2</v>
@@ -1732,19 +1732,19 @@
       </c>
       <c r="L5" s="16">
         <f>SUM(D5:J5)*50/(L$1-K5)</f>
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="M5" s="14">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="N5" s="6">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
       <c r="Q5" s="16">
         <f>SUM(M5:P5)/Q$1</f>
-        <v>97.5</v>
+        <v>85</v>
       </c>
       <c r="R5" s="14">
         <v>60</v>
@@ -1762,18 +1762,18 @@
       <c r="X5" s="44"/>
       <c r="Y5" s="21">
         <f>L5*0.2+Q5*0.25+V5*0.25+W5*0.3+X5*0.15</f>
-        <v>59.375</v>
+        <v>60.25</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D6" s="12">
         <v>0</v>
@@ -1787,19 +1787,19 @@
       <c r="G6" s="7">
         <v>2</v>
       </c>
-      <c r="H6" s="61" t="s">
-        <v>96</v>
+      <c r="H6" s="61">
+        <v>2</v>
       </c>
       <c r="I6" s="7">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="J6" s="7"/>
-      <c r="K6" s="59">
-        <v>1</v>
+      <c r="K6" s="58">
+        <v>0</v>
       </c>
       <c r="L6" s="16">
         <f>SUM(D6:J6)*50/(L$1-K6)</f>
-        <v>97.5</v>
+        <v>100</v>
       </c>
       <c r="M6" s="14">
         <v>95</v>
@@ -1829,18 +1829,18 @@
       <c r="X6" s="44"/>
       <c r="Y6" s="21">
         <f>L6*0.2+Q6*0.25+V6*0.25+W6*0.3+X6*0.15</f>
-        <v>58.875</v>
+        <v>59.375</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="D7" s="12">
         <v>0</v>
@@ -1854,31 +1854,31 @@
       <c r="G7" s="7">
         <v>2</v>
       </c>
-      <c r="H7" s="61">
-        <v>2</v>
+      <c r="H7" s="61" t="s">
+        <v>96</v>
       </c>
       <c r="I7" s="7">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="J7" s="7"/>
-      <c r="K7" s="58">
-        <v>0</v>
+      <c r="K7" s="59">
+        <v>1</v>
       </c>
       <c r="L7" s="16">
         <f>SUM(D7:J7)*50/(L$1-K7)</f>
+        <v>97.5</v>
+      </c>
+      <c r="M7" s="14">
+        <v>95</v>
+      </c>
+      <c r="N7" s="6">
         <v>100</v>
-      </c>
-      <c r="M7" s="14">
-        <v>100</v>
-      </c>
-      <c r="N7" s="6">
-        <v>90</v>
       </c>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
       <c r="Q7" s="16">
         <f>SUM(M7:P7)/Q$1</f>
-        <v>95</v>
+        <v>97.5</v>
       </c>
       <c r="R7" s="14">
         <v>60</v>
@@ -1895,19 +1895,19 @@
       <c r="W7" s="6"/>
       <c r="X7" s="44"/>
       <c r="Y7" s="21">
-        <f>L7*0.2+Q7*0.25+V7*0.25+W7*0.3+X7*0.1</f>
-        <v>58.75</v>
+        <f>L7*0.2+Q7*0.25+V7*0.25+W7*0.3+X7*0.15</f>
+        <v>58.875</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="D8" s="12">
         <v>0</v>
@@ -1936,10 +1936,10 @@
         <v>100</v>
       </c>
       <c r="M8" s="14">
+        <v>100</v>
+      </c>
+      <c r="N8" s="6">
         <v>90</v>
-      </c>
-      <c r="N8" s="6">
-        <v>100</v>
       </c>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
@@ -1962,22 +1962,22 @@
       <c r="W8" s="6"/>
       <c r="X8" s="44"/>
       <c r="Y8" s="21">
-        <f>L8*0.2+Q8*0.25+V8*0.25+W8*0.3+X8*0.15</f>
+        <f>L8*0.2+Q8*0.25+V8*0.25+W8*0.3+X8*0.1</f>
         <v>58.75</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="D9" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E9" s="7">
         <v>2</v>
@@ -2000,22 +2000,22 @@
       </c>
       <c r="L9" s="16">
         <f>SUM(D9:J9)*50/(L$1-K9)</f>
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="M9" s="14">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="N9" s="6">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
       <c r="Q9" s="16">
         <f>SUM(M9:P9)/Q$1</f>
-        <v>87.5</v>
+        <v>95</v>
       </c>
       <c r="R9" s="14">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="S9" s="14">
         <v>60</v>
@@ -2024,27 +2024,27 @@
       <c r="U9" s="14"/>
       <c r="V9" s="16">
         <f>SUM(R9:U9)/V$1</f>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="W9" s="6"/>
       <c r="X9" s="44"/>
       <c r="Y9" s="21">
         <f>L9*0.2+Q9*0.25+V9*0.25+W9*0.3+X9*0.15</f>
-        <v>58.375</v>
+        <v>58.75</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="D10" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E10" s="7">
         <v>2</v>
@@ -2053,7 +2053,7 @@
         <v>2</v>
       </c>
       <c r="G10" s="7">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="H10" s="61">
         <v>2</v>
@@ -2067,22 +2067,22 @@
       </c>
       <c r="L10" s="16">
         <f>SUM(D10:J10)*50/(L$1-K10)</f>
-        <v>98.000000000000014</v>
+        <v>120</v>
       </c>
       <c r="M10" s="14">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="N10" s="6">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
       <c r="Q10" s="16">
         <f>SUM(M10:P10)/Q$1</f>
-        <v>95</v>
+        <v>87.5</v>
       </c>
       <c r="R10" s="14">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="S10" s="14">
         <v>60</v>
@@ -2091,24 +2091,24 @@
       <c r="U10" s="14"/>
       <c r="V10" s="16">
         <f>SUM(R10:U10)/V$1</f>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="W10" s="6"/>
       <c r="X10" s="44"/>
       <c r="Y10" s="21">
         <f>L10*0.2+Q10*0.25+V10*0.25+W10*0.3+X10*0.15</f>
-        <v>58.350000000000009</v>
+        <v>58.375</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="D11" s="12">
         <v>0</v>
@@ -2120,10 +2120,10 @@
         <v>2</v>
       </c>
       <c r="G11" s="7">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="H11" s="61">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="I11" s="7">
         <v>2</v>
@@ -2134,19 +2134,19 @@
       </c>
       <c r="L11" s="16">
         <f>SUM(D11:J11)*50/(L$1-K11)</f>
-        <v>96.999999999999986</v>
+        <v>98.000000000000014</v>
       </c>
       <c r="M11" s="14">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="N11" s="6">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
       <c r="Q11" s="16">
         <f>SUM(M11:P11)/Q$1</f>
-        <v>87.5</v>
+        <v>95</v>
       </c>
       <c r="R11" s="14">
         <v>60</v>
@@ -2164,18 +2164,18 @@
       <c r="X11" s="44"/>
       <c r="Y11" s="21">
         <f>L11*0.2+Q11*0.25+V11*0.25+W11*0.3+X11*0.15</f>
-        <v>56.274999999999999</v>
+        <v>58.350000000000009</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="D12" s="12">
         <v>0</v>
@@ -2190,7 +2190,7 @@
         <v>2</v>
       </c>
       <c r="H12" s="61">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="I12" s="7">
         <v>2</v>
@@ -2201,19 +2201,19 @@
       </c>
       <c r="L12" s="16">
         <f>SUM(D12:J12)*50/(L$1-K12)</f>
-        <v>100</v>
+        <v>96.999999999999986</v>
       </c>
       <c r="M12" s="14">
         <v>90</v>
       </c>
       <c r="N12" s="6">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
       <c r="Q12" s="16">
         <f>SUM(M12:P12)/Q$1</f>
-        <v>85</v>
+        <v>87.5</v>
       </c>
       <c r="R12" s="14">
         <v>60</v>
@@ -2231,18 +2231,18 @@
       <c r="X12" s="44"/>
       <c r="Y12" s="21">
         <f>L12*0.2+Q12*0.25+V12*0.25+W12*0.3+X12*0.15</f>
-        <v>56.25</v>
+        <v>56.274999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D13" s="12">
         <v>0</v>
@@ -2274,16 +2274,16 @@
         <v>90</v>
       </c>
       <c r="N13" s="6">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
       <c r="Q13" s="16">
         <f>SUM(M13:P13)/Q$1</f>
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R13" s="14">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="S13" s="14">
         <v>60</v>
@@ -2292,27 +2292,27 @@
       <c r="U13" s="14"/>
       <c r="V13" s="16">
         <f>SUM(R13:U13)/V$1</f>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="W13" s="6"/>
       <c r="X13" s="44"/>
       <c r="Y13" s="21">
         <f>L13*0.2+Q13*0.25+V13*0.25+W13*0.3+X13*0.15</f>
-        <v>55</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="D14" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7">
         <v>2</v>
@@ -2335,22 +2335,22 @@
       </c>
       <c r="L14" s="16">
         <f>SUM(D14:J14)*50/(L$1-K14)</f>
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="M14" s="14">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="N14" s="6">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
       <c r="Q14" s="16">
         <f>SUM(M14:P14)/Q$1</f>
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="R14" s="14">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="S14" s="14">
         <v>60</v>
@@ -2359,13 +2359,13 @@
       <c r="U14" s="14"/>
       <c r="V14" s="16">
         <f>SUM(R14:U14)/V$1</f>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="W14" s="6"/>
       <c r="X14" s="44"/>
       <c r="Y14" s="21">
         <f>L14*0.2+Q14*0.25+V14*0.25+W14*0.3+X14*0.15</f>
-        <v>52.75</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">

--- a/AdvancedJava/_docs/Notlar.xlsx
+++ b/AdvancedJava/_docs/Notlar.xlsx
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="100">
   <si>
     <t>Adı</t>
   </si>
@@ -187,9 +187,6 @@
     <t>DEVAM DURUMU (%20)</t>
   </si>
   <si>
-    <t>ÖDEVLER (%25)</t>
-  </si>
-  <si>
     <t>FİNAL</t>
   </si>
   <si>
@@ -368,6 +365,9 @@
   </si>
   <si>
     <t>H5150063</t>
+  </si>
+  <si>
+    <t>ÖDEV (%25)</t>
   </si>
 </sst>
 </file>
@@ -377,7 +377,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -418,14 +418,20 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="11"/>
       <color theme="0" tint="-0.34998626667073579"/>
       <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
     <font>
+      <sz val="8"/>
+      <color theme="2" tint="-0.249977111117893"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0" tint="-0.34998626667073579"/>
+      <color theme="2" tint="-0.249977111117893"/>
       <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
@@ -773,7 +779,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -865,17 +871,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -884,15 +880,34 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1406,11 +1421,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z76"/>
+  <dimension ref="A1:X76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC14" sqref="AC14"/>
+      <selection pane="bottomLeft" activeCell="Z11" sqref="Z11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1420,7 +1435,7 @@
     <col min="3" max="3" width="9.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="3.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="2.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.44140625" style="64" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.44140625" style="53" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="2.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="2.44140625" style="1" customWidth="1"/>
     <col min="11" max="11" width="2.44140625" style="1" bestFit="1" customWidth="1"/>
@@ -1430,61 +1445,58 @@
     <col min="16" max="16" width="2.5546875" style="1" customWidth="1"/>
     <col min="17" max="17" width="4.77734375" style="1" customWidth="1"/>
     <col min="18" max="18" width="2.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="2.77734375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="2.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5" style="1" customWidth="1"/>
-    <col min="23" max="23" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7" style="1" customWidth="1"/>
-    <col min="25" max="25" width="5.77734375" style="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="1"/>
+    <col min="19" max="19" width="2.77734375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="5" style="1" customWidth="1"/>
+    <col min="21" max="21" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7" style="1" customWidth="1"/>
+    <col min="23" max="23" width="5.77734375" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="4" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" s="4" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30"/>
       <c r="B1" s="18"/>
       <c r="C1" s="29"/>
-      <c r="D1" s="65" t="s">
+      <c r="D1" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
       <c r="L1" s="46">
-        <v>5</v>
-      </c>
-      <c r="M1" s="67" t="s">
-        <v>95</v>
-      </c>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
+        <v>6</v>
+      </c>
+      <c r="M1" s="72" t="s">
+        <v>94</v>
+      </c>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
       <c r="Q1" s="45">
-        <v>2</v>
-      </c>
-      <c r="R1" s="67" t="s">
-        <v>39</v>
-      </c>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="45">
-        <v>2</v>
-      </c>
-      <c r="W1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="R1" s="72" t="s">
+        <v>99</v>
+      </c>
+      <c r="S1" s="73"/>
+      <c r="T1" s="45">
+        <v>2</v>
+      </c>
+      <c r="U1" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="X1" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y1" s="19" t="s">
+      <c r="V1" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="W1" s="19" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:26" s="5" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" s="5" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>29</v>
       </c>
@@ -1506,7 +1518,7 @@
       <c r="G2" s="27">
         <v>4</v>
       </c>
-      <c r="H2" s="60">
+      <c r="H2" s="50">
         <v>5</v>
       </c>
       <c r="I2" s="27">
@@ -1516,7 +1528,7 @@
         <v>7</v>
       </c>
       <c r="K2" s="27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L2" s="28" t="s">
         <v>30</v>
@@ -1528,10 +1540,10 @@
         <v>5</v>
       </c>
       <c r="O2" s="27">
-        <v>6</v>
-      </c>
-      <c r="P2" s="27">
         <v>7</v>
+      </c>
+      <c r="P2" s="27" t="s">
+        <v>95</v>
       </c>
       <c r="Q2" s="28" t="s">
         <v>30</v>
@@ -1542,35 +1554,29 @@
       <c r="S2" s="37">
         <v>2</v>
       </c>
-      <c r="T2" s="37">
-        <v>3</v>
-      </c>
-      <c r="U2" s="27">
-        <v>4</v>
-      </c>
-      <c r="V2" s="28" t="s">
+      <c r="T2" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="W2" s="26" t="s">
+      <c r="U2" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="X2" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y2" s="19" t="s">
+      <c r="V2" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="W2" s="19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>48</v>
-      </c>
       <c r="D3" s="12">
         <v>2</v>
       </c>
@@ -1583,19 +1589,21 @@
       <c r="G3" s="7">
         <v>2</v>
       </c>
-      <c r="H3" s="61">
+      <c r="H3" s="51">
         <v>2</v>
       </c>
       <c r="I3" s="7">
         <v>2</v>
       </c>
-      <c r="J3" s="7"/>
-      <c r="K3" s="58">
+      <c r="J3" s="7">
+        <v>2</v>
+      </c>
+      <c r="K3" s="48">
         <v>0</v>
       </c>
       <c r="L3" s="16">
         <f>SUM(D3:J3)*50/(L$1-K3)</f>
-        <v>120</v>
+        <v>116.66666666666667</v>
       </c>
       <c r="M3" s="14">
         <v>100</v>
@@ -1603,10 +1611,14 @@
       <c r="N3" s="6">
         <v>100</v>
       </c>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
+      <c r="O3" s="6">
+        <v>100</v>
+      </c>
+      <c r="P3" s="48">
+        <v>0</v>
+      </c>
       <c r="Q3" s="16">
-        <f>SUM(M3:P3)/Q$1</f>
+        <f>SUM(M3:O3)/(Q$1-P3)</f>
         <v>100</v>
       </c>
       <c r="R3" s="14">
@@ -1615,28 +1627,26 @@
       <c r="S3" s="14">
         <v>60</v>
       </c>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
-      <c r="V3" s="16">
-        <f>SUM(R3:U3)/V$1</f>
+      <c r="T3" s="16">
+        <f>SUM(R3:S3)/T$1</f>
         <v>60</v>
       </c>
-      <c r="W3" s="6"/>
-      <c r="X3" s="44"/>
-      <c r="Y3" s="21">
-        <f>L3*0.2+Q3*0.25+V3*0.25+W3*0.3+X3*0.15</f>
-        <v>64</v>
-      </c>
-      <c r="Z3" s="1" t="s">
+      <c r="U3" s="6"/>
+      <c r="V3" s="44"/>
+      <c r="W3" s="21">
+        <f>L3*0.2+Q3*0.25+T3*0.25+U3*0.3+V3*0.15</f>
+        <v>63.333333333333336</v>
+      </c>
+      <c r="X3" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>6</v>
@@ -1653,19 +1663,21 @@
       <c r="G4" s="7">
         <v>2</v>
       </c>
-      <c r="H4" s="61">
+      <c r="H4" s="51">
         <v>2</v>
       </c>
       <c r="I4" s="7">
         <v>2</v>
       </c>
-      <c r="J4" s="7"/>
-      <c r="K4" s="58">
+      <c r="J4" s="7">
+        <v>2</v>
+      </c>
+      <c r="K4" s="48">
         <v>0</v>
       </c>
       <c r="L4" s="16">
         <f>SUM(D4:J4)*50/(L$1-K4)</f>
-        <v>120</v>
+        <v>116.66666666666667</v>
       </c>
       <c r="M4" s="14">
         <v>95</v>
@@ -1673,11 +1685,15 @@
       <c r="N4" s="6">
         <v>100</v>
       </c>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
+      <c r="O4" s="6">
+        <v>90</v>
+      </c>
+      <c r="P4" s="48">
+        <v>0</v>
+      </c>
       <c r="Q4" s="16">
-        <f>SUM(M4:P4)/Q$1</f>
-        <v>97.5</v>
+        <f>SUM(M4:O4)/(Q$1-P4)</f>
+        <v>95</v>
       </c>
       <c r="R4" s="14">
         <v>60</v>
@@ -1685,31 +1701,29 @@
       <c r="S4" s="14">
         <v>60</v>
       </c>
-      <c r="T4" s="14"/>
-      <c r="U4" s="14"/>
-      <c r="V4" s="16">
-        <f>SUM(R4:U4)/V$1</f>
+      <c r="T4" s="16">
+        <f>SUM(R4:S4)/T$1</f>
         <v>60</v>
       </c>
-      <c r="W4" s="6"/>
-      <c r="X4" s="44"/>
-      <c r="Y4" s="21">
-        <f>L4*0.2+Q4*0.25+V4*0.25+W4*0.3+X4*0.15</f>
-        <v>63.375</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U4" s="6"/>
+      <c r="V4" s="44"/>
+      <c r="W4" s="21">
+        <f>L4*0.2+Q4*0.25+T4*0.25+U4*0.3+V4*0.15</f>
+        <v>62.083333333333336</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D5" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7">
         <v>2</v>
@@ -1720,31 +1734,37 @@
       <c r="G5" s="7">
         <v>2</v>
       </c>
-      <c r="H5" s="61">
+      <c r="H5" s="51">
         <v>2</v>
       </c>
       <c r="I5" s="7">
         <v>2</v>
       </c>
-      <c r="J5" s="7"/>
-      <c r="K5" s="58">
+      <c r="J5" s="7">
+        <v>2</v>
+      </c>
+      <c r="K5" s="48">
         <v>0</v>
       </c>
       <c r="L5" s="16">
         <f>SUM(D5:J5)*50/(L$1-K5)</f>
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="M5" s="14">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="N5" s="6">
+        <v>100</v>
+      </c>
+      <c r="O5" s="6">
         <v>90</v>
       </c>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
+      <c r="P5" s="48">
+        <v>0</v>
+      </c>
       <c r="Q5" s="16">
-        <f>SUM(M5:P5)/Q$1</f>
-        <v>85</v>
+        <f>SUM(M5:O5)/(Q$1-P5)</f>
+        <v>95</v>
       </c>
       <c r="R5" s="14">
         <v>60</v>
@@ -1752,28 +1772,26 @@
       <c r="S5" s="14">
         <v>60</v>
       </c>
-      <c r="T5" s="14"/>
-      <c r="U5" s="14"/>
-      <c r="V5" s="16">
-        <f>SUM(R5:U5)/V$1</f>
+      <c r="T5" s="16">
+        <f>SUM(R5:S5)/T$1</f>
         <v>60</v>
       </c>
-      <c r="W5" s="6"/>
-      <c r="X5" s="44"/>
-      <c r="Y5" s="21">
-        <f>L5*0.2+Q5*0.25+V5*0.25+W5*0.3+X5*0.15</f>
-        <v>60.25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U5" s="6"/>
+      <c r="V5" s="44"/>
+      <c r="W5" s="21">
+        <f>L5*0.2+Q5*0.25+T5*0.25+U5*0.3+V5*0.15</f>
+        <v>58.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="D6" s="12">
         <v>0</v>
@@ -1787,14 +1805,16 @@
       <c r="G6" s="7">
         <v>2</v>
       </c>
-      <c r="H6" s="61">
+      <c r="H6" s="51">
         <v>2</v>
       </c>
       <c r="I6" s="7">
         <v>2</v>
       </c>
-      <c r="J6" s="7"/>
-      <c r="K6" s="58">
+      <c r="J6" s="7">
+        <v>2</v>
+      </c>
+      <c r="K6" s="48">
         <v>0</v>
       </c>
       <c r="L6" s="16">
@@ -1802,16 +1822,20 @@
         <v>100</v>
       </c>
       <c r="M6" s="14">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="N6" s="6">
-        <v>100</v>
-      </c>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
+        <v>90</v>
+      </c>
+      <c r="O6" s="6">
+        <v>90</v>
+      </c>
+      <c r="P6" s="48">
+        <v>0</v>
+      </c>
       <c r="Q6" s="16">
-        <f>SUM(M6:P6)/Q$1</f>
-        <v>97.5</v>
+        <f>SUM(M6:O6)/(Q$1-P6)</f>
+        <v>93.333333333333329</v>
       </c>
       <c r="R6" s="14">
         <v>60</v>
@@ -1819,28 +1843,26 @@
       <c r="S6" s="14">
         <v>60</v>
       </c>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14"/>
-      <c r="V6" s="16">
-        <f>SUM(R6:U6)/V$1</f>
+      <c r="T6" s="16">
+        <f>SUM(R6:S6)/T$1</f>
         <v>60</v>
       </c>
-      <c r="W6" s="6"/>
-      <c r="X6" s="44"/>
-      <c r="Y6" s="21">
-        <f>L6*0.2+Q6*0.25+V6*0.25+W6*0.3+X6*0.15</f>
-        <v>59.375</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U6" s="6"/>
+      <c r="V6" s="44"/>
+      <c r="W6" s="21">
+        <f>L6*0.2+Q6*0.25+T6*0.25+U6*0.3+V6*0.1</f>
+        <v>58.333333333333329</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D7" s="12">
         <v>0</v>
@@ -1854,31 +1876,37 @@
       <c r="G7" s="7">
         <v>2</v>
       </c>
-      <c r="H7" s="61" t="s">
-        <v>96</v>
+      <c r="H7" s="51">
+        <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>1.8</v>
-      </c>
-      <c r="J7" s="7"/>
-      <c r="K7" s="59">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="J7" s="7">
+        <v>2</v>
+      </c>
+      <c r="K7" s="48">
+        <v>0</v>
       </c>
       <c r="L7" s="16">
         <f>SUM(D7:J7)*50/(L$1-K7)</f>
-        <v>97.5</v>
+        <v>100</v>
       </c>
       <c r="M7" s="14">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="N7" s="6">
         <v>100</v>
       </c>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
+      <c r="O7" s="6">
+        <v>90</v>
+      </c>
+      <c r="P7" s="48">
+        <v>0</v>
+      </c>
       <c r="Q7" s="16">
-        <f>SUM(M7:P7)/Q$1</f>
-        <v>97.5</v>
+        <f>SUM(M7:O7)/(Q$1-P7)</f>
+        <v>93.333333333333329</v>
       </c>
       <c r="R7" s="14">
         <v>60</v>
@@ -1886,28 +1914,26 @@
       <c r="S7" s="14">
         <v>60</v>
       </c>
-      <c r="T7" s="14"/>
-      <c r="U7" s="14"/>
-      <c r="V7" s="16">
-        <f>SUM(R7:U7)/V$1</f>
+      <c r="T7" s="16">
+        <f>SUM(R7:S7)/T$1</f>
         <v>60</v>
       </c>
-      <c r="W7" s="6"/>
-      <c r="X7" s="44"/>
-      <c r="Y7" s="21">
-        <f>L7*0.2+Q7*0.25+V7*0.25+W7*0.3+X7*0.15</f>
-        <v>58.875</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U7" s="6"/>
+      <c r="V7" s="44"/>
+      <c r="W7" s="21">
+        <f>L7*0.2+Q7*0.25+T7*0.25+U7*0.3+V7*0.15</f>
+        <v>58.333333333333329</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="D8" s="12">
         <v>0</v>
@@ -1921,31 +1947,37 @@
       <c r="G8" s="7">
         <v>2</v>
       </c>
-      <c r="H8" s="61">
-        <v>2</v>
+      <c r="H8" s="51" t="s">
+        <v>95</v>
       </c>
       <c r="I8" s="7">
-        <v>2</v>
-      </c>
-      <c r="J8" s="7"/>
-      <c r="K8" s="58">
-        <v>0</v>
+        <v>1.8</v>
+      </c>
+      <c r="J8" s="7">
+        <v>2</v>
+      </c>
+      <c r="K8" s="49">
+        <v>1</v>
       </c>
       <c r="L8" s="16">
         <f>SUM(D8:J8)*50/(L$1-K8)</f>
+        <v>98.000000000000014</v>
+      </c>
+      <c r="M8" s="14">
+        <v>95</v>
+      </c>
+      <c r="N8" s="6">
         <v>100</v>
       </c>
-      <c r="M8" s="14">
-        <v>100</v>
-      </c>
-      <c r="N8" s="6">
-        <v>90</v>
-      </c>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
+      <c r="O8" s="6">
+        <v>80</v>
+      </c>
+      <c r="P8" s="48">
+        <v>0</v>
+      </c>
       <c r="Q8" s="16">
-        <f>SUM(M8:P8)/Q$1</f>
-        <v>95</v>
+        <f>SUM(M8:O8)/(Q$1-P8)</f>
+        <v>91.666666666666671</v>
       </c>
       <c r="R8" s="14">
         <v>60</v>
@@ -1953,31 +1985,29 @@
       <c r="S8" s="14">
         <v>60</v>
       </c>
-      <c r="T8" s="14"/>
-      <c r="U8" s="14"/>
-      <c r="V8" s="16">
-        <f>SUM(R8:U8)/V$1</f>
+      <c r="T8" s="16">
+        <f>SUM(R8:S8)/T$1</f>
         <v>60</v>
       </c>
-      <c r="W8" s="6"/>
-      <c r="X8" s="44"/>
-      <c r="Y8" s="21">
-        <f>L8*0.2+Q8*0.25+V8*0.25+W8*0.3+X8*0.1</f>
-        <v>58.75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U8" s="6"/>
+      <c r="V8" s="44"/>
+      <c r="W8" s="21">
+        <f>L8*0.2+Q8*0.25+T8*0.25+U8*0.3+V8*0.15</f>
+        <v>57.516666666666673</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D9" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E9" s="7">
         <v>2</v>
@@ -1988,31 +2018,37 @@
       <c r="G9" s="7">
         <v>2</v>
       </c>
-      <c r="H9" s="61">
+      <c r="H9" s="51">
         <v>2</v>
       </c>
       <c r="I9" s="7">
         <v>2</v>
       </c>
-      <c r="J9" s="7"/>
-      <c r="K9" s="58">
+      <c r="J9" s="7">
+        <v>1.8</v>
+      </c>
+      <c r="K9" s="48">
         <v>0</v>
       </c>
       <c r="L9" s="16">
         <f>SUM(D9:J9)*50/(L$1-K9)</f>
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="M9" s="14">
+        <v>80</v>
+      </c>
+      <c r="N9" s="6">
         <v>90</v>
       </c>
-      <c r="N9" s="6">
-        <v>100</v>
-      </c>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
+      <c r="O9" s="6">
+        <v>60</v>
+      </c>
+      <c r="P9" s="48">
+        <v>0</v>
+      </c>
       <c r="Q9" s="16">
-        <f>SUM(M9:P9)/Q$1</f>
-        <v>95</v>
+        <f>SUM(M9:O9)/(Q$1-P9)</f>
+        <v>76.666666666666671</v>
       </c>
       <c r="R9" s="14">
         <v>60</v>
@@ -2020,31 +2056,29 @@
       <c r="S9" s="14">
         <v>60</v>
       </c>
-      <c r="T9" s="14"/>
-      <c r="U9" s="14"/>
-      <c r="V9" s="16">
-        <f>SUM(R9:U9)/V$1</f>
+      <c r="T9" s="16">
+        <f>SUM(R9:S9)/T$1</f>
         <v>60</v>
       </c>
-      <c r="W9" s="6"/>
-      <c r="X9" s="44"/>
-      <c r="Y9" s="21">
-        <f>L9*0.2+Q9*0.25+V9*0.25+W9*0.3+X9*0.15</f>
-        <v>58.75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U9" s="6"/>
+      <c r="V9" s="44"/>
+      <c r="W9" s="21">
+        <f>L9*0.2+Q9*0.25+T9*0.25+U9*0.3+V9*0.15</f>
+        <v>57.166666666666671</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="D10" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7">
         <v>2</v>
@@ -2053,62 +2087,66 @@
         <v>2</v>
       </c>
       <c r="G10" s="7">
-        <v>2</v>
-      </c>
-      <c r="H10" s="61">
+        <v>1.8</v>
+      </c>
+      <c r="H10" s="51">
         <v>2</v>
       </c>
       <c r="I10" s="7">
         <v>2</v>
       </c>
-      <c r="J10" s="7"/>
-      <c r="K10" s="58">
+      <c r="J10" s="7">
+        <v>2</v>
+      </c>
+      <c r="K10" s="48">
         <v>0</v>
       </c>
       <c r="L10" s="16">
         <f>SUM(D10:J10)*50/(L$1-K10)</f>
-        <v>120</v>
+        <v>98.333333333333329</v>
       </c>
       <c r="M10" s="14">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="N10" s="6">
-        <v>90</v>
-      </c>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
+        <v>95</v>
+      </c>
+      <c r="O10" s="6">
+        <v>70</v>
+      </c>
+      <c r="P10" s="48">
+        <v>0</v>
+      </c>
       <c r="Q10" s="16">
-        <f>SUM(M10:P10)/Q$1</f>
-        <v>87.5</v>
+        <f>SUM(M10:O10)/(Q$1-P10)</f>
+        <v>86.666666666666671</v>
       </c>
       <c r="R10" s="14">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="S10" s="14">
         <v>60</v>
       </c>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="16">
-        <f>SUM(R10:U10)/V$1</f>
-        <v>50</v>
-      </c>
-      <c r="W10" s="6"/>
-      <c r="X10" s="44"/>
-      <c r="Y10" s="21">
-        <f>L10*0.2+Q10*0.25+V10*0.25+W10*0.3+X10*0.15</f>
-        <v>58.375</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T10" s="16">
+        <f>SUM(R10:S10)/T$1</f>
+        <v>60</v>
+      </c>
+      <c r="U10" s="6"/>
+      <c r="V10" s="44"/>
+      <c r="W10" s="21">
+        <f>L10*0.2+Q10*0.25+T10*0.25+U10*0.3+V10*0.15</f>
+        <v>56.333333333333336</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D11" s="12">
         <v>0</v>
@@ -2120,33 +2158,39 @@
         <v>2</v>
       </c>
       <c r="G11" s="7">
-        <v>1.8</v>
-      </c>
-      <c r="H11" s="61">
+        <v>2</v>
+      </c>
+      <c r="H11" s="51">
         <v>2</v>
       </c>
       <c r="I11" s="7">
         <v>2</v>
       </c>
-      <c r="J11" s="7"/>
-      <c r="K11" s="58">
+      <c r="J11" s="7">
+        <v>2</v>
+      </c>
+      <c r="K11" s="48">
         <v>0</v>
       </c>
       <c r="L11" s="16">
         <f>SUM(D11:J11)*50/(L$1-K11)</f>
-        <v>98.000000000000014</v>
+        <v>100</v>
       </c>
       <c r="M11" s="14">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="N11" s="6">
-        <v>95</v>
-      </c>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
+        <v>80</v>
+      </c>
+      <c r="O11" s="6">
+        <v>80</v>
+      </c>
+      <c r="P11" s="48">
+        <v>0</v>
+      </c>
       <c r="Q11" s="16">
-        <f>SUM(M11:P11)/Q$1</f>
-        <v>95</v>
+        <f>SUM(M11:O11)/(Q$1-P11)</f>
+        <v>83.333333333333329</v>
       </c>
       <c r="R11" s="14">
         <v>60</v>
@@ -2154,28 +2198,26 @@
       <c r="S11" s="14">
         <v>60</v>
       </c>
-      <c r="T11" s="14"/>
-      <c r="U11" s="14"/>
-      <c r="V11" s="16">
-        <f>SUM(R11:U11)/V$1</f>
+      <c r="T11" s="16">
+        <f>SUM(R11:S11)/T$1</f>
         <v>60</v>
       </c>
-      <c r="W11" s="6"/>
-      <c r="X11" s="44"/>
-      <c r="Y11" s="21">
-        <f>L11*0.2+Q11*0.25+V11*0.25+W11*0.3+X11*0.15</f>
-        <v>58.350000000000009</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U11" s="6"/>
+      <c r="V11" s="44"/>
+      <c r="W11" s="21">
+        <f>L11*0.2+Q11*0.25+T11*0.25+U11*0.3+V11*0.15</f>
+        <v>55.833333333333329</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="D12" s="12">
         <v>0</v>
@@ -2189,63 +2231,67 @@
       <c r="G12" s="7">
         <v>2</v>
       </c>
-      <c r="H12" s="61">
-        <v>1.7</v>
+      <c r="H12" s="51">
+        <v>2</v>
       </c>
       <c r="I12" s="7">
         <v>2</v>
       </c>
-      <c r="J12" s="7"/>
-      <c r="K12" s="58">
+      <c r="J12" s="7">
+        <v>2</v>
+      </c>
+      <c r="K12" s="48">
         <v>0</v>
       </c>
       <c r="L12" s="16">
         <f>SUM(D12:J12)*50/(L$1-K12)</f>
-        <v>96.999999999999986</v>
+        <v>100</v>
       </c>
       <c r="M12" s="14">
         <v>90</v>
       </c>
       <c r="N12" s="6">
-        <v>85</v>
-      </c>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
+        <v>100</v>
+      </c>
+      <c r="O12" s="6">
+        <v>80</v>
+      </c>
+      <c r="P12" s="48">
+        <v>0</v>
+      </c>
       <c r="Q12" s="16">
-        <f>SUM(M12:P12)/Q$1</f>
-        <v>87.5</v>
+        <f>SUM(M12:O12)/(Q$1-P12)</f>
+        <v>90</v>
       </c>
       <c r="R12" s="14">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="S12" s="14">
         <v>60</v>
       </c>
-      <c r="T12" s="14"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="16">
-        <f>SUM(R12:U12)/V$1</f>
-        <v>60</v>
-      </c>
-      <c r="W12" s="6"/>
-      <c r="X12" s="44"/>
-      <c r="Y12" s="21">
-        <f>L12*0.2+Q12*0.25+V12*0.25+W12*0.3+X12*0.15</f>
-        <v>56.274999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T12" s="16">
+        <f>SUM(R12:S12)/T$1</f>
+        <v>50</v>
+      </c>
+      <c r="U12" s="6"/>
+      <c r="V12" s="44"/>
+      <c r="W12" s="21">
+        <f>L12*0.2+Q12*0.25+T12*0.25+U12*0.3+V12*0.15</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="D13" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E13" s="7">
         <v>2</v>
@@ -2256,60 +2302,64 @@
       <c r="G13" s="7">
         <v>2</v>
       </c>
-      <c r="H13" s="61">
+      <c r="H13" s="51">
         <v>2</v>
       </c>
       <c r="I13" s="7">
         <v>2</v>
       </c>
-      <c r="J13" s="7"/>
-      <c r="K13" s="58">
+      <c r="J13" s="7">
+        <v>1.8</v>
+      </c>
+      <c r="K13" s="48">
         <v>0</v>
       </c>
       <c r="L13" s="16">
         <f>SUM(D13:J13)*50/(L$1-K13)</f>
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="M13" s="14">
+        <v>85</v>
+      </c>
+      <c r="N13" s="6">
         <v>90</v>
       </c>
-      <c r="N13" s="6">
-        <v>80</v>
-      </c>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
+      <c r="O13" s="6">
+        <v>50</v>
+      </c>
+      <c r="P13" s="48">
+        <v>0</v>
+      </c>
       <c r="Q13" s="16">
-        <f>SUM(M13:P13)/Q$1</f>
-        <v>85</v>
+        <f>SUM(M13:O13)/(Q$1-P13)</f>
+        <v>75</v>
       </c>
       <c r="R13" s="14">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="S13" s="14">
         <v>60</v>
       </c>
-      <c r="T13" s="14"/>
-      <c r="U13" s="14"/>
-      <c r="V13" s="16">
-        <f>SUM(R13:U13)/V$1</f>
-        <v>60</v>
-      </c>
-      <c r="W13" s="6"/>
-      <c r="X13" s="44"/>
-      <c r="Y13" s="21">
-        <f>L13*0.2+Q13*0.25+V13*0.25+W13*0.3+X13*0.15</f>
-        <v>56.25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T13" s="16">
+        <f>SUM(R13:S13)/T$1</f>
+        <v>50</v>
+      </c>
+      <c r="U13" s="6"/>
+      <c r="V13" s="44"/>
+      <c r="W13" s="21">
+        <f>L13*0.2+Q13*0.25+T13*0.25+U13*0.3+V13*0.15</f>
+        <v>54.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="D14" s="12">
         <v>0</v>
@@ -2323,61 +2373,65 @@
       <c r="G14" s="7">
         <v>2</v>
       </c>
-      <c r="H14" s="61">
-        <v>2</v>
+      <c r="H14" s="51">
+        <v>1.7</v>
       </c>
       <c r="I14" s="7">
         <v>2</v>
       </c>
-      <c r="J14" s="7"/>
-      <c r="K14" s="58">
+      <c r="J14" s="7">
+        <v>2</v>
+      </c>
+      <c r="K14" s="48">
         <v>0</v>
       </c>
       <c r="L14" s="16">
         <f>SUM(D14:J14)*50/(L$1-K14)</f>
-        <v>100</v>
+        <v>97.5</v>
       </c>
       <c r="M14" s="14">
         <v>90</v>
       </c>
       <c r="N14" s="6">
-        <v>100</v>
-      </c>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
+        <v>85</v>
+      </c>
+      <c r="O14" s="6">
+        <v>50</v>
+      </c>
+      <c r="P14" s="48">
+        <v>0</v>
+      </c>
       <c r="Q14" s="16">
-        <f>SUM(M14:P14)/Q$1</f>
-        <v>95</v>
+        <f>SUM(M14:O14)/(Q$1-P14)</f>
+        <v>75</v>
       </c>
       <c r="R14" s="14">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="S14" s="14">
         <v>60</v>
       </c>
-      <c r="T14" s="14"/>
-      <c r="U14" s="14"/>
-      <c r="V14" s="16">
-        <f>SUM(R14:U14)/V$1</f>
-        <v>50</v>
-      </c>
-      <c r="W14" s="6"/>
-      <c r="X14" s="44"/>
-      <c r="Y14" s="21">
-        <f>L14*0.2+Q14*0.25+V14*0.25+W14*0.3+X14*0.15</f>
-        <v>56.25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T14" s="16">
+        <f>SUM(R14:S14)/T$1</f>
+        <v>60</v>
+      </c>
+      <c r="U14" s="6"/>
+      <c r="V14" s="44"/>
+      <c r="W14" s="21">
+        <f>L14*0.2+Q14*0.25+T14*0.25+U14*0.3+V14*0.15</f>
+        <v>53.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="C15" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="11" t="s">
-        <v>67</v>
-      </c>
       <c r="D15" s="12">
         <v>0</v>
       </c>
@@ -2390,19 +2444,21 @@
       <c r="G15" s="7">
         <v>2</v>
       </c>
-      <c r="H15" s="61">
+      <c r="H15" s="51">
         <v>2</v>
       </c>
       <c r="I15" s="7">
         <v>1.8</v>
       </c>
-      <c r="J15" s="7"/>
-      <c r="K15" s="58">
+      <c r="J15" s="7">
+        <v>2</v>
+      </c>
+      <c r="K15" s="48">
         <v>0</v>
       </c>
       <c r="L15" s="16">
         <f>SUM(D15:J15)*50/(L$1-K15)</f>
-        <v>78</v>
+        <v>81.666666666666671</v>
       </c>
       <c r="M15" s="14">
         <v>90</v>
@@ -2410,11 +2466,15 @@
       <c r="N15" s="6">
         <v>100</v>
       </c>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
+      <c r="O15" s="6">
+        <v>90</v>
+      </c>
+      <c r="P15" s="48">
+        <v>0</v>
+      </c>
       <c r="Q15" s="16">
-        <f>SUM(M15:P15)/Q$1</f>
-        <v>95</v>
+        <f>SUM(M15:O15)/(Q$1-P15)</f>
+        <v>93.333333333333329</v>
       </c>
       <c r="R15" s="14">
         <v>40</v>
@@ -2422,29 +2482,27 @@
       <c r="S15" s="14">
         <v>60</v>
       </c>
-      <c r="T15" s="14"/>
-      <c r="U15" s="14"/>
-      <c r="V15" s="16">
-        <f>SUM(R15:U15)/V$1</f>
+      <c r="T15" s="16">
+        <f>SUM(R15:S15)/T$1</f>
         <v>50</v>
       </c>
-      <c r="W15" s="6"/>
-      <c r="X15" s="44"/>
-      <c r="Y15" s="21">
-        <f>L15*0.2+Q15*0.25+V15*0.25+W15*0.3+X15*0.15</f>
-        <v>51.85</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U15" s="6"/>
+      <c r="V15" s="44"/>
+      <c r="W15" s="21">
+        <f>L15*0.2+Q15*0.25+T15*0.25+U15*0.3+V15*0.15</f>
+        <v>52.166666666666671</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="11" t="s">
-        <v>52</v>
-      </c>
       <c r="D16" s="12">
         <v>2</v>
       </c>
@@ -2457,19 +2515,21 @@
       <c r="G16" s="7">
         <v>0</v>
       </c>
-      <c r="H16" s="61">
+      <c r="H16" s="51">
         <v>2</v>
       </c>
       <c r="I16" s="7">
         <v>2</v>
       </c>
-      <c r="J16" s="7"/>
-      <c r="K16" s="58">
+      <c r="J16" s="7">
+        <v>0</v>
+      </c>
+      <c r="K16" s="48">
         <v>0</v>
       </c>
       <c r="L16" s="16">
         <f>SUM(D16:J16)*50/(L$1-K16)</f>
-        <v>100</v>
+        <v>83.333333333333329</v>
       </c>
       <c r="M16" s="14">
         <v>0</v>
@@ -2477,11 +2537,15 @@
       <c r="N16" s="6">
         <v>100</v>
       </c>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
+      <c r="O16" s="6">
+        <v>0</v>
+      </c>
+      <c r="P16" s="48">
+        <v>0</v>
+      </c>
       <c r="Q16" s="16">
-        <f>SUM(M16:P16)/Q$1</f>
-        <v>50</v>
+        <f>SUM(M16:O16)/(Q$1-P16)</f>
+        <v>33.333333333333336</v>
       </c>
       <c r="R16" s="14">
         <v>60</v>
@@ -2489,20 +2553,18 @@
       <c r="S16" s="14">
         <v>60</v>
       </c>
-      <c r="T16" s="14"/>
-      <c r="U16" s="14"/>
-      <c r="V16" s="16">
-        <f>SUM(R16:U16)/V$1</f>
+      <c r="T16" s="16">
+        <f>SUM(R16:S16)/T$1</f>
         <v>60</v>
       </c>
-      <c r="W16" s="6"/>
-      <c r="X16" s="44"/>
-      <c r="Y16" s="21">
-        <f>L16*0.2+Q16*0.25+V16*0.25+W16*0.3+X16*0.15</f>
-        <v>47.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U16" s="6"/>
+      <c r="V16" s="44"/>
+      <c r="W16" s="21">
+        <f>L16*0.2+Q16*0.25+T16*0.25+U16*0.3+V16*0.15</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>17</v>
       </c>
@@ -2524,19 +2586,21 @@
       <c r="G17" s="7">
         <v>2</v>
       </c>
-      <c r="H17" s="61">
+      <c r="H17" s="51">
         <v>0</v>
       </c>
       <c r="I17" s="7">
         <v>2</v>
       </c>
-      <c r="J17" s="7"/>
-      <c r="K17" s="58">
+      <c r="J17" s="7">
+        <v>0</v>
+      </c>
+      <c r="K17" s="48">
         <v>0</v>
       </c>
       <c r="L17" s="16">
         <f>SUM(D17:J17)*50/(L$1-K17)</f>
-        <v>80</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="M17" s="14">
         <v>85</v>
@@ -2544,11 +2608,15 @@
       <c r="N17" s="6">
         <v>95</v>
       </c>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
+      <c r="O17" s="6">
+        <v>0</v>
+      </c>
+      <c r="P17" s="48">
+        <v>0</v>
+      </c>
       <c r="Q17" s="16">
-        <f>SUM(M17:P17)/Q$1</f>
-        <v>90</v>
+        <f>SUM(M17:O17)/(Q$1-P17)</f>
+        <v>60</v>
       </c>
       <c r="R17" s="14">
         <v>40</v>
@@ -2556,96 +2624,98 @@
       <c r="S17" s="14">
         <v>0</v>
       </c>
-      <c r="T17" s="14"/>
-      <c r="U17" s="14"/>
-      <c r="V17" s="16">
-        <f>SUM(R17:U17)/V$1</f>
+      <c r="T17" s="16">
+        <f>SUM(R17:S17)/T$1</f>
         <v>20</v>
       </c>
-      <c r="W17" s="6"/>
-      <c r="X17" s="44"/>
-      <c r="Y17" s="21">
-        <f>L17*0.2+Q17*0.25+V17*0.25+W17*0.3+X17*0.15</f>
-        <v>43.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" s="57" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U17" s="6"/>
+      <c r="V17" s="44"/>
+      <c r="W17" s="21">
+        <f>L17*0.2+Q17*0.25+T17*0.25+U17*0.3+V17*0.15</f>
+        <v>33.333333333333336</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" s="47" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="D18" s="12">
         <v>0</v>
       </c>
-      <c r="E18" s="12">
-        <v>0</v>
-      </c>
-      <c r="F18" s="12">
-        <v>0</v>
-      </c>
-      <c r="G18" s="12">
-        <v>0</v>
-      </c>
-      <c r="H18" s="61">
-        <v>2</v>
+      <c r="E18" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="F18" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="G18" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="H18" s="51">
+        <v>0</v>
       </c>
       <c r="I18" s="7">
-        <v>0</v>
-      </c>
-      <c r="J18" s="7"/>
-      <c r="K18" s="58">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="J18" s="7">
+        <v>2</v>
+      </c>
+      <c r="K18" s="48">
+        <v>3</v>
       </c>
       <c r="L18" s="16">
         <f>SUM(D18:J18)*50/(L$1-K18)</f>
-        <v>20</v>
-      </c>
-      <c r="M18" s="14">
-        <v>0</v>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="M18" s="55" t="s">
+        <v>95</v>
       </c>
       <c r="N18" s="6">
-        <v>0</v>
-      </c>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
+        <v>75</v>
+      </c>
+      <c r="O18" s="6">
+        <v>50</v>
+      </c>
+      <c r="P18" s="48">
+        <v>1</v>
+      </c>
       <c r="Q18" s="16">
-        <f>SUM(M18:P18)/Q$1</f>
-        <v>0</v>
+        <f>SUM(M18:O18)/(Q$1-P18)</f>
+        <v>62.5</v>
       </c>
       <c r="R18" s="14">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="S18" s="14">
+        <v>0</v>
+      </c>
+      <c r="T18" s="16">
+        <f>SUM(R18:S18)/T$1</f>
+        <v>0</v>
+      </c>
+      <c r="U18" s="6"/>
+      <c r="V18" s="44"/>
+      <c r="W18" s="21">
+        <f>L18*0.2+Q18*0.25+T18*0.25+U18*0.3+V18*0.1</f>
+        <v>28.958333333333336</v>
+      </c>
+      <c r="X18" s="1"/>
+    </row>
+    <row r="19" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="T18" s="14"/>
-      <c r="U18" s="14"/>
-      <c r="V18" s="16">
-        <f>SUM(R18:U18)/V$1</f>
-        <v>50</v>
-      </c>
-      <c r="W18" s="6"/>
-      <c r="X18" s="44"/>
-      <c r="Y18" s="21">
-        <f>L18*0.2+Q18*0.25+V18*0.25+W18*0.3+X18*0.15</f>
-        <v>16.5</v>
-      </c>
-      <c r="Z18" s="1"/>
-    </row>
-    <row r="19" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
-        <v>99</v>
-      </c>
       <c r="B19" s="3" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="D19" s="12">
         <v>0</v>
@@ -2659,64 +2729,70 @@
       <c r="G19" s="12">
         <v>0</v>
       </c>
-      <c r="H19" s="61">
-        <v>0</v>
+      <c r="H19" s="51">
+        <v>2</v>
       </c>
       <c r="I19" s="7">
-        <v>2</v>
-      </c>
-      <c r="J19" s="7"/>
-      <c r="K19" s="58"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="7">
+        <v>0</v>
+      </c>
+      <c r="K19" s="48">
+        <v>0</v>
+      </c>
       <c r="L19" s="16">
         <f>SUM(D19:J19)*50/(L$1-K19)</f>
-        <v>20</v>
+        <v>16.666666666666668</v>
       </c>
       <c r="M19" s="14">
         <v>0</v>
       </c>
       <c r="N19" s="6">
-        <v>75</v>
-      </c>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="O19" s="6">
+        <v>0</v>
+      </c>
+      <c r="P19" s="48">
+        <v>0</v>
+      </c>
       <c r="Q19" s="16">
-        <f>SUM(M19:P19)/Q$1</f>
-        <v>37.5</v>
+        <f>SUM(M19:O19)/(Q$1-P19)</f>
+        <v>0</v>
       </c>
       <c r="R19" s="14">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="S19" s="14">
-        <v>0</v>
-      </c>
-      <c r="T19" s="14"/>
-      <c r="U19" s="14"/>
-      <c r="V19" s="16">
-        <f>SUM(R19:U19)/V$1</f>
-        <v>0</v>
-      </c>
-      <c r="W19" s="6"/>
-      <c r="X19" s="44"/>
-      <c r="Y19" s="21">
-        <f>L19*0.2+Q19*0.25+V19*0.25+W19*0.3+X19*0.1</f>
-        <v>13.375</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" s="57" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="T19" s="16">
+        <f>SUM(R19:S19)/T$1</f>
+        <v>50</v>
+      </c>
+      <c r="U19" s="6"/>
+      <c r="V19" s="44"/>
+      <c r="W19" s="21">
+        <f>L19*0.2+Q19*0.25+T19*0.25+U19*0.3+V19*0.15</f>
+        <v>15.833333333333334</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" s="47" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="C20" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="C20" s="11" t="s">
-        <v>88</v>
-      </c>
       <c r="D20" s="12">
         <v>0</v>
       </c>
-      <c r="E20" s="12">
-        <v>0</v>
+      <c r="E20" s="54" t="s">
+        <v>95</v>
       </c>
       <c r="F20" s="12">
         <v>0</v>
@@ -2724,19 +2800,21 @@
       <c r="G20" s="12">
         <v>0</v>
       </c>
-      <c r="H20" s="61">
+      <c r="H20" s="51">
         <v>0</v>
       </c>
       <c r="I20" s="7">
         <v>1.6</v>
       </c>
-      <c r="J20" s="7"/>
-      <c r="K20" s="58">
-        <v>0</v>
+      <c r="J20" s="7">
+        <v>2</v>
+      </c>
+      <c r="K20" s="48">
+        <v>1</v>
       </c>
       <c r="L20" s="16">
         <f>SUM(D20:J20)*50/(L$1-K20)</f>
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="M20" s="14">
         <v>0</v>
@@ -2744,10 +2822,14 @@
       <c r="N20" s="6">
         <v>40</v>
       </c>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
+      <c r="O20" s="6">
+        <v>20</v>
+      </c>
+      <c r="P20" s="48">
+        <v>0</v>
+      </c>
       <c r="Q20" s="16">
-        <f>SUM(M20:P20)/Q$1</f>
+        <f>SUM(M20:O20)/(Q$1-P20)</f>
         <v>20</v>
       </c>
       <c r="R20" s="14">
@@ -2756,30 +2838,28 @@
       <c r="S20" s="14">
         <v>0</v>
       </c>
-      <c r="T20" s="14"/>
-      <c r="U20" s="14"/>
-      <c r="V20" s="16">
-        <f>SUM(R20:U20)/V$1</f>
-        <v>0</v>
-      </c>
-      <c r="W20" s="6"/>
-      <c r="X20" s="44"/>
-      <c r="Y20" s="21">
-        <f>L20*0.2+Q20*0.25+V20*0.25+W20*0.3+X20*0.1</f>
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="Z20" s="1"/>
-    </row>
-    <row r="21" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T20" s="16">
+        <f>SUM(R20:S20)/T$1</f>
+        <v>0</v>
+      </c>
+      <c r="U20" s="6"/>
+      <c r="V20" s="44"/>
+      <c r="W20" s="21">
+        <f>L20*0.2+Q20*0.25+T20*0.25+U20*0.3+V20*0.1</f>
+        <v>12.2</v>
+      </c>
+      <c r="X20" s="1"/>
+    </row>
+    <row r="21" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="C21" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="C21" s="11" t="s">
-        <v>94</v>
-      </c>
       <c r="D21" s="12">
         <v>0</v>
       </c>
@@ -2792,19 +2872,21 @@
       <c r="G21" s="12">
         <v>0</v>
       </c>
-      <c r="H21" s="61">
+      <c r="H21" s="51">
         <v>0</v>
       </c>
       <c r="I21" s="7">
         <v>0.9</v>
       </c>
-      <c r="J21" s="7"/>
-      <c r="K21" s="58">
+      <c r="J21" s="7">
+        <v>0</v>
+      </c>
+      <c r="K21" s="48">
         <v>0</v>
       </c>
       <c r="L21" s="16">
         <f>SUM(D21:J21)*50/(L$1-K21)</f>
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="M21" s="14">
         <v>0</v>
@@ -2812,638 +2894,675 @@
       <c r="N21" s="6">
         <v>40</v>
       </c>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
+      <c r="O21" s="6">
+        <v>80</v>
+      </c>
+      <c r="P21" s="48">
+        <v>0</v>
+      </c>
       <c r="Q21" s="16">
-        <f>SUM(M21:P21)/Q$1</f>
+        <f>SUM(M21:O21)/(Q$1-P21)</f>
+        <v>40</v>
+      </c>
+      <c r="R21" s="14">
+        <v>0</v>
+      </c>
+      <c r="S21" s="14">
+        <v>0</v>
+      </c>
+      <c r="T21" s="16">
+        <f>SUM(R21:S21)/T$1</f>
+        <v>0</v>
+      </c>
+      <c r="U21" s="6"/>
+      <c r="V21" s="44"/>
+      <c r="W21" s="21">
+        <f>L21*0.2+Q21*0.25+T21*0.25+U21*0.3+V21*0.1</f>
+        <v>11.5</v>
+      </c>
+      <c r="X21" s="9"/>
+    </row>
+    <row r="22" spans="1:24" s="68" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="59">
+        <v>0</v>
+      </c>
+      <c r="E22" s="59">
+        <v>0</v>
+      </c>
+      <c r="F22" s="59">
+        <v>0</v>
+      </c>
+      <c r="G22" s="59">
+        <v>0</v>
+      </c>
+      <c r="H22" s="60">
+        <v>0</v>
+      </c>
+      <c r="I22" s="61">
+        <v>0</v>
+      </c>
+      <c r="J22" s="61">
+        <v>0</v>
+      </c>
+      <c r="K22" s="62">
+        <v>0</v>
+      </c>
+      <c r="L22" s="63">
+        <f>SUM(D22:J22)*50/(L$1-K22)</f>
+        <v>0</v>
+      </c>
+      <c r="M22" s="64">
+        <v>0</v>
+      </c>
+      <c r="N22" s="65">
+        <v>0</v>
+      </c>
+      <c r="O22" s="65">
+        <v>0</v>
+      </c>
+      <c r="P22" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="63">
+        <f>SUM(M22:O22)/(Q$1-P22)</f>
+        <v>0</v>
+      </c>
+      <c r="R22" s="64">
+        <v>0</v>
+      </c>
+      <c r="S22" s="64">
+        <v>0</v>
+      </c>
+      <c r="T22" s="63">
+        <f>SUM(R22:S22)/T$1</f>
+        <v>0</v>
+      </c>
+      <c r="U22" s="65"/>
+      <c r="V22" s="66"/>
+      <c r="W22" s="67">
+        <f>L22*0.2+Q22*0.25+T22*0.25+U22*0.3+V22*0.15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" s="68" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="59">
+        <v>0</v>
+      </c>
+      <c r="E23" s="59">
+        <v>0</v>
+      </c>
+      <c r="F23" s="59">
+        <v>0</v>
+      </c>
+      <c r="G23" s="59">
+        <v>0</v>
+      </c>
+      <c r="H23" s="60">
+        <v>0</v>
+      </c>
+      <c r="I23" s="61">
+        <v>0</v>
+      </c>
+      <c r="J23" s="61">
+        <v>0</v>
+      </c>
+      <c r="K23" s="62">
+        <v>0</v>
+      </c>
+      <c r="L23" s="63">
+        <f>SUM(D23:J23)*50/(L$1-K23)</f>
+        <v>0</v>
+      </c>
+      <c r="M23" s="64">
+        <v>0</v>
+      </c>
+      <c r="N23" s="65">
+        <v>0</v>
+      </c>
+      <c r="O23" s="65">
+        <v>0</v>
+      </c>
+      <c r="P23" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="63">
+        <f>SUM(M23:O23)/(Q$1-P23)</f>
+        <v>0</v>
+      </c>
+      <c r="R23" s="64">
+        <v>0</v>
+      </c>
+      <c r="S23" s="64">
+        <v>0</v>
+      </c>
+      <c r="T23" s="63">
+        <f>SUM(R23:S23)/T$1</f>
+        <v>0</v>
+      </c>
+      <c r="U23" s="65"/>
+      <c r="V23" s="66"/>
+      <c r="W23" s="67">
+        <f>L23*0.2+Q23*0.25+T23*0.25+U23*0.3+V23*0.15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" s="68" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="59">
+        <v>0</v>
+      </c>
+      <c r="E24" s="59">
+        <v>0</v>
+      </c>
+      <c r="F24" s="59">
+        <v>0</v>
+      </c>
+      <c r="G24" s="59">
+        <v>0</v>
+      </c>
+      <c r="H24" s="60">
+        <v>0</v>
+      </c>
+      <c r="I24" s="61">
+        <v>0</v>
+      </c>
+      <c r="J24" s="61">
+        <v>0</v>
+      </c>
+      <c r="K24" s="62">
+        <v>0</v>
+      </c>
+      <c r="L24" s="63">
+        <f>SUM(D24:J24)*50/(L$1-K24)</f>
+        <v>0</v>
+      </c>
+      <c r="M24" s="64">
+        <v>0</v>
+      </c>
+      <c r="N24" s="65">
+        <v>0</v>
+      </c>
+      <c r="O24" s="65">
+        <v>0</v>
+      </c>
+      <c r="P24" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="63">
+        <f>SUM(M24:O24)/(Q$1-P24)</f>
+        <v>0</v>
+      </c>
+      <c r="R24" s="64">
+        <v>0</v>
+      </c>
+      <c r="S24" s="64">
+        <v>0</v>
+      </c>
+      <c r="T24" s="63">
+        <f>SUM(R24:S24)/T$1</f>
+        <v>0</v>
+      </c>
+      <c r="U24" s="65"/>
+      <c r="V24" s="66"/>
+      <c r="W24" s="67">
+        <f>L24*0.2+Q24*0.25+T24*0.25+U24*0.3+V24*0.15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" s="68" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="59">
+        <v>0</v>
+      </c>
+      <c r="E25" s="59">
+        <v>0</v>
+      </c>
+      <c r="F25" s="59">
+        <v>0</v>
+      </c>
+      <c r="G25" s="59">
+        <v>0</v>
+      </c>
+      <c r="H25" s="60">
+        <v>0</v>
+      </c>
+      <c r="I25" s="61">
+        <v>0</v>
+      </c>
+      <c r="J25" s="61">
+        <v>0</v>
+      </c>
+      <c r="K25" s="62">
+        <v>0</v>
+      </c>
+      <c r="L25" s="63">
+        <f>SUM(D25:J25)*50/(L$1-K25)</f>
+        <v>0</v>
+      </c>
+      <c r="M25" s="64">
+        <v>0</v>
+      </c>
+      <c r="N25" s="65">
+        <v>0</v>
+      </c>
+      <c r="O25" s="65">
+        <v>0</v>
+      </c>
+      <c r="P25" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="63">
+        <f>SUM(M25:O25)/(Q$1-P25)</f>
+        <v>0</v>
+      </c>
+      <c r="R25" s="64">
+        <v>0</v>
+      </c>
+      <c r="S25" s="64">
+        <v>0</v>
+      </c>
+      <c r="T25" s="63">
+        <f>SUM(R25:S25)/T$1</f>
+        <v>0</v>
+      </c>
+      <c r="U25" s="65"/>
+      <c r="V25" s="66"/>
+      <c r="W25" s="67">
+        <f>L25*0.2+Q25*0.25+T25*0.25+U25*0.3+V25*0.15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" s="68" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="59">
+        <v>0</v>
+      </c>
+      <c r="E26" s="59">
+        <v>0</v>
+      </c>
+      <c r="F26" s="59">
+        <v>0</v>
+      </c>
+      <c r="G26" s="59">
+        <v>0</v>
+      </c>
+      <c r="H26" s="60">
+        <v>0</v>
+      </c>
+      <c r="I26" s="61">
+        <v>0</v>
+      </c>
+      <c r="J26" s="61">
+        <v>0</v>
+      </c>
+      <c r="K26" s="62">
+        <v>0</v>
+      </c>
+      <c r="L26" s="63">
+        <f>SUM(D26:J26)*50/(L$1-K26)</f>
+        <v>0</v>
+      </c>
+      <c r="M26" s="64">
+        <v>0</v>
+      </c>
+      <c r="N26" s="65">
+        <v>0</v>
+      </c>
+      <c r="O26" s="65">
+        <v>0</v>
+      </c>
+      <c r="P26" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="63">
+        <f>SUM(M26:O26)/(Q$1-P26)</f>
+        <v>0</v>
+      </c>
+      <c r="R26" s="64">
+        <v>0</v>
+      </c>
+      <c r="S26" s="64">
+        <v>0</v>
+      </c>
+      <c r="T26" s="63">
+        <f>SUM(R26:S26)/T$1</f>
+        <v>0</v>
+      </c>
+      <c r="U26" s="65"/>
+      <c r="V26" s="66"/>
+      <c r="W26" s="67">
+        <f>L26*0.2+Q26*0.25+T26*0.25+U26*0.3+V26*0.15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" s="68" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="R21" s="14">
-        <v>0</v>
-      </c>
-      <c r="S21" s="14">
-        <v>0</v>
-      </c>
-      <c r="T21" s="14"/>
-      <c r="U21" s="14"/>
-      <c r="V21" s="16">
-        <f>SUM(R21:U21)/V$1</f>
-        <v>0</v>
-      </c>
-      <c r="W21" s="6"/>
-      <c r="X21" s="44"/>
-      <c r="Y21" s="21">
-        <f>L21*0.2+Q21*0.25+V21*0.25+W21*0.3+X21*0.1</f>
-        <v>6.8</v>
-      </c>
-      <c r="Z21" s="9"/>
-    </row>
-    <row r="22" spans="1:26" s="57" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" s="50">
-        <v>0</v>
-      </c>
-      <c r="E22" s="50">
-        <v>0</v>
-      </c>
-      <c r="F22" s="50">
-        <v>0</v>
-      </c>
-      <c r="G22" s="50">
-        <v>0</v>
-      </c>
-      <c r="H22" s="62">
-        <v>0</v>
-      </c>
-      <c r="I22" s="51">
-        <v>0</v>
-      </c>
-      <c r="J22" s="51"/>
-      <c r="K22" s="58">
-        <v>0</v>
-      </c>
-      <c r="L22" s="16">
-        <f>SUM(D22:J22)*50/(L$1-K22)</f>
-        <v>0</v>
-      </c>
-      <c r="M22" s="53">
-        <v>0</v>
-      </c>
-      <c r="N22" s="54">
-        <v>0</v>
-      </c>
-      <c r="O22" s="54"/>
-      <c r="P22" s="54"/>
-      <c r="Q22" s="52">
-        <f>SUM(M22:P22)/Q$1</f>
-        <v>0</v>
-      </c>
-      <c r="R22" s="53">
-        <v>0</v>
-      </c>
-      <c r="S22" s="53">
-        <v>0</v>
-      </c>
-      <c r="T22" s="53"/>
-      <c r="U22" s="53"/>
-      <c r="V22" s="52">
-        <f>SUM(R22:U22)/V$1</f>
-        <v>0</v>
-      </c>
-      <c r="W22" s="54"/>
-      <c r="X22" s="55"/>
-      <c r="Y22" s="56">
-        <f>L22*0.2+Q22*0.25+V22*0.25+W22*0.3+X22*0.15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" s="57" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="50">
-        <v>0</v>
-      </c>
-      <c r="E23" s="50">
-        <v>0</v>
-      </c>
-      <c r="F23" s="50">
-        <v>0</v>
-      </c>
-      <c r="G23" s="50">
-        <v>0</v>
-      </c>
-      <c r="H23" s="62">
-        <v>0</v>
-      </c>
-      <c r="I23" s="51">
-        <v>0</v>
-      </c>
-      <c r="J23" s="51"/>
-      <c r="K23" s="58">
-        <v>0</v>
-      </c>
-      <c r="L23" s="16">
-        <f>SUM(D23:J23)*50/(L$1-K23)</f>
-        <v>0</v>
-      </c>
-      <c r="M23" s="53">
-        <v>0</v>
-      </c>
-      <c r="N23" s="54">
-        <v>0</v>
-      </c>
-      <c r="O23" s="54"/>
-      <c r="P23" s="54"/>
-      <c r="Q23" s="52">
-        <f>SUM(M23:P23)/Q$1</f>
-        <v>0</v>
-      </c>
-      <c r="R23" s="53">
-        <v>0</v>
-      </c>
-      <c r="S23" s="53">
-        <v>0</v>
-      </c>
-      <c r="T23" s="53"/>
-      <c r="U23" s="53"/>
-      <c r="V23" s="52">
-        <f>SUM(R23:U23)/V$1</f>
-        <v>0</v>
-      </c>
-      <c r="W23" s="54"/>
-      <c r="X23" s="55"/>
-      <c r="Y23" s="56">
-        <f>L23*0.2+Q23*0.25+V23*0.25+W23*0.3+X23*0.15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" s="57" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="50">
-        <v>0</v>
-      </c>
-      <c r="E24" s="50">
-        <v>0</v>
-      </c>
-      <c r="F24" s="50">
-        <v>0</v>
-      </c>
-      <c r="G24" s="50">
-        <v>0</v>
-      </c>
-      <c r="H24" s="62">
-        <v>0</v>
-      </c>
-      <c r="I24" s="51">
-        <v>0</v>
-      </c>
-      <c r="J24" s="51"/>
-      <c r="K24" s="58">
-        <v>0</v>
-      </c>
-      <c r="L24" s="16">
-        <f>SUM(D24:J24)*50/(L$1-K24)</f>
-        <v>0</v>
-      </c>
-      <c r="M24" s="53">
-        <v>0</v>
-      </c>
-      <c r="N24" s="54">
-        <v>0</v>
-      </c>
-      <c r="O24" s="54"/>
-      <c r="P24" s="54"/>
-      <c r="Q24" s="52">
-        <f>SUM(M24:P24)/Q$1</f>
-        <v>0</v>
-      </c>
-      <c r="R24" s="53">
-        <v>0</v>
-      </c>
-      <c r="S24" s="53">
-        <v>0</v>
-      </c>
-      <c r="T24" s="53"/>
-      <c r="U24" s="53"/>
-      <c r="V24" s="52">
-        <f>SUM(R24:U24)/V$1</f>
-        <v>0</v>
-      </c>
-      <c r="W24" s="54"/>
-      <c r="X24" s="55"/>
-      <c r="Y24" s="56">
-        <f>L24*0.2+Q24*0.25+V24*0.25+W24*0.3+X24*0.15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" s="57" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="50">
-        <v>0</v>
-      </c>
-      <c r="E25" s="50">
-        <v>0</v>
-      </c>
-      <c r="F25" s="50">
-        <v>0</v>
-      </c>
-      <c r="G25" s="50">
-        <v>0</v>
-      </c>
-      <c r="H25" s="62">
-        <v>0</v>
-      </c>
-      <c r="I25" s="51">
-        <v>0</v>
-      </c>
-      <c r="J25" s="51"/>
-      <c r="K25" s="58">
-        <v>0</v>
-      </c>
-      <c r="L25" s="16">
-        <f>SUM(D25:J25)*50/(L$1-K25)</f>
-        <v>0</v>
-      </c>
-      <c r="M25" s="53">
-        <v>0</v>
-      </c>
-      <c r="N25" s="54">
-        <v>0</v>
-      </c>
-      <c r="O25" s="54"/>
-      <c r="P25" s="54"/>
-      <c r="Q25" s="52">
-        <f>SUM(M25:P25)/Q$1</f>
-        <v>0</v>
-      </c>
-      <c r="R25" s="53">
-        <v>0</v>
-      </c>
-      <c r="S25" s="53">
-        <v>0</v>
-      </c>
-      <c r="T25" s="53"/>
-      <c r="U25" s="53"/>
-      <c r="V25" s="52">
-        <f>SUM(R25:U25)/V$1</f>
-        <v>0</v>
-      </c>
-      <c r="W25" s="54"/>
-      <c r="X25" s="55"/>
-      <c r="Y25" s="56">
-        <f>L25*0.2+Q25*0.25+V25*0.25+W25*0.3+X25*0.15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26" s="57" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" s="50">
-        <v>0</v>
-      </c>
-      <c r="E26" s="50">
-        <v>0</v>
-      </c>
-      <c r="F26" s="50">
-        <v>0</v>
-      </c>
-      <c r="G26" s="50">
-        <v>0</v>
-      </c>
-      <c r="H26" s="62">
-        <v>0</v>
-      </c>
-      <c r="I26" s="51">
-        <v>0</v>
-      </c>
-      <c r="J26" s="51"/>
-      <c r="K26" s="58">
-        <v>0</v>
-      </c>
-      <c r="L26" s="16">
-        <f>SUM(D26:J26)*50/(L$1-K26)</f>
-        <v>0</v>
-      </c>
-      <c r="M26" s="53">
-        <v>0</v>
-      </c>
-      <c r="N26" s="54">
-        <v>0</v>
-      </c>
-      <c r="O26" s="54"/>
-      <c r="P26" s="54"/>
-      <c r="Q26" s="52">
-        <f>SUM(M26:P26)/Q$1</f>
-        <v>0</v>
-      </c>
-      <c r="R26" s="53">
-        <v>0</v>
-      </c>
-      <c r="S26" s="53">
-        <v>0</v>
-      </c>
-      <c r="T26" s="53"/>
-      <c r="U26" s="53"/>
-      <c r="V26" s="52">
-        <f>SUM(R26:U26)/V$1</f>
-        <v>0</v>
-      </c>
-      <c r="W26" s="54"/>
-      <c r="X26" s="55"/>
-      <c r="Y26" s="56">
-        <f>L26*0.2+Q26*0.25+V26*0.25+W26*0.3+X26*0.15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" s="48" t="s">
+      <c r="B27" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="49" t="s">
+      <c r="C27" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="50">
-        <v>0</v>
-      </c>
-      <c r="E27" s="50">
-        <v>0</v>
-      </c>
-      <c r="F27" s="50">
-        <v>0</v>
-      </c>
-      <c r="G27" s="50">
-        <v>0</v>
-      </c>
-      <c r="H27" s="62">
-        <v>0</v>
-      </c>
-      <c r="I27" s="51">
-        <v>0</v>
-      </c>
-      <c r="J27" s="51"/>
-      <c r="K27" s="58">
-        <v>0</v>
-      </c>
-      <c r="L27" s="16">
+      <c r="D27" s="59">
+        <v>0</v>
+      </c>
+      <c r="E27" s="59">
+        <v>0</v>
+      </c>
+      <c r="F27" s="59">
+        <v>0</v>
+      </c>
+      <c r="G27" s="59">
+        <v>0</v>
+      </c>
+      <c r="H27" s="60">
+        <v>0</v>
+      </c>
+      <c r="I27" s="61">
+        <v>0</v>
+      </c>
+      <c r="J27" s="61">
+        <v>0</v>
+      </c>
+      <c r="K27" s="62">
+        <v>0</v>
+      </c>
+      <c r="L27" s="63">
         <f>SUM(D27:J27)*50/(L$1-K27)</f>
         <v>0</v>
       </c>
-      <c r="M27" s="53">
-        <v>0</v>
-      </c>
-      <c r="N27" s="54">
-        <v>0</v>
-      </c>
-      <c r="O27" s="54"/>
-      <c r="P27" s="54"/>
-      <c r="Q27" s="52">
-        <f>SUM(M27:P27)/Q$1</f>
-        <v>0</v>
-      </c>
-      <c r="R27" s="53">
-        <v>0</v>
-      </c>
-      <c r="S27" s="53">
-        <v>0</v>
-      </c>
-      <c r="T27" s="53"/>
-      <c r="U27" s="53"/>
-      <c r="V27" s="52">
-        <f>SUM(R27:U27)/V$1</f>
-        <v>0</v>
-      </c>
-      <c r="W27" s="54"/>
-      <c r="X27" s="55"/>
-      <c r="Y27" s="56">
-        <f>L27*0.2+Q27*0.25+V27*0.25+W27*0.3+X27*0.15</f>
-        <v>0</v>
-      </c>
-      <c r="Z27" s="57"/>
-    </row>
-    <row r="28" spans="1:26" s="57" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="47" t="s">
+      <c r="M27" s="64">
+        <v>0</v>
+      </c>
+      <c r="N27" s="65">
+        <v>0</v>
+      </c>
+      <c r="O27" s="65">
+        <v>0</v>
+      </c>
+      <c r="P27" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="63">
+        <f>SUM(M27:O27)/(Q$1-P27)</f>
+        <v>0</v>
+      </c>
+      <c r="R27" s="64">
+        <v>0</v>
+      </c>
+      <c r="S27" s="64">
+        <v>0</v>
+      </c>
+      <c r="T27" s="63">
+        <f>SUM(R27:S27)/T$1</f>
+        <v>0</v>
+      </c>
+      <c r="U27" s="65"/>
+      <c r="V27" s="66"/>
+      <c r="W27" s="67">
+        <f>L27*0.2+Q27*0.25+T27*0.25+U27*0.3+V27*0.15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" s="68" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="48" t="s">
+      <c r="B28" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="49" t="s">
+      <c r="C28" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="D28" s="50">
-        <v>0</v>
-      </c>
-      <c r="E28" s="50">
-        <v>0</v>
-      </c>
-      <c r="F28" s="50">
-        <v>0</v>
-      </c>
-      <c r="G28" s="50">
-        <v>0</v>
-      </c>
-      <c r="H28" s="62">
-        <v>0</v>
-      </c>
-      <c r="I28" s="51">
-        <v>0</v>
-      </c>
-      <c r="J28" s="51"/>
-      <c r="K28" s="58">
-        <v>0</v>
-      </c>
-      <c r="L28" s="16">
+      <c r="D28" s="59">
+        <v>0</v>
+      </c>
+      <c r="E28" s="59">
+        <v>0</v>
+      </c>
+      <c r="F28" s="59">
+        <v>0</v>
+      </c>
+      <c r="G28" s="59">
+        <v>0</v>
+      </c>
+      <c r="H28" s="60">
+        <v>0</v>
+      </c>
+      <c r="I28" s="61">
+        <v>0</v>
+      </c>
+      <c r="J28" s="61">
+        <v>0</v>
+      </c>
+      <c r="K28" s="62">
+        <v>0</v>
+      </c>
+      <c r="L28" s="63">
         <f>SUM(D28:J28)*50/(L$1-K28)</f>
         <v>0</v>
       </c>
-      <c r="M28" s="53">
-        <v>0</v>
-      </c>
-      <c r="N28" s="54">
-        <v>0</v>
-      </c>
-      <c r="O28" s="54"/>
-      <c r="P28" s="54"/>
-      <c r="Q28" s="52">
-        <f>SUM(M28:P28)/Q$1</f>
-        <v>0</v>
-      </c>
-      <c r="R28" s="53">
-        <v>0</v>
-      </c>
-      <c r="S28" s="53">
-        <v>0</v>
-      </c>
-      <c r="T28" s="53"/>
-      <c r="U28" s="53"/>
-      <c r="V28" s="52">
-        <f>SUM(R28:U28)/V$1</f>
-        <v>0</v>
-      </c>
-      <c r="W28" s="54"/>
-      <c r="X28" s="55"/>
-      <c r="Y28" s="56">
-        <f>L28*0.2+Q28*0.25+V28*0.25+W28*0.3+X28*0.15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26" s="57" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="47" t="s">
+      <c r="M28" s="64">
+        <v>0</v>
+      </c>
+      <c r="N28" s="65">
+        <v>0</v>
+      </c>
+      <c r="O28" s="65">
+        <v>0</v>
+      </c>
+      <c r="P28" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="63">
+        <f>SUM(M28:O28)/(Q$1-P28)</f>
+        <v>0</v>
+      </c>
+      <c r="R28" s="64">
+        <v>0</v>
+      </c>
+      <c r="S28" s="64">
+        <v>0</v>
+      </c>
+      <c r="T28" s="63">
+        <f>SUM(R28:S28)/T$1</f>
+        <v>0</v>
+      </c>
+      <c r="U28" s="65"/>
+      <c r="V28" s="66"/>
+      <c r="W28" s="67">
+        <f>L28*0.2+Q28*0.25+T28*0.25+U28*0.3+V28*0.15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" s="68" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="48" t="s">
+      <c r="B29" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="49" t="s">
+      <c r="C29" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="50">
-        <v>0</v>
-      </c>
-      <c r="E29" s="50">
-        <v>0</v>
-      </c>
-      <c r="F29" s="50">
-        <v>0</v>
-      </c>
-      <c r="G29" s="50">
-        <v>0</v>
-      </c>
-      <c r="H29" s="62">
-        <v>0</v>
-      </c>
-      <c r="I29" s="51">
-        <v>0</v>
-      </c>
-      <c r="J29" s="51"/>
-      <c r="K29" s="58">
-        <v>0</v>
-      </c>
-      <c r="L29" s="16">
+      <c r="D29" s="59">
+        <v>0</v>
+      </c>
+      <c r="E29" s="59">
+        <v>0</v>
+      </c>
+      <c r="F29" s="59">
+        <v>0</v>
+      </c>
+      <c r="G29" s="59">
+        <v>0</v>
+      </c>
+      <c r="H29" s="60">
+        <v>0</v>
+      </c>
+      <c r="I29" s="61">
+        <v>0</v>
+      </c>
+      <c r="J29" s="61">
+        <v>0</v>
+      </c>
+      <c r="K29" s="62">
+        <v>0</v>
+      </c>
+      <c r="L29" s="63">
         <f>SUM(D29:J29)*50/(L$1-K29)</f>
         <v>0</v>
       </c>
-      <c r="M29" s="53">
-        <v>0</v>
-      </c>
-      <c r="N29" s="54">
-        <v>0</v>
-      </c>
-      <c r="O29" s="54"/>
-      <c r="P29" s="54"/>
-      <c r="Q29" s="52">
-        <f>SUM(M29:P29)/Q$1</f>
-        <v>0</v>
-      </c>
-      <c r="R29" s="53">
-        <v>0</v>
-      </c>
-      <c r="S29" s="53">
-        <v>0</v>
-      </c>
-      <c r="T29" s="53"/>
-      <c r="U29" s="53"/>
-      <c r="V29" s="52">
-        <f>SUM(R29:U29)/V$1</f>
-        <v>0</v>
-      </c>
-      <c r="W29" s="54"/>
-      <c r="X29" s="55"/>
-      <c r="Y29" s="56">
-        <f>L29*0.2+Q29*0.25+V29*0.25+W29*0.3+X29*0.15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26" s="9" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="47" t="s">
+      <c r="M29" s="64">
+        <v>0</v>
+      </c>
+      <c r="N29" s="65">
+        <v>0</v>
+      </c>
+      <c r="O29" s="65">
+        <v>0</v>
+      </c>
+      <c r="P29" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="63">
+        <f>SUM(M29:O29)/(Q$1-P29)</f>
+        <v>0</v>
+      </c>
+      <c r="R29" s="64">
+        <v>0</v>
+      </c>
+      <c r="S29" s="64">
+        <v>0</v>
+      </c>
+      <c r="T29" s="63">
+        <f>SUM(R29:S29)/T$1</f>
+        <v>0</v>
+      </c>
+      <c r="U29" s="65"/>
+      <c r="V29" s="66"/>
+      <c r="W29" s="67">
+        <f>L29*0.2+Q29*0.25+T29*0.25+U29*0.3+V29*0.15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" s="69" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="B30" s="48" t="s">
+      <c r="C30" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="C30" s="49" t="s">
-        <v>91</v>
-      </c>
-      <c r="D30" s="50">
-        <v>0</v>
-      </c>
-      <c r="E30" s="50">
-        <v>0</v>
-      </c>
-      <c r="F30" s="50">
-        <v>0</v>
-      </c>
-      <c r="G30" s="50">
-        <v>0</v>
-      </c>
-      <c r="H30" s="62">
-        <v>0</v>
-      </c>
-      <c r="I30" s="51">
-        <v>0</v>
-      </c>
-      <c r="J30" s="51"/>
-      <c r="K30" s="58">
-        <v>0</v>
-      </c>
-      <c r="L30" s="16">
+      <c r="D30" s="59">
+        <v>0</v>
+      </c>
+      <c r="E30" s="59">
+        <v>0</v>
+      </c>
+      <c r="F30" s="59">
+        <v>0</v>
+      </c>
+      <c r="G30" s="59">
+        <v>0</v>
+      </c>
+      <c r="H30" s="60">
+        <v>0</v>
+      </c>
+      <c r="I30" s="61">
+        <v>0</v>
+      </c>
+      <c r="J30" s="61">
+        <v>0</v>
+      </c>
+      <c r="K30" s="62">
+        <v>0</v>
+      </c>
+      <c r="L30" s="63">
         <f>SUM(D30:J30)*50/(L$1-K30)</f>
         <v>0</v>
       </c>
-      <c r="M30" s="53">
-        <v>0</v>
-      </c>
-      <c r="N30" s="54">
-        <v>0</v>
-      </c>
-      <c r="O30" s="54"/>
-      <c r="P30" s="54"/>
-      <c r="Q30" s="52">
-        <f>SUM(M30:P30)/Q$1</f>
-        <v>0</v>
-      </c>
-      <c r="R30" s="53">
-        <v>0</v>
-      </c>
-      <c r="S30" s="53">
-        <v>0</v>
-      </c>
-      <c r="T30" s="53"/>
-      <c r="U30" s="53"/>
-      <c r="V30" s="52">
-        <f>SUM(R30:U30)/V$1</f>
-        <v>0</v>
-      </c>
-      <c r="W30" s="54"/>
-      <c r="X30" s="55"/>
-      <c r="Y30" s="56">
-        <f>L30*0.2+Q30*0.25+V30*0.25+W30*0.3+X30*0.1</f>
-        <v>0</v>
-      </c>
-      <c r="Z30" s="57"/>
-    </row>
-    <row r="31" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M30" s="64">
+        <v>0</v>
+      </c>
+      <c r="N30" s="65">
+        <v>0</v>
+      </c>
+      <c r="O30" s="65">
+        <v>0</v>
+      </c>
+      <c r="P30" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="63">
+        <f>SUM(M30:O30)/(Q$1-P30)</f>
+        <v>0</v>
+      </c>
+      <c r="R30" s="64">
+        <v>0</v>
+      </c>
+      <c r="S30" s="64">
+        <v>0</v>
+      </c>
+      <c r="T30" s="63">
+        <f>SUM(R30:S30)/T$1</f>
+        <v>0</v>
+      </c>
+      <c r="U30" s="65"/>
+      <c r="V30" s="66"/>
+      <c r="W30" s="67">
+        <f>L30*0.2+Q30*0.25+T30*0.25+U30*0.3+V30*0.1</f>
+        <v>0</v>
+      </c>
+      <c r="X30" s="68"/>
+    </row>
+    <row r="31" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -3451,7 +3570,7 @@
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
-      <c r="H31" s="63"/>
+      <c r="H31" s="52"/>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
@@ -3464,10 +3583,8 @@
       <c r="R31" s="9"/>
       <c r="S31" s="9"/>
       <c r="T31" s="9"/>
-      <c r="U31" s="9"/>
-      <c r="V31" s="9"/>
-    </row>
-    <row r="32" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -3475,7 +3592,7 @@
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
-      <c r="H32" s="63"/>
+      <c r="H32" s="52"/>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
@@ -3488,10 +3605,8 @@
       <c r="R32" s="9"/>
       <c r="S32" s="9"/>
       <c r="T32" s="9"/>
-      <c r="U32" s="9"/>
-      <c r="V32" s="9"/>
-    </row>
-    <row r="33" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -3499,7 +3614,7 @@
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
-      <c r="H33" s="63"/>
+      <c r="H33" s="52"/>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
@@ -3512,10 +3627,8 @@
       <c r="R33" s="9"/>
       <c r="S33" s="9"/>
       <c r="T33" s="9"/>
-      <c r="U33" s="9"/>
-      <c r="V33" s="9"/>
-    </row>
-    <row r="34" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -3523,7 +3636,7 @@
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
-      <c r="H34" s="63"/>
+      <c r="H34" s="52"/>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
@@ -3536,10 +3649,8 @@
       <c r="R34" s="9"/>
       <c r="S34" s="9"/>
       <c r="T34" s="9"/>
-      <c r="U34" s="9"/>
-      <c r="V34" s="9"/>
-    </row>
-    <row r="35" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -3547,7 +3658,7 @@
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
-      <c r="H35" s="63"/>
+      <c r="H35" s="52"/>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
@@ -3560,10 +3671,8 @@
       <c r="R35" s="9"/>
       <c r="S35" s="9"/>
       <c r="T35" s="9"/>
-      <c r="U35" s="9"/>
-      <c r="V35" s="9"/>
-    </row>
-    <row r="36" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -3571,7 +3680,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
-      <c r="H36" s="63"/>
+      <c r="H36" s="52"/>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
@@ -3584,10 +3693,8 @@
       <c r="R36" s="9"/>
       <c r="S36" s="9"/>
       <c r="T36" s="9"/>
-      <c r="U36" s="9"/>
-      <c r="V36" s="9"/>
-    </row>
-    <row r="37" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -3595,7 +3702,7 @@
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
-      <c r="H37" s="63"/>
+      <c r="H37" s="52"/>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
@@ -3608,10 +3715,8 @@
       <c r="R37" s="9"/>
       <c r="S37" s="9"/>
       <c r="T37" s="9"/>
-      <c r="U37" s="9"/>
-      <c r="V37" s="9"/>
-    </row>
-    <row r="38" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -3619,7 +3724,7 @@
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
-      <c r="H38" s="63"/>
+      <c r="H38" s="52"/>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
@@ -3632,10 +3737,8 @@
       <c r="R38" s="9"/>
       <c r="S38" s="9"/>
       <c r="T38" s="9"/>
-      <c r="U38" s="9"/>
-      <c r="V38" s="9"/>
-    </row>
-    <row r="39" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -3643,7 +3746,7 @@
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
-      <c r="H39" s="63"/>
+      <c r="H39" s="52"/>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
@@ -3656,10 +3759,8 @@
       <c r="R39" s="9"/>
       <c r="S39" s="9"/>
       <c r="T39" s="9"/>
-      <c r="U39" s="9"/>
-      <c r="V39" s="9"/>
-    </row>
-    <row r="40" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -3667,7 +3768,7 @@
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
-      <c r="H40" s="63"/>
+      <c r="H40" s="52"/>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
@@ -3680,10 +3781,8 @@
       <c r="R40" s="9"/>
       <c r="S40" s="9"/>
       <c r="T40" s="9"/>
-      <c r="U40" s="9"/>
-      <c r="V40" s="9"/>
-    </row>
-    <row r="41" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -3691,7 +3790,7 @@
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
-      <c r="H41" s="63"/>
+      <c r="H41" s="52"/>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
@@ -3704,10 +3803,8 @@
       <c r="R41" s="9"/>
       <c r="S41" s="9"/>
       <c r="T41" s="9"/>
-      <c r="U41" s="9"/>
-      <c r="V41" s="9"/>
-    </row>
-    <row r="42" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -3715,7 +3812,7 @@
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
-      <c r="H42" s="63"/>
+      <c r="H42" s="52"/>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
@@ -3728,10 +3825,8 @@
       <c r="R42" s="9"/>
       <c r="S42" s="9"/>
       <c r="T42" s="9"/>
-      <c r="U42" s="9"/>
-      <c r="V42" s="9"/>
-    </row>
-    <row r="43" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -3739,7 +3834,7 @@
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
-      <c r="H43" s="63"/>
+      <c r="H43" s="52"/>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
@@ -3752,10 +3847,8 @@
       <c r="R43" s="9"/>
       <c r="S43" s="9"/>
       <c r="T43" s="9"/>
-      <c r="U43" s="9"/>
-      <c r="V43" s="9"/>
-    </row>
-    <row r="44" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -3763,7 +3856,7 @@
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
-      <c r="H44" s="63"/>
+      <c r="H44" s="52"/>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
@@ -3776,10 +3869,8 @@
       <c r="R44" s="9"/>
       <c r="S44" s="9"/>
       <c r="T44" s="9"/>
-      <c r="U44" s="9"/>
-      <c r="V44" s="9"/>
-    </row>
-    <row r="45" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -3787,7 +3878,7 @@
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
-      <c r="H45" s="63"/>
+      <c r="H45" s="52"/>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
@@ -3800,10 +3891,8 @@
       <c r="R45" s="9"/>
       <c r="S45" s="9"/>
       <c r="T45" s="9"/>
-      <c r="U45" s="9"/>
-      <c r="V45" s="9"/>
-    </row>
-    <row r="46" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -3811,7 +3900,7 @@
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
-      <c r="H46" s="63"/>
+      <c r="H46" s="52"/>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
@@ -3824,10 +3913,8 @@
       <c r="R46" s="9"/>
       <c r="S46" s="9"/>
       <c r="T46" s="9"/>
-      <c r="U46" s="9"/>
-      <c r="V46" s="9"/>
-    </row>
-    <row r="47" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -3835,7 +3922,7 @@
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
-      <c r="H47" s="63"/>
+      <c r="H47" s="52"/>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
@@ -3848,10 +3935,8 @@
       <c r="R47" s="9"/>
       <c r="S47" s="9"/>
       <c r="T47" s="9"/>
-      <c r="U47" s="9"/>
-      <c r="V47" s="9"/>
-    </row>
-    <row r="48" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -3859,7 +3944,7 @@
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
-      <c r="H48" s="63"/>
+      <c r="H48" s="52"/>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
@@ -3872,10 +3957,8 @@
       <c r="R48" s="9"/>
       <c r="S48" s="9"/>
       <c r="T48" s="9"/>
-      <c r="U48" s="9"/>
-      <c r="V48" s="9"/>
-    </row>
-    <row r="49" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -3883,7 +3966,7 @@
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
-      <c r="H49" s="63"/>
+      <c r="H49" s="52"/>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
@@ -3896,10 +3979,8 @@
       <c r="R49" s="9"/>
       <c r="S49" s="9"/>
       <c r="T49" s="9"/>
-      <c r="U49" s="9"/>
-      <c r="V49" s="9"/>
-    </row>
-    <row r="50" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -3907,7 +3988,7 @@
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
-      <c r="H50" s="63"/>
+      <c r="H50" s="52"/>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
@@ -3920,10 +4001,8 @@
       <c r="R50" s="9"/>
       <c r="S50" s="9"/>
       <c r="T50" s="9"/>
-      <c r="U50" s="9"/>
-      <c r="V50" s="9"/>
-    </row>
-    <row r="51" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -3931,7 +4010,7 @@
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
-      <c r="H51" s="63"/>
+      <c r="H51" s="52"/>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
@@ -3944,10 +4023,8 @@
       <c r="R51" s="9"/>
       <c r="S51" s="9"/>
       <c r="T51" s="9"/>
-      <c r="U51" s="9"/>
-      <c r="V51" s="9"/>
-    </row>
-    <row r="52" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -3955,7 +4032,7 @@
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
-      <c r="H52" s="63"/>
+      <c r="H52" s="52"/>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
@@ -3968,10 +4045,8 @@
       <c r="R52" s="9"/>
       <c r="S52" s="9"/>
       <c r="T52" s="9"/>
-      <c r="U52" s="9"/>
-      <c r="V52" s="9"/>
-    </row>
-    <row r="53" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -3979,7 +4054,7 @@
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
-      <c r="H53" s="63"/>
+      <c r="H53" s="52"/>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
@@ -3992,10 +4067,8 @@
       <c r="R53" s="9"/>
       <c r="S53" s="9"/>
       <c r="T53" s="9"/>
-      <c r="U53" s="9"/>
-      <c r="V53" s="9"/>
-    </row>
-    <row r="54" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -4003,7 +4076,7 @@
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
-      <c r="H54" s="63"/>
+      <c r="H54" s="52"/>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
@@ -4016,10 +4089,8 @@
       <c r="R54" s="9"/>
       <c r="S54" s="9"/>
       <c r="T54" s="9"/>
-      <c r="U54" s="9"/>
-      <c r="V54" s="9"/>
-    </row>
-    <row r="55" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -4027,7 +4098,7 @@
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
-      <c r="H55" s="63"/>
+      <c r="H55" s="52"/>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
@@ -4040,10 +4111,8 @@
       <c r="R55" s="9"/>
       <c r="S55" s="9"/>
       <c r="T55" s="9"/>
-      <c r="U55" s="9"/>
-      <c r="V55" s="9"/>
-    </row>
-    <row r="56" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -4051,7 +4120,7 @@
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
-      <c r="H56" s="63"/>
+      <c r="H56" s="52"/>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
@@ -4064,10 +4133,8 @@
       <c r="R56" s="9"/>
       <c r="S56" s="9"/>
       <c r="T56" s="9"/>
-      <c r="U56" s="9"/>
-      <c r="V56" s="9"/>
-    </row>
-    <row r="57" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -4075,7 +4142,7 @@
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
-      <c r="H57" s="63"/>
+      <c r="H57" s="52"/>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
@@ -4088,10 +4155,8 @@
       <c r="R57" s="9"/>
       <c r="S57" s="9"/>
       <c r="T57" s="9"/>
-      <c r="U57" s="9"/>
-      <c r="V57" s="9"/>
-    </row>
-    <row r="58" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -4099,7 +4164,7 @@
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
-      <c r="H58" s="63"/>
+      <c r="H58" s="52"/>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
@@ -4112,10 +4177,8 @@
       <c r="R58" s="9"/>
       <c r="S58" s="9"/>
       <c r="T58" s="9"/>
-      <c r="U58" s="9"/>
-      <c r="V58" s="9"/>
-    </row>
-    <row r="59" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -4123,7 +4186,7 @@
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
-      <c r="H59" s="63"/>
+      <c r="H59" s="52"/>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
@@ -4136,10 +4199,8 @@
       <c r="R59" s="9"/>
       <c r="S59" s="9"/>
       <c r="T59" s="9"/>
-      <c r="U59" s="9"/>
-      <c r="V59" s="9"/>
-    </row>
-    <row r="60" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -4147,7 +4208,7 @@
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
-      <c r="H60" s="63"/>
+      <c r="H60" s="52"/>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
@@ -4160,10 +4221,8 @@
       <c r="R60" s="9"/>
       <c r="S60" s="9"/>
       <c r="T60" s="9"/>
-      <c r="U60" s="9"/>
-      <c r="V60" s="9"/>
-    </row>
-    <row r="61" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -4171,7 +4230,7 @@
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
-      <c r="H61" s="63"/>
+      <c r="H61" s="52"/>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
@@ -4184,10 +4243,8 @@
       <c r="R61" s="9"/>
       <c r="S61" s="9"/>
       <c r="T61" s="9"/>
-      <c r="U61" s="9"/>
-      <c r="V61" s="9"/>
-    </row>
-    <row r="62" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -4195,7 +4252,7 @@
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
-      <c r="H62" s="63"/>
+      <c r="H62" s="52"/>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
@@ -4208,10 +4265,8 @@
       <c r="R62" s="9"/>
       <c r="S62" s="9"/>
       <c r="T62" s="9"/>
-      <c r="U62" s="9"/>
-      <c r="V62" s="9"/>
-    </row>
-    <row r="63" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -4219,7 +4274,7 @@
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
-      <c r="H63" s="63"/>
+      <c r="H63" s="52"/>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
@@ -4232,10 +4287,8 @@
       <c r="R63" s="9"/>
       <c r="S63" s="9"/>
       <c r="T63" s="9"/>
-      <c r="U63" s="9"/>
-      <c r="V63" s="9"/>
-    </row>
-    <row r="64" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -4243,7 +4296,7 @@
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
-      <c r="H64" s="63"/>
+      <c r="H64" s="52"/>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
@@ -4256,10 +4309,8 @@
       <c r="R64" s="9"/>
       <c r="S64" s="9"/>
       <c r="T64" s="9"/>
-      <c r="U64" s="9"/>
-      <c r="V64" s="9"/>
-    </row>
-    <row r="65" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -4267,7 +4318,7 @@
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
-      <c r="H65" s="63"/>
+      <c r="H65" s="52"/>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
@@ -4280,10 +4331,8 @@
       <c r="R65" s="9"/>
       <c r="S65" s="9"/>
       <c r="T65" s="9"/>
-      <c r="U65" s="9"/>
-      <c r="V65" s="9"/>
-    </row>
-    <row r="66" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -4291,7 +4340,7 @@
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
-      <c r="H66" s="63"/>
+      <c r="H66" s="52"/>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
@@ -4304,10 +4353,8 @@
       <c r="R66" s="9"/>
       <c r="S66" s="9"/>
       <c r="T66" s="9"/>
-      <c r="U66" s="9"/>
-      <c r="V66" s="9"/>
-    </row>
-    <row r="67" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -4315,7 +4362,7 @@
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
-      <c r="H67" s="63"/>
+      <c r="H67" s="52"/>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
@@ -4328,10 +4375,8 @@
       <c r="R67" s="9"/>
       <c r="S67" s="9"/>
       <c r="T67" s="9"/>
-      <c r="U67" s="9"/>
-      <c r="V67" s="9"/>
-    </row>
-    <row r="68" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -4339,7 +4384,7 @@
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
-      <c r="H68" s="63"/>
+      <c r="H68" s="52"/>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
@@ -4352,10 +4397,8 @@
       <c r="R68" s="9"/>
       <c r="S68" s="9"/>
       <c r="T68" s="9"/>
-      <c r="U68" s="9"/>
-      <c r="V68" s="9"/>
-    </row>
-    <row r="69" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -4363,7 +4406,7 @@
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
-      <c r="H69" s="63"/>
+      <c r="H69" s="52"/>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
@@ -4376,10 +4419,8 @@
       <c r="R69" s="9"/>
       <c r="S69" s="9"/>
       <c r="T69" s="9"/>
-      <c r="U69" s="9"/>
-      <c r="V69" s="9"/>
-    </row>
-    <row r="70" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -4387,7 +4428,7 @@
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
-      <c r="H70" s="63"/>
+      <c r="H70" s="52"/>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
@@ -4400,10 +4441,8 @@
       <c r="R70" s="9"/>
       <c r="S70" s="9"/>
       <c r="T70" s="9"/>
-      <c r="U70" s="9"/>
-      <c r="V70" s="9"/>
-    </row>
-    <row r="71" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -4411,7 +4450,7 @@
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
-      <c r="H71" s="63"/>
+      <c r="H71" s="52"/>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
@@ -4424,10 +4463,8 @@
       <c r="R71" s="9"/>
       <c r="S71" s="9"/>
       <c r="T71" s="9"/>
-      <c r="U71" s="9"/>
-      <c r="V71" s="9"/>
-    </row>
-    <row r="72" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -4435,7 +4472,7 @@
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
-      <c r="H72" s="63"/>
+      <c r="H72" s="52"/>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
@@ -4448,10 +4485,8 @@
       <c r="R72" s="9"/>
       <c r="S72" s="9"/>
       <c r="T72" s="9"/>
-      <c r="U72" s="9"/>
-      <c r="V72" s="9"/>
-    </row>
-    <row r="73" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -4459,7 +4494,7 @@
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
-      <c r="H73" s="63"/>
+      <c r="H73" s="52"/>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
@@ -4472,10 +4507,8 @@
       <c r="R73" s="9"/>
       <c r="S73" s="9"/>
       <c r="T73" s="9"/>
-      <c r="U73" s="9"/>
-      <c r="V73" s="9"/>
-    </row>
-    <row r="74" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -4483,7 +4516,7 @@
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
-      <c r="H74" s="63"/>
+      <c r="H74" s="52"/>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
@@ -4496,10 +4529,8 @@
       <c r="R74" s="9"/>
       <c r="S74" s="9"/>
       <c r="T74" s="9"/>
-      <c r="U74" s="9"/>
-      <c r="V74" s="9"/>
-    </row>
-    <row r="75" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -4507,7 +4538,7 @@
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
-      <c r="H75" s="63"/>
+      <c r="H75" s="52"/>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
@@ -4520,10 +4551,8 @@
       <c r="R75" s="9"/>
       <c r="S75" s="9"/>
       <c r="T75" s="9"/>
-      <c r="U75" s="9"/>
-      <c r="V75" s="9"/>
-    </row>
-    <row r="76" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -4531,7 +4560,7 @@
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
-      <c r="H76" s="63"/>
+      <c r="H76" s="52"/>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
@@ -4544,17 +4573,15 @@
       <c r="R76" s="9"/>
       <c r="S76" s="9"/>
       <c r="T76" s="9"/>
-      <c r="U76" s="9"/>
-      <c r="V76" s="9"/>
     </row>
   </sheetData>
-  <sortState ref="A3:Z30">
-    <sortCondition descending="1" ref="Y3"/>
+  <sortState ref="A3:X30">
+    <sortCondition descending="1" ref="W3"/>
   </sortState>
   <mergeCells count="3">
     <mergeCell ref="D1:K1"/>
     <mergeCell ref="M1:P1"/>
-    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="R1:S1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:J30">
     <cfRule type="cellIs" dxfId="21" priority="19" operator="between">
@@ -4568,7 +4595,7 @@
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W3:X30 M3:P30">
+  <conditionalFormatting sqref="U3:V30 M3:O30">
     <cfRule type="cellIs" dxfId="18" priority="10" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
@@ -4585,7 +4612,7 @@
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R3:U30">
+  <conditionalFormatting sqref="R3:S30">
     <cfRule type="cellIs" dxfId="14" priority="6" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
@@ -4630,7 +4657,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V3:V30">
+  <conditionalFormatting sqref="T3:T30">
     <cfRule type="dataBar" priority="191">
       <dataBar>
         <cfvo type="min"/>
@@ -4644,7 +4671,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y3:Y30">
+  <conditionalFormatting sqref="W3:W30">
     <cfRule type="dataBar" priority="192">
       <dataBar>
         <cfvo type="min"/>
@@ -4695,7 +4722,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>V3:V30</xm:sqref>
+          <xm:sqref>T3:T30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{43DC70F4-8291-4430-AFF0-577FC5E79CD9}">
@@ -4706,7 +4733,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>Y3:Y30</xm:sqref>
+          <xm:sqref>W3:W30</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -4751,30 +4778,30 @@
       <c r="B1" s="18"/>
       <c r="C1" s="34"/>
       <c r="D1" s="40"/>
-      <c r="E1" s="67" t="s">
+      <c r="E1" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="67" t="s">
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="72" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="33" t="s">
-        <v>45</v>
-      </c>
       <c r="R1" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="S1" s="19" t="s">
         <v>40</v>
-      </c>
-      <c r="S1" s="19" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:19" s="5" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">

--- a/AdvancedJava/_docs/Notlar.xlsx
+++ b/AdvancedJava/_docs/Notlar.xlsx
@@ -1425,7 +1425,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z11" sqref="Z11"/>
+      <selection pane="bottomLeft" activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1602,7 +1602,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="16">
-        <f>SUM(D3:J3)*50/(L$1-K3)</f>
+        <f t="shared" ref="L3:L30" si="0">SUM(D3:J3)*50/(L$1-K3)</f>
         <v>116.66666666666667</v>
       </c>
       <c r="M3" s="14">
@@ -1618,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="Q3" s="16">
-        <f>SUM(M3:O3)/(Q$1-P3)</f>
+        <f t="shared" ref="Q3:Q30" si="1">SUM(M3:O3)/(Q$1-P3)</f>
         <v>100</v>
       </c>
       <c r="R3" s="14">
@@ -1628,7 +1628,7 @@
         <v>60</v>
       </c>
       <c r="T3" s="16">
-        <f>SUM(R3:S3)/T$1</f>
+        <f t="shared" ref="T3:T30" si="2">SUM(R3:S3)/T$1</f>
         <v>60</v>
       </c>
       <c r="U3" s="6"/>
@@ -1676,7 +1676,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="16">
-        <f>SUM(D4:J4)*50/(L$1-K4)</f>
+        <f t="shared" si="0"/>
         <v>116.66666666666667</v>
       </c>
       <c r="M4" s="14">
@@ -1692,7 +1692,7 @@
         <v>0</v>
       </c>
       <c r="Q4" s="16">
-        <f>SUM(M4:O4)/(Q$1-P4)</f>
+        <f t="shared" si="1"/>
         <v>95</v>
       </c>
       <c r="R4" s="14">
@@ -1702,7 +1702,7 @@
         <v>60</v>
       </c>
       <c r="T4" s="16">
-        <f>SUM(R4:S4)/T$1</f>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="U4" s="6"/>
@@ -1747,7 +1747,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="16">
-        <f>SUM(D5:J5)*50/(L$1-K5)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="M5" s="14">
@@ -1763,7 +1763,7 @@
         <v>0</v>
       </c>
       <c r="Q5" s="16">
-        <f>SUM(M5:O5)/(Q$1-P5)</f>
+        <f t="shared" si="1"/>
         <v>95</v>
       </c>
       <c r="R5" s="14">
@@ -1773,7 +1773,7 @@
         <v>60</v>
       </c>
       <c r="T5" s="16">
-        <f>SUM(R5:S5)/T$1</f>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="U5" s="6"/>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="16">
-        <f>SUM(D6:J6)*50/(L$1-K6)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="M6" s="14">
@@ -1834,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="Q6" s="16">
-        <f>SUM(M6:O6)/(Q$1-P6)</f>
+        <f t="shared" si="1"/>
         <v>93.333333333333329</v>
       </c>
       <c r="R6" s="14">
@@ -1844,7 +1844,7 @@
         <v>60</v>
       </c>
       <c r="T6" s="16">
-        <f>SUM(R6:S6)/T$1</f>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="U6" s="6"/>
@@ -1889,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="16">
-        <f>SUM(D7:J7)*50/(L$1-K7)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="M7" s="14">
@@ -1905,7 +1905,7 @@
         <v>0</v>
       </c>
       <c r="Q7" s="16">
-        <f>SUM(M7:O7)/(Q$1-P7)</f>
+        <f t="shared" si="1"/>
         <v>93.333333333333329</v>
       </c>
       <c r="R7" s="14">
@@ -1915,13 +1915,13 @@
         <v>60</v>
       </c>
       <c r="T7" s="16">
-        <f>SUM(R7:S7)/T$1</f>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="U7" s="6"/>
       <c r="V7" s="44"/>
       <c r="W7" s="21">
-        <f>L7*0.2+Q7*0.25+T7*0.25+U7*0.3+V7*0.15</f>
+        <f t="shared" ref="W7:W17" si="3">L7*0.2+Q7*0.25+T7*0.25+U7*0.3+V7*0.15</f>
         <v>58.333333333333329</v>
       </c>
     </row>
@@ -1960,7 +1960,7 @@
         <v>1</v>
       </c>
       <c r="L8" s="16">
-        <f>SUM(D8:J8)*50/(L$1-K8)</f>
+        <f t="shared" si="0"/>
         <v>98.000000000000014</v>
       </c>
       <c r="M8" s="14">
@@ -1976,7 +1976,7 @@
         <v>0</v>
       </c>
       <c r="Q8" s="16">
-        <f>SUM(M8:O8)/(Q$1-P8)</f>
+        <f t="shared" si="1"/>
         <v>91.666666666666671</v>
       </c>
       <c r="R8" s="14">
@@ -1986,13 +1986,13 @@
         <v>60</v>
       </c>
       <c r="T8" s="16">
-        <f>SUM(R8:S8)/T$1</f>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="U8" s="6"/>
       <c r="V8" s="44"/>
       <c r="W8" s="21">
-        <f>L8*0.2+Q8*0.25+T8*0.25+U8*0.3+V8*0.15</f>
+        <f t="shared" si="3"/>
         <v>57.516666666666673</v>
       </c>
     </row>
@@ -2031,7 +2031,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="16">
-        <f>SUM(D9:J9)*50/(L$1-K9)</f>
+        <f t="shared" si="0"/>
         <v>115</v>
       </c>
       <c r="M9" s="14">
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="Q9" s="16">
-        <f>SUM(M9:O9)/(Q$1-P9)</f>
+        <f t="shared" si="1"/>
         <v>76.666666666666671</v>
       </c>
       <c r="R9" s="14">
@@ -2057,13 +2057,13 @@
         <v>60</v>
       </c>
       <c r="T9" s="16">
-        <f>SUM(R9:S9)/T$1</f>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="U9" s="6"/>
       <c r="V9" s="44"/>
       <c r="W9" s="21">
-        <f>L9*0.2+Q9*0.25+T9*0.25+U9*0.3+V9*0.15</f>
+        <f t="shared" si="3"/>
         <v>57.166666666666671</v>
       </c>
     </row>
@@ -2102,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="16">
-        <f>SUM(D10:J10)*50/(L$1-K10)</f>
+        <f t="shared" si="0"/>
         <v>98.333333333333329</v>
       </c>
       <c r="M10" s="14">
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="Q10" s="16">
-        <f>SUM(M10:O10)/(Q$1-P10)</f>
+        <f t="shared" si="1"/>
         <v>86.666666666666671</v>
       </c>
       <c r="R10" s="14">
@@ -2128,13 +2128,13 @@
         <v>60</v>
       </c>
       <c r="T10" s="16">
-        <f>SUM(R10:S10)/T$1</f>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="U10" s="6"/>
       <c r="V10" s="44"/>
       <c r="W10" s="21">
-        <f>L10*0.2+Q10*0.25+T10*0.25+U10*0.3+V10*0.15</f>
+        <f t="shared" si="3"/>
         <v>56.333333333333336</v>
       </c>
     </row>
@@ -2173,7 +2173,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="16">
-        <f>SUM(D11:J11)*50/(L$1-K11)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="M11" s="14">
@@ -2189,7 +2189,7 @@
         <v>0</v>
       </c>
       <c r="Q11" s="16">
-        <f>SUM(M11:O11)/(Q$1-P11)</f>
+        <f t="shared" si="1"/>
         <v>83.333333333333329</v>
       </c>
       <c r="R11" s="14">
@@ -2199,13 +2199,13 @@
         <v>60</v>
       </c>
       <c r="T11" s="16">
-        <f>SUM(R11:S11)/T$1</f>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="U11" s="6"/>
       <c r="V11" s="44"/>
       <c r="W11" s="21">
-        <f>L11*0.2+Q11*0.25+T11*0.25+U11*0.3+V11*0.15</f>
+        <f t="shared" si="3"/>
         <v>55.833333333333329</v>
       </c>
     </row>
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="16">
-        <f>SUM(D12:J12)*50/(L$1-K12)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="M12" s="14">
@@ -2260,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="Q12" s="16">
-        <f>SUM(M12:O12)/(Q$1-P12)</f>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="R12" s="14">
@@ -2270,13 +2270,13 @@
         <v>60</v>
       </c>
       <c r="T12" s="16">
-        <f>SUM(R12:S12)/T$1</f>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="U12" s="6"/>
       <c r="V12" s="44"/>
       <c r="W12" s="21">
-        <f>L12*0.2+Q12*0.25+T12*0.25+U12*0.3+V12*0.15</f>
+        <f t="shared" si="3"/>
         <v>55</v>
       </c>
     </row>
@@ -2315,7 +2315,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="16">
-        <f>SUM(D13:J13)*50/(L$1-K13)</f>
+        <f t="shared" si="0"/>
         <v>115</v>
       </c>
       <c r="M13" s="14">
@@ -2331,7 +2331,7 @@
         <v>0</v>
       </c>
       <c r="Q13" s="16">
-        <f>SUM(M13:O13)/(Q$1-P13)</f>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="R13" s="14">
@@ -2341,13 +2341,13 @@
         <v>60</v>
       </c>
       <c r="T13" s="16">
-        <f>SUM(R13:S13)/T$1</f>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="U13" s="6"/>
       <c r="V13" s="44"/>
       <c r="W13" s="21">
-        <f>L13*0.2+Q13*0.25+T13*0.25+U13*0.3+V13*0.15</f>
+        <f t="shared" si="3"/>
         <v>54.25</v>
       </c>
     </row>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="16">
-        <f>SUM(D14:J14)*50/(L$1-K14)</f>
+        <f t="shared" si="0"/>
         <v>97.5</v>
       </c>
       <c r="M14" s="14">
@@ -2402,7 +2402,7 @@
         <v>0</v>
       </c>
       <c r="Q14" s="16">
-        <f>SUM(M14:O14)/(Q$1-P14)</f>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="R14" s="14">
@@ -2412,13 +2412,13 @@
         <v>60</v>
       </c>
       <c r="T14" s="16">
-        <f>SUM(R14:S14)/T$1</f>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="U14" s="6"/>
       <c r="V14" s="44"/>
       <c r="W14" s="21">
-        <f>L14*0.2+Q14*0.25+T14*0.25+U14*0.3+V14*0.15</f>
+        <f t="shared" si="3"/>
         <v>53.25</v>
       </c>
     </row>
@@ -2457,7 +2457,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="16">
-        <f>SUM(D15:J15)*50/(L$1-K15)</f>
+        <f t="shared" si="0"/>
         <v>81.666666666666671</v>
       </c>
       <c r="M15" s="14">
@@ -2473,7 +2473,7 @@
         <v>0</v>
       </c>
       <c r="Q15" s="16">
-        <f>SUM(M15:O15)/(Q$1-P15)</f>
+        <f t="shared" si="1"/>
         <v>93.333333333333329</v>
       </c>
       <c r="R15" s="14">
@@ -2483,13 +2483,13 @@
         <v>60</v>
       </c>
       <c r="T15" s="16">
-        <f>SUM(R15:S15)/T$1</f>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="U15" s="6"/>
       <c r="V15" s="44"/>
       <c r="W15" s="21">
-        <f>L15*0.2+Q15*0.25+T15*0.25+U15*0.3+V15*0.15</f>
+        <f t="shared" si="3"/>
         <v>52.166666666666671</v>
       </c>
     </row>
@@ -2528,7 +2528,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="16">
-        <f>SUM(D16:J16)*50/(L$1-K16)</f>
+        <f t="shared" si="0"/>
         <v>83.333333333333329</v>
       </c>
       <c r="M16" s="14">
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Q16" s="16">
-        <f>SUM(M16:O16)/(Q$1-P16)</f>
+        <f t="shared" si="1"/>
         <v>33.333333333333336</v>
       </c>
       <c r="R16" s="14">
@@ -2554,13 +2554,13 @@
         <v>60</v>
       </c>
       <c r="T16" s="16">
-        <f>SUM(R16:S16)/T$1</f>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="U16" s="6"/>
       <c r="V16" s="44"/>
       <c r="W16" s="21">
-        <f>L16*0.2+Q16*0.25+T16*0.25+U16*0.3+V16*0.15</f>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
     </row>
@@ -2599,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="16">
-        <f>SUM(D17:J17)*50/(L$1-K17)</f>
+        <f t="shared" si="0"/>
         <v>66.666666666666671</v>
       </c>
       <c r="M17" s="14">
@@ -2615,7 +2615,7 @@
         <v>0</v>
       </c>
       <c r="Q17" s="16">
-        <f>SUM(M17:O17)/(Q$1-P17)</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="R17" s="14">
@@ -2625,13 +2625,13 @@
         <v>0</v>
       </c>
       <c r="T17" s="16">
-        <f>SUM(R17:S17)/T$1</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="U17" s="6"/>
       <c r="V17" s="44"/>
       <c r="W17" s="21">
-        <f>L17*0.2+Q17*0.25+T17*0.25+U17*0.3+V17*0.15</f>
+        <f t="shared" si="3"/>
         <v>33.333333333333336</v>
       </c>
     </row>
@@ -2670,7 +2670,7 @@
         <v>3</v>
       </c>
       <c r="L18" s="16">
-        <f>SUM(D18:J18)*50/(L$1-K18)</f>
+        <f t="shared" si="0"/>
         <v>66.666666666666671</v>
       </c>
       <c r="M18" s="55" t="s">
@@ -2686,7 +2686,7 @@
         <v>1</v>
       </c>
       <c r="Q18" s="16">
-        <f>SUM(M18:O18)/(Q$1-P18)</f>
+        <f t="shared" si="1"/>
         <v>62.5</v>
       </c>
       <c r="R18" s="14">
@@ -2696,7 +2696,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="16">
-        <f>SUM(R18:S18)/T$1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U18" s="6"/>
@@ -2742,7 +2742,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="16">
-        <f>SUM(D19:J19)*50/(L$1-K19)</f>
+        <f t="shared" si="0"/>
         <v>16.666666666666668</v>
       </c>
       <c r="M19" s="14">
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="Q19" s="16">
-        <f>SUM(M19:O19)/(Q$1-P19)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R19" s="14">
@@ -2768,7 +2768,7 @@
         <v>60</v>
       </c>
       <c r="T19" s="16">
-        <f>SUM(R19:S19)/T$1</f>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="U19" s="6"/>
@@ -2813,7 +2813,7 @@
         <v>1</v>
       </c>
       <c r="L20" s="16">
-        <f>SUM(D20:J20)*50/(L$1-K20)</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="M20" s="14">
@@ -2829,7 +2829,7 @@
         <v>0</v>
       </c>
       <c r="Q20" s="16">
-        <f>SUM(M20:O20)/(Q$1-P20)</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="R20" s="14">
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="16">
-        <f>SUM(R20:S20)/T$1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U20" s="6"/>
@@ -2879,14 +2879,14 @@
         <v>0.9</v>
       </c>
       <c r="J21" s="7">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K21" s="48">
         <v>0</v>
       </c>
       <c r="L21" s="16">
-        <f>SUM(D21:J21)*50/(L$1-K21)</f>
-        <v>7.5</v>
+        <f t="shared" si="0"/>
+        <v>11.666666666666666</v>
       </c>
       <c r="M21" s="14">
         <v>0</v>
@@ -2901,7 +2901,7 @@
         <v>0</v>
       </c>
       <c r="Q21" s="16">
-        <f>SUM(M21:O21)/(Q$1-P21)</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="R21" s="14">
@@ -2911,14 +2911,14 @@
         <v>0</v>
       </c>
       <c r="T21" s="16">
-        <f>SUM(R21:S21)/T$1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U21" s="6"/>
       <c r="V21" s="44"/>
       <c r="W21" s="21">
         <f>L21*0.2+Q21*0.25+T21*0.25+U21*0.3+V21*0.1</f>
-        <v>11.5</v>
+        <v>12.333333333333334</v>
       </c>
       <c r="X21" s="9"/>
     </row>
@@ -2957,7 +2957,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="63">
-        <f>SUM(D22:J22)*50/(L$1-K22)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M22" s="64">
@@ -2973,7 +2973,7 @@
         <v>0</v>
       </c>
       <c r="Q22" s="63">
-        <f>SUM(M22:O22)/(Q$1-P22)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R22" s="64">
@@ -2983,13 +2983,13 @@
         <v>0</v>
       </c>
       <c r="T22" s="63">
-        <f>SUM(R22:S22)/T$1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U22" s="65"/>
       <c r="V22" s="66"/>
       <c r="W22" s="67">
-        <f>L22*0.2+Q22*0.25+T22*0.25+U22*0.3+V22*0.15</f>
+        <f t="shared" ref="W22:W29" si="4">L22*0.2+Q22*0.25+T22*0.25+U22*0.3+V22*0.15</f>
         <v>0</v>
       </c>
     </row>
@@ -3028,7 +3028,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="63">
-        <f>SUM(D23:J23)*50/(L$1-K23)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M23" s="64">
@@ -3044,7 +3044,7 @@
         <v>0</v>
       </c>
       <c r="Q23" s="63">
-        <f>SUM(M23:O23)/(Q$1-P23)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R23" s="64">
@@ -3054,13 +3054,13 @@
         <v>0</v>
       </c>
       <c r="T23" s="63">
-        <f>SUM(R23:S23)/T$1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U23" s="65"/>
       <c r="V23" s="66"/>
       <c r="W23" s="67">
-        <f>L23*0.2+Q23*0.25+T23*0.25+U23*0.3+V23*0.15</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3099,7 +3099,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="63">
-        <f>SUM(D24:J24)*50/(L$1-K24)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M24" s="64">
@@ -3115,7 +3115,7 @@
         <v>0</v>
       </c>
       <c r="Q24" s="63">
-        <f>SUM(M24:O24)/(Q$1-P24)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R24" s="64">
@@ -3125,13 +3125,13 @@
         <v>0</v>
       </c>
       <c r="T24" s="63">
-        <f>SUM(R24:S24)/T$1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U24" s="65"/>
       <c r="V24" s="66"/>
       <c r="W24" s="67">
-        <f>L24*0.2+Q24*0.25+T24*0.25+U24*0.3+V24*0.15</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3170,7 +3170,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="63">
-        <f>SUM(D25:J25)*50/(L$1-K25)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M25" s="64">
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="Q25" s="63">
-        <f>SUM(M25:O25)/(Q$1-P25)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R25" s="64">
@@ -3196,13 +3196,13 @@
         <v>0</v>
       </c>
       <c r="T25" s="63">
-        <f>SUM(R25:S25)/T$1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U25" s="65"/>
       <c r="V25" s="66"/>
       <c r="W25" s="67">
-        <f>L25*0.2+Q25*0.25+T25*0.25+U25*0.3+V25*0.15</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3241,7 +3241,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="63">
-        <f>SUM(D26:J26)*50/(L$1-K26)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M26" s="64">
@@ -3257,7 +3257,7 @@
         <v>0</v>
       </c>
       <c r="Q26" s="63">
-        <f>SUM(M26:O26)/(Q$1-P26)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R26" s="64">
@@ -3267,13 +3267,13 @@
         <v>0</v>
       </c>
       <c r="T26" s="63">
-        <f>SUM(R26:S26)/T$1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U26" s="65"/>
       <c r="V26" s="66"/>
       <c r="W26" s="67">
-        <f>L26*0.2+Q26*0.25+T26*0.25+U26*0.3+V26*0.15</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3312,7 +3312,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="63">
-        <f>SUM(D27:J27)*50/(L$1-K27)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M27" s="64">
@@ -3328,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="Q27" s="63">
-        <f>SUM(M27:O27)/(Q$1-P27)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R27" s="64">
@@ -3338,13 +3338,13 @@
         <v>0</v>
       </c>
       <c r="T27" s="63">
-        <f>SUM(R27:S27)/T$1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U27" s="65"/>
       <c r="V27" s="66"/>
       <c r="W27" s="67">
-        <f>L27*0.2+Q27*0.25+T27*0.25+U27*0.3+V27*0.15</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3383,7 +3383,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="63">
-        <f>SUM(D28:J28)*50/(L$1-K28)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M28" s="64">
@@ -3399,7 +3399,7 @@
         <v>0</v>
       </c>
       <c r="Q28" s="63">
-        <f>SUM(M28:O28)/(Q$1-P28)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R28" s="64">
@@ -3409,13 +3409,13 @@
         <v>0</v>
       </c>
       <c r="T28" s="63">
-        <f>SUM(R28:S28)/T$1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U28" s="65"/>
       <c r="V28" s="66"/>
       <c r="W28" s="67">
-        <f>L28*0.2+Q28*0.25+T28*0.25+U28*0.3+V28*0.15</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3454,7 +3454,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="63">
-        <f>SUM(D29:J29)*50/(L$1-K29)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M29" s="64">
@@ -3470,7 +3470,7 @@
         <v>0</v>
       </c>
       <c r="Q29" s="63">
-        <f>SUM(M29:O29)/(Q$1-P29)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R29" s="64">
@@ -3480,13 +3480,13 @@
         <v>0</v>
       </c>
       <c r="T29" s="63">
-        <f>SUM(R29:S29)/T$1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U29" s="65"/>
       <c r="V29" s="66"/>
       <c r="W29" s="67">
-        <f>L29*0.2+Q29*0.25+T29*0.25+U29*0.3+V29*0.15</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3525,7 +3525,7 @@
         <v>0</v>
       </c>
       <c r="L30" s="63">
-        <f>SUM(D30:J30)*50/(L$1-K30)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M30" s="64">
@@ -3541,7 +3541,7 @@
         <v>0</v>
       </c>
       <c r="Q30" s="63">
-        <f>SUM(M30:O30)/(Q$1-P30)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R30" s="64">
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="63">
-        <f>SUM(R30:S30)/T$1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U30" s="65"/>

--- a/AdvancedJava/_docs/Notlar.xlsx
+++ b/AdvancedJava/_docs/Notlar.xlsx
@@ -39,6 +39,33 @@
         </r>
       </text>
     </comment>
+    <comment ref="R1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Sari, Ozkan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+1: geç gönderim + açılmayan rar
+2: açılmayan rar
+(-) : kopya/benzer
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -68,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="101">
   <si>
     <t>Adı</t>
   </si>
@@ -368,6 +395,9 @@
   </si>
   <si>
     <t>ÖDEV (%25)</t>
+  </si>
+  <si>
+    <t>,</t>
   </si>
 </sst>
 </file>
@@ -377,7 +407,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -434,6 +464,19 @@
       <color theme="2" tint="-0.249977111117893"/>
       <name val="Arial Narrow"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1425,7 +1468,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J22" sqref="J22"/>
+      <selection pane="bottomLeft" activeCell="W19" sqref="W19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1498,7 +1541,7 @@
     </row>
     <row r="2" spans="1:24" s="5" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>0</v>
@@ -1602,7 +1645,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="16">
-        <f t="shared" ref="L3:L30" si="0">SUM(D3:J3)*50/(L$1-K3)</f>
+        <f>SUM(D3:J3)*50/(L$1-K3)</f>
         <v>116.66666666666667</v>
       </c>
       <c r="M3" s="14">
@@ -1618,24 +1661,24 @@
         <v>0</v>
       </c>
       <c r="Q3" s="16">
-        <f t="shared" ref="Q3:Q30" si="1">SUM(M3:O3)/(Q$1-P3)</f>
+        <f>SUM(M3:O3)/(Q$1-P3)</f>
         <v>100</v>
       </c>
       <c r="R3" s="14">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="S3" s="14">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="T3" s="16">
-        <f t="shared" ref="T3:T30" si="2">SUM(R3:S3)/T$1</f>
-        <v>60</v>
+        <f>SUM(R3:S3)/T$1</f>
+        <v>100</v>
       </c>
       <c r="U3" s="6"/>
       <c r="V3" s="44"/>
       <c r="W3" s="21">
         <f>L3*0.2+Q3*0.25+T3*0.25+U3*0.3+V3*0.15</f>
-        <v>63.333333333333336</v>
+        <v>73.333333333333343</v>
       </c>
       <c r="X3" s="1" t="s">
         <v>37</v>
@@ -1643,16 +1686,16 @@
     </row>
     <row r="4" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="D4" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7">
         <v>2</v>
@@ -1676,51 +1719,51 @@
         <v>0</v>
       </c>
       <c r="L4" s="16">
-        <f t="shared" si="0"/>
-        <v>116.66666666666667</v>
+        <f>SUM(D4:J4)*50/(L$1-K4)</f>
+        <v>100</v>
       </c>
       <c r="M4" s="14">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="N4" s="6">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="O4" s="6">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="P4" s="48">
         <v>0</v>
       </c>
       <c r="Q4" s="16">
-        <f t="shared" si="1"/>
-        <v>95</v>
+        <f>SUM(M4:O4)/(Q$1-P4)</f>
+        <v>83.333333333333329</v>
       </c>
       <c r="R4" s="14">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="S4" s="14">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="T4" s="16">
-        <f t="shared" si="2"/>
-        <v>60</v>
+        <f>SUM(R4:S4)/T$1</f>
+        <v>52.5</v>
       </c>
       <c r="U4" s="6"/>
       <c r="V4" s="44"/>
       <c r="W4" s="21">
         <f>L4*0.2+Q4*0.25+T4*0.25+U4*0.3+V4*0.15</f>
-        <v>62.083333333333336</v>
+        <v>53.958333333333329</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="D5" s="12">
         <v>0</v>
@@ -1747,14 +1790,14 @@
         <v>0</v>
       </c>
       <c r="L5" s="16">
-        <f t="shared" si="0"/>
+        <f>SUM(D5:J5)*50/(L$1-K5)</f>
         <v>100</v>
       </c>
       <c r="M5" s="14">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="N5" s="6">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="O5" s="6">
         <v>90</v>
@@ -1763,38 +1806,38 @@
         <v>0</v>
       </c>
       <c r="Q5" s="16">
-        <f t="shared" si="1"/>
-        <v>95</v>
+        <f>SUM(M5:O5)/(Q$1-P5)</f>
+        <v>93.333333333333329</v>
       </c>
       <c r="R5" s="14">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="S5" s="14">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="T5" s="16">
-        <f t="shared" si="2"/>
-        <v>60</v>
+        <f>SUM(R5:S5)/T$1</f>
+        <v>41</v>
       </c>
       <c r="U5" s="6"/>
       <c r="V5" s="44"/>
       <c r="W5" s="21">
-        <f>L5*0.2+Q5*0.25+T5*0.25+U5*0.3+V5*0.15</f>
-        <v>58.75</v>
+        <f>L5*0.2+Q5*0.25+T5*0.25+U5*0.3+V5*0.1</f>
+        <v>53.583333333333329</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="D6" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E6" s="7">
         <v>2</v>
@@ -1812,60 +1855,60 @@
         <v>2</v>
       </c>
       <c r="J6" s="7">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="K6" s="48">
         <v>0</v>
       </c>
       <c r="L6" s="16">
-        <f t="shared" si="0"/>
-        <v>100</v>
+        <f>SUM(D6:J6)*50/(L$1-K6)</f>
+        <v>115</v>
       </c>
       <c r="M6" s="14">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="N6" s="6">
         <v>90</v>
       </c>
       <c r="O6" s="6">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="P6" s="48">
         <v>0</v>
       </c>
       <c r="Q6" s="16">
-        <f t="shared" si="1"/>
-        <v>93.333333333333329</v>
+        <f>SUM(M6:O6)/(Q$1-P6)</f>
+        <v>75</v>
       </c>
       <c r="R6" s="14">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="S6" s="14">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="T6" s="16">
-        <f t="shared" si="2"/>
-        <v>60</v>
+        <f>SUM(R6:S6)/T$1</f>
+        <v>42.5</v>
       </c>
       <c r="U6" s="6"/>
       <c r="V6" s="44"/>
       <c r="W6" s="21">
-        <f>L6*0.2+Q6*0.25+T6*0.25+U6*0.3+V6*0.1</f>
-        <v>58.333333333333329</v>
+        <f>L6*0.2+Q6*0.25+T6*0.25+U6*0.3+V6*0.15</f>
+        <v>52.375</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D7" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E7" s="7">
         <v>2</v>
@@ -1883,57 +1926,57 @@
         <v>2</v>
       </c>
       <c r="J7" s="7">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="K7" s="48">
         <v>0</v>
       </c>
       <c r="L7" s="16">
-        <f t="shared" si="0"/>
-        <v>100</v>
+        <f>SUM(D7:J7)*50/(L$1-K7)</f>
+        <v>115</v>
       </c>
       <c r="M7" s="14">
+        <v>80</v>
+      </c>
+      <c r="N7" s="6">
         <v>90</v>
       </c>
-      <c r="N7" s="6">
-        <v>100</v>
-      </c>
       <c r="O7" s="6">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="P7" s="48">
         <v>0</v>
       </c>
       <c r="Q7" s="16">
-        <f t="shared" si="1"/>
-        <v>93.333333333333329</v>
+        <f>SUM(M7:O7)/(Q$1-P7)</f>
+        <v>76.666666666666671</v>
       </c>
       <c r="R7" s="14">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="S7" s="14">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="T7" s="16">
-        <f t="shared" si="2"/>
-        <v>60</v>
+        <f>SUM(R7:S7)/T$1</f>
+        <v>35</v>
       </c>
       <c r="U7" s="6"/>
       <c r="V7" s="44"/>
       <c r="W7" s="21">
-        <f t="shared" ref="W7:W17" si="3">L7*0.2+Q7*0.25+T7*0.25+U7*0.3+V7*0.15</f>
-        <v>58.333333333333329</v>
+        <f>L7*0.2+Q7*0.25+T7*0.25+U7*0.3+V7*0.15</f>
+        <v>50.916666666666671</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D8" s="12">
         <v>0</v>
@@ -1947,21 +1990,21 @@
       <c r="G8" s="7">
         <v>2</v>
       </c>
-      <c r="H8" s="51" t="s">
-        <v>95</v>
+      <c r="H8" s="51">
+        <v>2</v>
       </c>
       <c r="I8" s="7">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="J8" s="7">
         <v>2</v>
       </c>
-      <c r="K8" s="49">
-        <v>1</v>
+      <c r="K8" s="48">
+        <v>0</v>
       </c>
       <c r="L8" s="16">
-        <f t="shared" si="0"/>
-        <v>98.000000000000014</v>
+        <f>SUM(D8:J8)*50/(L$1-K8)</f>
+        <v>100</v>
       </c>
       <c r="M8" s="14">
         <v>95</v>
@@ -1970,41 +2013,41 @@
         <v>100</v>
       </c>
       <c r="O8" s="6">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="P8" s="48">
         <v>0</v>
       </c>
       <c r="Q8" s="16">
-        <f t="shared" si="1"/>
-        <v>91.666666666666671</v>
+        <f>SUM(M8:O8)/(Q$1-P8)</f>
+        <v>95</v>
       </c>
       <c r="R8" s="14">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="S8" s="14">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="T8" s="16">
-        <f t="shared" si="2"/>
-        <v>60</v>
+        <f>SUM(R8:S8)/T$1</f>
+        <v>16</v>
       </c>
       <c r="U8" s="6"/>
       <c r="V8" s="44"/>
       <c r="W8" s="21">
-        <f t="shared" si="3"/>
-        <v>57.516666666666673</v>
+        <f>L8*0.2+Q8*0.25+T8*0.25+U8*0.3+V8*0.15</f>
+        <v>47.75</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="D9" s="12">
         <v>2</v>
@@ -2025,57 +2068,57 @@
         <v>2</v>
       </c>
       <c r="J9" s="7">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="K9" s="48">
         <v>0</v>
       </c>
       <c r="L9" s="16">
-        <f t="shared" si="0"/>
-        <v>115</v>
+        <f>SUM(D9:J9)*50/(L$1-K9)</f>
+        <v>116.66666666666667</v>
       </c>
       <c r="M9" s="14">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="N9" s="6">
+        <v>100</v>
+      </c>
+      <c r="O9" s="6">
         <v>90</v>
       </c>
-      <c r="O9" s="6">
-        <v>60</v>
-      </c>
       <c r="P9" s="48">
         <v>0</v>
       </c>
       <c r="Q9" s="16">
-        <f t="shared" si="1"/>
-        <v>76.666666666666671</v>
+        <f>SUM(M9:O9)/(Q$1-P9)</f>
+        <v>95</v>
       </c>
       <c r="R9" s="14">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="S9" s="14">
-        <v>60</v>
+        <v>-50</v>
       </c>
       <c r="T9" s="16">
-        <f t="shared" si="2"/>
-        <v>60</v>
+        <f>SUM(R9:S9)/T$1</f>
+        <v>-5</v>
       </c>
       <c r="U9" s="6"/>
       <c r="V9" s="44"/>
       <c r="W9" s="21">
-        <f t="shared" si="3"/>
-        <v>57.166666666666671</v>
+        <f>L9*0.2+Q9*0.25+T9*0.25+U9*0.3+V9*0.15</f>
+        <v>45.833333333333336</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="D10" s="12">
         <v>0</v>
@@ -2087,10 +2130,10 @@
         <v>2</v>
       </c>
       <c r="G10" s="7">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="H10" s="51">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="I10" s="7">
         <v>2</v>
@@ -2102,51 +2145,51 @@
         <v>0</v>
       </c>
       <c r="L10" s="16">
-        <f t="shared" si="0"/>
-        <v>98.333333333333329</v>
+        <f>SUM(D10:J10)*50/(L$1-K10)</f>
+        <v>97.5</v>
       </c>
       <c r="M10" s="14">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="N10" s="6">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="O10" s="6">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="P10" s="48">
         <v>0</v>
       </c>
       <c r="Q10" s="16">
-        <f t="shared" si="1"/>
-        <v>86.666666666666671</v>
+        <f>SUM(M10:O10)/(Q$1-P10)</f>
+        <v>75</v>
       </c>
       <c r="R10" s="14">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="S10" s="14">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="T10" s="16">
-        <f t="shared" si="2"/>
-        <v>60</v>
+        <f>SUM(R10:S10)/T$1</f>
+        <v>21</v>
       </c>
       <c r="U10" s="6"/>
       <c r="V10" s="44"/>
       <c r="W10" s="21">
-        <f t="shared" si="3"/>
-        <v>56.333333333333336</v>
+        <f>L10*0.2+Q10*0.25+T10*0.25+U10*0.3+V10*0.15</f>
+        <v>43.5</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="D11" s="12">
         <v>0</v>
@@ -2173,51 +2216,51 @@
         <v>0</v>
       </c>
       <c r="L11" s="16">
-        <f t="shared" si="0"/>
+        <f>SUM(D11:J11)*50/(L$1-K11)</f>
         <v>100</v>
       </c>
       <c r="M11" s="14">
         <v>90</v>
       </c>
       <c r="N11" s="6">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="O11" s="6">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="P11" s="48">
         <v>0</v>
       </c>
       <c r="Q11" s="16">
-        <f t="shared" si="1"/>
-        <v>83.333333333333329</v>
+        <f>SUM(M11:O11)/(Q$1-P11)</f>
+        <v>93.333333333333329</v>
       </c>
       <c r="R11" s="14">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="S11" s="14">
-        <v>60</v>
+        <v>-50</v>
       </c>
       <c r="T11" s="16">
-        <f t="shared" si="2"/>
-        <v>60</v>
+        <f>SUM(R11:S11)/T$1</f>
+        <v>-5</v>
       </c>
       <c r="U11" s="6"/>
       <c r="V11" s="44"/>
       <c r="W11" s="21">
-        <f t="shared" si="3"/>
-        <v>55.833333333333329</v>
+        <f>L11*0.2+Q11*0.25+T11*0.25+U11*0.3+V11*0.15</f>
+        <v>42.083333333333329</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D12" s="12">
         <v>0</v>
@@ -2226,7 +2269,7 @@
         <v>2</v>
       </c>
       <c r="F12" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G12" s="7">
         <v>2</v>
@@ -2235,7 +2278,7 @@
         <v>2</v>
       </c>
       <c r="I12" s="7">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="J12" s="7">
         <v>2</v>
@@ -2244,8 +2287,8 @@
         <v>0</v>
       </c>
       <c r="L12" s="16">
-        <f t="shared" si="0"/>
-        <v>100</v>
+        <f>SUM(D12:J12)*50/(L$1-K12)</f>
+        <v>81.666666666666671</v>
       </c>
       <c r="M12" s="14">
         <v>90</v>
@@ -2254,44 +2297,44 @@
         <v>100</v>
       </c>
       <c r="O12" s="6">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="P12" s="48">
         <v>0</v>
       </c>
       <c r="Q12" s="16">
-        <f t="shared" si="1"/>
-        <v>90</v>
+        <f>SUM(M12:O12)/(Q$1-P12)</f>
+        <v>93.333333333333329</v>
       </c>
       <c r="R12" s="14">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="S12" s="14">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="T12" s="16">
-        <f t="shared" si="2"/>
-        <v>50</v>
+        <f>SUM(R12:S12)/T$1</f>
+        <v>1.5</v>
       </c>
       <c r="U12" s="6"/>
       <c r="V12" s="44"/>
       <c r="W12" s="21">
-        <f t="shared" si="3"/>
-        <v>55</v>
+        <f>L12*0.2+Q12*0.25+T12*0.25+U12*0.3+V12*0.15</f>
+        <v>40.041666666666671</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="D13" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7">
         <v>2</v>
@@ -2300,7 +2343,7 @@
         <v>2</v>
       </c>
       <c r="G13" s="7">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="H13" s="51">
         <v>2</v>
@@ -2309,57 +2352,57 @@
         <v>2</v>
       </c>
       <c r="J13" s="7">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="K13" s="48">
         <v>0</v>
       </c>
       <c r="L13" s="16">
-        <f t="shared" si="0"/>
-        <v>115</v>
+        <f>SUM(D13:J13)*50/(L$1-K13)</f>
+        <v>98.333333333333329</v>
       </c>
       <c r="M13" s="14">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="N13" s="6">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="O13" s="6">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="P13" s="48">
         <v>0</v>
       </c>
       <c r="Q13" s="16">
-        <f t="shared" si="1"/>
-        <v>75</v>
+        <f>SUM(M13:O13)/(Q$1-P13)</f>
+        <v>86.666666666666671</v>
       </c>
       <c r="R13" s="14">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="S13" s="14">
-        <v>60</v>
+        <v>-50</v>
       </c>
       <c r="T13" s="16">
-        <f t="shared" si="2"/>
-        <v>50</v>
+        <f>SUM(R13:S13)/T$1</f>
+        <v>-15</v>
       </c>
       <c r="U13" s="6"/>
       <c r="V13" s="44"/>
       <c r="W13" s="21">
-        <f t="shared" si="3"/>
-        <v>54.25</v>
+        <f>L13*0.2+Q13*0.25+T13*0.25+U13*0.3+V13*0.15</f>
+        <v>37.583333333333336</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="D14" s="12">
         <v>0</v>
@@ -2373,64 +2416,64 @@
       <c r="G14" s="7">
         <v>2</v>
       </c>
-      <c r="H14" s="51">
-        <v>1.7</v>
+      <c r="H14" s="51" t="s">
+        <v>95</v>
       </c>
       <c r="I14" s="7">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="J14" s="7">
         <v>2</v>
       </c>
-      <c r="K14" s="48">
-        <v>0</v>
+      <c r="K14" s="49">
+        <v>1</v>
       </c>
       <c r="L14" s="16">
-        <f t="shared" si="0"/>
-        <v>97.5</v>
+        <f>SUM(D14:J14)*50/(L$1-K14)</f>
+        <v>98.000000000000014</v>
       </c>
       <c r="M14" s="14">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="N14" s="6">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="O14" s="6">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="P14" s="48">
         <v>0</v>
       </c>
       <c r="Q14" s="16">
-        <f t="shared" si="1"/>
-        <v>75</v>
+        <f>SUM(M14:O14)/(Q$1-P14)</f>
+        <v>91.666666666666671</v>
       </c>
       <c r="R14" s="14">
-        <v>60</v>
+        <v>-50</v>
       </c>
       <c r="S14" s="14">
-        <v>60</v>
+        <v>-50</v>
       </c>
       <c r="T14" s="16">
-        <f t="shared" si="2"/>
-        <v>60</v>
+        <f>SUM(R14:S14)/T$1</f>
+        <v>-50</v>
       </c>
       <c r="U14" s="6"/>
       <c r="V14" s="44"/>
       <c r="W14" s="21">
-        <f t="shared" si="3"/>
-        <v>53.25</v>
+        <f>L14*0.2+Q14*0.25+T14*0.25+U14*0.3+V14*0.15</f>
+        <v>30.016666666666673</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="D15" s="12">
         <v>0</v>
@@ -2439,7 +2482,7 @@
         <v>2</v>
       </c>
       <c r="F15" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G15" s="7">
         <v>2</v>
@@ -2448,7 +2491,7 @@
         <v>2</v>
       </c>
       <c r="I15" s="7">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="J15" s="7">
         <v>2</v>
@@ -2457,8 +2500,8 @@
         <v>0</v>
       </c>
       <c r="L15" s="16">
-        <f t="shared" si="0"/>
-        <v>81.666666666666671</v>
+        <f>SUM(D15:J15)*50/(L$1-K15)</f>
+        <v>100</v>
       </c>
       <c r="M15" s="14">
         <v>90</v>
@@ -2467,101 +2510,101 @@
         <v>100</v>
       </c>
       <c r="O15" s="6">
+        <v>80</v>
+      </c>
+      <c r="P15" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="16">
+        <f>SUM(M15:O15)/(Q$1-P15)</f>
         <v>90</v>
       </c>
-      <c r="P15" s="48">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="16">
-        <f t="shared" si="1"/>
-        <v>93.333333333333329</v>
-      </c>
       <c r="R15" s="14">
-        <v>40</v>
+        <v>-50</v>
       </c>
       <c r="S15" s="14">
-        <v>60</v>
+        <v>-50</v>
       </c>
       <c r="T15" s="16">
-        <f t="shared" si="2"/>
-        <v>50</v>
+        <f>SUM(R15:S15)/T$1</f>
+        <v>-50</v>
       </c>
       <c r="U15" s="6"/>
       <c r="V15" s="44"/>
       <c r="W15" s="21">
-        <f t="shared" si="3"/>
-        <v>52.166666666666671</v>
+        <f>L15*0.2+Q15*0.25+T15*0.25+U15*0.3+V15*0.15</f>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" s="12">
+        <v>0</v>
+      </c>
+      <c r="E16" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="F16" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="G16" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="H16" s="51">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>2</v>
+      </c>
+      <c r="J16" s="7">
+        <v>2</v>
+      </c>
+      <c r="K16" s="48">
+        <v>3</v>
+      </c>
+      <c r="L16" s="16">
+        <f>SUM(D16:J16)*50/(L$1-K16)</f>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="M16" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="N16" s="6">
+        <v>75</v>
+      </c>
+      <c r="O16" s="6">
         <v>50</v>
       </c>
-      <c r="C16" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="12">
-        <v>2</v>
-      </c>
-      <c r="E16" s="7">
-        <v>2</v>
-      </c>
-      <c r="F16" s="7">
-        <v>2</v>
-      </c>
-      <c r="G16" s="7">
-        <v>0</v>
-      </c>
-      <c r="H16" s="51">
-        <v>2</v>
-      </c>
-      <c r="I16" s="7">
-        <v>2</v>
-      </c>
-      <c r="J16" s="7">
-        <v>0</v>
-      </c>
-      <c r="K16" s="48">
-        <v>0</v>
-      </c>
-      <c r="L16" s="16">
-        <f t="shared" si="0"/>
-        <v>83.333333333333329</v>
-      </c>
-      <c r="M16" s="14">
-        <v>0</v>
-      </c>
-      <c r="N16" s="6">
-        <v>100</v>
-      </c>
-      <c r="O16" s="6">
-        <v>0</v>
-      </c>
       <c r="P16" s="48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="16">
-        <f t="shared" si="1"/>
-        <v>33.333333333333336</v>
+        <f>SUM(M16:O16)/(Q$1-P16)</f>
+        <v>62.5</v>
       </c>
       <c r="R16" s="14">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="S16" s="14">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="T16" s="16">
-        <f t="shared" si="2"/>
-        <v>60</v>
+        <f>SUM(R16:S16)/T$1</f>
+        <v>0</v>
       </c>
       <c r="U16" s="6"/>
       <c r="V16" s="44"/>
       <c r="W16" s="21">
-        <f t="shared" si="3"/>
-        <v>40</v>
+        <f>L16*0.2+Q16*0.25+T16*0.25+U16*0.3+V16*0.1</f>
+        <v>28.958333333333336</v>
       </c>
     </row>
     <row r="17" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2599,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="16">
-        <f t="shared" si="0"/>
+        <f>SUM(D17:J17)*50/(L$1-K17)</f>
         <v>66.666666666666671</v>
       </c>
       <c r="M17" s="14">
@@ -2615,116 +2658,116 @@
         <v>0</v>
       </c>
       <c r="Q17" s="16">
-        <f t="shared" si="1"/>
+        <f>SUM(M17:O17)/(Q$1-P17)</f>
         <v>60</v>
       </c>
       <c r="R17" s="14">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="S17" s="14">
         <v>0</v>
       </c>
       <c r="T17" s="16">
-        <f t="shared" si="2"/>
-        <v>20</v>
+        <f>SUM(R17:S17)/T$1</f>
+        <v>0.5</v>
       </c>
       <c r="U17" s="6"/>
       <c r="V17" s="44"/>
       <c r="W17" s="21">
-        <f t="shared" si="3"/>
-        <v>33.333333333333336</v>
+        <f>L17*0.2+Q17*0.25+T17*0.25+U17*0.3+V17*0.15</f>
+        <v>28.458333333333336</v>
       </c>
     </row>
     <row r="18" spans="1:24" s="47" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D18" s="12">
         <v>0</v>
       </c>
-      <c r="E18" s="54" t="s">
-        <v>95</v>
-      </c>
-      <c r="F18" s="54" t="s">
-        <v>95</v>
-      </c>
-      <c r="G18" s="54" t="s">
-        <v>95</v>
+      <c r="E18" s="12">
+        <v>0</v>
+      </c>
+      <c r="F18" s="12">
+        <v>0</v>
+      </c>
+      <c r="G18" s="12">
+        <v>0</v>
       </c>
       <c r="H18" s="51">
         <v>0</v>
       </c>
       <c r="I18" s="7">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="J18" s="7">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="K18" s="48">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L18" s="16">
-        <f t="shared" si="0"/>
-        <v>66.666666666666671</v>
-      </c>
-      <c r="M18" s="55" t="s">
-        <v>95</v>
+        <f>SUM(D18:J18)*50/(L$1-K18)</f>
+        <v>11.666666666666666</v>
+      </c>
+      <c r="M18" s="14">
+        <v>0</v>
       </c>
       <c r="N18" s="6">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="O18" s="6">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="P18" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="16">
+        <f>SUM(M18:O18)/(Q$1-P18)</f>
+        <v>40</v>
+      </c>
+      <c r="R18" s="14">
         <v>1</v>
       </c>
-      <c r="Q18" s="16">
-        <f t="shared" si="1"/>
-        <v>62.5</v>
-      </c>
-      <c r="R18" s="14">
-        <v>0</v>
-      </c>
       <c r="S18" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T18" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>SUM(R18:S18)/T$1</f>
+        <v>1</v>
       </c>
       <c r="U18" s="6"/>
       <c r="V18" s="44"/>
       <c r="W18" s="21">
         <f>L18*0.2+Q18*0.25+T18*0.25+U18*0.3+V18*0.1</f>
-        <v>28.958333333333336</v>
-      </c>
-      <c r="X18" s="1"/>
+        <v>12.583333333333334</v>
+      </c>
+      <c r="X18" s="9"/>
     </row>
     <row r="19" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D19" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E19" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F19" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G19" s="12">
         <v>0</v>
@@ -2733,7 +2776,7 @@
         <v>2</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J19" s="7">
         <v>0</v>
@@ -2742,14 +2785,14 @@
         <v>0</v>
       </c>
       <c r="L19" s="16">
-        <f t="shared" si="0"/>
-        <v>16.666666666666668</v>
+        <f>SUM(D19:J19)*50/(L$1-K19)</f>
+        <v>83.333333333333329</v>
       </c>
       <c r="M19" s="14">
         <v>0</v>
       </c>
       <c r="N19" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O19" s="6">
         <v>0</v>
@@ -2758,24 +2801,24 @@
         <v>0</v>
       </c>
       <c r="Q19" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(M19:O19)/(Q$1-P19)</f>
+        <v>33.333333333333336</v>
       </c>
       <c r="R19" s="14">
-        <v>40</v>
+        <v>-50</v>
       </c>
       <c r="S19" s="14">
-        <v>60</v>
+        <v>-50</v>
       </c>
       <c r="T19" s="16">
-        <f t="shared" si="2"/>
-        <v>50</v>
+        <f>SUM(R19:S19)/T$1</f>
+        <v>-50</v>
       </c>
       <c r="U19" s="6"/>
       <c r="V19" s="44"/>
       <c r="W19" s="21">
         <f>L19*0.2+Q19*0.25+T19*0.25+U19*0.3+V19*0.15</f>
-        <v>15.833333333333334</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="20" spans="1:24" s="47" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2813,7 +2856,7 @@
         <v>1</v>
       </c>
       <c r="L20" s="16">
-        <f t="shared" si="0"/>
+        <f>SUM(D20:J20)*50/(L$1-K20)</f>
         <v>36</v>
       </c>
       <c r="M20" s="14">
@@ -2829,7 +2872,7 @@
         <v>0</v>
       </c>
       <c r="Q20" s="16">
-        <f t="shared" si="1"/>
+        <f>SUM(M20:O20)/(Q$1-P20)</f>
         <v>20</v>
       </c>
       <c r="R20" s="14">
@@ -2839,7 +2882,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="16">
-        <f t="shared" si="2"/>
+        <f>SUM(R20:S20)/T$1</f>
         <v>0</v>
       </c>
       <c r="U20" s="6"/>
@@ -2852,13 +2895,13 @@
     </row>
     <row r="21" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="D21" s="12">
         <v>0</v>
@@ -2873,54 +2916,53 @@
         <v>0</v>
       </c>
       <c r="H21" s="51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" s="7">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="J21" s="7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K21" s="48">
         <v>0</v>
       </c>
       <c r="L21" s="16">
-        <f t="shared" si="0"/>
-        <v>11.666666666666666</v>
+        <f>SUM(D21:J21)*50/(L$1-K21)</f>
+        <v>16.666666666666668</v>
       </c>
       <c r="M21" s="14">
         <v>0</v>
       </c>
       <c r="N21" s="6">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="O21" s="6">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="P21" s="48">
         <v>0</v>
       </c>
       <c r="Q21" s="16">
-        <f t="shared" si="1"/>
-        <v>40</v>
+        <f>SUM(M21:O21)/(Q$1-P21)</f>
+        <v>0</v>
       </c>
       <c r="R21" s="14">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="S21" s="14">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="T21" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>SUM(R21:S21)/T$1</f>
+        <v>25</v>
       </c>
       <c r="U21" s="6"/>
       <c r="V21" s="44"/>
       <c r="W21" s="21">
-        <f>L21*0.2+Q21*0.25+T21*0.25+U21*0.3+V21*0.1</f>
-        <v>12.333333333333334</v>
-      </c>
-      <c r="X21" s="9"/>
+        <f>L21*0.2+Q21*0.25+T21*0.25+U21*0.3+V21*0.15</f>
+        <v>9.5833333333333339</v>
+      </c>
     </row>
     <row r="22" spans="1:24" s="68" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="56" t="s">
@@ -2957,7 +2999,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="63">
-        <f t="shared" si="0"/>
+        <f>SUM(D22:J22)*50/(L$1-K22)</f>
         <v>0</v>
       </c>
       <c r="M22" s="64">
@@ -2973,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="Q22" s="63">
-        <f t="shared" si="1"/>
+        <f>SUM(M22:O22)/(Q$1-P22)</f>
         <v>0</v>
       </c>
       <c r="R22" s="64">
@@ -2983,13 +3025,13 @@
         <v>0</v>
       </c>
       <c r="T22" s="63">
-        <f t="shared" si="2"/>
+        <f>SUM(R22:S22)/T$1</f>
         <v>0</v>
       </c>
       <c r="U22" s="65"/>
       <c r="V22" s="66"/>
       <c r="W22" s="67">
-        <f t="shared" ref="W22:W29" si="4">L22*0.2+Q22*0.25+T22*0.25+U22*0.3+V22*0.15</f>
+        <f>L22*0.2+Q22*0.25+T22*0.25+U22*0.3+V22*0.15</f>
         <v>0</v>
       </c>
     </row>
@@ -3028,7 +3070,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="63">
-        <f t="shared" si="0"/>
+        <f>SUM(D23:J23)*50/(L$1-K23)</f>
         <v>0</v>
       </c>
       <c r="M23" s="64">
@@ -3044,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="Q23" s="63">
-        <f t="shared" si="1"/>
+        <f>SUM(M23:O23)/(Q$1-P23)</f>
         <v>0</v>
       </c>
       <c r="R23" s="64">
@@ -3054,13 +3096,13 @@
         <v>0</v>
       </c>
       <c r="T23" s="63">
-        <f t="shared" si="2"/>
+        <f>SUM(R23:S23)/T$1</f>
         <v>0</v>
       </c>
       <c r="U23" s="65"/>
       <c r="V23" s="66"/>
       <c r="W23" s="67">
-        <f t="shared" si="4"/>
+        <f>L23*0.2+Q23*0.25+T23*0.25+U23*0.3+V23*0.15</f>
         <v>0</v>
       </c>
     </row>
@@ -3099,7 +3141,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="63">
-        <f t="shared" si="0"/>
+        <f>SUM(D24:J24)*50/(L$1-K24)</f>
         <v>0</v>
       </c>
       <c r="M24" s="64">
@@ -3115,7 +3157,7 @@
         <v>0</v>
       </c>
       <c r="Q24" s="63">
-        <f t="shared" si="1"/>
+        <f>SUM(M24:O24)/(Q$1-P24)</f>
         <v>0</v>
       </c>
       <c r="R24" s="64">
@@ -3125,13 +3167,13 @@
         <v>0</v>
       </c>
       <c r="T24" s="63">
-        <f t="shared" si="2"/>
+        <f>SUM(R24:S24)/T$1</f>
         <v>0</v>
       </c>
       <c r="U24" s="65"/>
       <c r="V24" s="66"/>
       <c r="W24" s="67">
-        <f t="shared" si="4"/>
+        <f>L24*0.2+Q24*0.25+T24*0.25+U24*0.3+V24*0.15</f>
         <v>0</v>
       </c>
     </row>
@@ -3170,7 +3212,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="63">
-        <f t="shared" si="0"/>
+        <f>SUM(D25:J25)*50/(L$1-K25)</f>
         <v>0</v>
       </c>
       <c r="M25" s="64">
@@ -3186,7 +3228,7 @@
         <v>0</v>
       </c>
       <c r="Q25" s="63">
-        <f t="shared" si="1"/>
+        <f>SUM(M25:O25)/(Q$1-P25)</f>
         <v>0</v>
       </c>
       <c r="R25" s="64">
@@ -3196,13 +3238,13 @@
         <v>0</v>
       </c>
       <c r="T25" s="63">
-        <f t="shared" si="2"/>
+        <f>SUM(R25:S25)/T$1</f>
         <v>0</v>
       </c>
       <c r="U25" s="65"/>
       <c r="V25" s="66"/>
       <c r="W25" s="67">
-        <f t="shared" si="4"/>
+        <f>L25*0.2+Q25*0.25+T25*0.25+U25*0.3+V25*0.15</f>
         <v>0</v>
       </c>
     </row>
@@ -3241,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="63">
-        <f t="shared" si="0"/>
+        <f>SUM(D26:J26)*50/(L$1-K26)</f>
         <v>0</v>
       </c>
       <c r="M26" s="64">
@@ -3257,7 +3299,7 @@
         <v>0</v>
       </c>
       <c r="Q26" s="63">
-        <f t="shared" si="1"/>
+        <f>SUM(M26:O26)/(Q$1-P26)</f>
         <v>0</v>
       </c>
       <c r="R26" s="64">
@@ -3267,13 +3309,13 @@
         <v>0</v>
       </c>
       <c r="T26" s="63">
-        <f t="shared" si="2"/>
+        <f>SUM(R26:S26)/T$1</f>
         <v>0</v>
       </c>
       <c r="U26" s="65"/>
       <c r="V26" s="66"/>
       <c r="W26" s="67">
-        <f t="shared" si="4"/>
+        <f>L26*0.2+Q26*0.25+T26*0.25+U26*0.3+V26*0.15</f>
         <v>0</v>
       </c>
     </row>
@@ -3312,7 +3354,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="63">
-        <f t="shared" si="0"/>
+        <f>SUM(D27:J27)*50/(L$1-K27)</f>
         <v>0</v>
       </c>
       <c r="M27" s="64">
@@ -3328,7 +3370,7 @@
         <v>0</v>
       </c>
       <c r="Q27" s="63">
-        <f t="shared" si="1"/>
+        <f>SUM(M27:O27)/(Q$1-P27)</f>
         <v>0</v>
       </c>
       <c r="R27" s="64">
@@ -3338,13 +3380,13 @@
         <v>0</v>
       </c>
       <c r="T27" s="63">
-        <f t="shared" si="2"/>
+        <f>SUM(R27:S27)/T$1</f>
         <v>0</v>
       </c>
       <c r="U27" s="65"/>
       <c r="V27" s="66"/>
       <c r="W27" s="67">
-        <f t="shared" si="4"/>
+        <f>L27*0.2+Q27*0.25+T27*0.25+U27*0.3+V27*0.15</f>
         <v>0</v>
       </c>
     </row>
@@ -3383,7 +3425,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="63">
-        <f t="shared" si="0"/>
+        <f>SUM(D28:J28)*50/(L$1-K28)</f>
         <v>0</v>
       </c>
       <c r="M28" s="64">
@@ -3399,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="Q28" s="63">
-        <f t="shared" si="1"/>
+        <f>SUM(M28:O28)/(Q$1-P28)</f>
         <v>0</v>
       </c>
       <c r="R28" s="64">
@@ -3409,13 +3451,13 @@
         <v>0</v>
       </c>
       <c r="T28" s="63">
-        <f t="shared" si="2"/>
+        <f>SUM(R28:S28)/T$1</f>
         <v>0</v>
       </c>
       <c r="U28" s="65"/>
       <c r="V28" s="66"/>
       <c r="W28" s="67">
-        <f t="shared" si="4"/>
+        <f>L28*0.2+Q28*0.25+T28*0.25+U28*0.3+V28*0.15</f>
         <v>0</v>
       </c>
     </row>
@@ -3454,7 +3496,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="63">
-        <f t="shared" si="0"/>
+        <f>SUM(D29:J29)*50/(L$1-K29)</f>
         <v>0</v>
       </c>
       <c r="M29" s="64">
@@ -3470,7 +3512,7 @@
         <v>0</v>
       </c>
       <c r="Q29" s="63">
-        <f t="shared" si="1"/>
+        <f>SUM(M29:O29)/(Q$1-P29)</f>
         <v>0</v>
       </c>
       <c r="R29" s="64">
@@ -3480,13 +3522,13 @@
         <v>0</v>
       </c>
       <c r="T29" s="63">
-        <f t="shared" si="2"/>
+        <f>SUM(R29:S29)/T$1</f>
         <v>0</v>
       </c>
       <c r="U29" s="65"/>
       <c r="V29" s="66"/>
       <c r="W29" s="67">
-        <f t="shared" si="4"/>
+        <f>L29*0.2+Q29*0.25+T29*0.25+U29*0.3+V29*0.15</f>
         <v>0</v>
       </c>
     </row>
@@ -3525,7 +3567,7 @@
         <v>0</v>
       </c>
       <c r="L30" s="63">
-        <f t="shared" si="0"/>
+        <f>SUM(D30:J30)*50/(L$1-K30)</f>
         <v>0</v>
       </c>
       <c r="M30" s="64">
@@ -3541,7 +3583,7 @@
         <v>0</v>
       </c>
       <c r="Q30" s="63">
-        <f t="shared" si="1"/>
+        <f>SUM(M30:O30)/(Q$1-P30)</f>
         <v>0</v>
       </c>
       <c r="R30" s="64">
@@ -3551,7 +3593,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="63">
-        <f t="shared" si="2"/>
+        <f>SUM(R30:S30)/T$1</f>
         <v>0</v>
       </c>
       <c r="U30" s="65"/>

--- a/AdvancedJava/_docs/Notlar.xlsx
+++ b/AdvancedJava/_docs/Notlar.xlsx
@@ -970,7 +970,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="86">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1059,11 +1059,39 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1079,6 +1107,24 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1112,6 +1158,568 @@
         <patternFill>
           <fgColor auto="1"/>
           <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1468,7 +2076,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W19" sqref="W19"/>
+      <selection pane="bottomLeft" activeCell="Z32" sqref="Z32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1674,11 +2282,13 @@
         <f>SUM(R3:S3)/T$1</f>
         <v>100</v>
       </c>
-      <c r="U3" s="6"/>
+      <c r="U3" s="6">
+        <v>60</v>
+      </c>
       <c r="V3" s="44"/>
       <c r="W3" s="21">
         <f>L3*0.2+Q3*0.25+T3*0.25+U3*0.3+V3*0.15</f>
-        <v>73.333333333333343</v>
+        <v>91.333333333333343</v>
       </c>
       <c r="X3" s="1" t="s">
         <v>37</v>
@@ -1686,13 +2296,13 @@
     </row>
     <row r="4" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D4" s="12">
         <v>0</v>
@@ -1723,47 +2333,49 @@
         <v>100</v>
       </c>
       <c r="M4" s="14">
+        <v>100</v>
+      </c>
+      <c r="N4" s="6">
         <v>90</v>
       </c>
-      <c r="N4" s="6">
-        <v>80</v>
-      </c>
       <c r="O4" s="6">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="P4" s="48">
         <v>0</v>
       </c>
       <c r="Q4" s="16">
         <f>SUM(M4:O4)/(Q$1-P4)</f>
-        <v>83.333333333333329</v>
+        <v>93.333333333333329</v>
       </c>
       <c r="R4" s="14">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="S4" s="14">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="T4" s="16">
         <f>SUM(R4:S4)/T$1</f>
-        <v>52.5</v>
-      </c>
-      <c r="U4" s="6"/>
+        <v>80</v>
+      </c>
+      <c r="U4" s="6">
+        <v>60</v>
+      </c>
       <c r="V4" s="44"/>
       <c r="W4" s="21">
-        <f>L4*0.2+Q4*0.25+T4*0.25+U4*0.3+V4*0.15</f>
-        <v>53.958333333333329</v>
+        <f>L4*0.2+Q4*0.25+T4*0.25+U4*0.3+V4*0.1</f>
+        <v>81.333333333333329</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D5" s="12">
         <v>0</v>
@@ -1794,36 +2406,38 @@
         <v>100</v>
       </c>
       <c r="M5" s="14">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="N5" s="6">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="O5" s="6">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="P5" s="48">
         <v>0</v>
       </c>
       <c r="Q5" s="16">
         <f>SUM(M5:O5)/(Q$1-P5)</f>
-        <v>93.333333333333329</v>
+        <v>83.333333333333329</v>
       </c>
       <c r="R5" s="14">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="S5" s="14">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="T5" s="16">
         <f>SUM(R5:S5)/T$1</f>
-        <v>41</v>
-      </c>
-      <c r="U5" s="6"/>
+        <v>52.5</v>
+      </c>
+      <c r="U5" s="6">
+        <v>60</v>
+      </c>
       <c r="V5" s="44"/>
       <c r="W5" s="21">
-        <f>L5*0.2+Q5*0.25+T5*0.25+U5*0.3+V5*0.1</f>
-        <v>53.583333333333329</v>
+        <f>L5*0.2+Q5*0.25+T5*0.25+U5*0.3+V5*0.15</f>
+        <v>71.958333333333329</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1890,11 +2504,13 @@
         <f>SUM(R6:S6)/T$1</f>
         <v>42.5</v>
       </c>
-      <c r="U6" s="6"/>
+      <c r="U6" s="6">
+        <v>60</v>
+      </c>
       <c r="V6" s="44"/>
       <c r="W6" s="21">
         <f>L6*0.2+Q6*0.25+T6*0.25+U6*0.3+V6*0.15</f>
-        <v>52.375</v>
+        <v>70.375</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1961,25 +2577,27 @@
         <f>SUM(R7:S7)/T$1</f>
         <v>35</v>
       </c>
-      <c r="U7" s="6"/>
+      <c r="U7" s="6">
+        <v>60</v>
+      </c>
       <c r="V7" s="44"/>
       <c r="W7" s="21">
         <f>L7*0.2+Q7*0.25+T7*0.25+U7*0.3+V7*0.15</f>
-        <v>50.916666666666671</v>
+        <v>68.916666666666671</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="D8" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E8" s="7">
         <v>2</v>
@@ -2004,7 +2622,7 @@
       </c>
       <c r="L8" s="16">
         <f>SUM(D8:J8)*50/(L$1-K8)</f>
-        <v>100</v>
+        <v>116.66666666666667</v>
       </c>
       <c r="M8" s="14">
         <v>95</v>
@@ -2023,34 +2641,36 @@
         <v>95</v>
       </c>
       <c r="R8" s="14">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="S8" s="14">
-        <v>2</v>
+        <v>-25</v>
       </c>
       <c r="T8" s="16">
         <f>SUM(R8:S8)/T$1</f>
-        <v>16</v>
-      </c>
-      <c r="U8" s="6"/>
+        <v>7.5</v>
+      </c>
+      <c r="U8" s="6">
+        <v>60</v>
+      </c>
       <c r="V8" s="44"/>
       <c r="W8" s="21">
         <f>L8*0.2+Q8*0.25+T8*0.25+U8*0.3+V8*0.15</f>
-        <v>47.75</v>
+        <v>66.958333333333343</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="D9" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E9" s="7">
         <v>2</v>
@@ -2075,7 +2695,7 @@
       </c>
       <c r="L9" s="16">
         <f>SUM(D9:J9)*50/(L$1-K9)</f>
-        <v>116.66666666666667</v>
+        <v>100</v>
       </c>
       <c r="M9" s="14">
         <v>95</v>
@@ -2094,31 +2714,33 @@
         <v>95</v>
       </c>
       <c r="R9" s="14">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="S9" s="14">
-        <v>-50</v>
+        <v>2</v>
       </c>
       <c r="T9" s="16">
         <f>SUM(R9:S9)/T$1</f>
-        <v>-5</v>
-      </c>
-      <c r="U9" s="6"/>
+        <v>16</v>
+      </c>
+      <c r="U9" s="6">
+        <v>60</v>
+      </c>
       <c r="V9" s="44"/>
       <c r="W9" s="21">
         <f>L9*0.2+Q9*0.25+T9*0.25+U9*0.3+V9*0.15</f>
-        <v>45.833333333333336</v>
+        <v>65.75</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="D10" s="12">
         <v>0</v>
@@ -2127,16 +2749,16 @@
         <v>2</v>
       </c>
       <c r="F10" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G10" s="7">
         <v>2</v>
       </c>
       <c r="H10" s="51">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="J10" s="7">
         <v>2</v>
@@ -2146,39 +2768,41 @@
       </c>
       <c r="L10" s="16">
         <f>SUM(D10:J10)*50/(L$1-K10)</f>
-        <v>97.5</v>
+        <v>81.666666666666671</v>
       </c>
       <c r="M10" s="14">
         <v>90</v>
       </c>
       <c r="N10" s="6">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="O10" s="6">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="P10" s="48">
         <v>0</v>
       </c>
       <c r="Q10" s="16">
         <f>SUM(M10:O10)/(Q$1-P10)</f>
-        <v>75</v>
+        <v>93.333333333333329</v>
       </c>
       <c r="R10" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S10" s="14">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="T10" s="16">
         <f>SUM(R10:S10)/T$1</f>
-        <v>21</v>
-      </c>
-      <c r="U10" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="U10" s="6">
+        <v>60</v>
+      </c>
       <c r="V10" s="44"/>
       <c r="W10" s="21">
         <f>L10*0.2+Q10*0.25+T10*0.25+U10*0.3+V10*0.15</f>
-        <v>43.5</v>
+        <v>65.416666666666671</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2239,28 +2863,30 @@
         <v>40</v>
       </c>
       <c r="S11" s="14">
-        <v>-50</v>
+        <v>-25</v>
       </c>
       <c r="T11" s="16">
         <f>SUM(R11:S11)/T$1</f>
-        <v>-5</v>
-      </c>
-      <c r="U11" s="6"/>
+        <v>7.5</v>
+      </c>
+      <c r="U11" s="6">
+        <v>60</v>
+      </c>
       <c r="V11" s="44"/>
       <c r="W11" s="21">
         <f>L11*0.2+Q11*0.25+T11*0.25+U11*0.3+V11*0.15</f>
-        <v>42.083333333333329</v>
+        <v>63.208333333333329</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="D12" s="12">
         <v>0</v>
@@ -2269,16 +2895,16 @@
         <v>2</v>
       </c>
       <c r="F12" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G12" s="7">
         <v>2</v>
       </c>
       <c r="H12" s="51">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="I12" s="7">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="J12" s="7">
         <v>2</v>
@@ -2288,39 +2914,41 @@
       </c>
       <c r="L12" s="16">
         <f>SUM(D12:J12)*50/(L$1-K12)</f>
-        <v>81.666666666666671</v>
+        <v>97.5</v>
       </c>
       <c r="M12" s="14">
         <v>90</v>
       </c>
       <c r="N12" s="6">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="O12" s="6">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="P12" s="48">
         <v>0</v>
       </c>
       <c r="Q12" s="16">
         <f>SUM(M12:O12)/(Q$1-P12)</f>
-        <v>93.333333333333329</v>
+        <v>75</v>
       </c>
       <c r="R12" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S12" s="14">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="T12" s="16">
         <f>SUM(R12:S12)/T$1</f>
-        <v>1.5</v>
-      </c>
-      <c r="U12" s="6"/>
+        <v>26</v>
+      </c>
+      <c r="U12" s="6">
+        <v>60</v>
+      </c>
       <c r="V12" s="44"/>
       <c r="W12" s="21">
         <f>L12*0.2+Q12*0.25+T12*0.25+U12*0.3+V12*0.15</f>
-        <v>40.041666666666671</v>
+        <v>62.75</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2381,99 +3009,103 @@
         <v>20</v>
       </c>
       <c r="S13" s="14">
-        <v>-50</v>
+        <v>-25</v>
       </c>
       <c r="T13" s="16">
         <f>SUM(R13:S13)/T$1</f>
-        <v>-15</v>
-      </c>
-      <c r="U13" s="6"/>
+        <v>-2.5</v>
+      </c>
+      <c r="U13" s="6">
+        <v>60</v>
+      </c>
       <c r="V13" s="44"/>
       <c r="W13" s="21">
         <f>L13*0.2+Q13*0.25+T13*0.25+U13*0.3+V13*0.15</f>
-        <v>37.583333333333336</v>
+        <v>58.708333333333336</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="D14" s="12">
         <v>0</v>
       </c>
-      <c r="E14" s="7">
-        <v>2</v>
-      </c>
-      <c r="F14" s="7">
-        <v>2</v>
-      </c>
-      <c r="G14" s="7">
-        <v>2</v>
-      </c>
-      <c r="H14" s="51" t="s">
+      <c r="E14" s="51" t="s">
         <v>95</v>
       </c>
+      <c r="F14" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="G14" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="H14" s="51">
+        <v>0</v>
+      </c>
       <c r="I14" s="7">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="J14" s="7">
         <v>2</v>
       </c>
-      <c r="K14" s="49">
-        <v>1</v>
+      <c r="K14" s="48">
+        <v>3</v>
       </c>
       <c r="L14" s="16">
         <f>SUM(D14:J14)*50/(L$1-K14)</f>
-        <v>98.000000000000014</v>
-      </c>
-      <c r="M14" s="14">
+        <v>66.666666666666671</v>
+      </c>
+      <c r="M14" s="55" t="s">
         <v>95</v>
       </c>
       <c r="N14" s="6">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="O14" s="6">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="P14" s="48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="16">
         <f>SUM(M14:O14)/(Q$1-P14)</f>
-        <v>91.666666666666671</v>
+        <v>62.5</v>
       </c>
       <c r="R14" s="14">
-        <v>-50</v>
+        <v>61</v>
       </c>
       <c r="S14" s="14">
-        <v>-50</v>
+        <v>20</v>
       </c>
       <c r="T14" s="16">
         <f>SUM(R14:S14)/T$1</f>
-        <v>-50</v>
-      </c>
-      <c r="U14" s="6"/>
+        <v>40.5</v>
+      </c>
+      <c r="U14" s="6">
+        <v>60</v>
+      </c>
       <c r="V14" s="44"/>
       <c r="W14" s="21">
-        <f>L14*0.2+Q14*0.25+T14*0.25+U14*0.3+V14*0.15</f>
-        <v>30.016666666666673</v>
+        <f>L14*0.2+Q14*0.25+T14*0.25+U14*0.3+V14*0.1</f>
+        <v>57.083333333333336</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D15" s="12">
         <v>0</v>
@@ -2487,24 +3119,24 @@
       <c r="G15" s="7">
         <v>2</v>
       </c>
-      <c r="H15" s="51">
-        <v>2</v>
+      <c r="H15" s="51" t="s">
+        <v>95</v>
       </c>
       <c r="I15" s="7">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="J15" s="7">
         <v>2</v>
       </c>
-      <c r="K15" s="48">
-        <v>0</v>
+      <c r="K15" s="49">
+        <v>1</v>
       </c>
       <c r="L15" s="16">
         <f>SUM(D15:J15)*50/(L$1-K15)</f>
-        <v>100</v>
+        <v>98.000000000000014</v>
       </c>
       <c r="M15" s="14">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="N15" s="6">
         <v>100</v>
@@ -2517,49 +3149,51 @@
       </c>
       <c r="Q15" s="16">
         <f>SUM(M15:O15)/(Q$1-P15)</f>
-        <v>90</v>
+        <v>91.666666666666671</v>
       </c>
       <c r="R15" s="14">
-        <v>-50</v>
+        <v>-25</v>
       </c>
       <c r="S15" s="14">
-        <v>-50</v>
+        <v>-25</v>
       </c>
       <c r="T15" s="16">
         <f>SUM(R15:S15)/T$1</f>
-        <v>-50</v>
-      </c>
-      <c r="U15" s="6"/>
+        <v>-25</v>
+      </c>
+      <c r="U15" s="6">
+        <v>60</v>
+      </c>
       <c r="V15" s="44"/>
       <c r="W15" s="21">
         <f>L15*0.2+Q15*0.25+T15*0.25+U15*0.3+V15*0.15</f>
-        <v>30</v>
+        <v>54.266666666666673</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="D16" s="12">
         <v>0</v>
       </c>
-      <c r="E16" s="51" t="s">
-        <v>95</v>
-      </c>
-      <c r="F16" s="51" t="s">
-        <v>95</v>
-      </c>
-      <c r="G16" s="51" t="s">
-        <v>95</v>
+      <c r="E16" s="7">
+        <v>2</v>
+      </c>
+      <c r="F16" s="7">
+        <v>2</v>
+      </c>
+      <c r="G16" s="7">
+        <v>2</v>
       </c>
       <c r="H16" s="51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" s="7">
         <v>2</v>
@@ -2568,43 +3202,45 @@
         <v>2</v>
       </c>
       <c r="K16" s="48">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L16" s="16">
         <f>SUM(D16:J16)*50/(L$1-K16)</f>
-        <v>66.666666666666671</v>
-      </c>
-      <c r="M16" s="55" t="s">
-        <v>95</v>
+        <v>100</v>
+      </c>
+      <c r="M16" s="14">
+        <v>90</v>
       </c>
       <c r="N16" s="6">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="O16" s="6">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="P16" s="48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="16">
         <f>SUM(M16:O16)/(Q$1-P16)</f>
-        <v>62.5</v>
+        <v>90</v>
       </c>
       <c r="R16" s="14">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="S16" s="14">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="T16" s="16">
         <f>SUM(R16:S16)/T$1</f>
-        <v>0</v>
-      </c>
-      <c r="U16" s="6"/>
+        <v>-25</v>
+      </c>
+      <c r="U16" s="6">
+        <v>60</v>
+      </c>
       <c r="V16" s="44"/>
       <c r="W16" s="21">
-        <f>L16*0.2+Q16*0.25+T16*0.25+U16*0.3+V16*0.1</f>
-        <v>28.958333333333336</v>
+        <f>L16*0.2+Q16*0.25+T16*0.25+U16*0.3+V16*0.15</f>
+        <v>54.25</v>
       </c>
     </row>
     <row r="17" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2671,155 +3307,162 @@
         <f>SUM(R17:S17)/T$1</f>
         <v>0.5</v>
       </c>
-      <c r="U17" s="6"/>
+      <c r="U17" s="6">
+        <v>60</v>
+      </c>
       <c r="V17" s="44"/>
       <c r="W17" s="21">
         <f>L17*0.2+Q17*0.25+T17*0.25+U17*0.3+V17*0.15</f>
-        <v>28.458333333333336</v>
+        <v>46.458333333333336</v>
       </c>
     </row>
     <row r="18" spans="1:24" s="47" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="D18" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E18" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F18" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G18" s="12">
         <v>0</v>
       </c>
       <c r="H18" s="51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" s="7">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="J18" s="7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K18" s="48">
         <v>0</v>
       </c>
       <c r="L18" s="16">
         <f>SUM(D18:J18)*50/(L$1-K18)</f>
-        <v>11.666666666666666</v>
+        <v>83.333333333333329</v>
       </c>
       <c r="M18" s="14">
         <v>0</v>
       </c>
       <c r="N18" s="6">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="O18" s="6">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="P18" s="48">
         <v>0</v>
       </c>
       <c r="Q18" s="16">
         <f>SUM(M18:O18)/(Q$1-P18)</f>
-        <v>40</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="R18" s="14">
-        <v>1</v>
+        <v>-25</v>
       </c>
       <c r="S18" s="14">
-        <v>1</v>
+        <v>-25</v>
       </c>
       <c r="T18" s="16">
         <f>SUM(R18:S18)/T$1</f>
-        <v>1</v>
-      </c>
-      <c r="U18" s="6"/>
+        <v>-25</v>
+      </c>
+      <c r="U18" s="6">
+        <v>60</v>
+      </c>
       <c r="V18" s="44"/>
       <c r="W18" s="21">
-        <f>L18*0.2+Q18*0.25+T18*0.25+U18*0.3+V18*0.1</f>
-        <v>12.583333333333334</v>
-      </c>
-      <c r="X18" s="9"/>
+        <f>L18*0.2+Q18*0.25+T18*0.25+U18*0.3+V18*0.15</f>
+        <v>36.75</v>
+      </c>
+      <c r="X18" s="1"/>
     </row>
     <row r="19" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="D19" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E19" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F19" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G19" s="12">
         <v>0</v>
       </c>
       <c r="H19" s="51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="J19" s="7">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K19" s="48">
         <v>0</v>
       </c>
       <c r="L19" s="16">
         <f>SUM(D19:J19)*50/(L$1-K19)</f>
-        <v>83.333333333333329</v>
+        <v>11.666666666666666</v>
       </c>
       <c r="M19" s="14">
         <v>0</v>
       </c>
       <c r="N19" s="6">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="O19" s="6">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="P19" s="48">
         <v>0</v>
       </c>
       <c r="Q19" s="16">
         <f>SUM(M19:O19)/(Q$1-P19)</f>
-        <v>33.333333333333336</v>
+        <v>40</v>
       </c>
       <c r="R19" s="14">
-        <v>-50</v>
+        <v>1</v>
       </c>
       <c r="S19" s="14">
-        <v>-50</v>
+        <v>1</v>
       </c>
       <c r="T19" s="16">
         <f>SUM(R19:S19)/T$1</f>
-        <v>-50</v>
-      </c>
-      <c r="U19" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="U19" s="6">
+        <v>60</v>
+      </c>
       <c r="V19" s="44"/>
       <c r="W19" s="21">
-        <f>L19*0.2+Q19*0.25+T19*0.25+U19*0.3+V19*0.15</f>
-        <v>12.5</v>
-      </c>
+        <f>L19*0.2+Q19*0.25+T19*0.25+U19*0.3+V19*0.1</f>
+        <v>30.583333333333336</v>
+      </c>
+      <c r="X19" s="9"/>
     </row>
     <row r="20" spans="1:24" s="47" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
@@ -2885,11 +3528,13 @@
         <f>SUM(R20:S20)/T$1</f>
         <v>0</v>
       </c>
-      <c r="U20" s="6"/>
+      <c r="U20" s="6">
+        <v>60</v>
+      </c>
       <c r="V20" s="44"/>
       <c r="W20" s="21">
         <f>L20*0.2+Q20*0.25+T20*0.25+U20*0.3+V20*0.1</f>
-        <v>12.2</v>
+        <v>30.2</v>
       </c>
       <c r="X20" s="1"/>
     </row>
@@ -2957,11 +3602,13 @@
         <f>SUM(R21:S21)/T$1</f>
         <v>25</v>
       </c>
-      <c r="U21" s="6"/>
+      <c r="U21" s="6">
+        <v>60</v>
+      </c>
       <c r="V21" s="44"/>
       <c r="W21" s="21">
         <f>L21*0.2+Q21*0.25+T21*0.25+U21*0.3+V21*0.15</f>
-        <v>9.5833333333333339</v>
+        <v>27.583333333333336</v>
       </c>
     </row>
     <row r="22" spans="1:24" s="68" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4626,47 +5273,47 @@
     <mergeCell ref="R1:S1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:J30">
-    <cfRule type="cellIs" dxfId="21" priority="19" operator="between">
+    <cfRule type="cellIs" dxfId="85" priority="19" operator="between">
       <formula>0.1</formula>
       <formula>1.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="20" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="21" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U3:V30 M3:O30">
-    <cfRule type="cellIs" dxfId="18" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="82" priority="10" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="12" operator="between">
+    <cfRule type="cellIs" dxfId="80" priority="12" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="13" operator="between">
+    <cfRule type="cellIs" dxfId="79" priority="13" operator="between">
       <formula>80</formula>
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R3:S30">
-    <cfRule type="cellIs" dxfId="14" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="63" priority="6" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="61" priority="8" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="9" operator="between">
+    <cfRule type="cellIs" dxfId="60" priority="9" operator="between">
       <formula>80</formula>
       <formula>200</formula>
     </cfRule>
@@ -6421,14 +7068,14 @@
     <mergeCell ref="K1:P1"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:I33">
-    <cfRule type="cellIs" dxfId="10" priority="25" operator="between">
+    <cfRule type="cellIs" dxfId="78" priority="25" operator="between">
       <formula>0.1</formula>
       <formula>1.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="26" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="27" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6475,18 +7122,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:O33">
-    <cfRule type="cellIs" dxfId="7" priority="16" operator="between">
+    <cfRule type="cellIs" dxfId="75" priority="16" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="18" operator="between">
+    <cfRule type="cellIs" dxfId="73" priority="18" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="19" operator="between">
+    <cfRule type="cellIs" dxfId="72" priority="19" operator="between">
       <formula>80</formula>
       <formula>100</formula>
     </cfRule>
@@ -6534,18 +7181,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3:Q33">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="71" priority="1" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="69" priority="3" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="68" priority="4" operator="greaterThanOrEqual">
       <formula>80</formula>
     </cfRule>
   </conditionalFormatting>

--- a/AdvancedJava/_docs/Notlar.xlsx
+++ b/AdvancedJava/_docs/Notlar.xlsx
@@ -970,653 +970,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="86">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="22">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1720,6 +1074,44 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2076,7 +1468,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z32" sqref="Z32"/>
+      <selection pane="bottomLeft" activeCell="W3" sqref="W3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2515,22 +1907,22 @@
     </row>
     <row r="7" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="D7" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7">
         <v>2</v>
       </c>
       <c r="F7" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G7" s="7">
         <v>2</v>
@@ -2539,43 +1931,43 @@
         <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="J7" s="7">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="K7" s="48">
         <v>0</v>
       </c>
       <c r="L7" s="16">
         <f>SUM(D7:J7)*50/(L$1-K7)</f>
-        <v>115</v>
+        <v>81.666666666666671</v>
       </c>
       <c r="M7" s="14">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="N7" s="6">
+        <v>100</v>
+      </c>
+      <c r="O7" s="6">
         <v>90</v>
-      </c>
-      <c r="O7" s="6">
-        <v>60</v>
       </c>
       <c r="P7" s="48">
         <v>0</v>
       </c>
       <c r="Q7" s="16">
         <f>SUM(M7:O7)/(Q$1-P7)</f>
-        <v>76.666666666666671</v>
+        <v>93.333333333333329</v>
       </c>
       <c r="R7" s="14">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="S7" s="14">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="T7" s="16">
         <f>SUM(R7:S7)/T$1</f>
-        <v>35</v>
+        <v>45.5</v>
       </c>
       <c r="U7" s="6">
         <v>60</v>
@@ -2583,18 +1975,18 @@
       <c r="V7" s="44"/>
       <c r="W7" s="21">
         <f>L7*0.2+Q7*0.25+T7*0.25+U7*0.3+V7*0.15</f>
-        <v>68.916666666666671</v>
+        <v>69.041666666666671</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="D8" s="12">
         <v>2</v>
@@ -2615,40 +2007,40 @@
         <v>2</v>
       </c>
       <c r="J8" s="7">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="K8" s="48">
         <v>0</v>
       </c>
       <c r="L8" s="16">
         <f>SUM(D8:J8)*50/(L$1-K8)</f>
-        <v>116.66666666666667</v>
+        <v>115</v>
       </c>
       <c r="M8" s="14">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="N8" s="6">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="O8" s="6">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="P8" s="48">
         <v>0</v>
       </c>
       <c r="Q8" s="16">
         <f>SUM(M8:O8)/(Q$1-P8)</f>
-        <v>95</v>
+        <v>76.666666666666671</v>
       </c>
       <c r="R8" s="14">
         <v>40</v>
       </c>
       <c r="S8" s="14">
-        <v>-25</v>
+        <v>30</v>
       </c>
       <c r="T8" s="16">
         <f>SUM(R8:S8)/T$1</f>
-        <v>7.5</v>
+        <v>35</v>
       </c>
       <c r="U8" s="6">
         <v>60</v>
@@ -2656,21 +2048,21 @@
       <c r="V8" s="44"/>
       <c r="W8" s="21">
         <f>L8*0.2+Q8*0.25+T8*0.25+U8*0.3+V8*0.15</f>
-        <v>66.958333333333343</v>
+        <v>68.916666666666671</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="D9" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E9" s="7">
         <v>2</v>
@@ -2695,7 +2087,7 @@
       </c>
       <c r="L9" s="16">
         <f>SUM(D9:J9)*50/(L$1-K9)</f>
-        <v>100</v>
+        <v>116.66666666666667</v>
       </c>
       <c r="M9" s="14">
         <v>95</v>
@@ -2714,14 +2106,14 @@
         <v>95</v>
       </c>
       <c r="R9" s="14">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="S9" s="14">
-        <v>2</v>
+        <v>-25</v>
       </c>
       <c r="T9" s="16">
         <f>SUM(R9:S9)/T$1</f>
-        <v>16</v>
+        <v>7.5</v>
       </c>
       <c r="U9" s="6">
         <v>60</v>
@@ -2729,18 +2121,18 @@
       <c r="V9" s="44"/>
       <c r="W9" s="21">
         <f>L9*0.2+Q9*0.25+T9*0.25+U9*0.3+V9*0.15</f>
-        <v>65.75</v>
+        <v>66.958333333333343</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D10" s="12">
         <v>0</v>
@@ -2749,7 +2141,7 @@
         <v>2</v>
       </c>
       <c r="F10" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G10" s="7">
         <v>2</v>
@@ -2758,7 +2150,7 @@
         <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="J10" s="7">
         <v>2</v>
@@ -2768,10 +2160,10 @@
       </c>
       <c r="L10" s="16">
         <f>SUM(D10:J10)*50/(L$1-K10)</f>
-        <v>81.666666666666671</v>
+        <v>100</v>
       </c>
       <c r="M10" s="14">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="N10" s="6">
         <v>100</v>
@@ -2784,17 +2176,17 @@
       </c>
       <c r="Q10" s="16">
         <f>SUM(M10:O10)/(Q$1-P10)</f>
-        <v>93.333333333333329</v>
+        <v>95</v>
       </c>
       <c r="R10" s="14">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="S10" s="14">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="T10" s="16">
         <f>SUM(R10:S10)/T$1</f>
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="U10" s="6">
         <v>60</v>
@@ -2802,7 +2194,7 @@
       <c r="V10" s="44"/>
       <c r="W10" s="21">
         <f>L10*0.2+Q10*0.25+T10*0.25+U10*0.3+V10*0.15</f>
-        <v>65.416666666666671</v>
+        <v>65.75</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -5273,47 +4665,47 @@
     <mergeCell ref="R1:S1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:J30">
-    <cfRule type="cellIs" dxfId="85" priority="19" operator="between">
+    <cfRule type="cellIs" dxfId="21" priority="19" operator="between">
       <formula>0.1</formula>
       <formula>1.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U3:V30 M3:O30">
-    <cfRule type="cellIs" dxfId="82" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="18" priority="10" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="12" operator="between">
+    <cfRule type="cellIs" dxfId="16" priority="12" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="13" operator="between">
+    <cfRule type="cellIs" dxfId="15" priority="13" operator="between">
       <formula>80</formula>
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R3:S30">
-    <cfRule type="cellIs" dxfId="63" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="14" priority="6" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="12" priority="8" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="9" operator="between">
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="between">
       <formula>80</formula>
       <formula>200</formula>
     </cfRule>
@@ -7068,14 +6460,14 @@
     <mergeCell ref="K1:P1"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:I33">
-    <cfRule type="cellIs" dxfId="78" priority="25" operator="between">
+    <cfRule type="cellIs" dxfId="10" priority="25" operator="between">
       <formula>0.1</formula>
       <formula>1.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="26" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="27" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7122,18 +6514,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:O33">
-    <cfRule type="cellIs" dxfId="75" priority="16" operator="between">
+    <cfRule type="cellIs" dxfId="7" priority="16" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="18" operator="between">
+    <cfRule type="cellIs" dxfId="5" priority="18" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="19" operator="between">
+    <cfRule type="cellIs" dxfId="4" priority="19" operator="between">
       <formula>80</formula>
       <formula>100</formula>
     </cfRule>
@@ -7181,18 +6573,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3:Q33">
-    <cfRule type="cellIs" dxfId="71" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="4" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="greaterThanOrEqual">
       <formula>80</formula>
     </cfRule>
   </conditionalFormatting>

--- a/AdvancedJava/_docs/Notlar.xlsx
+++ b/AdvancedJava/_docs/Notlar.xlsx
@@ -1468,7 +1468,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W3" sqref="W3"/>
+      <selection pane="bottomLeft" activeCell="Y32" sqref="Y32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2710,151 +2710,150 @@
     </row>
     <row r="18" spans="1:24" s="47" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="D18" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E18" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F18" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G18" s="12">
         <v>0</v>
       </c>
       <c r="H18" s="51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" s="7">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="J18" s="7">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K18" s="48">
         <v>0</v>
       </c>
       <c r="L18" s="16">
         <f>SUM(D18:J18)*50/(L$1-K18)</f>
-        <v>83.333333333333329</v>
+        <v>11.666666666666666</v>
       </c>
       <c r="M18" s="14">
         <v>0</v>
       </c>
       <c r="N18" s="6">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="O18" s="6">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="P18" s="48">
         <v>0</v>
       </c>
       <c r="Q18" s="16">
         <f>SUM(M18:O18)/(Q$1-P18)</f>
-        <v>33.333333333333336</v>
+        <v>40</v>
       </c>
       <c r="R18" s="14">
-        <v>-25</v>
+        <v>40</v>
       </c>
       <c r="S18" s="14">
-        <v>-25</v>
+        <v>61</v>
       </c>
       <c r="T18" s="16">
         <f>SUM(R18:S18)/T$1</f>
-        <v>-25</v>
+        <v>50.5</v>
       </c>
       <c r="U18" s="6">
         <v>60</v>
       </c>
       <c r="V18" s="44"/>
       <c r="W18" s="21">
-        <f>L18*0.2+Q18*0.25+T18*0.25+U18*0.3+V18*0.15</f>
-        <v>36.75</v>
-      </c>
-      <c r="X18" s="1"/>
+        <f>L18*0.2+Q18*0.25+T18*0.25+U18*0.3+V18*0.1</f>
+        <v>42.958333333333336</v>
+      </c>
+      <c r="X18" s="9"/>
     </row>
     <row r="19" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="D19" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E19" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F19" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G19" s="12">
         <v>0</v>
       </c>
       <c r="H19" s="51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" s="7">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="J19" s="7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K19" s="48">
         <v>0</v>
       </c>
       <c r="L19" s="16">
         <f>SUM(D19:J19)*50/(L$1-K19)</f>
-        <v>11.666666666666666</v>
+        <v>83.333333333333329</v>
       </c>
       <c r="M19" s="14">
         <v>0</v>
       </c>
       <c r="N19" s="6">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="O19" s="6">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="P19" s="48">
         <v>0</v>
       </c>
       <c r="Q19" s="16">
         <f>SUM(M19:O19)/(Q$1-P19)</f>
-        <v>40</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="R19" s="14">
-        <v>1</v>
+        <v>-25</v>
       </c>
       <c r="S19" s="14">
-        <v>1</v>
+        <v>-25</v>
       </c>
       <c r="T19" s="16">
         <f>SUM(R19:S19)/T$1</f>
-        <v>1</v>
+        <v>-25</v>
       </c>
       <c r="U19" s="6">
         <v>60</v>
       </c>
       <c r="V19" s="44"/>
       <c r="W19" s="21">
-        <f>L19*0.2+Q19*0.25+T19*0.25+U19*0.3+V19*0.1</f>
-        <v>30.583333333333336</v>
-      </c>
-      <c r="X19" s="9"/>
+        <f>L19*0.2+Q19*0.25+T19*0.25+U19*0.3+V19*0.15</f>
+        <v>36.75</v>
+      </c>
     </row>
     <row r="20" spans="1:24" s="47" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">

--- a/AdvancedJava/_docs/Notlar.xlsx
+++ b/AdvancedJava/_docs/Notlar.xlsx
@@ -1468,7 +1468,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y32" sqref="Y32"/>
+      <selection pane="bottomLeft" activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1907,22 +1907,22 @@
     </row>
     <row r="7" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D7" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E7" s="7">
         <v>2</v>
       </c>
       <c r="F7" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G7" s="7">
         <v>2</v>
@@ -1931,43 +1931,43 @@
         <v>2</v>
       </c>
       <c r="I7" s="7">
+        <v>2</v>
+      </c>
+      <c r="J7" s="7">
         <v>1.8</v>
-      </c>
-      <c r="J7" s="7">
-        <v>2</v>
       </c>
       <c r="K7" s="48">
         <v>0</v>
       </c>
       <c r="L7" s="16">
         <f>SUM(D7:J7)*50/(L$1-K7)</f>
-        <v>81.666666666666671</v>
+        <v>115</v>
       </c>
       <c r="M7" s="14">
+        <v>80</v>
+      </c>
+      <c r="N7" s="6">
         <v>90</v>
       </c>
-      <c r="N7" s="6">
-        <v>100</v>
-      </c>
       <c r="O7" s="6">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="P7" s="48">
         <v>0</v>
       </c>
       <c r="Q7" s="16">
         <f>SUM(M7:O7)/(Q$1-P7)</f>
-        <v>93.333333333333329</v>
+        <v>76.666666666666671</v>
       </c>
       <c r="R7" s="14">
+        <v>40</v>
+      </c>
+      <c r="S7" s="14">
         <v>30</v>
-      </c>
-      <c r="S7" s="14">
-        <v>61</v>
       </c>
       <c r="T7" s="16">
         <f>SUM(R7:S7)/T$1</f>
-        <v>45.5</v>
+        <v>35</v>
       </c>
       <c r="U7" s="6">
         <v>60</v>
@@ -1975,18 +1975,18 @@
       <c r="V7" s="44"/>
       <c r="W7" s="21">
         <f>L7*0.2+Q7*0.25+T7*0.25+U7*0.3+V7*0.15</f>
-        <v>69.041666666666671</v>
+        <v>68.916666666666671</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="D8" s="12">
         <v>2</v>
@@ -2007,40 +2007,40 @@
         <v>2</v>
       </c>
       <c r="J8" s="7">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="K8" s="48">
         <v>0</v>
       </c>
       <c r="L8" s="16">
         <f>SUM(D8:J8)*50/(L$1-K8)</f>
-        <v>115</v>
+        <v>116.66666666666667</v>
       </c>
       <c r="M8" s="14">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="N8" s="6">
+        <v>100</v>
+      </c>
+      <c r="O8" s="6">
         <v>90</v>
-      </c>
-      <c r="O8" s="6">
-        <v>60</v>
       </c>
       <c r="P8" s="48">
         <v>0</v>
       </c>
       <c r="Q8" s="16">
         <f>SUM(M8:O8)/(Q$1-P8)</f>
-        <v>76.666666666666671</v>
+        <v>95</v>
       </c>
       <c r="R8" s="14">
         <v>40</v>
       </c>
       <c r="S8" s="14">
-        <v>30</v>
+        <v>-25</v>
       </c>
       <c r="T8" s="16">
         <f>SUM(R8:S8)/T$1</f>
-        <v>35</v>
+        <v>7.5</v>
       </c>
       <c r="U8" s="6">
         <v>60</v>
@@ -2048,27 +2048,27 @@
       <c r="V8" s="44"/>
       <c r="W8" s="21">
         <f>L8*0.2+Q8*0.25+T8*0.25+U8*0.3+V8*0.15</f>
-        <v>68.916666666666671</v>
+        <v>66.958333333333343</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="D9" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E9" s="7">
         <v>2</v>
       </c>
       <c r="F9" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G9" s="7">
         <v>2</v>
@@ -2077,7 +2077,7 @@
         <v>2</v>
       </c>
       <c r="I9" s="7">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="J9" s="7">
         <v>2</v>
@@ -2087,10 +2087,10 @@
       </c>
       <c r="L9" s="16">
         <f>SUM(D9:J9)*50/(L$1-K9)</f>
-        <v>116.66666666666667</v>
+        <v>81.666666666666671</v>
       </c>
       <c r="M9" s="14">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="N9" s="6">
         <v>100</v>
@@ -2103,17 +2103,17 @@
       </c>
       <c r="Q9" s="16">
         <f>SUM(M9:O9)/(Q$1-P9)</f>
-        <v>95</v>
+        <v>93.333333333333329</v>
       </c>
       <c r="R9" s="14">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="S9" s="14">
-        <v>-25</v>
+        <v>61</v>
       </c>
       <c r="T9" s="16">
         <f>SUM(R9:S9)/T$1</f>
-        <v>7.5</v>
+        <v>35.5</v>
       </c>
       <c r="U9" s="6">
         <v>60</v>
@@ -2121,18 +2121,18 @@
       <c r="V9" s="44"/>
       <c r="W9" s="21">
         <f>L9*0.2+Q9*0.25+T9*0.25+U9*0.3+V9*0.15</f>
-        <v>66.958333333333343</v>
+        <v>66.541666666666671</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="D10" s="12">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>2</v>
       </c>
       <c r="H10" s="51">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="I10" s="7">
         <v>2</v>
@@ -2160,33 +2160,33 @@
       </c>
       <c r="L10" s="16">
         <f>SUM(D10:J10)*50/(L$1-K10)</f>
-        <v>100</v>
+        <v>97.5</v>
       </c>
       <c r="M10" s="14">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="N10" s="6">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="O10" s="6">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="P10" s="48">
         <v>0</v>
       </c>
       <c r="Q10" s="16">
         <f>SUM(M10:O10)/(Q$1-P10)</f>
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="R10" s="14">
         <v>30</v>
       </c>
       <c r="S10" s="14">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="T10" s="16">
         <f>SUM(R10:S10)/T$1</f>
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="U10" s="6">
         <v>60</v>
@@ -2194,18 +2194,18 @@
       <c r="V10" s="44"/>
       <c r="W10" s="21">
         <f>L10*0.2+Q10*0.25+T10*0.25+U10*0.3+V10*0.15</f>
-        <v>65.75</v>
+        <v>66.25</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D11" s="12">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         <v>100</v>
       </c>
       <c r="M11" s="14">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="N11" s="6">
         <v>100</v>
@@ -2249,17 +2249,17 @@
       </c>
       <c r="Q11" s="16">
         <f>SUM(M11:O11)/(Q$1-P11)</f>
-        <v>93.333333333333329</v>
+        <v>95</v>
       </c>
       <c r="R11" s="14">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="S11" s="14">
-        <v>-25</v>
+        <v>2</v>
       </c>
       <c r="T11" s="16">
         <f>SUM(R11:S11)/T$1</f>
-        <v>7.5</v>
+        <v>16</v>
       </c>
       <c r="U11" s="6">
         <v>60</v>
@@ -2267,18 +2267,18 @@
       <c r="V11" s="44"/>
       <c r="W11" s="21">
         <f>L11*0.2+Q11*0.25+T11*0.25+U11*0.3+V11*0.15</f>
-        <v>63.208333333333329</v>
+        <v>65.75</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="D12" s="12">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>2</v>
       </c>
       <c r="H12" s="51">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="I12" s="7">
         <v>2</v>
@@ -2306,33 +2306,33 @@
       </c>
       <c r="L12" s="16">
         <f>SUM(D12:J12)*50/(L$1-K12)</f>
-        <v>97.5</v>
+        <v>100</v>
       </c>
       <c r="M12" s="14">
         <v>90</v>
       </c>
       <c r="N12" s="6">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="O12" s="6">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="P12" s="48">
         <v>0</v>
       </c>
       <c r="Q12" s="16">
         <f>SUM(M12:O12)/(Q$1-P12)</f>
-        <v>75</v>
+        <v>93.333333333333329</v>
       </c>
       <c r="R12" s="14">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="S12" s="14">
-        <v>50</v>
+        <v>-25</v>
       </c>
       <c r="T12" s="16">
         <f>SUM(R12:S12)/T$1</f>
-        <v>26</v>
+        <v>7.5</v>
       </c>
       <c r="U12" s="6">
         <v>60</v>
@@ -2340,7 +2340,7 @@
       <c r="V12" s="44"/>
       <c r="W12" s="21">
         <f>L12*0.2+Q12*0.25+T12*0.25+U12*0.3+V12*0.15</f>
-        <v>62.75</v>
+        <v>63.208333333333329</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">

--- a/AdvancedJava/_docs/Notlar.xlsx
+++ b/AdvancedJava/_docs/Notlar.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Vize" sheetId="1" r:id="rId1"/>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="101">
   <si>
     <t>Adı</t>
   </si>
@@ -822,7 +822,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -897,9 +897,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -951,6 +948,15 @@
     <xf numFmtId="1" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1466,9 +1472,9 @@
   </sheetPr>
   <dimension ref="A1:X76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R16" sqref="R16"/>
+      <selection pane="bottomLeft" activeCell="W3" sqref="W3:W30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1478,7 +1484,7 @@
     <col min="3" max="3" width="9.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="3.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="2.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.44140625" style="53" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.44140625" style="52" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="2.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="2.44140625" style="1" customWidth="1"/>
     <col min="11" max="11" width="2.44140625" style="1" bestFit="1" customWidth="1"/>
@@ -1500,39 +1506,39 @@
       <c r="A1" s="30"/>
       <c r="B1" s="18"/>
       <c r="C1" s="29"/>
-      <c r="D1" s="70" t="s">
+      <c r="D1" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="46">
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="45">
         <v>6</v>
       </c>
-      <c r="M1" s="72" t="s">
+      <c r="M1" s="76" t="s">
         <v>94</v>
       </c>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="45">
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="44">
         <v>3</v>
       </c>
-      <c r="R1" s="72" t="s">
+      <c r="R1" s="76" t="s">
         <v>99</v>
       </c>
-      <c r="S1" s="73"/>
-      <c r="T1" s="45">
+      <c r="S1" s="77"/>
+      <c r="T1" s="44">
         <v>2</v>
       </c>
       <c r="U1" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="V1" s="41" t="s">
+      <c r="V1" s="40" t="s">
         <v>42</v>
       </c>
       <c r="W1" s="19" t="s">
@@ -1561,7 +1567,7 @@
       <c r="G2" s="27">
         <v>4</v>
       </c>
-      <c r="H2" s="50">
+      <c r="H2" s="49">
         <v>5</v>
       </c>
       <c r="I2" s="27">
@@ -1603,7 +1609,7 @@
       <c r="U2" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="V2" s="43" t="s">
+      <c r="V2" s="42" t="s">
         <v>41</v>
       </c>
       <c r="W2" s="19" t="s">
@@ -1632,7 +1638,7 @@
       <c r="G3" s="7">
         <v>2</v>
       </c>
-      <c r="H3" s="51">
+      <c r="H3" s="50">
         <v>2</v>
       </c>
       <c r="I3" s="7">
@@ -1641,11 +1647,11 @@
       <c r="J3" s="7">
         <v>2</v>
       </c>
-      <c r="K3" s="48">
+      <c r="K3" s="47">
         <v>0</v>
       </c>
       <c r="L3" s="16">
-        <f>SUM(D3:J3)*50/(L$1-K3)</f>
+        <f t="shared" ref="L3:L30" si="0">SUM(D3:J3)*50/(L$1-K3)</f>
         <v>116.66666666666667</v>
       </c>
       <c r="M3" s="14">
@@ -1657,11 +1663,11 @@
       <c r="O3" s="6">
         <v>100</v>
       </c>
-      <c r="P3" s="48">
+      <c r="P3" s="47">
         <v>0</v>
       </c>
       <c r="Q3" s="16">
-        <f>SUM(M3:O3)/(Q$1-P3)</f>
+        <f t="shared" ref="Q3:Q30" si="1">SUM(M3:O3)/(Q$1-P3)</f>
         <v>100</v>
       </c>
       <c r="R3" s="14">
@@ -1671,16 +1677,15 @@
         <v>100</v>
       </c>
       <c r="T3" s="16">
-        <f>SUM(R3:S3)/T$1</f>
+        <f t="shared" ref="T3:T30" si="2">SUM(R3:S3)/T$1</f>
         <v>100</v>
       </c>
       <c r="U3" s="6">
-        <v>60</v>
-      </c>
-      <c r="V3" s="44"/>
+        <v>100</v>
+      </c>
+      <c r="V3" s="43"/>
       <c r="W3" s="21">
-        <f>L3*0.2+Q3*0.25+T3*0.25+U3*0.3+V3*0.15</f>
-        <v>91.333333333333343</v>
+        <v>100</v>
       </c>
       <c r="X3" s="1" t="s">
         <v>37</v>
@@ -1708,7 +1713,7 @@
       <c r="G4" s="7">
         <v>2</v>
       </c>
-      <c r="H4" s="51">
+      <c r="H4" s="50">
         <v>2</v>
       </c>
       <c r="I4" s="7">
@@ -1717,11 +1722,11 @@
       <c r="J4" s="7">
         <v>2</v>
       </c>
-      <c r="K4" s="48">
+      <c r="K4" s="47">
         <v>0</v>
       </c>
       <c r="L4" s="16">
-        <f>SUM(D4:J4)*50/(L$1-K4)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="M4" s="14">
@@ -1733,11 +1738,11 @@
       <c r="O4" s="6">
         <v>90</v>
       </c>
-      <c r="P4" s="48">
+      <c r="P4" s="47">
         <v>0</v>
       </c>
       <c r="Q4" s="16">
-        <f>SUM(M4:O4)/(Q$1-P4)</f>
+        <f t="shared" si="1"/>
         <v>93.333333333333329</v>
       </c>
       <c r="R4" s="14">
@@ -1747,27 +1752,27 @@
         <v>80</v>
       </c>
       <c r="T4" s="16">
-        <f>SUM(R4:S4)/T$1</f>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="U4" s="6">
-        <v>60</v>
-      </c>
-      <c r="V4" s="44"/>
+        <v>80</v>
+      </c>
+      <c r="V4" s="43"/>
       <c r="W4" s="21">
         <f>L4*0.2+Q4*0.25+T4*0.25+U4*0.3+V4*0.1</f>
-        <v>81.333333333333329</v>
+        <v>87.333333333333329</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="D5" s="12">
         <v>0</v>
@@ -1781,8 +1786,8 @@
       <c r="G5" s="7">
         <v>2</v>
       </c>
-      <c r="H5" s="51">
-        <v>2</v>
+      <c r="H5" s="50">
+        <v>1.7</v>
       </c>
       <c r="I5" s="7">
         <v>2</v>
@@ -1790,130 +1795,130 @@
       <c r="J5" s="7">
         <v>2</v>
       </c>
-      <c r="K5" s="48">
+      <c r="K5" s="47">
         <v>0</v>
       </c>
       <c r="L5" s="16">
-        <f>SUM(D5:J5)*50/(L$1-K5)</f>
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>97.5</v>
       </c>
       <c r="M5" s="14">
         <v>90</v>
       </c>
       <c r="N5" s="6">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="O5" s="6">
-        <v>80</v>
-      </c>
-      <c r="P5" s="48">
+        <v>50</v>
+      </c>
+      <c r="P5" s="47">
         <v>0</v>
       </c>
       <c r="Q5" s="16">
-        <f>SUM(M5:O5)/(Q$1-P5)</f>
-        <v>83.333333333333329</v>
+        <f t="shared" si="1"/>
+        <v>75</v>
       </c>
       <c r="R5" s="14">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="S5" s="14">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="T5" s="16">
-        <f>SUM(R5:S5)/T$1</f>
-        <v>52.5</v>
+        <f t="shared" si="2"/>
+        <v>40</v>
       </c>
       <c r="U5" s="6">
-        <v>60</v>
-      </c>
-      <c r="V5" s="44"/>
+        <v>66</v>
+      </c>
+      <c r="V5" s="43"/>
       <c r="W5" s="21">
-        <f>L5*0.2+Q5*0.25+T5*0.25+U5*0.3+V5*0.15</f>
-        <v>71.958333333333329</v>
+        <f t="shared" ref="W5:W14" si="3">L5*0.2+Q5*0.25+T5*0.25+U5*0.3+V5*0.15</f>
+        <v>68.05</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C6" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="12">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7">
+        <v>2</v>
+      </c>
+      <c r="F6" s="7">
+        <v>2</v>
+      </c>
+      <c r="G6" s="7">
+        <v>2</v>
+      </c>
+      <c r="H6" s="50">
+        <v>2</v>
+      </c>
+      <c r="I6" s="7">
+        <v>2</v>
+      </c>
+      <c r="J6" s="7">
+        <v>2</v>
+      </c>
+      <c r="K6" s="47">
+        <v>0</v>
+      </c>
+      <c r="L6" s="16">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="M6" s="14">
+        <v>95</v>
+      </c>
+      <c r="N6" s="6">
+        <v>100</v>
+      </c>
+      <c r="O6" s="6">
+        <v>90</v>
+      </c>
+      <c r="P6" s="47">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="16">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="R6" s="14">
+        <v>30</v>
+      </c>
+      <c r="S6" s="14">
+        <v>2</v>
+      </c>
+      <c r="T6" s="16">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="U6" s="6">
         <v>53</v>
       </c>
-      <c r="D6" s="12">
-        <v>2</v>
-      </c>
-      <c r="E6" s="7">
-        <v>2</v>
-      </c>
-      <c r="F6" s="7">
-        <v>2</v>
-      </c>
-      <c r="G6" s="7">
-        <v>2</v>
-      </c>
-      <c r="H6" s="51">
-        <v>2</v>
-      </c>
-      <c r="I6" s="7">
-        <v>2</v>
-      </c>
-      <c r="J6" s="7">
-        <v>1.8</v>
-      </c>
-      <c r="K6" s="48">
-        <v>0</v>
-      </c>
-      <c r="L6" s="16">
-        <f>SUM(D6:J6)*50/(L$1-K6)</f>
-        <v>115</v>
-      </c>
-      <c r="M6" s="14">
-        <v>85</v>
-      </c>
-      <c r="N6" s="6">
-        <v>90</v>
-      </c>
-      <c r="O6" s="6">
-        <v>50</v>
-      </c>
-      <c r="P6" s="48">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="16">
-        <f>SUM(M6:O6)/(Q$1-P6)</f>
-        <v>75</v>
-      </c>
-      <c r="R6" s="14">
-        <v>20</v>
-      </c>
-      <c r="S6" s="14">
-        <v>65</v>
-      </c>
-      <c r="T6" s="16">
-        <f>SUM(R6:S6)/T$1</f>
-        <v>42.5</v>
-      </c>
-      <c r="U6" s="6">
-        <v>60</v>
-      </c>
-      <c r="V6" s="44"/>
+      <c r="V6" s="43"/>
       <c r="W6" s="21">
-        <f>L6*0.2+Q6*0.25+T6*0.25+U6*0.3+V6*0.15</f>
-        <v>70.375</v>
+        <f t="shared" si="3"/>
+        <v>63.65</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="D7" s="12">
         <v>2</v>
@@ -1927,97 +1932,97 @@
       <c r="G7" s="7">
         <v>2</v>
       </c>
-      <c r="H7" s="51">
+      <c r="H7" s="50">
         <v>2</v>
       </c>
       <c r="I7" s="7">
         <v>2</v>
       </c>
       <c r="J7" s="7">
-        <v>1.8</v>
-      </c>
-      <c r="K7" s="48">
+        <v>2</v>
+      </c>
+      <c r="K7" s="47">
         <v>0</v>
       </c>
       <c r="L7" s="16">
-        <f>SUM(D7:J7)*50/(L$1-K7)</f>
-        <v>115</v>
+        <f t="shared" si="0"/>
+        <v>116.66666666666667</v>
       </c>
       <c r="M7" s="14">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="N7" s="6">
+        <v>100</v>
+      </c>
+      <c r="O7" s="6">
         <v>90</v>
       </c>
-      <c r="O7" s="6">
-        <v>60</v>
-      </c>
-      <c r="P7" s="48">
+      <c r="P7" s="47">
         <v>0</v>
       </c>
       <c r="Q7" s="16">
-        <f>SUM(M7:O7)/(Q$1-P7)</f>
-        <v>76.666666666666671</v>
+        <f t="shared" si="1"/>
+        <v>95</v>
       </c>
       <c r="R7" s="14">
         <v>40</v>
       </c>
       <c r="S7" s="14">
-        <v>30</v>
+        <v>-25</v>
       </c>
       <c r="T7" s="16">
-        <f>SUM(R7:S7)/T$1</f>
-        <v>35</v>
+        <f t="shared" si="2"/>
+        <v>7.5</v>
       </c>
       <c r="U7" s="6">
-        <v>60</v>
-      </c>
-      <c r="V7" s="44"/>
+        <v>42</v>
+      </c>
+      <c r="V7" s="43"/>
       <c r="W7" s="21">
-        <f>L7*0.2+Q7*0.25+T7*0.25+U7*0.3+V7*0.15</f>
-        <v>68.916666666666671</v>
+        <f t="shared" si="3"/>
+        <v>61.558333333333337</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="D8" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7">
         <v>2</v>
       </c>
       <c r="F8" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G8" s="7">
         <v>2</v>
       </c>
-      <c r="H8" s="51">
+      <c r="H8" s="50">
         <v>2</v>
       </c>
       <c r="I8" s="7">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="J8" s="7">
         <v>2</v>
       </c>
-      <c r="K8" s="48">
+      <c r="K8" s="47">
         <v>0</v>
       </c>
       <c r="L8" s="16">
-        <f>SUM(D8:J8)*50/(L$1-K8)</f>
-        <v>116.66666666666667</v>
+        <f t="shared" si="0"/>
+        <v>81.666666666666671</v>
       </c>
       <c r="M8" s="14">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="N8" s="6">
         <v>100</v>
@@ -2025,41 +2030,41 @@
       <c r="O8" s="6">
         <v>90</v>
       </c>
-      <c r="P8" s="48">
+      <c r="P8" s="47">
         <v>0</v>
       </c>
       <c r="Q8" s="16">
-        <f>SUM(M8:O8)/(Q$1-P8)</f>
-        <v>95</v>
+        <f t="shared" si="1"/>
+        <v>93.333333333333329</v>
       </c>
       <c r="R8" s="14">
+        <v>10</v>
+      </c>
+      <c r="S8" s="14">
+        <v>61</v>
+      </c>
+      <c r="T8" s="16">
+        <f t="shared" si="2"/>
+        <v>35.5</v>
+      </c>
+      <c r="U8" s="6">
         <v>40</v>
       </c>
-      <c r="S8" s="14">
-        <v>-25</v>
-      </c>
-      <c r="T8" s="16">
-        <f>SUM(R8:S8)/T$1</f>
-        <v>7.5</v>
-      </c>
-      <c r="U8" s="6">
-        <v>60</v>
-      </c>
-      <c r="V8" s="44"/>
+      <c r="V8" s="43"/>
       <c r="W8" s="21">
-        <f>L8*0.2+Q8*0.25+T8*0.25+U8*0.3+V8*0.15</f>
-        <v>66.958333333333343</v>
+        <f t="shared" si="3"/>
+        <v>60.541666666666671</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="D9" s="12">
         <v>0</v>
@@ -2068,71 +2073,71 @@
         <v>2</v>
       </c>
       <c r="F9" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G9" s="7">
         <v>2</v>
       </c>
-      <c r="H9" s="51">
+      <c r="H9" s="50">
         <v>2</v>
       </c>
       <c r="I9" s="7">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="J9" s="7">
         <v>2</v>
       </c>
-      <c r="K9" s="48">
+      <c r="K9" s="47">
         <v>0</v>
       </c>
       <c r="L9" s="16">
-        <f>SUM(D9:J9)*50/(L$1-K9)</f>
-        <v>81.666666666666671</v>
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
       <c r="M9" s="14">
         <v>90</v>
       </c>
       <c r="N9" s="6">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="O9" s="6">
-        <v>90</v>
-      </c>
-      <c r="P9" s="48">
+        <v>80</v>
+      </c>
+      <c r="P9" s="47">
         <v>0</v>
       </c>
       <c r="Q9" s="16">
-        <f>SUM(M9:O9)/(Q$1-P9)</f>
-        <v>93.333333333333329</v>
+        <f t="shared" si="1"/>
+        <v>83.333333333333329</v>
       </c>
       <c r="R9" s="14">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="S9" s="14">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="T9" s="16">
-        <f>SUM(R9:S9)/T$1</f>
-        <v>35.5</v>
+        <f t="shared" si="2"/>
+        <v>52.5</v>
       </c>
       <c r="U9" s="6">
-        <v>60</v>
-      </c>
-      <c r="V9" s="44"/>
+        <v>16</v>
+      </c>
+      <c r="V9" s="43"/>
       <c r="W9" s="21">
-        <f>L9*0.2+Q9*0.25+T9*0.25+U9*0.3+V9*0.15</f>
-        <v>66.541666666666671</v>
+        <f t="shared" si="3"/>
+        <v>58.758333333333326</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="D10" s="12">
         <v>0</v>
@@ -2146,8 +2151,8 @@
       <c r="G10" s="7">
         <v>2</v>
       </c>
-      <c r="H10" s="51">
-        <v>1.7</v>
+      <c r="H10" s="50">
+        <v>2</v>
       </c>
       <c r="I10" s="7">
         <v>2</v>
@@ -2155,60 +2160,60 @@
       <c r="J10" s="7">
         <v>2</v>
       </c>
-      <c r="K10" s="48">
+      <c r="K10" s="47">
         <v>0</v>
       </c>
       <c r="L10" s="16">
-        <f>SUM(D10:J10)*50/(L$1-K10)</f>
-        <v>97.5</v>
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
       <c r="M10" s="14">
         <v>90</v>
       </c>
       <c r="N10" s="6">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="O10" s="6">
-        <v>50</v>
-      </c>
-      <c r="P10" s="48">
+        <v>90</v>
+      </c>
+      <c r="P10" s="47">
         <v>0</v>
       </c>
       <c r="Q10" s="16">
-        <f>SUM(M10:O10)/(Q$1-P10)</f>
-        <v>75</v>
+        <f t="shared" si="1"/>
+        <v>93.333333333333329</v>
       </c>
       <c r="R10" s="14">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="S10" s="14">
-        <v>50</v>
+        <v>-25</v>
       </c>
       <c r="T10" s="16">
-        <f>SUM(R10:S10)/T$1</f>
-        <v>40</v>
+        <f t="shared" si="2"/>
+        <v>7.5</v>
       </c>
       <c r="U10" s="6">
-        <v>60</v>
-      </c>
-      <c r="V10" s="44"/>
+        <v>42</v>
+      </c>
+      <c r="V10" s="43"/>
       <c r="W10" s="21">
-        <f>L10*0.2+Q10*0.25+T10*0.25+U10*0.3+V10*0.15</f>
-        <v>66.25</v>
+        <f t="shared" si="3"/>
+        <v>57.80833333333333</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D11" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E11" s="7">
         <v>2</v>
@@ -2219,69 +2224,69 @@
       <c r="G11" s="7">
         <v>2</v>
       </c>
-      <c r="H11" s="51">
+      <c r="H11" s="50">
         <v>2</v>
       </c>
       <c r="I11" s="7">
         <v>2</v>
       </c>
       <c r="J11" s="7">
-        <v>2</v>
-      </c>
-      <c r="K11" s="48">
+        <v>1.8</v>
+      </c>
+      <c r="K11" s="47">
         <v>0</v>
       </c>
       <c r="L11" s="16">
-        <f>SUM(D11:J11)*50/(L$1-K11)</f>
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>115</v>
       </c>
       <c r="M11" s="14">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="N11" s="6">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="O11" s="6">
-        <v>90</v>
-      </c>
-      <c r="P11" s="48">
+        <v>60</v>
+      </c>
+      <c r="P11" s="47">
         <v>0</v>
       </c>
       <c r="Q11" s="16">
-        <f>SUM(M11:O11)/(Q$1-P11)</f>
-        <v>95</v>
+        <f t="shared" si="1"/>
+        <v>76.666666666666671</v>
       </c>
       <c r="R11" s="14">
+        <v>40</v>
+      </c>
+      <c r="S11" s="14">
         <v>30</v>
       </c>
-      <c r="S11" s="14">
-        <v>2</v>
-      </c>
       <c r="T11" s="16">
-        <f>SUM(R11:S11)/T$1</f>
-        <v>16</v>
+        <f t="shared" si="2"/>
+        <v>35</v>
       </c>
       <c r="U11" s="6">
-        <v>60</v>
-      </c>
-      <c r="V11" s="44"/>
+        <v>15</v>
+      </c>
+      <c r="V11" s="43"/>
       <c r="W11" s="21">
-        <f>L11*0.2+Q11*0.25+T11*0.25+U11*0.3+V11*0.15</f>
-        <v>65.75</v>
+        <f t="shared" si="3"/>
+        <v>55.416666666666671</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="D12" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E12" s="7">
         <v>2</v>
@@ -2292,55 +2297,55 @@
       <c r="G12" s="7">
         <v>2</v>
       </c>
-      <c r="H12" s="51">
+      <c r="H12" s="50">
         <v>2</v>
       </c>
       <c r="I12" s="7">
         <v>2</v>
       </c>
       <c r="J12" s="7">
-        <v>2</v>
-      </c>
-      <c r="K12" s="48">
+        <v>1.8</v>
+      </c>
+      <c r="K12" s="47">
         <v>0</v>
       </c>
       <c r="L12" s="16">
-        <f>SUM(D12:J12)*50/(L$1-K12)</f>
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>115</v>
       </c>
       <c r="M12" s="14">
+        <v>85</v>
+      </c>
+      <c r="N12" s="6">
         <v>90</v>
       </c>
-      <c r="N12" s="6">
-        <v>100</v>
-      </c>
       <c r="O12" s="6">
-        <v>90</v>
-      </c>
-      <c r="P12" s="48">
+        <v>50</v>
+      </c>
+      <c r="P12" s="47">
         <v>0</v>
       </c>
       <c r="Q12" s="16">
-        <f>SUM(M12:O12)/(Q$1-P12)</f>
-        <v>93.333333333333329</v>
+        <f t="shared" si="1"/>
+        <v>75</v>
       </c>
       <c r="R12" s="14">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="S12" s="14">
-        <v>-25</v>
+        <v>65</v>
       </c>
       <c r="T12" s="16">
-        <f>SUM(R12:S12)/T$1</f>
-        <v>7.5</v>
+        <f t="shared" si="2"/>
+        <v>42.5</v>
       </c>
       <c r="U12" s="6">
-        <v>60</v>
-      </c>
-      <c r="V12" s="44"/>
+        <v>5</v>
+      </c>
+      <c r="V12" s="43"/>
       <c r="W12" s="21">
-        <f>L12*0.2+Q12*0.25+T12*0.25+U12*0.3+V12*0.15</f>
-        <v>63.208333333333329</v>
+        <f t="shared" si="3"/>
+        <v>53.875</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2365,7 +2370,7 @@
       <c r="G13" s="7">
         <v>1.8</v>
       </c>
-      <c r="H13" s="51">
+      <c r="H13" s="50">
         <v>2</v>
       </c>
       <c r="I13" s="7">
@@ -2374,11 +2379,11 @@
       <c r="J13" s="7">
         <v>2</v>
       </c>
-      <c r="K13" s="48">
+      <c r="K13" s="47">
         <v>0</v>
       </c>
       <c r="L13" s="16">
-        <f>SUM(D13:J13)*50/(L$1-K13)</f>
+        <f t="shared" si="0"/>
         <v>98.333333333333329</v>
       </c>
       <c r="M13" s="14">
@@ -2390,11 +2395,11 @@
       <c r="O13" s="6">
         <v>70</v>
       </c>
-      <c r="P13" s="48">
+      <c r="P13" s="47">
         <v>0</v>
       </c>
       <c r="Q13" s="16">
-        <f>SUM(M13:O13)/(Q$1-P13)</f>
+        <f t="shared" si="1"/>
         <v>86.666666666666671</v>
       </c>
       <c r="R13" s="14">
@@ -2404,173 +2409,173 @@
         <v>-25</v>
       </c>
       <c r="T13" s="16">
-        <f>SUM(R13:S13)/T$1</f>
+        <f t="shared" si="2"/>
         <v>-2.5</v>
       </c>
       <c r="U13" s="6">
-        <v>60</v>
-      </c>
-      <c r="V13" s="44"/>
+        <v>42</v>
+      </c>
+      <c r="V13" s="43"/>
       <c r="W13" s="21">
-        <f>L13*0.2+Q13*0.25+T13*0.25+U13*0.3+V13*0.15</f>
-        <v>58.708333333333336</v>
+        <f t="shared" si="3"/>
+        <v>53.308333333333337</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="D14" s="12">
         <v>0</v>
       </c>
-      <c r="E14" s="51" t="s">
+      <c r="E14" s="7">
+        <v>2</v>
+      </c>
+      <c r="F14" s="7">
+        <v>2</v>
+      </c>
+      <c r="G14" s="7">
+        <v>2</v>
+      </c>
+      <c r="H14" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="F14" s="51" t="s">
+      <c r="I14" s="7">
+        <v>1.8</v>
+      </c>
+      <c r="J14" s="7">
+        <v>2</v>
+      </c>
+      <c r="K14" s="48">
+        <v>1</v>
+      </c>
+      <c r="L14" s="16">
+        <f t="shared" si="0"/>
+        <v>98.000000000000014</v>
+      </c>
+      <c r="M14" s="14">
         <v>95</v>
       </c>
-      <c r="G14" s="51" t="s">
-        <v>95</v>
-      </c>
-      <c r="H14" s="51">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>2</v>
-      </c>
-      <c r="J14" s="7">
-        <v>2</v>
-      </c>
-      <c r="K14" s="48">
-        <v>3</v>
-      </c>
-      <c r="L14" s="16">
-        <f>SUM(D14:J14)*50/(L$1-K14)</f>
-        <v>66.666666666666671</v>
-      </c>
-      <c r="M14" s="55" t="s">
-        <v>95</v>
-      </c>
       <c r="N14" s="6">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="O14" s="6">
-        <v>50</v>
-      </c>
-      <c r="P14" s="48">
-        <v>1</v>
+        <v>80</v>
+      </c>
+      <c r="P14" s="47">
+        <v>0</v>
       </c>
       <c r="Q14" s="16">
-        <f>SUM(M14:O14)/(Q$1-P14)</f>
-        <v>62.5</v>
+        <f t="shared" si="1"/>
+        <v>91.666666666666671</v>
       </c>
       <c r="R14" s="14">
-        <v>61</v>
+        <v>-25</v>
       </c>
       <c r="S14" s="14">
-        <v>20</v>
+        <v>-25</v>
       </c>
       <c r="T14" s="16">
-        <f>SUM(R14:S14)/T$1</f>
-        <v>40.5</v>
+        <f t="shared" si="2"/>
+        <v>-25</v>
       </c>
       <c r="U14" s="6">
-        <v>60</v>
-      </c>
-      <c r="V14" s="44"/>
+        <v>52</v>
+      </c>
+      <c r="V14" s="43"/>
       <c r="W14" s="21">
-        <f>L14*0.2+Q14*0.25+T14*0.25+U14*0.3+V14*0.1</f>
-        <v>57.083333333333336</v>
+        <f t="shared" si="3"/>
+        <v>51.866666666666674</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="D15" s="12">
         <v>0</v>
       </c>
-      <c r="E15" s="7">
-        <v>2</v>
-      </c>
-      <c r="F15" s="7">
-        <v>2</v>
-      </c>
-      <c r="G15" s="7">
-        <v>2</v>
-      </c>
-      <c r="H15" s="51" t="s">
+      <c r="E15" s="50" t="s">
         <v>95</v>
       </c>
+      <c r="F15" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="G15" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="H15" s="50">
+        <v>0</v>
+      </c>
       <c r="I15" s="7">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="J15" s="7">
         <v>2</v>
       </c>
-      <c r="K15" s="49">
+      <c r="K15" s="47">
+        <v>3</v>
+      </c>
+      <c r="L15" s="16">
+        <f t="shared" si="0"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="M15" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="N15" s="6">
+        <v>75</v>
+      </c>
+      <c r="O15" s="6">
+        <v>50</v>
+      </c>
+      <c r="P15" s="47">
         <v>1</v>
       </c>
-      <c r="L15" s="16">
-        <f>SUM(D15:J15)*50/(L$1-K15)</f>
-        <v>98.000000000000014</v>
-      </c>
-      <c r="M15" s="14">
-        <v>95</v>
-      </c>
-      <c r="N15" s="6">
-        <v>100</v>
-      </c>
-      <c r="O15" s="6">
-        <v>80</v>
-      </c>
-      <c r="P15" s="48">
-        <v>0</v>
-      </c>
       <c r="Q15" s="16">
-        <f>SUM(M15:O15)/(Q$1-P15)</f>
-        <v>91.666666666666671</v>
+        <f t="shared" si="1"/>
+        <v>62.5</v>
       </c>
       <c r="R15" s="14">
-        <v>-25</v>
+        <v>61</v>
       </c>
       <c r="S15" s="14">
-        <v>-25</v>
+        <v>20</v>
       </c>
       <c r="T15" s="16">
-        <f>SUM(R15:S15)/T$1</f>
-        <v>-25</v>
+        <f t="shared" si="2"/>
+        <v>40.5</v>
       </c>
       <c r="U15" s="6">
-        <v>60</v>
-      </c>
-      <c r="V15" s="44"/>
+        <v>0</v>
+      </c>
+      <c r="V15" s="43"/>
       <c r="W15" s="21">
-        <f>L15*0.2+Q15*0.25+T15*0.25+U15*0.3+V15*0.15</f>
-        <v>54.266666666666673</v>
+        <f>L15*0.2+Q15*0.25+T15*0.25+U15*0.3+V15*0.1</f>
+        <v>39.083333333333336</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="D16" s="12">
         <v>0</v>
@@ -2584,66 +2589,66 @@
       <c r="G16" s="7">
         <v>2</v>
       </c>
-      <c r="H16" s="51">
-        <v>2</v>
+      <c r="H16" s="50">
+        <v>0</v>
       </c>
       <c r="I16" s="7">
         <v>2</v>
       </c>
       <c r="J16" s="7">
-        <v>2</v>
-      </c>
-      <c r="K16" s="48">
+        <v>0</v>
+      </c>
+      <c r="K16" s="47">
         <v>0</v>
       </c>
       <c r="L16" s="16">
-        <f>SUM(D16:J16)*50/(L$1-K16)</f>
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>66.666666666666671</v>
       </c>
       <c r="M16" s="14">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="N16" s="6">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="O16" s="6">
-        <v>80</v>
-      </c>
-      <c r="P16" s="48">
+        <v>0</v>
+      </c>
+      <c r="P16" s="47">
         <v>0</v>
       </c>
       <c r="Q16" s="16">
-        <f>SUM(M16:O16)/(Q$1-P16)</f>
-        <v>90</v>
+        <f t="shared" si="1"/>
+        <v>60</v>
       </c>
       <c r="R16" s="14">
-        <v>-25</v>
+        <v>1</v>
       </c>
       <c r="S16" s="14">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="T16" s="16">
-        <f>SUM(R16:S16)/T$1</f>
-        <v>-25</v>
+        <f t="shared" si="2"/>
+        <v>0.5</v>
       </c>
       <c r="U16" s="6">
-        <v>60</v>
-      </c>
-      <c r="V16" s="44"/>
+        <v>31</v>
+      </c>
+      <c r="V16" s="43"/>
       <c r="W16" s="21">
         <f>L16*0.2+Q16*0.25+T16*0.25+U16*0.3+V16*0.15</f>
-        <v>54.25</v>
+        <v>37.758333333333333</v>
       </c>
     </row>
     <row r="17" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="D17" s="12">
         <v>0</v>
@@ -2657,205 +2662,206 @@
       <c r="G17" s="7">
         <v>2</v>
       </c>
-      <c r="H17" s="51">
-        <v>0</v>
+      <c r="H17" s="50">
+        <v>2</v>
       </c>
       <c r="I17" s="7">
         <v>2</v>
       </c>
       <c r="J17" s="7">
-        <v>0</v>
-      </c>
-      <c r="K17" s="48">
+        <v>2</v>
+      </c>
+      <c r="K17" s="47">
         <v>0</v>
       </c>
       <c r="L17" s="16">
-        <f>SUM(D17:J17)*50/(L$1-K17)</f>
-        <v>66.666666666666671</v>
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
       <c r="M17" s="14">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="N17" s="6">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="O17" s="6">
-        <v>0</v>
-      </c>
-      <c r="P17" s="48">
+        <v>80</v>
+      </c>
+      <c r="P17" s="47">
         <v>0</v>
       </c>
       <c r="Q17" s="16">
-        <f>SUM(M17:O17)/(Q$1-P17)</f>
-        <v>60</v>
+        <f t="shared" si="1"/>
+        <v>90</v>
       </c>
       <c r="R17" s="14">
-        <v>1</v>
+        <v>-25</v>
       </c>
       <c r="S17" s="14">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="T17" s="16">
-        <f>SUM(R17:S17)/T$1</f>
-        <v>0.5</v>
+        <f t="shared" si="2"/>
+        <v>-25</v>
       </c>
       <c r="U17" s="6">
-        <v>60</v>
-      </c>
-      <c r="V17" s="44"/>
+        <v>0</v>
+      </c>
+      <c r="V17" s="43"/>
       <c r="W17" s="21">
         <f>L17*0.2+Q17*0.25+T17*0.25+U17*0.3+V17*0.15</f>
-        <v>46.458333333333336</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" s="47" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>36.25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" s="46" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="D18" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E18" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F18" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G18" s="12">
         <v>0</v>
       </c>
-      <c r="H18" s="51">
-        <v>0</v>
+      <c r="H18" s="50">
+        <v>2</v>
       </c>
       <c r="I18" s="7">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="J18" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="K18" s="48">
+        <v>0</v>
+      </c>
+      <c r="K18" s="47">
         <v>0</v>
       </c>
       <c r="L18" s="16">
-        <f>SUM(D18:J18)*50/(L$1-K18)</f>
-        <v>11.666666666666666</v>
+        <f t="shared" si="0"/>
+        <v>83.333333333333329</v>
       </c>
       <c r="M18" s="14">
         <v>0</v>
       </c>
       <c r="N18" s="6">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="O18" s="6">
-        <v>80</v>
-      </c>
-      <c r="P18" s="48">
+        <v>0</v>
+      </c>
+      <c r="P18" s="47">
         <v>0</v>
       </c>
       <c r="Q18" s="16">
-        <f>SUM(M18:O18)/(Q$1-P18)</f>
-        <v>40</v>
+        <f t="shared" si="1"/>
+        <v>33.333333333333336</v>
       </c>
       <c r="R18" s="14">
-        <v>40</v>
+        <v>-25</v>
       </c>
       <c r="S18" s="14">
-        <v>61</v>
+        <v>-25</v>
       </c>
       <c r="T18" s="16">
-        <f>SUM(R18:S18)/T$1</f>
-        <v>50.5</v>
+        <f t="shared" si="2"/>
+        <v>-25</v>
       </c>
       <c r="U18" s="6">
-        <v>60</v>
-      </c>
-      <c r="V18" s="44"/>
+        <v>45</v>
+      </c>
+      <c r="V18" s="43"/>
       <c r="W18" s="21">
-        <f>L18*0.2+Q18*0.25+T18*0.25+U18*0.3+V18*0.1</f>
-        <v>42.958333333333336</v>
-      </c>
-      <c r="X18" s="9"/>
+        <f>L18*0.2+Q18*0.25+T18*0.25+U18*0.3+V18*0.15</f>
+        <v>32.25</v>
+      </c>
+      <c r="X18" s="1"/>
     </row>
     <row r="19" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="D19" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E19" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F19" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G19" s="12">
         <v>0</v>
       </c>
-      <c r="H19" s="51">
-        <v>2</v>
+      <c r="H19" s="50">
+        <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="J19" s="7">
-        <v>0</v>
-      </c>
-      <c r="K19" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="K19" s="47">
         <v>0</v>
       </c>
       <c r="L19" s="16">
-        <f>SUM(D19:J19)*50/(L$1-K19)</f>
-        <v>83.333333333333329</v>
+        <f t="shared" si="0"/>
+        <v>11.666666666666666</v>
       </c>
       <c r="M19" s="14">
         <v>0</v>
       </c>
       <c r="N19" s="6">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="O19" s="6">
-        <v>0</v>
-      </c>
-      <c r="P19" s="48">
+        <v>80</v>
+      </c>
+      <c r="P19" s="47">
         <v>0</v>
       </c>
       <c r="Q19" s="16">
-        <f>SUM(M19:O19)/(Q$1-P19)</f>
-        <v>33.333333333333336</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="R19" s="14">
-        <v>-25</v>
+        <v>40</v>
       </c>
       <c r="S19" s="14">
-        <v>-25</v>
+        <v>61</v>
       </c>
       <c r="T19" s="16">
-        <f>SUM(R19:S19)/T$1</f>
-        <v>-25</v>
+        <f t="shared" si="2"/>
+        <v>50.5</v>
       </c>
       <c r="U19" s="6">
-        <v>60</v>
-      </c>
-      <c r="V19" s="44"/>
+        <v>2</v>
+      </c>
+      <c r="V19" s="43"/>
       <c r="W19" s="21">
-        <f>L19*0.2+Q19*0.25+T19*0.25+U19*0.3+V19*0.15</f>
-        <v>36.75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" s="47" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <f>L19*0.2+Q19*0.25+T19*0.25+U19*0.3+V19*0.1</f>
+        <v>25.558333333333337</v>
+      </c>
+      <c r="X19" s="9"/>
+    </row>
+    <row r="20" spans="1:24" s="46" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
         <v>85</v>
       </c>
@@ -2868,7 +2874,7 @@
       <c r="D20" s="12">
         <v>0</v>
       </c>
-      <c r="E20" s="54" t="s">
+      <c r="E20" s="53" t="s">
         <v>95</v>
       </c>
       <c r="F20" s="12">
@@ -2877,7 +2883,7 @@
       <c r="G20" s="12">
         <v>0</v>
       </c>
-      <c r="H20" s="51">
+      <c r="H20" s="50">
         <v>0</v>
       </c>
       <c r="I20" s="7">
@@ -2886,11 +2892,11 @@
       <c r="J20" s="7">
         <v>2</v>
       </c>
-      <c r="K20" s="48">
+      <c r="K20" s="47">
         <v>1</v>
       </c>
       <c r="L20" s="16">
-        <f>SUM(D20:J20)*50/(L$1-K20)</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="M20" s="14">
@@ -2902,11 +2908,11 @@
       <c r="O20" s="6">
         <v>20</v>
       </c>
-      <c r="P20" s="48">
+      <c r="P20" s="47">
         <v>0</v>
       </c>
       <c r="Q20" s="16">
-        <f>SUM(M20:O20)/(Q$1-P20)</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="R20" s="14">
@@ -2916,16 +2922,16 @@
         <v>0</v>
       </c>
       <c r="T20" s="16">
-        <f>SUM(R20:S20)/T$1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U20" s="6">
-        <v>60</v>
-      </c>
-      <c r="V20" s="44"/>
+        <v>1</v>
+      </c>
+      <c r="V20" s="43"/>
       <c r="W20" s="21">
         <f>L20*0.2+Q20*0.25+T20*0.25+U20*0.3+V20*0.1</f>
-        <v>30.2</v>
+        <v>12.5</v>
       </c>
       <c r="X20" s="1"/>
     </row>
@@ -2951,7 +2957,7 @@
       <c r="G21" s="12">
         <v>0</v>
       </c>
-      <c r="H21" s="51">
+      <c r="H21" s="50">
         <v>2</v>
       </c>
       <c r="I21" s="7">
@@ -2960,11 +2966,11 @@
       <c r="J21" s="7">
         <v>0</v>
       </c>
-      <c r="K21" s="48">
+      <c r="K21" s="47">
         <v>0</v>
       </c>
       <c r="L21" s="16">
-        <f>SUM(D21:J21)*50/(L$1-K21)</f>
+        <f t="shared" si="0"/>
         <v>16.666666666666668</v>
       </c>
       <c r="M21" s="14">
@@ -2976,11 +2982,11 @@
       <c r="O21" s="6">
         <v>0</v>
       </c>
-      <c r="P21" s="48">
+      <c r="P21" s="47">
         <v>0</v>
       </c>
       <c r="Q21" s="16">
-        <f>SUM(M21:O21)/(Q$1-P21)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R21" s="14">
@@ -2990,657 +2996,675 @@
         <v>25</v>
       </c>
       <c r="T21" s="16">
-        <f>SUM(R21:S21)/T$1</f>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="U21" s="6">
-        <v>60</v>
-      </c>
-      <c r="V21" s="44"/>
+        <v>0</v>
+      </c>
+      <c r="V21" s="43"/>
       <c r="W21" s="21">
-        <f>L21*0.2+Q21*0.25+T21*0.25+U21*0.3+V21*0.15</f>
-        <v>27.583333333333336</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" s="68" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="56" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" s="57" t="s">
+        <f t="shared" ref="W21:W29" si="4">L21*0.2+Q21*0.25+T21*0.25+U21*0.3+V21*0.15</f>
+        <v>9.5833333333333339</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" s="67" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="58" t="s">
+      <c r="C22" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="59">
-        <v>0</v>
-      </c>
-      <c r="E22" s="59">
-        <v>0</v>
-      </c>
-      <c r="F22" s="59">
-        <v>0</v>
-      </c>
-      <c r="G22" s="59">
-        <v>0</v>
-      </c>
-      <c r="H22" s="60">
-        <v>0</v>
-      </c>
-      <c r="I22" s="61">
-        <v>0</v>
-      </c>
-      <c r="J22" s="61">
-        <v>0</v>
-      </c>
-      <c r="K22" s="62">
-        <v>0</v>
-      </c>
-      <c r="L22" s="63">
-        <f>SUM(D22:J22)*50/(L$1-K22)</f>
-        <v>0</v>
-      </c>
-      <c r="M22" s="64">
-        <v>0</v>
-      </c>
-      <c r="N22" s="65">
-        <v>0</v>
-      </c>
-      <c r="O22" s="65">
-        <v>0</v>
-      </c>
-      <c r="P22" s="62">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="63">
-        <f>SUM(M22:O22)/(Q$1-P22)</f>
-        <v>0</v>
-      </c>
-      <c r="R22" s="64">
-        <v>0</v>
-      </c>
-      <c r="S22" s="64">
-        <v>0</v>
-      </c>
-      <c r="T22" s="63">
-        <f>SUM(R22:S22)/T$1</f>
-        <v>0</v>
-      </c>
-      <c r="U22" s="65"/>
-      <c r="V22" s="66"/>
-      <c r="W22" s="67">
-        <f>L22*0.2+Q22*0.25+T22*0.25+U22*0.3+V22*0.15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" s="68" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="56" t="s">
+      <c r="D22" s="58">
+        <v>0</v>
+      </c>
+      <c r="E22" s="58">
+        <v>0</v>
+      </c>
+      <c r="F22" s="58">
+        <v>0</v>
+      </c>
+      <c r="G22" s="58">
+        <v>0</v>
+      </c>
+      <c r="H22" s="59">
+        <v>0</v>
+      </c>
+      <c r="I22" s="60">
+        <v>0</v>
+      </c>
+      <c r="J22" s="60">
+        <v>0</v>
+      </c>
+      <c r="K22" s="61">
+        <v>0</v>
+      </c>
+      <c r="L22" s="62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="63">
+        <v>0</v>
+      </c>
+      <c r="N22" s="64">
+        <v>0</v>
+      </c>
+      <c r="O22" s="64">
+        <v>0</v>
+      </c>
+      <c r="P22" s="61">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="62">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R22" s="63">
+        <v>0</v>
+      </c>
+      <c r="S22" s="63">
+        <v>0</v>
+      </c>
+      <c r="T22" s="62">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U22" s="64">
+        <v>0</v>
+      </c>
+      <c r="V22" s="65"/>
+      <c r="W22" s="66">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" s="67" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="57" t="s">
+      <c r="B23" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="58" t="s">
+      <c r="C23" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="59">
-        <v>0</v>
-      </c>
-      <c r="E23" s="59">
-        <v>0</v>
-      </c>
-      <c r="F23" s="59">
-        <v>0</v>
-      </c>
-      <c r="G23" s="59">
-        <v>0</v>
-      </c>
-      <c r="H23" s="60">
-        <v>0</v>
-      </c>
-      <c r="I23" s="61">
-        <v>0</v>
-      </c>
-      <c r="J23" s="61">
-        <v>0</v>
-      </c>
-      <c r="K23" s="62">
-        <v>0</v>
-      </c>
-      <c r="L23" s="63">
-        <f>SUM(D23:J23)*50/(L$1-K23)</f>
-        <v>0</v>
-      </c>
-      <c r="M23" s="64">
-        <v>0</v>
-      </c>
-      <c r="N23" s="65">
-        <v>0</v>
-      </c>
-      <c r="O23" s="65">
-        <v>0</v>
-      </c>
-      <c r="P23" s="62">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="63">
-        <f>SUM(M23:O23)/(Q$1-P23)</f>
-        <v>0</v>
-      </c>
-      <c r="R23" s="64">
-        <v>0</v>
-      </c>
-      <c r="S23" s="64">
-        <v>0</v>
-      </c>
-      <c r="T23" s="63">
-        <f>SUM(R23:S23)/T$1</f>
-        <v>0</v>
-      </c>
-      <c r="U23" s="65"/>
-      <c r="V23" s="66"/>
-      <c r="W23" s="67">
-        <f>L23*0.2+Q23*0.25+T23*0.25+U23*0.3+V23*0.15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" s="68" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="56" t="s">
+      <c r="D23" s="58">
+        <v>0</v>
+      </c>
+      <c r="E23" s="58">
+        <v>0</v>
+      </c>
+      <c r="F23" s="58">
+        <v>0</v>
+      </c>
+      <c r="G23" s="58">
+        <v>0</v>
+      </c>
+      <c r="H23" s="59">
+        <v>0</v>
+      </c>
+      <c r="I23" s="60">
+        <v>0</v>
+      </c>
+      <c r="J23" s="60">
+        <v>0</v>
+      </c>
+      <c r="K23" s="61">
+        <v>0</v>
+      </c>
+      <c r="L23" s="62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="63">
+        <v>0</v>
+      </c>
+      <c r="N23" s="64">
+        <v>0</v>
+      </c>
+      <c r="O23" s="64">
+        <v>0</v>
+      </c>
+      <c r="P23" s="61">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="62">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R23" s="63">
+        <v>0</v>
+      </c>
+      <c r="S23" s="63">
+        <v>0</v>
+      </c>
+      <c r="T23" s="62">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U23" s="64">
+        <v>0</v>
+      </c>
+      <c r="V23" s="65"/>
+      <c r="W23" s="66">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" s="67" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="57" t="s">
+      <c r="B24" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="58" t="s">
+      <c r="C24" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="59">
-        <v>0</v>
-      </c>
-      <c r="E24" s="59">
-        <v>0</v>
-      </c>
-      <c r="F24" s="59">
-        <v>0</v>
-      </c>
-      <c r="G24" s="59">
-        <v>0</v>
-      </c>
-      <c r="H24" s="60">
-        <v>0</v>
-      </c>
-      <c r="I24" s="61">
-        <v>0</v>
-      </c>
-      <c r="J24" s="61">
-        <v>0</v>
-      </c>
-      <c r="K24" s="62">
-        <v>0</v>
-      </c>
-      <c r="L24" s="63">
-        <f>SUM(D24:J24)*50/(L$1-K24)</f>
-        <v>0</v>
-      </c>
-      <c r="M24" s="64">
-        <v>0</v>
-      </c>
-      <c r="N24" s="65">
-        <v>0</v>
-      </c>
-      <c r="O24" s="65">
-        <v>0</v>
-      </c>
-      <c r="P24" s="62">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="63">
-        <f>SUM(M24:O24)/(Q$1-P24)</f>
-        <v>0</v>
-      </c>
-      <c r="R24" s="64">
-        <v>0</v>
-      </c>
-      <c r="S24" s="64">
-        <v>0</v>
-      </c>
-      <c r="T24" s="63">
-        <f>SUM(R24:S24)/T$1</f>
-        <v>0</v>
-      </c>
-      <c r="U24" s="65"/>
-      <c r="V24" s="66"/>
-      <c r="W24" s="67">
-        <f>L24*0.2+Q24*0.25+T24*0.25+U24*0.3+V24*0.15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" s="68" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="56" t="s">
+      <c r="D24" s="58">
+        <v>0</v>
+      </c>
+      <c r="E24" s="58">
+        <v>0</v>
+      </c>
+      <c r="F24" s="58">
+        <v>0</v>
+      </c>
+      <c r="G24" s="58">
+        <v>0</v>
+      </c>
+      <c r="H24" s="59">
+        <v>0</v>
+      </c>
+      <c r="I24" s="60">
+        <v>0</v>
+      </c>
+      <c r="J24" s="60">
+        <v>0</v>
+      </c>
+      <c r="K24" s="61">
+        <v>0</v>
+      </c>
+      <c r="L24" s="62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="63">
+        <v>0</v>
+      </c>
+      <c r="N24" s="64">
+        <v>0</v>
+      </c>
+      <c r="O24" s="64">
+        <v>0</v>
+      </c>
+      <c r="P24" s="61">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="62">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R24" s="63">
+        <v>0</v>
+      </c>
+      <c r="S24" s="63">
+        <v>0</v>
+      </c>
+      <c r="T24" s="62">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U24" s="64">
+        <v>0</v>
+      </c>
+      <c r="V24" s="65"/>
+      <c r="W24" s="66">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" s="67" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="57" t="s">
+      <c r="B25" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="58" t="s">
+      <c r="C25" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="59">
-        <v>0</v>
-      </c>
-      <c r="E25" s="59">
-        <v>0</v>
-      </c>
-      <c r="F25" s="59">
-        <v>0</v>
-      </c>
-      <c r="G25" s="59">
-        <v>0</v>
-      </c>
-      <c r="H25" s="60">
-        <v>0</v>
-      </c>
-      <c r="I25" s="61">
-        <v>0</v>
-      </c>
-      <c r="J25" s="61">
-        <v>0</v>
-      </c>
-      <c r="K25" s="62">
-        <v>0</v>
-      </c>
-      <c r="L25" s="63">
-        <f>SUM(D25:J25)*50/(L$1-K25)</f>
-        <v>0</v>
-      </c>
-      <c r="M25" s="64">
-        <v>0</v>
-      </c>
-      <c r="N25" s="65">
-        <v>0</v>
-      </c>
-      <c r="O25" s="65">
-        <v>0</v>
-      </c>
-      <c r="P25" s="62">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="63">
-        <f>SUM(M25:O25)/(Q$1-P25)</f>
-        <v>0</v>
-      </c>
-      <c r="R25" s="64">
-        <v>0</v>
-      </c>
-      <c r="S25" s="64">
-        <v>0</v>
-      </c>
-      <c r="T25" s="63">
-        <f>SUM(R25:S25)/T$1</f>
-        <v>0</v>
-      </c>
-      <c r="U25" s="65"/>
-      <c r="V25" s="66"/>
-      <c r="W25" s="67">
-        <f>L25*0.2+Q25*0.25+T25*0.25+U25*0.3+V25*0.15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24" s="68" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="56" t="s">
+      <c r="D25" s="58">
+        <v>0</v>
+      </c>
+      <c r="E25" s="58">
+        <v>0</v>
+      </c>
+      <c r="F25" s="58">
+        <v>0</v>
+      </c>
+      <c r="G25" s="58">
+        <v>0</v>
+      </c>
+      <c r="H25" s="59">
+        <v>0</v>
+      </c>
+      <c r="I25" s="60">
+        <v>0</v>
+      </c>
+      <c r="J25" s="60">
+        <v>0</v>
+      </c>
+      <c r="K25" s="61">
+        <v>0</v>
+      </c>
+      <c r="L25" s="62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="63">
+        <v>0</v>
+      </c>
+      <c r="N25" s="64">
+        <v>0</v>
+      </c>
+      <c r="O25" s="64">
+        <v>0</v>
+      </c>
+      <c r="P25" s="61">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="62">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R25" s="63">
+        <v>0</v>
+      </c>
+      <c r="S25" s="63">
+        <v>0</v>
+      </c>
+      <c r="T25" s="62">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U25" s="64">
+        <v>0</v>
+      </c>
+      <c r="V25" s="65"/>
+      <c r="W25" s="66">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" s="67" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="57" t="s">
+      <c r="B26" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="58" t="s">
+      <c r="C26" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="59">
-        <v>0</v>
-      </c>
-      <c r="E26" s="59">
-        <v>0</v>
-      </c>
-      <c r="F26" s="59">
-        <v>0</v>
-      </c>
-      <c r="G26" s="59">
-        <v>0</v>
-      </c>
-      <c r="H26" s="60">
-        <v>0</v>
-      </c>
-      <c r="I26" s="61">
-        <v>0</v>
-      </c>
-      <c r="J26" s="61">
-        <v>0</v>
-      </c>
-      <c r="K26" s="62">
-        <v>0</v>
-      </c>
-      <c r="L26" s="63">
-        <f>SUM(D26:J26)*50/(L$1-K26)</f>
-        <v>0</v>
-      </c>
-      <c r="M26" s="64">
-        <v>0</v>
-      </c>
-      <c r="N26" s="65">
-        <v>0</v>
-      </c>
-      <c r="O26" s="65">
-        <v>0</v>
-      </c>
-      <c r="P26" s="62">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="63">
-        <f>SUM(M26:O26)/(Q$1-P26)</f>
-        <v>0</v>
-      </c>
-      <c r="R26" s="64">
-        <v>0</v>
-      </c>
-      <c r="S26" s="64">
-        <v>0</v>
-      </c>
-      <c r="T26" s="63">
-        <f>SUM(R26:S26)/T$1</f>
-        <v>0</v>
-      </c>
-      <c r="U26" s="65"/>
-      <c r="V26" s="66"/>
-      <c r="W26" s="67">
-        <f>L26*0.2+Q26*0.25+T26*0.25+U26*0.3+V26*0.15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" s="68" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="56" t="s">
+      <c r="D26" s="58">
+        <v>0</v>
+      </c>
+      <c r="E26" s="58">
+        <v>0</v>
+      </c>
+      <c r="F26" s="58">
+        <v>0</v>
+      </c>
+      <c r="G26" s="58">
+        <v>0</v>
+      </c>
+      <c r="H26" s="59">
+        <v>0</v>
+      </c>
+      <c r="I26" s="60">
+        <v>0</v>
+      </c>
+      <c r="J26" s="60">
+        <v>0</v>
+      </c>
+      <c r="K26" s="61">
+        <v>0</v>
+      </c>
+      <c r="L26" s="62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M26" s="63">
+        <v>0</v>
+      </c>
+      <c r="N26" s="64">
+        <v>0</v>
+      </c>
+      <c r="O26" s="64">
+        <v>0</v>
+      </c>
+      <c r="P26" s="61">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="62">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R26" s="63">
+        <v>0</v>
+      </c>
+      <c r="S26" s="63">
+        <v>0</v>
+      </c>
+      <c r="T26" s="62">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U26" s="64">
+        <v>0</v>
+      </c>
+      <c r="V26" s="65"/>
+      <c r="W26" s="66">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" s="67" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="57" t="s">
+      <c r="B27" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="58" t="s">
+      <c r="C27" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="59">
-        <v>0</v>
-      </c>
-      <c r="E27" s="59">
-        <v>0</v>
-      </c>
-      <c r="F27" s="59">
-        <v>0</v>
-      </c>
-      <c r="G27" s="59">
-        <v>0</v>
-      </c>
-      <c r="H27" s="60">
-        <v>0</v>
-      </c>
-      <c r="I27" s="61">
-        <v>0</v>
-      </c>
-      <c r="J27" s="61">
-        <v>0</v>
-      </c>
-      <c r="K27" s="62">
-        <v>0</v>
-      </c>
-      <c r="L27" s="63">
-        <f>SUM(D27:J27)*50/(L$1-K27)</f>
-        <v>0</v>
-      </c>
-      <c r="M27" s="64">
-        <v>0</v>
-      </c>
-      <c r="N27" s="65">
-        <v>0</v>
-      </c>
-      <c r="O27" s="65">
-        <v>0</v>
-      </c>
-      <c r="P27" s="62">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="63">
-        <f>SUM(M27:O27)/(Q$1-P27)</f>
-        <v>0</v>
-      </c>
-      <c r="R27" s="64">
-        <v>0</v>
-      </c>
-      <c r="S27" s="64">
-        <v>0</v>
-      </c>
-      <c r="T27" s="63">
-        <f>SUM(R27:S27)/T$1</f>
-        <v>0</v>
-      </c>
-      <c r="U27" s="65"/>
-      <c r="V27" s="66"/>
-      <c r="W27" s="67">
-        <f>L27*0.2+Q27*0.25+T27*0.25+U27*0.3+V27*0.15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24" s="68" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="56" t="s">
+      <c r="D27" s="58">
+        <v>0</v>
+      </c>
+      <c r="E27" s="58">
+        <v>0</v>
+      </c>
+      <c r="F27" s="58">
+        <v>0</v>
+      </c>
+      <c r="G27" s="58">
+        <v>0</v>
+      </c>
+      <c r="H27" s="59">
+        <v>0</v>
+      </c>
+      <c r="I27" s="60">
+        <v>0</v>
+      </c>
+      <c r="J27" s="60">
+        <v>0</v>
+      </c>
+      <c r="K27" s="61">
+        <v>0</v>
+      </c>
+      <c r="L27" s="62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="63">
+        <v>0</v>
+      </c>
+      <c r="N27" s="64">
+        <v>0</v>
+      </c>
+      <c r="O27" s="64">
+        <v>0</v>
+      </c>
+      <c r="P27" s="61">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="62">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R27" s="63">
+        <v>0</v>
+      </c>
+      <c r="S27" s="63">
+        <v>0</v>
+      </c>
+      <c r="T27" s="62">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U27" s="64">
+        <v>0</v>
+      </c>
+      <c r="V27" s="65"/>
+      <c r="W27" s="66">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" s="67" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="57" t="s">
+      <c r="B28" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="58" t="s">
+      <c r="C28" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="D28" s="59">
-        <v>0</v>
-      </c>
-      <c r="E28" s="59">
-        <v>0</v>
-      </c>
-      <c r="F28" s="59">
-        <v>0</v>
-      </c>
-      <c r="G28" s="59">
-        <v>0</v>
-      </c>
-      <c r="H28" s="60">
-        <v>0</v>
-      </c>
-      <c r="I28" s="61">
-        <v>0</v>
-      </c>
-      <c r="J28" s="61">
-        <v>0</v>
-      </c>
-      <c r="K28" s="62">
-        <v>0</v>
-      </c>
-      <c r="L28" s="63">
-        <f>SUM(D28:J28)*50/(L$1-K28)</f>
-        <v>0</v>
-      </c>
-      <c r="M28" s="64">
-        <v>0</v>
-      </c>
-      <c r="N28" s="65">
-        <v>0</v>
-      </c>
-      <c r="O28" s="65">
-        <v>0</v>
-      </c>
-      <c r="P28" s="62">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="63">
-        <f>SUM(M28:O28)/(Q$1-P28)</f>
-        <v>0</v>
-      </c>
-      <c r="R28" s="64">
-        <v>0</v>
-      </c>
-      <c r="S28" s="64">
-        <v>0</v>
-      </c>
-      <c r="T28" s="63">
-        <f>SUM(R28:S28)/T$1</f>
-        <v>0</v>
-      </c>
-      <c r="U28" s="65"/>
-      <c r="V28" s="66"/>
-      <c r="W28" s="67">
-        <f>L28*0.2+Q28*0.25+T28*0.25+U28*0.3+V28*0.15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24" s="68" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="56" t="s">
+      <c r="D28" s="58">
+        <v>0</v>
+      </c>
+      <c r="E28" s="58">
+        <v>0</v>
+      </c>
+      <c r="F28" s="58">
+        <v>0</v>
+      </c>
+      <c r="G28" s="58">
+        <v>0</v>
+      </c>
+      <c r="H28" s="59">
+        <v>0</v>
+      </c>
+      <c r="I28" s="60">
+        <v>0</v>
+      </c>
+      <c r="J28" s="60">
+        <v>0</v>
+      </c>
+      <c r="K28" s="61">
+        <v>0</v>
+      </c>
+      <c r="L28" s="62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M28" s="63">
+        <v>0</v>
+      </c>
+      <c r="N28" s="64">
+        <v>0</v>
+      </c>
+      <c r="O28" s="64">
+        <v>0</v>
+      </c>
+      <c r="P28" s="61">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="62">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R28" s="63">
+        <v>0</v>
+      </c>
+      <c r="S28" s="63">
+        <v>0</v>
+      </c>
+      <c r="T28" s="62">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U28" s="64">
+        <v>0</v>
+      </c>
+      <c r="V28" s="65"/>
+      <c r="W28" s="66">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" s="67" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="57" t="s">
+      <c r="B29" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="58" t="s">
+      <c r="C29" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="59">
-        <v>0</v>
-      </c>
-      <c r="E29" s="59">
-        <v>0</v>
-      </c>
-      <c r="F29" s="59">
-        <v>0</v>
-      </c>
-      <c r="G29" s="59">
-        <v>0</v>
-      </c>
-      <c r="H29" s="60">
-        <v>0</v>
-      </c>
-      <c r="I29" s="61">
-        <v>0</v>
-      </c>
-      <c r="J29" s="61">
-        <v>0</v>
-      </c>
-      <c r="K29" s="62">
-        <v>0</v>
-      </c>
-      <c r="L29" s="63">
-        <f>SUM(D29:J29)*50/(L$1-K29)</f>
-        <v>0</v>
-      </c>
-      <c r="M29" s="64">
-        <v>0</v>
-      </c>
-      <c r="N29" s="65">
-        <v>0</v>
-      </c>
-      <c r="O29" s="65">
-        <v>0</v>
-      </c>
-      <c r="P29" s="62">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="63">
-        <f>SUM(M29:O29)/(Q$1-P29)</f>
-        <v>0</v>
-      </c>
-      <c r="R29" s="64">
-        <v>0</v>
-      </c>
-      <c r="S29" s="64">
-        <v>0</v>
-      </c>
-      <c r="T29" s="63">
-        <f>SUM(R29:S29)/T$1</f>
-        <v>0</v>
-      </c>
-      <c r="U29" s="65"/>
-      <c r="V29" s="66"/>
-      <c r="W29" s="67">
-        <f>L29*0.2+Q29*0.25+T29*0.25+U29*0.3+V29*0.15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" s="69" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="56" t="s">
+      <c r="D29" s="58">
+        <v>0</v>
+      </c>
+      <c r="E29" s="58">
+        <v>0</v>
+      </c>
+      <c r="F29" s="58">
+        <v>0</v>
+      </c>
+      <c r="G29" s="58">
+        <v>0</v>
+      </c>
+      <c r="H29" s="59">
+        <v>0</v>
+      </c>
+      <c r="I29" s="60">
+        <v>0</v>
+      </c>
+      <c r="J29" s="60">
+        <v>0</v>
+      </c>
+      <c r="K29" s="61">
+        <v>0</v>
+      </c>
+      <c r="L29" s="62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="63">
+        <v>0</v>
+      </c>
+      <c r="N29" s="64">
+        <v>0</v>
+      </c>
+      <c r="O29" s="64">
+        <v>0</v>
+      </c>
+      <c r="P29" s="61">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="62">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R29" s="63">
+        <v>0</v>
+      </c>
+      <c r="S29" s="63">
+        <v>0</v>
+      </c>
+      <c r="T29" s="62">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U29" s="64">
+        <v>0</v>
+      </c>
+      <c r="V29" s="65"/>
+      <c r="W29" s="66">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" s="68" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="B30" s="57" t="s">
+      <c r="B30" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="C30" s="58" t="s">
+      <c r="C30" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="D30" s="59">
-        <v>0</v>
-      </c>
-      <c r="E30" s="59">
-        <v>0</v>
-      </c>
-      <c r="F30" s="59">
-        <v>0</v>
-      </c>
-      <c r="G30" s="59">
-        <v>0</v>
-      </c>
-      <c r="H30" s="60">
-        <v>0</v>
-      </c>
-      <c r="I30" s="61">
-        <v>0</v>
-      </c>
-      <c r="J30" s="61">
-        <v>0</v>
-      </c>
-      <c r="K30" s="62">
-        <v>0</v>
-      </c>
-      <c r="L30" s="63">
-        <f>SUM(D30:J30)*50/(L$1-K30)</f>
-        <v>0</v>
-      </c>
-      <c r="M30" s="64">
-        <v>0</v>
-      </c>
-      <c r="N30" s="65">
-        <v>0</v>
-      </c>
-      <c r="O30" s="65">
-        <v>0</v>
-      </c>
-      <c r="P30" s="62">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="63">
-        <f>SUM(M30:O30)/(Q$1-P30)</f>
-        <v>0</v>
-      </c>
-      <c r="R30" s="64">
-        <v>0</v>
-      </c>
-      <c r="S30" s="64">
-        <v>0</v>
-      </c>
-      <c r="T30" s="63">
-        <f>SUM(R30:S30)/T$1</f>
-        <v>0</v>
-      </c>
-      <c r="U30" s="65"/>
-      <c r="V30" s="66"/>
-      <c r="W30" s="67">
+      <c r="D30" s="58">
+        <v>0</v>
+      </c>
+      <c r="E30" s="58">
+        <v>0</v>
+      </c>
+      <c r="F30" s="58">
+        <v>0</v>
+      </c>
+      <c r="G30" s="58">
+        <v>0</v>
+      </c>
+      <c r="H30" s="59">
+        <v>0</v>
+      </c>
+      <c r="I30" s="60">
+        <v>0</v>
+      </c>
+      <c r="J30" s="60">
+        <v>0</v>
+      </c>
+      <c r="K30" s="61">
+        <v>0</v>
+      </c>
+      <c r="L30" s="62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M30" s="63">
+        <v>0</v>
+      </c>
+      <c r="N30" s="64">
+        <v>0</v>
+      </c>
+      <c r="O30" s="64">
+        <v>0</v>
+      </c>
+      <c r="P30" s="61">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="62">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R30" s="63">
+        <v>0</v>
+      </c>
+      <c r="S30" s="63">
+        <v>0</v>
+      </c>
+      <c r="T30" s="62">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U30" s="64">
+        <v>0</v>
+      </c>
+      <c r="V30" s="65"/>
+      <c r="W30" s="66">
         <f>L30*0.2+Q30*0.25+T30*0.25+U30*0.3+V30*0.1</f>
         <v>0</v>
       </c>
-      <c r="X30" s="68"/>
+      <c r="X30" s="67"/>
     </row>
     <row r="31" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
@@ -3650,7 +3674,7 @@
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
-      <c r="H31" s="52"/>
+      <c r="H31" s="51"/>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
@@ -3672,7 +3696,7 @@
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
-      <c r="H32" s="52"/>
+      <c r="H32" s="51"/>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
@@ -3694,7 +3718,7 @@
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
-      <c r="H33" s="52"/>
+      <c r="H33" s="51"/>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
@@ -3716,7 +3740,7 @@
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
-      <c r="H34" s="52"/>
+      <c r="H34" s="51"/>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
@@ -3738,7 +3762,7 @@
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
-      <c r="H35" s="52"/>
+      <c r="H35" s="51"/>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
@@ -3760,7 +3784,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
-      <c r="H36" s="52"/>
+      <c r="H36" s="51"/>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
@@ -3782,7 +3806,7 @@
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
-      <c r="H37" s="52"/>
+      <c r="H37" s="51"/>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
@@ -3804,7 +3828,7 @@
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
-      <c r="H38" s="52"/>
+      <c r="H38" s="51"/>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
@@ -3826,7 +3850,7 @@
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
-      <c r="H39" s="52"/>
+      <c r="H39" s="51"/>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
@@ -3848,7 +3872,7 @@
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
-      <c r="H40" s="52"/>
+      <c r="H40" s="51"/>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
@@ -3870,7 +3894,7 @@
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
-      <c r="H41" s="52"/>
+      <c r="H41" s="51"/>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
@@ -3892,7 +3916,7 @@
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
-      <c r="H42" s="52"/>
+      <c r="H42" s="51"/>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
@@ -3914,7 +3938,7 @@
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
-      <c r="H43" s="52"/>
+      <c r="H43" s="51"/>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
@@ -3936,7 +3960,7 @@
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
-      <c r="H44" s="52"/>
+      <c r="H44" s="51"/>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
@@ -3958,7 +3982,7 @@
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
-      <c r="H45" s="52"/>
+      <c r="H45" s="51"/>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
@@ -3980,7 +4004,7 @@
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
-      <c r="H46" s="52"/>
+      <c r="H46" s="51"/>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
@@ -4002,7 +4026,7 @@
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
-      <c r="H47" s="52"/>
+      <c r="H47" s="51"/>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
@@ -4024,7 +4048,7 @@
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
-      <c r="H48" s="52"/>
+      <c r="H48" s="51"/>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
@@ -4046,7 +4070,7 @@
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
-      <c r="H49" s="52"/>
+      <c r="H49" s="51"/>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
@@ -4068,7 +4092,7 @@
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
-      <c r="H50" s="52"/>
+      <c r="H50" s="51"/>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
@@ -4090,7 +4114,7 @@
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
-      <c r="H51" s="52"/>
+      <c r="H51" s="51"/>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
@@ -4112,7 +4136,7 @@
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
-      <c r="H52" s="52"/>
+      <c r="H52" s="51"/>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
@@ -4134,7 +4158,7 @@
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
-      <c r="H53" s="52"/>
+      <c r="H53" s="51"/>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
@@ -4156,7 +4180,7 @@
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
-      <c r="H54" s="52"/>
+      <c r="H54" s="51"/>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
@@ -4178,7 +4202,7 @@
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
-      <c r="H55" s="52"/>
+      <c r="H55" s="51"/>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
@@ -4200,7 +4224,7 @@
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
-      <c r="H56" s="52"/>
+      <c r="H56" s="51"/>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
@@ -4222,7 +4246,7 @@
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
-      <c r="H57" s="52"/>
+      <c r="H57" s="51"/>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
@@ -4244,7 +4268,7 @@
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
-      <c r="H58" s="52"/>
+      <c r="H58" s="51"/>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
@@ -4266,7 +4290,7 @@
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
-      <c r="H59" s="52"/>
+      <c r="H59" s="51"/>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
@@ -4288,7 +4312,7 @@
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
-      <c r="H60" s="52"/>
+      <c r="H60" s="51"/>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
@@ -4310,7 +4334,7 @@
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
-      <c r="H61" s="52"/>
+      <c r="H61" s="51"/>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
@@ -4332,7 +4356,7 @@
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
-      <c r="H62" s="52"/>
+      <c r="H62" s="51"/>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
@@ -4354,7 +4378,7 @@
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
-      <c r="H63" s="52"/>
+      <c r="H63" s="51"/>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
@@ -4376,7 +4400,7 @@
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
-      <c r="H64" s="52"/>
+      <c r="H64" s="51"/>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
@@ -4398,7 +4422,7 @@
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
-      <c r="H65" s="52"/>
+      <c r="H65" s="51"/>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
@@ -4420,7 +4444,7 @@
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
-      <c r="H66" s="52"/>
+      <c r="H66" s="51"/>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
@@ -4442,7 +4466,7 @@
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
-      <c r="H67" s="52"/>
+      <c r="H67" s="51"/>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
@@ -4464,7 +4488,7 @@
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
-      <c r="H68" s="52"/>
+      <c r="H68" s="51"/>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
@@ -4486,7 +4510,7 @@
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
-      <c r="H69" s="52"/>
+      <c r="H69" s="51"/>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
@@ -4508,7 +4532,7 @@
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
-      <c r="H70" s="52"/>
+      <c r="H70" s="51"/>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
@@ -4530,7 +4554,7 @@
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
-      <c r="H71" s="52"/>
+      <c r="H71" s="51"/>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
@@ -4552,7 +4576,7 @@
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
-      <c r="H72" s="52"/>
+      <c r="H72" s="51"/>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
@@ -4574,7 +4598,7 @@
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
-      <c r="H73" s="52"/>
+      <c r="H73" s="51"/>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
@@ -4596,7 +4620,7 @@
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
-      <c r="H74" s="52"/>
+      <c r="H74" s="51"/>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
@@ -4618,7 +4642,7 @@
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
-      <c r="H75" s="52"/>
+      <c r="H75" s="51"/>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
@@ -4640,7 +4664,7 @@
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
-      <c r="H76" s="52"/>
+      <c r="H76" s="51"/>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
@@ -4828,9 +4852,9 @@
   </sheetPr>
   <dimension ref="A1:S81"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y34" sqref="Y34"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4838,7 +4862,7 @@
     <col min="1" max="1" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="73" customWidth="1"/>
     <col min="5" max="6" width="3.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="2.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="2.44140625" style="1" bestFit="1" customWidth="1"/>
@@ -4857,23 +4881,23 @@
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="34"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="72" t="s">
+      <c r="D1" s="69"/>
+      <c r="E1" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="72" t="s">
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="74"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="78"/>
       <c r="Q1" s="33" t="s">
         <v>44</v>
       </c>
@@ -4894,23 +4918,23 @@
       <c r="C2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="70" t="s">
         <v>31</v>
       </c>
       <c r="E2" s="37">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F2" s="27">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G2" s="27">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H2" s="27">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="I2" s="27">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J2" s="28" t="s">
         <v>30</v>
@@ -4945,10 +4969,18 @@
     </row>
     <row r="3" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="38"/>
+      <c r="B3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="71">
+        <v>100</v>
+      </c>
+      <c r="E3" s="38">
+        <v>2</v>
+      </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -4966,10 +4998,18 @@
     </row>
     <row r="4" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="20"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="38"/>
+      <c r="B4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="71">
+        <v>87.333333333333329</v>
+      </c>
+      <c r="E4" s="38">
+        <v>2</v>
+      </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -4987,10 +5027,18 @@
     </row>
     <row r="5" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="38"/>
+      <c r="B5" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="71">
+        <v>68.05</v>
+      </c>
+      <c r="E5" s="38">
+        <v>2</v>
+      </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -5008,10 +5056,18 @@
     </row>
     <row r="6" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="38"/>
+      <c r="B6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="71">
+        <v>63.65</v>
+      </c>
+      <c r="E6" s="38">
+        <v>2</v>
+      </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -5029,10 +5085,18 @@
     </row>
     <row r="7" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="38"/>
+      <c r="B7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="71">
+        <v>61.558333333333337</v>
+      </c>
+      <c r="E7" s="38">
+        <v>2</v>
+      </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -5050,10 +5114,18 @@
     </row>
     <row r="8" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="38"/>
+      <c r="B8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="71">
+        <v>60.541666666666671</v>
+      </c>
+      <c r="E8" s="38">
+        <v>2</v>
+      </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -5071,10 +5143,18 @@
     </row>
     <row r="9" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="38"/>
+      <c r="B9" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="71">
+        <v>58.758333333333326</v>
+      </c>
+      <c r="E9" s="38">
+        <v>2</v>
+      </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -5092,10 +5172,18 @@
     </row>
     <row r="10" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="38"/>
+      <c r="B10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="71">
+        <v>57.80833333333333</v>
+      </c>
+      <c r="E10" s="38">
+        <v>2</v>
+      </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -5113,10 +5201,18 @@
     </row>
     <row r="11" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="38"/>
+      <c r="B11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="71">
+        <v>55.416666666666671</v>
+      </c>
+      <c r="E11" s="38">
+        <v>2</v>
+      </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -5134,10 +5230,18 @@
     </row>
     <row r="12" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="38"/>
+      <c r="B12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="71">
+        <v>53.875</v>
+      </c>
+      <c r="E12" s="38">
+        <v>2</v>
+      </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -5155,10 +5259,18 @@
     </row>
     <row r="13" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="38"/>
+      <c r="B13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="71">
+        <v>53.308333333333337</v>
+      </c>
+      <c r="E13" s="38">
+        <v>2</v>
+      </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
@@ -5176,10 +5288,18 @@
     </row>
     <row r="14" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="38"/>
+      <c r="B14" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="71">
+        <v>51.866666666666674</v>
+      </c>
+      <c r="E14" s="38">
+        <v>2</v>
+      </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
@@ -5197,10 +5317,18 @@
     </row>
     <row r="15" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="20"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="38"/>
+      <c r="B15" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="71">
+        <v>39.083333333333336</v>
+      </c>
+      <c r="E15" s="38">
+        <v>0</v>
+      </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
@@ -5218,10 +5346,18 @@
     </row>
     <row r="16" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="38"/>
+      <c r="B16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="71">
+        <v>37.758333333333333</v>
+      </c>
+      <c r="E16" s="38">
+        <v>1</v>
+      </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
@@ -5239,10 +5375,18 @@
     </row>
     <row r="17" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="38"/>
+      <c r="B17" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="71">
+        <v>36.25</v>
+      </c>
+      <c r="E17" s="38">
+        <v>2</v>
+      </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
@@ -5260,10 +5404,18 @@
     </row>
     <row r="18" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="38"/>
+      <c r="B18" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="71">
+        <v>32.25</v>
+      </c>
+      <c r="E18" s="38">
+        <v>2</v>
+      </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
@@ -5281,11 +5433,19 @@
     </row>
     <row r="19" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="42"/>
+      <c r="B19" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="71">
+        <v>25.558333333333337</v>
+      </c>
+      <c r="E19" s="38">
+        <v>0</v>
+      </c>
+      <c r="F19" s="41"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
@@ -5302,10 +5462,18 @@
     </row>
     <row r="20" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="20"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="38"/>
+      <c r="B20" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="71">
+        <v>12.5</v>
+      </c>
+      <c r="E20" s="38">
+        <v>0</v>
+      </c>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
@@ -5323,10 +5491,18 @@
     </row>
     <row r="21" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="38"/>
+      <c r="B21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="71">
+        <v>9.5833333333333339</v>
+      </c>
+      <c r="E21" s="38">
+        <v>0</v>
+      </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
@@ -5344,10 +5520,18 @@
     </row>
     <row r="22" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="20"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="38"/>
+      <c r="B22" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="71">
+        <v>0</v>
+      </c>
+      <c r="E22" s="38">
+        <v>0</v>
+      </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
@@ -5365,10 +5549,18 @@
     </row>
     <row r="23" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="38"/>
+      <c r="B23" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="71">
+        <v>0</v>
+      </c>
+      <c r="E23" s="38">
+        <v>0</v>
+      </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
@@ -5386,10 +5578,18 @@
     </row>
     <row r="24" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="20"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="38"/>
+      <c r="B24" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="71">
+        <v>0</v>
+      </c>
+      <c r="E24" s="38">
+        <v>0</v>
+      </c>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
@@ -5407,10 +5607,18 @@
     </row>
     <row r="25" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="20"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="38"/>
+      <c r="B25" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="71">
+        <v>0</v>
+      </c>
+      <c r="E25" s="38">
+        <v>0</v>
+      </c>
       <c r="F25" s="12"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
@@ -5428,10 +5636,18 @@
     </row>
     <row r="26" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="20"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="38"/>
+      <c r="B26" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="71">
+        <v>0</v>
+      </c>
+      <c r="E26" s="38">
+        <v>0</v>
+      </c>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
@@ -5449,10 +5665,18 @@
     </row>
     <row r="27" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="20"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="38"/>
+      <c r="B27" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="71">
+        <v>0</v>
+      </c>
+      <c r="E27" s="38">
+        <v>0</v>
+      </c>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
@@ -5470,10 +5694,18 @@
     </row>
     <row r="28" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="38"/>
+      <c r="B28" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="71">
+        <v>0</v>
+      </c>
+      <c r="E28" s="38">
+        <v>0</v>
+      </c>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
@@ -5491,10 +5723,18 @@
     </row>
     <row r="29" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="20"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="38"/>
+      <c r="B29" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="71">
+        <v>0</v>
+      </c>
+      <c r="E29" s="38">
+        <v>0</v>
+      </c>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
@@ -5512,10 +5752,18 @@
     </row>
     <row r="30" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="20"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="38"/>
+      <c r="B30" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="57" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" s="71">
+        <v>0</v>
+      </c>
+      <c r="E30" s="38">
+        <v>0</v>
+      </c>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
@@ -5535,7 +5783,7 @@
       <c r="A31" s="20"/>
       <c r="B31" s="11"/>
       <c r="C31" s="36"/>
-      <c r="D31" s="21"/>
+      <c r="D31" s="71"/>
       <c r="E31" s="38"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
@@ -5556,7 +5804,7 @@
       <c r="A32" s="31"/>
       <c r="B32" s="32"/>
       <c r="C32" s="36"/>
-      <c r="D32" s="21"/>
+      <c r="D32" s="71"/>
       <c r="E32" s="38"/>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
@@ -5577,7 +5825,7 @@
       <c r="A33" s="22"/>
       <c r="B33" s="23"/>
       <c r="C33" s="36"/>
-      <c r="D33" s="21"/>
+      <c r="D33" s="71"/>
       <c r="E33" s="39"/>
       <c r="F33" s="13"/>
       <c r="G33" s="7"/>
@@ -5598,7 +5846,7 @@
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
+      <c r="D34" s="72"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
@@ -5608,7 +5856,7 @@
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
+      <c r="D35" s="72"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
@@ -5626,7 +5874,7 @@
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
+      <c r="D36" s="72"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
@@ -5644,7 +5892,7 @@
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
+      <c r="D37" s="72"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
@@ -5662,7 +5910,7 @@
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
+      <c r="D38" s="72"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
@@ -5680,7 +5928,7 @@
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
+      <c r="D39" s="72"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
@@ -5698,7 +5946,7 @@
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
+      <c r="D40" s="72"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
@@ -5716,7 +5964,7 @@
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
+      <c r="D41" s="72"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
@@ -5734,7 +5982,7 @@
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
+      <c r="D42" s="72"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
@@ -5752,7 +6000,7 @@
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
+      <c r="D43" s="72"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
@@ -5770,7 +6018,7 @@
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
+      <c r="D44" s="72"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
@@ -5788,7 +6036,7 @@
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
+      <c r="D45" s="72"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
@@ -5806,7 +6054,7 @@
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
+      <c r="D46" s="72"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
@@ -5824,7 +6072,7 @@
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
+      <c r="D47" s="72"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
@@ -5842,7 +6090,7 @@
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
+      <c r="D48" s="72"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
@@ -5860,7 +6108,7 @@
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
+      <c r="D49" s="72"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
@@ -5878,7 +6126,7 @@
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
+      <c r="D50" s="72"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
@@ -5896,7 +6144,7 @@
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
+      <c r="D51" s="72"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
@@ -5914,7 +6162,7 @@
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
+      <c r="D52" s="72"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
@@ -5932,7 +6180,7 @@
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
+      <c r="D53" s="72"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
@@ -5950,7 +6198,7 @@
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
+      <c r="D54" s="72"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
@@ -5968,7 +6216,7 @@
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
+      <c r="D55" s="72"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
@@ -5986,7 +6234,7 @@
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
+      <c r="D56" s="72"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
@@ -6004,7 +6252,7 @@
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
+      <c r="D57" s="72"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
@@ -6022,7 +6270,7 @@
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
+      <c r="D58" s="72"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
@@ -6040,7 +6288,7 @@
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
+      <c r="D59" s="72"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
@@ -6058,7 +6306,7 @@
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
+      <c r="D60" s="72"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
@@ -6076,7 +6324,7 @@
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
+      <c r="D61" s="72"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
@@ -6094,7 +6342,7 @@
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
+      <c r="D62" s="72"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
@@ -6112,7 +6360,7 @@
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
+      <c r="D63" s="72"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
@@ -6130,7 +6378,7 @@
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
+      <c r="D64" s="72"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
@@ -6148,7 +6396,7 @@
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
+      <c r="D65" s="72"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
@@ -6166,7 +6414,7 @@
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
-      <c r="D66" s="8"/>
+      <c r="D66" s="72"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
@@ -6184,7 +6432,7 @@
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
+      <c r="D67" s="72"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
@@ -6202,7 +6450,7 @@
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
-      <c r="D68" s="8"/>
+      <c r="D68" s="72"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
@@ -6220,7 +6468,7 @@
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
+      <c r="D69" s="72"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
@@ -6238,7 +6486,7 @@
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
-      <c r="D70" s="8"/>
+      <c r="D70" s="72"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
@@ -6256,7 +6504,7 @@
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
-      <c r="D71" s="8"/>
+      <c r="D71" s="72"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
@@ -6274,7 +6522,7 @@
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
-      <c r="D72" s="8"/>
+      <c r="D72" s="72"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
@@ -6292,7 +6540,7 @@
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
-      <c r="D73" s="8"/>
+      <c r="D73" s="72"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
@@ -6310,7 +6558,7 @@
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
-      <c r="D74" s="8"/>
+      <c r="D74" s="72"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
@@ -6328,7 +6576,7 @@
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
-      <c r="D75" s="8"/>
+      <c r="D75" s="72"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
@@ -6346,7 +6594,7 @@
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
-      <c r="D76" s="8"/>
+      <c r="D76" s="72"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
@@ -6364,7 +6612,7 @@
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
-      <c r="D77" s="8"/>
+      <c r="D77" s="72"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
@@ -6382,7 +6630,7 @@
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
-      <c r="D78" s="8"/>
+      <c r="D78" s="72"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
@@ -6400,7 +6648,7 @@
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
-      <c r="D79" s="8"/>
+      <c r="D79" s="72"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
@@ -6418,7 +6666,7 @@
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
-      <c r="D80" s="8"/>
+      <c r="D80" s="72"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
@@ -6436,7 +6684,7 @@
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
-      <c r="D81" s="8"/>
+      <c r="D81" s="72"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
@@ -6459,19 +6707,19 @@
     <mergeCell ref="K1:P1"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:I33">
-    <cfRule type="cellIs" dxfId="10" priority="25" operator="between">
+    <cfRule type="cellIs" dxfId="10" priority="26" operator="between">
       <formula>0.1</formula>
       <formula>1.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="27" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="28" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J33">
-    <cfRule type="dataBar" priority="24">
+    <cfRule type="dataBar" priority="25">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6485,7 +6733,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3:P33">
-    <cfRule type="dataBar" priority="23">
+    <cfRule type="dataBar" priority="24">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6499,7 +6747,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R3:R33">
-    <cfRule type="dataBar" priority="20">
+    <cfRule type="dataBar" priority="21">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6513,24 +6761,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:O33">
-    <cfRule type="cellIs" dxfId="7" priority="16" operator="between">
+    <cfRule type="cellIs" dxfId="7" priority="17" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="18" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="18" operator="between">
+    <cfRule type="cellIs" dxfId="5" priority="19" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="19" operator="between">
+    <cfRule type="cellIs" dxfId="4" priority="20" operator="between">
       <formula>80</formula>
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S3:S33">
-    <cfRule type="dataBar" priority="11">
+    <cfRule type="dataBar" priority="12">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6544,7 +6792,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D6 D8:D33">
-    <cfRule type="dataBar" priority="6">
+    <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6558,7 +6806,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="dataBar" priority="5">
+    <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6572,19 +6820,33 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3:Q33">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="greaterThanOrEqual">
       <formula>80</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{71125D8B-F38D-441C-A719-0BEE1515DAA1}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6659,6 +6921,19 @@
           </x14:cfRule>
           <xm:sqref>D7</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{71125D8B-F38D-441C-A719-0BEE1515DAA1}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D1:D1048576</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>

--- a/AdvancedJava/_docs/Notlar.xlsx
+++ b/AdvancedJava/_docs/Notlar.xlsx
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="100">
   <si>
     <t>Adı</t>
   </si>
@@ -224,9 +224,6 @@
   </si>
   <si>
     <t>BONUS (%15)</t>
-  </si>
-  <si>
-    <t>LAB ÇALIŞMALARI (%30)</t>
   </si>
   <si>
     <t>SINAV (%50)</t>
@@ -1520,7 +1517,7 @@
         <v>6</v>
       </c>
       <c r="M1" s="76" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N1" s="77"/>
       <c r="O1" s="77"/>
@@ -1529,7 +1526,7 @@
         <v>3</v>
       </c>
       <c r="R1" s="76" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="S1" s="77"/>
       <c r="T1" s="44">
@@ -1547,7 +1544,7 @@
     </row>
     <row r="2" spans="1:24" s="5" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>0</v>
@@ -1577,7 +1574,7 @@
         <v>7</v>
       </c>
       <c r="K2" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L2" s="28" t="s">
         <v>30</v>
@@ -1592,7 +1589,7 @@
         <v>7</v>
       </c>
       <c r="P2" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q2" s="28" t="s">
         <v>30</v>
@@ -1618,13 +1615,13 @@
     </row>
     <row r="3" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="11" t="s">
         <v>46</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>47</v>
       </c>
       <c r="D3" s="12">
         <v>2</v>
@@ -1693,13 +1690,13 @@
     </row>
     <row r="4" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="11" t="s">
         <v>83</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>84</v>
       </c>
       <c r="D4" s="12">
         <v>0</v>
@@ -1766,13 +1763,13 @@
     </row>
     <row r="5" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="C5" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D5" s="12">
         <v>0</v>
@@ -1839,13 +1836,13 @@
     </row>
     <row r="6" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="11" t="s">
         <v>62</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>63</v>
       </c>
       <c r="D6" s="12">
         <v>0</v>
@@ -1912,10 +1909,10 @@
     </row>
     <row r="7" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>6</v>
@@ -1985,13 +1982,13 @@
     </row>
     <row r="8" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="11" t="s">
         <v>65</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>66</v>
       </c>
       <c r="D8" s="12">
         <v>0</v>
@@ -2058,13 +2055,13 @@
     </row>
     <row r="9" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="11" t="s">
         <v>80</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>81</v>
       </c>
       <c r="D9" s="12">
         <v>0</v>
@@ -2131,13 +2128,13 @@
     </row>
     <row r="10" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D10" s="12">
         <v>0</v>
@@ -2204,13 +2201,13 @@
     </row>
     <row r="11" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>56</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>57</v>
       </c>
       <c r="D11" s="12">
         <v>2</v>
@@ -2277,13 +2274,13 @@
     </row>
     <row r="12" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>52</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>53</v>
       </c>
       <c r="D12" s="12">
         <v>2</v>
@@ -2350,13 +2347,13 @@
     </row>
     <row r="13" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D13" s="12">
         <v>0</v>
@@ -2403,14 +2400,14 @@
         <v>86.666666666666671</v>
       </c>
       <c r="R13" s="14">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="S13" s="14">
         <v>-25</v>
       </c>
       <c r="T13" s="16">
         <f t="shared" si="2"/>
-        <v>-2.5</v>
+        <v>7.5</v>
       </c>
       <c r="U13" s="6">
         <v>42</v>
@@ -2418,19 +2415,19 @@
       <c r="V13" s="43"/>
       <c r="W13" s="21">
         <f t="shared" si="3"/>
-        <v>53.308333333333337</v>
+        <v>55.808333333333337</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="C14" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>71</v>
-      </c>
       <c r="D14" s="12">
         <v>0</v>
       </c>
@@ -2444,7 +2441,7 @@
         <v>2</v>
       </c>
       <c r="H14" s="50" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I14" s="7">
         <v>1.8</v>
@@ -2496,25 +2493,25 @@
     </row>
     <row r="15" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="C15" s="11" t="s">
-        <v>97</v>
-      </c>
       <c r="D15" s="12">
         <v>0</v>
       </c>
       <c r="E15" s="50" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F15" s="50" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G15" s="50" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H15" s="50">
         <v>0</v>
@@ -2533,7 +2530,7 @@
         <v>66.666666666666671</v>
       </c>
       <c r="M15" s="54" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N15" s="6">
         <v>75</v>
@@ -2642,13 +2639,13 @@
     </row>
     <row r="17" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="C17" s="11" t="s">
         <v>75</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>76</v>
       </c>
       <c r="D17" s="12">
         <v>0</v>
@@ -2715,13 +2712,13 @@
     </row>
     <row r="18" spans="1:24" s="46" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>50</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>51</v>
       </c>
       <c r="D18" s="12">
         <v>2</v>
@@ -2789,13 +2786,13 @@
     </row>
     <row r="19" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="C19" s="11" t="s">
         <v>92</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>93</v>
       </c>
       <c r="D19" s="12">
         <v>0</v>
@@ -2863,19 +2860,19 @@
     </row>
     <row r="20" spans="1:24" s="46" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="C20" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="C20" s="11" t="s">
-        <v>87</v>
-      </c>
       <c r="D20" s="12">
         <v>0</v>
       </c>
       <c r="E20" s="53" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F20" s="12">
         <v>0</v>
@@ -2937,7 +2934,7 @@
     </row>
     <row r="21" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>35</v>
@@ -3086,7 +3083,7 @@
         <v>5</v>
       </c>
       <c r="B23" s="56" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C23" s="57" t="s">
         <v>6</v>
@@ -3594,13 +3591,13 @@
     </row>
     <row r="30" spans="1:24" s="68" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="B30" s="56" t="s">
+      <c r="C30" s="57" t="s">
         <v>89</v>
-      </c>
-      <c r="C30" s="57" t="s">
-        <v>90</v>
       </c>
       <c r="D30" s="58">
         <v>0</v>
@@ -4850,11 +4847,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:S81"/>
+  <dimension ref="A1:R81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomLeft" activeCell="V18" sqref="V18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4867,15 +4864,14 @@
     <col min="7" max="8" width="2.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="2.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.44140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="3.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="2.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.77734375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="5.77734375" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.88671875" style="1"/>
+    <col min="11" max="14" width="2.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.77734375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="5.77734375" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="4" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" s="4" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30">
         <v>5</v>
       </c>
@@ -4890,25 +4886,22 @@
       <c r="H1" s="77"/>
       <c r="I1" s="77"/>
       <c r="J1" s="78"/>
-      <c r="K1" s="76" t="s">
-        <v>43</v>
-      </c>
+      <c r="K1" s="77"/>
       <c r="L1" s="77"/>
       <c r="M1" s="77"/>
       <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="33" t="s">
-        <v>44</v>
+      <c r="O1" s="78"/>
+      <c r="P1" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q1" s="19" t="s">
+        <v>39</v>
       </c>
       <c r="R1" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="S1" s="19" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="5" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" s="5" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>29</v>
       </c>
@@ -4939,41 +4932,38 @@
       <c r="J2" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="26">
-        <v>1</v>
+      <c r="K2" s="27">
+        <v>9</v>
       </c>
       <c r="L2" s="27">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M2" s="27">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="N2" s="27">
-        <v>4</v>
-      </c>
-      <c r="O2" s="27">
-        <v>5</v>
-      </c>
-      <c r="P2" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="Q2" s="26" t="s">
+      <c r="P2" s="26" t="s">
         <v>33</v>
+      </c>
+      <c r="Q2" s="19" t="s">
+        <v>32</v>
       </c>
       <c r="R2" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="S2" s="19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
       <c r="B3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>46</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>47</v>
       </c>
       <c r="D3" s="71">
         <v>100</v>
@@ -4986,23 +4976,22 @@
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="16"/>
-      <c r="K3" s="14"/>
+      <c r="K3" s="6"/>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="6"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="21"/>
       <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-    </row>
-    <row r="4" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="20"/>
       <c r="B4" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>83</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>84</v>
       </c>
       <c r="D4" s="71">
         <v>87.333333333333329</v>
@@ -5015,23 +5004,22 @@
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="16"/>
-      <c r="K4" s="14"/>
+      <c r="K4" s="6"/>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="6"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="21"/>
       <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-    </row>
-    <row r="5" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20"/>
       <c r="B5" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D5" s="71">
         <v>68.05</v>
@@ -5044,23 +5032,22 @@
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="16"/>
-      <c r="K5" s="14"/>
+      <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="6"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="21"/>
       <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-    </row>
-    <row r="6" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20"/>
       <c r="B6" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>62</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>63</v>
       </c>
       <c r="D6" s="71">
         <v>63.65</v>
@@ -5073,20 +5060,19 @@
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="16"/>
-      <c r="K6" s="14"/>
+      <c r="K6" s="6"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="6"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="21"/>
       <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-    </row>
-    <row r="7" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20"/>
       <c r="B7" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>6</v>
@@ -5102,23 +5088,22 @@
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="16"/>
-      <c r="K7" s="14"/>
+      <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="6"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="21"/>
       <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
-    </row>
-    <row r="8" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20"/>
       <c r="B8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>65</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>66</v>
       </c>
       <c r="D8" s="71">
         <v>60.541666666666671</v>
@@ -5131,23 +5116,22 @@
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="16"/>
-      <c r="K8" s="14"/>
+      <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="6"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="21"/>
       <c r="R8" s="21"/>
-      <c r="S8" s="21"/>
-    </row>
-    <row r="9" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
       <c r="B9" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>80</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>81</v>
       </c>
       <c r="D9" s="71">
         <v>58.758333333333326</v>
@@ -5160,23 +5144,22 @@
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="16"/>
-      <c r="K9" s="14"/>
+      <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="6"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="21"/>
       <c r="R9" s="21"/>
-      <c r="S9" s="21"/>
-    </row>
-    <row r="10" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20"/>
       <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D10" s="71">
         <v>57.80833333333333</v>
@@ -5189,23 +5172,22 @@
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="16"/>
-      <c r="K10" s="14"/>
+      <c r="K10" s="6"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="6"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="21"/>
       <c r="R10" s="21"/>
-      <c r="S10" s="21"/>
-    </row>
-    <row r="11" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20"/>
       <c r="B11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>56</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>57</v>
       </c>
       <c r="D11" s="71">
         <v>55.416666666666671</v>
@@ -5218,23 +5200,22 @@
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="16"/>
-      <c r="K11" s="14"/>
+      <c r="K11" s="6"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="6"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="21"/>
       <c r="R11" s="21"/>
-      <c r="S11" s="21"/>
-    </row>
-    <row r="12" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20"/>
       <c r="B12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>52</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>53</v>
       </c>
       <c r="D12" s="71">
         <v>53.875</v>
@@ -5247,26 +5228,25 @@
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="16"/>
-      <c r="K12" s="14"/>
+      <c r="K12" s="6"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="6"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="21"/>
       <c r="R12" s="21"/>
-      <c r="S12" s="21"/>
-    </row>
-    <row r="13" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20"/>
       <c r="B13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D13" s="71">
-        <v>53.308333333333337</v>
+        <v>55.808333333333337</v>
       </c>
       <c r="E13" s="38">
         <v>2</v>
@@ -5276,23 +5256,22 @@
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="16"/>
-      <c r="K13" s="14"/>
+      <c r="K13" s="6"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="6"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="21"/>
       <c r="R13" s="21"/>
-      <c r="S13" s="21"/>
-    </row>
-    <row r="14" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20"/>
       <c r="B14" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>70</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>71</v>
       </c>
       <c r="D14" s="71">
         <v>51.866666666666674</v>
@@ -5305,23 +5284,22 @@
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
       <c r="J14" s="16"/>
-      <c r="K14" s="14"/>
+      <c r="K14" s="6"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="6"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="21"/>
       <c r="R14" s="21"/>
-      <c r="S14" s="21"/>
-    </row>
-    <row r="15" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="20"/>
       <c r="B15" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>96</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>97</v>
       </c>
       <c r="D15" s="71">
         <v>39.083333333333336</v>
@@ -5334,17 +5312,16 @@
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="16"/>
-      <c r="K15" s="14"/>
+      <c r="K15" s="6"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="6"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="21"/>
       <c r="R15" s="21"/>
-      <c r="S15" s="21"/>
-    </row>
-    <row r="16" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20"/>
       <c r="B16" s="3" t="s">
         <v>18</v>
@@ -5363,23 +5340,22 @@
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
       <c r="J16" s="16"/>
-      <c r="K16" s="14"/>
+      <c r="K16" s="6"/>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="6"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="21"/>
       <c r="R16" s="21"/>
-      <c r="S16" s="21"/>
-    </row>
-    <row r="17" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20"/>
       <c r="B17" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>75</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>76</v>
       </c>
       <c r="D17" s="71">
         <v>36.25</v>
@@ -5392,23 +5368,22 @@
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="16"/>
-      <c r="K17" s="14"/>
+      <c r="K17" s="6"/>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="6"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="21"/>
       <c r="R17" s="21"/>
-      <c r="S17" s="21"/>
-    </row>
-    <row r="18" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20"/>
       <c r="B18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>50</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>51</v>
       </c>
       <c r="D18" s="71">
         <v>32.25</v>
@@ -5421,23 +5396,22 @@
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="J18" s="16"/>
-      <c r="K18" s="14"/>
+      <c r="K18" s="6"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="6"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="21"/>
       <c r="R18" s="21"/>
-      <c r="S18" s="21"/>
-    </row>
-    <row r="19" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20"/>
       <c r="B19" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>92</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>93</v>
       </c>
       <c r="D19" s="71">
         <v>25.558333333333337</v>
@@ -5450,23 +5424,22 @@
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="16"/>
-      <c r="K19" s="14"/>
+      <c r="K19" s="6"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="6"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="21"/>
       <c r="R19" s="21"/>
-      <c r="S19" s="21"/>
-    </row>
-    <row r="20" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="20"/>
       <c r="B20" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="11" t="s">
         <v>86</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>87</v>
       </c>
       <c r="D20" s="71">
         <v>12.5</v>
@@ -5479,17 +5452,16 @@
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="16"/>
-      <c r="K20" s="14"/>
+      <c r="K20" s="6"/>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="6"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="21"/>
       <c r="R20" s="21"/>
-      <c r="S20" s="21"/>
-    </row>
-    <row r="21" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20"/>
       <c r="B21" s="3" t="s">
         <v>35</v>
@@ -5508,17 +5480,16 @@
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="16"/>
-      <c r="K21" s="14"/>
+      <c r="K21" s="6"/>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="6"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="21"/>
       <c r="R21" s="21"/>
-      <c r="S21" s="21"/>
-    </row>
-    <row r="22" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="20"/>
       <c r="B22" s="56" t="s">
         <v>3</v>
@@ -5537,20 +5508,19 @@
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
       <c r="J22" s="16"/>
-      <c r="K22" s="14"/>
+      <c r="K22" s="6"/>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="6"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="21"/>
       <c r="R22" s="21"/>
-      <c r="S22" s="21"/>
-    </row>
-    <row r="23" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20"/>
       <c r="B23" s="56" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C23" s="57" t="s">
         <v>6</v>
@@ -5566,17 +5536,16 @@
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="16"/>
-      <c r="K23" s="14"/>
+      <c r="K23" s="6"/>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="6"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="21"/>
       <c r="R23" s="21"/>
-      <c r="S23" s="21"/>
-    </row>
-    <row r="24" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="20"/>
       <c r="B24" s="56" t="s">
         <v>8</v>
@@ -5595,17 +5564,16 @@
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="16"/>
-      <c r="K24" s="14"/>
+      <c r="K24" s="6"/>
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="16"/>
-      <c r="Q24" s="6"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="21"/>
       <c r="R24" s="21"/>
-      <c r="S24" s="21"/>
-    </row>
-    <row r="25" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="20"/>
       <c r="B25" s="56" t="s">
         <v>12</v>
@@ -5624,17 +5592,16 @@
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
       <c r="J25" s="16"/>
-      <c r="K25" s="14"/>
+      <c r="K25" s="6"/>
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="6"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="21"/>
       <c r="R25" s="21"/>
-      <c r="S25" s="21"/>
-    </row>
-    <row r="26" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="20"/>
       <c r="B26" s="56" t="s">
         <v>15</v>
@@ -5653,17 +5620,16 @@
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
       <c r="J26" s="16"/>
-      <c r="K26" s="14"/>
+      <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="16"/>
-      <c r="Q26" s="6"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="21"/>
       <c r="R26" s="21"/>
-      <c r="S26" s="21"/>
-    </row>
-    <row r="27" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="20"/>
       <c r="B27" s="56" t="s">
         <v>21</v>
@@ -5682,17 +5648,16 @@
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
       <c r="J27" s="16"/>
-      <c r="K27" s="14"/>
+      <c r="K27" s="6"/>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="16"/>
-      <c r="Q27" s="6"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="21"/>
       <c r="R27" s="21"/>
-      <c r="S27" s="21"/>
-    </row>
-    <row r="28" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20"/>
       <c r="B28" s="56" t="s">
         <v>24</v>
@@ -5711,17 +5676,16 @@
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
       <c r="J28" s="16"/>
-      <c r="K28" s="14"/>
+      <c r="K28" s="6"/>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="16"/>
-      <c r="Q28" s="6"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="21"/>
       <c r="R28" s="21"/>
-      <c r="S28" s="21"/>
-    </row>
-    <row r="29" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="20"/>
       <c r="B29" s="56" t="s">
         <v>27</v>
@@ -5740,23 +5704,22 @@
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
       <c r="J29" s="16"/>
-      <c r="K29" s="14"/>
+      <c r="K29" s="6"/>
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
-      <c r="O29" s="6"/>
-      <c r="P29" s="16"/>
-      <c r="Q29" s="6"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="21"/>
       <c r="R29" s="21"/>
-      <c r="S29" s="21"/>
-    </row>
-    <row r="30" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="20"/>
       <c r="B30" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="57" t="s">
         <v>89</v>
-      </c>
-      <c r="C30" s="57" t="s">
-        <v>90</v>
       </c>
       <c r="D30" s="71">
         <v>0</v>
@@ -5769,17 +5732,16 @@
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
       <c r="J30" s="16"/>
-      <c r="K30" s="14"/>
+      <c r="K30" s="6"/>
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
       <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="16"/>
-      <c r="Q30" s="6"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="21"/>
       <c r="R30" s="21"/>
-      <c r="S30" s="21"/>
-    </row>
-    <row r="31" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="20"/>
       <c r="B31" s="11"/>
       <c r="C31" s="36"/>
@@ -5790,17 +5752,16 @@
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
       <c r="J31" s="16"/>
-      <c r="K31" s="14"/>
+      <c r="K31" s="6"/>
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="16"/>
-      <c r="Q31" s="6"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="21"/>
       <c r="R31" s="21"/>
-      <c r="S31" s="21"/>
-    </row>
-    <row r="32" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="31"/>
       <c r="B32" s="32"/>
       <c r="C32" s="36"/>
@@ -5811,17 +5772,16 @@
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
       <c r="J32" s="16"/>
-      <c r="K32" s="14"/>
+      <c r="K32" s="6"/>
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
-      <c r="O32" s="6"/>
-      <c r="P32" s="16"/>
-      <c r="Q32" s="6"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="21"/>
       <c r="R32" s="21"/>
-      <c r="S32" s="21"/>
-    </row>
-    <row r="33" spans="1:19" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:18" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="22"/>
       <c r="B33" s="23"/>
       <c r="C33" s="36"/>
@@ -5832,17 +5792,16 @@
       <c r="H33" s="7"/>
       <c r="I33" s="13"/>
       <c r="J33" s="16"/>
-      <c r="K33" s="14"/>
+      <c r="K33" s="6"/>
       <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="15"/>
-      <c r="O33" s="6"/>
-      <c r="P33" s="16"/>
-      <c r="Q33" s="6"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="21"/>
       <c r="R33" s="21"/>
-      <c r="S33" s="21"/>
-    </row>
-    <row r="34" spans="1:19" s="9" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:18" s="9" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -5852,7 +5811,7 @@
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -5868,9 +5827,8 @@
       <c r="M35" s="9"/>
       <c r="N35" s="9"/>
       <c r="O35" s="9"/>
-      <c r="P35" s="9"/>
-    </row>
-    <row r="36" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -5886,9 +5844,8 @@
       <c r="M36" s="9"/>
       <c r="N36" s="9"/>
       <c r="O36" s="9"/>
-      <c r="P36" s="9"/>
-    </row>
-    <row r="37" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -5904,9 +5861,8 @@
       <c r="M37" s="9"/>
       <c r="N37" s="9"/>
       <c r="O37" s="9"/>
-      <c r="P37" s="9"/>
-    </row>
-    <row r="38" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -5922,9 +5878,8 @@
       <c r="M38" s="9"/>
       <c r="N38" s="9"/>
       <c r="O38" s="9"/>
-      <c r="P38" s="9"/>
-    </row>
-    <row r="39" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -5940,9 +5895,8 @@
       <c r="M39" s="9"/>
       <c r="N39" s="9"/>
       <c r="O39" s="9"/>
-      <c r="P39" s="9"/>
-    </row>
-    <row r="40" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -5958,9 +5912,8 @@
       <c r="M40" s="9"/>
       <c r="N40" s="9"/>
       <c r="O40" s="9"/>
-      <c r="P40" s="9"/>
-    </row>
-    <row r="41" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -5976,9 +5929,8 @@
       <c r="M41" s="9"/>
       <c r="N41" s="9"/>
       <c r="O41" s="9"/>
-      <c r="P41" s="9"/>
-    </row>
-    <row r="42" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -5994,9 +5946,8 @@
       <c r="M42" s="9"/>
       <c r="N42" s="9"/>
       <c r="O42" s="9"/>
-      <c r="P42" s="9"/>
-    </row>
-    <row r="43" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -6012,9 +5963,8 @@
       <c r="M43" s="9"/>
       <c r="N43" s="9"/>
       <c r="O43" s="9"/>
-      <c r="P43" s="9"/>
-    </row>
-    <row r="44" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -6030,9 +5980,8 @@
       <c r="M44" s="9"/>
       <c r="N44" s="9"/>
       <c r="O44" s="9"/>
-      <c r="P44" s="9"/>
-    </row>
-    <row r="45" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -6048,9 +5997,8 @@
       <c r="M45" s="9"/>
       <c r="N45" s="9"/>
       <c r="O45" s="9"/>
-      <c r="P45" s="9"/>
-    </row>
-    <row r="46" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -6066,9 +6014,8 @@
       <c r="M46" s="9"/>
       <c r="N46" s="9"/>
       <c r="O46" s="9"/>
-      <c r="P46" s="9"/>
-    </row>
-    <row r="47" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -6084,9 +6031,8 @@
       <c r="M47" s="9"/>
       <c r="N47" s="9"/>
       <c r="O47" s="9"/>
-      <c r="P47" s="9"/>
-    </row>
-    <row r="48" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -6102,9 +6048,8 @@
       <c r="M48" s="9"/>
       <c r="N48" s="9"/>
       <c r="O48" s="9"/>
-      <c r="P48" s="9"/>
-    </row>
-    <row r="49" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -6120,9 +6065,8 @@
       <c r="M49" s="9"/>
       <c r="N49" s="9"/>
       <c r="O49" s="9"/>
-      <c r="P49" s="9"/>
-    </row>
-    <row r="50" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -6138,9 +6082,8 @@
       <c r="M50" s="9"/>
       <c r="N50" s="9"/>
       <c r="O50" s="9"/>
-      <c r="P50" s="9"/>
-    </row>
-    <row r="51" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -6156,9 +6099,8 @@
       <c r="M51" s="9"/>
       <c r="N51" s="9"/>
       <c r="O51" s="9"/>
-      <c r="P51" s="9"/>
-    </row>
-    <row r="52" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -6174,9 +6116,8 @@
       <c r="M52" s="9"/>
       <c r="N52" s="9"/>
       <c r="O52" s="9"/>
-      <c r="P52" s="9"/>
-    </row>
-    <row r="53" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -6192,9 +6133,8 @@
       <c r="M53" s="9"/>
       <c r="N53" s="9"/>
       <c r="O53" s="9"/>
-      <c r="P53" s="9"/>
-    </row>
-    <row r="54" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -6210,9 +6150,8 @@
       <c r="M54" s="9"/>
       <c r="N54" s="9"/>
       <c r="O54" s="9"/>
-      <c r="P54" s="9"/>
-    </row>
-    <row r="55" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -6228,9 +6167,8 @@
       <c r="M55" s="9"/>
       <c r="N55" s="9"/>
       <c r="O55" s="9"/>
-      <c r="P55" s="9"/>
-    </row>
-    <row r="56" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -6246,9 +6184,8 @@
       <c r="M56" s="9"/>
       <c r="N56" s="9"/>
       <c r="O56" s="9"/>
-      <c r="P56" s="9"/>
-    </row>
-    <row r="57" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -6264,9 +6201,8 @@
       <c r="M57" s="9"/>
       <c r="N57" s="9"/>
       <c r="O57" s="9"/>
-      <c r="P57" s="9"/>
-    </row>
-    <row r="58" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -6282,9 +6218,8 @@
       <c r="M58" s="9"/>
       <c r="N58" s="9"/>
       <c r="O58" s="9"/>
-      <c r="P58" s="9"/>
-    </row>
-    <row r="59" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -6300,9 +6235,8 @@
       <c r="M59" s="9"/>
       <c r="N59" s="9"/>
       <c r="O59" s="9"/>
-      <c r="P59" s="9"/>
-    </row>
-    <row r="60" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -6318,9 +6252,8 @@
       <c r="M60" s="9"/>
       <c r="N60" s="9"/>
       <c r="O60" s="9"/>
-      <c r="P60" s="9"/>
-    </row>
-    <row r="61" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -6336,9 +6269,8 @@
       <c r="M61" s="9"/>
       <c r="N61" s="9"/>
       <c r="O61" s="9"/>
-      <c r="P61" s="9"/>
-    </row>
-    <row r="62" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -6354,9 +6286,8 @@
       <c r="M62" s="9"/>
       <c r="N62" s="9"/>
       <c r="O62" s="9"/>
-      <c r="P62" s="9"/>
-    </row>
-    <row r="63" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -6372,9 +6303,8 @@
       <c r="M63" s="9"/>
       <c r="N63" s="9"/>
       <c r="O63" s="9"/>
-      <c r="P63" s="9"/>
-    </row>
-    <row r="64" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -6390,9 +6320,8 @@
       <c r="M64" s="9"/>
       <c r="N64" s="9"/>
       <c r="O64" s="9"/>
-      <c r="P64" s="9"/>
-    </row>
-    <row r="65" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -6408,9 +6337,8 @@
       <c r="M65" s="9"/>
       <c r="N65" s="9"/>
       <c r="O65" s="9"/>
-      <c r="P65" s="9"/>
-    </row>
-    <row r="66" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -6426,9 +6354,8 @@
       <c r="M66" s="9"/>
       <c r="N66" s="9"/>
       <c r="O66" s="9"/>
-      <c r="P66" s="9"/>
-    </row>
-    <row r="67" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -6444,9 +6371,8 @@
       <c r="M67" s="9"/>
       <c r="N67" s="9"/>
       <c r="O67" s="9"/>
-      <c r="P67" s="9"/>
-    </row>
-    <row r="68" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -6462,9 +6388,8 @@
       <c r="M68" s="9"/>
       <c r="N68" s="9"/>
       <c r="O68" s="9"/>
-      <c r="P68" s="9"/>
-    </row>
-    <row r="69" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -6480,9 +6405,8 @@
       <c r="M69" s="9"/>
       <c r="N69" s="9"/>
       <c r="O69" s="9"/>
-      <c r="P69" s="9"/>
-    </row>
-    <row r="70" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -6498,9 +6422,8 @@
       <c r="M70" s="9"/>
       <c r="N70" s="9"/>
       <c r="O70" s="9"/>
-      <c r="P70" s="9"/>
-    </row>
-    <row r="71" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -6516,9 +6439,8 @@
       <c r="M71" s="9"/>
       <c r="N71" s="9"/>
       <c r="O71" s="9"/>
-      <c r="P71" s="9"/>
-    </row>
-    <row r="72" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -6534,9 +6456,8 @@
       <c r="M72" s="9"/>
       <c r="N72" s="9"/>
       <c r="O72" s="9"/>
-      <c r="P72" s="9"/>
-    </row>
-    <row r="73" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -6552,9 +6473,8 @@
       <c r="M73" s="9"/>
       <c r="N73" s="9"/>
       <c r="O73" s="9"/>
-      <c r="P73" s="9"/>
-    </row>
-    <row r="74" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -6570,9 +6490,8 @@
       <c r="M74" s="9"/>
       <c r="N74" s="9"/>
       <c r="O74" s="9"/>
-      <c r="P74" s="9"/>
-    </row>
-    <row r="75" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -6588,9 +6507,8 @@
       <c r="M75" s="9"/>
       <c r="N75" s="9"/>
       <c r="O75" s="9"/>
-      <c r="P75" s="9"/>
-    </row>
-    <row r="76" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -6606,9 +6524,8 @@
       <c r="M76" s="9"/>
       <c r="N76" s="9"/>
       <c r="O76" s="9"/>
-      <c r="P76" s="9"/>
-    </row>
-    <row r="77" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -6624,9 +6541,8 @@
       <c r="M77" s="9"/>
       <c r="N77" s="9"/>
       <c r="O77" s="9"/>
-      <c r="P77" s="9"/>
-    </row>
-    <row r="78" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -6642,9 +6558,8 @@
       <c r="M78" s="9"/>
       <c r="N78" s="9"/>
       <c r="O78" s="9"/>
-      <c r="P78" s="9"/>
-    </row>
-    <row r="79" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -6660,9 +6575,8 @@
       <c r="M79" s="9"/>
       <c r="N79" s="9"/>
       <c r="O79" s="9"/>
-      <c r="P79" s="9"/>
-    </row>
-    <row r="80" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -6678,9 +6592,8 @@
       <c r="M80" s="9"/>
       <c r="N80" s="9"/>
       <c r="O80" s="9"/>
-      <c r="P80" s="9"/>
-    </row>
-    <row r="81" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -6696,15 +6609,14 @@
       <c r="M81" s="9"/>
       <c r="N81" s="9"/>
       <c r="O81" s="9"/>
-      <c r="P81" s="9"/>
     </row>
   </sheetData>
   <sortState ref="A3:S33">
-    <sortCondition descending="1" ref="S3"/>
+    <sortCondition descending="1" ref="R3"/>
   </sortState>
   <mergeCells count="2">
     <mergeCell ref="E1:J1"/>
-    <mergeCell ref="K1:P1"/>
+    <mergeCell ref="K1:O1"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:I33">
     <cfRule type="cellIs" dxfId="10" priority="26" operator="between">
@@ -6732,7 +6644,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P3:P33">
+  <conditionalFormatting sqref="O3:O33">
     <cfRule type="dataBar" priority="24">
       <dataBar>
         <cfvo type="min"/>
@@ -6746,7 +6658,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R3:R33">
+  <conditionalFormatting sqref="Q3:Q33">
     <cfRule type="dataBar" priority="21">
       <dataBar>
         <cfvo type="min"/>
@@ -6760,7 +6672,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K3:O33">
+  <conditionalFormatting sqref="K3:N33">
     <cfRule type="cellIs" dxfId="7" priority="17" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
@@ -6777,7 +6689,7 @@
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S3:S33">
+  <conditionalFormatting sqref="R3:R33">
     <cfRule type="dataBar" priority="12">
       <dataBar>
         <cfvo type="min"/>
@@ -6819,7 +6731,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q3:Q33">
+  <conditionalFormatting sqref="P3:P33">
     <cfRule type="cellIs" dxfId="3" priority="2" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
@@ -6875,7 +6787,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>P3:P33</xm:sqref>
+          <xm:sqref>O3:O33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F9C7B28C-32E1-4B0D-97BC-F416D05D2AA7}">
@@ -6886,7 +6798,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>R3:R33</xm:sqref>
+          <xm:sqref>Q3:Q33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{2008DEFA-B118-4E92-B0F8-C5059B874A32}">
@@ -6897,7 +6809,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>S3:S33</xm:sqref>
+          <xm:sqref>R3:R33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{FF44BC67-0C1D-46A1-8F9C-F95AA3B0ECDF}">

--- a/AdvancedJava/_docs/Notlar.xlsx
+++ b/AdvancedJava/_docs/Notlar.xlsx
@@ -1471,7 +1471,7 @@
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W3" sqref="W3:W30"/>
+      <selection pane="bottomLeft" activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1892,11 +1892,11 @@
         <v>30</v>
       </c>
       <c r="S6" s="14">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="T6" s="16">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="U6" s="6">
         <v>53</v>
@@ -1904,7 +1904,7 @@
       <c r="V6" s="43"/>
       <c r="W6" s="21">
         <f t="shared" si="3"/>
-        <v>63.65</v>
+        <v>65.900000000000006</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2619,14 +2619,14 @@
         <v>60</v>
       </c>
       <c r="R16" s="14">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="S16" s="14">
         <v>0</v>
       </c>
       <c r="T16" s="16">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>10</v>
       </c>
       <c r="U16" s="6">
         <v>31</v>
@@ -2634,7 +2634,7 @@
       <c r="V16" s="43"/>
       <c r="W16" s="21">
         <f>L16*0.2+Q16*0.25+T16*0.25+U16*0.3+V16*0.15</f>
-        <v>37.758333333333333</v>
+        <v>40.133333333333333</v>
       </c>
     </row>
     <row r="17" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4851,7 +4851,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V18" sqref="V18"/>
+      <selection pane="bottomLeft" activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5050,7 +5050,7 @@
         <v>62</v>
       </c>
       <c r="D6" s="71">
-        <v>63.65</v>
+        <v>65.900000000000006</v>
       </c>
       <c r="E6" s="38">
         <v>2</v>
@@ -5330,7 +5330,7 @@
         <v>19</v>
       </c>
       <c r="D16" s="71">
-        <v>37.758333333333333</v>
+        <v>40.133333333333333</v>
       </c>
       <c r="E16" s="38">
         <v>1</v>

--- a/AdvancedJava/_docs/Notlar.xlsx
+++ b/AdvancedJava/_docs/Notlar.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
   </bookViews>
   <sheets>
     <sheet name="Vize" sheetId="1" r:id="rId1"/>
@@ -1469,9 +1469,9 @@
   </sheetPr>
   <dimension ref="A1:X76"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W6" sqref="W6"/>
+      <selection pane="bottomLeft" activeCell="W20" sqref="W20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1648,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="16">
-        <f t="shared" ref="L3:L30" si="0">SUM(D3:J3)*50/(L$1-K3)</f>
+        <f>SUM(D3:J3)*50/(L$1-K3)</f>
         <v>116.66666666666667</v>
       </c>
       <c r="M3" s="14">
@@ -1664,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="Q3" s="16">
-        <f t="shared" ref="Q3:Q30" si="1">SUM(M3:O3)/(Q$1-P3)</f>
+        <f>SUM(M3:O3)/(Q$1-P3)</f>
         <v>100</v>
       </c>
       <c r="R3" s="14">
@@ -1674,7 +1674,7 @@
         <v>100</v>
       </c>
       <c r="T3" s="16">
-        <f t="shared" ref="T3:T30" si="2">SUM(R3:S3)/T$1</f>
+        <f>SUM(R3:S3)/T$1</f>
         <v>100</v>
       </c>
       <c r="U3" s="6">
@@ -1723,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="16">
-        <f t="shared" si="0"/>
+        <f>SUM(D4:J4)*50/(L$1-K4)</f>
         <v>100</v>
       </c>
       <c r="M4" s="14">
@@ -1739,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="Q4" s="16">
-        <f t="shared" si="1"/>
+        <f>SUM(M4:O4)/(Q$1-P4)</f>
         <v>93.333333333333329</v>
       </c>
       <c r="R4" s="14">
@@ -1749,7 +1749,7 @@
         <v>80</v>
       </c>
       <c r="T4" s="16">
-        <f t="shared" si="2"/>
+        <f>SUM(R4:S4)/T$1</f>
         <v>80</v>
       </c>
       <c r="U4" s="6">
@@ -1796,7 +1796,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="16">
-        <f t="shared" si="0"/>
+        <f>SUM(D5:J5)*50/(L$1-K5)</f>
         <v>97.5</v>
       </c>
       <c r="M5" s="14">
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="Q5" s="16">
-        <f t="shared" si="1"/>
+        <f>SUM(M5:O5)/(Q$1-P5)</f>
         <v>75</v>
       </c>
       <c r="R5" s="14">
@@ -1822,16 +1822,18 @@
         <v>50</v>
       </c>
       <c r="T5" s="16">
-        <f t="shared" si="2"/>
+        <f>SUM(R5:S5)/T$1</f>
         <v>40</v>
       </c>
       <c r="U5" s="6">
         <v>66</v>
       </c>
-      <c r="V5" s="43"/>
+      <c r="V5" s="43">
+        <v>70</v>
+      </c>
       <c r="W5" s="21">
-        <f t="shared" ref="W5:W14" si="3">L5*0.2+Q5*0.25+T5*0.25+U5*0.3+V5*0.15</f>
-        <v>68.05</v>
+        <f>L5*0.2+Q5*0.25+T5*0.25+U5*0.3+V5*0.15</f>
+        <v>78.55</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1869,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="16">
-        <f t="shared" si="0"/>
+        <f>SUM(D6:J6)*50/(L$1-K6)</f>
         <v>100</v>
       </c>
       <c r="M6" s="14">
@@ -1885,7 +1887,7 @@
         <v>0</v>
       </c>
       <c r="Q6" s="16">
-        <f t="shared" si="1"/>
+        <f>SUM(M6:O6)/(Q$1-P6)</f>
         <v>95</v>
       </c>
       <c r="R6" s="14">
@@ -1895,7 +1897,7 @@
         <v>20</v>
       </c>
       <c r="T6" s="16">
-        <f t="shared" si="2"/>
+        <f>SUM(R6:S6)/T$1</f>
         <v>25</v>
       </c>
       <c r="U6" s="6">
@@ -1903,7 +1905,7 @@
       </c>
       <c r="V6" s="43"/>
       <c r="W6" s="21">
-        <f t="shared" si="3"/>
+        <f>L6*0.2+Q6*0.25+T6*0.25+U6*0.3+V6*0.15</f>
         <v>65.900000000000006</v>
       </c>
     </row>
@@ -1942,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="16">
-        <f t="shared" si="0"/>
+        <f>SUM(D7:J7)*50/(L$1-K7)</f>
         <v>116.66666666666667</v>
       </c>
       <c r="M7" s="14">
@@ -1958,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="Q7" s="16">
-        <f t="shared" si="1"/>
+        <f>SUM(M7:O7)/(Q$1-P7)</f>
         <v>95</v>
       </c>
       <c r="R7" s="14">
@@ -1968,7 +1970,7 @@
         <v>-25</v>
       </c>
       <c r="T7" s="16">
-        <f t="shared" si="2"/>
+        <f>SUM(R7:S7)/T$1</f>
         <v>7.5</v>
       </c>
       <c r="U7" s="6">
@@ -1976,7 +1978,7 @@
       </c>
       <c r="V7" s="43"/>
       <c r="W7" s="21">
-        <f t="shared" si="3"/>
+        <f>L7*0.2+Q7*0.25+T7*0.25+U7*0.3+V7*0.15</f>
         <v>61.558333333333337</v>
       </c>
     </row>
@@ -2015,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="16">
-        <f t="shared" si="0"/>
+        <f>SUM(D8:J8)*50/(L$1-K8)</f>
         <v>81.666666666666671</v>
       </c>
       <c r="M8" s="14">
@@ -2031,7 +2033,7 @@
         <v>0</v>
       </c>
       <c r="Q8" s="16">
-        <f t="shared" si="1"/>
+        <f>SUM(M8:O8)/(Q$1-P8)</f>
         <v>93.333333333333329</v>
       </c>
       <c r="R8" s="14">
@@ -2041,7 +2043,7 @@
         <v>61</v>
       </c>
       <c r="T8" s="16">
-        <f t="shared" si="2"/>
+        <f>SUM(R8:S8)/T$1</f>
         <v>35.5</v>
       </c>
       <c r="U8" s="6">
@@ -2049,7 +2051,7 @@
       </c>
       <c r="V8" s="43"/>
       <c r="W8" s="21">
-        <f t="shared" si="3"/>
+        <f>L8*0.2+Q8*0.25+T8*0.25+U8*0.3+V8*0.15</f>
         <v>60.541666666666671</v>
       </c>
     </row>
@@ -2088,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="16">
-        <f t="shared" si="0"/>
+        <f>SUM(D9:J9)*50/(L$1-K9)</f>
         <v>100</v>
       </c>
       <c r="M9" s="14">
@@ -2104,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="Q9" s="16">
-        <f t="shared" si="1"/>
+        <f>SUM(M9:O9)/(Q$1-P9)</f>
         <v>83.333333333333329</v>
       </c>
       <c r="R9" s="14">
@@ -2114,7 +2116,7 @@
         <v>30</v>
       </c>
       <c r="T9" s="16">
-        <f t="shared" si="2"/>
+        <f>SUM(R9:S9)/T$1</f>
         <v>52.5</v>
       </c>
       <c r="U9" s="6">
@@ -2122,7 +2124,7 @@
       </c>
       <c r="V9" s="43"/>
       <c r="W9" s="21">
-        <f t="shared" si="3"/>
+        <f>L9*0.2+Q9*0.25+T9*0.25+U9*0.3+V9*0.15</f>
         <v>58.758333333333326</v>
       </c>
     </row>
@@ -2161,7 +2163,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="16">
-        <f t="shared" si="0"/>
+        <f>SUM(D10:J10)*50/(L$1-K10)</f>
         <v>100</v>
       </c>
       <c r="M10" s="14">
@@ -2177,7 +2179,7 @@
         <v>0</v>
       </c>
       <c r="Q10" s="16">
-        <f t="shared" si="1"/>
+        <f>SUM(M10:O10)/(Q$1-P10)</f>
         <v>93.333333333333329</v>
       </c>
       <c r="R10" s="14">
@@ -2187,7 +2189,7 @@
         <v>-25</v>
       </c>
       <c r="T10" s="16">
-        <f t="shared" si="2"/>
+        <f>SUM(R10:S10)/T$1</f>
         <v>7.5</v>
       </c>
       <c r="U10" s="6">
@@ -2195,22 +2197,22 @@
       </c>
       <c r="V10" s="43"/>
       <c r="W10" s="21">
-        <f t="shared" si="3"/>
+        <f>L10*0.2+Q10*0.25+T10*0.25+U10*0.3+V10*0.15</f>
         <v>57.80833333333333</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="D11" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7">
         <v>2</v>
@@ -2219,7 +2221,7 @@
         <v>2</v>
       </c>
       <c r="G11" s="7">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="H11" s="50">
         <v>2</v>
@@ -2228,59 +2230,59 @@
         <v>2</v>
       </c>
       <c r="J11" s="7">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="K11" s="47">
         <v>0</v>
       </c>
       <c r="L11" s="16">
-        <f t="shared" si="0"/>
-        <v>115</v>
+        <f>SUM(D11:J11)*50/(L$1-K11)</f>
+        <v>98.333333333333329</v>
       </c>
       <c r="M11" s="14">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="N11" s="6">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="O11" s="6">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="P11" s="47">
         <v>0</v>
       </c>
       <c r="Q11" s="16">
-        <f t="shared" si="1"/>
-        <v>76.666666666666671</v>
+        <f>SUM(M11:O11)/(Q$1-P11)</f>
+        <v>86.666666666666671</v>
       </c>
       <c r="R11" s="14">
         <v>40</v>
       </c>
       <c r="S11" s="14">
-        <v>30</v>
+        <v>-25</v>
       </c>
       <c r="T11" s="16">
-        <f t="shared" si="2"/>
-        <v>35</v>
+        <f>SUM(R11:S11)/T$1</f>
+        <v>7.5</v>
       </c>
       <c r="U11" s="6">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="V11" s="43"/>
       <c r="W11" s="21">
-        <f t="shared" si="3"/>
-        <v>55.416666666666671</v>
+        <f>L11*0.2+Q11*0.25+T11*0.25+U11*0.3+V11*0.15</f>
+        <v>55.808333333333337</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D12" s="12">
         <v>2</v>
@@ -2307,129 +2309,132 @@
         <v>0</v>
       </c>
       <c r="L12" s="16">
-        <f t="shared" si="0"/>
+        <f>SUM(D12:J12)*50/(L$1-K12)</f>
         <v>115</v>
       </c>
       <c r="M12" s="14">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N12" s="6">
         <v>90</v>
       </c>
       <c r="O12" s="6">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="P12" s="47">
         <v>0</v>
       </c>
       <c r="Q12" s="16">
-        <f t="shared" si="1"/>
-        <v>75</v>
+        <f>SUM(M12:O12)/(Q$1-P12)</f>
+        <v>76.666666666666671</v>
       </c>
       <c r="R12" s="14">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="S12" s="14">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="T12" s="16">
-        <f t="shared" si="2"/>
-        <v>42.5</v>
+        <f>SUM(R12:S12)/T$1</f>
+        <v>35</v>
       </c>
       <c r="U12" s="6">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="V12" s="43"/>
       <c r="W12" s="21">
-        <f t="shared" si="3"/>
-        <v>53.875</v>
+        <f>L12*0.2+Q12*0.25+T12*0.25+U12*0.3+V12*0.15</f>
+        <v>55.416666666666671</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="D13" s="12">
         <v>0</v>
       </c>
       <c r="E13" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F13" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G13" s="7">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="H13" s="50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="J13" s="7">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="K13" s="47">
         <v>0</v>
       </c>
       <c r="L13" s="16">
-        <f t="shared" si="0"/>
-        <v>98.333333333333329</v>
+        <f>SUM(D13:J13)*50/(L$1-K13)</f>
+        <v>11.666666666666666</v>
       </c>
       <c r="M13" s="14">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="N13" s="6">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="O13" s="6">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="P13" s="47">
         <v>0</v>
       </c>
       <c r="Q13" s="16">
-        <f t="shared" si="1"/>
-        <v>86.666666666666671</v>
+        <f>SUM(M13:O13)/(Q$1-P13)</f>
+        <v>40</v>
       </c>
       <c r="R13" s="14">
         <v>40</v>
       </c>
       <c r="S13" s="14">
-        <v>-25</v>
+        <v>61</v>
       </c>
       <c r="T13" s="16">
-        <f t="shared" si="2"/>
-        <v>7.5</v>
+        <f>SUM(R13:S13)/T$1</f>
+        <v>50.5</v>
       </c>
       <c r="U13" s="6">
-        <v>42</v>
-      </c>
-      <c r="V13" s="43"/>
+        <v>73</v>
+      </c>
+      <c r="V13" s="43">
+        <v>80</v>
+      </c>
       <c r="W13" s="21">
-        <f t="shared" si="3"/>
-        <v>55.808333333333337</v>
-      </c>
+        <f>L13*0.2+Q13*0.25+T13*0.25+U13*0.3+V13*0.1</f>
+        <v>54.858333333333334</v>
+      </c>
+      <c r="X13" s="9"/>
     </row>
     <row r="14" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="D14" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E14" s="7">
         <v>2</v>
@@ -2440,66 +2445,66 @@
       <c r="G14" s="7">
         <v>2</v>
       </c>
-      <c r="H14" s="50" t="s">
-        <v>94</v>
+      <c r="H14" s="50">
+        <v>2</v>
       </c>
       <c r="I14" s="7">
+        <v>2</v>
+      </c>
+      <c r="J14" s="7">
         <v>1.8</v>
       </c>
-      <c r="J14" s="7">
-        <v>2</v>
-      </c>
-      <c r="K14" s="48">
-        <v>1</v>
+      <c r="K14" s="47">
+        <v>0</v>
       </c>
       <c r="L14" s="16">
-        <f t="shared" si="0"/>
-        <v>98.000000000000014</v>
+        <f>SUM(D14:J14)*50/(L$1-K14)</f>
+        <v>115</v>
       </c>
       <c r="M14" s="14">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="N14" s="6">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="O14" s="6">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="P14" s="47">
         <v>0</v>
       </c>
       <c r="Q14" s="16">
-        <f t="shared" si="1"/>
-        <v>91.666666666666671</v>
+        <f>SUM(M14:O14)/(Q$1-P14)</f>
+        <v>75</v>
       </c>
       <c r="R14" s="14">
-        <v>-25</v>
+        <v>20</v>
       </c>
       <c r="S14" s="14">
-        <v>-25</v>
+        <v>65</v>
       </c>
       <c r="T14" s="16">
-        <f t="shared" si="2"/>
-        <v>-25</v>
+        <f>SUM(R14:S14)/T$1</f>
+        <v>42.5</v>
       </c>
       <c r="U14" s="6">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="V14" s="43"/>
       <c r="W14" s="21">
-        <f t="shared" si="3"/>
-        <v>51.866666666666674</v>
+        <f>L14*0.2+Q14*0.25+T14*0.25+U14*0.3+V14*0.15</f>
+        <v>53.875</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D15" s="12">
         <v>0</v>
@@ -2507,72 +2512,74 @@
       <c r="E15" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="F15" s="50" t="s">
-        <v>94</v>
-      </c>
-      <c r="G15" s="50" t="s">
-        <v>94</v>
+      <c r="F15" s="7">
+        <v>0</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0</v>
       </c>
       <c r="H15" s="50">
         <v>0</v>
       </c>
       <c r="I15" s="7">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="J15" s="7">
         <v>2</v>
       </c>
       <c r="K15" s="47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L15" s="16">
-        <f t="shared" si="0"/>
-        <v>66.666666666666671</v>
-      </c>
-      <c r="M15" s="54" t="s">
-        <v>94</v>
+        <f>SUM(D15:J15)*50/(L$1-K15)</f>
+        <v>36</v>
+      </c>
+      <c r="M15" s="14">
+        <v>0</v>
       </c>
       <c r="N15" s="6">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="O15" s="6">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="P15" s="47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="16">
-        <f t="shared" si="1"/>
-        <v>62.5</v>
+        <f>SUM(M15:O15)/(Q$1-P15)</f>
+        <v>20</v>
       </c>
       <c r="R15" s="14">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="S15" s="14">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T15" s="16">
-        <f t="shared" si="2"/>
-        <v>40.5</v>
+        <f>SUM(R15:S15)/T$1</f>
+        <v>0</v>
       </c>
       <c r="U15" s="6">
-        <v>0</v>
-      </c>
-      <c r="V15" s="43"/>
+        <v>100</v>
+      </c>
+      <c r="V15" s="43">
+        <v>100</v>
+      </c>
       <c r="W15" s="21">
         <f>L15*0.2+Q15*0.25+T15*0.25+U15*0.3+V15*0.1</f>
-        <v>39.083333333333336</v>
+        <v>52.2</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="D16" s="12">
         <v>0</v>
@@ -2586,66 +2593,66 @@
       <c r="G16" s="7">
         <v>2</v>
       </c>
-      <c r="H16" s="50">
-        <v>0</v>
+      <c r="H16" s="50" t="s">
+        <v>94</v>
       </c>
       <c r="I16" s="7">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="J16" s="7">
-        <v>0</v>
-      </c>
-      <c r="K16" s="47">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="K16" s="48">
+        <v>1</v>
       </c>
       <c r="L16" s="16">
-        <f t="shared" si="0"/>
-        <v>66.666666666666671</v>
+        <f>SUM(D16:J16)*50/(L$1-K16)</f>
+        <v>98.000000000000014</v>
       </c>
       <c r="M16" s="14">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="N16" s="6">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="O16" s="6">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="P16" s="47">
         <v>0</v>
       </c>
       <c r="Q16" s="16">
-        <f t="shared" si="1"/>
-        <v>60</v>
+        <f>SUM(M16:O16)/(Q$1-P16)</f>
+        <v>91.666666666666671</v>
       </c>
       <c r="R16" s="14">
-        <v>20</v>
+        <v>-25</v>
       </c>
       <c r="S16" s="14">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="T16" s="16">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f>SUM(R16:S16)/T$1</f>
+        <v>-25</v>
       </c>
       <c r="U16" s="6">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="V16" s="43"/>
       <c r="W16" s="21">
         <f>L16*0.2+Q16*0.25+T16*0.25+U16*0.3+V16*0.15</f>
-        <v>40.133333333333333</v>
+        <v>51.866666666666674</v>
       </c>
     </row>
     <row r="17" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="D17" s="12">
         <v>0</v>
@@ -2660,173 +2667,173 @@
         <v>2</v>
       </c>
       <c r="H17" s="50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" s="7">
         <v>2</v>
       </c>
       <c r="J17" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K17" s="47">
         <v>0</v>
       </c>
       <c r="L17" s="16">
-        <f t="shared" si="0"/>
-        <v>100</v>
+        <f>SUM(D17:J17)*50/(L$1-K17)</f>
+        <v>66.666666666666671</v>
       </c>
       <c r="M17" s="14">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="N17" s="6">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="O17" s="6">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="P17" s="47">
         <v>0</v>
       </c>
       <c r="Q17" s="16">
-        <f t="shared" si="1"/>
-        <v>90</v>
+        <f>SUM(M17:O17)/(Q$1-P17)</f>
+        <v>60</v>
       </c>
       <c r="R17" s="14">
-        <v>-25</v>
+        <v>20</v>
       </c>
       <c r="S17" s="14">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="T17" s="16">
-        <f t="shared" si="2"/>
-        <v>-25</v>
+        <f>SUM(R17:S17)/T$1</f>
+        <v>10</v>
       </c>
       <c r="U17" s="6">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="V17" s="43"/>
       <c r="W17" s="21">
         <f>L17*0.2+Q17*0.25+T17*0.25+U17*0.3+V17*0.15</f>
-        <v>36.25</v>
+        <v>40.133333333333333</v>
       </c>
     </row>
     <row r="18" spans="1:24" s="46" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="C18" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" s="12">
+        <v>0</v>
+      </c>
+      <c r="E18" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="F18" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="G18" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="H18" s="50">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7">
+        <v>2</v>
+      </c>
+      <c r="J18" s="7">
+        <v>2</v>
+      </c>
+      <c r="K18" s="47">
+        <v>3</v>
+      </c>
+      <c r="L18" s="16">
+        <f>SUM(D18:J18)*50/(L$1-K18)</f>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="M18" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="N18" s="6">
+        <v>75</v>
+      </c>
+      <c r="O18" s="6">
         <v>50</v>
       </c>
-      <c r="D18" s="12">
-        <v>2</v>
-      </c>
-      <c r="E18" s="12">
-        <v>2</v>
-      </c>
-      <c r="F18" s="12">
-        <v>2</v>
-      </c>
-      <c r="G18" s="12">
-        <v>0</v>
-      </c>
-      <c r="H18" s="50">
-        <v>2</v>
-      </c>
-      <c r="I18" s="7">
-        <v>2</v>
-      </c>
-      <c r="J18" s="7">
-        <v>0</v>
-      </c>
-      <c r="K18" s="47">
-        <v>0</v>
-      </c>
-      <c r="L18" s="16">
-        <f t="shared" si="0"/>
-        <v>83.333333333333329</v>
-      </c>
-      <c r="M18" s="14">
-        <v>0</v>
-      </c>
-      <c r="N18" s="6">
-        <v>100</v>
-      </c>
-      <c r="O18" s="6">
-        <v>0</v>
-      </c>
       <c r="P18" s="47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="16">
-        <f t="shared" si="1"/>
-        <v>33.333333333333336</v>
+        <f>SUM(M18:O18)/(Q$1-P18)</f>
+        <v>62.5</v>
       </c>
       <c r="R18" s="14">
-        <v>-25</v>
+        <v>61</v>
       </c>
       <c r="S18" s="14">
-        <v>-25</v>
+        <v>20</v>
       </c>
       <c r="T18" s="16">
-        <f t="shared" si="2"/>
-        <v>-25</v>
+        <f>SUM(R18:S18)/T$1</f>
+        <v>40.5</v>
       </c>
       <c r="U18" s="6">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="V18" s="43"/>
       <c r="W18" s="21">
-        <f>L18*0.2+Q18*0.25+T18*0.25+U18*0.3+V18*0.15</f>
-        <v>32.25</v>
+        <f>L18*0.2+Q18*0.25+T18*0.25+U18*0.3+V18*0.1</f>
+        <v>39.083333333333336</v>
       </c>
       <c r="X18" s="1"/>
     </row>
     <row r="19" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="12">
+        <v>0</v>
+      </c>
+      <c r="E19" s="12">
+        <v>2</v>
+      </c>
+      <c r="F19" s="12">
+        <v>2</v>
+      </c>
+      <c r="G19" s="12">
+        <v>2</v>
+      </c>
+      <c r="H19" s="50">
+        <v>2</v>
+      </c>
+      <c r="I19" s="7">
+        <v>2</v>
+      </c>
+      <c r="J19" s="7">
+        <v>2</v>
+      </c>
+      <c r="K19" s="47">
+        <v>0</v>
+      </c>
+      <c r="L19" s="16">
+        <f>SUM(D19:J19)*50/(L$1-K19)</f>
+        <v>100</v>
+      </c>
+      <c r="M19" s="14">
         <v>90</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D19" s="12">
-        <v>0</v>
-      </c>
-      <c r="E19" s="12">
-        <v>0</v>
-      </c>
-      <c r="F19" s="12">
-        <v>0</v>
-      </c>
-      <c r="G19" s="12">
-        <v>0</v>
-      </c>
-      <c r="H19" s="50">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0.9</v>
-      </c>
-      <c r="J19" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="K19" s="47">
-        <v>0</v>
-      </c>
-      <c r="L19" s="16">
-        <f t="shared" si="0"/>
-        <v>11.666666666666666</v>
-      </c>
-      <c r="M19" s="14">
-        <v>0</v>
-      </c>
       <c r="N19" s="6">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="O19" s="6">
         <v>80</v>
@@ -2835,100 +2842,99 @@
         <v>0</v>
       </c>
       <c r="Q19" s="16">
-        <f t="shared" si="1"/>
-        <v>40</v>
+        <f>SUM(M19:O19)/(Q$1-P19)</f>
+        <v>90</v>
       </c>
       <c r="R19" s="14">
-        <v>40</v>
+        <v>-25</v>
       </c>
       <c r="S19" s="14">
-        <v>61</v>
+        <v>-25</v>
       </c>
       <c r="T19" s="16">
-        <f t="shared" si="2"/>
-        <v>50.5</v>
+        <f>SUM(R19:S19)/T$1</f>
+        <v>-25</v>
       </c>
       <c r="U19" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V19" s="43"/>
       <c r="W19" s="21">
-        <f>L19*0.2+Q19*0.25+T19*0.25+U19*0.3+V19*0.1</f>
-        <v>25.558333333333337</v>
-      </c>
-      <c r="X19" s="9"/>
+        <f>L19*0.2+Q19*0.25+T19*0.25+U19*0.3+V19*0.15</f>
+        <v>36.25</v>
+      </c>
     </row>
     <row r="20" spans="1:24" s="46" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="D20" s="12">
-        <v>0</v>
-      </c>
-      <c r="E20" s="53" t="s">
-        <v>94</v>
+        <v>2</v>
+      </c>
+      <c r="E20" s="12">
+        <v>2</v>
       </c>
       <c r="F20" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G20" s="12">
         <v>0</v>
       </c>
       <c r="H20" s="50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" s="7">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="J20" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K20" s="47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" s="16">
-        <f t="shared" si="0"/>
-        <v>36</v>
+        <f>SUM(D20:J20)*50/(L$1-K20)</f>
+        <v>83.333333333333329</v>
       </c>
       <c r="M20" s="14">
         <v>0</v>
       </c>
       <c r="N20" s="6">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="O20" s="6">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="P20" s="47">
         <v>0</v>
       </c>
       <c r="Q20" s="16">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <f>SUM(M20:O20)/(Q$1-P20)</f>
+        <v>33.333333333333336</v>
       </c>
       <c r="R20" s="14">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="S20" s="14">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="T20" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>SUM(R20:S20)/T$1</f>
+        <v>-25</v>
       </c>
       <c r="U20" s="6">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="V20" s="43"/>
       <c r="W20" s="21">
-        <f>L20*0.2+Q20*0.25+T20*0.25+U20*0.3+V20*0.1</f>
-        <v>12.5</v>
+        <f>L20*0.2+Q20*0.25+T20*0.25+U20*0.3+V20*0.15</f>
+        <v>32.25</v>
       </c>
       <c r="X20" s="1"/>
     </row>
@@ -2967,7 +2973,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="16">
-        <f t="shared" si="0"/>
+        <f>SUM(D21:J21)*50/(L$1-K21)</f>
         <v>16.666666666666668</v>
       </c>
       <c r="M21" s="14">
@@ -2983,7 +2989,7 @@
         <v>0</v>
       </c>
       <c r="Q21" s="16">
-        <f t="shared" si="1"/>
+        <f>SUM(M21:O21)/(Q$1-P21)</f>
         <v>0</v>
       </c>
       <c r="R21" s="14">
@@ -2993,7 +2999,7 @@
         <v>25</v>
       </c>
       <c r="T21" s="16">
-        <f t="shared" si="2"/>
+        <f>SUM(R21:S21)/T$1</f>
         <v>25</v>
       </c>
       <c r="U21" s="6">
@@ -3001,7 +3007,7 @@
       </c>
       <c r="V21" s="43"/>
       <c r="W21" s="21">
-        <f t="shared" ref="W21:W29" si="4">L21*0.2+Q21*0.25+T21*0.25+U21*0.3+V21*0.15</f>
+        <f>L21*0.2+Q21*0.25+T21*0.25+U21*0.3+V21*0.15</f>
         <v>9.5833333333333339</v>
       </c>
     </row>
@@ -3040,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="62">
-        <f t="shared" si="0"/>
+        <f>SUM(D22:J22)*50/(L$1-K22)</f>
         <v>0</v>
       </c>
       <c r="M22" s="63">
@@ -3056,7 +3062,7 @@
         <v>0</v>
       </c>
       <c r="Q22" s="62">
-        <f t="shared" si="1"/>
+        <f>SUM(M22:O22)/(Q$1-P22)</f>
         <v>0</v>
       </c>
       <c r="R22" s="63">
@@ -3066,7 +3072,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="62">
-        <f t="shared" si="2"/>
+        <f>SUM(R22:S22)/T$1</f>
         <v>0</v>
       </c>
       <c r="U22" s="64">
@@ -3074,7 +3080,7 @@
       </c>
       <c r="V22" s="65"/>
       <c r="W22" s="66">
-        <f t="shared" si="4"/>
+        <f>L22*0.2+Q22*0.25+T22*0.25+U22*0.3+V22*0.15</f>
         <v>0</v>
       </c>
     </row>
@@ -3113,7 +3119,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="62">
-        <f t="shared" si="0"/>
+        <f>SUM(D23:J23)*50/(L$1-K23)</f>
         <v>0</v>
       </c>
       <c r="M23" s="63">
@@ -3129,7 +3135,7 @@
         <v>0</v>
       </c>
       <c r="Q23" s="62">
-        <f t="shared" si="1"/>
+        <f>SUM(M23:O23)/(Q$1-P23)</f>
         <v>0</v>
       </c>
       <c r="R23" s="63">
@@ -3139,7 +3145,7 @@
         <v>0</v>
       </c>
       <c r="T23" s="62">
-        <f t="shared" si="2"/>
+        <f>SUM(R23:S23)/T$1</f>
         <v>0</v>
       </c>
       <c r="U23" s="64">
@@ -3147,7 +3153,7 @@
       </c>
       <c r="V23" s="65"/>
       <c r="W23" s="66">
-        <f t="shared" si="4"/>
+        <f>L23*0.2+Q23*0.25+T23*0.25+U23*0.3+V23*0.15</f>
         <v>0</v>
       </c>
     </row>
@@ -3186,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="62">
-        <f t="shared" si="0"/>
+        <f>SUM(D24:J24)*50/(L$1-K24)</f>
         <v>0</v>
       </c>
       <c r="M24" s="63">
@@ -3202,7 +3208,7 @@
         <v>0</v>
       </c>
       <c r="Q24" s="62">
-        <f t="shared" si="1"/>
+        <f>SUM(M24:O24)/(Q$1-P24)</f>
         <v>0</v>
       </c>
       <c r="R24" s="63">
@@ -3212,7 +3218,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="62">
-        <f t="shared" si="2"/>
+        <f>SUM(R24:S24)/T$1</f>
         <v>0</v>
       </c>
       <c r="U24" s="64">
@@ -3220,7 +3226,7 @@
       </c>
       <c r="V24" s="65"/>
       <c r="W24" s="66">
-        <f t="shared" si="4"/>
+        <f>L24*0.2+Q24*0.25+T24*0.25+U24*0.3+V24*0.15</f>
         <v>0</v>
       </c>
     </row>
@@ -3259,7 +3265,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="62">
-        <f t="shared" si="0"/>
+        <f>SUM(D25:J25)*50/(L$1-K25)</f>
         <v>0</v>
       </c>
       <c r="M25" s="63">
@@ -3275,7 +3281,7 @@
         <v>0</v>
       </c>
       <c r="Q25" s="62">
-        <f t="shared" si="1"/>
+        <f>SUM(M25:O25)/(Q$1-P25)</f>
         <v>0</v>
       </c>
       <c r="R25" s="63">
@@ -3285,7 +3291,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="62">
-        <f t="shared" si="2"/>
+        <f>SUM(R25:S25)/T$1</f>
         <v>0</v>
       </c>
       <c r="U25" s="64">
@@ -3293,7 +3299,7 @@
       </c>
       <c r="V25" s="65"/>
       <c r="W25" s="66">
-        <f t="shared" si="4"/>
+        <f>L25*0.2+Q25*0.25+T25*0.25+U25*0.3+V25*0.15</f>
         <v>0</v>
       </c>
     </row>
@@ -3332,7 +3338,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="62">
-        <f t="shared" si="0"/>
+        <f>SUM(D26:J26)*50/(L$1-K26)</f>
         <v>0</v>
       </c>
       <c r="M26" s="63">
@@ -3348,7 +3354,7 @@
         <v>0</v>
       </c>
       <c r="Q26" s="62">
-        <f t="shared" si="1"/>
+        <f>SUM(M26:O26)/(Q$1-P26)</f>
         <v>0</v>
       </c>
       <c r="R26" s="63">
@@ -3358,7 +3364,7 @@
         <v>0</v>
       </c>
       <c r="T26" s="62">
-        <f t="shared" si="2"/>
+        <f>SUM(R26:S26)/T$1</f>
         <v>0</v>
       </c>
       <c r="U26" s="64">
@@ -3366,7 +3372,7 @@
       </c>
       <c r="V26" s="65"/>
       <c r="W26" s="66">
-        <f t="shared" si="4"/>
+        <f>L26*0.2+Q26*0.25+T26*0.25+U26*0.3+V26*0.15</f>
         <v>0</v>
       </c>
     </row>
@@ -3405,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="62">
-        <f t="shared" si="0"/>
+        <f>SUM(D27:J27)*50/(L$1-K27)</f>
         <v>0</v>
       </c>
       <c r="M27" s="63">
@@ -3421,7 +3427,7 @@
         <v>0</v>
       </c>
       <c r="Q27" s="62">
-        <f t="shared" si="1"/>
+        <f>SUM(M27:O27)/(Q$1-P27)</f>
         <v>0</v>
       </c>
       <c r="R27" s="63">
@@ -3431,7 +3437,7 @@
         <v>0</v>
       </c>
       <c r="T27" s="62">
-        <f t="shared" si="2"/>
+        <f>SUM(R27:S27)/T$1</f>
         <v>0</v>
       </c>
       <c r="U27" s="64">
@@ -3439,7 +3445,7 @@
       </c>
       <c r="V27" s="65"/>
       <c r="W27" s="66">
-        <f t="shared" si="4"/>
+        <f>L27*0.2+Q27*0.25+T27*0.25+U27*0.3+V27*0.15</f>
         <v>0</v>
       </c>
     </row>
@@ -3478,7 +3484,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="62">
-        <f t="shared" si="0"/>
+        <f>SUM(D28:J28)*50/(L$1-K28)</f>
         <v>0</v>
       </c>
       <c r="M28" s="63">
@@ -3494,7 +3500,7 @@
         <v>0</v>
       </c>
       <c r="Q28" s="62">
-        <f t="shared" si="1"/>
+        <f>SUM(M28:O28)/(Q$1-P28)</f>
         <v>0</v>
       </c>
       <c r="R28" s="63">
@@ -3504,7 +3510,7 @@
         <v>0</v>
       </c>
       <c r="T28" s="62">
-        <f t="shared" si="2"/>
+        <f>SUM(R28:S28)/T$1</f>
         <v>0</v>
       </c>
       <c r="U28" s="64">
@@ -3512,7 +3518,7 @@
       </c>
       <c r="V28" s="65"/>
       <c r="W28" s="66">
-        <f t="shared" si="4"/>
+        <f>L28*0.2+Q28*0.25+T28*0.25+U28*0.3+V28*0.15</f>
         <v>0</v>
       </c>
     </row>
@@ -3551,7 +3557,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="62">
-        <f t="shared" si="0"/>
+        <f>SUM(D29:J29)*50/(L$1-K29)</f>
         <v>0</v>
       </c>
       <c r="M29" s="63">
@@ -3567,7 +3573,7 @@
         <v>0</v>
       </c>
       <c r="Q29" s="62">
-        <f t="shared" si="1"/>
+        <f>SUM(M29:O29)/(Q$1-P29)</f>
         <v>0</v>
       </c>
       <c r="R29" s="63">
@@ -3577,7 +3583,7 @@
         <v>0</v>
       </c>
       <c r="T29" s="62">
-        <f t="shared" si="2"/>
+        <f>SUM(R29:S29)/T$1</f>
         <v>0</v>
       </c>
       <c r="U29" s="64">
@@ -3585,7 +3591,7 @@
       </c>
       <c r="V29" s="65"/>
       <c r="W29" s="66">
-        <f t="shared" si="4"/>
+        <f>L29*0.2+Q29*0.25+T29*0.25+U29*0.3+V29*0.15</f>
         <v>0</v>
       </c>
     </row>
@@ -3624,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="L30" s="62">
-        <f t="shared" si="0"/>
+        <f>SUM(D30:J30)*50/(L$1-K30)</f>
         <v>0</v>
       </c>
       <c r="M30" s="63">
@@ -3640,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="Q30" s="62">
-        <f t="shared" si="1"/>
+        <f>SUM(M30:O30)/(Q$1-P30)</f>
         <v>0</v>
       </c>
       <c r="R30" s="63">
@@ -3650,7 +3656,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="62">
-        <f t="shared" si="2"/>
+        <f>SUM(R30:S30)/T$1</f>
         <v>0</v>
       </c>
       <c r="U30" s="64">
@@ -4849,9 +4855,9 @@
   </sheetPr>
   <dimension ref="A1:R81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U12" sqref="U12"/>
+      <selection pane="bottomLeft" activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5022,7 +5028,7 @@
         <v>46</v>
       </c>
       <c r="D5" s="71">
-        <v>68.05</v>
+        <v>78.55</v>
       </c>
       <c r="E5" s="38">
         <v>2</v>
@@ -5184,13 +5190,13 @@
     <row r="11" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20"/>
       <c r="B11" s="3" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="D11" s="71">
-        <v>55.416666666666671</v>
+        <v>55.808333333333337</v>
       </c>
       <c r="E11" s="38">
         <v>2</v>
@@ -5212,13 +5218,13 @@
     <row r="12" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20"/>
       <c r="B12" s="3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D12" s="71">
-        <v>53.875</v>
+        <v>55.416666666666671</v>
       </c>
       <c r="E12" s="38">
         <v>2</v>
@@ -5240,18 +5246,18 @@
     <row r="13" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20"/>
       <c r="B13" s="3" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="D13" s="71">
-        <v>55.808333333333337</v>
+        <v>54.858333333333334</v>
       </c>
       <c r="E13" s="38">
-        <v>2</v>
-      </c>
-      <c r="F13" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="41"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
@@ -5268,13 +5274,13 @@
     <row r="14" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20"/>
       <c r="B14" s="3" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="D14" s="71">
-        <v>51.866666666666674</v>
+        <v>53.875</v>
       </c>
       <c r="E14" s="38">
         <v>2</v>
@@ -5296,13 +5302,13 @@
     <row r="15" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="20"/>
       <c r="B15" s="3" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D15" s="71">
-        <v>39.083333333333336</v>
+        <v>52.2</v>
       </c>
       <c r="E15" s="38">
         <v>0</v>
@@ -5324,16 +5330,16 @@
     <row r="16" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20"/>
       <c r="B16" s="3" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="D16" s="71">
-        <v>40.133333333333333</v>
+        <v>51.866666666666674</v>
       </c>
       <c r="E16" s="38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
@@ -5352,16 +5358,16 @@
     <row r="17" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20"/>
       <c r="B17" s="3" t="s">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="D17" s="71">
-        <v>36.25</v>
+        <v>40.133333333333333</v>
       </c>
       <c r="E17" s="38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
@@ -5380,16 +5386,16 @@
     <row r="18" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20"/>
       <c r="B18" s="3" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="D18" s="71">
-        <v>32.25</v>
+        <v>39.083333333333336</v>
       </c>
       <c r="E18" s="38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
@@ -5408,18 +5414,18 @@
     <row r="19" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20"/>
       <c r="B19" s="3" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="D19" s="71">
-        <v>25.558333333333337</v>
+        <v>36.25</v>
       </c>
       <c r="E19" s="38">
-        <v>0</v>
-      </c>
-      <c r="F19" s="41"/>
+        <v>2</v>
+      </c>
+      <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
@@ -5436,16 +5442,16 @@
     <row r="20" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="20"/>
       <c r="B20" s="3" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="D20" s="71">
-        <v>12.5</v>
+        <v>32.25</v>
       </c>
       <c r="E20" s="38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
@@ -6611,8 +6617,8 @@
       <c r="O81" s="9"/>
     </row>
   </sheetData>
-  <sortState ref="A3:S33">
-    <sortCondition descending="1" ref="R3"/>
+  <sortState ref="A3:R30">
+    <sortCondition descending="1" ref="D3"/>
   </sortState>
   <mergeCells count="2">
     <mergeCell ref="E1:J1"/>

--- a/AdvancedJava/_docs/Notlar.xlsx
+++ b/AdvancedJava/_docs/Notlar.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Vize" sheetId="1" r:id="rId1"/>
@@ -1469,9 +1469,9 @@
   </sheetPr>
   <dimension ref="A1:X76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W20" sqref="W20"/>
+      <selection pane="bottomLeft" activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1648,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="16">
-        <f>SUM(D3:J3)*50/(L$1-K3)</f>
+        <f t="shared" ref="L3:L30" si="0">SUM(D3:J3)*50/(L$1-K3)</f>
         <v>116.66666666666667</v>
       </c>
       <c r="M3" s="14">
@@ -1664,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="Q3" s="16">
-        <f>SUM(M3:O3)/(Q$1-P3)</f>
+        <f t="shared" ref="Q3:Q30" si="1">SUM(M3:O3)/(Q$1-P3)</f>
         <v>100</v>
       </c>
       <c r="R3" s="14">
@@ -1674,7 +1674,7 @@
         <v>100</v>
       </c>
       <c r="T3" s="16">
-        <f>SUM(R3:S3)/T$1</f>
+        <f t="shared" ref="T3:T30" si="2">SUM(R3:S3)/T$1</f>
         <v>100</v>
       </c>
       <c r="U3" s="6">
@@ -1723,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="16">
-        <f>SUM(D4:J4)*50/(L$1-K4)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="M4" s="14">
@@ -1739,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="Q4" s="16">
-        <f>SUM(M4:O4)/(Q$1-P4)</f>
+        <f t="shared" si="1"/>
         <v>93.333333333333329</v>
       </c>
       <c r="R4" s="14">
@@ -1749,7 +1749,7 @@
         <v>80</v>
       </c>
       <c r="T4" s="16">
-        <f>SUM(R4:S4)/T$1</f>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="U4" s="6">
@@ -1796,7 +1796,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="16">
-        <f>SUM(D5:J5)*50/(L$1-K5)</f>
+        <f t="shared" si="0"/>
         <v>97.5</v>
       </c>
       <c r="M5" s="14">
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="Q5" s="16">
-        <f>SUM(M5:O5)/(Q$1-P5)</f>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="R5" s="14">
@@ -1822,7 +1822,7 @@
         <v>50</v>
       </c>
       <c r="T5" s="16">
-        <f>SUM(R5:S5)/T$1</f>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="U5" s="6">
@@ -1832,7 +1832,7 @@
         <v>70</v>
       </c>
       <c r="W5" s="21">
-        <f>L5*0.2+Q5*0.25+T5*0.25+U5*0.3+V5*0.15</f>
+        <f t="shared" ref="W5:W12" si="3">L5*0.2+Q5*0.25+T5*0.25+U5*0.3+V5*0.15</f>
         <v>78.55</v>
       </c>
     </row>
@@ -1871,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="16">
-        <f>SUM(D6:J6)*50/(L$1-K6)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="M6" s="14">
@@ -1887,7 +1887,7 @@
         <v>0</v>
       </c>
       <c r="Q6" s="16">
-        <f>SUM(M6:O6)/(Q$1-P6)</f>
+        <f t="shared" si="1"/>
         <v>95</v>
       </c>
       <c r="R6" s="14">
@@ -1897,7 +1897,7 @@
         <v>20</v>
       </c>
       <c r="T6" s="16">
-        <f>SUM(R6:S6)/T$1</f>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="U6" s="6">
@@ -1905,7 +1905,7 @@
       </c>
       <c r="V6" s="43"/>
       <c r="W6" s="21">
-        <f>L6*0.2+Q6*0.25+T6*0.25+U6*0.3+V6*0.15</f>
+        <f t="shared" si="3"/>
         <v>65.900000000000006</v>
       </c>
     </row>
@@ -1944,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="16">
-        <f>SUM(D7:J7)*50/(L$1-K7)</f>
+        <f t="shared" si="0"/>
         <v>116.66666666666667</v>
       </c>
       <c r="M7" s="14">
@@ -1960,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="Q7" s="16">
-        <f>SUM(M7:O7)/(Q$1-P7)</f>
+        <f t="shared" si="1"/>
         <v>95</v>
       </c>
       <c r="R7" s="14">
@@ -1970,7 +1970,7 @@
         <v>-25</v>
       </c>
       <c r="T7" s="16">
-        <f>SUM(R7:S7)/T$1</f>
+        <f t="shared" si="2"/>
         <v>7.5</v>
       </c>
       <c r="U7" s="6">
@@ -1978,7 +1978,7 @@
       </c>
       <c r="V7" s="43"/>
       <c r="W7" s="21">
-        <f>L7*0.2+Q7*0.25+T7*0.25+U7*0.3+V7*0.15</f>
+        <f t="shared" si="3"/>
         <v>61.558333333333337</v>
       </c>
     </row>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="16">
-        <f>SUM(D8:J8)*50/(L$1-K8)</f>
+        <f t="shared" si="0"/>
         <v>81.666666666666671</v>
       </c>
       <c r="M8" s="14">
@@ -2033,7 +2033,7 @@
         <v>0</v>
       </c>
       <c r="Q8" s="16">
-        <f>SUM(M8:O8)/(Q$1-P8)</f>
+        <f t="shared" si="1"/>
         <v>93.333333333333329</v>
       </c>
       <c r="R8" s="14">
@@ -2043,7 +2043,7 @@
         <v>61</v>
       </c>
       <c r="T8" s="16">
-        <f>SUM(R8:S8)/T$1</f>
+        <f t="shared" si="2"/>
         <v>35.5</v>
       </c>
       <c r="U8" s="6">
@@ -2051,7 +2051,7 @@
       </c>
       <c r="V8" s="43"/>
       <c r="W8" s="21">
-        <f>L8*0.2+Q8*0.25+T8*0.25+U8*0.3+V8*0.15</f>
+        <f t="shared" si="3"/>
         <v>60.541666666666671</v>
       </c>
     </row>
@@ -2090,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="16">
-        <f>SUM(D9:J9)*50/(L$1-K9)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="M9" s="14">
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="Q9" s="16">
-        <f>SUM(M9:O9)/(Q$1-P9)</f>
+        <f t="shared" si="1"/>
         <v>83.333333333333329</v>
       </c>
       <c r="R9" s="14">
@@ -2116,7 +2116,7 @@
         <v>30</v>
       </c>
       <c r="T9" s="16">
-        <f>SUM(R9:S9)/T$1</f>
+        <f t="shared" si="2"/>
         <v>52.5</v>
       </c>
       <c r="U9" s="6">
@@ -2124,7 +2124,7 @@
       </c>
       <c r="V9" s="43"/>
       <c r="W9" s="21">
-        <f>L9*0.2+Q9*0.25+T9*0.25+U9*0.3+V9*0.15</f>
+        <f t="shared" si="3"/>
         <v>58.758333333333326</v>
       </c>
     </row>
@@ -2163,7 +2163,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="16">
-        <f>SUM(D10:J10)*50/(L$1-K10)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="M10" s="14">
@@ -2179,7 +2179,7 @@
         <v>0</v>
       </c>
       <c r="Q10" s="16">
-        <f>SUM(M10:O10)/(Q$1-P10)</f>
+        <f t="shared" si="1"/>
         <v>93.333333333333329</v>
       </c>
       <c r="R10" s="14">
@@ -2189,7 +2189,7 @@
         <v>-25</v>
       </c>
       <c r="T10" s="16">
-        <f>SUM(R10:S10)/T$1</f>
+        <f t="shared" si="2"/>
         <v>7.5</v>
       </c>
       <c r="U10" s="6">
@@ -2197,7 +2197,7 @@
       </c>
       <c r="V10" s="43"/>
       <c r="W10" s="21">
-        <f>L10*0.2+Q10*0.25+T10*0.25+U10*0.3+V10*0.15</f>
+        <f t="shared" si="3"/>
         <v>57.80833333333333</v>
       </c>
     </row>
@@ -2236,7 +2236,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="16">
-        <f>SUM(D11:J11)*50/(L$1-K11)</f>
+        <f t="shared" si="0"/>
         <v>98.333333333333329</v>
       </c>
       <c r="M11" s="14">
@@ -2252,7 +2252,7 @@
         <v>0</v>
       </c>
       <c r="Q11" s="16">
-        <f>SUM(M11:O11)/(Q$1-P11)</f>
+        <f t="shared" si="1"/>
         <v>86.666666666666671</v>
       </c>
       <c r="R11" s="14">
@@ -2262,7 +2262,7 @@
         <v>-25</v>
       </c>
       <c r="T11" s="16">
-        <f>SUM(R11:S11)/T$1</f>
+        <f t="shared" si="2"/>
         <v>7.5</v>
       </c>
       <c r="U11" s="6">
@@ -2270,7 +2270,7 @@
       </c>
       <c r="V11" s="43"/>
       <c r="W11" s="21">
-        <f>L11*0.2+Q11*0.25+T11*0.25+U11*0.3+V11*0.15</f>
+        <f t="shared" si="3"/>
         <v>55.808333333333337</v>
       </c>
     </row>
@@ -2309,7 +2309,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="16">
-        <f>SUM(D12:J12)*50/(L$1-K12)</f>
+        <f t="shared" si="0"/>
         <v>115</v>
       </c>
       <c r="M12" s="14">
@@ -2325,7 +2325,7 @@
         <v>0</v>
       </c>
       <c r="Q12" s="16">
-        <f>SUM(M12:O12)/(Q$1-P12)</f>
+        <f t="shared" si="1"/>
         <v>76.666666666666671</v>
       </c>
       <c r="R12" s="14">
@@ -2335,7 +2335,7 @@
         <v>30</v>
       </c>
       <c r="T12" s="16">
-        <f>SUM(R12:S12)/T$1</f>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="U12" s="6">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="V12" s="43"/>
       <c r="W12" s="21">
-        <f>L12*0.2+Q12*0.25+T12*0.25+U12*0.3+V12*0.15</f>
+        <f t="shared" si="3"/>
         <v>55.416666666666671</v>
       </c>
     </row>
@@ -2382,7 +2382,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="16">
-        <f>SUM(D13:J13)*50/(L$1-K13)</f>
+        <f t="shared" si="0"/>
         <v>11.666666666666666</v>
       </c>
       <c r="M13" s="14">
@@ -2398,7 +2398,7 @@
         <v>0</v>
       </c>
       <c r="Q13" s="16">
-        <f>SUM(M13:O13)/(Q$1-P13)</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="R13" s="14">
@@ -2408,7 +2408,7 @@
         <v>61</v>
       </c>
       <c r="T13" s="16">
-        <f>SUM(R13:S13)/T$1</f>
+        <f t="shared" si="2"/>
         <v>50.5</v>
       </c>
       <c r="U13" s="6">
@@ -2458,7 +2458,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="16">
-        <f>SUM(D14:J14)*50/(L$1-K14)</f>
+        <f t="shared" si="0"/>
         <v>115</v>
       </c>
       <c r="M14" s="14">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="Q14" s="16">
-        <f>SUM(M14:O14)/(Q$1-P14)</f>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="R14" s="14">
@@ -2484,7 +2484,7 @@
         <v>65</v>
       </c>
       <c r="T14" s="16">
-        <f>SUM(R14:S14)/T$1</f>
+        <f t="shared" si="2"/>
         <v>42.5</v>
       </c>
       <c r="U14" s="6">
@@ -2531,7 +2531,7 @@
         <v>1</v>
       </c>
       <c r="L15" s="16">
-        <f>SUM(D15:J15)*50/(L$1-K15)</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="M15" s="14">
@@ -2547,7 +2547,7 @@
         <v>0</v>
       </c>
       <c r="Q15" s="16">
-        <f>SUM(M15:O15)/(Q$1-P15)</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="R15" s="14">
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="16">
-        <f>SUM(R15:S15)/T$1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U15" s="6">
@@ -2606,7 +2606,7 @@
         <v>1</v>
       </c>
       <c r="L16" s="16">
-        <f>SUM(D16:J16)*50/(L$1-K16)</f>
+        <f t="shared" si="0"/>
         <v>98.000000000000014</v>
       </c>
       <c r="M16" s="14">
@@ -2622,7 +2622,7 @@
         <v>0</v>
       </c>
       <c r="Q16" s="16">
-        <f>SUM(M16:O16)/(Q$1-P16)</f>
+        <f t="shared" si="1"/>
         <v>91.666666666666671</v>
       </c>
       <c r="R16" s="14">
@@ -2632,7 +2632,7 @@
         <v>-25</v>
       </c>
       <c r="T16" s="16">
-        <f>SUM(R16:S16)/T$1</f>
+        <f t="shared" si="2"/>
         <v>-25</v>
       </c>
       <c r="U16" s="6">
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="16">
-        <f>SUM(D17:J17)*50/(L$1-K17)</f>
+        <f t="shared" si="0"/>
         <v>66.666666666666671</v>
       </c>
       <c r="M17" s="14">
@@ -2695,7 +2695,7 @@
         <v>0</v>
       </c>
       <c r="Q17" s="16">
-        <f>SUM(M17:O17)/(Q$1-P17)</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="R17" s="14">
@@ -2705,7 +2705,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="16">
-        <f>SUM(R17:S17)/T$1</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="U17" s="6">
@@ -2752,7 +2752,7 @@
         <v>3</v>
       </c>
       <c r="L18" s="16">
-        <f>SUM(D18:J18)*50/(L$1-K18)</f>
+        <f t="shared" si="0"/>
         <v>66.666666666666671</v>
       </c>
       <c r="M18" s="54" t="s">
@@ -2768,7 +2768,7 @@
         <v>1</v>
       </c>
       <c r="Q18" s="16">
-        <f>SUM(M18:O18)/(Q$1-P18)</f>
+        <f t="shared" si="1"/>
         <v>62.5</v>
       </c>
       <c r="R18" s="14">
@@ -2778,7 +2778,7 @@
         <v>20</v>
       </c>
       <c r="T18" s="16">
-        <f>SUM(R18:S18)/T$1</f>
+        <f t="shared" si="2"/>
         <v>40.5</v>
       </c>
       <c r="U18" s="6">
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="16">
-        <f>SUM(D19:J19)*50/(L$1-K19)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="M19" s="14">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="Q19" s="16">
-        <f>SUM(M19:O19)/(Q$1-P19)</f>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="R19" s="14">
@@ -2852,7 +2852,7 @@
         <v>-25</v>
       </c>
       <c r="T19" s="16">
-        <f>SUM(R19:S19)/T$1</f>
+        <f t="shared" si="2"/>
         <v>-25</v>
       </c>
       <c r="U19" s="6">
@@ -2860,7 +2860,7 @@
       </c>
       <c r="V19" s="43"/>
       <c r="W19" s="21">
-        <f>L19*0.2+Q19*0.25+T19*0.25+U19*0.3+V19*0.15</f>
+        <f t="shared" ref="W19:W29" si="4">L19*0.2+Q19*0.25+T19*0.25+U19*0.3+V19*0.15</f>
         <v>36.25</v>
       </c>
     </row>
@@ -2899,7 +2899,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="16">
-        <f>SUM(D20:J20)*50/(L$1-K20)</f>
+        <f t="shared" si="0"/>
         <v>83.333333333333329</v>
       </c>
       <c r="M20" s="14">
@@ -2915,7 +2915,7 @@
         <v>0</v>
       </c>
       <c r="Q20" s="16">
-        <f>SUM(M20:O20)/(Q$1-P20)</f>
+        <f t="shared" si="1"/>
         <v>33.333333333333336</v>
       </c>
       <c r="R20" s="14">
@@ -2925,7 +2925,7 @@
         <v>-25</v>
       </c>
       <c r="T20" s="16">
-        <f>SUM(R20:S20)/T$1</f>
+        <f t="shared" si="2"/>
         <v>-25</v>
       </c>
       <c r="U20" s="6">
@@ -2933,7 +2933,7 @@
       </c>
       <c r="V20" s="43"/>
       <c r="W20" s="21">
-        <f>L20*0.2+Q20*0.25+T20*0.25+U20*0.3+V20*0.15</f>
+        <f t="shared" si="4"/>
         <v>32.25</v>
       </c>
       <c r="X20" s="1"/>
@@ -2973,7 +2973,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="16">
-        <f>SUM(D21:J21)*50/(L$1-K21)</f>
+        <f t="shared" si="0"/>
         <v>16.666666666666668</v>
       </c>
       <c r="M21" s="14">
@@ -2989,7 +2989,7 @@
         <v>0</v>
       </c>
       <c r="Q21" s="16">
-        <f>SUM(M21:O21)/(Q$1-P21)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R21" s="14">
@@ -2999,7 +2999,7 @@
         <v>25</v>
       </c>
       <c r="T21" s="16">
-        <f>SUM(R21:S21)/T$1</f>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="U21" s="6">
@@ -3007,7 +3007,7 @@
       </c>
       <c r="V21" s="43"/>
       <c r="W21" s="21">
-        <f>L21*0.2+Q21*0.25+T21*0.25+U21*0.3+V21*0.15</f>
+        <f t="shared" si="4"/>
         <v>9.5833333333333339</v>
       </c>
     </row>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="62">
-        <f>SUM(D22:J22)*50/(L$1-K22)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M22" s="63">
@@ -3062,7 +3062,7 @@
         <v>0</v>
       </c>
       <c r="Q22" s="62">
-        <f>SUM(M22:O22)/(Q$1-P22)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R22" s="63">
@@ -3072,7 +3072,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="62">
-        <f>SUM(R22:S22)/T$1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U22" s="64">
@@ -3080,7 +3080,7 @@
       </c>
       <c r="V22" s="65"/>
       <c r="W22" s="66">
-        <f>L22*0.2+Q22*0.25+T22*0.25+U22*0.3+V22*0.15</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3119,7 +3119,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="62">
-        <f>SUM(D23:J23)*50/(L$1-K23)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M23" s="63">
@@ -3135,7 +3135,7 @@
         <v>0</v>
       </c>
       <c r="Q23" s="62">
-        <f>SUM(M23:O23)/(Q$1-P23)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R23" s="63">
@@ -3145,7 +3145,7 @@
         <v>0</v>
       </c>
       <c r="T23" s="62">
-        <f>SUM(R23:S23)/T$1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U23" s="64">
@@ -3153,7 +3153,7 @@
       </c>
       <c r="V23" s="65"/>
       <c r="W23" s="66">
-        <f>L23*0.2+Q23*0.25+T23*0.25+U23*0.3+V23*0.15</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3192,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="62">
-        <f>SUM(D24:J24)*50/(L$1-K24)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M24" s="63">
@@ -3208,7 +3208,7 @@
         <v>0</v>
       </c>
       <c r="Q24" s="62">
-        <f>SUM(M24:O24)/(Q$1-P24)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R24" s="63">
@@ -3218,7 +3218,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="62">
-        <f>SUM(R24:S24)/T$1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U24" s="64">
@@ -3226,7 +3226,7 @@
       </c>
       <c r="V24" s="65"/>
       <c r="W24" s="66">
-        <f>L24*0.2+Q24*0.25+T24*0.25+U24*0.3+V24*0.15</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3265,7 +3265,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="62">
-        <f>SUM(D25:J25)*50/(L$1-K25)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M25" s="63">
@@ -3281,7 +3281,7 @@
         <v>0</v>
       </c>
       <c r="Q25" s="62">
-        <f>SUM(M25:O25)/(Q$1-P25)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R25" s="63">
@@ -3291,7 +3291,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="62">
-        <f>SUM(R25:S25)/T$1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U25" s="64">
@@ -3299,7 +3299,7 @@
       </c>
       <c r="V25" s="65"/>
       <c r="W25" s="66">
-        <f>L25*0.2+Q25*0.25+T25*0.25+U25*0.3+V25*0.15</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3338,7 +3338,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="62">
-        <f>SUM(D26:J26)*50/(L$1-K26)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M26" s="63">
@@ -3354,7 +3354,7 @@
         <v>0</v>
       </c>
       <c r="Q26" s="62">
-        <f>SUM(M26:O26)/(Q$1-P26)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R26" s="63">
@@ -3364,7 +3364,7 @@
         <v>0</v>
       </c>
       <c r="T26" s="62">
-        <f>SUM(R26:S26)/T$1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U26" s="64">
@@ -3372,7 +3372,7 @@
       </c>
       <c r="V26" s="65"/>
       <c r="W26" s="66">
-        <f>L26*0.2+Q26*0.25+T26*0.25+U26*0.3+V26*0.15</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3411,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="62">
-        <f>SUM(D27:J27)*50/(L$1-K27)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M27" s="63">
@@ -3427,7 +3427,7 @@
         <v>0</v>
       </c>
       <c r="Q27" s="62">
-        <f>SUM(M27:O27)/(Q$1-P27)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R27" s="63">
@@ -3437,7 +3437,7 @@
         <v>0</v>
       </c>
       <c r="T27" s="62">
-        <f>SUM(R27:S27)/T$1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U27" s="64">
@@ -3445,7 +3445,7 @@
       </c>
       <c r="V27" s="65"/>
       <c r="W27" s="66">
-        <f>L27*0.2+Q27*0.25+T27*0.25+U27*0.3+V27*0.15</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3484,7 +3484,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="62">
-        <f>SUM(D28:J28)*50/(L$1-K28)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M28" s="63">
@@ -3500,7 +3500,7 @@
         <v>0</v>
       </c>
       <c r="Q28" s="62">
-        <f>SUM(M28:O28)/(Q$1-P28)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R28" s="63">
@@ -3510,7 +3510,7 @@
         <v>0</v>
       </c>
       <c r="T28" s="62">
-        <f>SUM(R28:S28)/T$1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U28" s="64">
@@ -3518,7 +3518,7 @@
       </c>
       <c r="V28" s="65"/>
       <c r="W28" s="66">
-        <f>L28*0.2+Q28*0.25+T28*0.25+U28*0.3+V28*0.15</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3557,7 +3557,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="62">
-        <f>SUM(D29:J29)*50/(L$1-K29)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M29" s="63">
@@ -3573,7 +3573,7 @@
         <v>0</v>
       </c>
       <c r="Q29" s="62">
-        <f>SUM(M29:O29)/(Q$1-P29)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R29" s="63">
@@ -3583,7 +3583,7 @@
         <v>0</v>
       </c>
       <c r="T29" s="62">
-        <f>SUM(R29:S29)/T$1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U29" s="64">
@@ -3591,7 +3591,7 @@
       </c>
       <c r="V29" s="65"/>
       <c r="W29" s="66">
-        <f>L29*0.2+Q29*0.25+T29*0.25+U29*0.3+V29*0.15</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3630,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="L30" s="62">
-        <f>SUM(D30:J30)*50/(L$1-K30)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M30" s="63">
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="Q30" s="62">
-        <f>SUM(M30:O30)/(Q$1-P30)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R30" s="63">
@@ -3656,7 +3656,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="62">
-        <f>SUM(R30:S30)/T$1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U30" s="64">
@@ -4853,11 +4853,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:R81"/>
+  <dimension ref="A1:Q81"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U13" sqref="U13"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4870,14 +4870,14 @@
     <col min="7" max="8" width="2.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="2.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.44140625" style="1" customWidth="1"/>
-    <col min="11" max="14" width="2.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.77734375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="5.77734375" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.88671875" style="1"/>
+    <col min="11" max="13" width="2.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.77734375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="5.77734375" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="4" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="4" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30">
         <v>5</v>
       </c>
@@ -4895,19 +4895,18 @@
       <c r="K1" s="77"/>
       <c r="L1" s="77"/>
       <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="33" t="s">
+      <c r="N1" s="78"/>
+      <c r="O1" s="33" t="s">
         <v>43</v>
       </c>
+      <c r="P1" s="19" t="s">
+        <v>39</v>
+      </c>
       <c r="Q1" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="R1" s="19" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="5" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="5" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>29</v>
       </c>
@@ -4939,31 +4938,28 @@
         <v>30</v>
       </c>
       <c r="K2" s="27">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L2" s="27">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M2" s="27">
-        <v>11</v>
-      </c>
-      <c r="N2" s="27">
         <v>12</v>
       </c>
-      <c r="O2" s="28" t="s">
+      <c r="N2" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="P2" s="26" t="s">
+      <c r="O2" s="26" t="s">
         <v>33</v>
+      </c>
+      <c r="P2" s="19" t="s">
+        <v>32</v>
       </c>
       <c r="Q2" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="R2" s="19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
       <c r="B3" s="3" t="s">
         <v>45</v>
@@ -4977,7 +4973,9 @@
       <c r="E3" s="38">
         <v>2</v>
       </c>
-      <c r="F3" s="7"/>
+      <c r="F3" s="7">
+        <v>2</v>
+      </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
@@ -4985,13 +4983,12 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="6"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="21"/>
       <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-    </row>
-    <row r="4" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="20"/>
       <c r="B4" s="3" t="s">
         <v>82</v>
@@ -5005,7 +5002,9 @@
       <c r="E4" s="38">
         <v>2</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="7">
+        <v>2</v>
+      </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -5013,13 +5012,12 @@
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="6"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="21"/>
       <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-    </row>
-    <row r="5" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20"/>
       <c r="B5" s="3" t="s">
         <v>72</v>
@@ -5033,7 +5031,9 @@
       <c r="E5" s="38">
         <v>2</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="7">
+        <v>1.5</v>
+      </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
@@ -5041,13 +5041,12 @@
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="6"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="21"/>
       <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-    </row>
-    <row r="6" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20"/>
       <c r="B6" s="3" t="s">
         <v>61</v>
@@ -5061,7 +5060,9 @@
       <c r="E6" s="38">
         <v>2</v>
       </c>
-      <c r="F6" s="7"/>
+      <c r="F6" s="7">
+        <v>2</v>
+      </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -5069,13 +5070,12 @@
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="6"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="21"/>
       <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-    </row>
-    <row r="7" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20"/>
       <c r="B7" s="3" t="s">
         <v>47</v>
@@ -5089,7 +5089,9 @@
       <c r="E7" s="38">
         <v>2</v>
       </c>
-      <c r="F7" s="7"/>
+      <c r="F7" s="7">
+        <v>2</v>
+      </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -5097,13 +5099,12 @@
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="6"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="21"/>
       <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-    </row>
-    <row r="8" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20"/>
       <c r="B8" s="3" t="s">
         <v>64</v>
@@ -5117,7 +5118,9 @@
       <c r="E8" s="38">
         <v>2</v>
       </c>
-      <c r="F8" s="7"/>
+      <c r="F8" s="7">
+        <v>2</v>
+      </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -5125,13 +5128,12 @@
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="6"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="21"/>
       <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
-    </row>
-    <row r="9" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
       <c r="B9" s="3" t="s">
         <v>79</v>
@@ -5145,7 +5147,9 @@
       <c r="E9" s="38">
         <v>2</v>
       </c>
-      <c r="F9" s="7"/>
+      <c r="F9" s="7">
+        <v>2</v>
+      </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
@@ -5153,13 +5157,12 @@
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="6"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="21"/>
       <c r="Q9" s="21"/>
-      <c r="R9" s="21"/>
-    </row>
-    <row r="10" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20"/>
       <c r="B10" s="3" t="s">
         <v>10</v>
@@ -5173,7 +5176,9 @@
       <c r="E10" s="38">
         <v>2</v>
       </c>
-      <c r="F10" s="7"/>
+      <c r="F10" s="7">
+        <v>2</v>
+      </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
@@ -5181,13 +5186,12 @@
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="6"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="21"/>
       <c r="Q10" s="21"/>
-      <c r="R10" s="21"/>
-    </row>
-    <row r="11" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20"/>
       <c r="B11" s="3" t="s">
         <v>10</v>
@@ -5201,7 +5205,9 @@
       <c r="E11" s="38">
         <v>2</v>
       </c>
-      <c r="F11" s="7"/>
+      <c r="F11" s="7">
+        <v>1.9</v>
+      </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
@@ -5209,13 +5215,12 @@
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="6"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="21"/>
       <c r="Q11" s="21"/>
-      <c r="R11" s="21"/>
-    </row>
-    <row r="12" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20"/>
       <c r="B12" s="3" t="s">
         <v>55</v>
@@ -5229,7 +5234,9 @@
       <c r="E12" s="38">
         <v>2</v>
       </c>
-      <c r="F12" s="7"/>
+      <c r="F12" s="7">
+        <v>2</v>
+      </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -5237,13 +5244,12 @@
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="6"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="21"/>
       <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
-    </row>
-    <row r="13" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20"/>
       <c r="B13" s="3" t="s">
         <v>91</v>
@@ -5257,7 +5263,9 @@
       <c r="E13" s="38">
         <v>0</v>
       </c>
-      <c r="F13" s="41"/>
+      <c r="F13" s="41">
+        <v>0</v>
+      </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
@@ -5265,13 +5273,12 @@
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="6"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="21"/>
       <c r="Q13" s="21"/>
-      <c r="R13" s="21"/>
-    </row>
-    <row r="14" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20"/>
       <c r="B14" s="3" t="s">
         <v>51</v>
@@ -5285,7 +5292,9 @@
       <c r="E14" s="38">
         <v>2</v>
       </c>
-      <c r="F14" s="7"/>
+      <c r="F14" s="7">
+        <v>2</v>
+      </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
@@ -5293,13 +5302,12 @@
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="6"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="21"/>
       <c r="Q14" s="21"/>
-      <c r="R14" s="21"/>
-    </row>
-    <row r="15" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="20"/>
       <c r="B15" s="3" t="s">
         <v>85</v>
@@ -5313,7 +5321,9 @@
       <c r="E15" s="38">
         <v>0</v>
       </c>
-      <c r="F15" s="7"/>
+      <c r="F15" s="7">
+        <v>0</v>
+      </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
@@ -5321,13 +5331,12 @@
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="6"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="21"/>
       <c r="Q15" s="21"/>
-      <c r="R15" s="21"/>
-    </row>
-    <row r="16" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20"/>
       <c r="B16" s="3" t="s">
         <v>69</v>
@@ -5341,7 +5350,9 @@
       <c r="E16" s="38">
         <v>2</v>
       </c>
-      <c r="F16" s="7"/>
+      <c r="F16" s="7">
+        <v>2</v>
+      </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -5349,13 +5360,12 @@
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="6"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="21"/>
       <c r="Q16" s="21"/>
-      <c r="R16" s="21"/>
-    </row>
-    <row r="17" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20"/>
       <c r="B17" s="3" t="s">
         <v>18</v>
@@ -5369,7 +5379,9 @@
       <c r="E17" s="38">
         <v>1</v>
       </c>
-      <c r="F17" s="7"/>
+      <c r="F17" s="7">
+        <v>1.8</v>
+      </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
@@ -5377,13 +5389,12 @@
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="6"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="21"/>
       <c r="Q17" s="21"/>
-      <c r="R17" s="21"/>
-    </row>
-    <row r="18" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20"/>
       <c r="B18" s="3" t="s">
         <v>95</v>
@@ -5397,7 +5408,9 @@
       <c r="E18" s="38">
         <v>0</v>
       </c>
-      <c r="F18" s="7"/>
+      <c r="F18" s="7">
+        <v>0</v>
+      </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
@@ -5405,13 +5418,12 @@
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="6"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="21"/>
       <c r="Q18" s="21"/>
-      <c r="R18" s="21"/>
-    </row>
-    <row r="19" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20"/>
       <c r="B19" s="3" t="s">
         <v>74</v>
@@ -5425,7 +5437,9 @@
       <c r="E19" s="38">
         <v>2</v>
       </c>
-      <c r="F19" s="7"/>
+      <c r="F19" s="7">
+        <v>2</v>
+      </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
@@ -5433,13 +5447,12 @@
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="6"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="21"/>
       <c r="Q19" s="21"/>
-      <c r="R19" s="21"/>
-    </row>
-    <row r="20" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="20"/>
       <c r="B20" s="3" t="s">
         <v>49</v>
@@ -5453,7 +5466,9 @@
       <c r="E20" s="38">
         <v>2</v>
       </c>
-      <c r="F20" s="7"/>
+      <c r="F20" s="7">
+        <v>2</v>
+      </c>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
@@ -5461,13 +5476,12 @@
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="6"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="21"/>
       <c r="Q20" s="21"/>
-      <c r="R20" s="21"/>
-    </row>
-    <row r="21" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20"/>
       <c r="B21" s="3" t="s">
         <v>35</v>
@@ -5481,7 +5495,9 @@
       <c r="E21" s="38">
         <v>0</v>
       </c>
-      <c r="F21" s="7"/>
+      <c r="F21" s="7">
+        <v>0</v>
+      </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
@@ -5489,13 +5505,12 @@
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="6"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="21"/>
       <c r="Q21" s="21"/>
-      <c r="R21" s="21"/>
-    </row>
-    <row r="22" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="20"/>
       <c r="B22" s="56" t="s">
         <v>3</v>
@@ -5509,7 +5524,9 @@
       <c r="E22" s="38">
         <v>0</v>
       </c>
-      <c r="F22" s="7"/>
+      <c r="F22" s="7">
+        <v>0</v>
+      </c>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
@@ -5517,13 +5534,12 @@
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="6"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="21"/>
       <c r="Q22" s="21"/>
-      <c r="R22" s="21"/>
-    </row>
-    <row r="23" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20"/>
       <c r="B23" s="56" t="s">
         <v>58</v>
@@ -5537,7 +5553,9 @@
       <c r="E23" s="38">
         <v>0</v>
       </c>
-      <c r="F23" s="7"/>
+      <c r="F23" s="7">
+        <v>0</v>
+      </c>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
@@ -5545,13 +5563,12 @@
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="6"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="21"/>
       <c r="Q23" s="21"/>
-      <c r="R23" s="21"/>
-    </row>
-    <row r="24" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="20"/>
       <c r="B24" s="56" t="s">
         <v>8</v>
@@ -5565,7 +5582,9 @@
       <c r="E24" s="38">
         <v>0</v>
       </c>
-      <c r="F24" s="7"/>
+      <c r="F24" s="7">
+        <v>0</v>
+      </c>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
@@ -5573,13 +5592,12 @@
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="16"/>
-      <c r="P24" s="6"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="21"/>
       <c r="Q24" s="21"/>
-      <c r="R24" s="21"/>
-    </row>
-    <row r="25" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="20"/>
       <c r="B25" s="56" t="s">
         <v>12</v>
@@ -5593,7 +5611,9 @@
       <c r="E25" s="38">
         <v>0</v>
       </c>
-      <c r="F25" s="12"/>
+      <c r="F25" s="12">
+        <v>0</v>
+      </c>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
@@ -5601,13 +5621,12 @@
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="16"/>
-      <c r="P25" s="6"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="21"/>
       <c r="Q25" s="21"/>
-      <c r="R25" s="21"/>
-    </row>
-    <row r="26" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="20"/>
       <c r="B26" s="56" t="s">
         <v>15</v>
@@ -5621,7 +5640,9 @@
       <c r="E26" s="38">
         <v>0</v>
       </c>
-      <c r="F26" s="7"/>
+      <c r="F26" s="7">
+        <v>0</v>
+      </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
@@ -5629,13 +5650,12 @@
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="16"/>
-      <c r="P26" s="6"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="21"/>
       <c r="Q26" s="21"/>
-      <c r="R26" s="21"/>
-    </row>
-    <row r="27" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="20"/>
       <c r="B27" s="56" t="s">
         <v>21</v>
@@ -5649,7 +5669,9 @@
       <c r="E27" s="38">
         <v>0</v>
       </c>
-      <c r="F27" s="7"/>
+      <c r="F27" s="7">
+        <v>0</v>
+      </c>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -5657,13 +5679,12 @@
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="16"/>
-      <c r="P27" s="6"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="21"/>
       <c r="Q27" s="21"/>
-      <c r="R27" s="21"/>
-    </row>
-    <row r="28" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20"/>
       <c r="B28" s="56" t="s">
         <v>24</v>
@@ -5677,7 +5698,9 @@
       <c r="E28" s="38">
         <v>0</v>
       </c>
-      <c r="F28" s="7"/>
+      <c r="F28" s="7">
+        <v>0</v>
+      </c>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
@@ -5685,13 +5708,12 @@
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="16"/>
-      <c r="P28" s="6"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="21"/>
       <c r="Q28" s="21"/>
-      <c r="R28" s="21"/>
-    </row>
-    <row r="29" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="20"/>
       <c r="B29" s="56" t="s">
         <v>27</v>
@@ -5705,7 +5727,9 @@
       <c r="E29" s="38">
         <v>0</v>
       </c>
-      <c r="F29" s="7"/>
+      <c r="F29" s="7">
+        <v>0</v>
+      </c>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
@@ -5713,13 +5737,12 @@
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="16"/>
-      <c r="P29" s="6"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="21"/>
       <c r="Q29" s="21"/>
-      <c r="R29" s="21"/>
-    </row>
-    <row r="30" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="20"/>
       <c r="B30" s="56" t="s">
         <v>88</v>
@@ -5733,7 +5756,9 @@
       <c r="E30" s="38">
         <v>0</v>
       </c>
-      <c r="F30" s="7"/>
+      <c r="F30" s="7">
+        <v>0</v>
+      </c>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
@@ -5741,13 +5766,12 @@
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="16"/>
-      <c r="P30" s="6"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="21"/>
       <c r="Q30" s="21"/>
-      <c r="R30" s="21"/>
-    </row>
-    <row r="31" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="20"/>
       <c r="B31" s="11"/>
       <c r="C31" s="36"/>
@@ -5761,13 +5785,12 @@
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="16"/>
-      <c r="P31" s="6"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="21"/>
       <c r="Q31" s="21"/>
-      <c r="R31" s="21"/>
-    </row>
-    <row r="32" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="31"/>
       <c r="B32" s="32"/>
       <c r="C32" s="36"/>
@@ -5781,13 +5804,12 @@
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
-      <c r="O32" s="16"/>
-      <c r="P32" s="6"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="21"/>
       <c r="Q32" s="21"/>
-      <c r="R32" s="21"/>
-    </row>
-    <row r="33" spans="1:18" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:17" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="22"/>
       <c r="B33" s="23"/>
       <c r="C33" s="36"/>
@@ -5799,15 +5821,14 @@
       <c r="I33" s="13"/>
       <c r="J33" s="16"/>
       <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="15"/>
-      <c r="N33" s="6"/>
-      <c r="O33" s="16"/>
-      <c r="P33" s="6"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="21"/>
       <c r="Q33" s="21"/>
-      <c r="R33" s="21"/>
-    </row>
-    <row r="34" spans="1:18" s="9" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:17" s="9" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -5817,7 +5838,7 @@
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -5832,9 +5853,8 @@
       <c r="L35" s="9"/>
       <c r="M35" s="9"/>
       <c r="N35" s="9"/>
-      <c r="O35" s="9"/>
-    </row>
-    <row r="36" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -5849,9 +5869,8 @@
       <c r="L36" s="9"/>
       <c r="M36" s="9"/>
       <c r="N36" s="9"/>
-      <c r="O36" s="9"/>
-    </row>
-    <row r="37" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -5866,9 +5885,8 @@
       <c r="L37" s="9"/>
       <c r="M37" s="9"/>
       <c r="N37" s="9"/>
-      <c r="O37" s="9"/>
-    </row>
-    <row r="38" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -5883,9 +5901,8 @@
       <c r="L38" s="9"/>
       <c r="M38" s="9"/>
       <c r="N38" s="9"/>
-      <c r="O38" s="9"/>
-    </row>
-    <row r="39" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -5900,9 +5917,8 @@
       <c r="L39" s="9"/>
       <c r="M39" s="9"/>
       <c r="N39" s="9"/>
-      <c r="O39" s="9"/>
-    </row>
-    <row r="40" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -5917,9 +5933,8 @@
       <c r="L40" s="9"/>
       <c r="M40" s="9"/>
       <c r="N40" s="9"/>
-      <c r="O40" s="9"/>
-    </row>
-    <row r="41" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -5934,9 +5949,8 @@
       <c r="L41" s="9"/>
       <c r="M41" s="9"/>
       <c r="N41" s="9"/>
-      <c r="O41" s="9"/>
-    </row>
-    <row r="42" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -5951,9 +5965,8 @@
       <c r="L42" s="9"/>
       <c r="M42" s="9"/>
       <c r="N42" s="9"/>
-      <c r="O42" s="9"/>
-    </row>
-    <row r="43" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -5968,9 +5981,8 @@
       <c r="L43" s="9"/>
       <c r="M43" s="9"/>
       <c r="N43" s="9"/>
-      <c r="O43" s="9"/>
-    </row>
-    <row r="44" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -5985,9 +5997,8 @@
       <c r="L44" s="9"/>
       <c r="M44" s="9"/>
       <c r="N44" s="9"/>
-      <c r="O44" s="9"/>
-    </row>
-    <row r="45" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -6002,9 +6013,8 @@
       <c r="L45" s="9"/>
       <c r="M45" s="9"/>
       <c r="N45" s="9"/>
-      <c r="O45" s="9"/>
-    </row>
-    <row r="46" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -6019,9 +6029,8 @@
       <c r="L46" s="9"/>
       <c r="M46" s="9"/>
       <c r="N46" s="9"/>
-      <c r="O46" s="9"/>
-    </row>
-    <row r="47" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -6036,9 +6045,8 @@
       <c r="L47" s="9"/>
       <c r="M47" s="9"/>
       <c r="N47" s="9"/>
-      <c r="O47" s="9"/>
-    </row>
-    <row r="48" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -6053,9 +6061,8 @@
       <c r="L48" s="9"/>
       <c r="M48" s="9"/>
       <c r="N48" s="9"/>
-      <c r="O48" s="9"/>
-    </row>
-    <row r="49" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -6070,9 +6077,8 @@
       <c r="L49" s="9"/>
       <c r="M49" s="9"/>
       <c r="N49" s="9"/>
-      <c r="O49" s="9"/>
-    </row>
-    <row r="50" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -6087,9 +6093,8 @@
       <c r="L50" s="9"/>
       <c r="M50" s="9"/>
       <c r="N50" s="9"/>
-      <c r="O50" s="9"/>
-    </row>
-    <row r="51" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -6104,9 +6109,8 @@
       <c r="L51" s="9"/>
       <c r="M51" s="9"/>
       <c r="N51" s="9"/>
-      <c r="O51" s="9"/>
-    </row>
-    <row r="52" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -6121,9 +6125,8 @@
       <c r="L52" s="9"/>
       <c r="M52" s="9"/>
       <c r="N52" s="9"/>
-      <c r="O52" s="9"/>
-    </row>
-    <row r="53" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -6138,9 +6141,8 @@
       <c r="L53" s="9"/>
       <c r="M53" s="9"/>
       <c r="N53" s="9"/>
-      <c r="O53" s="9"/>
-    </row>
-    <row r="54" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -6155,9 +6157,8 @@
       <c r="L54" s="9"/>
       <c r="M54" s="9"/>
       <c r="N54" s="9"/>
-      <c r="O54" s="9"/>
-    </row>
-    <row r="55" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -6172,9 +6173,8 @@
       <c r="L55" s="9"/>
       <c r="M55" s="9"/>
       <c r="N55" s="9"/>
-      <c r="O55" s="9"/>
-    </row>
-    <row r="56" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -6189,9 +6189,8 @@
       <c r="L56" s="9"/>
       <c r="M56" s="9"/>
       <c r="N56" s="9"/>
-      <c r="O56" s="9"/>
-    </row>
-    <row r="57" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -6206,9 +6205,8 @@
       <c r="L57" s="9"/>
       <c r="M57" s="9"/>
       <c r="N57" s="9"/>
-      <c r="O57" s="9"/>
-    </row>
-    <row r="58" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -6223,9 +6221,8 @@
       <c r="L58" s="9"/>
       <c r="M58" s="9"/>
       <c r="N58" s="9"/>
-      <c r="O58" s="9"/>
-    </row>
-    <row r="59" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -6240,9 +6237,8 @@
       <c r="L59" s="9"/>
       <c r="M59" s="9"/>
       <c r="N59" s="9"/>
-      <c r="O59" s="9"/>
-    </row>
-    <row r="60" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -6257,9 +6253,8 @@
       <c r="L60" s="9"/>
       <c r="M60" s="9"/>
       <c r="N60" s="9"/>
-      <c r="O60" s="9"/>
-    </row>
-    <row r="61" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -6274,9 +6269,8 @@
       <c r="L61" s="9"/>
       <c r="M61" s="9"/>
       <c r="N61" s="9"/>
-      <c r="O61" s="9"/>
-    </row>
-    <row r="62" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -6291,9 +6285,8 @@
       <c r="L62" s="9"/>
       <c r="M62" s="9"/>
       <c r="N62" s="9"/>
-      <c r="O62" s="9"/>
-    </row>
-    <row r="63" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -6308,9 +6301,8 @@
       <c r="L63" s="9"/>
       <c r="M63" s="9"/>
       <c r="N63" s="9"/>
-      <c r="O63" s="9"/>
-    </row>
-    <row r="64" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -6325,9 +6317,8 @@
       <c r="L64" s="9"/>
       <c r="M64" s="9"/>
       <c r="N64" s="9"/>
-      <c r="O64" s="9"/>
-    </row>
-    <row r="65" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -6342,9 +6333,8 @@
       <c r="L65" s="9"/>
       <c r="M65" s="9"/>
       <c r="N65" s="9"/>
-      <c r="O65" s="9"/>
-    </row>
-    <row r="66" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -6359,9 +6349,8 @@
       <c r="L66" s="9"/>
       <c r="M66" s="9"/>
       <c r="N66" s="9"/>
-      <c r="O66" s="9"/>
-    </row>
-    <row r="67" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -6376,9 +6365,8 @@
       <c r="L67" s="9"/>
       <c r="M67" s="9"/>
       <c r="N67" s="9"/>
-      <c r="O67" s="9"/>
-    </row>
-    <row r="68" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -6393,9 +6381,8 @@
       <c r="L68" s="9"/>
       <c r="M68" s="9"/>
       <c r="N68" s="9"/>
-      <c r="O68" s="9"/>
-    </row>
-    <row r="69" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -6410,9 +6397,8 @@
       <c r="L69" s="9"/>
       <c r="M69" s="9"/>
       <c r="N69" s="9"/>
-      <c r="O69" s="9"/>
-    </row>
-    <row r="70" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -6427,9 +6413,8 @@
       <c r="L70" s="9"/>
       <c r="M70" s="9"/>
       <c r="N70" s="9"/>
-      <c r="O70" s="9"/>
-    </row>
-    <row r="71" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -6444,9 +6429,8 @@
       <c r="L71" s="9"/>
       <c r="M71" s="9"/>
       <c r="N71" s="9"/>
-      <c r="O71" s="9"/>
-    </row>
-    <row r="72" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -6461,9 +6445,8 @@
       <c r="L72" s="9"/>
       <c r="M72" s="9"/>
       <c r="N72" s="9"/>
-      <c r="O72" s="9"/>
-    </row>
-    <row r="73" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -6478,9 +6461,8 @@
       <c r="L73" s="9"/>
       <c r="M73" s="9"/>
       <c r="N73" s="9"/>
-      <c r="O73" s="9"/>
-    </row>
-    <row r="74" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -6495,9 +6477,8 @@
       <c r="L74" s="9"/>
       <c r="M74" s="9"/>
       <c r="N74" s="9"/>
-      <c r="O74" s="9"/>
-    </row>
-    <row r="75" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -6512,9 +6493,8 @@
       <c r="L75" s="9"/>
       <c r="M75" s="9"/>
       <c r="N75" s="9"/>
-      <c r="O75" s="9"/>
-    </row>
-    <row r="76" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -6529,9 +6509,8 @@
       <c r="L76" s="9"/>
       <c r="M76" s="9"/>
       <c r="N76" s="9"/>
-      <c r="O76" s="9"/>
-    </row>
-    <row r="77" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -6546,9 +6525,8 @@
       <c r="L77" s="9"/>
       <c r="M77" s="9"/>
       <c r="N77" s="9"/>
-      <c r="O77" s="9"/>
-    </row>
-    <row r="78" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -6563,9 +6541,8 @@
       <c r="L78" s="9"/>
       <c r="M78" s="9"/>
       <c r="N78" s="9"/>
-      <c r="O78" s="9"/>
-    </row>
-    <row r="79" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -6580,9 +6557,8 @@
       <c r="L79" s="9"/>
       <c r="M79" s="9"/>
       <c r="N79" s="9"/>
-      <c r="O79" s="9"/>
-    </row>
-    <row r="80" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -6597,9 +6573,8 @@
       <c r="L80" s="9"/>
       <c r="M80" s="9"/>
       <c r="N80" s="9"/>
-      <c r="O80" s="9"/>
-    </row>
-    <row r="81" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -6614,7 +6589,6 @@
       <c r="L81" s="9"/>
       <c r="M81" s="9"/>
       <c r="N81" s="9"/>
-      <c r="O81" s="9"/>
     </row>
   </sheetData>
   <sortState ref="A3:R30">
@@ -6622,7 +6596,7 @@
   </sortState>
   <mergeCells count="2">
     <mergeCell ref="E1:J1"/>
-    <mergeCell ref="K1:O1"/>
+    <mergeCell ref="K1:N1"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:I33">
     <cfRule type="cellIs" dxfId="10" priority="26" operator="between">
@@ -6650,7 +6624,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O3:O33">
+  <conditionalFormatting sqref="N3:N33">
     <cfRule type="dataBar" priority="24">
       <dataBar>
         <cfvo type="min"/>
@@ -6664,7 +6638,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q3:Q33">
+  <conditionalFormatting sqref="P3:P33">
     <cfRule type="dataBar" priority="21">
       <dataBar>
         <cfvo type="min"/>
@@ -6678,7 +6652,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K3:N33">
+  <conditionalFormatting sqref="K3:M33">
     <cfRule type="cellIs" dxfId="7" priority="17" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
@@ -6695,7 +6669,7 @@
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R3:R33">
+  <conditionalFormatting sqref="Q3:Q33">
     <cfRule type="dataBar" priority="12">
       <dataBar>
         <cfvo type="min"/>
@@ -6737,7 +6711,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P3:P33">
+  <conditionalFormatting sqref="O3:O33">
     <cfRule type="cellIs" dxfId="3" priority="2" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
@@ -6793,7 +6767,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>O3:O33</xm:sqref>
+          <xm:sqref>N3:N33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F9C7B28C-32E1-4B0D-97BC-F416D05D2AA7}">
@@ -6804,7 +6778,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>Q3:Q33</xm:sqref>
+          <xm:sqref>P3:P33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{2008DEFA-B118-4E92-B0F8-C5059B874A32}">
@@ -6815,7 +6789,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>R3:R33</xm:sqref>
+          <xm:sqref>Q3:Q33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{FF44BC67-0C1D-46A1-8F9C-F95AA3B0ECDF}">

--- a/AdvancedJava/_docs/Notlar.xlsx
+++ b/AdvancedJava/_docs/Notlar.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
   </bookViews>
   <sheets>
     <sheet name="Vize" sheetId="1" r:id="rId1"/>
@@ -1469,9 +1469,9 @@
   </sheetPr>
   <dimension ref="A1:X76"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S17" sqref="S17"/>
+      <selection pane="bottomLeft" activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1829,11 +1829,11 @@
         <v>66</v>
       </c>
       <c r="V5" s="43">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="W5" s="21">
         <f t="shared" ref="W5:W12" si="3">L5*0.2+Q5*0.25+T5*0.25+U5*0.3+V5*0.15</f>
-        <v>78.55</v>
+        <v>81.55</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1976,10 +1976,12 @@
       <c r="U7" s="6">
         <v>42</v>
       </c>
-      <c r="V7" s="43"/>
+      <c r="V7" s="43">
+        <v>75</v>
+      </c>
       <c r="W7" s="21">
         <f t="shared" si="3"/>
-        <v>61.558333333333337</v>
+        <v>72.808333333333337</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2049,10 +2051,12 @@
       <c r="U8" s="6">
         <v>40</v>
       </c>
-      <c r="V8" s="43"/>
+      <c r="V8" s="43">
+        <v>85</v>
+      </c>
       <c r="W8" s="21">
         <f t="shared" si="3"/>
-        <v>60.541666666666671</v>
+        <v>73.291666666666671</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2122,10 +2126,12 @@
       <c r="U9" s="6">
         <v>16</v>
       </c>
-      <c r="V9" s="43"/>
+      <c r="V9" s="43">
+        <v>90</v>
+      </c>
       <c r="W9" s="21">
         <f t="shared" si="3"/>
-        <v>58.758333333333326</v>
+        <v>72.258333333333326</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2490,10 +2496,12 @@
       <c r="U14" s="6">
         <v>5</v>
       </c>
-      <c r="V14" s="43"/>
+      <c r="V14" s="43">
+        <v>65</v>
+      </c>
       <c r="W14" s="21">
         <f>L14*0.2+Q14*0.25+T14*0.25+U14*0.3+V14*0.15</f>
-        <v>53.875</v>
+        <v>63.625</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2638,10 +2646,12 @@
       <c r="U16" s="6">
         <v>52</v>
       </c>
-      <c r="V16" s="43"/>
+      <c r="V16" s="43">
+        <v>60</v>
+      </c>
       <c r="W16" s="21">
         <f>L16*0.2+Q16*0.25+T16*0.25+U16*0.3+V16*0.15</f>
-        <v>51.866666666666674</v>
+        <v>60.866666666666674</v>
       </c>
     </row>
     <row r="17" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4855,7 +4865,7 @@
   </sheetPr>
   <dimension ref="A1:Q81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>

--- a/AdvancedJava/_docs/Notlar.xlsx
+++ b/AdvancedJava/_docs/Notlar.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Vize" sheetId="1" r:id="rId1"/>
@@ -1469,9 +1469,9 @@
   </sheetPr>
   <dimension ref="A1:X76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V9" sqref="V9"/>
+      <selection pane="bottomLeft" activeCell="W18" sqref="W18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1648,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="16">
-        <f t="shared" ref="L3:L30" si="0">SUM(D3:J3)*50/(L$1-K3)</f>
+        <f>SUM(D3:J3)*50/(L$1-K3)</f>
         <v>116.66666666666667</v>
       </c>
       <c r="M3" s="14">
@@ -1664,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="Q3" s="16">
-        <f t="shared" ref="Q3:Q30" si="1">SUM(M3:O3)/(Q$1-P3)</f>
+        <f>SUM(M3:O3)/(Q$1-P3)</f>
         <v>100</v>
       </c>
       <c r="R3" s="14">
@@ -1674,7 +1674,7 @@
         <v>100</v>
       </c>
       <c r="T3" s="16">
-        <f t="shared" ref="T3:T30" si="2">SUM(R3:S3)/T$1</f>
+        <f>SUM(R3:S3)/T$1</f>
         <v>100</v>
       </c>
       <c r="U3" s="6">
@@ -1723,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="16">
-        <f t="shared" si="0"/>
+        <f>SUM(D4:J4)*50/(L$1-K4)</f>
         <v>100</v>
       </c>
       <c r="M4" s="14">
@@ -1739,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="Q4" s="16">
-        <f t="shared" si="1"/>
+        <f>SUM(M4:O4)/(Q$1-P4)</f>
         <v>93.333333333333329</v>
       </c>
       <c r="R4" s="14">
@@ -1749,16 +1749,18 @@
         <v>80</v>
       </c>
       <c r="T4" s="16">
-        <f t="shared" si="2"/>
+        <f>SUM(R4:S4)/T$1</f>
         <v>80</v>
       </c>
       <c r="U4" s="6">
         <v>80</v>
       </c>
-      <c r="V4" s="43"/>
+      <c r="V4" s="43">
+        <v>50</v>
+      </c>
       <c r="W4" s="21">
         <f>L4*0.2+Q4*0.25+T4*0.25+U4*0.3+V4*0.1</f>
-        <v>87.333333333333329</v>
+        <v>92.333333333333329</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1796,7 +1798,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="16">
-        <f t="shared" si="0"/>
+        <f>SUM(D5:J5)*50/(L$1-K5)</f>
         <v>97.5</v>
       </c>
       <c r="M5" s="14">
@@ -1812,7 +1814,7 @@
         <v>0</v>
       </c>
       <c r="Q5" s="16">
-        <f t="shared" si="1"/>
+        <f>SUM(M5:O5)/(Q$1-P5)</f>
         <v>75</v>
       </c>
       <c r="R5" s="14">
@@ -1822,7 +1824,7 @@
         <v>50</v>
       </c>
       <c r="T5" s="16">
-        <f t="shared" si="2"/>
+        <f>SUM(R5:S5)/T$1</f>
         <v>40</v>
       </c>
       <c r="U5" s="6">
@@ -1832,7 +1834,7 @@
         <v>90</v>
       </c>
       <c r="W5" s="21">
-        <f t="shared" ref="W5:W12" si="3">L5*0.2+Q5*0.25+T5*0.25+U5*0.3+V5*0.15</f>
+        <f>L5*0.2+Q5*0.25+T5*0.25+U5*0.3+V5*0.15</f>
         <v>81.55</v>
       </c>
     </row>
@@ -1871,7 +1873,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="16">
-        <f t="shared" si="0"/>
+        <f>SUM(D6:J6)*50/(L$1-K6)</f>
         <v>100</v>
       </c>
       <c r="M6" s="14">
@@ -1887,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="Q6" s="16">
-        <f t="shared" si="1"/>
+        <f>SUM(M6:O6)/(Q$1-P6)</f>
         <v>95</v>
       </c>
       <c r="R6" s="14">
@@ -1897,36 +1899,38 @@
         <v>20</v>
       </c>
       <c r="T6" s="16">
-        <f t="shared" si="2"/>
+        <f>SUM(R6:S6)/T$1</f>
         <v>25</v>
       </c>
       <c r="U6" s="6">
         <v>53</v>
       </c>
-      <c r="V6" s="43"/>
+      <c r="V6" s="43">
+        <v>50</v>
+      </c>
       <c r="W6" s="21">
-        <f t="shared" si="3"/>
-        <v>65.900000000000006</v>
+        <f>L6*0.2+Q6*0.25+T6*0.25+U6*0.3+V6*0.15</f>
+        <v>73.400000000000006</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="D7" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7">
         <v>2</v>
       </c>
       <c r="F7" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G7" s="7">
         <v>2</v>
@@ -1935,7 +1939,7 @@
         <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="J7" s="7">
         <v>2</v>
@@ -1944,11 +1948,11 @@
         <v>0</v>
       </c>
       <c r="L7" s="16">
-        <f t="shared" si="0"/>
-        <v>116.66666666666667</v>
+        <f>SUM(D7:J7)*50/(L$1-K7)</f>
+        <v>81.666666666666671</v>
       </c>
       <c r="M7" s="14">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="N7" s="6">
         <v>100</v>
@@ -1960,48 +1964,48 @@
         <v>0</v>
       </c>
       <c r="Q7" s="16">
-        <f t="shared" si="1"/>
-        <v>95</v>
+        <f>SUM(M7:O7)/(Q$1-P7)</f>
+        <v>93.333333333333329</v>
       </c>
       <c r="R7" s="14">
+        <v>10</v>
+      </c>
+      <c r="S7" s="14">
+        <v>61</v>
+      </c>
+      <c r="T7" s="16">
+        <f>SUM(R7:S7)/T$1</f>
+        <v>35.5</v>
+      </c>
+      <c r="U7" s="6">
         <v>40</v>
       </c>
-      <c r="S7" s="14">
-        <v>-25</v>
-      </c>
-      <c r="T7" s="16">
-        <f t="shared" si="2"/>
-        <v>7.5</v>
-      </c>
-      <c r="U7" s="6">
-        <v>42</v>
-      </c>
       <c r="V7" s="43">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="W7" s="21">
-        <f t="shared" si="3"/>
-        <v>72.808333333333337</v>
+        <f>L7*0.2+Q7*0.25+T7*0.25+U7*0.3+V7*0.15</f>
+        <v>73.291666666666671</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="D8" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E8" s="7">
         <v>2</v>
       </c>
       <c r="F8" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G8" s="7">
         <v>2</v>
@@ -2010,7 +2014,7 @@
         <v>2</v>
       </c>
       <c r="I8" s="7">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="J8" s="7">
         <v>2</v>
@@ -2019,11 +2023,11 @@
         <v>0</v>
       </c>
       <c r="L8" s="16">
-        <f t="shared" si="0"/>
-        <v>81.666666666666671</v>
+        <f>SUM(D8:J8)*50/(L$1-K8)</f>
+        <v>116.66666666666667</v>
       </c>
       <c r="M8" s="14">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="N8" s="6">
         <v>100</v>
@@ -2035,28 +2039,28 @@
         <v>0</v>
       </c>
       <c r="Q8" s="16">
-        <f t="shared" si="1"/>
-        <v>93.333333333333329</v>
+        <f>SUM(M8:O8)/(Q$1-P8)</f>
+        <v>95</v>
       </c>
       <c r="R8" s="14">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="S8" s="14">
-        <v>61</v>
+        <v>-25</v>
       </c>
       <c r="T8" s="16">
-        <f t="shared" si="2"/>
-        <v>35.5</v>
+        <f>SUM(R8:S8)/T$1</f>
+        <v>7.5</v>
       </c>
       <c r="U8" s="6">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="V8" s="43">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="W8" s="21">
-        <f t="shared" si="3"/>
-        <v>73.291666666666671</v>
+        <f>L8*0.2+Q8*0.25+T8*0.25+U8*0.3+V8*0.15</f>
+        <v>72.808333333333337</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2094,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="16">
-        <f t="shared" si="0"/>
+        <f>SUM(D9:J9)*50/(L$1-K9)</f>
         <v>100</v>
       </c>
       <c r="M9" s="14">
@@ -2110,7 +2114,7 @@
         <v>0</v>
       </c>
       <c r="Q9" s="16">
-        <f t="shared" si="1"/>
+        <f>SUM(M9:O9)/(Q$1-P9)</f>
         <v>83.333333333333329</v>
       </c>
       <c r="R9" s="14">
@@ -2120,7 +2124,7 @@
         <v>30</v>
       </c>
       <c r="T9" s="16">
-        <f t="shared" si="2"/>
+        <f>SUM(R9:S9)/T$1</f>
         <v>52.5</v>
       </c>
       <c r="U9" s="6">
@@ -2130,7 +2134,7 @@
         <v>90</v>
       </c>
       <c r="W9" s="21">
-        <f t="shared" si="3"/>
+        <f>L9*0.2+Q9*0.25+T9*0.25+U9*0.3+V9*0.15</f>
         <v>72.258333333333326</v>
       </c>
     </row>
@@ -2169,7 +2173,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="16">
-        <f t="shared" si="0"/>
+        <f>SUM(D10:J10)*50/(L$1-K10)</f>
         <v>100</v>
       </c>
       <c r="M10" s="14">
@@ -2185,7 +2189,7 @@
         <v>0</v>
       </c>
       <c r="Q10" s="16">
-        <f t="shared" si="1"/>
+        <f>SUM(M10:O10)/(Q$1-P10)</f>
         <v>93.333333333333329</v>
       </c>
       <c r="R10" s="14">
@@ -2195,30 +2199,32 @@
         <v>-25</v>
       </c>
       <c r="T10" s="16">
-        <f t="shared" si="2"/>
+        <f>SUM(R10:S10)/T$1</f>
         <v>7.5</v>
       </c>
       <c r="U10" s="6">
         <v>42</v>
       </c>
-      <c r="V10" s="43"/>
+      <c r="V10" s="43">
+        <v>95</v>
+      </c>
       <c r="W10" s="21">
-        <f t="shared" si="3"/>
-        <v>57.80833333333333</v>
+        <f>L10*0.2+Q10*0.25+T10*0.25+U10*0.3+V10*0.15</f>
+        <v>72.058333333333337</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="D11" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E11" s="7">
         <v>2</v>
@@ -2227,71 +2233,73 @@
         <v>2</v>
       </c>
       <c r="G11" s="7">
+        <v>2</v>
+      </c>
+      <c r="H11" s="50">
+        <v>2</v>
+      </c>
+      <c r="I11" s="7">
+        <v>2</v>
+      </c>
+      <c r="J11" s="7">
         <v>1.8</v>
       </c>
-      <c r="H11" s="50">
-        <v>2</v>
-      </c>
-      <c r="I11" s="7">
-        <v>2</v>
-      </c>
-      <c r="J11" s="7">
-        <v>2</v>
-      </c>
       <c r="K11" s="47">
         <v>0</v>
       </c>
       <c r="L11" s="16">
-        <f t="shared" si="0"/>
-        <v>98.333333333333329</v>
+        <f>SUM(D11:J11)*50/(L$1-K11)</f>
+        <v>115</v>
       </c>
       <c r="M11" s="14">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="N11" s="6">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="O11" s="6">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="P11" s="47">
         <v>0</v>
       </c>
       <c r="Q11" s="16">
-        <f t="shared" si="1"/>
-        <v>86.666666666666671</v>
+        <f>SUM(M11:O11)/(Q$1-P11)</f>
+        <v>76.666666666666671</v>
       </c>
       <c r="R11" s="14">
         <v>40</v>
       </c>
       <c r="S11" s="14">
-        <v>-25</v>
+        <v>30</v>
       </c>
       <c r="T11" s="16">
-        <f t="shared" si="2"/>
-        <v>7.5</v>
+        <f>SUM(R11:S11)/T$1</f>
+        <v>35</v>
       </c>
       <c r="U11" s="6">
-        <v>42</v>
-      </c>
-      <c r="V11" s="43"/>
+        <v>15</v>
+      </c>
+      <c r="V11" s="43">
+        <v>85</v>
+      </c>
       <c r="W11" s="21">
-        <f t="shared" si="3"/>
-        <v>55.808333333333337</v>
+        <f>L11*0.2+Q11*0.25+T11*0.25+U11*0.3+V11*0.15</f>
+        <v>68.166666666666671</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="D12" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E12" s="7">
         <v>2</v>
@@ -2300,7 +2308,7 @@
         <v>2</v>
       </c>
       <c r="G12" s="7">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="H12" s="50">
         <v>2</v>
@@ -2309,216 +2317,217 @@
         <v>2</v>
       </c>
       <c r="J12" s="7">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="K12" s="47">
         <v>0</v>
       </c>
       <c r="L12" s="16">
-        <f t="shared" si="0"/>
-        <v>115</v>
+        <f>SUM(D12:J12)*50/(L$1-K12)</f>
+        <v>98.333333333333329</v>
       </c>
       <c r="M12" s="14">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="N12" s="6">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="O12" s="6">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="P12" s="47">
         <v>0</v>
       </c>
       <c r="Q12" s="16">
-        <f t="shared" si="1"/>
-        <v>76.666666666666671</v>
+        <f>SUM(M12:O12)/(Q$1-P12)</f>
+        <v>86.666666666666671</v>
       </c>
       <c r="R12" s="14">
         <v>40</v>
       </c>
       <c r="S12" s="14">
-        <v>30</v>
+        <v>-25</v>
       </c>
       <c r="T12" s="16">
-        <f t="shared" si="2"/>
-        <v>35</v>
+        <f>SUM(R12:S12)/T$1</f>
+        <v>7.5</v>
       </c>
       <c r="U12" s="6">
-        <v>15</v>
-      </c>
-      <c r="V12" s="43"/>
+        <v>42</v>
+      </c>
+      <c r="V12" s="43">
+        <v>65</v>
+      </c>
       <c r="W12" s="21">
-        <f t="shared" si="3"/>
-        <v>55.416666666666671</v>
+        <f>L12*0.2+Q12*0.25+T12*0.25+U12*0.3+V12*0.15</f>
+        <v>65.558333333333337</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="12">
+        <v>2</v>
+      </c>
+      <c r="E13" s="7">
+        <v>2</v>
+      </c>
+      <c r="F13" s="7">
+        <v>2</v>
+      </c>
+      <c r="G13" s="7">
+        <v>2</v>
+      </c>
+      <c r="H13" s="50">
+        <v>2</v>
+      </c>
+      <c r="I13" s="7">
+        <v>2</v>
+      </c>
+      <c r="J13" s="7">
+        <v>1.8</v>
+      </c>
+      <c r="K13" s="47">
+        <v>0</v>
+      </c>
+      <c r="L13" s="16">
+        <f>SUM(D13:J13)*50/(L$1-K13)</f>
+        <v>115</v>
+      </c>
+      <c r="M13" s="14">
+        <v>85</v>
+      </c>
+      <c r="N13" s="6">
         <v>90</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D13" s="12">
-        <v>0</v>
-      </c>
-      <c r="E13" s="7">
-        <v>0</v>
-      </c>
-      <c r="F13" s="7">
-        <v>0</v>
-      </c>
-      <c r="G13" s="7">
-        <v>0</v>
-      </c>
-      <c r="H13" s="50">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0.9</v>
-      </c>
-      <c r="J13" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="K13" s="47">
-        <v>0</v>
-      </c>
-      <c r="L13" s="16">
-        <f t="shared" si="0"/>
-        <v>11.666666666666666</v>
-      </c>
-      <c r="M13" s="14">
-        <v>0</v>
-      </c>
-      <c r="N13" s="6">
-        <v>40</v>
-      </c>
       <c r="O13" s="6">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="P13" s="47">
         <v>0</v>
       </c>
       <c r="Q13" s="16">
-        <f t="shared" si="1"/>
-        <v>40</v>
+        <f>SUM(M13:O13)/(Q$1-P13)</f>
+        <v>75</v>
       </c>
       <c r="R13" s="14">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="S13" s="14">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="T13" s="16">
-        <f t="shared" si="2"/>
-        <v>50.5</v>
+        <f>SUM(R13:S13)/T$1</f>
+        <v>42.5</v>
       </c>
       <c r="U13" s="6">
-        <v>73</v>
+        <v>5</v>
       </c>
       <c r="V13" s="43">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="W13" s="21">
-        <f>L13*0.2+Q13*0.25+T13*0.25+U13*0.3+V13*0.1</f>
-        <v>54.858333333333334</v>
-      </c>
-      <c r="X13" s="9"/>
+        <f>L13*0.2+Q13*0.25+T13*0.25+U13*0.3+V13*0.15</f>
+        <v>63.625</v>
+      </c>
     </row>
     <row r="14" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="C14" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="12">
+        <v>0</v>
+      </c>
+      <c r="E14" s="7">
+        <v>2</v>
+      </c>
+      <c r="F14" s="7">
+        <v>2</v>
+      </c>
+      <c r="G14" s="7">
+        <v>2</v>
+      </c>
+      <c r="H14" s="50" t="s">
+        <v>94</v>
+      </c>
+      <c r="I14" s="7">
+        <v>1.8</v>
+      </c>
+      <c r="J14" s="7">
+        <v>2</v>
+      </c>
+      <c r="K14" s="48">
+        <v>1</v>
+      </c>
+      <c r="L14" s="16">
+        <f>SUM(D14:J14)*50/(L$1-K14)</f>
+        <v>98.000000000000014</v>
+      </c>
+      <c r="M14" s="14">
+        <v>95</v>
+      </c>
+      <c r="N14" s="6">
+        <v>100</v>
+      </c>
+      <c r="O14" s="6">
+        <v>80</v>
+      </c>
+      <c r="P14" s="47">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="16">
+        <f>SUM(M14:O14)/(Q$1-P14)</f>
+        <v>91.666666666666671</v>
+      </c>
+      <c r="R14" s="14">
+        <v>-25</v>
+      </c>
+      <c r="S14" s="14">
+        <v>-25</v>
+      </c>
+      <c r="T14" s="16">
+        <f>SUM(R14:S14)/T$1</f>
+        <v>-25</v>
+      </c>
+      <c r="U14" s="6">
         <v>52</v>
       </c>
-      <c r="D14" s="12">
-        <v>2</v>
-      </c>
-      <c r="E14" s="7">
-        <v>2</v>
-      </c>
-      <c r="F14" s="7">
-        <v>2</v>
-      </c>
-      <c r="G14" s="7">
-        <v>2</v>
-      </c>
-      <c r="H14" s="50">
-        <v>2</v>
-      </c>
-      <c r="I14" s="7">
-        <v>2</v>
-      </c>
-      <c r="J14" s="7">
-        <v>1.8</v>
-      </c>
-      <c r="K14" s="47">
-        <v>0</v>
-      </c>
-      <c r="L14" s="16">
-        <f t="shared" si="0"/>
-        <v>115</v>
-      </c>
-      <c r="M14" s="14">
-        <v>85</v>
-      </c>
-      <c r="N14" s="6">
-        <v>90</v>
-      </c>
-      <c r="O14" s="6">
-        <v>50</v>
-      </c>
-      <c r="P14" s="47">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="16">
-        <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-      <c r="R14" s="14">
-        <v>20</v>
-      </c>
-      <c r="S14" s="14">
-        <v>65</v>
-      </c>
-      <c r="T14" s="16">
-        <f t="shared" si="2"/>
-        <v>42.5</v>
-      </c>
-      <c r="U14" s="6">
-        <v>5</v>
-      </c>
       <c r="V14" s="43">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="W14" s="21">
         <f>L14*0.2+Q14*0.25+T14*0.25+U14*0.3+V14*0.15</f>
-        <v>63.625</v>
+        <v>60.866666666666674</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D15" s="12">
         <v>0</v>
       </c>
-      <c r="E15" s="50" t="s">
-        <v>94</v>
+      <c r="E15" s="7">
+        <v>0</v>
       </c>
       <c r="F15" s="7">
         <v>0</v>
@@ -2530,17 +2539,17 @@
         <v>0</v>
       </c>
       <c r="I15" s="7">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="J15" s="7">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="K15" s="47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" s="16">
-        <f t="shared" si="0"/>
-        <v>36</v>
+        <f>SUM(D15:J15)*50/(L$1-K15)</f>
+        <v>11.666666666666666</v>
       </c>
       <c r="M15" s="14">
         <v>0</v>
@@ -2549,109 +2558,110 @@
         <v>40</v>
       </c>
       <c r="O15" s="6">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="P15" s="47">
         <v>0</v>
       </c>
       <c r="Q15" s="16">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <f>SUM(M15:O15)/(Q$1-P15)</f>
+        <v>40</v>
       </c>
       <c r="R15" s="14">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="S15" s="14">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="T15" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>SUM(R15:S15)/T$1</f>
+        <v>50.5</v>
       </c>
       <c r="U15" s="6">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="V15" s="43">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="W15" s="21">
         <f>L15*0.2+Q15*0.25+T15*0.25+U15*0.3+V15*0.1</f>
-        <v>52.2</v>
-      </c>
+        <v>54.858333333333334</v>
+      </c>
+      <c r="X15" s="9"/>
     </row>
     <row r="16" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="D16" s="12">
         <v>0</v>
       </c>
-      <c r="E16" s="7">
-        <v>2</v>
+      <c r="E16" s="50" t="s">
+        <v>94</v>
       </c>
       <c r="F16" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G16" s="7">
-        <v>2</v>
-      </c>
-      <c r="H16" s="50" t="s">
-        <v>94</v>
+        <v>0</v>
+      </c>
+      <c r="H16" s="50">
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="J16" s="7">
         <v>2</v>
       </c>
-      <c r="K16" s="48">
+      <c r="K16" s="47">
         <v>1</v>
       </c>
       <c r="L16" s="16">
-        <f t="shared" si="0"/>
-        <v>98.000000000000014</v>
+        <f>SUM(D16:J16)*50/(L$1-K16)</f>
+        <v>36</v>
       </c>
       <c r="M16" s="14">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="N16" s="6">
+        <v>40</v>
+      </c>
+      <c r="O16" s="6">
+        <v>20</v>
+      </c>
+      <c r="P16" s="47">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="16">
+        <f>SUM(M16:O16)/(Q$1-P16)</f>
+        <v>20</v>
+      </c>
+      <c r="R16" s="14">
+        <v>0</v>
+      </c>
+      <c r="S16" s="14">
+        <v>0</v>
+      </c>
+      <c r="T16" s="16">
+        <f>SUM(R16:S16)/T$1</f>
+        <v>0</v>
+      </c>
+      <c r="U16" s="6">
         <v>100</v>
       </c>
-      <c r="O16" s="6">
-        <v>80</v>
-      </c>
-      <c r="P16" s="47">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="16">
-        <f t="shared" si="1"/>
-        <v>91.666666666666671</v>
-      </c>
-      <c r="R16" s="14">
-        <v>-25</v>
-      </c>
-      <c r="S16" s="14">
-        <v>-25</v>
-      </c>
-      <c r="T16" s="16">
-        <f t="shared" si="2"/>
-        <v>-25</v>
-      </c>
-      <c r="U16" s="6">
-        <v>52</v>
-      </c>
       <c r="V16" s="43">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="W16" s="21">
-        <f>L16*0.2+Q16*0.25+T16*0.25+U16*0.3+V16*0.15</f>
-        <v>60.866666666666674</v>
+        <f>L16*0.2+Q16*0.25+T16*0.25+U16*0.3+V16*0.1</f>
+        <v>52.2</v>
       </c>
     </row>
     <row r="17" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2689,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="16">
-        <f t="shared" si="0"/>
+        <f>SUM(D17:J17)*50/(L$1-K17)</f>
         <v>66.666666666666671</v>
       </c>
       <c r="M17" s="14">
@@ -2705,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="Q17" s="16">
-        <f t="shared" si="1"/>
+        <f>SUM(M17:O17)/(Q$1-P17)</f>
         <v>60</v>
       </c>
       <c r="R17" s="14">
@@ -2715,16 +2725,18 @@
         <v>0</v>
       </c>
       <c r="T17" s="16">
-        <f t="shared" si="2"/>
+        <f>SUM(R17:S17)/T$1</f>
         <v>10</v>
       </c>
       <c r="U17" s="6">
         <v>31</v>
       </c>
-      <c r="V17" s="43"/>
+      <c r="V17" s="43">
+        <v>50</v>
+      </c>
       <c r="W17" s="21">
         <f>L17*0.2+Q17*0.25+T17*0.25+U17*0.3+V17*0.15</f>
-        <v>40.133333333333333</v>
+        <v>47.633333333333333</v>
       </c>
     </row>
     <row r="18" spans="1:24" s="46" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2762,7 +2774,7 @@
         <v>3</v>
       </c>
       <c r="L18" s="16">
-        <f t="shared" si="0"/>
+        <f>SUM(D18:J18)*50/(L$1-K18)</f>
         <v>66.666666666666671</v>
       </c>
       <c r="M18" s="54" t="s">
@@ -2778,7 +2790,7 @@
         <v>1</v>
       </c>
       <c r="Q18" s="16">
-        <f t="shared" si="1"/>
+        <f>SUM(M18:O18)/(Q$1-P18)</f>
         <v>62.5</v>
       </c>
       <c r="R18" s="14">
@@ -2788,16 +2800,18 @@
         <v>20</v>
       </c>
       <c r="T18" s="16">
-        <f t="shared" si="2"/>
+        <f>SUM(R18:S18)/T$1</f>
         <v>40.5</v>
       </c>
       <c r="U18" s="6">
         <v>0</v>
       </c>
-      <c r="V18" s="43"/>
+      <c r="V18" s="43">
+        <v>50</v>
+      </c>
       <c r="W18" s="21">
         <f>L18*0.2+Q18*0.25+T18*0.25+U18*0.3+V18*0.1</f>
-        <v>39.083333333333336</v>
+        <v>44.083333333333336</v>
       </c>
       <c r="X18" s="1"/>
     </row>
@@ -2836,7 +2850,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="16">
-        <f t="shared" si="0"/>
+        <f>SUM(D19:J19)*50/(L$1-K19)</f>
         <v>100</v>
       </c>
       <c r="M19" s="14">
@@ -2852,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="Q19" s="16">
-        <f t="shared" si="1"/>
+        <f>SUM(M19:O19)/(Q$1-P19)</f>
         <v>90</v>
       </c>
       <c r="R19" s="14">
@@ -2862,16 +2876,18 @@
         <v>-25</v>
       </c>
       <c r="T19" s="16">
-        <f t="shared" si="2"/>
+        <f>SUM(R19:S19)/T$1</f>
         <v>-25</v>
       </c>
       <c r="U19" s="6">
         <v>0</v>
       </c>
-      <c r="V19" s="43"/>
+      <c r="V19" s="43">
+        <v>50</v>
+      </c>
       <c r="W19" s="21">
-        <f t="shared" ref="W19:W29" si="4">L19*0.2+Q19*0.25+T19*0.25+U19*0.3+V19*0.15</f>
-        <v>36.25</v>
+        <f>L19*0.2+Q19*0.25+T19*0.25+U19*0.3+V19*0.15</f>
+        <v>43.75</v>
       </c>
     </row>
     <row r="20" spans="1:24" s="46" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2909,7 +2925,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="16">
-        <f t="shared" si="0"/>
+        <f>SUM(D20:J20)*50/(L$1-K20)</f>
         <v>83.333333333333329</v>
       </c>
       <c r="M20" s="14">
@@ -2925,7 +2941,7 @@
         <v>0</v>
       </c>
       <c r="Q20" s="16">
-        <f t="shared" si="1"/>
+        <f>SUM(M20:O20)/(Q$1-P20)</f>
         <v>33.333333333333336</v>
       </c>
       <c r="R20" s="14">
@@ -2935,16 +2951,18 @@
         <v>-25</v>
       </c>
       <c r="T20" s="16">
-        <f t="shared" si="2"/>
+        <f>SUM(R20:S20)/T$1</f>
         <v>-25</v>
       </c>
       <c r="U20" s="6">
         <v>45</v>
       </c>
-      <c r="V20" s="43"/>
+      <c r="V20" s="43">
+        <v>50</v>
+      </c>
       <c r="W20" s="21">
-        <f t="shared" si="4"/>
-        <v>32.25</v>
+        <f>L20*0.2+Q20*0.25+T20*0.25+U20*0.3+V20*0.15</f>
+        <v>39.75</v>
       </c>
       <c r="X20" s="1"/>
     </row>
@@ -2983,7 +3001,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="16">
-        <f t="shared" si="0"/>
+        <f>SUM(D21:J21)*50/(L$1-K21)</f>
         <v>16.666666666666668</v>
       </c>
       <c r="M21" s="14">
@@ -2999,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="Q21" s="16">
-        <f t="shared" si="1"/>
+        <f>SUM(M21:O21)/(Q$1-P21)</f>
         <v>0</v>
       </c>
       <c r="R21" s="14">
@@ -3009,7 +3027,7 @@
         <v>25</v>
       </c>
       <c r="T21" s="16">
-        <f t="shared" si="2"/>
+        <f>SUM(R21:S21)/T$1</f>
         <v>25</v>
       </c>
       <c r="U21" s="6">
@@ -3017,19 +3035,19 @@
       </c>
       <c r="V21" s="43"/>
       <c r="W21" s="21">
-        <f t="shared" si="4"/>
+        <f>L21*0.2+Q21*0.25+T21*0.25+U21*0.3+V21*0.15</f>
         <v>9.5833333333333339</v>
       </c>
     </row>
     <row r="22" spans="1:24" s="67" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="55" t="s">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="B22" s="56" t="s">
-        <v>3</v>
+        <v>88</v>
       </c>
       <c r="C22" s="57" t="s">
-        <v>4</v>
+        <v>89</v>
       </c>
       <c r="D22" s="58">
         <v>0</v>
@@ -3056,7 +3074,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="62">
-        <f t="shared" si="0"/>
+        <f>SUM(D22:J22)*50/(L$1-K22)</f>
         <v>0</v>
       </c>
       <c r="M22" s="63">
@@ -3072,7 +3090,7 @@
         <v>0</v>
       </c>
       <c r="Q22" s="62">
-        <f t="shared" si="1"/>
+        <f>SUM(M22:O22)/(Q$1-P22)</f>
         <v>0</v>
       </c>
       <c r="R22" s="63">
@@ -3082,7 +3100,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="62">
-        <f t="shared" si="2"/>
+        <f>SUM(R22:S22)/T$1</f>
         <v>0</v>
       </c>
       <c r="U22" s="64">
@@ -3090,19 +3108,19 @@
       </c>
       <c r="V22" s="65"/>
       <c r="W22" s="66">
-        <f t="shared" si="4"/>
+        <f>L22*0.2+Q22*0.25+T22*0.25+U22*0.3+V22*0.1</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:24" s="67" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="55" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B23" s="56" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="C23" s="57" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D23" s="58">
         <v>0</v>
@@ -3129,7 +3147,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="62">
-        <f t="shared" si="0"/>
+        <f>SUM(D23:J23)*50/(L$1-K23)</f>
         <v>0</v>
       </c>
       <c r="M23" s="63">
@@ -3145,7 +3163,7 @@
         <v>0</v>
       </c>
       <c r="Q23" s="62">
-        <f t="shared" si="1"/>
+        <f>SUM(M23:O23)/(Q$1-P23)</f>
         <v>0</v>
       </c>
       <c r="R23" s="63">
@@ -3155,7 +3173,7 @@
         <v>0</v>
       </c>
       <c r="T23" s="62">
-        <f t="shared" si="2"/>
+        <f>SUM(R23:S23)/T$1</f>
         <v>0</v>
       </c>
       <c r="U23" s="64">
@@ -3163,19 +3181,19 @@
       </c>
       <c r="V23" s="65"/>
       <c r="W23" s="66">
-        <f t="shared" si="4"/>
+        <f>L23*0.2+Q23*0.25+T23*0.25+U23*0.3+V23*0.15</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:24" s="67" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="55" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B24" s="56" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C24" s="57" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D24" s="58">
         <v>0</v>
@@ -3202,7 +3220,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="62">
-        <f t="shared" si="0"/>
+        <f>SUM(D24:J24)*50/(L$1-K24)</f>
         <v>0</v>
       </c>
       <c r="M24" s="63">
@@ -3218,7 +3236,7 @@
         <v>0</v>
       </c>
       <c r="Q24" s="62">
-        <f t="shared" si="1"/>
+        <f>SUM(M24:O24)/(Q$1-P24)</f>
         <v>0</v>
       </c>
       <c r="R24" s="63">
@@ -3228,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="62">
-        <f t="shared" si="2"/>
+        <f>SUM(R24:S24)/T$1</f>
         <v>0</v>
       </c>
       <c r="U24" s="64">
@@ -3236,19 +3254,19 @@
       </c>
       <c r="V24" s="65"/>
       <c r="W24" s="66">
-        <f t="shared" si="4"/>
+        <f>L24*0.2+Q24*0.25+T24*0.25+U24*0.3+V24*0.15</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:24" s="67" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="55" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B25" s="56" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C25" s="57" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D25" s="58">
         <v>0</v>
@@ -3275,7 +3293,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="62">
-        <f t="shared" si="0"/>
+        <f>SUM(D25:J25)*50/(L$1-K25)</f>
         <v>0</v>
       </c>
       <c r="M25" s="63">
@@ -3291,7 +3309,7 @@
         <v>0</v>
       </c>
       <c r="Q25" s="62">
-        <f t="shared" si="1"/>
+        <f>SUM(M25:O25)/(Q$1-P25)</f>
         <v>0</v>
       </c>
       <c r="R25" s="63">
@@ -3301,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="62">
-        <f t="shared" si="2"/>
+        <f>SUM(R25:S25)/T$1</f>
         <v>0</v>
       </c>
       <c r="U25" s="64">
@@ -3309,19 +3327,19 @@
       </c>
       <c r="V25" s="65"/>
       <c r="W25" s="66">
-        <f t="shared" si="4"/>
+        <f>L25*0.2+Q25*0.25+T25*0.25+U25*0.3+V25*0.15</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:24" s="67" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="55" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B26" s="56" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="C26" s="57" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D26" s="58">
         <v>0</v>
@@ -3348,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="62">
-        <f t="shared" si="0"/>
+        <f>SUM(D26:J26)*50/(L$1-K26)</f>
         <v>0</v>
       </c>
       <c r="M26" s="63">
@@ -3364,7 +3382,7 @@
         <v>0</v>
       </c>
       <c r="Q26" s="62">
-        <f t="shared" si="1"/>
+        <f>SUM(M26:O26)/(Q$1-P26)</f>
         <v>0</v>
       </c>
       <c r="R26" s="63">
@@ -3374,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="T26" s="62">
-        <f t="shared" si="2"/>
+        <f>SUM(R26:S26)/T$1</f>
         <v>0</v>
       </c>
       <c r="U26" s="64">
@@ -3382,19 +3400,19 @@
       </c>
       <c r="V26" s="65"/>
       <c r="W26" s="66">
-        <f t="shared" si="4"/>
+        <f>L26*0.2+Q26*0.25+T26*0.25+U26*0.3+V26*0.15</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:24" s="67" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="55" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B27" s="56" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C27" s="57" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D27" s="58">
         <v>0</v>
@@ -3421,7 +3439,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="62">
-        <f t="shared" si="0"/>
+        <f>SUM(D27:J27)*50/(L$1-K27)</f>
         <v>0</v>
       </c>
       <c r="M27" s="63">
@@ -3437,7 +3455,7 @@
         <v>0</v>
       </c>
       <c r="Q27" s="62">
-        <f t="shared" si="1"/>
+        <f>SUM(M27:O27)/(Q$1-P27)</f>
         <v>0</v>
       </c>
       <c r="R27" s="63">
@@ -3447,7 +3465,7 @@
         <v>0</v>
       </c>
       <c r="T27" s="62">
-        <f t="shared" si="2"/>
+        <f>SUM(R27:S27)/T$1</f>
         <v>0</v>
       </c>
       <c r="U27" s="64">
@@ -3455,19 +3473,19 @@
       </c>
       <c r="V27" s="65"/>
       <c r="W27" s="66">
-        <f t="shared" si="4"/>
+        <f>L27*0.2+Q27*0.25+T27*0.25+U27*0.3+V27*0.15</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:24" s="67" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="55" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B28" s="56" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C28" s="57" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D28" s="58">
         <v>0</v>
@@ -3494,7 +3512,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="62">
-        <f t="shared" si="0"/>
+        <f>SUM(D28:J28)*50/(L$1-K28)</f>
         <v>0</v>
       </c>
       <c r="M28" s="63">
@@ -3510,7 +3528,7 @@
         <v>0</v>
       </c>
       <c r="Q28" s="62">
-        <f t="shared" si="1"/>
+        <f>SUM(M28:O28)/(Q$1-P28)</f>
         <v>0</v>
       </c>
       <c r="R28" s="63">
@@ -3520,7 +3538,7 @@
         <v>0</v>
       </c>
       <c r="T28" s="62">
-        <f t="shared" si="2"/>
+        <f>SUM(R28:S28)/T$1</f>
         <v>0</v>
       </c>
       <c r="U28" s="64">
@@ -3528,7 +3546,7 @@
       </c>
       <c r="V28" s="65"/>
       <c r="W28" s="66">
-        <f t="shared" si="4"/>
+        <f>L28*0.2+Q28*0.25+T28*0.25+U28*0.3+V28*0.15</f>
         <v>0</v>
       </c>
     </row>
@@ -3567,7 +3585,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="62">
-        <f t="shared" si="0"/>
+        <f>SUM(D29:J29)*50/(L$1-K29)</f>
         <v>0</v>
       </c>
       <c r="M29" s="63">
@@ -3583,7 +3601,7 @@
         <v>0</v>
       </c>
       <c r="Q29" s="62">
-        <f t="shared" si="1"/>
+        <f>SUM(M29:O29)/(Q$1-P29)</f>
         <v>0</v>
       </c>
       <c r="R29" s="63">
@@ -3593,7 +3611,7 @@
         <v>0</v>
       </c>
       <c r="T29" s="62">
-        <f t="shared" si="2"/>
+        <f>SUM(R29:S29)/T$1</f>
         <v>0</v>
       </c>
       <c r="U29" s="64">
@@ -3601,19 +3619,19 @@
       </c>
       <c r="V29" s="65"/>
       <c r="W29" s="66">
-        <f t="shared" si="4"/>
+        <f>L29*0.2+Q29*0.25+T29*0.25+U29*0.3+V29*0.15</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:24" s="68" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="55" t="s">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="B30" s="56" t="s">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="C30" s="57" t="s">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="D30" s="58">
         <v>0</v>
@@ -3640,7 +3658,7 @@
         <v>0</v>
       </c>
       <c r="L30" s="62">
-        <f t="shared" si="0"/>
+        <f>SUM(D30:J30)*50/(L$1-K30)</f>
         <v>0</v>
       </c>
       <c r="M30" s="63">
@@ -3656,7 +3674,7 @@
         <v>0</v>
       </c>
       <c r="Q30" s="62">
-        <f t="shared" si="1"/>
+        <f>SUM(M30:O30)/(Q$1-P30)</f>
         <v>0</v>
       </c>
       <c r="R30" s="63">
@@ -3666,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="62">
-        <f t="shared" si="2"/>
+        <f>SUM(R30:S30)/T$1</f>
         <v>0</v>
       </c>
       <c r="U30" s="64">
@@ -3674,7 +3692,7 @@
       </c>
       <c r="V30" s="65"/>
       <c r="W30" s="66">
-        <f>L30*0.2+Q30*0.25+T30*0.25+U30*0.3+V30*0.1</f>
+        <f>L30*0.2+Q30*0.25+T30*0.25+U30*0.3+V30*0.15</f>
         <v>0</v>
       </c>
       <c r="X30" s="67"/>
@@ -4865,9 +4883,9 @@
   </sheetPr>
   <dimension ref="A1:Q81"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4986,7 +5004,9 @@
       <c r="F3" s="7">
         <v>2</v>
       </c>
-      <c r="G3" s="7"/>
+      <c r="G3" s="7">
+        <v>2</v>
+      </c>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="16"/>
@@ -5007,7 +5027,7 @@
         <v>83</v>
       </c>
       <c r="D4" s="71">
-        <v>87.333333333333329</v>
+        <v>92.333333333333329</v>
       </c>
       <c r="E4" s="38">
         <v>2</v>
@@ -5015,7 +5035,9 @@
       <c r="F4" s="7">
         <v>2</v>
       </c>
-      <c r="G4" s="7"/>
+      <c r="G4" s="7">
+        <v>2</v>
+      </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="16"/>
@@ -5036,7 +5058,7 @@
         <v>46</v>
       </c>
       <c r="D5" s="71">
-        <v>78.55</v>
+        <v>81.55</v>
       </c>
       <c r="E5" s="38">
         <v>2</v>
@@ -5044,7 +5066,9 @@
       <c r="F5" s="7">
         <v>1.5</v>
       </c>
-      <c r="G5" s="7"/>
+      <c r="G5" s="7">
+        <v>1</v>
+      </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="16"/>
@@ -5065,7 +5089,7 @@
         <v>62</v>
       </c>
       <c r="D6" s="71">
-        <v>65.900000000000006</v>
+        <v>73.400000000000006</v>
       </c>
       <c r="E6" s="38">
         <v>2</v>
@@ -5073,7 +5097,9 @@
       <c r="F6" s="7">
         <v>2</v>
       </c>
-      <c r="G6" s="7"/>
+      <c r="G6" s="7">
+        <v>2</v>
+      </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="16"/>
@@ -5088,13 +5114,13 @@
     <row r="7" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20"/>
       <c r="B7" s="3" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="D7" s="71">
-        <v>61.558333333333337</v>
+        <v>73.291666666666671</v>
       </c>
       <c r="E7" s="38">
         <v>2</v>
@@ -5102,7 +5128,9 @@
       <c r="F7" s="7">
         <v>2</v>
       </c>
-      <c r="G7" s="7"/>
+      <c r="G7" s="7">
+        <v>2</v>
+      </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="16"/>
@@ -5117,13 +5145,13 @@
     <row r="8" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20"/>
       <c r="B8" s="3" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="D8" s="71">
-        <v>60.541666666666671</v>
+        <v>72.808333333333337</v>
       </c>
       <c r="E8" s="38">
         <v>2</v>
@@ -5131,7 +5159,9 @@
       <c r="F8" s="7">
         <v>2</v>
       </c>
-      <c r="G8" s="7"/>
+      <c r="G8" s="7">
+        <v>0</v>
+      </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="16"/>
@@ -5152,7 +5182,7 @@
         <v>80</v>
       </c>
       <c r="D9" s="71">
-        <v>58.758333333333326</v>
+        <v>72.258333333333326</v>
       </c>
       <c r="E9" s="38">
         <v>2</v>
@@ -5160,7 +5190,9 @@
       <c r="F9" s="7">
         <v>2</v>
       </c>
-      <c r="G9" s="7"/>
+      <c r="G9" s="7">
+        <v>2</v>
+      </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="16"/>
@@ -5181,7 +5213,7 @@
         <v>67</v>
       </c>
       <c r="D10" s="71">
-        <v>57.80833333333333</v>
+        <v>72.058333333333337</v>
       </c>
       <c r="E10" s="38">
         <v>2</v>
@@ -5189,7 +5221,9 @@
       <c r="F10" s="7">
         <v>2</v>
       </c>
-      <c r="G10" s="7"/>
+      <c r="G10" s="7">
+        <v>0</v>
+      </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="16"/>
@@ -5204,21 +5238,23 @@
     <row r="11" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20"/>
       <c r="B11" s="3" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="D11" s="71">
-        <v>55.808333333333337</v>
+        <v>68.166666666666671</v>
       </c>
       <c r="E11" s="38">
         <v>2</v>
       </c>
       <c r="F11" s="7">
-        <v>1.9</v>
-      </c>
-      <c r="G11" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="G11" s="7">
+        <v>2</v>
+      </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="16"/>
@@ -5233,21 +5269,23 @@
     <row r="12" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20"/>
       <c r="B12" s="3" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="D12" s="71">
-        <v>55.416666666666671</v>
+        <v>65.558333333333337</v>
       </c>
       <c r="E12" s="38">
         <v>2</v>
       </c>
       <c r="F12" s="7">
-        <v>2</v>
-      </c>
-      <c r="G12" s="7"/>
+        <v>1.9</v>
+      </c>
+      <c r="G12" s="7">
+        <v>2</v>
+      </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="16"/>
@@ -5262,21 +5300,23 @@
     <row r="13" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20"/>
       <c r="B13" s="3" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="D13" s="71">
-        <v>54.858333333333334</v>
+        <v>63.625</v>
       </c>
       <c r="E13" s="38">
-        <v>0</v>
-      </c>
-      <c r="F13" s="41">
-        <v>0</v>
-      </c>
-      <c r="G13" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="F13" s="7">
+        <v>2</v>
+      </c>
+      <c r="G13" s="7">
+        <v>2</v>
+      </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="16"/>
@@ -5291,13 +5331,13 @@
     <row r="14" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20"/>
       <c r="B14" s="3" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="D14" s="71">
-        <v>53.875</v>
+        <v>60.866666666666674</v>
       </c>
       <c r="E14" s="38">
         <v>2</v>
@@ -5305,7 +5345,9 @@
       <c r="F14" s="7">
         <v>2</v>
       </c>
-      <c r="G14" s="7"/>
+      <c r="G14" s="7">
+        <v>0</v>
+      </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
       <c r="J14" s="16"/>
@@ -5320,21 +5362,23 @@
     <row r="15" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="20"/>
       <c r="B15" s="3" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D15" s="71">
-        <v>52.2</v>
+        <v>54.858333333333334</v>
       </c>
       <c r="E15" s="38">
         <v>0</v>
       </c>
-      <c r="F15" s="7">
-        <v>0</v>
-      </c>
-      <c r="G15" s="7"/>
+      <c r="F15" s="41">
+        <v>0</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0</v>
+      </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="16"/>
@@ -5349,21 +5393,23 @@
     <row r="16" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20"/>
       <c r="B16" s="3" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="D16" s="71">
-        <v>51.866666666666674</v>
+        <v>52.2</v>
       </c>
       <c r="E16" s="38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F16" s="7">
-        <v>2</v>
-      </c>
-      <c r="G16" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="7">
+        <v>0</v>
+      </c>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
       <c r="J16" s="16"/>
@@ -5384,7 +5430,7 @@
         <v>19</v>
       </c>
       <c r="D17" s="71">
-        <v>40.133333333333333</v>
+        <v>47.633333333333333</v>
       </c>
       <c r="E17" s="38">
         <v>1</v>
@@ -5392,7 +5438,9 @@
       <c r="F17" s="7">
         <v>1.8</v>
       </c>
-      <c r="G17" s="7"/>
+      <c r="G17" s="7">
+        <v>2</v>
+      </c>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="16"/>
@@ -5413,7 +5461,7 @@
         <v>96</v>
       </c>
       <c r="D18" s="71">
-        <v>39.083333333333336</v>
+        <v>44.083333333333336</v>
       </c>
       <c r="E18" s="38">
         <v>0</v>
@@ -5421,7 +5469,9 @@
       <c r="F18" s="7">
         <v>0</v>
       </c>
-      <c r="G18" s="7"/>
+      <c r="G18" s="7">
+        <v>0</v>
+      </c>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="J18" s="16"/>
@@ -5442,7 +5492,7 @@
         <v>75</v>
       </c>
       <c r="D19" s="71">
-        <v>36.25</v>
+        <v>43.75</v>
       </c>
       <c r="E19" s="38">
         <v>2</v>
@@ -5450,7 +5500,9 @@
       <c r="F19" s="7">
         <v>2</v>
       </c>
-      <c r="G19" s="7"/>
+      <c r="G19" s="7">
+        <v>0</v>
+      </c>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="16"/>
@@ -5471,7 +5523,7 @@
         <v>50</v>
       </c>
       <c r="D20" s="71">
-        <v>32.25</v>
+        <v>39.75</v>
       </c>
       <c r="E20" s="38">
         <v>2</v>
@@ -5479,7 +5531,9 @@
       <c r="F20" s="7">
         <v>2</v>
       </c>
-      <c r="G20" s="7"/>
+      <c r="G20" s="7">
+        <v>2</v>
+      </c>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="16"/>
@@ -5508,7 +5562,9 @@
       <c r="F21" s="7">
         <v>0</v>
       </c>
-      <c r="G21" s="7"/>
+      <c r="G21" s="7">
+        <v>0</v>
+      </c>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="16"/>
@@ -5537,7 +5593,9 @@
       <c r="F22" s="7">
         <v>0</v>
       </c>
-      <c r="G22" s="7"/>
+      <c r="G22" s="7">
+        <v>0</v>
+      </c>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
       <c r="J22" s="16"/>
@@ -5566,7 +5624,9 @@
       <c r="F23" s="7">
         <v>0</v>
       </c>
-      <c r="G23" s="7"/>
+      <c r="G23" s="7">
+        <v>0</v>
+      </c>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="16"/>
@@ -5595,7 +5655,9 @@
       <c r="F24" s="7">
         <v>0</v>
       </c>
-      <c r="G24" s="7"/>
+      <c r="G24" s="7">
+        <v>0</v>
+      </c>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="16"/>
@@ -5624,7 +5686,9 @@
       <c r="F25" s="12">
         <v>0</v>
       </c>
-      <c r="G25" s="7"/>
+      <c r="G25" s="7">
+        <v>0</v>
+      </c>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
       <c r="J25" s="16"/>
@@ -5653,7 +5717,9 @@
       <c r="F26" s="7">
         <v>0</v>
       </c>
-      <c r="G26" s="7"/>
+      <c r="G26" s="7">
+        <v>0</v>
+      </c>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
       <c r="J26" s="16"/>
@@ -5682,7 +5748,9 @@
       <c r="F27" s="7">
         <v>0</v>
       </c>
-      <c r="G27" s="7"/>
+      <c r="G27" s="7">
+        <v>0</v>
+      </c>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
       <c r="J27" s="16"/>
@@ -5711,7 +5779,9 @@
       <c r="F28" s="7">
         <v>0</v>
       </c>
-      <c r="G28" s="7"/>
+      <c r="G28" s="7">
+        <v>0</v>
+      </c>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
       <c r="J28" s="16"/>
@@ -5740,7 +5810,9 @@
       <c r="F29" s="7">
         <v>0</v>
       </c>
-      <c r="G29" s="7"/>
+      <c r="G29" s="7">
+        <v>0</v>
+      </c>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
       <c r="J29" s="16"/>
@@ -5769,7 +5841,9 @@
       <c r="F30" s="7">
         <v>0</v>
       </c>
-      <c r="G30" s="7"/>
+      <c r="G30" s="7">
+        <v>0</v>
+      </c>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
       <c r="J30" s="16"/>
@@ -6601,7 +6675,7 @@
       <c r="N81" s="9"/>
     </row>
   </sheetData>
-  <sortState ref="A3:R30">
+  <sortState ref="A3:Q30">
     <sortCondition descending="1" ref="D3"/>
   </sortState>
   <mergeCells count="2">

--- a/AdvancedJava/_docs/Notlar.xlsx
+++ b/AdvancedJava/_docs/Notlar.xlsx
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="101">
   <si>
     <t>Adı</t>
   </si>
@@ -395,6 +395,9 @@
   </si>
   <si>
     <t>,</t>
+  </si>
+  <si>
+    <t>LAB (%30)</t>
   </si>
 </sst>
 </file>
@@ -819,7 +822,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -969,6 +972,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1471,7 +1478,7 @@
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W18" sqref="W18"/>
+      <selection pane="bottomLeft" activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1648,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="16">
-        <f>SUM(D3:J3)*50/(L$1-K3)</f>
+        <f t="shared" ref="L3:L30" si="0">SUM(D3:J3)*50/(L$1-K3)</f>
         <v>116.66666666666667</v>
       </c>
       <c r="M3" s="14">
@@ -1664,7 +1671,7 @@
         <v>0</v>
       </c>
       <c r="Q3" s="16">
-        <f>SUM(M3:O3)/(Q$1-P3)</f>
+        <f t="shared" ref="Q3:Q30" si="1">SUM(M3:O3)/(Q$1-P3)</f>
         <v>100</v>
       </c>
       <c r="R3" s="14">
@@ -1674,7 +1681,7 @@
         <v>100</v>
       </c>
       <c r="T3" s="16">
-        <f>SUM(R3:S3)/T$1</f>
+        <f t="shared" ref="T3:T30" si="2">SUM(R3:S3)/T$1</f>
         <v>100</v>
       </c>
       <c r="U3" s="6">
@@ -1723,7 +1730,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="16">
-        <f>SUM(D4:J4)*50/(L$1-K4)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="M4" s="14">
@@ -1739,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="Q4" s="16">
-        <f>SUM(M4:O4)/(Q$1-P4)</f>
+        <f t="shared" si="1"/>
         <v>93.333333333333329</v>
       </c>
       <c r="R4" s="14">
@@ -1749,7 +1756,7 @@
         <v>80</v>
       </c>
       <c r="T4" s="16">
-        <f>SUM(R4:S4)/T$1</f>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="U4" s="6">
@@ -1798,7 +1805,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="16">
-        <f>SUM(D5:J5)*50/(L$1-K5)</f>
+        <f t="shared" si="0"/>
         <v>97.5</v>
       </c>
       <c r="M5" s="14">
@@ -1814,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="Q5" s="16">
-        <f>SUM(M5:O5)/(Q$1-P5)</f>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="R5" s="14">
@@ -1824,7 +1831,7 @@
         <v>50</v>
       </c>
       <c r="T5" s="16">
-        <f>SUM(R5:S5)/T$1</f>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="U5" s="6">
@@ -1834,7 +1841,7 @@
         <v>90</v>
       </c>
       <c r="W5" s="21">
-        <f>L5*0.2+Q5*0.25+T5*0.25+U5*0.3+V5*0.15</f>
+        <f t="shared" ref="W5:W14" si="3">L5*0.2+Q5*0.25+T5*0.25+U5*0.3+V5*0.15</f>
         <v>81.55</v>
       </c>
     </row>
@@ -1873,7 +1880,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="16">
-        <f>SUM(D6:J6)*50/(L$1-K6)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="M6" s="14">
@@ -1889,7 +1896,7 @@
         <v>0</v>
       </c>
       <c r="Q6" s="16">
-        <f>SUM(M6:O6)/(Q$1-P6)</f>
+        <f t="shared" si="1"/>
         <v>95</v>
       </c>
       <c r="R6" s="14">
@@ -1899,7 +1906,7 @@
         <v>20</v>
       </c>
       <c r="T6" s="16">
-        <f>SUM(R6:S6)/T$1</f>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="U6" s="6">
@@ -1909,7 +1916,7 @@
         <v>50</v>
       </c>
       <c r="W6" s="21">
-        <f>L6*0.2+Q6*0.25+T6*0.25+U6*0.3+V6*0.15</f>
+        <f t="shared" si="3"/>
         <v>73.400000000000006</v>
       </c>
     </row>
@@ -1948,7 +1955,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="16">
-        <f>SUM(D7:J7)*50/(L$1-K7)</f>
+        <f t="shared" si="0"/>
         <v>81.666666666666671</v>
       </c>
       <c r="M7" s="14">
@@ -1964,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="Q7" s="16">
-        <f>SUM(M7:O7)/(Q$1-P7)</f>
+        <f t="shared" si="1"/>
         <v>93.333333333333329</v>
       </c>
       <c r="R7" s="14">
@@ -1974,7 +1981,7 @@
         <v>61</v>
       </c>
       <c r="T7" s="16">
-        <f>SUM(R7:S7)/T$1</f>
+        <f t="shared" si="2"/>
         <v>35.5</v>
       </c>
       <c r="U7" s="6">
@@ -1984,7 +1991,7 @@
         <v>85</v>
       </c>
       <c r="W7" s="21">
-        <f>L7*0.2+Q7*0.25+T7*0.25+U7*0.3+V7*0.15</f>
+        <f t="shared" si="3"/>
         <v>73.291666666666671</v>
       </c>
     </row>
@@ -2023,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="16">
-        <f>SUM(D8:J8)*50/(L$1-K8)</f>
+        <f t="shared" si="0"/>
         <v>116.66666666666667</v>
       </c>
       <c r="M8" s="14">
@@ -2039,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="Q8" s="16">
-        <f>SUM(M8:O8)/(Q$1-P8)</f>
+        <f t="shared" si="1"/>
         <v>95</v>
       </c>
       <c r="R8" s="14">
@@ -2049,7 +2056,7 @@
         <v>-25</v>
       </c>
       <c r="T8" s="16">
-        <f>SUM(R8:S8)/T$1</f>
+        <f t="shared" si="2"/>
         <v>7.5</v>
       </c>
       <c r="U8" s="6">
@@ -2059,7 +2066,7 @@
         <v>75</v>
       </c>
       <c r="W8" s="21">
-        <f>L8*0.2+Q8*0.25+T8*0.25+U8*0.3+V8*0.15</f>
+        <f t="shared" si="3"/>
         <v>72.808333333333337</v>
       </c>
     </row>
@@ -2098,7 +2105,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="16">
-        <f>SUM(D9:J9)*50/(L$1-K9)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="M9" s="14">
@@ -2114,7 +2121,7 @@
         <v>0</v>
       </c>
       <c r="Q9" s="16">
-        <f>SUM(M9:O9)/(Q$1-P9)</f>
+        <f t="shared" si="1"/>
         <v>83.333333333333329</v>
       </c>
       <c r="R9" s="14">
@@ -2124,7 +2131,7 @@
         <v>30</v>
       </c>
       <c r="T9" s="16">
-        <f>SUM(R9:S9)/T$1</f>
+        <f t="shared" si="2"/>
         <v>52.5</v>
       </c>
       <c r="U9" s="6">
@@ -2134,7 +2141,7 @@
         <v>90</v>
       </c>
       <c r="W9" s="21">
-        <f>L9*0.2+Q9*0.25+T9*0.25+U9*0.3+V9*0.15</f>
+        <f t="shared" si="3"/>
         <v>72.258333333333326</v>
       </c>
     </row>
@@ -2173,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="16">
-        <f>SUM(D10:J10)*50/(L$1-K10)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="M10" s="14">
@@ -2189,7 +2196,7 @@
         <v>0</v>
       </c>
       <c r="Q10" s="16">
-        <f>SUM(M10:O10)/(Q$1-P10)</f>
+        <f t="shared" si="1"/>
         <v>93.333333333333329</v>
       </c>
       <c r="R10" s="14">
@@ -2199,7 +2206,7 @@
         <v>-25</v>
       </c>
       <c r="T10" s="16">
-        <f>SUM(R10:S10)/T$1</f>
+        <f t="shared" si="2"/>
         <v>7.5</v>
       </c>
       <c r="U10" s="6">
@@ -2209,7 +2216,7 @@
         <v>95</v>
       </c>
       <c r="W10" s="21">
-        <f>L10*0.2+Q10*0.25+T10*0.25+U10*0.3+V10*0.15</f>
+        <f t="shared" si="3"/>
         <v>72.058333333333337</v>
       </c>
     </row>
@@ -2248,7 +2255,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="16">
-        <f>SUM(D11:J11)*50/(L$1-K11)</f>
+        <f t="shared" si="0"/>
         <v>115</v>
       </c>
       <c r="M11" s="14">
@@ -2264,7 +2271,7 @@
         <v>0</v>
       </c>
       <c r="Q11" s="16">
-        <f>SUM(M11:O11)/(Q$1-P11)</f>
+        <f t="shared" si="1"/>
         <v>76.666666666666671</v>
       </c>
       <c r="R11" s="14">
@@ -2274,7 +2281,7 @@
         <v>30</v>
       </c>
       <c r="T11" s="16">
-        <f>SUM(R11:S11)/T$1</f>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="U11" s="6">
@@ -2284,7 +2291,7 @@
         <v>85</v>
       </c>
       <c r="W11" s="21">
-        <f>L11*0.2+Q11*0.25+T11*0.25+U11*0.3+V11*0.15</f>
+        <f t="shared" si="3"/>
         <v>68.166666666666671</v>
       </c>
     </row>
@@ -2323,7 +2330,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="16">
-        <f>SUM(D12:J12)*50/(L$1-K12)</f>
+        <f t="shared" si="0"/>
         <v>98.333333333333329</v>
       </c>
       <c r="M12" s="14">
@@ -2339,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="Q12" s="16">
-        <f>SUM(M12:O12)/(Q$1-P12)</f>
+        <f t="shared" si="1"/>
         <v>86.666666666666671</v>
       </c>
       <c r="R12" s="14">
@@ -2349,7 +2356,7 @@
         <v>-25</v>
       </c>
       <c r="T12" s="16">
-        <f>SUM(R12:S12)/T$1</f>
+        <f t="shared" si="2"/>
         <v>7.5</v>
       </c>
       <c r="U12" s="6">
@@ -2359,7 +2366,7 @@
         <v>65</v>
       </c>
       <c r="W12" s="21">
-        <f>L12*0.2+Q12*0.25+T12*0.25+U12*0.3+V12*0.15</f>
+        <f t="shared" si="3"/>
         <v>65.558333333333337</v>
       </c>
     </row>
@@ -2398,7 +2405,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="16">
-        <f>SUM(D13:J13)*50/(L$1-K13)</f>
+        <f t="shared" si="0"/>
         <v>115</v>
       </c>
       <c r="M13" s="14">
@@ -2414,7 +2421,7 @@
         <v>0</v>
       </c>
       <c r="Q13" s="16">
-        <f>SUM(M13:O13)/(Q$1-P13)</f>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="R13" s="14">
@@ -2424,7 +2431,7 @@
         <v>65</v>
       </c>
       <c r="T13" s="16">
-        <f>SUM(R13:S13)/T$1</f>
+        <f t="shared" si="2"/>
         <v>42.5</v>
       </c>
       <c r="U13" s="6">
@@ -2434,7 +2441,7 @@
         <v>65</v>
       </c>
       <c r="W13" s="21">
-        <f>L13*0.2+Q13*0.25+T13*0.25+U13*0.3+V13*0.15</f>
+        <f t="shared" si="3"/>
         <v>63.625</v>
       </c>
     </row>
@@ -2473,7 +2480,7 @@
         <v>1</v>
       </c>
       <c r="L14" s="16">
-        <f>SUM(D14:J14)*50/(L$1-K14)</f>
+        <f t="shared" si="0"/>
         <v>98.000000000000014</v>
       </c>
       <c r="M14" s="14">
@@ -2489,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="Q14" s="16">
-        <f>SUM(M14:O14)/(Q$1-P14)</f>
+        <f t="shared" si="1"/>
         <v>91.666666666666671</v>
       </c>
       <c r="R14" s="14">
@@ -2499,7 +2506,7 @@
         <v>-25</v>
       </c>
       <c r="T14" s="16">
-        <f>SUM(R14:S14)/T$1</f>
+        <f t="shared" si="2"/>
         <v>-25</v>
       </c>
       <c r="U14" s="6">
@@ -2509,7 +2516,7 @@
         <v>60</v>
       </c>
       <c r="W14" s="21">
-        <f>L14*0.2+Q14*0.25+T14*0.25+U14*0.3+V14*0.15</f>
+        <f t="shared" si="3"/>
         <v>60.866666666666674</v>
       </c>
     </row>
@@ -2548,7 +2555,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="16">
-        <f>SUM(D15:J15)*50/(L$1-K15)</f>
+        <f t="shared" si="0"/>
         <v>11.666666666666666</v>
       </c>
       <c r="M15" s="14">
@@ -2564,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="Q15" s="16">
-        <f>SUM(M15:O15)/(Q$1-P15)</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="R15" s="14">
@@ -2574,7 +2581,7 @@
         <v>61</v>
       </c>
       <c r="T15" s="16">
-        <f>SUM(R15:S15)/T$1</f>
+        <f t="shared" si="2"/>
         <v>50.5</v>
       </c>
       <c r="U15" s="6">
@@ -2624,7 +2631,7 @@
         <v>1</v>
       </c>
       <c r="L16" s="16">
-        <f>SUM(D16:J16)*50/(L$1-K16)</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="M16" s="14">
@@ -2640,7 +2647,7 @@
         <v>0</v>
       </c>
       <c r="Q16" s="16">
-        <f>SUM(M16:O16)/(Q$1-P16)</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="R16" s="14">
@@ -2650,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="16">
-        <f>SUM(R16:S16)/T$1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U16" s="6">
@@ -2699,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="16">
-        <f>SUM(D17:J17)*50/(L$1-K17)</f>
+        <f t="shared" si="0"/>
         <v>66.666666666666671</v>
       </c>
       <c r="M17" s="14">
@@ -2715,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="Q17" s="16">
-        <f>SUM(M17:O17)/(Q$1-P17)</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="R17" s="14">
@@ -2725,7 +2732,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="16">
-        <f>SUM(R17:S17)/T$1</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="U17" s="6">
@@ -2774,7 +2781,7 @@
         <v>3</v>
       </c>
       <c r="L18" s="16">
-        <f>SUM(D18:J18)*50/(L$1-K18)</f>
+        <f t="shared" si="0"/>
         <v>66.666666666666671</v>
       </c>
       <c r="M18" s="54" t="s">
@@ -2790,7 +2797,7 @@
         <v>1</v>
       </c>
       <c r="Q18" s="16">
-        <f>SUM(M18:O18)/(Q$1-P18)</f>
+        <f t="shared" si="1"/>
         <v>62.5</v>
       </c>
       <c r="R18" s="14">
@@ -2800,7 +2807,7 @@
         <v>20</v>
       </c>
       <c r="T18" s="16">
-        <f>SUM(R18:S18)/T$1</f>
+        <f t="shared" si="2"/>
         <v>40.5</v>
       </c>
       <c r="U18" s="6">
@@ -2850,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="16">
-        <f>SUM(D19:J19)*50/(L$1-K19)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="M19" s="14">
@@ -2866,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="Q19" s="16">
-        <f>SUM(M19:O19)/(Q$1-P19)</f>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="R19" s="14">
@@ -2876,7 +2883,7 @@
         <v>-25</v>
       </c>
       <c r="T19" s="16">
-        <f>SUM(R19:S19)/T$1</f>
+        <f t="shared" si="2"/>
         <v>-25</v>
       </c>
       <c r="U19" s="6">
@@ -2925,7 +2932,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="16">
-        <f>SUM(D20:J20)*50/(L$1-K20)</f>
+        <f t="shared" si="0"/>
         <v>83.333333333333329</v>
       </c>
       <c r="M20" s="14">
@@ -2941,7 +2948,7 @@
         <v>0</v>
       </c>
       <c r="Q20" s="16">
-        <f>SUM(M20:O20)/(Q$1-P20)</f>
+        <f t="shared" si="1"/>
         <v>33.333333333333336</v>
       </c>
       <c r="R20" s="14">
@@ -2951,7 +2958,7 @@
         <v>-25</v>
       </c>
       <c r="T20" s="16">
-        <f>SUM(R20:S20)/T$1</f>
+        <f t="shared" si="2"/>
         <v>-25</v>
       </c>
       <c r="U20" s="6">
@@ -3001,7 +3008,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="16">
-        <f>SUM(D21:J21)*50/(L$1-K21)</f>
+        <f t="shared" si="0"/>
         <v>16.666666666666668</v>
       </c>
       <c r="M21" s="14">
@@ -3017,7 +3024,7 @@
         <v>0</v>
       </c>
       <c r="Q21" s="16">
-        <f>SUM(M21:O21)/(Q$1-P21)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R21" s="14">
@@ -3027,7 +3034,7 @@
         <v>25</v>
       </c>
       <c r="T21" s="16">
-        <f>SUM(R21:S21)/T$1</f>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="U21" s="6">
@@ -3074,7 +3081,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="62">
-        <f>SUM(D22:J22)*50/(L$1-K22)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M22" s="63">
@@ -3090,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Q22" s="62">
-        <f>SUM(M22:O22)/(Q$1-P22)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R22" s="63">
@@ -3100,7 +3107,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="62">
-        <f>SUM(R22:S22)/T$1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U22" s="64">
@@ -3147,7 +3154,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="62">
-        <f>SUM(D23:J23)*50/(L$1-K23)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M23" s="63">
@@ -3163,7 +3170,7 @@
         <v>0</v>
       </c>
       <c r="Q23" s="62">
-        <f>SUM(M23:O23)/(Q$1-P23)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R23" s="63">
@@ -3173,7 +3180,7 @@
         <v>0</v>
       </c>
       <c r="T23" s="62">
-        <f>SUM(R23:S23)/T$1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U23" s="64">
@@ -3181,7 +3188,7 @@
       </c>
       <c r="V23" s="65"/>
       <c r="W23" s="66">
-        <f>L23*0.2+Q23*0.25+T23*0.25+U23*0.3+V23*0.15</f>
+        <f t="shared" ref="W23:W30" si="4">L23*0.2+Q23*0.25+T23*0.25+U23*0.3+V23*0.15</f>
         <v>0</v>
       </c>
     </row>
@@ -3220,7 +3227,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="62">
-        <f>SUM(D24:J24)*50/(L$1-K24)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M24" s="63">
@@ -3236,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="Q24" s="62">
-        <f>SUM(M24:O24)/(Q$1-P24)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R24" s="63">
@@ -3246,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="62">
-        <f>SUM(R24:S24)/T$1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U24" s="64">
@@ -3254,7 +3261,7 @@
       </c>
       <c r="V24" s="65"/>
       <c r="W24" s="66">
-        <f>L24*0.2+Q24*0.25+T24*0.25+U24*0.3+V24*0.15</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3293,7 +3300,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="62">
-        <f>SUM(D25:J25)*50/(L$1-K25)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M25" s="63">
@@ -3309,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="Q25" s="62">
-        <f>SUM(M25:O25)/(Q$1-P25)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R25" s="63">
@@ -3319,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="62">
-        <f>SUM(R25:S25)/T$1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U25" s="64">
@@ -3327,7 +3334,7 @@
       </c>
       <c r="V25" s="65"/>
       <c r="W25" s="66">
-        <f>L25*0.2+Q25*0.25+T25*0.25+U25*0.3+V25*0.15</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3366,7 +3373,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="62">
-        <f>SUM(D26:J26)*50/(L$1-K26)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M26" s="63">
@@ -3382,7 +3389,7 @@
         <v>0</v>
       </c>
       <c r="Q26" s="62">
-        <f>SUM(M26:O26)/(Q$1-P26)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R26" s="63">
@@ -3392,7 +3399,7 @@
         <v>0</v>
       </c>
       <c r="T26" s="62">
-        <f>SUM(R26:S26)/T$1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U26" s="64">
@@ -3400,7 +3407,7 @@
       </c>
       <c r="V26" s="65"/>
       <c r="W26" s="66">
-        <f>L26*0.2+Q26*0.25+T26*0.25+U26*0.3+V26*0.15</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3439,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="62">
-        <f>SUM(D27:J27)*50/(L$1-K27)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M27" s="63">
@@ -3455,7 +3462,7 @@
         <v>0</v>
       </c>
       <c r="Q27" s="62">
-        <f>SUM(M27:O27)/(Q$1-P27)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R27" s="63">
@@ -3465,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="T27" s="62">
-        <f>SUM(R27:S27)/T$1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U27" s="64">
@@ -3473,7 +3480,7 @@
       </c>
       <c r="V27" s="65"/>
       <c r="W27" s="66">
-        <f>L27*0.2+Q27*0.25+T27*0.25+U27*0.3+V27*0.15</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3512,7 +3519,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="62">
-        <f>SUM(D28:J28)*50/(L$1-K28)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M28" s="63">
@@ -3528,7 +3535,7 @@
         <v>0</v>
       </c>
       <c r="Q28" s="62">
-        <f>SUM(M28:O28)/(Q$1-P28)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R28" s="63">
@@ -3538,7 +3545,7 @@
         <v>0</v>
       </c>
       <c r="T28" s="62">
-        <f>SUM(R28:S28)/T$1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U28" s="64">
@@ -3546,7 +3553,7 @@
       </c>
       <c r="V28" s="65"/>
       <c r="W28" s="66">
-        <f>L28*0.2+Q28*0.25+T28*0.25+U28*0.3+V28*0.15</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3585,7 +3592,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="62">
-        <f>SUM(D29:J29)*50/(L$1-K29)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M29" s="63">
@@ -3601,7 +3608,7 @@
         <v>0</v>
       </c>
       <c r="Q29" s="62">
-        <f>SUM(M29:O29)/(Q$1-P29)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R29" s="63">
@@ -3611,7 +3618,7 @@
         <v>0</v>
       </c>
       <c r="T29" s="62">
-        <f>SUM(R29:S29)/T$1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U29" s="64">
@@ -3619,7 +3626,7 @@
       </c>
       <c r="V29" s="65"/>
       <c r="W29" s="66">
-        <f>L29*0.2+Q29*0.25+T29*0.25+U29*0.3+V29*0.15</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3658,7 +3665,7 @@
         <v>0</v>
       </c>
       <c r="L30" s="62">
-        <f>SUM(D30:J30)*50/(L$1-K30)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M30" s="63">
@@ -3674,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="Q30" s="62">
-        <f>SUM(M30:O30)/(Q$1-P30)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R30" s="63">
@@ -3684,7 +3691,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="62">
-        <f>SUM(R30:S30)/T$1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U30" s="64">
@@ -3692,7 +3699,7 @@
       </c>
       <c r="V30" s="65"/>
       <c r="W30" s="66">
-        <f>L30*0.2+Q30*0.25+T30*0.25+U30*0.3+V30*0.15</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X30" s="67"/>
@@ -4885,7 +4892,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4896,7 +4903,7 @@
     <col min="4" max="4" width="9.109375" style="73" customWidth="1"/>
     <col min="5" max="6" width="3.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="2.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.44140625" style="8" customWidth="1"/>
     <col min="10" max="10" width="4.44140625" style="1" customWidth="1"/>
     <col min="11" max="13" width="2.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="4.77734375" style="1" customWidth="1"/>
@@ -4907,7 +4914,7 @@
   <sheetData>
     <row r="1" spans="1:17" s="4" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="34"/>
@@ -4920,7 +4927,9 @@
       <c r="H1" s="77"/>
       <c r="I1" s="77"/>
       <c r="J1" s="78"/>
-      <c r="K1" s="77"/>
+      <c r="K1" s="77" t="s">
+        <v>100</v>
+      </c>
       <c r="L1" s="77"/>
       <c r="M1" s="77"/>
       <c r="N1" s="78"/>
@@ -4959,8 +4968,8 @@
       <c r="H2" s="27">
         <v>11</v>
       </c>
-      <c r="I2" s="27">
-        <v>12</v>
+      <c r="I2" s="79" t="s">
+        <v>94</v>
       </c>
       <c r="J2" s="28" t="s">
         <v>30</v>
@@ -5007,9 +5016,16 @@
       <c r="G3" s="7">
         <v>2</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="16"/>
+      <c r="H3" s="7">
+        <v>2</v>
+      </c>
+      <c r="I3" s="47">
+        <v>0</v>
+      </c>
+      <c r="J3" s="16">
+        <f>SUM(E3:H3)*50/(A$1-I3)</f>
+        <v>100</v>
+      </c>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
@@ -5038,9 +5054,16 @@
       <c r="G4" s="7">
         <v>2</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="16"/>
+      <c r="H4" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="I4" s="47">
+        <v>1</v>
+      </c>
+      <c r="J4" s="16">
+        <f t="shared" ref="J4:J30" si="0">SUM(E4:H4)*50/(A$1-I4)</f>
+        <v>100</v>
+      </c>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
@@ -5069,9 +5092,16 @@
       <c r="G5" s="7">
         <v>1</v>
       </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="16"/>
+      <c r="H5" s="7">
+        <v>2</v>
+      </c>
+      <c r="I5" s="47">
+        <v>0</v>
+      </c>
+      <c r="J5" s="16">
+        <f t="shared" si="0"/>
+        <v>81.25</v>
+      </c>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
@@ -5100,9 +5130,16 @@
       <c r="G6" s="7">
         <v>2</v>
       </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="16"/>
+      <c r="H6" s="7">
+        <v>2</v>
+      </c>
+      <c r="I6" s="47">
+        <v>0</v>
+      </c>
+      <c r="J6" s="16">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
@@ -5131,9 +5168,16 @@
       <c r="G7" s="7">
         <v>2</v>
       </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="16"/>
+      <c r="H7" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="I7" s="47">
+        <v>0</v>
+      </c>
+      <c r="J7" s="16">
+        <f t="shared" si="0"/>
+        <v>93.75</v>
+      </c>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
@@ -5156,15 +5200,22 @@
       <c r="E8" s="38">
         <v>2</v>
       </c>
-      <c r="F8" s="7">
-        <v>2</v>
+      <c r="F8" s="7" t="s">
+        <v>94</v>
       </c>
       <c r="G8" s="7">
         <v>0</v>
       </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="16"/>
+      <c r="H8" s="7">
+        <v>1.9</v>
+      </c>
+      <c r="I8" s="47">
+        <v>1</v>
+      </c>
+      <c r="J8" s="16">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
@@ -5193,9 +5244,16 @@
       <c r="G9" s="7">
         <v>2</v>
       </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="16"/>
+      <c r="H9" s="7">
+        <v>2</v>
+      </c>
+      <c r="I9" s="47">
+        <v>0</v>
+      </c>
+      <c r="J9" s="16">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
@@ -5218,15 +5276,22 @@
       <c r="E10" s="38">
         <v>2</v>
       </c>
-      <c r="F10" s="7">
-        <v>2</v>
+      <c r="F10" s="7" t="s">
+        <v>94</v>
       </c>
       <c r="G10" s="7">
         <v>0</v>
       </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="16"/>
+      <c r="H10" s="7">
+        <v>2</v>
+      </c>
+      <c r="I10" s="47">
+        <v>0</v>
+      </c>
+      <c r="J10" s="16">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
@@ -5255,9 +5320,16 @@
       <c r="G11" s="7">
         <v>2</v>
       </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="16"/>
+      <c r="H11" s="7">
+        <v>1.9</v>
+      </c>
+      <c r="I11" s="47">
+        <v>0</v>
+      </c>
+      <c r="J11" s="16">
+        <f t="shared" si="0"/>
+        <v>98.75</v>
+      </c>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
@@ -5286,9 +5358,16 @@
       <c r="G12" s="7">
         <v>2</v>
       </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="16"/>
+      <c r="H12" s="7">
+        <v>2</v>
+      </c>
+      <c r="I12" s="47">
+        <v>0</v>
+      </c>
+      <c r="J12" s="16">
+        <f t="shared" si="0"/>
+        <v>98.75</v>
+      </c>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
@@ -5317,9 +5396,16 @@
       <c r="G13" s="7">
         <v>2</v>
       </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="16"/>
+      <c r="H13" s="7">
+        <v>1.9</v>
+      </c>
+      <c r="I13" s="47">
+        <v>0</v>
+      </c>
+      <c r="J13" s="16">
+        <f t="shared" si="0"/>
+        <v>98.75</v>
+      </c>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
@@ -5342,15 +5428,22 @@
       <c r="E14" s="38">
         <v>2</v>
       </c>
-      <c r="F14" s="7">
-        <v>2</v>
+      <c r="F14" s="7" t="s">
+        <v>94</v>
       </c>
       <c r="G14" s="7">
         <v>0</v>
       </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="16"/>
+      <c r="H14" s="7">
+        <v>2</v>
+      </c>
+      <c r="I14" s="47">
+        <v>1</v>
+      </c>
+      <c r="J14" s="16">
+        <f t="shared" si="0"/>
+        <v>66.666666666666671</v>
+      </c>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
@@ -5379,9 +5472,16 @@
       <c r="G15" s="7">
         <v>0</v>
       </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="16"/>
+      <c r="H15" s="7">
+        <v>0</v>
+      </c>
+      <c r="I15" s="47">
+        <v>0</v>
+      </c>
+      <c r="J15" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
@@ -5410,9 +5510,16 @@
       <c r="G16" s="7">
         <v>0</v>
       </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="16"/>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="47">
+        <v>0</v>
+      </c>
+      <c r="J16" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
@@ -5441,9 +5548,16 @@
       <c r="G17" s="7">
         <v>2</v>
       </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="16"/>
+      <c r="H17" s="7">
+        <v>1.7</v>
+      </c>
+      <c r="I17" s="47">
+        <v>0</v>
+      </c>
+      <c r="J17" s="16">
+        <f t="shared" si="0"/>
+        <v>81.25</v>
+      </c>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
@@ -5472,9 +5586,16 @@
       <c r="G18" s="7">
         <v>0</v>
       </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="16"/>
+      <c r="H18" s="7">
+        <v>0</v>
+      </c>
+      <c r="I18" s="47">
+        <v>0</v>
+      </c>
+      <c r="J18" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
@@ -5503,9 +5624,16 @@
       <c r="G19" s="7">
         <v>0</v>
       </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="16"/>
+      <c r="H19" s="7">
+        <v>0</v>
+      </c>
+      <c r="I19" s="47">
+        <v>0</v>
+      </c>
+      <c r="J19" s="16">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
@@ -5534,9 +5662,16 @@
       <c r="G20" s="7">
         <v>2</v>
       </c>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="16"/>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="47">
+        <v>0</v>
+      </c>
+      <c r="J20" s="16">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
@@ -5565,9 +5700,16 @@
       <c r="G21" s="7">
         <v>0</v>
       </c>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="16"/>
+      <c r="H21" s="7">
+        <v>0</v>
+      </c>
+      <c r="I21" s="47">
+        <v>0</v>
+      </c>
+      <c r="J21" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
@@ -5596,9 +5738,16 @@
       <c r="G22" s="7">
         <v>0</v>
       </c>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="16"/>
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="47">
+        <v>0</v>
+      </c>
+      <c r="J22" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
@@ -5627,9 +5776,16 @@
       <c r="G23" s="7">
         <v>0</v>
       </c>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="16"/>
+      <c r="H23" s="7">
+        <v>0</v>
+      </c>
+      <c r="I23" s="47">
+        <v>0</v>
+      </c>
+      <c r="J23" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
@@ -5658,9 +5814,16 @@
       <c r="G24" s="7">
         <v>0</v>
       </c>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="16"/>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="47">
+        <v>0</v>
+      </c>
+      <c r="J24" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
@@ -5689,9 +5852,16 @@
       <c r="G25" s="7">
         <v>0</v>
       </c>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="16"/>
+      <c r="H25" s="7">
+        <v>0</v>
+      </c>
+      <c r="I25" s="47">
+        <v>0</v>
+      </c>
+      <c r="J25" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
@@ -5720,9 +5890,16 @@
       <c r="G26" s="7">
         <v>0</v>
       </c>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="16"/>
+      <c r="H26" s="7">
+        <v>0</v>
+      </c>
+      <c r="I26" s="47">
+        <v>0</v>
+      </c>
+      <c r="J26" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
@@ -5751,9 +5928,16 @@
       <c r="G27" s="7">
         <v>0</v>
       </c>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="16"/>
+      <c r="H27" s="7">
+        <v>0</v>
+      </c>
+      <c r="I27" s="47">
+        <v>0</v>
+      </c>
+      <c r="J27" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
@@ -5782,9 +5966,16 @@
       <c r="G28" s="7">
         <v>0</v>
       </c>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="16"/>
+      <c r="H28" s="7">
+        <v>0</v>
+      </c>
+      <c r="I28" s="47">
+        <v>0</v>
+      </c>
+      <c r="J28" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
@@ -5813,9 +6004,16 @@
       <c r="G29" s="7">
         <v>0</v>
       </c>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="16"/>
+      <c r="H29" s="7">
+        <v>0</v>
+      </c>
+      <c r="I29" s="47">
+        <v>0</v>
+      </c>
+      <c r="J29" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
@@ -5844,9 +6042,16 @@
       <c r="G30" s="7">
         <v>0</v>
       </c>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="16"/>
+      <c r="H30" s="7">
+        <v>0</v>
+      </c>
+      <c r="I30" s="47">
+        <v>0</v>
+      </c>
+      <c r="J30" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
@@ -5864,7 +6069,7 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
+      <c r="I31" s="80"/>
       <c r="J31" s="16"/>
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
@@ -5883,7 +6088,7 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
+      <c r="I32" s="80"/>
       <c r="J32" s="16"/>
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
@@ -5902,7 +6107,7 @@
       <c r="F33" s="13"/>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
-      <c r="I33" s="13"/>
+      <c r="I33" s="80"/>
       <c r="J33" s="16"/>
       <c r="K33" s="6"/>
       <c r="L33" s="15"/>
@@ -5921,6 +6126,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
     </row>
     <row r="35" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
@@ -5931,7 +6137,6 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
-      <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
@@ -5947,7 +6152,6 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
-      <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
@@ -5963,7 +6167,6 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
-      <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
@@ -5979,7 +6182,6 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
-      <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
@@ -5995,7 +6197,6 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
-      <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c r="L39" s="9"/>
@@ -6011,7 +6212,6 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
-      <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
@@ -6027,7 +6227,6 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
-      <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c r="L41" s="9"/>
@@ -6043,7 +6242,6 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
-      <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c r="L42" s="9"/>
@@ -6059,7 +6257,6 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
-      <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c r="L43" s="9"/>
@@ -6075,7 +6272,6 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
-      <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c r="L44" s="9"/>
@@ -6091,7 +6287,6 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
-      <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c r="L45" s="9"/>
@@ -6107,7 +6302,6 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
-      <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c r="L46" s="9"/>
@@ -6123,7 +6317,6 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
-      <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c r="L47" s="9"/>
@@ -6139,7 +6332,6 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
-      <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c r="L48" s="9"/>
@@ -6155,7 +6347,6 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c r="H49" s="8"/>
-      <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c r="L49" s="9"/>
@@ -6171,7 +6362,6 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c r="H50" s="8"/>
-      <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c r="L50" s="9"/>
@@ -6187,7 +6377,6 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c r="H51" s="8"/>
-      <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c r="L51" s="9"/>
@@ -6203,7 +6392,6 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c r="H52" s="8"/>
-      <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c r="L52" s="9"/>
@@ -6219,7 +6407,6 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c r="H53" s="8"/>
-      <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c r="L53" s="9"/>
@@ -6235,7 +6422,6 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c r="H54" s="8"/>
-      <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c r="L54" s="9"/>
@@ -6251,7 +6437,6 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c r="H55" s="8"/>
-      <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c r="L55" s="9"/>
@@ -6267,7 +6452,6 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c r="H56" s="8"/>
-      <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c r="L56" s="9"/>
@@ -6283,7 +6467,6 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c r="H57" s="8"/>
-      <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c r="L57" s="9"/>
@@ -6299,7 +6482,6 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c r="H58" s="8"/>
-      <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c r="L58" s="9"/>
@@ -6315,7 +6497,6 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c r="H59" s="8"/>
-      <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c r="L59" s="9"/>
@@ -6331,7 +6512,6 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c r="H60" s="8"/>
-      <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c r="L60" s="9"/>
@@ -6347,7 +6527,6 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c r="H61" s="8"/>
-      <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c r="L61" s="9"/>
@@ -6363,7 +6542,6 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c r="H62" s="8"/>
-      <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c r="L62" s="9"/>
@@ -6379,7 +6557,6 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c r="H63" s="8"/>
-      <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c r="L63" s="9"/>
@@ -6395,7 +6572,6 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c r="H64" s="8"/>
-      <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c r="L64" s="9"/>
@@ -6411,7 +6587,6 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c r="H65" s="8"/>
-      <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c r="L65" s="9"/>
@@ -6427,7 +6602,6 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c r="H66" s="8"/>
-      <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c r="L66" s="9"/>
@@ -6443,7 +6617,6 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c r="H67" s="8"/>
-      <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c r="L67" s="9"/>
@@ -6459,7 +6632,6 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c r="H68" s="8"/>
-      <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c r="L68" s="9"/>
@@ -6475,7 +6647,6 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c r="H69" s="8"/>
-      <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c r="L69" s="9"/>
@@ -6491,7 +6662,6 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c r="H70" s="8"/>
-      <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c r="L70" s="9"/>
@@ -6507,7 +6677,6 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c r="H71" s="8"/>
-      <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c r="L71" s="9"/>
@@ -6523,7 +6692,6 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c r="H72" s="8"/>
-      <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c r="L72" s="9"/>
@@ -6539,7 +6707,6 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c r="H73" s="8"/>
-      <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c r="L73" s="9"/>
@@ -6555,7 +6722,6 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c r="H74" s="8"/>
-      <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c r="L74" s="9"/>
@@ -6571,7 +6737,6 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c r="H75" s="8"/>
-      <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c r="L75" s="9"/>
@@ -6587,7 +6752,6 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c r="H76" s="8"/>
-      <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c r="L76" s="9"/>
@@ -6603,7 +6767,6 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c r="H77" s="8"/>
-      <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c r="L77" s="9"/>
@@ -6619,7 +6782,6 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c r="H78" s="8"/>
-      <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c r="L78" s="9"/>
@@ -6635,7 +6797,6 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c r="H79" s="8"/>
-      <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c r="L79" s="9"/>
@@ -6651,7 +6812,6 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c r="H80" s="8"/>
-      <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c r="L80" s="9"/>
@@ -6667,7 +6827,6 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c r="H81" s="8"/>
-      <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c r="L81" s="9"/>
@@ -6682,7 +6841,7 @@
     <mergeCell ref="E1:J1"/>
     <mergeCell ref="K1:N1"/>
   </mergeCells>
-  <conditionalFormatting sqref="E3:I33">
+  <conditionalFormatting sqref="E31:I33 E3:H30">
     <cfRule type="cellIs" dxfId="10" priority="26" operator="between">
       <formula>0.1</formula>
       <formula>1.99</formula>

--- a/AdvancedJava/_docs/Notlar.xlsx
+++ b/AdvancedJava/_docs/Notlar.xlsx
@@ -226,9 +226,6 @@
     <t>BONUS (%15)</t>
   </si>
   <si>
-    <t>SINAV (%50)</t>
-  </si>
-  <si>
     <t>HR160028</t>
   </si>
   <si>
@@ -397,7 +394,10 @@
     <t>,</t>
   </si>
   <si>
-    <t>LAB (%30)</t>
+    <t>ODEV (%35)</t>
+  </si>
+  <si>
+    <t>PROJE (%45)</t>
   </si>
 </sst>
 </file>
@@ -822,7 +822,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -844,7 +844,6 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1488,7 +1487,7 @@
     <col min="3" max="3" width="9.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="3.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="2.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.44140625" style="52" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.44140625" style="51" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="2.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="2.44140625" style="1" customWidth="1"/>
     <col min="11" max="11" width="2.44140625" style="1" bestFit="1" customWidth="1"/>
@@ -1507,129 +1506,129 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="4" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30"/>
-      <c r="B1" s="18"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="74" t="s">
+      <c r="A1" s="29"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="45">
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="44">
         <v>6</v>
       </c>
-      <c r="M1" s="76" t="s">
+      <c r="M1" s="75" t="s">
+        <v>92</v>
+      </c>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="43">
+        <v>3</v>
+      </c>
+      <c r="R1" s="75" t="s">
+        <v>97</v>
+      </c>
+      <c r="S1" s="76"/>
+      <c r="T1" s="43">
+        <v>2</v>
+      </c>
+      <c r="U1" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="V1" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="W1" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" s="5" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="25">
+        <v>1</v>
+      </c>
+      <c r="E2" s="26">
+        <v>2</v>
+      </c>
+      <c r="F2" s="26">
+        <v>3</v>
+      </c>
+      <c r="G2" s="26">
+        <v>4</v>
+      </c>
+      <c r="H2" s="48">
+        <v>5</v>
+      </c>
+      <c r="I2" s="26">
+        <v>6</v>
+      </c>
+      <c r="J2" s="26">
+        <v>7</v>
+      </c>
+      <c r="K2" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="44">
-        <v>3</v>
-      </c>
-      <c r="R1" s="76" t="s">
-        <v>98</v>
-      </c>
-      <c r="S1" s="77"/>
-      <c r="T1" s="44">
-        <v>2</v>
-      </c>
-      <c r="U1" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="V1" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="W1" s="19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" s="5" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="25" t="s">
+      <c r="L2" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="25">
+        <v>4</v>
+      </c>
+      <c r="N2" s="26">
+        <v>5</v>
+      </c>
+      <c r="O2" s="26">
+        <v>7</v>
+      </c>
+      <c r="P2" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q2" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" s="25">
         <v>1</v>
       </c>
-      <c r="D2" s="26">
-        <v>1</v>
-      </c>
-      <c r="E2" s="27">
-        <v>2</v>
-      </c>
-      <c r="F2" s="27">
-        <v>3</v>
-      </c>
-      <c r="G2" s="27">
-        <v>4</v>
-      </c>
-      <c r="H2" s="49">
-        <v>5</v>
-      </c>
-      <c r="I2" s="27">
-        <v>6</v>
-      </c>
-      <c r="J2" s="27">
-        <v>7</v>
-      </c>
-      <c r="K2" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="L2" s="28" t="s">
+      <c r="S2" s="36">
+        <v>2</v>
+      </c>
+      <c r="T2" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="26">
-        <v>4</v>
-      </c>
-      <c r="N2" s="27">
-        <v>5</v>
-      </c>
-      <c r="O2" s="27">
-        <v>7</v>
-      </c>
-      <c r="P2" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q2" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="R2" s="26">
-        <v>1</v>
-      </c>
-      <c r="S2" s="37">
-        <v>2</v>
-      </c>
-      <c r="T2" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="U2" s="26" t="s">
+      <c r="U2" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="V2" s="42" t="s">
+      <c r="V2" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="W2" s="19" t="s">
+      <c r="W2" s="18" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>46</v>
-      </c>
       <c r="D3" s="12">
         <v>2</v>
       </c>
@@ -1642,7 +1641,7 @@
       <c r="G3" s="7">
         <v>2</v>
       </c>
-      <c r="H3" s="50">
+      <c r="H3" s="49">
         <v>2</v>
       </c>
       <c r="I3" s="7">
@@ -1651,10 +1650,10 @@
       <c r="J3" s="7">
         <v>2</v>
       </c>
-      <c r="K3" s="47">
-        <v>0</v>
-      </c>
-      <c r="L3" s="16">
+      <c r="K3" s="46">
+        <v>0</v>
+      </c>
+      <c r="L3" s="15">
         <f t="shared" ref="L3:L30" si="0">SUM(D3:J3)*50/(L$1-K3)</f>
         <v>116.66666666666667</v>
       </c>
@@ -1667,10 +1666,10 @@
       <c r="O3" s="6">
         <v>100</v>
       </c>
-      <c r="P3" s="47">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="16">
+      <c r="P3" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="15">
         <f t="shared" ref="Q3:Q30" si="1">SUM(M3:O3)/(Q$1-P3)</f>
         <v>100</v>
       </c>
@@ -1680,15 +1679,15 @@
       <c r="S3" s="14">
         <v>100</v>
       </c>
-      <c r="T3" s="16">
+      <c r="T3" s="15">
         <f t="shared" ref="T3:T30" si="2">SUM(R3:S3)/T$1</f>
         <v>100</v>
       </c>
       <c r="U3" s="6">
         <v>100</v>
       </c>
-      <c r="V3" s="43"/>
-      <c r="W3" s="21">
+      <c r="V3" s="42"/>
+      <c r="W3" s="20">
         <v>100</v>
       </c>
       <c r="X3" s="1" t="s">
@@ -1696,15 +1695,15 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>83</v>
-      </c>
       <c r="D4" s="12">
         <v>0</v>
       </c>
@@ -1717,7 +1716,7 @@
       <c r="G4" s="7">
         <v>2</v>
       </c>
-      <c r="H4" s="50">
+      <c r="H4" s="49">
         <v>2</v>
       </c>
       <c r="I4" s="7">
@@ -1726,10 +1725,10 @@
       <c r="J4" s="7">
         <v>2</v>
       </c>
-      <c r="K4" s="47">
-        <v>0</v>
-      </c>
-      <c r="L4" s="16">
+      <c r="K4" s="46">
+        <v>0</v>
+      </c>
+      <c r="L4" s="15">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -1742,10 +1741,10 @@
       <c r="O4" s="6">
         <v>90</v>
       </c>
-      <c r="P4" s="47">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="16">
+      <c r="P4" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="15">
         <f t="shared" si="1"/>
         <v>93.333333333333329</v>
       </c>
@@ -1755,30 +1754,30 @@
       <c r="S4" s="14">
         <v>80</v>
       </c>
-      <c r="T4" s="16">
+      <c r="T4" s="15">
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="U4" s="6">
         <v>80</v>
       </c>
-      <c r="V4" s="43">
+      <c r="V4" s="42">
         <v>50</v>
       </c>
-      <c r="W4" s="21">
+      <c r="W4" s="20">
         <f>L4*0.2+Q4*0.25+T4*0.25+U4*0.3+V4*0.1</f>
         <v>92.333333333333329</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="C5" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" s="12">
         <v>0</v>
@@ -1792,7 +1791,7 @@
       <c r="G5" s="7">
         <v>2</v>
       </c>
-      <c r="H5" s="50">
+      <c r="H5" s="49">
         <v>1.7</v>
       </c>
       <c r="I5" s="7">
@@ -1801,10 +1800,10 @@
       <c r="J5" s="7">
         <v>2</v>
       </c>
-      <c r="K5" s="47">
-        <v>0</v>
-      </c>
-      <c r="L5" s="16">
+      <c r="K5" s="46">
+        <v>0</v>
+      </c>
+      <c r="L5" s="15">
         <f t="shared" si="0"/>
         <v>97.5</v>
       </c>
@@ -1817,10 +1816,10 @@
       <c r="O5" s="6">
         <v>50</v>
       </c>
-      <c r="P5" s="47">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="16">
+      <c r="P5" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="15">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
@@ -1830,31 +1829,31 @@
       <c r="S5" s="14">
         <v>50</v>
       </c>
-      <c r="T5" s="16">
+      <c r="T5" s="15">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="U5" s="6">
         <v>66</v>
       </c>
-      <c r="V5" s="43">
+      <c r="V5" s="42">
         <v>90</v>
       </c>
-      <c r="W5" s="21">
+      <c r="W5" s="20">
         <f t="shared" ref="W5:W14" si="3">L5*0.2+Q5*0.25+T5*0.25+U5*0.3+V5*0.15</f>
         <v>81.55</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>62</v>
-      </c>
       <c r="D6" s="12">
         <v>0</v>
       </c>
@@ -1867,7 +1866,7 @@
       <c r="G6" s="7">
         <v>2</v>
       </c>
-      <c r="H6" s="50">
+      <c r="H6" s="49">
         <v>2</v>
       </c>
       <c r="I6" s="7">
@@ -1876,10 +1875,10 @@
       <c r="J6" s="7">
         <v>2</v>
       </c>
-      <c r="K6" s="47">
-        <v>0</v>
-      </c>
-      <c r="L6" s="16">
+      <c r="K6" s="46">
+        <v>0</v>
+      </c>
+      <c r="L6" s="15">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -1892,10 +1891,10 @@
       <c r="O6" s="6">
         <v>90</v>
       </c>
-      <c r="P6" s="47">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="16">
+      <c r="P6" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="15">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
@@ -1905,31 +1904,31 @@
       <c r="S6" s="14">
         <v>20</v>
       </c>
-      <c r="T6" s="16">
+      <c r="T6" s="15">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="U6" s="6">
         <v>53</v>
       </c>
-      <c r="V6" s="43">
+      <c r="V6" s="42">
         <v>50</v>
       </c>
-      <c r="W6" s="21">
+      <c r="W6" s="20">
         <f t="shared" si="3"/>
         <v>73.400000000000006</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>65</v>
-      </c>
       <c r="D7" s="12">
         <v>0</v>
       </c>
@@ -1942,7 +1941,7 @@
       <c r="G7" s="7">
         <v>2</v>
       </c>
-      <c r="H7" s="50">
+      <c r="H7" s="49">
         <v>2</v>
       </c>
       <c r="I7" s="7">
@@ -1951,10 +1950,10 @@
       <c r="J7" s="7">
         <v>2</v>
       </c>
-      <c r="K7" s="47">
-        <v>0</v>
-      </c>
-      <c r="L7" s="16">
+      <c r="K7" s="46">
+        <v>0</v>
+      </c>
+      <c r="L7" s="15">
         <f t="shared" si="0"/>
         <v>81.666666666666671</v>
       </c>
@@ -1967,10 +1966,10 @@
       <c r="O7" s="6">
         <v>90</v>
       </c>
-      <c r="P7" s="47">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="16">
+      <c r="P7" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="15">
         <f t="shared" si="1"/>
         <v>93.333333333333329</v>
       </c>
@@ -1980,27 +1979,27 @@
       <c r="S7" s="14">
         <v>61</v>
       </c>
-      <c r="T7" s="16">
+      <c r="T7" s="15">
         <f t="shared" si="2"/>
         <v>35.5</v>
       </c>
       <c r="U7" s="6">
         <v>40</v>
       </c>
-      <c r="V7" s="43">
+      <c r="V7" s="42">
         <v>85</v>
       </c>
-      <c r="W7" s="21">
+      <c r="W7" s="20">
         <f t="shared" si="3"/>
         <v>73.291666666666671</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
-        <v>48</v>
+      <c r="A8" s="19" t="s">
+        <v>47</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>6</v>
@@ -2017,7 +2016,7 @@
       <c r="G8" s="7">
         <v>2</v>
       </c>
-      <c r="H8" s="50">
+      <c r="H8" s="49">
         <v>2</v>
       </c>
       <c r="I8" s="7">
@@ -2026,10 +2025,10 @@
       <c r="J8" s="7">
         <v>2</v>
       </c>
-      <c r="K8" s="47">
-        <v>0</v>
-      </c>
-      <c r="L8" s="16">
+      <c r="K8" s="46">
+        <v>0</v>
+      </c>
+      <c r="L8" s="15">
         <f t="shared" si="0"/>
         <v>116.66666666666667</v>
       </c>
@@ -2042,10 +2041,10 @@
       <c r="O8" s="6">
         <v>90</v>
       </c>
-      <c r="P8" s="47">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="16">
+      <c r="P8" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="15">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
@@ -2055,31 +2054,31 @@
       <c r="S8" s="14">
         <v>-25</v>
       </c>
-      <c r="T8" s="16">
+      <c r="T8" s="15">
         <f t="shared" si="2"/>
         <v>7.5</v>
       </c>
       <c r="U8" s="6">
         <v>42</v>
       </c>
-      <c r="V8" s="43">
+      <c r="V8" s="42">
         <v>75</v>
       </c>
-      <c r="W8" s="21">
+      <c r="W8" s="20">
         <f t="shared" si="3"/>
         <v>72.808333333333337</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>80</v>
-      </c>
       <c r="D9" s="12">
         <v>0</v>
       </c>
@@ -2092,7 +2091,7 @@
       <c r="G9" s="7">
         <v>2</v>
       </c>
-      <c r="H9" s="50">
+      <c r="H9" s="49">
         <v>2</v>
       </c>
       <c r="I9" s="7">
@@ -2101,10 +2100,10 @@
       <c r="J9" s="7">
         <v>2</v>
       </c>
-      <c r="K9" s="47">
-        <v>0</v>
-      </c>
-      <c r="L9" s="16">
+      <c r="K9" s="46">
+        <v>0</v>
+      </c>
+      <c r="L9" s="15">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -2117,10 +2116,10 @@
       <c r="O9" s="6">
         <v>80</v>
       </c>
-      <c r="P9" s="47">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="16">
+      <c r="P9" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="15">
         <f t="shared" si="1"/>
         <v>83.333333333333329</v>
       </c>
@@ -2130,30 +2129,30 @@
       <c r="S9" s="14">
         <v>30</v>
       </c>
-      <c r="T9" s="16">
+      <c r="T9" s="15">
         <f t="shared" si="2"/>
         <v>52.5</v>
       </c>
       <c r="U9" s="6">
         <v>16</v>
       </c>
-      <c r="V9" s="43">
+      <c r="V9" s="42">
         <v>90</v>
       </c>
-      <c r="W9" s="21">
+      <c r="W9" s="20">
         <f t="shared" si="3"/>
         <v>72.258333333333326</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
-        <v>66</v>
+      <c r="A10" s="19" t="s">
+        <v>65</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D10" s="12">
         <v>0</v>
@@ -2167,7 +2166,7 @@
       <c r="G10" s="7">
         <v>2</v>
       </c>
-      <c r="H10" s="50">
+      <c r="H10" s="49">
         <v>2</v>
       </c>
       <c r="I10" s="7">
@@ -2176,10 +2175,10 @@
       <c r="J10" s="7">
         <v>2</v>
       </c>
-      <c r="K10" s="47">
-        <v>0</v>
-      </c>
-      <c r="L10" s="16">
+      <c r="K10" s="46">
+        <v>0</v>
+      </c>
+      <c r="L10" s="15">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -2192,10 +2191,10 @@
       <c r="O10" s="6">
         <v>90</v>
       </c>
-      <c r="P10" s="47">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="16">
+      <c r="P10" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="15">
         <f t="shared" si="1"/>
         <v>93.333333333333329</v>
       </c>
@@ -2205,31 +2204,31 @@
       <c r="S10" s="14">
         <v>-25</v>
       </c>
-      <c r="T10" s="16">
+      <c r="T10" s="15">
         <f t="shared" si="2"/>
         <v>7.5</v>
       </c>
       <c r="U10" s="6">
         <v>42</v>
       </c>
-      <c r="V10" s="43">
+      <c r="V10" s="42">
         <v>95</v>
       </c>
-      <c r="W10" s="21">
+      <c r="W10" s="20">
         <f t="shared" si="3"/>
         <v>72.058333333333337</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
-        <v>57</v>
+      <c r="A11" s="19" t="s">
+        <v>56</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>56</v>
-      </c>
       <c r="D11" s="12">
         <v>2</v>
       </c>
@@ -2242,7 +2241,7 @@
       <c r="G11" s="7">
         <v>2</v>
       </c>
-      <c r="H11" s="50">
+      <c r="H11" s="49">
         <v>2</v>
       </c>
       <c r="I11" s="7">
@@ -2251,10 +2250,10 @@
       <c r="J11" s="7">
         <v>1.8</v>
       </c>
-      <c r="K11" s="47">
-        <v>0</v>
-      </c>
-      <c r="L11" s="16">
+      <c r="K11" s="46">
+        <v>0</v>
+      </c>
+      <c r="L11" s="15">
         <f t="shared" si="0"/>
         <v>115</v>
       </c>
@@ -2267,10 +2266,10 @@
       <c r="O11" s="6">
         <v>60</v>
       </c>
-      <c r="P11" s="47">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="16">
+      <c r="P11" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="15">
         <f t="shared" si="1"/>
         <v>76.666666666666671</v>
       </c>
@@ -2280,30 +2279,30 @@
       <c r="S11" s="14">
         <v>30</v>
       </c>
-      <c r="T11" s="16">
+      <c r="T11" s="15">
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="U11" s="6">
         <v>15</v>
       </c>
-      <c r="V11" s="43">
+      <c r="V11" s="42">
         <v>85</v>
       </c>
-      <c r="W11" s="21">
+      <c r="W11" s="20">
         <f t="shared" si="3"/>
         <v>68.166666666666671</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
-        <v>76</v>
+      <c r="A12" s="19" t="s">
+        <v>75</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D12" s="12">
         <v>0</v>
@@ -2317,7 +2316,7 @@
       <c r="G12" s="7">
         <v>1.8</v>
       </c>
-      <c r="H12" s="50">
+      <c r="H12" s="49">
         <v>2</v>
       </c>
       <c r="I12" s="7">
@@ -2326,10 +2325,10 @@
       <c r="J12" s="7">
         <v>2</v>
       </c>
-      <c r="K12" s="47">
-        <v>0</v>
-      </c>
-      <c r="L12" s="16">
+      <c r="K12" s="46">
+        <v>0</v>
+      </c>
+      <c r="L12" s="15">
         <f t="shared" si="0"/>
         <v>98.333333333333329</v>
       </c>
@@ -2342,10 +2341,10 @@
       <c r="O12" s="6">
         <v>70</v>
       </c>
-      <c r="P12" s="47">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="16">
+      <c r="P12" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="15">
         <f t="shared" si="1"/>
         <v>86.666666666666671</v>
       </c>
@@ -2355,31 +2354,31 @@
       <c r="S12" s="14">
         <v>-25</v>
       </c>
-      <c r="T12" s="16">
+      <c r="T12" s="15">
         <f t="shared" si="2"/>
         <v>7.5</v>
       </c>
       <c r="U12" s="6">
         <v>42</v>
       </c>
-      <c r="V12" s="43">
+      <c r="V12" s="42">
         <v>65</v>
       </c>
-      <c r="W12" s="21">
+      <c r="W12" s="20">
         <f t="shared" si="3"/>
         <v>65.558333333333337</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
-        <v>53</v>
+      <c r="A13" s="19" t="s">
+        <v>52</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>52</v>
-      </c>
       <c r="D13" s="12">
         <v>2</v>
       </c>
@@ -2392,7 +2391,7 @@
       <c r="G13" s="7">
         <v>2</v>
       </c>
-      <c r="H13" s="50">
+      <c r="H13" s="49">
         <v>2</v>
       </c>
       <c r="I13" s="7">
@@ -2401,10 +2400,10 @@
       <c r="J13" s="7">
         <v>1.8</v>
       </c>
-      <c r="K13" s="47">
-        <v>0</v>
-      </c>
-      <c r="L13" s="16">
+      <c r="K13" s="46">
+        <v>0</v>
+      </c>
+      <c r="L13" s="15">
         <f t="shared" si="0"/>
         <v>115</v>
       </c>
@@ -2417,10 +2416,10 @@
       <c r="O13" s="6">
         <v>50</v>
       </c>
-      <c r="P13" s="47">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="16">
+      <c r="P13" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="15">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
@@ -2430,31 +2429,31 @@
       <c r="S13" s="14">
         <v>65</v>
       </c>
-      <c r="T13" s="16">
+      <c r="T13" s="15">
         <f t="shared" si="2"/>
         <v>42.5</v>
       </c>
       <c r="U13" s="6">
         <v>5</v>
       </c>
-      <c r="V13" s="43">
+      <c r="V13" s="42">
         <v>65</v>
       </c>
-      <c r="W13" s="21">
+      <c r="W13" s="20">
         <f t="shared" si="3"/>
         <v>63.625</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="C14" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>70</v>
-      </c>
       <c r="D14" s="12">
         <v>0</v>
       </c>
@@ -2467,8 +2466,8 @@
       <c r="G14" s="7">
         <v>2</v>
       </c>
-      <c r="H14" s="50" t="s">
-        <v>94</v>
+      <c r="H14" s="49" t="s">
+        <v>93</v>
       </c>
       <c r="I14" s="7">
         <v>1.8</v>
@@ -2476,10 +2475,10 @@
       <c r="J14" s="7">
         <v>2</v>
       </c>
-      <c r="K14" s="48">
+      <c r="K14" s="47">
         <v>1</v>
       </c>
-      <c r="L14" s="16">
+      <c r="L14" s="15">
         <f t="shared" si="0"/>
         <v>98.000000000000014</v>
       </c>
@@ -2492,10 +2491,10 @@
       <c r="O14" s="6">
         <v>80</v>
       </c>
-      <c r="P14" s="47">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="16">
+      <c r="P14" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="15">
         <f t="shared" si="1"/>
         <v>91.666666666666671</v>
       </c>
@@ -2505,31 +2504,31 @@
       <c r="S14" s="14">
         <v>-25</v>
       </c>
-      <c r="T14" s="16">
+      <c r="T14" s="15">
         <f t="shared" si="2"/>
         <v>-25</v>
       </c>
       <c r="U14" s="6">
         <v>52</v>
       </c>
-      <c r="V14" s="43">
+      <c r="V14" s="42">
         <v>60</v>
       </c>
-      <c r="W14" s="21">
+      <c r="W14" s="20">
         <f t="shared" si="3"/>
         <v>60.866666666666674</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="C15" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="C15" s="11" t="s">
-        <v>92</v>
-      </c>
       <c r="D15" s="12">
         <v>0</v>
       </c>
@@ -2542,7 +2541,7 @@
       <c r="G15" s="7">
         <v>0</v>
       </c>
-      <c r="H15" s="50">
+      <c r="H15" s="49">
         <v>0</v>
       </c>
       <c r="I15" s="7">
@@ -2551,10 +2550,10 @@
       <c r="J15" s="7">
         <v>0.5</v>
       </c>
-      <c r="K15" s="47">
-        <v>0</v>
-      </c>
-      <c r="L15" s="16">
+      <c r="K15" s="46">
+        <v>0</v>
+      </c>
+      <c r="L15" s="15">
         <f t="shared" si="0"/>
         <v>11.666666666666666</v>
       </c>
@@ -2567,10 +2566,10 @@
       <c r="O15" s="6">
         <v>80</v>
       </c>
-      <c r="P15" s="47">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="16">
+      <c r="P15" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="15">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
@@ -2580,37 +2579,37 @@
       <c r="S15" s="14">
         <v>61</v>
       </c>
-      <c r="T15" s="16">
+      <c r="T15" s="15">
         <f t="shared" si="2"/>
         <v>50.5</v>
       </c>
       <c r="U15" s="6">
         <v>73</v>
       </c>
-      <c r="V15" s="43">
+      <c r="V15" s="42">
         <v>80</v>
       </c>
-      <c r="W15" s="21">
+      <c r="W15" s="20">
         <f>L15*0.2+Q15*0.25+T15*0.25+U15*0.3+V15*0.1</f>
         <v>54.858333333333334</v>
       </c>
       <c r="X15" s="9"/>
     </row>
     <row r="16" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="C16" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C16" s="11" t="s">
-        <v>86</v>
-      </c>
       <c r="D16" s="12">
         <v>0</v>
       </c>
-      <c r="E16" s="50" t="s">
-        <v>94</v>
+      <c r="E16" s="49" t="s">
+        <v>93</v>
       </c>
       <c r="F16" s="7">
         <v>0</v>
@@ -2618,7 +2617,7 @@
       <c r="G16" s="7">
         <v>0</v>
       </c>
-      <c r="H16" s="50">
+      <c r="H16" s="49">
         <v>0</v>
       </c>
       <c r="I16" s="7">
@@ -2627,10 +2626,10 @@
       <c r="J16" s="7">
         <v>2</v>
       </c>
-      <c r="K16" s="47">
+      <c r="K16" s="46">
         <v>1</v>
       </c>
-      <c r="L16" s="16">
+      <c r="L16" s="15">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
@@ -2643,10 +2642,10 @@
       <c r="O16" s="6">
         <v>20</v>
       </c>
-      <c r="P16" s="47">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="16">
+      <c r="P16" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="15">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
@@ -2656,23 +2655,23 @@
       <c r="S16" s="14">
         <v>0</v>
       </c>
-      <c r="T16" s="16">
+      <c r="T16" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U16" s="6">
         <v>100</v>
       </c>
-      <c r="V16" s="43">
+      <c r="V16" s="42">
         <v>100</v>
       </c>
-      <c r="W16" s="21">
+      <c r="W16" s="20">
         <f>L16*0.2+Q16*0.25+T16*0.25+U16*0.3+V16*0.1</f>
         <v>52.2</v>
       </c>
     </row>
     <row r="17" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="19" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -2693,7 +2692,7 @@
       <c r="G17" s="7">
         <v>2</v>
       </c>
-      <c r="H17" s="50">
+      <c r="H17" s="49">
         <v>0</v>
       </c>
       <c r="I17" s="7">
@@ -2702,10 +2701,10 @@
       <c r="J17" s="7">
         <v>0</v>
       </c>
-      <c r="K17" s="47">
-        <v>0</v>
-      </c>
-      <c r="L17" s="16">
+      <c r="K17" s="46">
+        <v>0</v>
+      </c>
+      <c r="L17" s="15">
         <f t="shared" si="0"/>
         <v>66.666666666666671</v>
       </c>
@@ -2718,10 +2717,10 @@
       <c r="O17" s="6">
         <v>0</v>
       </c>
-      <c r="P17" s="47">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="16">
+      <c r="P17" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="15">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
@@ -2731,44 +2730,44 @@
       <c r="S17" s="14">
         <v>0</v>
       </c>
-      <c r="T17" s="16">
+      <c r="T17" s="15">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="U17" s="6">
         <v>31</v>
       </c>
-      <c r="V17" s="43">
+      <c r="V17" s="42">
         <v>50</v>
       </c>
-      <c r="W17" s="21">
+      <c r="W17" s="20">
         <f>L17*0.2+Q17*0.25+T17*0.25+U17*0.3+V17*0.15</f>
         <v>47.633333333333333</v>
       </c>
     </row>
-    <row r="18" spans="1:24" s="46" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
-        <v>97</v>
+    <row r="18" spans="1:24" s="45" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="19" t="s">
+        <v>96</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>96</v>
-      </c>
       <c r="D18" s="12">
         <v>0</v>
       </c>
-      <c r="E18" s="53" t="s">
-        <v>94</v>
-      </c>
-      <c r="F18" s="53" t="s">
-        <v>94</v>
-      </c>
-      <c r="G18" s="53" t="s">
-        <v>94</v>
-      </c>
-      <c r="H18" s="50">
+      <c r="E18" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="F18" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="G18" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="H18" s="49">
         <v>0</v>
       </c>
       <c r="I18" s="7">
@@ -2777,15 +2776,15 @@
       <c r="J18" s="7">
         <v>2</v>
       </c>
-      <c r="K18" s="47">
+      <c r="K18" s="46">
         <v>3</v>
       </c>
-      <c r="L18" s="16">
+      <c r="L18" s="15">
         <f t="shared" si="0"/>
         <v>66.666666666666671</v>
       </c>
-      <c r="M18" s="54" t="s">
-        <v>94</v>
+      <c r="M18" s="53" t="s">
+        <v>93</v>
       </c>
       <c r="N18" s="6">
         <v>75</v>
@@ -2793,10 +2792,10 @@
       <c r="O18" s="6">
         <v>50</v>
       </c>
-      <c r="P18" s="47">
+      <c r="P18" s="46">
         <v>1</v>
       </c>
-      <c r="Q18" s="16">
+      <c r="Q18" s="15">
         <f t="shared" si="1"/>
         <v>62.5</v>
       </c>
@@ -2806,32 +2805,32 @@
       <c r="S18" s="14">
         <v>20</v>
       </c>
-      <c r="T18" s="16">
+      <c r="T18" s="15">
         <f t="shared" si="2"/>
         <v>40.5</v>
       </c>
       <c r="U18" s="6">
         <v>0</v>
       </c>
-      <c r="V18" s="43">
+      <c r="V18" s="42">
         <v>50</v>
       </c>
-      <c r="W18" s="21">
+      <c r="W18" s="20">
         <f>L18*0.2+Q18*0.25+T18*0.25+U18*0.3+V18*0.1</f>
         <v>44.083333333333336</v>
       </c>
       <c r="X18" s="1"/>
     </row>
     <row r="19" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="C19" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C19" s="11" t="s">
-        <v>75</v>
-      </c>
       <c r="D19" s="12">
         <v>0</v>
       </c>
@@ -2844,7 +2843,7 @@
       <c r="G19" s="12">
         <v>2</v>
       </c>
-      <c r="H19" s="50">
+      <c r="H19" s="49">
         <v>2</v>
       </c>
       <c r="I19" s="7">
@@ -2853,10 +2852,10 @@
       <c r="J19" s="7">
         <v>2</v>
       </c>
-      <c r="K19" s="47">
-        <v>0</v>
-      </c>
-      <c r="L19" s="16">
+      <c r="K19" s="46">
+        <v>0</v>
+      </c>
+      <c r="L19" s="15">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -2869,10 +2868,10 @@
       <c r="O19" s="6">
         <v>80</v>
       </c>
-      <c r="P19" s="47">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="16">
+      <c r="P19" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="15">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
@@ -2882,31 +2881,31 @@
       <c r="S19" s="14">
         <v>-25</v>
       </c>
-      <c r="T19" s="16">
+      <c r="T19" s="15">
         <f t="shared" si="2"/>
         <v>-25</v>
       </c>
       <c r="U19" s="6">
         <v>0</v>
       </c>
-      <c r="V19" s="43">
+      <c r="V19" s="42">
         <v>50</v>
       </c>
-      <c r="W19" s="21">
+      <c r="W19" s="20">
         <f>L19*0.2+Q19*0.25+T19*0.25+U19*0.3+V19*0.15</f>
         <v>43.75</v>
       </c>
     </row>
-    <row r="20" spans="1:24" s="46" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
-        <v>54</v>
+    <row r="20" spans="1:24" s="45" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="19" t="s">
+        <v>53</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="11" t="s">
-        <v>50</v>
-      </c>
       <c r="D20" s="12">
         <v>2</v>
       </c>
@@ -2919,7 +2918,7 @@
       <c r="G20" s="12">
         <v>0</v>
       </c>
-      <c r="H20" s="50">
+      <c r="H20" s="49">
         <v>2</v>
       </c>
       <c r="I20" s="7">
@@ -2928,10 +2927,10 @@
       <c r="J20" s="7">
         <v>0</v>
       </c>
-      <c r="K20" s="47">
-        <v>0</v>
-      </c>
-      <c r="L20" s="16">
+      <c r="K20" s="46">
+        <v>0</v>
+      </c>
+      <c r="L20" s="15">
         <f t="shared" si="0"/>
         <v>83.333333333333329</v>
       </c>
@@ -2944,10 +2943,10 @@
       <c r="O20" s="6">
         <v>0</v>
       </c>
-      <c r="P20" s="47">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="16">
+      <c r="P20" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="15">
         <f t="shared" si="1"/>
         <v>33.333333333333336</v>
       </c>
@@ -2957,25 +2956,25 @@
       <c r="S20" s="14">
         <v>-25</v>
       </c>
-      <c r="T20" s="16">
+      <c r="T20" s="15">
         <f t="shared" si="2"/>
         <v>-25</v>
       </c>
       <c r="U20" s="6">
         <v>45</v>
       </c>
-      <c r="V20" s="43">
+      <c r="V20" s="42">
         <v>50</v>
       </c>
-      <c r="W20" s="21">
+      <c r="W20" s="20">
         <f>L20*0.2+Q20*0.25+T20*0.25+U20*0.3+V20*0.15</f>
         <v>39.75</v>
       </c>
       <c r="X20" s="1"/>
     </row>
     <row r="21" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
-        <v>59</v>
+      <c r="A21" s="19" t="s">
+        <v>58</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>35</v>
@@ -2995,7 +2994,7 @@
       <c r="G21" s="12">
         <v>0</v>
       </c>
-      <c r="H21" s="50">
+      <c r="H21" s="49">
         <v>2</v>
       </c>
       <c r="I21" s="7">
@@ -3004,10 +3003,10 @@
       <c r="J21" s="7">
         <v>0</v>
       </c>
-      <c r="K21" s="47">
-        <v>0</v>
-      </c>
-      <c r="L21" s="16">
+      <c r="K21" s="46">
+        <v>0</v>
+      </c>
+      <c r="L21" s="15">
         <f t="shared" si="0"/>
         <v>16.666666666666668</v>
       </c>
@@ -3020,10 +3019,10 @@
       <c r="O21" s="6">
         <v>0</v>
       </c>
-      <c r="P21" s="47">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="16">
+      <c r="P21" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3033,676 +3032,676 @@
       <c r="S21" s="14">
         <v>25</v>
       </c>
-      <c r="T21" s="16">
+      <c r="T21" s="15">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="U21" s="6">
         <v>0</v>
       </c>
-      <c r="V21" s="43"/>
-      <c r="W21" s="21">
+      <c r="V21" s="42"/>
+      <c r="W21" s="20">
         <f>L21*0.2+Q21*0.25+T21*0.25+U21*0.3+V21*0.15</f>
         <v>9.5833333333333339</v>
       </c>
     </row>
-    <row r="22" spans="1:24" s="67" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="55" t="s">
+    <row r="22" spans="1:24" s="66" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="B22" s="56" t="s">
+      <c r="C22" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="C22" s="57" t="s">
-        <v>89</v>
-      </c>
-      <c r="D22" s="58">
-        <v>0</v>
-      </c>
-      <c r="E22" s="58">
-        <v>0</v>
-      </c>
-      <c r="F22" s="58">
-        <v>0</v>
-      </c>
-      <c r="G22" s="58">
-        <v>0</v>
-      </c>
-      <c r="H22" s="59">
-        <v>0</v>
-      </c>
-      <c r="I22" s="60">
-        <v>0</v>
-      </c>
-      <c r="J22" s="60">
-        <v>0</v>
-      </c>
-      <c r="K22" s="61">
-        <v>0</v>
-      </c>
-      <c r="L22" s="62">
+      <c r="D22" s="57">
+        <v>0</v>
+      </c>
+      <c r="E22" s="57">
+        <v>0</v>
+      </c>
+      <c r="F22" s="57">
+        <v>0</v>
+      </c>
+      <c r="G22" s="57">
+        <v>0</v>
+      </c>
+      <c r="H22" s="58">
+        <v>0</v>
+      </c>
+      <c r="I22" s="59">
+        <v>0</v>
+      </c>
+      <c r="J22" s="59">
+        <v>0</v>
+      </c>
+      <c r="K22" s="60">
+        <v>0</v>
+      </c>
+      <c r="L22" s="61">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M22" s="63">
-        <v>0</v>
-      </c>
-      <c r="N22" s="64">
-        <v>0</v>
-      </c>
-      <c r="O22" s="64">
-        <v>0</v>
-      </c>
-      <c r="P22" s="61">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="62">
+      <c r="M22" s="62">
+        <v>0</v>
+      </c>
+      <c r="N22" s="63">
+        <v>0</v>
+      </c>
+      <c r="O22" s="63">
+        <v>0</v>
+      </c>
+      <c r="P22" s="60">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R22" s="63">
-        <v>0</v>
-      </c>
-      <c r="S22" s="63">
-        <v>0</v>
-      </c>
-      <c r="T22" s="62">
+      <c r="R22" s="62">
+        <v>0</v>
+      </c>
+      <c r="S22" s="62">
+        <v>0</v>
+      </c>
+      <c r="T22" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U22" s="64">
-        <v>0</v>
-      </c>
-      <c r="V22" s="65"/>
-      <c r="W22" s="66">
+      <c r="U22" s="63">
+        <v>0</v>
+      </c>
+      <c r="V22" s="64"/>
+      <c r="W22" s="65">
         <f>L22*0.2+Q22*0.25+T22*0.25+U22*0.3+V22*0.1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:24" s="67" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="55" t="s">
+    <row r="23" spans="1:24" s="66" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="56" t="s">
+      <c r="B23" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="57" t="s">
+      <c r="C23" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="58">
-        <v>0</v>
-      </c>
-      <c r="E23" s="58">
-        <v>0</v>
-      </c>
-      <c r="F23" s="58">
-        <v>0</v>
-      </c>
-      <c r="G23" s="58">
-        <v>0</v>
-      </c>
-      <c r="H23" s="59">
-        <v>0</v>
-      </c>
-      <c r="I23" s="60">
-        <v>0</v>
-      </c>
-      <c r="J23" s="60">
-        <v>0</v>
-      </c>
-      <c r="K23" s="61">
-        <v>0</v>
-      </c>
-      <c r="L23" s="62">
+      <c r="D23" s="57">
+        <v>0</v>
+      </c>
+      <c r="E23" s="57">
+        <v>0</v>
+      </c>
+      <c r="F23" s="57">
+        <v>0</v>
+      </c>
+      <c r="G23" s="57">
+        <v>0</v>
+      </c>
+      <c r="H23" s="58">
+        <v>0</v>
+      </c>
+      <c r="I23" s="59">
+        <v>0</v>
+      </c>
+      <c r="J23" s="59">
+        <v>0</v>
+      </c>
+      <c r="K23" s="60">
+        <v>0</v>
+      </c>
+      <c r="L23" s="61">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M23" s="63">
-        <v>0</v>
-      </c>
-      <c r="N23" s="64">
-        <v>0</v>
-      </c>
-      <c r="O23" s="64">
-        <v>0</v>
-      </c>
-      <c r="P23" s="61">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="62">
+      <c r="M23" s="62">
+        <v>0</v>
+      </c>
+      <c r="N23" s="63">
+        <v>0</v>
+      </c>
+      <c r="O23" s="63">
+        <v>0</v>
+      </c>
+      <c r="P23" s="60">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R23" s="63">
-        <v>0</v>
-      </c>
-      <c r="S23" s="63">
-        <v>0</v>
-      </c>
-      <c r="T23" s="62">
+      <c r="R23" s="62">
+        <v>0</v>
+      </c>
+      <c r="S23" s="62">
+        <v>0</v>
+      </c>
+      <c r="T23" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U23" s="64">
-        <v>0</v>
-      </c>
-      <c r="V23" s="65"/>
-      <c r="W23" s="66">
+      <c r="U23" s="63">
+        <v>0</v>
+      </c>
+      <c r="V23" s="64"/>
+      <c r="W23" s="65">
         <f t="shared" ref="W23:W30" si="4">L23*0.2+Q23*0.25+T23*0.25+U23*0.3+V23*0.15</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:24" s="67" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="55" t="s">
-        <v>2</v>
-      </c>
-      <c r="B24" s="56" t="s">
+    <row r="24" spans="1:24" s="66" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="57" t="s">
+      <c r="C24" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="58">
-        <v>0</v>
-      </c>
-      <c r="E24" s="58">
-        <v>0</v>
-      </c>
-      <c r="F24" s="58">
-        <v>0</v>
-      </c>
-      <c r="G24" s="58">
-        <v>0</v>
-      </c>
-      <c r="H24" s="59">
-        <v>0</v>
-      </c>
-      <c r="I24" s="60">
-        <v>0</v>
-      </c>
-      <c r="J24" s="60">
-        <v>0</v>
-      </c>
-      <c r="K24" s="61">
-        <v>0</v>
-      </c>
-      <c r="L24" s="62">
+      <c r="D24" s="57">
+        <v>0</v>
+      </c>
+      <c r="E24" s="57">
+        <v>0</v>
+      </c>
+      <c r="F24" s="57">
+        <v>0</v>
+      </c>
+      <c r="G24" s="57">
+        <v>0</v>
+      </c>
+      <c r="H24" s="58">
+        <v>0</v>
+      </c>
+      <c r="I24" s="59">
+        <v>0</v>
+      </c>
+      <c r="J24" s="59">
+        <v>0</v>
+      </c>
+      <c r="K24" s="60">
+        <v>0</v>
+      </c>
+      <c r="L24" s="61">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M24" s="63">
-        <v>0</v>
-      </c>
-      <c r="N24" s="64">
-        <v>0</v>
-      </c>
-      <c r="O24" s="64">
-        <v>0</v>
-      </c>
-      <c r="P24" s="61">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="62">
+      <c r="M24" s="62">
+        <v>0</v>
+      </c>
+      <c r="N24" s="63">
+        <v>0</v>
+      </c>
+      <c r="O24" s="63">
+        <v>0</v>
+      </c>
+      <c r="P24" s="60">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R24" s="63">
-        <v>0</v>
-      </c>
-      <c r="S24" s="63">
-        <v>0</v>
-      </c>
-      <c r="T24" s="62">
+      <c r="R24" s="62">
+        <v>0</v>
+      </c>
+      <c r="S24" s="62">
+        <v>0</v>
+      </c>
+      <c r="T24" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U24" s="64">
-        <v>0</v>
-      </c>
-      <c r="V24" s="65"/>
-      <c r="W24" s="66">
+      <c r="U24" s="63">
+        <v>0</v>
+      </c>
+      <c r="V24" s="64"/>
+      <c r="W24" s="65">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:24" s="67" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="55" t="s">
+    <row r="25" spans="1:24" s="66" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="56" t="s">
+      <c r="B25" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="57" t="s">
+      <c r="C25" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="58">
-        <v>0</v>
-      </c>
-      <c r="E25" s="58">
-        <v>0</v>
-      </c>
-      <c r="F25" s="58">
-        <v>0</v>
-      </c>
-      <c r="G25" s="58">
-        <v>0</v>
-      </c>
-      <c r="H25" s="59">
-        <v>0</v>
-      </c>
-      <c r="I25" s="60">
-        <v>0</v>
-      </c>
-      <c r="J25" s="60">
-        <v>0</v>
-      </c>
-      <c r="K25" s="61">
-        <v>0</v>
-      </c>
-      <c r="L25" s="62">
+      <c r="D25" s="57">
+        <v>0</v>
+      </c>
+      <c r="E25" s="57">
+        <v>0</v>
+      </c>
+      <c r="F25" s="57">
+        <v>0</v>
+      </c>
+      <c r="G25" s="57">
+        <v>0</v>
+      </c>
+      <c r="H25" s="58">
+        <v>0</v>
+      </c>
+      <c r="I25" s="59">
+        <v>0</v>
+      </c>
+      <c r="J25" s="59">
+        <v>0</v>
+      </c>
+      <c r="K25" s="60">
+        <v>0</v>
+      </c>
+      <c r="L25" s="61">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M25" s="63">
-        <v>0</v>
-      </c>
-      <c r="N25" s="64">
-        <v>0</v>
-      </c>
-      <c r="O25" s="64">
-        <v>0</v>
-      </c>
-      <c r="P25" s="61">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="62">
+      <c r="M25" s="62">
+        <v>0</v>
+      </c>
+      <c r="N25" s="63">
+        <v>0</v>
+      </c>
+      <c r="O25" s="63">
+        <v>0</v>
+      </c>
+      <c r="P25" s="60">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R25" s="63">
-        <v>0</v>
-      </c>
-      <c r="S25" s="63">
-        <v>0</v>
-      </c>
-      <c r="T25" s="62">
+      <c r="R25" s="62">
+        <v>0</v>
+      </c>
+      <c r="S25" s="62">
+        <v>0</v>
+      </c>
+      <c r="T25" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U25" s="64">
-        <v>0</v>
-      </c>
-      <c r="V25" s="65"/>
-      <c r="W25" s="66">
+      <c r="U25" s="63">
+        <v>0</v>
+      </c>
+      <c r="V25" s="64"/>
+      <c r="W25" s="65">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:24" s="67" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="55" t="s">
+    <row r="26" spans="1:24" s="66" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="56" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" s="57" t="s">
+      <c r="B26" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="58">
-        <v>0</v>
-      </c>
-      <c r="E26" s="58">
-        <v>0</v>
-      </c>
-      <c r="F26" s="58">
-        <v>0</v>
-      </c>
-      <c r="G26" s="58">
-        <v>0</v>
-      </c>
-      <c r="H26" s="59">
-        <v>0</v>
-      </c>
-      <c r="I26" s="60">
-        <v>0</v>
-      </c>
-      <c r="J26" s="60">
-        <v>0</v>
-      </c>
-      <c r="K26" s="61">
-        <v>0</v>
-      </c>
-      <c r="L26" s="62">
+      <c r="D26" s="57">
+        <v>0</v>
+      </c>
+      <c r="E26" s="57">
+        <v>0</v>
+      </c>
+      <c r="F26" s="57">
+        <v>0</v>
+      </c>
+      <c r="G26" s="57">
+        <v>0</v>
+      </c>
+      <c r="H26" s="58">
+        <v>0</v>
+      </c>
+      <c r="I26" s="59">
+        <v>0</v>
+      </c>
+      <c r="J26" s="59">
+        <v>0</v>
+      </c>
+      <c r="K26" s="60">
+        <v>0</v>
+      </c>
+      <c r="L26" s="61">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M26" s="63">
-        <v>0</v>
-      </c>
-      <c r="N26" s="64">
-        <v>0</v>
-      </c>
-      <c r="O26" s="64">
-        <v>0</v>
-      </c>
-      <c r="P26" s="61">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="62">
+      <c r="M26" s="62">
+        <v>0</v>
+      </c>
+      <c r="N26" s="63">
+        <v>0</v>
+      </c>
+      <c r="O26" s="63">
+        <v>0</v>
+      </c>
+      <c r="P26" s="60">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R26" s="63">
-        <v>0</v>
-      </c>
-      <c r="S26" s="63">
-        <v>0</v>
-      </c>
-      <c r="T26" s="62">
+      <c r="R26" s="62">
+        <v>0</v>
+      </c>
+      <c r="S26" s="62">
+        <v>0</v>
+      </c>
+      <c r="T26" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U26" s="64">
-        <v>0</v>
-      </c>
-      <c r="V26" s="65"/>
-      <c r="W26" s="66">
+      <c r="U26" s="63">
+        <v>0</v>
+      </c>
+      <c r="V26" s="64"/>
+      <c r="W26" s="65">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:24" s="67" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="55" t="s">
+    <row r="27" spans="1:24" s="66" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="56" t="s">
+      <c r="B27" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="57" t="s">
+      <c r="C27" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="58">
-        <v>0</v>
-      </c>
-      <c r="E27" s="58">
-        <v>0</v>
-      </c>
-      <c r="F27" s="58">
-        <v>0</v>
-      </c>
-      <c r="G27" s="58">
-        <v>0</v>
-      </c>
-      <c r="H27" s="59">
-        <v>0</v>
-      </c>
-      <c r="I27" s="60">
-        <v>0</v>
-      </c>
-      <c r="J27" s="60">
-        <v>0</v>
-      </c>
-      <c r="K27" s="61">
-        <v>0</v>
-      </c>
-      <c r="L27" s="62">
+      <c r="D27" s="57">
+        <v>0</v>
+      </c>
+      <c r="E27" s="57">
+        <v>0</v>
+      </c>
+      <c r="F27" s="57">
+        <v>0</v>
+      </c>
+      <c r="G27" s="57">
+        <v>0</v>
+      </c>
+      <c r="H27" s="58">
+        <v>0</v>
+      </c>
+      <c r="I27" s="59">
+        <v>0</v>
+      </c>
+      <c r="J27" s="59">
+        <v>0</v>
+      </c>
+      <c r="K27" s="60">
+        <v>0</v>
+      </c>
+      <c r="L27" s="61">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M27" s="63">
-        <v>0</v>
-      </c>
-      <c r="N27" s="64">
-        <v>0</v>
-      </c>
-      <c r="O27" s="64">
-        <v>0</v>
-      </c>
-      <c r="P27" s="61">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="62">
+      <c r="M27" s="62">
+        <v>0</v>
+      </c>
+      <c r="N27" s="63">
+        <v>0</v>
+      </c>
+      <c r="O27" s="63">
+        <v>0</v>
+      </c>
+      <c r="P27" s="60">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R27" s="63">
-        <v>0</v>
-      </c>
-      <c r="S27" s="63">
-        <v>0</v>
-      </c>
-      <c r="T27" s="62">
+      <c r="R27" s="62">
+        <v>0</v>
+      </c>
+      <c r="S27" s="62">
+        <v>0</v>
+      </c>
+      <c r="T27" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U27" s="64">
-        <v>0</v>
-      </c>
-      <c r="V27" s="65"/>
-      <c r="W27" s="66">
+      <c r="U27" s="63">
+        <v>0</v>
+      </c>
+      <c r="V27" s="64"/>
+      <c r="W27" s="65">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:24" s="67" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="55" t="s">
+    <row r="28" spans="1:24" s="66" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="56" t="s">
+      <c r="B28" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="57" t="s">
+      <c r="C28" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="58">
-        <v>0</v>
-      </c>
-      <c r="E28" s="58">
-        <v>0</v>
-      </c>
-      <c r="F28" s="58">
-        <v>0</v>
-      </c>
-      <c r="G28" s="58">
-        <v>0</v>
-      </c>
-      <c r="H28" s="59">
-        <v>0</v>
-      </c>
-      <c r="I28" s="60">
-        <v>0</v>
-      </c>
-      <c r="J28" s="60">
-        <v>0</v>
-      </c>
-      <c r="K28" s="61">
-        <v>0</v>
-      </c>
-      <c r="L28" s="62">
+      <c r="D28" s="57">
+        <v>0</v>
+      </c>
+      <c r="E28" s="57">
+        <v>0</v>
+      </c>
+      <c r="F28" s="57">
+        <v>0</v>
+      </c>
+      <c r="G28" s="57">
+        <v>0</v>
+      </c>
+      <c r="H28" s="58">
+        <v>0</v>
+      </c>
+      <c r="I28" s="59">
+        <v>0</v>
+      </c>
+      <c r="J28" s="59">
+        <v>0</v>
+      </c>
+      <c r="K28" s="60">
+        <v>0</v>
+      </c>
+      <c r="L28" s="61">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M28" s="63">
-        <v>0</v>
-      </c>
-      <c r="N28" s="64">
-        <v>0</v>
-      </c>
-      <c r="O28" s="64">
-        <v>0</v>
-      </c>
-      <c r="P28" s="61">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="62">
+      <c r="M28" s="62">
+        <v>0</v>
+      </c>
+      <c r="N28" s="63">
+        <v>0</v>
+      </c>
+      <c r="O28" s="63">
+        <v>0</v>
+      </c>
+      <c r="P28" s="60">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R28" s="63">
-        <v>0</v>
-      </c>
-      <c r="S28" s="63">
-        <v>0</v>
-      </c>
-      <c r="T28" s="62">
+      <c r="R28" s="62">
+        <v>0</v>
+      </c>
+      <c r="S28" s="62">
+        <v>0</v>
+      </c>
+      <c r="T28" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U28" s="64">
-        <v>0</v>
-      </c>
-      <c r="V28" s="65"/>
-      <c r="W28" s="66">
+      <c r="U28" s="63">
+        <v>0</v>
+      </c>
+      <c r="V28" s="64"/>
+      <c r="W28" s="65">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:24" s="67" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="55" t="s">
+    <row r="29" spans="1:24" s="66" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="56" t="s">
+      <c r="B29" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="57" t="s">
+      <c r="C29" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="58">
-        <v>0</v>
-      </c>
-      <c r="E29" s="58">
-        <v>0</v>
-      </c>
-      <c r="F29" s="58">
-        <v>0</v>
-      </c>
-      <c r="G29" s="58">
-        <v>0</v>
-      </c>
-      <c r="H29" s="59">
-        <v>0</v>
-      </c>
-      <c r="I29" s="60">
-        <v>0</v>
-      </c>
-      <c r="J29" s="60">
-        <v>0</v>
-      </c>
-      <c r="K29" s="61">
-        <v>0</v>
-      </c>
-      <c r="L29" s="62">
+      <c r="D29" s="57">
+        <v>0</v>
+      </c>
+      <c r="E29" s="57">
+        <v>0</v>
+      </c>
+      <c r="F29" s="57">
+        <v>0</v>
+      </c>
+      <c r="G29" s="57">
+        <v>0</v>
+      </c>
+      <c r="H29" s="58">
+        <v>0</v>
+      </c>
+      <c r="I29" s="59">
+        <v>0</v>
+      </c>
+      <c r="J29" s="59">
+        <v>0</v>
+      </c>
+      <c r="K29" s="60">
+        <v>0</v>
+      </c>
+      <c r="L29" s="61">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M29" s="63">
-        <v>0</v>
-      </c>
-      <c r="N29" s="64">
-        <v>0</v>
-      </c>
-      <c r="O29" s="64">
-        <v>0</v>
-      </c>
-      <c r="P29" s="61">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="62">
+      <c r="M29" s="62">
+        <v>0</v>
+      </c>
+      <c r="N29" s="63">
+        <v>0</v>
+      </c>
+      <c r="O29" s="63">
+        <v>0</v>
+      </c>
+      <c r="P29" s="60">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R29" s="63">
-        <v>0</v>
-      </c>
-      <c r="S29" s="63">
-        <v>0</v>
-      </c>
-      <c r="T29" s="62">
+      <c r="R29" s="62">
+        <v>0</v>
+      </c>
+      <c r="S29" s="62">
+        <v>0</v>
+      </c>
+      <c r="T29" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U29" s="64">
-        <v>0</v>
-      </c>
-      <c r="V29" s="65"/>
-      <c r="W29" s="66">
+      <c r="U29" s="63">
+        <v>0</v>
+      </c>
+      <c r="V29" s="64"/>
+      <c r="W29" s="65">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:24" s="68" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="55" t="s">
+    <row r="30" spans="1:24" s="67" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="56" t="s">
+      <c r="B30" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="57" t="s">
+      <c r="C30" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="D30" s="58">
-        <v>0</v>
-      </c>
-      <c r="E30" s="58">
-        <v>0</v>
-      </c>
-      <c r="F30" s="58">
-        <v>0</v>
-      </c>
-      <c r="G30" s="58">
-        <v>0</v>
-      </c>
-      <c r="H30" s="59">
-        <v>0</v>
-      </c>
-      <c r="I30" s="60">
-        <v>0</v>
-      </c>
-      <c r="J30" s="60">
-        <v>0</v>
-      </c>
-      <c r="K30" s="61">
-        <v>0</v>
-      </c>
-      <c r="L30" s="62">
+      <c r="D30" s="57">
+        <v>0</v>
+      </c>
+      <c r="E30" s="57">
+        <v>0</v>
+      </c>
+      <c r="F30" s="57">
+        <v>0</v>
+      </c>
+      <c r="G30" s="57">
+        <v>0</v>
+      </c>
+      <c r="H30" s="58">
+        <v>0</v>
+      </c>
+      <c r="I30" s="59">
+        <v>0</v>
+      </c>
+      <c r="J30" s="59">
+        <v>0</v>
+      </c>
+      <c r="K30" s="60">
+        <v>0</v>
+      </c>
+      <c r="L30" s="61">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M30" s="63">
-        <v>0</v>
-      </c>
-      <c r="N30" s="64">
-        <v>0</v>
-      </c>
-      <c r="O30" s="64">
-        <v>0</v>
-      </c>
-      <c r="P30" s="61">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="62">
+      <c r="M30" s="62">
+        <v>0</v>
+      </c>
+      <c r="N30" s="63">
+        <v>0</v>
+      </c>
+      <c r="O30" s="63">
+        <v>0</v>
+      </c>
+      <c r="P30" s="60">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R30" s="63">
-        <v>0</v>
-      </c>
-      <c r="S30" s="63">
-        <v>0</v>
-      </c>
-      <c r="T30" s="62">
+      <c r="R30" s="62">
+        <v>0</v>
+      </c>
+      <c r="S30" s="62">
+        <v>0</v>
+      </c>
+      <c r="T30" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U30" s="64">
-        <v>0</v>
-      </c>
-      <c r="V30" s="65"/>
-      <c r="W30" s="66">
+      <c r="U30" s="63">
+        <v>0</v>
+      </c>
+      <c r="V30" s="64"/>
+      <c r="W30" s="65">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="X30" s="67"/>
+      <c r="X30" s="66"/>
     </row>
     <row r="31" spans="1:24" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
@@ -3712,7 +3711,7 @@
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
-      <c r="H31" s="51"/>
+      <c r="H31" s="50"/>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
@@ -3734,7 +3733,7 @@
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
-      <c r="H32" s="51"/>
+      <c r="H32" s="50"/>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
@@ -3756,7 +3755,7 @@
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
-      <c r="H33" s="51"/>
+      <c r="H33" s="50"/>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
@@ -3778,7 +3777,7 @@
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
-      <c r="H34" s="51"/>
+      <c r="H34" s="50"/>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
@@ -3800,7 +3799,7 @@
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
-      <c r="H35" s="51"/>
+      <c r="H35" s="50"/>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
@@ -3822,7 +3821,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
-      <c r="H36" s="51"/>
+      <c r="H36" s="50"/>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
@@ -3844,7 +3843,7 @@
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
-      <c r="H37" s="51"/>
+      <c r="H37" s="50"/>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
@@ -3866,7 +3865,7 @@
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
-      <c r="H38" s="51"/>
+      <c r="H38" s="50"/>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
@@ -3888,7 +3887,7 @@
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
-      <c r="H39" s="51"/>
+      <c r="H39" s="50"/>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
@@ -3910,7 +3909,7 @@
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
-      <c r="H40" s="51"/>
+      <c r="H40" s="50"/>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
@@ -3932,7 +3931,7 @@
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
-      <c r="H41" s="51"/>
+      <c r="H41" s="50"/>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
@@ -3954,7 +3953,7 @@
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
-      <c r="H42" s="51"/>
+      <c r="H42" s="50"/>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
@@ -3976,7 +3975,7 @@
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
-      <c r="H43" s="51"/>
+      <c r="H43" s="50"/>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
@@ -3998,7 +3997,7 @@
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
-      <c r="H44" s="51"/>
+      <c r="H44" s="50"/>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
@@ -4020,7 +4019,7 @@
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
-      <c r="H45" s="51"/>
+      <c r="H45" s="50"/>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
@@ -4042,7 +4041,7 @@
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
-      <c r="H46" s="51"/>
+      <c r="H46" s="50"/>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
@@ -4064,7 +4063,7 @@
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
-      <c r="H47" s="51"/>
+      <c r="H47" s="50"/>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
@@ -4086,7 +4085,7 @@
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
-      <c r="H48" s="51"/>
+      <c r="H48" s="50"/>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
@@ -4108,7 +4107,7 @@
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
-      <c r="H49" s="51"/>
+      <c r="H49" s="50"/>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
@@ -4130,7 +4129,7 @@
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
-      <c r="H50" s="51"/>
+      <c r="H50" s="50"/>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
@@ -4152,7 +4151,7 @@
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
-      <c r="H51" s="51"/>
+      <c r="H51" s="50"/>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
@@ -4174,7 +4173,7 @@
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
-      <c r="H52" s="51"/>
+      <c r="H52" s="50"/>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
@@ -4196,7 +4195,7 @@
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
-      <c r="H53" s="51"/>
+      <c r="H53" s="50"/>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
@@ -4218,7 +4217,7 @@
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
-      <c r="H54" s="51"/>
+      <c r="H54" s="50"/>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
@@ -4240,7 +4239,7 @@
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
-      <c r="H55" s="51"/>
+      <c r="H55" s="50"/>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
@@ -4262,7 +4261,7 @@
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
-      <c r="H56" s="51"/>
+      <c r="H56" s="50"/>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
@@ -4284,7 +4283,7 @@
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
-      <c r="H57" s="51"/>
+      <c r="H57" s="50"/>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
@@ -4306,7 +4305,7 @@
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
-      <c r="H58" s="51"/>
+      <c r="H58" s="50"/>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
@@ -4328,7 +4327,7 @@
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
-      <c r="H59" s="51"/>
+      <c r="H59" s="50"/>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
@@ -4350,7 +4349,7 @@
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
-      <c r="H60" s="51"/>
+      <c r="H60" s="50"/>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
@@ -4372,7 +4371,7 @@
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
-      <c r="H61" s="51"/>
+      <c r="H61" s="50"/>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
@@ -4394,7 +4393,7 @@
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
-      <c r="H62" s="51"/>
+      <c r="H62" s="50"/>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
@@ -4416,7 +4415,7 @@
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
-      <c r="H63" s="51"/>
+      <c r="H63" s="50"/>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
@@ -4438,7 +4437,7 @@
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
-      <c r="H64" s="51"/>
+      <c r="H64" s="50"/>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
@@ -4460,7 +4459,7 @@
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
-      <c r="H65" s="51"/>
+      <c r="H65" s="50"/>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
@@ -4482,7 +4481,7 @@
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
-      <c r="H66" s="51"/>
+      <c r="H66" s="50"/>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
@@ -4504,7 +4503,7 @@
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
-      <c r="H67" s="51"/>
+      <c r="H67" s="50"/>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
@@ -4526,7 +4525,7 @@
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
-      <c r="H68" s="51"/>
+      <c r="H68" s="50"/>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
@@ -4548,7 +4547,7 @@
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
-      <c r="H69" s="51"/>
+      <c r="H69" s="50"/>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
@@ -4570,7 +4569,7 @@
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
-      <c r="H70" s="51"/>
+      <c r="H70" s="50"/>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
@@ -4592,7 +4591,7 @@
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
-      <c r="H71" s="51"/>
+      <c r="H71" s="50"/>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
@@ -4614,7 +4613,7 @@
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
-      <c r="H72" s="51"/>
+      <c r="H72" s="50"/>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
@@ -4636,7 +4635,7 @@
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
-      <c r="H73" s="51"/>
+      <c r="H73" s="50"/>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
@@ -4658,7 +4657,7 @@
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
-      <c r="H74" s="51"/>
+      <c r="H74" s="50"/>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
@@ -4680,7 +4679,7 @@
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
-      <c r="H75" s="51"/>
+      <c r="H75" s="50"/>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
@@ -4702,7 +4701,7 @@
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
-      <c r="H76" s="51"/>
+      <c r="H76" s="50"/>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
@@ -4888,11 +4887,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Q81"/>
+  <dimension ref="A1:O81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
+      <selection pane="bottomLeft" activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4900,114 +4899,106 @@
     <col min="1" max="1" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" style="73" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="72" customWidth="1"/>
     <col min="5" max="6" width="3.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="2.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="2.44140625" style="8" customWidth="1"/>
     <col min="10" max="10" width="4.44140625" style="1" customWidth="1"/>
-    <col min="11" max="13" width="2.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.77734375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="5.77734375" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.88671875" style="1"/>
+    <col min="11" max="11" width="2.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.77734375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="5.77734375" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="4" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30">
+    <row r="1" spans="1:15" s="4" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="29">
         <v>4</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="76" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="77" t="s">
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="76" t="s">
+        <v>99</v>
+      </c>
+      <c r="L1" s="77"/>
+      <c r="M1" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="P1" s="19" t="s">
+      <c r="N1" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="O1" s="18" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="5" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:15" s="5" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="35" t="s">
+      <c r="B2" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="70" t="s">
+      <c r="D2" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="37">
+      <c r="E2" s="36">
         <v>8</v>
       </c>
-      <c r="F2" s="27">
+      <c r="F2" s="26">
         <v>9</v>
       </c>
-      <c r="G2" s="27">
+      <c r="G2" s="26">
         <v>10</v>
       </c>
-      <c r="H2" s="27">
+      <c r="H2" s="26">
         <v>11</v>
       </c>
-      <c r="I2" s="79" t="s">
-        <v>94</v>
-      </c>
-      <c r="J2" s="28" t="s">
+      <c r="I2" s="78" t="s">
+        <v>93</v>
+      </c>
+      <c r="J2" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="27">
-        <v>10</v>
-      </c>
-      <c r="L2" s="27">
-        <v>11</v>
-      </c>
-      <c r="M2" s="27">
-        <v>12</v>
-      </c>
-      <c r="N2" s="28" t="s">
+      <c r="K2" s="26">
+        <v>1</v>
+      </c>
+      <c r="L2" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="26" t="s">
+      <c r="M2" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="P2" s="19" t="s">
+      <c r="N2" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="19" t="s">
+      <c r="O2" s="18" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
+    <row r="3" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="19"/>
       <c r="B3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="71">
+      <c r="D3" s="70">
         <v>100</v>
       </c>
-      <c r="E3" s="38">
+      <c r="E3" s="37">
         <v>2</v>
       </c>
       <c r="F3" s="7">
@@ -5019,33 +5010,40 @@
       <c r="H3" s="7">
         <v>2</v>
       </c>
-      <c r="I3" s="47">
-        <v>0</v>
-      </c>
-      <c r="J3" s="16">
+      <c r="I3" s="46">
+        <v>0</v>
+      </c>
+      <c r="J3" s="15">
         <f>SUM(E3:H3)*50/(A$1-I3)</f>
         <v>100</v>
       </c>
       <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
+      <c r="L3" s="15">
+        <f>K3</f>
+        <v>0</v>
+      </c>
       <c r="M3" s="6"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-    </row>
-    <row r="4" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
+      <c r="N3" s="20">
+        <f>J3*0.2+L3*0.35+M3*0.45</f>
+        <v>20</v>
+      </c>
+      <c r="O3" s="20">
+        <f>D3*0.4+N3*0.6</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="19"/>
       <c r="B4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D4" s="71">
+      <c r="D4" s="70">
         <v>92.333333333333329</v>
       </c>
-      <c r="E4" s="38">
+      <c r="E4" s="37">
         <v>2</v>
       </c>
       <c r="F4" s="7">
@@ -5055,35 +5053,42 @@
         <v>2</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="I4" s="47">
+        <v>93</v>
+      </c>
+      <c r="I4" s="46">
         <v>1</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="15">
         <f t="shared" ref="J4:J30" si="0">SUM(E4:H4)*50/(A$1-I4)</f>
         <v>100</v>
       </c>
       <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
+      <c r="L4" s="15">
+        <f t="shared" ref="L4:L30" si="1">K4</f>
+        <v>0</v>
+      </c>
       <c r="M4" s="6"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-    </row>
-    <row r="5" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
+      <c r="N4" s="20">
+        <f t="shared" ref="N4:N30" si="2">J4*0.2+L4*0.35+M4*0.45</f>
+        <v>20</v>
+      </c>
+      <c r="O4" s="20">
+        <f t="shared" ref="O4:O30" si="3">D4*0.4+N4*0.6</f>
+        <v>48.93333333333333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="19"/>
       <c r="B5" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="71">
+        <v>45</v>
+      </c>
+      <c r="D5" s="70">
         <v>81.55</v>
       </c>
-      <c r="E5" s="38">
+      <c r="E5" s="37">
         <v>2</v>
       </c>
       <c r="F5" s="7">
@@ -5095,33 +5100,40 @@
       <c r="H5" s="7">
         <v>2</v>
       </c>
-      <c r="I5" s="47">
-        <v>0</v>
-      </c>
-      <c r="J5" s="16">
+      <c r="I5" s="46">
+        <v>0</v>
+      </c>
+      <c r="J5" s="15">
         <f t="shared" si="0"/>
         <v>81.25</v>
       </c>
       <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
+      <c r="L5" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="M5" s="6"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-    </row>
-    <row r="6" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
+      <c r="N5" s="20">
+        <f t="shared" si="2"/>
+        <v>16.25</v>
+      </c>
+      <c r="O5" s="20">
+        <f t="shared" si="3"/>
+        <v>42.37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="19"/>
       <c r="B6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="71">
+      <c r="D6" s="70">
         <v>73.400000000000006</v>
       </c>
-      <c r="E6" s="38">
+      <c r="E6" s="37">
         <v>2</v>
       </c>
       <c r="F6" s="7">
@@ -5133,33 +5145,40 @@
       <c r="H6" s="7">
         <v>2</v>
       </c>
-      <c r="I6" s="47">
-        <v>0</v>
-      </c>
-      <c r="J6" s="16">
+      <c r="I6" s="46">
+        <v>0</v>
+      </c>
+      <c r="J6" s="15">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
+      <c r="L6" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="M6" s="6"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-    </row>
-    <row r="7" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
+      <c r="N6" s="20">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="O6" s="20">
+        <f t="shared" si="3"/>
+        <v>41.36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="19"/>
       <c r="B7" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" s="71">
+      <c r="D7" s="70">
         <v>73.291666666666671</v>
       </c>
-      <c r="E7" s="38">
+      <c r="E7" s="37">
         <v>2</v>
       </c>
       <c r="F7" s="7">
@@ -5171,37 +5190,44 @@
       <c r="H7" s="7">
         <v>1.5</v>
       </c>
-      <c r="I7" s="47">
-        <v>0</v>
-      </c>
-      <c r="J7" s="16">
+      <c r="I7" s="46">
+        <v>0</v>
+      </c>
+      <c r="J7" s="15">
         <f t="shared" si="0"/>
         <v>93.75</v>
       </c>
       <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
+      <c r="L7" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="M7" s="6"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-    </row>
-    <row r="8" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
+      <c r="N7" s="20">
+        <f t="shared" si="2"/>
+        <v>18.75</v>
+      </c>
+      <c r="O7" s="20">
+        <f t="shared" si="3"/>
+        <v>40.56666666666667</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="19"/>
       <c r="B8" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="71">
+      <c r="D8" s="70">
         <v>72.808333333333337</v>
       </c>
-      <c r="E8" s="38">
+      <c r="E8" s="37">
         <v>2</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G8" s="7">
         <v>0</v>
@@ -5209,33 +5235,40 @@
       <c r="H8" s="7">
         <v>1.9</v>
       </c>
-      <c r="I8" s="47">
+      <c r="I8" s="46">
         <v>1</v>
       </c>
-      <c r="J8" s="16">
+      <c r="J8" s="15">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
       <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
+      <c r="L8" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="M8" s="6"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-    </row>
-    <row r="9" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
+      <c r="N8" s="20">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="O8" s="20">
+        <f t="shared" si="3"/>
+        <v>36.923333333333332</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="19"/>
       <c r="B9" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D9" s="71">
+      <c r="D9" s="70">
         <v>72.258333333333326</v>
       </c>
-      <c r="E9" s="38">
+      <c r="E9" s="37">
         <v>2</v>
       </c>
       <c r="F9" s="7">
@@ -5247,37 +5280,44 @@
       <c r="H9" s="7">
         <v>2</v>
       </c>
-      <c r="I9" s="47">
-        <v>0</v>
-      </c>
-      <c r="J9" s="16">
+      <c r="I9" s="46">
+        <v>0</v>
+      </c>
+      <c r="J9" s="15">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
+      <c r="L9" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="M9" s="6"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-    </row>
-    <row r="10" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
+      <c r="N9" s="20">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="O9" s="20">
+        <f t="shared" si="3"/>
+        <v>40.903333333333336</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="19"/>
       <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" s="71">
+        <v>66</v>
+      </c>
+      <c r="D10" s="70">
         <v>72.058333333333337</v>
       </c>
-      <c r="E10" s="38">
+      <c r="E10" s="37">
         <v>2</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G10" s="7">
         <v>0</v>
@@ -5285,33 +5325,40 @@
       <c r="H10" s="7">
         <v>2</v>
       </c>
-      <c r="I10" s="47">
-        <v>0</v>
-      </c>
-      <c r="J10" s="16">
+      <c r="I10" s="46">
+        <v>0</v>
+      </c>
+      <c r="J10" s="15">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
+      <c r="L10" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="M10" s="6"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
-    </row>
-    <row r="11" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
+      <c r="N10" s="20">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="O10" s="20">
+        <f t="shared" si="3"/>
+        <v>34.823333333333338</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="19"/>
       <c r="B11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="71">
+      <c r="D11" s="70">
         <v>68.166666666666671</v>
       </c>
-      <c r="E11" s="38">
+      <c r="E11" s="37">
         <v>2</v>
       </c>
       <c r="F11" s="7">
@@ -5323,33 +5370,40 @@
       <c r="H11" s="7">
         <v>1.9</v>
       </c>
-      <c r="I11" s="47">
-        <v>0</v>
-      </c>
-      <c r="J11" s="16">
+      <c r="I11" s="46">
+        <v>0</v>
+      </c>
+      <c r="J11" s="15">
         <f t="shared" si="0"/>
         <v>98.75</v>
       </c>
       <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
+      <c r="L11" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="M11" s="6"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-    </row>
-    <row r="12" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
+      <c r="N11" s="20">
+        <f t="shared" si="2"/>
+        <v>19.75</v>
+      </c>
+      <c r="O11" s="20">
+        <f t="shared" si="3"/>
+        <v>39.116666666666667</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="19"/>
       <c r="B12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="D12" s="71">
+        <v>76</v>
+      </c>
+      <c r="D12" s="70">
         <v>65.558333333333337</v>
       </c>
-      <c r="E12" s="38">
+      <c r="E12" s="37">
         <v>2</v>
       </c>
       <c r="F12" s="7">
@@ -5361,33 +5415,40 @@
       <c r="H12" s="7">
         <v>2</v>
       </c>
-      <c r="I12" s="47">
-        <v>0</v>
-      </c>
-      <c r="J12" s="16">
+      <c r="I12" s="46">
+        <v>0</v>
+      </c>
+      <c r="J12" s="15">
         <f t="shared" si="0"/>
         <v>98.75</v>
       </c>
       <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
+      <c r="L12" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="M12" s="6"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-    </row>
-    <row r="13" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
+      <c r="N12" s="20">
+        <f t="shared" si="2"/>
+        <v>19.75</v>
+      </c>
+      <c r="O12" s="20">
+        <f t="shared" si="3"/>
+        <v>38.073333333333338</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="19"/>
       <c r="B13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="71">
+      <c r="D13" s="70">
         <v>63.625</v>
       </c>
-      <c r="E13" s="38">
+      <c r="E13" s="37">
         <v>2</v>
       </c>
       <c r="F13" s="7">
@@ -5399,37 +5460,44 @@
       <c r="H13" s="7">
         <v>1.9</v>
       </c>
-      <c r="I13" s="47">
-        <v>0</v>
-      </c>
-      <c r="J13" s="16">
+      <c r="I13" s="46">
+        <v>0</v>
+      </c>
+      <c r="J13" s="15">
         <f t="shared" si="0"/>
         <v>98.75</v>
       </c>
       <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
+      <c r="L13" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="M13" s="6"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
-    </row>
-    <row r="14" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
+      <c r="N13" s="20">
+        <f t="shared" si="2"/>
+        <v>19.75</v>
+      </c>
+      <c r="O13" s="20">
+        <f t="shared" si="3"/>
+        <v>37.300000000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="19"/>
       <c r="B14" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14" s="71">
+      <c r="D14" s="70">
         <v>60.866666666666674</v>
       </c>
-      <c r="E14" s="38">
+      <c r="E14" s="37">
         <v>2</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G14" s="7">
         <v>0</v>
@@ -5437,36 +5505,43 @@
       <c r="H14" s="7">
         <v>2</v>
       </c>
-      <c r="I14" s="47">
+      <c r="I14" s="46">
         <v>1</v>
       </c>
-      <c r="J14" s="16">
+      <c r="J14" s="15">
         <f t="shared" si="0"/>
         <v>66.666666666666671</v>
       </c>
       <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
+      <c r="L14" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="M14" s="6"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
-    </row>
-    <row r="15" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="20"/>
+      <c r="N14" s="20">
+        <f t="shared" si="2"/>
+        <v>13.333333333333336</v>
+      </c>
+      <c r="O14" s="20">
+        <f t="shared" si="3"/>
+        <v>32.346666666666671</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="19"/>
       <c r="B15" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="C15" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D15" s="71">
+      <c r="D15" s="70">
         <v>54.858333333333334</v>
       </c>
-      <c r="E15" s="38">
-        <v>0</v>
-      </c>
-      <c r="F15" s="41">
+      <c r="E15" s="37">
+        <v>0</v>
+      </c>
+      <c r="F15" s="40">
         <v>0</v>
       </c>
       <c r="G15" s="7">
@@ -5475,33 +5550,40 @@
       <c r="H15" s="7">
         <v>0</v>
       </c>
-      <c r="I15" s="47">
-        <v>0</v>
-      </c>
-      <c r="J15" s="16">
+      <c r="I15" s="46">
+        <v>0</v>
+      </c>
+      <c r="J15" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
+      <c r="L15" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="M15" s="6"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
-    </row>
-    <row r="16" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
+      <c r="N15" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="20">
+        <f t="shared" si="3"/>
+        <v>21.943333333333335</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="19"/>
       <c r="B16" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C16" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D16" s="71">
+      <c r="D16" s="70">
         <v>52.2</v>
       </c>
-      <c r="E16" s="38">
+      <c r="E16" s="37">
         <v>0</v>
       </c>
       <c r="F16" s="7">
@@ -5513,33 +5595,40 @@
       <c r="H16" s="7">
         <v>0</v>
       </c>
-      <c r="I16" s="47">
-        <v>0</v>
-      </c>
-      <c r="J16" s="16">
+      <c r="I16" s="46">
+        <v>0</v>
+      </c>
+      <c r="J16" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
+      <c r="L16" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="M16" s="6"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
-    </row>
-    <row r="17" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
+      <c r="N16" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O16" s="20">
+        <f t="shared" si="3"/>
+        <v>20.880000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="19"/>
       <c r="B17" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="71">
+      <c r="D17" s="70">
         <v>47.633333333333333</v>
       </c>
-      <c r="E17" s="38">
+      <c r="E17" s="37">
         <v>1</v>
       </c>
       <c r="F17" s="7">
@@ -5551,33 +5640,40 @@
       <c r="H17" s="7">
         <v>1.7</v>
       </c>
-      <c r="I17" s="47">
-        <v>0</v>
-      </c>
-      <c r="J17" s="16">
+      <c r="I17" s="46">
+        <v>0</v>
+      </c>
+      <c r="J17" s="15">
         <f t="shared" si="0"/>
         <v>81.25</v>
       </c>
       <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
+      <c r="L17" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="M17" s="6"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="21"/>
-    </row>
-    <row r="18" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
+      <c r="N17" s="20">
+        <f t="shared" si="2"/>
+        <v>16.25</v>
+      </c>
+      <c r="O17" s="20">
+        <f t="shared" si="3"/>
+        <v>28.803333333333335</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="19"/>
       <c r="B18" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="D18" s="71">
+      <c r="D18" s="70">
         <v>44.083333333333336</v>
       </c>
-      <c r="E18" s="38">
+      <c r="E18" s="37">
         <v>0</v>
       </c>
       <c r="F18" s="7">
@@ -5589,33 +5685,40 @@
       <c r="H18" s="7">
         <v>0</v>
       </c>
-      <c r="I18" s="47">
-        <v>0</v>
-      </c>
-      <c r="J18" s="16">
+      <c r="I18" s="46">
+        <v>0</v>
+      </c>
+      <c r="J18" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
+      <c r="L18" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="M18" s="6"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="21"/>
-    </row>
-    <row r="19" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
+      <c r="N18" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O18" s="20">
+        <f t="shared" si="3"/>
+        <v>17.633333333333336</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="19"/>
       <c r="B19" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C19" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="D19" s="71">
+      <c r="D19" s="70">
         <v>43.75</v>
       </c>
-      <c r="E19" s="38">
+      <c r="E19" s="37">
         <v>2</v>
       </c>
       <c r="F19" s="7">
@@ -5627,33 +5730,40 @@
       <c r="H19" s="7">
         <v>0</v>
       </c>
-      <c r="I19" s="47">
-        <v>0</v>
-      </c>
-      <c r="J19" s="16">
+      <c r="I19" s="46">
+        <v>0</v>
+      </c>
+      <c r="J19" s="15">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
+      <c r="L19" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="M19" s="6"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="21"/>
-    </row>
-    <row r="20" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="20"/>
+      <c r="N19" s="20">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="O19" s="20">
+        <f t="shared" si="3"/>
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="19"/>
       <c r="B20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="71">
+      <c r="D20" s="70">
         <v>39.75</v>
       </c>
-      <c r="E20" s="38">
+      <c r="E20" s="37">
         <v>2</v>
       </c>
       <c r="F20" s="7">
@@ -5665,33 +5775,40 @@
       <c r="H20" s="7">
         <v>0</v>
       </c>
-      <c r="I20" s="47">
-        <v>0</v>
-      </c>
-      <c r="J20" s="16">
+      <c r="I20" s="46">
+        <v>0</v>
+      </c>
+      <c r="J20" s="15">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
       <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
+      <c r="L20" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="M20" s="6"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="21"/>
-    </row>
-    <row r="21" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
+      <c r="N20" s="20">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="O20" s="20">
+        <f t="shared" si="3"/>
+        <v>24.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="19"/>
       <c r="B21" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="71">
+      <c r="D21" s="70">
         <v>9.5833333333333339</v>
       </c>
-      <c r="E21" s="38">
+      <c r="E21" s="37">
         <v>0</v>
       </c>
       <c r="F21" s="7">
@@ -5703,33 +5820,40 @@
       <c r="H21" s="7">
         <v>0</v>
       </c>
-      <c r="I21" s="47">
-        <v>0</v>
-      </c>
-      <c r="J21" s="16">
+      <c r="I21" s="46">
+        <v>0</v>
+      </c>
+      <c r="J21" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
+      <c r="L21" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="M21" s="6"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="21"/>
-    </row>
-    <row r="22" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="20"/>
-      <c r="B22" s="56" t="s">
+      <c r="N21" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O21" s="20">
+        <f t="shared" si="3"/>
+        <v>3.8333333333333339</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="19"/>
+      <c r="B22" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="57" t="s">
+      <c r="C22" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="71">
-        <v>0</v>
-      </c>
-      <c r="E22" s="38">
+      <c r="D22" s="70">
+        <v>0</v>
+      </c>
+      <c r="E22" s="37">
         <v>0</v>
       </c>
       <c r="F22" s="7">
@@ -5741,33 +5865,40 @@
       <c r="H22" s="7">
         <v>0</v>
       </c>
-      <c r="I22" s="47">
-        <v>0</v>
-      </c>
-      <c r="J22" s="16">
+      <c r="I22" s="46">
+        <v>0</v>
+      </c>
+      <c r="J22" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
+      <c r="L22" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="M22" s="6"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="21"/>
-    </row>
-    <row r="23" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
-      <c r="B23" s="56" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" s="57" t="s">
+      <c r="N22" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O22" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="19"/>
+      <c r="B23" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="71">
-        <v>0</v>
-      </c>
-      <c r="E23" s="38">
+      <c r="D23" s="70">
+        <v>0</v>
+      </c>
+      <c r="E23" s="37">
         <v>0</v>
       </c>
       <c r="F23" s="7">
@@ -5779,33 +5910,40 @@
       <c r="H23" s="7">
         <v>0</v>
       </c>
-      <c r="I23" s="47">
-        <v>0</v>
-      </c>
-      <c r="J23" s="16">
+      <c r="I23" s="46">
+        <v>0</v>
+      </c>
+      <c r="J23" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
+      <c r="L23" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="M23" s="6"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="21"/>
-    </row>
-    <row r="24" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="20"/>
-      <c r="B24" s="56" t="s">
+      <c r="N23" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O23" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="19"/>
+      <c r="B24" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="57" t="s">
+      <c r="C24" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="71">
-        <v>0</v>
-      </c>
-      <c r="E24" s="38">
+      <c r="D24" s="70">
+        <v>0</v>
+      </c>
+      <c r="E24" s="37">
         <v>0</v>
       </c>
       <c r="F24" s="7">
@@ -5817,33 +5955,40 @@
       <c r="H24" s="7">
         <v>0</v>
       </c>
-      <c r="I24" s="47">
-        <v>0</v>
-      </c>
-      <c r="J24" s="16">
+      <c r="I24" s="46">
+        <v>0</v>
+      </c>
+      <c r="J24" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
+      <c r="L24" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="M24" s="6"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="21"/>
-    </row>
-    <row r="25" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="20"/>
-      <c r="B25" s="56" t="s">
+      <c r="N24" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O24" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="19"/>
+      <c r="B25" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="57" t="s">
+      <c r="C25" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="71">
-        <v>0</v>
-      </c>
-      <c r="E25" s="38">
+      <c r="D25" s="70">
+        <v>0</v>
+      </c>
+      <c r="E25" s="37">
         <v>0</v>
       </c>
       <c r="F25" s="12">
@@ -5855,33 +6000,40 @@
       <c r="H25" s="7">
         <v>0</v>
       </c>
-      <c r="I25" s="47">
-        <v>0</v>
-      </c>
-      <c r="J25" s="16">
+      <c r="I25" s="46">
+        <v>0</v>
+      </c>
+      <c r="J25" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
+      <c r="L25" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="M25" s="6"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="21"/>
-      <c r="Q25" s="21"/>
-    </row>
-    <row r="26" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="20"/>
-      <c r="B26" s="56" t="s">
+      <c r="N25" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O25" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="19"/>
+      <c r="B26" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="57" t="s">
+      <c r="C26" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="71">
-        <v>0</v>
-      </c>
-      <c r="E26" s="38">
+      <c r="D26" s="70">
+        <v>0</v>
+      </c>
+      <c r="E26" s="37">
         <v>0</v>
       </c>
       <c r="F26" s="7">
@@ -5893,33 +6045,40 @@
       <c r="H26" s="7">
         <v>0</v>
       </c>
-      <c r="I26" s="47">
-        <v>0</v>
-      </c>
-      <c r="J26" s="16">
+      <c r="I26" s="46">
+        <v>0</v>
+      </c>
+      <c r="J26" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
+      <c r="L26" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="M26" s="6"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="21"/>
-      <c r="Q26" s="21"/>
-    </row>
-    <row r="27" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="20"/>
-      <c r="B27" s="56" t="s">
+      <c r="N26" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O26" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="19"/>
+      <c r="B27" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="57" t="s">
+      <c r="C27" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="71">
-        <v>0</v>
-      </c>
-      <c r="E27" s="38">
+      <c r="D27" s="70">
+        <v>0</v>
+      </c>
+      <c r="E27" s="37">
         <v>0</v>
       </c>
       <c r="F27" s="7">
@@ -5931,33 +6090,40 @@
       <c r="H27" s="7">
         <v>0</v>
       </c>
-      <c r="I27" s="47">
-        <v>0</v>
-      </c>
-      <c r="J27" s="16">
+      <c r="I27" s="46">
+        <v>0</v>
+      </c>
+      <c r="J27" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
+      <c r="L27" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="M27" s="6"/>
-      <c r="N27" s="16"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="21"/>
-    </row>
-    <row r="28" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="20"/>
-      <c r="B28" s="56" t="s">
+      <c r="N27" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O27" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="19"/>
+      <c r="B28" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="57" t="s">
+      <c r="C28" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="D28" s="71">
-        <v>0</v>
-      </c>
-      <c r="E28" s="38">
+      <c r="D28" s="70">
+        <v>0</v>
+      </c>
+      <c r="E28" s="37">
         <v>0</v>
       </c>
       <c r="F28" s="7">
@@ -5969,33 +6135,40 @@
       <c r="H28" s="7">
         <v>0</v>
       </c>
-      <c r="I28" s="47">
-        <v>0</v>
-      </c>
-      <c r="J28" s="16">
+      <c r="I28" s="46">
+        <v>0</v>
+      </c>
+      <c r="J28" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
+      <c r="L28" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="M28" s="6"/>
-      <c r="N28" s="16"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="21"/>
-      <c r="Q28" s="21"/>
-    </row>
-    <row r="29" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="20"/>
-      <c r="B29" s="56" t="s">
+      <c r="N28" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O28" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="19"/>
+      <c r="B29" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="57" t="s">
+      <c r="C29" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="71">
-        <v>0</v>
-      </c>
-      <c r="E29" s="38">
+      <c r="D29" s="70">
+        <v>0</v>
+      </c>
+      <c r="E29" s="37">
         <v>0</v>
       </c>
       <c r="F29" s="7">
@@ -6007,33 +6180,40 @@
       <c r="H29" s="7">
         <v>0</v>
       </c>
-      <c r="I29" s="47">
-        <v>0</v>
-      </c>
-      <c r="J29" s="16">
+      <c r="I29" s="46">
+        <v>0</v>
+      </c>
+      <c r="J29" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
+      <c r="L29" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="M29" s="6"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="6"/>
-      <c r="P29" s="21"/>
-      <c r="Q29" s="21"/>
-    </row>
-    <row r="30" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="20"/>
-      <c r="B30" s="56" t="s">
+      <c r="N29" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O29" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="19"/>
+      <c r="B30" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="C30" s="57" t="s">
-        <v>89</v>
-      </c>
-      <c r="D30" s="71">
-        <v>0</v>
-      </c>
-      <c r="E30" s="38">
+      <c r="D30" s="70">
+        <v>0</v>
+      </c>
+      <c r="E30" s="37">
         <v>0</v>
       </c>
       <c r="F30" s="7">
@@ -6045,94 +6225,95 @@
       <c r="H30" s="7">
         <v>0</v>
       </c>
-      <c r="I30" s="47">
-        <v>0</v>
-      </c>
-      <c r="J30" s="16">
+      <c r="I30" s="46">
+        <v>0</v>
+      </c>
+      <c r="J30" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
+      <c r="L30" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="M30" s="6"/>
-      <c r="N30" s="16"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="21"/>
-      <c r="Q30" s="21"/>
-    </row>
-    <row r="31" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="20"/>
+      <c r="N30" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O30" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="19"/>
       <c r="B31" s="11"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="71"/>
-      <c r="E31" s="38"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="70"/>
+      <c r="E31" s="37"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
-      <c r="I31" s="80"/>
-      <c r="J31" s="16"/>
+      <c r="I31" s="79"/>
+      <c r="J31" s="15"/>
       <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
+      <c r="L31" s="15"/>
       <c r="M31" s="6"/>
-      <c r="N31" s="16"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="21"/>
-      <c r="Q31" s="21"/>
-    </row>
-    <row r="32" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="31"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="71"/>
-      <c r="E32" s="38"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="20"/>
+    </row>
+    <row r="32" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="30"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="70"/>
+      <c r="E32" s="37"/>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
-      <c r="I32" s="80"/>
-      <c r="J32" s="16"/>
+      <c r="I32" s="79"/>
+      <c r="J32" s="15"/>
       <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
+      <c r="L32" s="15"/>
       <c r="M32" s="6"/>
-      <c r="N32" s="16"/>
-      <c r="O32" s="6"/>
-      <c r="P32" s="21"/>
-      <c r="Q32" s="21"/>
-    </row>
-    <row r="33" spans="1:17" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="22"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="71"/>
-      <c r="E33" s="39"/>
+      <c r="N32" s="20"/>
+      <c r="O32" s="20"/>
+    </row>
+    <row r="33" spans="1:15" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="21"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="70"/>
+      <c r="E33" s="38"/>
       <c r="F33" s="13"/>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
-      <c r="I33" s="80"/>
-      <c r="J33" s="16"/>
+      <c r="I33" s="79"/>
+      <c r="J33" s="15"/>
       <c r="K33" s="6"/>
       <c r="L33" s="15"/>
       <c r="M33" s="6"/>
-      <c r="N33" s="16"/>
-      <c r="O33" s="6"/>
-      <c r="P33" s="21"/>
-      <c r="Q33" s="21"/>
-    </row>
-    <row r="34" spans="1:17" s="9" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N33" s="20"/>
+      <c r="O33" s="20"/>
+    </row>
+    <row r="34" spans="1:15" s="9" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
-      <c r="D34" s="72"/>
+      <c r="D34" s="71"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
     </row>
-    <row r="35" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
-      <c r="D35" s="72"/>
+      <c r="D35" s="71"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
@@ -6140,14 +6321,12 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="9"/>
-    </row>
-    <row r="36" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
-      <c r="D36" s="72"/>
+      <c r="D36" s="71"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
@@ -6155,14 +6334,12 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
-    </row>
-    <row r="37" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
-      <c r="D37" s="72"/>
+      <c r="D37" s="71"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
@@ -6170,14 +6347,12 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="9"/>
-    </row>
-    <row r="38" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
-      <c r="D38" s="72"/>
+      <c r="D38" s="71"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
@@ -6185,14 +6360,12 @@
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
-    </row>
-    <row r="39" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
-      <c r="D39" s="72"/>
+      <c r="D39" s="71"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
@@ -6200,14 +6373,12 @@
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="9"/>
-    </row>
-    <row r="40" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
-      <c r="D40" s="72"/>
+      <c r="D40" s="71"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
@@ -6215,14 +6386,12 @@
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
-      <c r="M40" s="9"/>
-      <c r="N40" s="9"/>
-    </row>
-    <row r="41" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
-      <c r="D41" s="72"/>
+      <c r="D41" s="71"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
@@ -6230,14 +6399,12 @@
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c r="L41" s="9"/>
-      <c r="M41" s="9"/>
-      <c r="N41" s="9"/>
-    </row>
-    <row r="42" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
-      <c r="D42" s="72"/>
+      <c r="D42" s="71"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
@@ -6245,14 +6412,12 @@
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c r="L42" s="9"/>
-      <c r="M42" s="9"/>
-      <c r="N42" s="9"/>
-    </row>
-    <row r="43" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
-      <c r="D43" s="72"/>
+      <c r="D43" s="71"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
@@ -6260,14 +6425,12 @@
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c r="L43" s="9"/>
-      <c r="M43" s="9"/>
-      <c r="N43" s="9"/>
-    </row>
-    <row r="44" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
-      <c r="D44" s="72"/>
+      <c r="D44" s="71"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
@@ -6275,14 +6438,12 @@
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c r="L44" s="9"/>
-      <c r="M44" s="9"/>
-      <c r="N44" s="9"/>
-    </row>
-    <row r="45" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
-      <c r="D45" s="72"/>
+      <c r="D45" s="71"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
@@ -6290,14 +6451,12 @@
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c r="L45" s="9"/>
-      <c r="M45" s="9"/>
-      <c r="N45" s="9"/>
-    </row>
-    <row r="46" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
-      <c r="D46" s="72"/>
+      <c r="D46" s="71"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
@@ -6305,14 +6464,12 @@
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c r="L46" s="9"/>
-      <c r="M46" s="9"/>
-      <c r="N46" s="9"/>
-    </row>
-    <row r="47" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
-      <c r="D47" s="72"/>
+      <c r="D47" s="71"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
@@ -6320,14 +6477,12 @@
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c r="L47" s="9"/>
-      <c r="M47" s="9"/>
-      <c r="N47" s="9"/>
-    </row>
-    <row r="48" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
-      <c r="D48" s="72"/>
+      <c r="D48" s="71"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
@@ -6335,14 +6490,12 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c r="L48" s="9"/>
-      <c r="M48" s="9"/>
-      <c r="N48" s="9"/>
-    </row>
-    <row r="49" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:12" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
-      <c r="D49" s="72"/>
+      <c r="D49" s="71"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
@@ -6350,14 +6503,12 @@
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c r="L49" s="9"/>
-      <c r="M49" s="9"/>
-      <c r="N49" s="9"/>
-    </row>
-    <row r="50" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:12" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
-      <c r="D50" s="72"/>
+      <c r="D50" s="71"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
@@ -6365,14 +6516,12 @@
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c r="L50" s="9"/>
-      <c r="M50" s="9"/>
-      <c r="N50" s="9"/>
-    </row>
-    <row r="51" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:12" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
-      <c r="D51" s="72"/>
+      <c r="D51" s="71"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
@@ -6380,14 +6529,12 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c r="L51" s="9"/>
-      <c r="M51" s="9"/>
-      <c r="N51" s="9"/>
-    </row>
-    <row r="52" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:12" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
-      <c r="D52" s="72"/>
+      <c r="D52" s="71"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
@@ -6395,14 +6542,12 @@
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c r="L52" s="9"/>
-      <c r="M52" s="9"/>
-      <c r="N52" s="9"/>
-    </row>
-    <row r="53" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:12" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
-      <c r="D53" s="72"/>
+      <c r="D53" s="71"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
@@ -6410,14 +6555,12 @@
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c r="L53" s="9"/>
-      <c r="M53" s="9"/>
-      <c r="N53" s="9"/>
-    </row>
-    <row r="54" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:12" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
-      <c r="D54" s="72"/>
+      <c r="D54" s="71"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
@@ -6425,14 +6568,12 @@
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c r="L54" s="9"/>
-      <c r="M54" s="9"/>
-      <c r="N54" s="9"/>
-    </row>
-    <row r="55" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:12" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
-      <c r="D55" s="72"/>
+      <c r="D55" s="71"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
@@ -6440,14 +6581,12 @@
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c r="L55" s="9"/>
-      <c r="M55" s="9"/>
-      <c r="N55" s="9"/>
-    </row>
-    <row r="56" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:12" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
-      <c r="D56" s="72"/>
+      <c r="D56" s="71"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
@@ -6455,14 +6594,12 @@
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c r="L56" s="9"/>
-      <c r="M56" s="9"/>
-      <c r="N56" s="9"/>
-    </row>
-    <row r="57" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:12" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
-      <c r="D57" s="72"/>
+      <c r="D57" s="71"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
@@ -6470,14 +6607,12 @@
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c r="L57" s="9"/>
-      <c r="M57" s="9"/>
-      <c r="N57" s="9"/>
-    </row>
-    <row r="58" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:12" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
-      <c r="D58" s="72"/>
+      <c r="D58" s="71"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
@@ -6485,14 +6620,12 @@
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c r="L58" s="9"/>
-      <c r="M58" s="9"/>
-      <c r="N58" s="9"/>
-    </row>
-    <row r="59" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:12" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
-      <c r="D59" s="72"/>
+      <c r="D59" s="71"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
@@ -6500,14 +6633,12 @@
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c r="L59" s="9"/>
-      <c r="M59" s="9"/>
-      <c r="N59" s="9"/>
-    </row>
-    <row r="60" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:12" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
-      <c r="D60" s="72"/>
+      <c r="D60" s="71"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
@@ -6515,14 +6646,12 @@
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c r="L60" s="9"/>
-      <c r="M60" s="9"/>
-      <c r="N60" s="9"/>
-    </row>
-    <row r="61" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:12" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
-      <c r="D61" s="72"/>
+      <c r="D61" s="71"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
@@ -6530,14 +6659,12 @@
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c r="L61" s="9"/>
-      <c r="M61" s="9"/>
-      <c r="N61" s="9"/>
-    </row>
-    <row r="62" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:12" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
-      <c r="D62" s="72"/>
+      <c r="D62" s="71"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
@@ -6545,14 +6672,12 @@
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c r="L62" s="9"/>
-      <c r="M62" s="9"/>
-      <c r="N62" s="9"/>
-    </row>
-    <row r="63" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:12" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
-      <c r="D63" s="72"/>
+      <c r="D63" s="71"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
@@ -6560,14 +6685,12 @@
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c r="L63" s="9"/>
-      <c r="M63" s="9"/>
-      <c r="N63" s="9"/>
-    </row>
-    <row r="64" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:12" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
-      <c r="D64" s="72"/>
+      <c r="D64" s="71"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
@@ -6575,14 +6698,12 @@
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c r="L64" s="9"/>
-      <c r="M64" s="9"/>
-      <c r="N64" s="9"/>
-    </row>
-    <row r="65" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:12" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
-      <c r="D65" s="72"/>
+      <c r="D65" s="71"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
@@ -6590,14 +6711,12 @@
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c r="L65" s="9"/>
-      <c r="M65" s="9"/>
-      <c r="N65" s="9"/>
-    </row>
-    <row r="66" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:12" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
-      <c r="D66" s="72"/>
+      <c r="D66" s="71"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
@@ -6605,14 +6724,12 @@
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c r="L66" s="9"/>
-      <c r="M66" s="9"/>
-      <c r="N66" s="9"/>
-    </row>
-    <row r="67" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:12" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
-      <c r="D67" s="72"/>
+      <c r="D67" s="71"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
@@ -6620,14 +6737,12 @@
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c r="L67" s="9"/>
-      <c r="M67" s="9"/>
-      <c r="N67" s="9"/>
-    </row>
-    <row r="68" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:12" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
-      <c r="D68" s="72"/>
+      <c r="D68" s="71"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
@@ -6635,14 +6750,12 @@
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c r="L68" s="9"/>
-      <c r="M68" s="9"/>
-      <c r="N68" s="9"/>
-    </row>
-    <row r="69" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:12" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
-      <c r="D69" s="72"/>
+      <c r="D69" s="71"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
@@ -6650,14 +6763,12 @@
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c r="L69" s="9"/>
-      <c r="M69" s="9"/>
-      <c r="N69" s="9"/>
-    </row>
-    <row r="70" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:12" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
-      <c r="D70" s="72"/>
+      <c r="D70" s="71"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
@@ -6665,14 +6776,12 @@
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c r="L70" s="9"/>
-      <c r="M70" s="9"/>
-      <c r="N70" s="9"/>
-    </row>
-    <row r="71" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:12" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
-      <c r="D71" s="72"/>
+      <c r="D71" s="71"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
@@ -6680,14 +6789,12 @@
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c r="L71" s="9"/>
-      <c r="M71" s="9"/>
-      <c r="N71" s="9"/>
-    </row>
-    <row r="72" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:12" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
-      <c r="D72" s="72"/>
+      <c r="D72" s="71"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
@@ -6695,14 +6802,12 @@
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c r="L72" s="9"/>
-      <c r="M72" s="9"/>
-      <c r="N72" s="9"/>
-    </row>
-    <row r="73" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:12" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
-      <c r="D73" s="72"/>
+      <c r="D73" s="71"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
@@ -6710,14 +6815,12 @@
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c r="L73" s="9"/>
-      <c r="M73" s="9"/>
-      <c r="N73" s="9"/>
-    </row>
-    <row r="74" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:12" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
-      <c r="D74" s="72"/>
+      <c r="D74" s="71"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
@@ -6725,14 +6828,12 @@
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c r="L74" s="9"/>
-      <c r="M74" s="9"/>
-      <c r="N74" s="9"/>
-    </row>
-    <row r="75" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:12" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
-      <c r="D75" s="72"/>
+      <c r="D75" s="71"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
@@ -6740,14 +6841,12 @@
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c r="L75" s="9"/>
-      <c r="M75" s="9"/>
-      <c r="N75" s="9"/>
-    </row>
-    <row r="76" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:12" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
-      <c r="D76" s="72"/>
+      <c r="D76" s="71"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
@@ -6755,14 +6854,12 @@
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c r="L76" s="9"/>
-      <c r="M76" s="9"/>
-      <c r="N76" s="9"/>
-    </row>
-    <row r="77" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:12" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
-      <c r="D77" s="72"/>
+      <c r="D77" s="71"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
@@ -6770,14 +6867,12 @@
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c r="L77" s="9"/>
-      <c r="M77" s="9"/>
-      <c r="N77" s="9"/>
-    </row>
-    <row r="78" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:12" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
-      <c r="D78" s="72"/>
+      <c r="D78" s="71"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
@@ -6785,14 +6880,12 @@
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c r="L78" s="9"/>
-      <c r="M78" s="9"/>
-      <c r="N78" s="9"/>
-    </row>
-    <row r="79" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:12" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
-      <c r="D79" s="72"/>
+      <c r="D79" s="71"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
@@ -6800,14 +6893,12 @@
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c r="L79" s="9"/>
-      <c r="M79" s="9"/>
-      <c r="N79" s="9"/>
-    </row>
-    <row r="80" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:12" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
-      <c r="D80" s="72"/>
+      <c r="D80" s="71"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
@@ -6815,14 +6906,12 @@
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c r="L80" s="9"/>
-      <c r="M80" s="9"/>
-      <c r="N80" s="9"/>
-    </row>
-    <row r="81" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:12" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
-      <c r="D81" s="72"/>
+      <c r="D81" s="71"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
@@ -6830,8 +6919,6 @@
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c r="L81" s="9"/>
-      <c r="M81" s="9"/>
-      <c r="N81" s="9"/>
     </row>
   </sheetData>
   <sortState ref="A3:Q30">
@@ -6839,7 +6926,7 @@
   </sortState>
   <mergeCells count="2">
     <mergeCell ref="E1:J1"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <conditionalFormatting sqref="E31:I33 E3:H30">
     <cfRule type="cellIs" dxfId="10" priority="26" operator="between">
@@ -6867,7 +6954,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N3:N33">
+  <conditionalFormatting sqref="L3:L33">
     <cfRule type="dataBar" priority="24">
       <dataBar>
         <cfvo type="min"/>
@@ -6881,7 +6968,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P3:P33">
+  <conditionalFormatting sqref="N3:N33">
     <cfRule type="dataBar" priority="21">
       <dataBar>
         <cfvo type="min"/>
@@ -6895,7 +6982,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K3:M33">
+  <conditionalFormatting sqref="K3:K33">
     <cfRule type="cellIs" dxfId="7" priority="17" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
@@ -6912,7 +6999,7 @@
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q3:Q33">
+  <conditionalFormatting sqref="O3:O33">
     <cfRule type="dataBar" priority="12">
       <dataBar>
         <cfvo type="min"/>
@@ -6954,7 +7041,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O3:O33">
+  <conditionalFormatting sqref="M3:M33">
     <cfRule type="cellIs" dxfId="3" priority="2" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
@@ -7010,7 +7097,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>N3:N33</xm:sqref>
+          <xm:sqref>L3:L33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F9C7B28C-32E1-4B0D-97BC-F416D05D2AA7}">
@@ -7021,7 +7108,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>P3:P33</xm:sqref>
+          <xm:sqref>N3:N33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{2008DEFA-B118-4E92-B0F8-C5059B874A32}">
@@ -7032,7 +7119,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>Q3:Q33</xm:sqref>
+          <xm:sqref>O3:O33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{FF44BC67-0C1D-46A1-8F9C-F95AA3B0ECDF}">

--- a/AdvancedJava/_docs/Notlar.xlsx
+++ b/AdvancedJava/_docs/Notlar.xlsx
@@ -956,6 +956,10 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -971,10 +975,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1509,32 +1509,32 @@
       <c r="A1" s="29"/>
       <c r="B1" s="17"/>
       <c r="C1" s="28"/>
-      <c r="D1" s="73" t="s">
+      <c r="D1" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
       <c r="L1" s="44">
         <v>6</v>
       </c>
-      <c r="M1" s="75" t="s">
+      <c r="M1" s="77" t="s">
         <v>92</v>
       </c>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
       <c r="Q1" s="43">
         <v>3</v>
       </c>
-      <c r="R1" s="75" t="s">
+      <c r="R1" s="77" t="s">
         <v>97</v>
       </c>
-      <c r="S1" s="76"/>
+      <c r="S1" s="78"/>
       <c r="T1" s="43">
         <v>2</v>
       </c>
@@ -4891,7 +4891,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P7" sqref="P7"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4918,18 +4918,18 @@
       <c r="B1" s="17"/>
       <c r="C1" s="33"/>
       <c r="D1" s="68"/>
-      <c r="E1" s="75" t="s">
+      <c r="E1" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="76" t="s">
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="78" t="s">
         <v>99</v>
       </c>
-      <c r="L1" s="77"/>
+      <c r="L1" s="79"/>
       <c r="M1" s="32" t="s">
         <v>100</v>
       </c>
@@ -4965,7 +4965,7 @@
       <c r="H2" s="26">
         <v>11</v>
       </c>
-      <c r="I2" s="78" t="s">
+      <c r="I2" s="73" t="s">
         <v>93</v>
       </c>
       <c r="J2" s="27" t="s">
@@ -5230,7 +5230,7 @@
         <v>93</v>
       </c>
       <c r="G8" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H8" s="7">
         <v>1.9</v>
@@ -5240,7 +5240,7 @@
       </c>
       <c r="J8" s="15">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>98.333333333333329</v>
       </c>
       <c r="K8" s="6"/>
       <c r="L8" s="15">
@@ -5250,11 +5250,11 @@
       <c r="M8" s="6"/>
       <c r="N8" s="20">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>19.666666666666668</v>
       </c>
       <c r="O8" s="20">
         <f t="shared" si="3"/>
-        <v>36.923333333333332</v>
+        <v>40.923333333333332</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -5320,17 +5320,17 @@
         <v>93</v>
       </c>
       <c r="G10" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
       </c>
       <c r="I10" s="46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" s="15">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K10" s="6"/>
       <c r="L10" s="15">
@@ -5340,11 +5340,11 @@
       <c r="M10" s="6"/>
       <c r="N10" s="20">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="O10" s="20">
         <f t="shared" si="3"/>
-        <v>34.823333333333338</v>
+        <v>40.823333333333338</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6256,7 +6256,7 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
-      <c r="I31" s="79"/>
+      <c r="I31" s="74"/>
       <c r="J31" s="15"/>
       <c r="K31" s="6"/>
       <c r="L31" s="15"/>
@@ -6273,7 +6273,7 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
-      <c r="I32" s="79"/>
+      <c r="I32" s="74"/>
       <c r="J32" s="15"/>
       <c r="K32" s="6"/>
       <c r="L32" s="15"/>
@@ -6290,7 +6290,7 @@
       <c r="F33" s="13"/>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
-      <c r="I33" s="79"/>
+      <c r="I33" s="74"/>
       <c r="J33" s="15"/>
       <c r="K33" s="6"/>
       <c r="L33" s="15"/>

--- a/AdvancedJava/_docs/Notlar.xlsx
+++ b/AdvancedJava/_docs/Notlar.xlsx
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="104">
   <si>
     <t>Adı</t>
   </si>
@@ -394,10 +394,19 @@
     <t>,</t>
   </si>
   <si>
-    <t>ODEV (%35)</t>
-  </si>
-  <si>
-    <t>PROJE (%45)</t>
+    <t>ODEV (%25)</t>
+  </si>
+  <si>
+    <t>DEVAM DURUMU (%45)</t>
+  </si>
+  <si>
+    <t>PROJE (%30)</t>
+  </si>
+  <si>
+    <t>BUTUNLEME</t>
+  </si>
+  <si>
+    <t>final notu şartı olabilir. 55 ya da 60 altında olduğundan büte kalabilir.</t>
   </si>
 </sst>
 </file>
@@ -822,7 +831,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -975,6 +984,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4887,11 +4904,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:O81"/>
+  <dimension ref="A1:P81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomLeft" activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4908,10 +4925,11 @@
     <col min="12" max="12" width="4.77734375" style="1" customWidth="1"/>
     <col min="13" max="13" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="5.77734375" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="1"/>
+    <col min="16" max="16" width="37.88671875" style="82" customWidth="1"/>
+    <col min="17" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="4" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="4" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="29">
         <v>4</v>
       </c>
@@ -4919,7 +4937,7 @@
       <c r="C1" s="33"/>
       <c r="D1" s="68"/>
       <c r="E1" s="77" t="s">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="F1" s="78"/>
       <c r="G1" s="78"/>
@@ -4931,7 +4949,7 @@
       </c>
       <c r="L1" s="79"/>
       <c r="M1" s="32" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N1" s="18" t="s">
         <v>39</v>
@@ -4939,8 +4957,9 @@
       <c r="O1" s="18" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" s="5" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1" s="80"/>
+    </row>
+    <row r="2" spans="1:16" s="5" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>29</v>
       </c>
@@ -4986,8 +5005,9 @@
       <c r="O2" s="18" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P2" s="81"/>
+    </row>
+    <row r="3" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
       <c r="B3" s="3" t="s">
         <v>44</v>
@@ -5017,22 +5037,26 @@
         <f>SUM(E3:H3)*50/(A$1-I3)</f>
         <v>100</v>
       </c>
-      <c r="K3" s="6"/>
+      <c r="K3" s="6">
+        <v>95</v>
+      </c>
       <c r="L3" s="15">
         <f>K3</f>
-        <v>0</v>
-      </c>
-      <c r="M3" s="6"/>
+        <v>95</v>
+      </c>
+      <c r="M3" s="6">
+        <v>95</v>
+      </c>
       <c r="N3" s="20">
-        <f>J3*0.2+L3*0.35+M3*0.45</f>
-        <v>20</v>
+        <f>J3*0.45+L3*0.25+M3*0.3+3</f>
+        <v>100.25</v>
       </c>
       <c r="O3" s="20">
         <f>D3*0.4+N3*0.6</f>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>100.15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
       <c r="B4" s="3" t="s">
         <v>81</v>
@@ -5059,43 +5083,47 @@
         <v>1</v>
       </c>
       <c r="J4" s="15">
-        <f t="shared" ref="J4:J30" si="0">SUM(E4:H4)*50/(A$1-I4)</f>
+        <f>SUM(E4:H4)*50/(A$1-I4)</f>
         <v>100</v>
       </c>
-      <c r="K4" s="6"/>
+      <c r="K4" s="6">
+        <v>65</v>
+      </c>
       <c r="L4" s="15">
-        <f t="shared" ref="L4:L30" si="1">K4</f>
-        <v>0</v>
-      </c>
-      <c r="M4" s="6"/>
+        <f>K4</f>
+        <v>65</v>
+      </c>
+      <c r="M4" s="6">
+        <v>80</v>
+      </c>
       <c r="N4" s="20">
-        <f t="shared" ref="N4:N30" si="2">J4*0.2+L4*0.35+M4*0.45</f>
-        <v>20</v>
+        <f t="shared" ref="N4:N30" si="0">J4*0.45+L4*0.25+M4*0.3+3</f>
+        <v>88.25</v>
       </c>
       <c r="O4" s="20">
-        <f t="shared" ref="O4:O30" si="3">D4*0.4+N4*0.6</f>
-        <v>48.93333333333333</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <f>D4*0.4+N4*0.6</f>
+        <v>89.883333333333326</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
       <c r="B5" s="3" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D5" s="70">
-        <v>81.55</v>
+        <v>73.400000000000006</v>
       </c>
       <c r="E5" s="37">
         <v>2</v>
       </c>
       <c r="F5" s="7">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="G5" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -5104,79 +5132,87 @@
         <v>0</v>
       </c>
       <c r="J5" s="15">
+        <f>SUM(E5:H5)*50/(A$1-I5)</f>
+        <v>100</v>
+      </c>
+      <c r="K5" s="6">
+        <v>30</v>
+      </c>
+      <c r="L5" s="15">
+        <f>K5</f>
+        <v>30</v>
+      </c>
+      <c r="M5" s="6">
+        <v>40</v>
+      </c>
+      <c r="N5" s="20">
         <f t="shared" si="0"/>
-        <v>81.25</v>
-      </c>
-      <c r="K5" s="6"/>
-      <c r="L5" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M5" s="6"/>
-      <c r="N5" s="20">
-        <f t="shared" si="2"/>
-        <v>16.25</v>
+        <v>67.5</v>
       </c>
       <c r="O5" s="20">
-        <f t="shared" si="3"/>
-        <v>42.37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <f>D5*0.4+N5*0.6</f>
+        <v>69.86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
       <c r="B6" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="70">
+        <v>73.291666666666671</v>
+      </c>
+      <c r="E6" s="37">
+        <v>2</v>
+      </c>
+      <c r="F6" s="7">
+        <v>2</v>
+      </c>
+      <c r="G6" s="7">
+        <v>2</v>
+      </c>
+      <c r="H6" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="I6" s="46">
+        <v>0</v>
+      </c>
+      <c r="J6" s="15">
+        <f>SUM(E6:H6)*50/(A$1-I6)</f>
+        <v>93.75</v>
+      </c>
+      <c r="K6" s="6">
         <v>60</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="70">
-        <v>73.400000000000006</v>
-      </c>
-      <c r="E6" s="37">
-        <v>2</v>
-      </c>
-      <c r="F6" s="7">
-        <v>2</v>
-      </c>
-      <c r="G6" s="7">
-        <v>2</v>
-      </c>
-      <c r="H6" s="7">
-        <v>2</v>
-      </c>
-      <c r="I6" s="46">
-        <v>0</v>
-      </c>
-      <c r="J6" s="15">
+      <c r="L6" s="15">
+        <f>K6</f>
+        <v>60</v>
+      </c>
+      <c r="M6" s="6">
+        <v>15</v>
+      </c>
+      <c r="N6" s="20">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="K6" s="6"/>
-      <c r="L6" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M6" s="6"/>
-      <c r="N6" s="20">
-        <f t="shared" si="2"/>
-        <v>20</v>
+        <v>64.6875</v>
       </c>
       <c r="O6" s="20">
-        <f t="shared" si="3"/>
-        <v>41.36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <f>D6*0.4+N6*0.6</f>
+        <v>68.129166666666663</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7" s="3" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="D7" s="70">
-        <v>73.291666666666671</v>
+        <v>72.258333333333326</v>
       </c>
       <c r="E7" s="37">
         <v>2</v>
@@ -5188,91 +5224,99 @@
         <v>2</v>
       </c>
       <c r="H7" s="7">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="I7" s="46">
         <v>0</v>
       </c>
       <c r="J7" s="15">
+        <f>SUM(E7:H7)*50/(A$1-I7)</f>
+        <v>100</v>
+      </c>
+      <c r="K7" s="6">
+        <v>45</v>
+      </c>
+      <c r="L7" s="15">
+        <f>K7</f>
+        <v>45</v>
+      </c>
+      <c r="M7" s="6">
+        <v>15</v>
+      </c>
+      <c r="N7" s="20">
         <f t="shared" si="0"/>
-        <v>93.75</v>
-      </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M7" s="6"/>
-      <c r="N7" s="20">
-        <f t="shared" si="2"/>
-        <v>18.75</v>
+        <v>63.75</v>
       </c>
       <c r="O7" s="20">
-        <f t="shared" si="3"/>
-        <v>40.56666666666667</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <f>D7*0.4+N7*0.6</f>
+        <v>67.153333333333336</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
       <c r="B8" s="3" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="D8" s="70">
-        <v>72.808333333333337</v>
+        <v>81.55</v>
       </c>
       <c r="E8" s="37">
         <v>2</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>93</v>
+      <c r="F8" s="7">
+        <v>1.5</v>
       </c>
       <c r="G8" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8" s="7">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="I8" s="46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="15">
+        <f>SUM(E8:H8)*50/(A$1-I8)</f>
+        <v>81.25</v>
+      </c>
+      <c r="K8" s="6">
+        <v>50</v>
+      </c>
+      <c r="L8" s="15">
+        <f>K8</f>
+        <v>50</v>
+      </c>
+      <c r="M8" s="6">
+        <v>15</v>
+      </c>
+      <c r="N8" s="20">
         <f t="shared" si="0"/>
-        <v>98.333333333333329</v>
-      </c>
-      <c r="K8" s="6"/>
-      <c r="L8" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M8" s="6"/>
-      <c r="N8" s="20">
-        <f t="shared" si="2"/>
-        <v>19.666666666666668</v>
+        <v>56.5625</v>
       </c>
       <c r="O8" s="20">
-        <f t="shared" si="3"/>
-        <v>40.923333333333332</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <f>D8*0.4+N8*0.6</f>
+        <v>66.557500000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
       <c r="B9" s="3" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D9" s="70">
-        <v>72.258333333333326</v>
+        <v>65.558333333333337</v>
       </c>
       <c r="E9" s="37">
         <v>2</v>
       </c>
       <c r="F9" s="7">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="G9" s="7">
         <v>2</v>
@@ -5284,160 +5328,185 @@
         <v>0</v>
       </c>
       <c r="J9" s="15">
+        <f>SUM(E9:H9)*50/(A$1-I9)</f>
+        <v>98.75</v>
+      </c>
+      <c r="K9" s="6">
+        <v>45</v>
+      </c>
+      <c r="L9" s="15">
+        <f>K9</f>
+        <v>45</v>
+      </c>
+      <c r="M9" s="6">
+        <v>15</v>
+      </c>
+      <c r="N9" s="20">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="K9" s="6"/>
-      <c r="L9" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M9" s="6"/>
-      <c r="N9" s="20">
-        <f t="shared" si="2"/>
-        <v>20</v>
+        <v>63.1875</v>
       </c>
       <c r="O9" s="20">
-        <f t="shared" si="3"/>
-        <v>40.903333333333336</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <f>D9*0.4+N9*0.6</f>
+        <v>64.135833333333338</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
       <c r="B10" s="3" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="D10" s="70">
-        <v>72.058333333333337</v>
+        <v>68.166666666666671</v>
       </c>
       <c r="E10" s="37">
         <v>2</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>93</v>
+      <c r="F10" s="7">
+        <v>2</v>
       </c>
       <c r="G10" s="7">
         <v>2</v>
       </c>
       <c r="H10" s="7">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="I10" s="46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="15">
+        <f>SUM(E10:H10)*50/(A$1-I10)</f>
+        <v>98.75</v>
+      </c>
+      <c r="K10" s="6">
+        <v>0</v>
+      </c>
+      <c r="L10" s="15">
+        <f>K10</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="6">
+        <v>35</v>
+      </c>
+      <c r="N10" s="20">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="K10" s="6"/>
-      <c r="L10" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M10" s="6"/>
-      <c r="N10" s="20">
-        <f t="shared" si="2"/>
-        <v>20</v>
+        <v>57.9375</v>
       </c>
       <c r="O10" s="20">
-        <f t="shared" si="3"/>
-        <v>40.823333333333338</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <f>D10*0.4+N10*0.6</f>
+        <v>62.029166666666669</v>
+      </c>
+      <c r="P10" s="82" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
       <c r="B11" s="3" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="D11" s="70">
-        <v>68.166666666666671</v>
+        <v>72.058333333333337</v>
       </c>
       <c r="E11" s="37">
         <v>2</v>
       </c>
-      <c r="F11" s="7">
-        <v>2</v>
+      <c r="F11" s="7" t="s">
+        <v>93</v>
       </c>
       <c r="G11" s="7">
         <v>2</v>
       </c>
       <c r="H11" s="7">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="I11" s="46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" s="15">
+        <f>SUM(E11:H11)*50/(A$1-I11)</f>
+        <v>100</v>
+      </c>
+      <c r="K11" s="6">
+        <v>0</v>
+      </c>
+      <c r="L11" s="15">
+        <f>K11</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="6">
+        <v>15</v>
+      </c>
+      <c r="N11" s="20">
         <f t="shared" si="0"/>
-        <v>98.75</v>
-      </c>
-      <c r="K11" s="6"/>
-      <c r="L11" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M11" s="6"/>
-      <c r="N11" s="20">
-        <f t="shared" si="2"/>
-        <v>19.75</v>
+        <v>52.5</v>
       </c>
       <c r="O11" s="20">
-        <f t="shared" si="3"/>
-        <v>39.116666666666667</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <f>D11*0.4+N11*0.6</f>
+        <v>60.323333333333338</v>
+      </c>
+      <c r="P11" s="82" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
       <c r="B12" s="3" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="D12" s="70">
-        <v>65.558333333333337</v>
+        <v>72.808333333333337</v>
       </c>
       <c r="E12" s="37">
         <v>2</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G12" s="7">
+        <v>2</v>
+      </c>
+      <c r="H12" s="7">
         <v>1.9</v>
       </c>
-      <c r="G12" s="7">
-        <v>2</v>
-      </c>
-      <c r="H12" s="7">
-        <v>2</v>
-      </c>
       <c r="I12" s="46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" s="15">
+        <f>SUM(E12:H12)*50/(A$1-I12)</f>
+        <v>98.333333333333329</v>
+      </c>
+      <c r="K12" s="6">
+        <v>0</v>
+      </c>
+      <c r="L12" s="15">
+        <f>K12</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="6">
+        <v>15</v>
+      </c>
+      <c r="N12" s="20">
         <f t="shared" si="0"/>
-        <v>98.75</v>
-      </c>
-      <c r="K12" s="6"/>
-      <c r="L12" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M12" s="6"/>
-      <c r="N12" s="20">
-        <f t="shared" si="2"/>
-        <v>19.75</v>
+        <v>51.75</v>
       </c>
       <c r="O12" s="20">
-        <f t="shared" si="3"/>
-        <v>38.073333333333338</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <f>D12*0.4+N12*0.6</f>
+        <v>60.173333333333332</v>
+      </c>
+      <c r="P12" s="82" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="B13" s="3" t="s">
         <v>50</v>
@@ -5464,133 +5533,154 @@
         <v>0</v>
       </c>
       <c r="J13" s="15">
+        <f>SUM(E13:H13)*50/(A$1-I13)</f>
+        <v>98.75</v>
+      </c>
+      <c r="K13" s="6">
+        <v>-25</v>
+      </c>
+      <c r="L13" s="15">
+        <f>K13</f>
+        <v>-25</v>
+      </c>
+      <c r="M13" s="6">
+        <v>15</v>
+      </c>
+      <c r="N13" s="20">
         <f t="shared" si="0"/>
-        <v>98.75</v>
-      </c>
-      <c r="K13" s="6"/>
-      <c r="L13" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M13" s="6"/>
-      <c r="N13" s="20">
-        <f t="shared" si="2"/>
-        <v>19.75</v>
+        <v>45.6875</v>
       </c>
       <c r="O13" s="20">
-        <f t="shared" si="3"/>
-        <v>37.300000000000004</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <f>D13*0.4+N13*0.6</f>
+        <v>52.862499999999997</v>
+      </c>
+      <c r="P13" s="82" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
       <c r="B14" s="3" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="D14" s="70">
-        <v>60.866666666666674</v>
+        <v>47.633333333333333</v>
       </c>
       <c r="E14" s="37">
-        <v>2</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>93</v>
+        <v>1</v>
+      </c>
+      <c r="F14" s="7">
+        <v>1.8</v>
       </c>
       <c r="G14" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H14" s="7">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="I14" s="46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" s="15">
+        <f>SUM(E14:H14)*50/(A$1-I14)</f>
+        <v>81.25</v>
+      </c>
+      <c r="K14" s="6">
+        <v>0</v>
+      </c>
+      <c r="L14" s="15">
+        <f>K14</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="6">
+        <v>30</v>
+      </c>
+      <c r="N14" s="20">
         <f t="shared" si="0"/>
-        <v>66.666666666666671</v>
-      </c>
-      <c r="K14" s="6"/>
-      <c r="L14" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M14" s="6"/>
-      <c r="N14" s="20">
-        <f t="shared" si="2"/>
-        <v>13.333333333333336</v>
+        <v>48.5625</v>
       </c>
       <c r="O14" s="20">
-        <f t="shared" si="3"/>
-        <v>32.346666666666671</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <f>D14*0.4+N14*0.6</f>
+        <v>48.19083333333333</v>
+      </c>
+      <c r="P14" s="82" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
       <c r="B15" s="3" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="D15" s="70">
-        <v>54.858333333333334</v>
+        <v>60.866666666666674</v>
       </c>
       <c r="E15" s="37">
-        <v>0</v>
-      </c>
-      <c r="F15" s="40">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>93</v>
       </c>
       <c r="G15" s="7">
         <v>0</v>
       </c>
       <c r="H15" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" s="46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" s="15">
+        <f>SUM(E15:H15)*50/(A$1-I15)</f>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="K15" s="6">
+        <v>0</v>
+      </c>
+      <c r="L15" s="15">
+        <f>K15</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="6">
+        <v>15</v>
+      </c>
+      <c r="N15" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K15" s="6"/>
-      <c r="L15" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M15" s="6"/>
-      <c r="N15" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="O15" s="20">
-        <f t="shared" si="3"/>
-        <v>21.943333333333335</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <f>D15*0.4+N15*0.6</f>
+        <v>46.846666666666671</v>
+      </c>
+      <c r="P15" s="82" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
       <c r="B16" s="3" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="D16" s="70">
-        <v>52.2</v>
+        <v>39.75</v>
       </c>
       <c r="E16" s="37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F16" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G16" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5599,85 +5689,99 @@
         <v>0</v>
       </c>
       <c r="J16" s="15">
+        <f>SUM(E16:H16)*50/(A$1-I16)</f>
+        <v>75</v>
+      </c>
+      <c r="K16" s="6">
+        <v>0</v>
+      </c>
+      <c r="L16" s="15">
+        <f>K16</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="6">
+        <v>35</v>
+      </c>
+      <c r="N16" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K16" s="6"/>
-      <c r="L16" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M16" s="6"/>
-      <c r="N16" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>47.25</v>
       </c>
       <c r="O16" s="20">
-        <f t="shared" si="3"/>
-        <v>20.880000000000003</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <f>D16*0.4+N16*0.6</f>
+        <v>44.25</v>
+      </c>
+      <c r="P16" s="82" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19"/>
       <c r="B17" s="3" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="D17" s="70">
-        <v>47.633333333333333</v>
+        <v>54.858333333333334</v>
       </c>
       <c r="E17" s="37">
-        <v>1</v>
-      </c>
-      <c r="F17" s="7">
-        <v>1.8</v>
+        <v>0</v>
+      </c>
+      <c r="F17" s="40">
+        <v>0</v>
       </c>
       <c r="G17" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H17" s="7">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="I17" s="46">
         <v>0</v>
       </c>
       <c r="J17" s="15">
+        <f>SUM(E17:H17)*50/(A$1-I17)</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="6">
+        <v>55</v>
+      </c>
+      <c r="L17" s="15">
+        <f>K17</f>
+        <v>55</v>
+      </c>
+      <c r="M17" s="6">
+        <v>0</v>
+      </c>
+      <c r="N17" s="20">
         <f t="shared" si="0"/>
-        <v>81.25</v>
-      </c>
-      <c r="K17" s="6"/>
-      <c r="L17" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M17" s="6"/>
-      <c r="N17" s="20">
-        <f t="shared" si="2"/>
-        <v>16.25</v>
+        <v>16.75</v>
       </c>
       <c r="O17" s="20">
-        <f t="shared" si="3"/>
-        <v>28.803333333333335</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <f>D17*0.4+N17*0.6</f>
+        <v>31.993333333333332</v>
+      </c>
+      <c r="P17" s="82" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19"/>
       <c r="B18" s="3" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="D18" s="70">
-        <v>44.083333333333336</v>
+        <v>43.75</v>
       </c>
       <c r="E18" s="37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F18" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G18" s="7">
         <v>0</v>
@@ -5689,40 +5793,47 @@
         <v>0</v>
       </c>
       <c r="J18" s="15">
+        <f>SUM(E18:H18)*50/(A$1-I18)</f>
+        <v>50</v>
+      </c>
+      <c r="K18" s="6">
+        <v>0</v>
+      </c>
+      <c r="L18" s="15">
+        <f>K18</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="6">
+        <v>0</v>
+      </c>
+      <c r="N18" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="6"/>
-      <c r="L18" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M18" s="6"/>
-      <c r="N18" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>25.5</v>
       </c>
       <c r="O18" s="20">
-        <f t="shared" si="3"/>
-        <v>17.633333333333336</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <f>D18*0.4+N18*0.6</f>
+        <v>32.799999999999997</v>
+      </c>
+      <c r="P18" s="82" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19"/>
       <c r="B19" s="3" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D19" s="70">
-        <v>43.75</v>
+        <v>52.2</v>
       </c>
       <c r="E19" s="37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F19" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G19" s="7">
         <v>0</v>
@@ -5734,43 +5845,50 @@
         <v>0</v>
       </c>
       <c r="J19" s="15">
+        <f>SUM(E19:H19)*50/(A$1-I19)</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="6">
+        <v>0</v>
+      </c>
+      <c r="L19" s="15">
+        <f>K19</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="6">
+        <v>0</v>
+      </c>
+      <c r="N19" s="20">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="K19" s="6"/>
-      <c r="L19" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M19" s="6"/>
-      <c r="N19" s="20">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="O19" s="20">
-        <f t="shared" si="3"/>
-        <v>23.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <f>D19*0.4+N19*0.6</f>
+        <v>22.680000000000003</v>
+      </c>
+      <c r="P19" s="82" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="19"/>
       <c r="B20" s="3" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="D20" s="70">
-        <v>39.75</v>
+        <v>44.083333333333336</v>
       </c>
       <c r="E20" s="37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F20" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G20" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5779,25 +5897,32 @@
         <v>0</v>
       </c>
       <c r="J20" s="15">
+        <f>SUM(E20:H20)*50/(A$1-I20)</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="6">
+        <v>0</v>
+      </c>
+      <c r="L20" s="15">
+        <f>K20</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="6">
+        <v>0</v>
+      </c>
+      <c r="N20" s="20">
         <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-      <c r="K20" s="6"/>
-      <c r="L20" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M20" s="6"/>
-      <c r="N20" s="20">
-        <f t="shared" si="2"/>
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="O20" s="20">
-        <f t="shared" si="3"/>
-        <v>24.9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <f>D20*0.4+N20*0.6</f>
+        <v>19.433333333333337</v>
+      </c>
+      <c r="P20" s="82" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="19"/>
       <c r="B21" s="3" t="s">
         <v>35</v>
@@ -5824,25 +5949,29 @@
         <v>0</v>
       </c>
       <c r="J21" s="15">
+        <f>SUM(E21:H21)*50/(A$1-I21)</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="6">
+        <v>0</v>
+      </c>
+      <c r="L21" s="15">
+        <f>K21</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="6">
+        <v>0</v>
+      </c>
+      <c r="N21" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="6"/>
-      <c r="L21" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M21" s="6"/>
-      <c r="N21" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O21" s="20">
-        <f t="shared" si="3"/>
-        <v>3.8333333333333339</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <f>D21*0.4+N21*0.6</f>
+        <v>5.6333333333333337</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="19"/>
       <c r="B22" s="55" t="s">
         <v>3</v>
@@ -5869,25 +5998,29 @@
         <v>0</v>
       </c>
       <c r="J22" s="15">
+        <f>SUM(E22:H22)*50/(A$1-I22)</f>
+        <v>0</v>
+      </c>
+      <c r="K22" s="6">
+        <v>0</v>
+      </c>
+      <c r="L22" s="15">
+        <f>K22</f>
+        <v>0</v>
+      </c>
+      <c r="M22" s="6">
+        <v>0</v>
+      </c>
+      <c r="N22" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K22" s="6"/>
-      <c r="L22" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M22" s="6"/>
-      <c r="N22" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O22" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <f>D22*0.4+N22*0.6</f>
+        <v>1.7999999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="19"/>
       <c r="B23" s="55" t="s">
         <v>57</v>
@@ -5914,25 +6047,29 @@
         <v>0</v>
       </c>
       <c r="J23" s="15">
+        <f>SUM(E23:H23)*50/(A$1-I23)</f>
+        <v>0</v>
+      </c>
+      <c r="K23" s="6">
+        <v>0</v>
+      </c>
+      <c r="L23" s="15">
+        <f>K23</f>
+        <v>0</v>
+      </c>
+      <c r="M23" s="6">
+        <v>0</v>
+      </c>
+      <c r="N23" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K23" s="6"/>
-      <c r="L23" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M23" s="6"/>
-      <c r="N23" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O23" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <f>D23*0.4+N23*0.6</f>
+        <v>1.7999999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="19"/>
       <c r="B24" s="55" t="s">
         <v>8</v>
@@ -5959,25 +6096,29 @@
         <v>0</v>
       </c>
       <c r="J24" s="15">
+        <f>SUM(E24:H24)*50/(A$1-I24)</f>
+        <v>0</v>
+      </c>
+      <c r="K24" s="6">
+        <v>0</v>
+      </c>
+      <c r="L24" s="15">
+        <f>K24</f>
+        <v>0</v>
+      </c>
+      <c r="M24" s="6">
+        <v>0</v>
+      </c>
+      <c r="N24" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K24" s="6"/>
-      <c r="L24" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M24" s="6"/>
-      <c r="N24" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O24" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <f>D24*0.4+N24*0.6</f>
+        <v>1.7999999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="19"/>
       <c r="B25" s="55" t="s">
         <v>12</v>
@@ -6004,25 +6145,29 @@
         <v>0</v>
       </c>
       <c r="J25" s="15">
+        <f>SUM(E25:H25)*50/(A$1-I25)</f>
+        <v>0</v>
+      </c>
+      <c r="K25" s="6">
+        <v>0</v>
+      </c>
+      <c r="L25" s="15">
+        <f>K25</f>
+        <v>0</v>
+      </c>
+      <c r="M25" s="6">
+        <v>0</v>
+      </c>
+      <c r="N25" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K25" s="6"/>
-      <c r="L25" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M25" s="6"/>
-      <c r="N25" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O25" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <f>D25*0.4+N25*0.6</f>
+        <v>1.7999999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="19"/>
       <c r="B26" s="55" t="s">
         <v>15</v>
@@ -6049,25 +6194,29 @@
         <v>0</v>
       </c>
       <c r="J26" s="15">
+        <f>SUM(E26:H26)*50/(A$1-I26)</f>
+        <v>0</v>
+      </c>
+      <c r="K26" s="6">
+        <v>0</v>
+      </c>
+      <c r="L26" s="15">
+        <f>K26</f>
+        <v>0</v>
+      </c>
+      <c r="M26" s="6">
+        <v>0</v>
+      </c>
+      <c r="N26" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K26" s="6"/>
-      <c r="L26" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M26" s="6"/>
-      <c r="N26" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O26" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <f>D26*0.4+N26*0.6</f>
+        <v>1.7999999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="19"/>
       <c r="B27" s="55" t="s">
         <v>21</v>
@@ -6094,25 +6243,29 @@
         <v>0</v>
       </c>
       <c r="J27" s="15">
+        <f>SUM(E27:H27)*50/(A$1-I27)</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="6">
+        <v>0</v>
+      </c>
+      <c r="L27" s="15">
+        <f>K27</f>
+        <v>0</v>
+      </c>
+      <c r="M27" s="6">
+        <v>0</v>
+      </c>
+      <c r="N27" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K27" s="6"/>
-      <c r="L27" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M27" s="6"/>
-      <c r="N27" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O27" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <f>D27*0.4+N27*0.6</f>
+        <v>1.7999999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="19"/>
       <c r="B28" s="55" t="s">
         <v>24</v>
@@ -6139,25 +6292,29 @@
         <v>0</v>
       </c>
       <c r="J28" s="15">
+        <f>SUM(E28:H28)*50/(A$1-I28)</f>
+        <v>0</v>
+      </c>
+      <c r="K28" s="6">
+        <v>0</v>
+      </c>
+      <c r="L28" s="15">
+        <f>K28</f>
+        <v>0</v>
+      </c>
+      <c r="M28" s="6">
+        <v>0</v>
+      </c>
+      <c r="N28" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K28" s="6"/>
-      <c r="L28" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M28" s="6"/>
-      <c r="N28" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O28" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <f>D28*0.4+N28*0.6</f>
+        <v>1.7999999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="19"/>
       <c r="B29" s="55" t="s">
         <v>27</v>
@@ -6184,25 +6341,29 @@
         <v>0</v>
       </c>
       <c r="J29" s="15">
+        <f>SUM(E29:H29)*50/(A$1-I29)</f>
+        <v>0</v>
+      </c>
+      <c r="K29" s="6">
+        <v>0</v>
+      </c>
+      <c r="L29" s="15">
+        <f>K29</f>
+        <v>0</v>
+      </c>
+      <c r="M29" s="6">
+        <v>0</v>
+      </c>
+      <c r="N29" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K29" s="6"/>
-      <c r="L29" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M29" s="6"/>
-      <c r="N29" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O29" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <f>D29*0.4+N29*0.6</f>
+        <v>1.7999999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="19"/>
       <c r="B30" s="55" t="s">
         <v>87</v>
@@ -6229,25 +6390,29 @@
         <v>0</v>
       </c>
       <c r="J30" s="15">
+        <f>SUM(E30:H30)*50/(A$1-I30)</f>
+        <v>0</v>
+      </c>
+      <c r="K30" s="6">
+        <v>0</v>
+      </c>
+      <c r="L30" s="15">
+        <f>K30</f>
+        <v>0</v>
+      </c>
+      <c r="M30" s="6">
+        <v>0</v>
+      </c>
+      <c r="N30" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K30" s="6"/>
-      <c r="L30" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M30" s="6"/>
-      <c r="N30" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O30" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <f>D30*0.4+N30*0.6</f>
+        <v>1.7999999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="19"/>
       <c r="B31" s="11"/>
       <c r="C31" s="35"/>
@@ -6264,7 +6429,7 @@
       <c r="N31" s="20"/>
       <c r="O31" s="20"/>
     </row>
-    <row r="32" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="30"/>
       <c r="B32" s="31"/>
       <c r="C32" s="35"/>
@@ -6281,7 +6446,7 @@
       <c r="N32" s="20"/>
       <c r="O32" s="20"/>
     </row>
-    <row r="33" spans="1:15" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="21"/>
       <c r="B33" s="22"/>
       <c r="C33" s="35"/>
@@ -6298,7 +6463,7 @@
       <c r="N33" s="20"/>
       <c r="O33" s="20"/>
     </row>
-    <row r="34" spans="1:15" s="9" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" s="9" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -6308,8 +6473,9 @@
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
-    </row>
-    <row r="35" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P34" s="83"/>
+    </row>
+    <row r="35" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -6322,7 +6488,7 @@
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
     </row>
-    <row r="36" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -6335,7 +6501,7 @@
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
     </row>
-    <row r="37" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -6348,7 +6514,7 @@
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
     </row>
-    <row r="38" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -6361,7 +6527,7 @@
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
     </row>
-    <row r="39" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -6374,7 +6540,7 @@
       <c r="K39" s="9"/>
       <c r="L39" s="9"/>
     </row>
-    <row r="40" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -6387,7 +6553,7 @@
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
     </row>
-    <row r="41" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -6400,7 +6566,7 @@
       <c r="K41" s="9"/>
       <c r="L41" s="9"/>
     </row>
-    <row r="42" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -6413,7 +6579,7 @@
       <c r="K42" s="9"/>
       <c r="L42" s="9"/>
     </row>
-    <row r="43" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -6426,7 +6592,7 @@
       <c r="K43" s="9"/>
       <c r="L43" s="9"/>
     </row>
-    <row r="44" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -6439,7 +6605,7 @@
       <c r="K44" s="9"/>
       <c r="L44" s="9"/>
     </row>
-    <row r="45" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -6452,7 +6618,7 @@
       <c r="K45" s="9"/>
       <c r="L45" s="9"/>
     </row>
-    <row r="46" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -6465,7 +6631,7 @@
       <c r="K46" s="9"/>
       <c r="L46" s="9"/>
     </row>
-    <row r="47" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -6478,7 +6644,7 @@
       <c r="K47" s="9"/>
       <c r="L47" s="9"/>
     </row>
-    <row r="48" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -6921,8 +7087,8 @@
       <c r="L81" s="9"/>
     </row>
   </sheetData>
-  <sortState ref="A3:Q30">
-    <sortCondition descending="1" ref="D3"/>
+  <sortState ref="A3:O30">
+    <sortCondition descending="1" ref="O3"/>
   </sortState>
   <mergeCells count="2">
     <mergeCell ref="E1:J1"/>

--- a/AdvancedJava/_docs/Notlar.xlsx
+++ b/AdvancedJava/_docs/Notlar.xlsx
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="104">
   <si>
     <t>Adı</t>
   </si>
@@ -969,6 +969,14 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -984,14 +992,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1526,32 +1526,32 @@
       <c r="A1" s="29"/>
       <c r="B1" s="17"/>
       <c r="C1" s="28"/>
-      <c r="D1" s="75" t="s">
+      <c r="D1" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
       <c r="L1" s="44">
         <v>6</v>
       </c>
-      <c r="M1" s="77" t="s">
+      <c r="M1" s="81" t="s">
         <v>92</v>
       </c>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
       <c r="Q1" s="43">
         <v>3</v>
       </c>
-      <c r="R1" s="77" t="s">
+      <c r="R1" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="S1" s="78"/>
+      <c r="S1" s="82"/>
       <c r="T1" s="43">
         <v>2</v>
       </c>
@@ -4908,7 +4908,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M5" sqref="M5"/>
+      <selection pane="bottomLeft" activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4925,7 +4925,7 @@
     <col min="12" max="12" width="4.77734375" style="1" customWidth="1"/>
     <col min="13" max="13" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="5.77734375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="37.88671875" style="82" customWidth="1"/>
+    <col min="16" max="16" width="37.88671875" style="77" customWidth="1"/>
     <col min="17" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
@@ -4936,18 +4936,18 @@
       <c r="B1" s="17"/>
       <c r="C1" s="33"/>
       <c r="D1" s="68"/>
-      <c r="E1" s="77" t="s">
+      <c r="E1" s="81" t="s">
         <v>100</v>
       </c>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="78" t="s">
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="82" t="s">
         <v>99</v>
       </c>
-      <c r="L1" s="79"/>
+      <c r="L1" s="83"/>
       <c r="M1" s="32" t="s">
         <v>101</v>
       </c>
@@ -4957,7 +4957,7 @@
       <c r="O1" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="P1" s="80"/>
+      <c r="P1" s="75"/>
     </row>
     <row r="2" spans="1:16" s="5" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
@@ -5005,7 +5005,7 @@
       <c r="O2" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="81"/>
+      <c r="P2" s="76"/>
     </row>
     <row r="3" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
@@ -5034,14 +5034,14 @@
         <v>0</v>
       </c>
       <c r="J3" s="15">
-        <f>SUM(E3:H3)*50/(A$1-I3)</f>
+        <f t="shared" ref="J3:J30" si="0">SUM(E3:H3)*50/(A$1-I3)</f>
         <v>100</v>
       </c>
       <c r="K3" s="6">
         <v>95</v>
       </c>
       <c r="L3" s="15">
-        <f>K3</f>
+        <f t="shared" ref="L3:L30" si="1">K3</f>
         <v>95</v>
       </c>
       <c r="M3" s="6">
@@ -5052,7 +5052,7 @@
         <v>100.25</v>
       </c>
       <c r="O3" s="20">
-        <f>D3*0.4+N3*0.6</f>
+        <f t="shared" ref="O3:O30" si="2">D3*0.4+N3*0.6</f>
         <v>100.15</v>
       </c>
     </row>
@@ -5083,25 +5083,25 @@
         <v>1</v>
       </c>
       <c r="J4" s="15">
-        <f>SUM(E4:H4)*50/(A$1-I4)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="K4" s="6">
         <v>65</v>
       </c>
       <c r="L4" s="15">
-        <f>K4</f>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="M4" s="6">
         <v>80</v>
       </c>
       <c r="N4" s="20">
-        <f t="shared" ref="N4:N30" si="0">J4*0.45+L4*0.25+M4*0.3+3</f>
+        <f t="shared" ref="N4:N30" si="3">J4*0.45+L4*0.25+M4*0.3+3</f>
         <v>88.25</v>
       </c>
       <c r="O4" s="20">
-        <f>D4*0.4+N4*0.6</f>
+        <f t="shared" si="2"/>
         <v>89.883333333333326</v>
       </c>
     </row>
@@ -5132,25 +5132,25 @@
         <v>0</v>
       </c>
       <c r="J5" s="15">
-        <f>SUM(E5:H5)*50/(A$1-I5)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="K5" s="6">
         <v>30</v>
       </c>
       <c r="L5" s="15">
-        <f>K5</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="M5" s="6">
         <v>40</v>
       </c>
       <c r="N5" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>67.5</v>
       </c>
       <c r="O5" s="20">
-        <f>D5*0.4+N5*0.6</f>
+        <f t="shared" si="2"/>
         <v>69.86</v>
       </c>
     </row>
@@ -5181,25 +5181,25 @@
         <v>0</v>
       </c>
       <c r="J6" s="15">
-        <f>SUM(E6:H6)*50/(A$1-I6)</f>
+        <f t="shared" si="0"/>
         <v>93.75</v>
       </c>
       <c r="K6" s="6">
         <v>60</v>
       </c>
       <c r="L6" s="15">
-        <f>K6</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="M6" s="6">
         <v>15</v>
       </c>
       <c r="N6" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>64.6875</v>
       </c>
       <c r="O6" s="20">
-        <f>D6*0.4+N6*0.6</f>
+        <f t="shared" si="2"/>
         <v>68.129166666666663</v>
       </c>
     </row>
@@ -5230,25 +5230,25 @@
         <v>0</v>
       </c>
       <c r="J7" s="15">
-        <f>SUM(E7:H7)*50/(A$1-I7)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="K7" s="6">
         <v>45</v>
       </c>
       <c r="L7" s="15">
-        <f>K7</f>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="M7" s="6">
         <v>15</v>
       </c>
       <c r="N7" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>63.75</v>
       </c>
       <c r="O7" s="20">
-        <f>D7*0.4+N7*0.6</f>
+        <f t="shared" si="2"/>
         <v>67.153333333333336</v>
       </c>
     </row>
@@ -5279,26 +5279,29 @@
         <v>0</v>
       </c>
       <c r="J8" s="15">
-        <f>SUM(E8:H8)*50/(A$1-I8)</f>
+        <f t="shared" si="0"/>
         <v>81.25</v>
       </c>
       <c r="K8" s="6">
         <v>50</v>
       </c>
       <c r="L8" s="15">
-        <f>K8</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="M8" s="6">
         <v>15</v>
       </c>
       <c r="N8" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>56.5625</v>
       </c>
       <c r="O8" s="20">
-        <f>D8*0.4+N8*0.6</f>
+        <f t="shared" si="2"/>
         <v>66.557500000000005</v>
+      </c>
+      <c r="P8" s="77" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -5328,25 +5331,25 @@
         <v>0</v>
       </c>
       <c r="J9" s="15">
-        <f>SUM(E9:H9)*50/(A$1-I9)</f>
+        <f t="shared" si="0"/>
         <v>98.75</v>
       </c>
       <c r="K9" s="6">
         <v>45</v>
       </c>
       <c r="L9" s="15">
-        <f>K9</f>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="M9" s="6">
         <v>15</v>
       </c>
       <c r="N9" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>63.1875</v>
       </c>
       <c r="O9" s="20">
-        <f>D9*0.4+N9*0.6</f>
+        <f t="shared" si="2"/>
         <v>64.135833333333338</v>
       </c>
     </row>
@@ -5377,28 +5380,28 @@
         <v>0</v>
       </c>
       <c r="J10" s="15">
-        <f>SUM(E10:H10)*50/(A$1-I10)</f>
+        <f t="shared" si="0"/>
         <v>98.75</v>
       </c>
       <c r="K10" s="6">
         <v>0</v>
       </c>
       <c r="L10" s="15">
-        <f>K10</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M10" s="6">
         <v>35</v>
       </c>
       <c r="N10" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>57.9375</v>
       </c>
       <c r="O10" s="20">
-        <f>D10*0.4+N10*0.6</f>
+        <f t="shared" si="2"/>
         <v>62.029166666666669</v>
       </c>
-      <c r="P10" s="82" t="s">
+      <c r="P10" s="77" t="s">
         <v>103</v>
       </c>
     </row>
@@ -5429,28 +5432,28 @@
         <v>1</v>
       </c>
       <c r="J11" s="15">
-        <f>SUM(E11:H11)*50/(A$1-I11)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="K11" s="6">
         <v>0</v>
       </c>
       <c r="L11" s="15">
-        <f>K11</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M11" s="6">
         <v>15</v>
       </c>
       <c r="N11" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>52.5</v>
       </c>
       <c r="O11" s="20">
-        <f>D11*0.4+N11*0.6</f>
+        <f t="shared" si="2"/>
         <v>60.323333333333338</v>
       </c>
-      <c r="P11" s="82" t="s">
+      <c r="P11" s="77" t="s">
         <v>103</v>
       </c>
     </row>
@@ -5481,28 +5484,28 @@
         <v>1</v>
       </c>
       <c r="J12" s="15">
-        <f>SUM(E12:H12)*50/(A$1-I12)</f>
+        <f t="shared" si="0"/>
         <v>98.333333333333329</v>
       </c>
       <c r="K12" s="6">
         <v>0</v>
       </c>
       <c r="L12" s="15">
-        <f>K12</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M12" s="6">
         <v>15</v>
       </c>
       <c r="N12" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>51.75</v>
       </c>
       <c r="O12" s="20">
-        <f>D12*0.4+N12*0.6</f>
+        <f t="shared" si="2"/>
         <v>60.173333333333332</v>
       </c>
-      <c r="P12" s="82" t="s">
+      <c r="P12" s="77" t="s">
         <v>103</v>
       </c>
     </row>
@@ -5533,28 +5536,28 @@
         <v>0</v>
       </c>
       <c r="J13" s="15">
-        <f>SUM(E13:H13)*50/(A$1-I13)</f>
+        <f t="shared" si="0"/>
         <v>98.75</v>
       </c>
       <c r="K13" s="6">
         <v>-25</v>
       </c>
       <c r="L13" s="15">
-        <f>K13</f>
+        <f t="shared" si="1"/>
         <v>-25</v>
       </c>
       <c r="M13" s="6">
         <v>15</v>
       </c>
       <c r="N13" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>45.6875</v>
       </c>
       <c r="O13" s="20">
-        <f>D13*0.4+N13*0.6</f>
+        <f t="shared" si="2"/>
         <v>52.862499999999997</v>
       </c>
-      <c r="P13" s="82" t="s">
+      <c r="P13" s="77" t="s">
         <v>102</v>
       </c>
     </row>
@@ -5585,28 +5588,28 @@
         <v>0</v>
       </c>
       <c r="J14" s="15">
-        <f>SUM(E14:H14)*50/(A$1-I14)</f>
+        <f t="shared" si="0"/>
         <v>81.25</v>
       </c>
       <c r="K14" s="6">
         <v>0</v>
       </c>
       <c r="L14" s="15">
-        <f>K14</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M14" s="6">
         <v>30</v>
       </c>
       <c r="N14" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>48.5625</v>
       </c>
       <c r="O14" s="20">
-        <f>D14*0.4+N14*0.6</f>
+        <f t="shared" si="2"/>
         <v>48.19083333333333</v>
       </c>
-      <c r="P14" s="82" t="s">
+      <c r="P14" s="77" t="s">
         <v>102</v>
       </c>
     </row>
@@ -5637,28 +5640,28 @@
         <v>1</v>
       </c>
       <c r="J15" s="15">
-        <f>SUM(E15:H15)*50/(A$1-I15)</f>
+        <f t="shared" si="0"/>
         <v>66.666666666666671</v>
       </c>
       <c r="K15" s="6">
         <v>0</v>
       </c>
       <c r="L15" s="15">
-        <f>K15</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M15" s="6">
         <v>15</v>
       </c>
       <c r="N15" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>37.5</v>
       </c>
       <c r="O15" s="20">
-        <f>D15*0.4+N15*0.6</f>
+        <f t="shared" si="2"/>
         <v>46.846666666666671</v>
       </c>
-      <c r="P15" s="82" t="s">
+      <c r="P15" s="77" t="s">
         <v>102</v>
       </c>
     </row>
@@ -5689,28 +5692,28 @@
         <v>0</v>
       </c>
       <c r="J16" s="15">
-        <f>SUM(E16:H16)*50/(A$1-I16)</f>
+        <f t="shared" si="0"/>
         <v>75</v>
       </c>
       <c r="K16" s="6">
         <v>0</v>
       </c>
       <c r="L16" s="15">
-        <f>K16</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M16" s="6">
         <v>35</v>
       </c>
       <c r="N16" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>47.25</v>
       </c>
       <c r="O16" s="20">
-        <f>D16*0.4+N16*0.6</f>
+        <f t="shared" si="2"/>
         <v>44.25</v>
       </c>
-      <c r="P16" s="82" t="s">
+      <c r="P16" s="77" t="s">
         <v>102</v>
       </c>
     </row>
@@ -5741,28 +5744,28 @@
         <v>0</v>
       </c>
       <c r="J17" s="15">
-        <f>SUM(E17:H17)*50/(A$1-I17)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K17" s="6">
         <v>55</v>
       </c>
       <c r="L17" s="15">
-        <f>K17</f>
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="M17" s="6">
         <v>0</v>
       </c>
       <c r="N17" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>16.75</v>
       </c>
       <c r="O17" s="20">
-        <f>D17*0.4+N17*0.6</f>
+        <f t="shared" si="2"/>
         <v>31.993333333333332</v>
       </c>
-      <c r="P17" s="82" t="s">
+      <c r="P17" s="77" t="s">
         <v>102</v>
       </c>
     </row>
@@ -5793,28 +5796,28 @@
         <v>0</v>
       </c>
       <c r="J18" s="15">
-        <f>SUM(E18:H18)*50/(A$1-I18)</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="K18" s="6">
         <v>0</v>
       </c>
       <c r="L18" s="15">
-        <f>K18</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M18" s="6">
         <v>0</v>
       </c>
       <c r="N18" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>25.5</v>
       </c>
       <c r="O18" s="20">
-        <f>D18*0.4+N18*0.6</f>
+        <f t="shared" si="2"/>
         <v>32.799999999999997</v>
       </c>
-      <c r="P18" s="82" t="s">
+      <c r="P18" s="77" t="s">
         <v>102</v>
       </c>
     </row>
@@ -5845,28 +5848,28 @@
         <v>0</v>
       </c>
       <c r="J19" s="15">
-        <f>SUM(E19:H19)*50/(A$1-I19)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K19" s="6">
         <v>0</v>
       </c>
       <c r="L19" s="15">
-        <f>K19</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M19" s="6">
         <v>0</v>
       </c>
       <c r="N19" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="O19" s="20">
-        <f>D19*0.4+N19*0.6</f>
+        <f t="shared" si="2"/>
         <v>22.680000000000003</v>
       </c>
-      <c r="P19" s="82" t="s">
+      <c r="P19" s="77" t="s">
         <v>102</v>
       </c>
     </row>
@@ -5897,28 +5900,28 @@
         <v>0</v>
       </c>
       <c r="J20" s="15">
-        <f>SUM(E20:H20)*50/(A$1-I20)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K20" s="6">
         <v>0</v>
       </c>
       <c r="L20" s="15">
-        <f>K20</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M20" s="6">
         <v>0</v>
       </c>
       <c r="N20" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="O20" s="20">
-        <f>D20*0.4+N20*0.6</f>
+        <f t="shared" si="2"/>
         <v>19.433333333333337</v>
       </c>
-      <c r="P20" s="82" t="s">
+      <c r="P20" s="77" t="s">
         <v>102</v>
       </c>
     </row>
@@ -5949,25 +5952,25 @@
         <v>0</v>
       </c>
       <c r="J21" s="15">
-        <f>SUM(E21:H21)*50/(A$1-I21)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K21" s="6">
         <v>0</v>
       </c>
       <c r="L21" s="15">
-        <f>K21</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M21" s="6">
         <v>0</v>
       </c>
       <c r="N21" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="O21" s="20">
-        <f>D21*0.4+N21*0.6</f>
+        <f t="shared" si="2"/>
         <v>5.6333333333333337</v>
       </c>
     </row>
@@ -5998,25 +6001,25 @@
         <v>0</v>
       </c>
       <c r="J22" s="15">
-        <f>SUM(E22:H22)*50/(A$1-I22)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K22" s="6">
         <v>0</v>
       </c>
       <c r="L22" s="15">
-        <f>K22</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M22" s="6">
         <v>0</v>
       </c>
       <c r="N22" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="O22" s="20">
-        <f>D22*0.4+N22*0.6</f>
+        <f t="shared" si="2"/>
         <v>1.7999999999999998</v>
       </c>
     </row>
@@ -6047,25 +6050,25 @@
         <v>0</v>
       </c>
       <c r="J23" s="15">
-        <f>SUM(E23:H23)*50/(A$1-I23)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K23" s="6">
         <v>0</v>
       </c>
       <c r="L23" s="15">
-        <f>K23</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M23" s="6">
         <v>0</v>
       </c>
       <c r="N23" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="O23" s="20">
-        <f>D23*0.4+N23*0.6</f>
+        <f t="shared" si="2"/>
         <v>1.7999999999999998</v>
       </c>
     </row>
@@ -6096,25 +6099,25 @@
         <v>0</v>
       </c>
       <c r="J24" s="15">
-        <f>SUM(E24:H24)*50/(A$1-I24)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K24" s="6">
         <v>0</v>
       </c>
       <c r="L24" s="15">
-        <f>K24</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M24" s="6">
         <v>0</v>
       </c>
       <c r="N24" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="O24" s="20">
-        <f>D24*0.4+N24*0.6</f>
+        <f t="shared" si="2"/>
         <v>1.7999999999999998</v>
       </c>
     </row>
@@ -6145,25 +6148,25 @@
         <v>0</v>
       </c>
       <c r="J25" s="15">
-        <f>SUM(E25:H25)*50/(A$1-I25)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K25" s="6">
         <v>0</v>
       </c>
       <c r="L25" s="15">
-        <f>K25</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M25" s="6">
         <v>0</v>
       </c>
       <c r="N25" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="O25" s="20">
-        <f>D25*0.4+N25*0.6</f>
+        <f t="shared" si="2"/>
         <v>1.7999999999999998</v>
       </c>
     </row>
@@ -6194,25 +6197,25 @@
         <v>0</v>
       </c>
       <c r="J26" s="15">
-        <f>SUM(E26:H26)*50/(A$1-I26)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K26" s="6">
         <v>0</v>
       </c>
       <c r="L26" s="15">
-        <f>K26</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M26" s="6">
         <v>0</v>
       </c>
       <c r="N26" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="O26" s="20">
-        <f>D26*0.4+N26*0.6</f>
+        <f t="shared" si="2"/>
         <v>1.7999999999999998</v>
       </c>
     </row>
@@ -6243,25 +6246,25 @@
         <v>0</v>
       </c>
       <c r="J27" s="15">
-        <f>SUM(E27:H27)*50/(A$1-I27)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K27" s="6">
         <v>0</v>
       </c>
       <c r="L27" s="15">
-        <f>K27</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M27" s="6">
         <v>0</v>
       </c>
       <c r="N27" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="O27" s="20">
-        <f>D27*0.4+N27*0.6</f>
+        <f t="shared" si="2"/>
         <v>1.7999999999999998</v>
       </c>
     </row>
@@ -6292,25 +6295,25 @@
         <v>0</v>
       </c>
       <c r="J28" s="15">
-        <f>SUM(E28:H28)*50/(A$1-I28)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K28" s="6">
         <v>0</v>
       </c>
       <c r="L28" s="15">
-        <f>K28</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M28" s="6">
         <v>0</v>
       </c>
       <c r="N28" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="O28" s="20">
-        <f>D28*0.4+N28*0.6</f>
+        <f t="shared" si="2"/>
         <v>1.7999999999999998</v>
       </c>
     </row>
@@ -6341,25 +6344,25 @@
         <v>0</v>
       </c>
       <c r="J29" s="15">
-        <f>SUM(E29:H29)*50/(A$1-I29)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K29" s="6">
         <v>0</v>
       </c>
       <c r="L29" s="15">
-        <f>K29</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M29" s="6">
         <v>0</v>
       </c>
       <c r="N29" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="O29" s="20">
-        <f>D29*0.4+N29*0.6</f>
+        <f t="shared" si="2"/>
         <v>1.7999999999999998</v>
       </c>
     </row>
@@ -6390,25 +6393,25 @@
         <v>0</v>
       </c>
       <c r="J30" s="15">
-        <f>SUM(E30:H30)*50/(A$1-I30)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K30" s="6">
         <v>0</v>
       </c>
       <c r="L30" s="15">
-        <f>K30</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M30" s="6">
         <v>0</v>
       </c>
       <c r="N30" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="O30" s="20">
-        <f>D30*0.4+N30*0.6</f>
+        <f t="shared" si="2"/>
         <v>1.7999999999999998</v>
       </c>
     </row>
@@ -6473,7 +6476,7 @@
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
-      <c r="P34" s="83"/>
+      <c r="P34" s="78"/>
     </row>
     <row r="35" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>

--- a/AdvancedJava/_docs/Notlar.xlsx
+++ b/AdvancedJava/_docs/Notlar.xlsx
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="105">
   <si>
     <t>Adı</t>
   </si>
@@ -407,6 +407,9 @@
   </si>
   <si>
     <t>final notu şartı olabilir. 55 ya da 60 altında olduğundan büte kalabilir.</t>
+  </si>
+  <si>
+    <t>KALDI</t>
   </si>
 </sst>
 </file>
@@ -4907,8 +4910,8 @@
   <dimension ref="A1:P81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P8" sqref="P8"/>
+      <pane ySplit="2" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P26" sqref="P26:P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5034,14 +5037,14 @@
         <v>0</v>
       </c>
       <c r="J3" s="15">
-        <f t="shared" ref="J3:J30" si="0">SUM(E3:H3)*50/(A$1-I3)</f>
+        <f>SUM(E3:H3)*50/(A$1-I3)</f>
         <v>100</v>
       </c>
       <c r="K3" s="6">
         <v>95</v>
       </c>
       <c r="L3" s="15">
-        <f t="shared" ref="L3:L30" si="1">K3</f>
+        <f>K3</f>
         <v>95</v>
       </c>
       <c r="M3" s="6">
@@ -5052,7 +5055,7 @@
         <v>100.25</v>
       </c>
       <c r="O3" s="20">
-        <f t="shared" ref="O3:O30" si="2">D3*0.4+N3*0.6</f>
+        <f>D3*0.4+N3*0.6</f>
         <v>100.15</v>
       </c>
     </row>
@@ -5083,25 +5086,25 @@
         <v>1</v>
       </c>
       <c r="J4" s="15">
-        <f t="shared" si="0"/>
+        <f>SUM(E4:H4)*50/(A$1-I4)</f>
         <v>100</v>
       </c>
       <c r="K4" s="6">
         <v>65</v>
       </c>
       <c r="L4" s="15">
-        <f t="shared" si="1"/>
+        <f>K4</f>
         <v>65</v>
       </c>
       <c r="M4" s="6">
         <v>80</v>
       </c>
       <c r="N4" s="20">
-        <f t="shared" ref="N4:N30" si="3">J4*0.45+L4*0.25+M4*0.3+3</f>
+        <f>J4*0.45+L4*0.25+M4*0.3+3</f>
         <v>88.25</v>
       </c>
       <c r="O4" s="20">
-        <f t="shared" si="2"/>
+        <f>D4*0.4+N4*0.6</f>
         <v>89.883333333333326</v>
       </c>
     </row>
@@ -5132,25 +5135,25 @@
         <v>0</v>
       </c>
       <c r="J5" s="15">
-        <f t="shared" si="0"/>
+        <f>SUM(E5:H5)*50/(A$1-I5)</f>
         <v>100</v>
       </c>
       <c r="K5" s="6">
         <v>30</v>
       </c>
       <c r="L5" s="15">
-        <f t="shared" si="1"/>
+        <f>K5</f>
         <v>30</v>
       </c>
       <c r="M5" s="6">
         <v>40</v>
       </c>
       <c r="N5" s="20">
-        <f t="shared" si="3"/>
+        <f>J5*0.45+L5*0.25+M5*0.3+3</f>
         <v>67.5</v>
       </c>
       <c r="O5" s="20">
-        <f t="shared" si="2"/>
+        <f>D5*0.4+N5*0.6</f>
         <v>69.86</v>
       </c>
     </row>
@@ -5181,25 +5184,25 @@
         <v>0</v>
       </c>
       <c r="J6" s="15">
-        <f t="shared" si="0"/>
+        <f>SUM(E6:H6)*50/(A$1-I6)</f>
         <v>93.75</v>
       </c>
       <c r="K6" s="6">
         <v>60</v>
       </c>
       <c r="L6" s="15">
-        <f t="shared" si="1"/>
+        <f>K6</f>
         <v>60</v>
       </c>
       <c r="M6" s="6">
         <v>15</v>
       </c>
       <c r="N6" s="20">
-        <f t="shared" si="3"/>
+        <f>J6*0.45+L6*0.25+M6*0.3+3</f>
         <v>64.6875</v>
       </c>
       <c r="O6" s="20">
-        <f t="shared" si="2"/>
+        <f>D6*0.4+N6*0.6</f>
         <v>68.129166666666663</v>
       </c>
     </row>
@@ -5230,25 +5233,25 @@
         <v>0</v>
       </c>
       <c r="J7" s="15">
-        <f t="shared" si="0"/>
+        <f>SUM(E7:H7)*50/(A$1-I7)</f>
         <v>100</v>
       </c>
       <c r="K7" s="6">
         <v>45</v>
       </c>
       <c r="L7" s="15">
-        <f t="shared" si="1"/>
+        <f>K7</f>
         <v>45</v>
       </c>
       <c r="M7" s="6">
         <v>15</v>
       </c>
       <c r="N7" s="20">
-        <f t="shared" si="3"/>
+        <f>J7*0.45+L7*0.25+M7*0.3+3</f>
         <v>63.75</v>
       </c>
       <c r="O7" s="20">
-        <f t="shared" si="2"/>
+        <f>D7*0.4+N7*0.6</f>
         <v>67.153333333333336</v>
       </c>
     </row>
@@ -5279,25 +5282,25 @@
         <v>0</v>
       </c>
       <c r="J8" s="15">
-        <f t="shared" si="0"/>
+        <f>SUM(E8:H8)*50/(A$1-I8)</f>
         <v>81.25</v>
       </c>
       <c r="K8" s="6">
         <v>50</v>
       </c>
       <c r="L8" s="15">
-        <f t="shared" si="1"/>
+        <f>K8</f>
         <v>50</v>
       </c>
       <c r="M8" s="6">
         <v>15</v>
       </c>
       <c r="N8" s="20">
-        <f t="shared" si="3"/>
+        <f>J8*0.45+L8*0.25+M8*0.3+3</f>
         <v>56.5625</v>
       </c>
       <c r="O8" s="20">
-        <f t="shared" si="2"/>
+        <f>D8*0.4+N8*0.6</f>
         <v>66.557500000000005</v>
       </c>
       <c r="P8" s="77" t="s">
@@ -5331,25 +5334,25 @@
         <v>0</v>
       </c>
       <c r="J9" s="15">
-        <f t="shared" si="0"/>
+        <f>SUM(E9:H9)*50/(A$1-I9)</f>
         <v>98.75</v>
       </c>
       <c r="K9" s="6">
         <v>45</v>
       </c>
       <c r="L9" s="15">
-        <f t="shared" si="1"/>
+        <f>K9</f>
         <v>45</v>
       </c>
       <c r="M9" s="6">
         <v>15</v>
       </c>
       <c r="N9" s="20">
-        <f t="shared" si="3"/>
+        <f>J9*0.45+L9*0.25+M9*0.3+3</f>
         <v>63.1875</v>
       </c>
       <c r="O9" s="20">
-        <f t="shared" si="2"/>
+        <f>D9*0.4+N9*0.6</f>
         <v>64.135833333333338</v>
       </c>
     </row>
@@ -5380,25 +5383,25 @@
         <v>0</v>
       </c>
       <c r="J10" s="15">
-        <f t="shared" si="0"/>
+        <f>SUM(E10:H10)*50/(A$1-I10)</f>
         <v>98.75</v>
       </c>
       <c r="K10" s="6">
         <v>0</v>
       </c>
       <c r="L10" s="15">
-        <f t="shared" si="1"/>
+        <f>K10</f>
         <v>0</v>
       </c>
       <c r="M10" s="6">
         <v>35</v>
       </c>
       <c r="N10" s="20">
-        <f t="shared" si="3"/>
+        <f>J10*0.45+L10*0.25+M10*0.3+3</f>
         <v>57.9375</v>
       </c>
       <c r="O10" s="20">
-        <f t="shared" si="2"/>
+        <f>D10*0.4+N10*0.6</f>
         <v>62.029166666666669</v>
       </c>
       <c r="P10" s="77" t="s">
@@ -5432,25 +5435,25 @@
         <v>1</v>
       </c>
       <c r="J11" s="15">
-        <f t="shared" si="0"/>
+        <f>SUM(E11:H11)*50/(A$1-I11)</f>
         <v>100</v>
       </c>
       <c r="K11" s="6">
         <v>0</v>
       </c>
       <c r="L11" s="15">
-        <f t="shared" si="1"/>
+        <f>K11</f>
         <v>0</v>
       </c>
       <c r="M11" s="6">
         <v>15</v>
       </c>
       <c r="N11" s="20">
-        <f t="shared" si="3"/>
+        <f>J11*0.45+L11*0.25+M11*0.3+3</f>
         <v>52.5</v>
       </c>
       <c r="O11" s="20">
-        <f t="shared" si="2"/>
+        <f>D11*0.4+N11*0.6</f>
         <v>60.323333333333338</v>
       </c>
       <c r="P11" s="77" t="s">
@@ -5484,25 +5487,25 @@
         <v>1</v>
       </c>
       <c r="J12" s="15">
-        <f t="shared" si="0"/>
+        <f>SUM(E12:H12)*50/(A$1-I12)</f>
         <v>98.333333333333329</v>
       </c>
       <c r="K12" s="6">
         <v>0</v>
       </c>
       <c r="L12" s="15">
-        <f t="shared" si="1"/>
+        <f>K12</f>
         <v>0</v>
       </c>
       <c r="M12" s="6">
         <v>15</v>
       </c>
       <c r="N12" s="20">
-        <f t="shared" si="3"/>
+        <f>J12*0.45+L12*0.25+M12*0.3+3</f>
         <v>51.75</v>
       </c>
       <c r="O12" s="20">
-        <f t="shared" si="2"/>
+        <f>D12*0.4+N12*0.6</f>
         <v>60.173333333333332</v>
       </c>
       <c r="P12" s="77" t="s">
@@ -5536,25 +5539,25 @@
         <v>0</v>
       </c>
       <c r="J13" s="15">
-        <f t="shared" si="0"/>
+        <f>SUM(E13:H13)*50/(A$1-I13)</f>
         <v>98.75</v>
       </c>
       <c r="K13" s="6">
         <v>-25</v>
       </c>
       <c r="L13" s="15">
-        <f t="shared" si="1"/>
+        <f>K13</f>
         <v>-25</v>
       </c>
       <c r="M13" s="6">
         <v>15</v>
       </c>
       <c r="N13" s="20">
-        <f t="shared" si="3"/>
+        <f>J13*0.45+L13*0.25+M13*0.3+3</f>
         <v>45.6875</v>
       </c>
       <c r="O13" s="20">
-        <f t="shared" si="2"/>
+        <f>D13*0.4+N13*0.6</f>
         <v>52.862499999999997</v>
       </c>
       <c r="P13" s="77" t="s">
@@ -5588,25 +5591,25 @@
         <v>0</v>
       </c>
       <c r="J14" s="15">
-        <f t="shared" si="0"/>
+        <f>SUM(E14:H14)*50/(A$1-I14)</f>
         <v>81.25</v>
       </c>
       <c r="K14" s="6">
         <v>0</v>
       </c>
       <c r="L14" s="15">
-        <f t="shared" si="1"/>
+        <f>K14</f>
         <v>0</v>
       </c>
       <c r="M14" s="6">
         <v>30</v>
       </c>
       <c r="N14" s="20">
-        <f t="shared" si="3"/>
+        <f>J14*0.45+L14*0.25+M14*0.3+3</f>
         <v>48.5625</v>
       </c>
       <c r="O14" s="20">
-        <f t="shared" si="2"/>
+        <f>D14*0.4+N14*0.6</f>
         <v>48.19083333333333</v>
       </c>
       <c r="P14" s="77" t="s">
@@ -5640,25 +5643,25 @@
         <v>1</v>
       </c>
       <c r="J15" s="15">
-        <f t="shared" si="0"/>
+        <f>SUM(E15:H15)*50/(A$1-I15)</f>
         <v>66.666666666666671</v>
       </c>
       <c r="K15" s="6">
         <v>0</v>
       </c>
       <c r="L15" s="15">
-        <f t="shared" si="1"/>
+        <f>K15</f>
         <v>0</v>
       </c>
       <c r="M15" s="6">
         <v>15</v>
       </c>
       <c r="N15" s="20">
-        <f t="shared" si="3"/>
+        <f>J15*0.45+L15*0.25+M15*0.3+3</f>
         <v>37.5</v>
       </c>
       <c r="O15" s="20">
-        <f t="shared" si="2"/>
+        <f>D15*0.4+N15*0.6</f>
         <v>46.846666666666671</v>
       </c>
       <c r="P15" s="77" t="s">
@@ -5692,25 +5695,25 @@
         <v>0</v>
       </c>
       <c r="J16" s="15">
-        <f t="shared" si="0"/>
+        <f>SUM(E16:H16)*50/(A$1-I16)</f>
         <v>75</v>
       </c>
       <c r="K16" s="6">
         <v>0</v>
       </c>
       <c r="L16" s="15">
-        <f t="shared" si="1"/>
+        <f>K16</f>
         <v>0</v>
       </c>
       <c r="M16" s="6">
         <v>35</v>
       </c>
       <c r="N16" s="20">
-        <f t="shared" si="3"/>
+        <f>J16*0.45+L16*0.25+M16*0.3+3</f>
         <v>47.25</v>
       </c>
       <c r="O16" s="20">
-        <f t="shared" si="2"/>
+        <f>D16*0.4+N16*0.6</f>
         <v>44.25</v>
       </c>
       <c r="P16" s="77" t="s">
@@ -5720,19 +5723,19 @@
     <row r="17" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19"/>
       <c r="B17" s="3" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="D17" s="70">
-        <v>54.858333333333334</v>
+        <v>43.75</v>
       </c>
       <c r="E17" s="37">
-        <v>0</v>
-      </c>
-      <c r="F17" s="40">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="F17" s="7">
+        <v>2</v>
       </c>
       <c r="G17" s="7">
         <v>0</v>
@@ -5744,26 +5747,26 @@
         <v>0</v>
       </c>
       <c r="J17" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(E17:H17)*50/(A$1-I17)</f>
+        <v>50</v>
       </c>
       <c r="K17" s="6">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="L17" s="15">
-        <f t="shared" si="1"/>
-        <v>55</v>
+        <f>K17</f>
+        <v>0</v>
       </c>
       <c r="M17" s="6">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="N17" s="20">
-        <f t="shared" si="3"/>
-        <v>16.75</v>
+        <f>J17*0.45+L17*0.25+M17*0.3+3</f>
+        <v>34.5</v>
       </c>
       <c r="O17" s="20">
-        <f t="shared" si="2"/>
-        <v>31.993333333333332</v>
+        <f>D17*0.4+N17*0.6</f>
+        <v>38.200000000000003</v>
       </c>
       <c r="P17" s="77" t="s">
         <v>102</v>
@@ -5772,19 +5775,19 @@
     <row r="18" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19"/>
       <c r="B18" s="3" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="D18" s="70">
-        <v>43.75</v>
+        <v>54.858333333333334</v>
       </c>
       <c r="E18" s="37">
-        <v>2</v>
-      </c>
-      <c r="F18" s="7">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="F18" s="40">
+        <v>0</v>
       </c>
       <c r="G18" s="7">
         <v>0</v>
@@ -5796,26 +5799,26 @@
         <v>0</v>
       </c>
       <c r="J18" s="15">
-        <f t="shared" si="0"/>
-        <v>50</v>
+        <f>SUM(E18:H18)*50/(A$1-I18)</f>
+        <v>0</v>
       </c>
       <c r="K18" s="6">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="L18" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>K18</f>
+        <v>55</v>
       </c>
       <c r="M18" s="6">
         <v>0</v>
       </c>
       <c r="N18" s="20">
-        <f t="shared" si="3"/>
-        <v>25.5</v>
+        <f>J18*0.45+L18*0.25+M18*0.3+3</f>
+        <v>16.75</v>
       </c>
       <c r="O18" s="20">
-        <f t="shared" si="2"/>
-        <v>32.799999999999997</v>
+        <f>D18*0.4+N18*0.6</f>
+        <v>31.993333333333332</v>
       </c>
       <c r="P18" s="77" t="s">
         <v>102</v>
@@ -5848,25 +5851,25 @@
         <v>0</v>
       </c>
       <c r="J19" s="15">
-        <f t="shared" si="0"/>
+        <f>SUM(E19:H19)*50/(A$1-I19)</f>
         <v>0</v>
       </c>
       <c r="K19" s="6">
         <v>0</v>
       </c>
       <c r="L19" s="15">
-        <f t="shared" si="1"/>
+        <f>K19</f>
         <v>0</v>
       </c>
       <c r="M19" s="6">
         <v>0</v>
       </c>
       <c r="N19" s="20">
-        <f t="shared" si="3"/>
+        <f>J19*0.45+L19*0.25+M19*0.3+3</f>
         <v>3</v>
       </c>
       <c r="O19" s="20">
-        <f t="shared" si="2"/>
+        <f>D19*0.4+N19*0.6</f>
         <v>22.680000000000003</v>
       </c>
       <c r="P19" s="77" t="s">
@@ -5900,25 +5903,25 @@
         <v>0</v>
       </c>
       <c r="J20" s="15">
-        <f t="shared" si="0"/>
+        <f>SUM(E20:H20)*50/(A$1-I20)</f>
         <v>0</v>
       </c>
       <c r="K20" s="6">
         <v>0</v>
       </c>
       <c r="L20" s="15">
-        <f t="shared" si="1"/>
+        <f>K20</f>
         <v>0</v>
       </c>
       <c r="M20" s="6">
         <v>0</v>
       </c>
       <c r="N20" s="20">
-        <f t="shared" si="3"/>
+        <f>J20*0.45+L20*0.25+M20*0.3+3</f>
         <v>3</v>
       </c>
       <c r="O20" s="20">
-        <f t="shared" si="2"/>
+        <f>D20*0.4+N20*0.6</f>
         <v>19.433333333333337</v>
       </c>
       <c r="P20" s="77" t="s">
@@ -5952,26 +5955,29 @@
         <v>0</v>
       </c>
       <c r="J21" s="15">
-        <f t="shared" si="0"/>
+        <f>SUM(E21:H21)*50/(A$1-I21)</f>
         <v>0</v>
       </c>
       <c r="K21" s="6">
         <v>0</v>
       </c>
       <c r="L21" s="15">
-        <f t="shared" si="1"/>
+        <f>K21</f>
         <v>0</v>
       </c>
       <c r="M21" s="6">
         <v>0</v>
       </c>
       <c r="N21" s="20">
-        <f t="shared" si="3"/>
+        <f>J21*0.45+L21*0.25+M21*0.3+3</f>
         <v>3</v>
       </c>
       <c r="O21" s="20">
-        <f t="shared" si="2"/>
+        <f>D21*0.4+N21*0.6</f>
         <v>5.6333333333333337</v>
+      </c>
+      <c r="P21" s="77" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6001,26 +6007,29 @@
         <v>0</v>
       </c>
       <c r="J22" s="15">
-        <f t="shared" si="0"/>
+        <f>SUM(E22:H22)*50/(A$1-I22)</f>
         <v>0</v>
       </c>
       <c r="K22" s="6">
         <v>0</v>
       </c>
       <c r="L22" s="15">
-        <f t="shared" si="1"/>
+        <f>K22</f>
         <v>0</v>
       </c>
       <c r="M22" s="6">
         <v>0</v>
       </c>
       <c r="N22" s="20">
-        <f t="shared" si="3"/>
+        <f>J22*0.45+L22*0.25+M22*0.3+3</f>
         <v>3</v>
       </c>
       <c r="O22" s="20">
-        <f t="shared" si="2"/>
+        <f>D22*0.4+N22*0.6</f>
         <v>1.7999999999999998</v>
+      </c>
+      <c r="P22" s="77" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6050,26 +6059,29 @@
         <v>0</v>
       </c>
       <c r="J23" s="15">
-        <f t="shared" si="0"/>
+        <f>SUM(E23:H23)*50/(A$1-I23)</f>
         <v>0</v>
       </c>
       <c r="K23" s="6">
         <v>0</v>
       </c>
       <c r="L23" s="15">
-        <f t="shared" si="1"/>
+        <f>K23</f>
         <v>0</v>
       </c>
       <c r="M23" s="6">
         <v>0</v>
       </c>
       <c r="N23" s="20">
-        <f t="shared" si="3"/>
+        <f>J23*0.45+L23*0.25+M23*0.3+3</f>
         <v>3</v>
       </c>
       <c r="O23" s="20">
-        <f t="shared" si="2"/>
+        <f>D23*0.4+N23*0.6</f>
         <v>1.7999999999999998</v>
+      </c>
+      <c r="P23" s="77" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6099,26 +6111,29 @@
         <v>0</v>
       </c>
       <c r="J24" s="15">
-        <f t="shared" si="0"/>
+        <f>SUM(E24:H24)*50/(A$1-I24)</f>
         <v>0</v>
       </c>
       <c r="K24" s="6">
         <v>0</v>
       </c>
       <c r="L24" s="15">
-        <f t="shared" si="1"/>
+        <f>K24</f>
         <v>0</v>
       </c>
       <c r="M24" s="6">
         <v>0</v>
       </c>
       <c r="N24" s="20">
-        <f t="shared" si="3"/>
+        <f>J24*0.45+L24*0.25+M24*0.3+3</f>
         <v>3</v>
       </c>
       <c r="O24" s="20">
-        <f t="shared" si="2"/>
+        <f>D24*0.4+N24*0.6</f>
         <v>1.7999999999999998</v>
+      </c>
+      <c r="P24" s="77" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6148,26 +6163,29 @@
         <v>0</v>
       </c>
       <c r="J25" s="15">
-        <f t="shared" si="0"/>
+        <f>SUM(E25:H25)*50/(A$1-I25)</f>
         <v>0</v>
       </c>
       <c r="K25" s="6">
         <v>0</v>
       </c>
       <c r="L25" s="15">
-        <f t="shared" si="1"/>
+        <f>K25</f>
         <v>0</v>
       </c>
       <c r="M25" s="6">
         <v>0</v>
       </c>
       <c r="N25" s="20">
-        <f t="shared" si="3"/>
+        <f>J25*0.45+L25*0.25+M25*0.3+3</f>
         <v>3</v>
       </c>
       <c r="O25" s="20">
-        <f t="shared" si="2"/>
+        <f>D25*0.4+N25*0.6</f>
         <v>1.7999999999999998</v>
+      </c>
+      <c r="P25" s="77" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6197,26 +6215,29 @@
         <v>0</v>
       </c>
       <c r="J26" s="15">
-        <f t="shared" si="0"/>
+        <f>SUM(E26:H26)*50/(A$1-I26)</f>
         <v>0</v>
       </c>
       <c r="K26" s="6">
         <v>0</v>
       </c>
       <c r="L26" s="15">
-        <f t="shared" si="1"/>
+        <f>K26</f>
         <v>0</v>
       </c>
       <c r="M26" s="6">
         <v>0</v>
       </c>
       <c r="N26" s="20">
-        <f t="shared" si="3"/>
+        <f>J26*0.45+L26*0.25+M26*0.3+3</f>
         <v>3</v>
       </c>
       <c r="O26" s="20">
-        <f t="shared" si="2"/>
+        <f>D26*0.4+N26*0.6</f>
         <v>1.7999999999999998</v>
+      </c>
+      <c r="P26" s="77" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6246,26 +6267,29 @@
         <v>0</v>
       </c>
       <c r="J27" s="15">
-        <f t="shared" si="0"/>
+        <f>SUM(E27:H27)*50/(A$1-I27)</f>
         <v>0</v>
       </c>
       <c r="K27" s="6">
         <v>0</v>
       </c>
       <c r="L27" s="15">
-        <f t="shared" si="1"/>
+        <f>K27</f>
         <v>0</v>
       </c>
       <c r="M27" s="6">
         <v>0</v>
       </c>
       <c r="N27" s="20">
-        <f t="shared" si="3"/>
+        <f>J27*0.45+L27*0.25+M27*0.3+3</f>
         <v>3</v>
       </c>
       <c r="O27" s="20">
-        <f t="shared" si="2"/>
+        <f>D27*0.4+N27*0.6</f>
         <v>1.7999999999999998</v>
+      </c>
+      <c r="P27" s="77" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6295,26 +6319,29 @@
         <v>0</v>
       </c>
       <c r="J28" s="15">
-        <f t="shared" si="0"/>
+        <f>SUM(E28:H28)*50/(A$1-I28)</f>
         <v>0</v>
       </c>
       <c r="K28" s="6">
         <v>0</v>
       </c>
       <c r="L28" s="15">
-        <f t="shared" si="1"/>
+        <f>K28</f>
         <v>0</v>
       </c>
       <c r="M28" s="6">
         <v>0</v>
       </c>
       <c r="N28" s="20">
-        <f t="shared" si="3"/>
+        <f>J28*0.45+L28*0.25+M28*0.3+3</f>
         <v>3</v>
       </c>
       <c r="O28" s="20">
-        <f t="shared" si="2"/>
+        <f>D28*0.4+N28*0.6</f>
         <v>1.7999999999999998</v>
+      </c>
+      <c r="P28" s="77" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6344,26 +6371,29 @@
         <v>0</v>
       </c>
       <c r="J29" s="15">
-        <f t="shared" si="0"/>
+        <f>SUM(E29:H29)*50/(A$1-I29)</f>
         <v>0</v>
       </c>
       <c r="K29" s="6">
         <v>0</v>
       </c>
       <c r="L29" s="15">
-        <f t="shared" si="1"/>
+        <f>K29</f>
         <v>0</v>
       </c>
       <c r="M29" s="6">
         <v>0</v>
       </c>
       <c r="N29" s="20">
-        <f t="shared" si="3"/>
+        <f>J29*0.45+L29*0.25+M29*0.3+3</f>
         <v>3</v>
       </c>
       <c r="O29" s="20">
-        <f t="shared" si="2"/>
+        <f>D29*0.4+N29*0.6</f>
         <v>1.7999999999999998</v>
+      </c>
+      <c r="P29" s="77" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6393,26 +6423,29 @@
         <v>0</v>
       </c>
       <c r="J30" s="15">
-        <f t="shared" si="0"/>
+        <f>SUM(E30:H30)*50/(A$1-I30)</f>
         <v>0</v>
       </c>
       <c r="K30" s="6">
         <v>0</v>
       </c>
       <c r="L30" s="15">
-        <f t="shared" si="1"/>
+        <f>K30</f>
         <v>0</v>
       </c>
       <c r="M30" s="6">
         <v>0</v>
       </c>
       <c r="N30" s="20">
-        <f t="shared" si="3"/>
+        <f>J30*0.45+L30*0.25+M30*0.3+3</f>
         <v>3</v>
       </c>
       <c r="O30" s="20">
-        <f t="shared" si="2"/>
+        <f>D30*0.4+N30*0.6</f>
         <v>1.7999999999999998</v>
+      </c>
+      <c r="P30" s="77" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -7090,7 +7123,7 @@
       <c r="L81" s="9"/>
     </row>
   </sheetData>
-  <sortState ref="A3:O30">
+  <sortState ref="A3:P30">
     <sortCondition descending="1" ref="O3"/>
   </sortState>
   <mergeCells count="2">

--- a/AdvancedJava/_docs/Notlar.xlsx
+++ b/AdvancedJava/_docs/Notlar.xlsx
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="112">
   <si>
     <t>Adı</t>
   </si>
@@ -394,22 +394,46 @@
     <t>,</t>
   </si>
   <si>
-    <t>ODEV (%25)</t>
-  </si>
-  <si>
-    <t>DEVAM DURUMU (%45)</t>
-  </si>
-  <si>
-    <t>PROJE (%30)</t>
-  </si>
-  <si>
     <t>BUTUNLEME</t>
   </si>
   <si>
-    <t>final notu şartı olabilir. 55 ya da 60 altında olduğundan büte kalabilir.</t>
-  </si>
-  <si>
     <t>KALDI</t>
+  </si>
+  <si>
+    <t>DEVAM DURUMU 
+(%20+%25 bonus)</t>
+  </si>
+  <si>
+    <t>ODEV 
+(%25+%10 bonus)</t>
+  </si>
+  <si>
+    <t>PROJE
+(%55+%15 bonus)</t>
+  </si>
+  <si>
+    <t>GEÇTİ: 80</t>
+  </si>
+  <si>
+    <t>GEÇTİ: 71</t>
+  </si>
+  <si>
+    <t>GEÇTİ: 100</t>
+  </si>
+  <si>
+    <t>GEÇTİ: 62</t>
+  </si>
+  <si>
+    <t>GEÇTİ: 97</t>
+  </si>
+  <si>
+    <t>GEÇTİ: 72</t>
+  </si>
+  <si>
+    <t>GEÇTİ: 75</t>
+  </si>
+  <si>
+    <t>GEÇTİ: 70</t>
   </si>
 </sst>
 </file>
@@ -972,14 +996,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -994,6 +1010,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1497,7 +1525,7 @@
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L3" sqref="L3"/>
+      <selection pane="bottomLeft" activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1529,32 +1557,32 @@
       <c r="A1" s="29"/>
       <c r="B1" s="17"/>
       <c r="C1" s="28"/>
-      <c r="D1" s="79" t="s">
+      <c r="D1" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
       <c r="L1" s="44">
         <v>6</v>
       </c>
-      <c r="M1" s="81" t="s">
+      <c r="M1" s="77" t="s">
         <v>92</v>
       </c>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
       <c r="Q1" s="43">
         <v>3</v>
       </c>
-      <c r="R1" s="81" t="s">
+      <c r="R1" s="77" t="s">
         <v>97</v>
       </c>
-      <c r="S1" s="82"/>
+      <c r="S1" s="78"/>
       <c r="T1" s="43">
         <v>2</v>
       </c>
@@ -4910,8 +4938,8 @@
   <dimension ref="A1:P81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P26" sqref="P26:P30"/>
+      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4928,31 +4956,31 @@
     <col min="12" max="12" width="4.77734375" style="1" customWidth="1"/>
     <col min="13" max="13" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="5.77734375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="37.88671875" style="77" customWidth="1"/>
+    <col min="16" max="16" width="37.88671875" style="82" customWidth="1"/>
     <col min="17" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="4" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="4" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="29">
         <v>4</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="33"/>
       <c r="D1" s="68"/>
-      <c r="E1" s="81" t="s">
-        <v>100</v>
-      </c>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="82" t="s">
-        <v>99</v>
-      </c>
-      <c r="L1" s="83"/>
+      <c r="E1" s="77" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="78" t="s">
+        <v>102</v>
+      </c>
+      <c r="L1" s="79"/>
       <c r="M1" s="32" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N1" s="18" t="s">
         <v>39</v>
@@ -4960,7 +4988,7 @@
       <c r="O1" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="P1" s="75"/>
+      <c r="P1" s="80"/>
     </row>
     <row r="2" spans="1:16" s="5" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
@@ -5008,67 +5036,70 @@
       <c r="O2" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="76"/>
+      <c r="P2" s="81"/>
     </row>
     <row r="3" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
-      <c r="B3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>45</v>
+      <c r="B3" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="56" t="s">
+        <v>88</v>
       </c>
       <c r="D3" s="70">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E3" s="37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F3" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G3" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H3" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" s="46">
         <v>0</v>
       </c>
       <c r="J3" s="15">
         <f>SUM(E3:H3)*50/(A$1-I3)</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K3" s="6">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="L3" s="15">
         <f>K3</f>
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="M3" s="6">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="N3" s="20">
-        <f>J3*0.45+L3*0.25+M3*0.3+3</f>
-        <v>100.25</v>
+        <f>MIN(100,J3*(0.2+0.25)+L3*(0.25+0.1)+M3*(0.55+0.15))</f>
+        <v>0</v>
       </c>
       <c r="O3" s="20">
-        <f>D3*0.4+N3*0.6</f>
-        <v>100.15</v>
+        <f>ROUND(D3,2)*0.4+N3*0.6</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="82" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
       <c r="B4" s="3" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="D4" s="70">
-        <v>92.333333333333329</v>
+        <v>73.291666666666671</v>
       </c>
       <c r="E4" s="37">
         <v>2</v>
@@ -5079,45 +5110,48 @@
       <c r="G4" s="7">
         <v>2</v>
       </c>
-      <c r="H4" s="7" t="s">
-        <v>93</v>
+      <c r="H4" s="7">
+        <v>1.7</v>
       </c>
       <c r="I4" s="46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="15">
         <f>SUM(E4:H4)*50/(A$1-I4)</f>
-        <v>100</v>
+        <v>96.25</v>
       </c>
       <c r="K4" s="6">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="L4" s="15">
         <f>K4</f>
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M4" s="6">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="N4" s="20">
-        <f>J4*0.45+L4*0.25+M4*0.3+3</f>
-        <v>88.25</v>
+        <f>MIN(100,J4*(0.2+0.25)+L4*(0.25+0.1)+M4*(0.55+0.15))</f>
+        <v>75.512500000000003</v>
       </c>
       <c r="O4" s="20">
-        <f>D4*0.4+N4*0.6</f>
-        <v>89.883333333333326</v>
+        <f>ROUND(D4,2)*0.4+N4*0.6</f>
+        <v>74.623500000000007</v>
+      </c>
+      <c r="P4" s="82" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
       <c r="B5" s="3" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="D5" s="70">
-        <v>73.400000000000006</v>
+        <v>43.75</v>
       </c>
       <c r="E5" s="37">
         <v>2</v>
@@ -5126,96 +5160,102 @@
         <v>2</v>
       </c>
       <c r="G5" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" s="46">
         <v>0</v>
       </c>
       <c r="J5" s="15">
         <f>SUM(E5:H5)*50/(A$1-I5)</f>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K5" s="6">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L5" s="15">
         <f>K5</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="6">
         <v>30</v>
       </c>
-      <c r="M5" s="6">
-        <v>40</v>
-      </c>
       <c r="N5" s="20">
-        <f>J5*0.45+L5*0.25+M5*0.3+3</f>
-        <v>67.5</v>
+        <f>MIN(100,J5*(0.2+0.25)+L5*(0.25+0.1)+M5*(0.55+0.15))</f>
+        <v>43.5</v>
       </c>
       <c r="O5" s="20">
-        <f>D5*0.4+N5*0.6</f>
-        <v>69.86</v>
+        <f>ROUND(D5,2)*0.4+N5*0.6</f>
+        <v>43.599999999999994</v>
+      </c>
+      <c r="P5" s="82" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
       <c r="B6" s="3" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="D6" s="70">
-        <v>73.291666666666671</v>
+        <v>72.808333333333337</v>
       </c>
       <c r="E6" s="37">
         <v>2</v>
       </c>
-      <c r="F6" s="7">
-        <v>2</v>
+      <c r="F6" s="7" t="s">
+        <v>93</v>
       </c>
       <c r="G6" s="7">
         <v>2</v>
       </c>
       <c r="H6" s="7">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="I6" s="46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" s="15">
         <f>SUM(E6:H6)*50/(A$1-I6)</f>
-        <v>93.75</v>
+        <v>98.333333333333329</v>
       </c>
       <c r="K6" s="6">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="L6" s="15">
         <f>K6</f>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="M6" s="6">
         <v>15</v>
       </c>
       <c r="N6" s="20">
-        <f>J6*0.45+L6*0.25+M6*0.3+3</f>
-        <v>64.6875</v>
+        <f>MIN(100,J6*(0.2+0.25)+L6*(0.25+0.1)+M6*(0.55+0.15))</f>
+        <v>54.75</v>
       </c>
       <c r="O6" s="20">
-        <f>D6*0.4+N6*0.6</f>
-        <v>68.129166666666663</v>
+        <f>ROUND(D6,2)*0.4+N6*0.6</f>
+        <v>61.974000000000004</v>
+      </c>
+      <c r="P6" s="82" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7" s="3" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="D7" s="70">
-        <v>72.258333333333326</v>
+        <v>73.400000000000006</v>
       </c>
       <c r="E7" s="37">
         <v>2</v>
@@ -5237,98 +5277,101 @@
         <v>100</v>
       </c>
       <c r="K7" s="6">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="L7" s="15">
         <f>K7</f>
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="M7" s="6">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="N7" s="20">
-        <f>J7*0.45+L7*0.25+M7*0.3+3</f>
-        <v>63.75</v>
+        <f>MIN(100,J7*(0.2+0.25)+L7*(0.25+0.1)+M7*(0.55+0.15))</f>
+        <v>83.5</v>
       </c>
       <c r="O7" s="20">
-        <f>D7*0.4+N7*0.6</f>
-        <v>67.153333333333336</v>
+        <f>ROUND(D7,2)*0.4+N7*0.6</f>
+        <v>79.460000000000008</v>
+      </c>
+      <c r="P7" s="82" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
-      <c r="B8" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>45</v>
+      <c r="B8" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="56" t="s">
+        <v>9</v>
       </c>
       <c r="D8" s="70">
-        <v>81.55</v>
+        <v>0</v>
       </c>
       <c r="E8" s="37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F8" s="7">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="G8" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" s="46">
         <v>0</v>
       </c>
       <c r="J8" s="15">
         <f>SUM(E8:H8)*50/(A$1-I8)</f>
-        <v>81.25</v>
+        <v>0</v>
       </c>
       <c r="K8" s="6">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L8" s="15">
         <f>K8</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M8" s="6">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="N8" s="20">
-        <f>J8*0.45+L8*0.25+M8*0.3+3</f>
-        <v>56.5625</v>
+        <f>MIN(100,J8*(0.2+0.25)+L8*(0.25+0.1)+M8*(0.55+0.15))</f>
+        <v>0</v>
       </c>
       <c r="O8" s="20">
-        <f>D8*0.4+N8*0.6</f>
-        <v>66.557500000000005</v>
-      </c>
-      <c r="P8" s="77" t="s">
-        <v>103</v>
+        <f>ROUND(D8,2)*0.4+N8*0.6</f>
+        <v>0</v>
+      </c>
+      <c r="P8" s="82" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
       <c r="B9" s="3" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="D9" s="70">
-        <v>65.558333333333337</v>
+        <v>68.166666666666671</v>
       </c>
       <c r="E9" s="37">
         <v>2</v>
       </c>
       <c r="F9" s="7">
+        <v>2</v>
+      </c>
+      <c r="G9" s="7">
+        <v>2</v>
+      </c>
+      <c r="H9" s="7">
         <v>1.9</v>
-      </c>
-      <c r="G9" s="7">
-        <v>2</v>
-      </c>
-      <c r="H9" s="7">
-        <v>2</v>
       </c>
       <c r="I9" s="46">
         <v>0</v>
@@ -5338,34 +5381,37 @@
         <v>98.75</v>
       </c>
       <c r="K9" s="6">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="L9" s="15">
         <f>K9</f>
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="M9" s="6">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="N9" s="20">
-        <f>J9*0.45+L9*0.25+M9*0.3+3</f>
-        <v>63.1875</v>
+        <f>MIN(100,J9*(0.2+0.25)+L9*(0.25+0.1)+M9*(0.55+0.15))</f>
+        <v>71.037499999999994</v>
       </c>
       <c r="O9" s="20">
-        <f>D9*0.4+N9*0.6</f>
-        <v>64.135833333333338</v>
+        <f>ROUND(D9,2)*0.4+N9*0.6</f>
+        <v>69.890500000000003</v>
+      </c>
+      <c r="P9" s="82" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
       <c r="B10" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D10" s="70">
-        <v>68.166666666666671</v>
+        <v>63.625</v>
       </c>
       <c r="E10" s="37">
         <v>2</v>
@@ -5387,212 +5433,212 @@
         <v>98.75</v>
       </c>
       <c r="K10" s="6">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="L10" s="15">
         <f>K10</f>
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="M10" s="6">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="N10" s="20">
-        <f>J10*0.45+L10*0.25+M10*0.3+3</f>
-        <v>57.9375</v>
+        <f>MIN(100,J10*(0.2+0.25)+L10*(0.25+0.1)+M10*(0.55+0.15))</f>
+        <v>46.1875</v>
       </c>
       <c r="O10" s="20">
-        <f>D10*0.4+N10*0.6</f>
-        <v>62.029166666666669</v>
-      </c>
-      <c r="P10" s="77" t="s">
-        <v>103</v>
+        <f>ROUND(D10,2)*0.4+N10*0.6</f>
+        <v>53.164500000000004</v>
+      </c>
+      <c r="P10" s="82" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
       <c r="B11" s="3" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="D11" s="70">
-        <v>72.058333333333337</v>
+        <v>81.55</v>
       </c>
       <c r="E11" s="37">
         <v>2</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>93</v>
+      <c r="F11" s="7">
+        <v>1.5</v>
       </c>
       <c r="G11" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
       </c>
       <c r="I11" s="46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" s="15">
         <f>SUM(E11:H11)*50/(A$1-I11)</f>
-        <v>100</v>
+        <v>81.25</v>
       </c>
       <c r="K11" s="6">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L11" s="15">
         <f>K11</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M11" s="6">
         <v>15</v>
       </c>
       <c r="N11" s="20">
-        <f>J11*0.45+L11*0.25+M11*0.3+3</f>
-        <v>52.5</v>
+        <f>MIN(100,J11*(0.2+0.25)+L11*(0.25+0.1)+M11*(0.55+0.15))</f>
+        <v>64.5625</v>
       </c>
       <c r="O11" s="20">
-        <f>D11*0.4+N11*0.6</f>
-        <v>60.323333333333338</v>
-      </c>
-      <c r="P11" s="77" t="s">
-        <v>103</v>
+        <f>ROUND(D11,2)*0.4+N11*0.6</f>
+        <v>71.357499999999987</v>
+      </c>
+      <c r="P11" s="82" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
       <c r="B12" s="3" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="D12" s="70">
-        <v>72.808333333333337</v>
+        <v>65.558333333333337</v>
       </c>
       <c r="E12" s="37">
         <v>2</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>93</v>
+      <c r="F12" s="7">
+        <v>1.9</v>
       </c>
       <c r="G12" s="7">
         <v>2</v>
       </c>
       <c r="H12" s="7">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="I12" s="46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" s="15">
         <f>SUM(E12:H12)*50/(A$1-I12)</f>
-        <v>98.333333333333329</v>
+        <v>98.75</v>
       </c>
       <c r="K12" s="6">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L12" s="15">
         <f>K12</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M12" s="6">
         <v>15</v>
       </c>
       <c r="N12" s="20">
-        <f>J12*0.45+L12*0.25+M12*0.3+3</f>
-        <v>51.75</v>
+        <f>MIN(100,J12*(0.2+0.25)+L12*(0.25+0.1)+M12*(0.55+0.15))</f>
+        <v>72.4375</v>
       </c>
       <c r="O12" s="20">
-        <f>D12*0.4+N12*0.6</f>
-        <v>60.173333333333332</v>
-      </c>
-      <c r="P12" s="77" t="s">
-        <v>103</v>
+        <f>ROUND(D12,2)*0.4+N12*0.6</f>
+        <v>69.686499999999995</v>
+      </c>
+      <c r="P12" s="82" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="B13" s="3" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="D13" s="70">
-        <v>63.625</v>
+        <v>72.058333333333337</v>
       </c>
       <c r="E13" s="37">
         <v>2</v>
       </c>
-      <c r="F13" s="7">
-        <v>2</v>
+      <c r="F13" s="7" t="s">
+        <v>93</v>
       </c>
       <c r="G13" s="7">
         <v>2</v>
       </c>
       <c r="H13" s="7">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="I13" s="46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" s="15">
         <f>SUM(E13:H13)*50/(A$1-I13)</f>
-        <v>98.75</v>
+        <v>100</v>
       </c>
       <c r="K13" s="6">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="L13" s="15">
         <f>K13</f>
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="M13" s="6">
         <v>15</v>
       </c>
       <c r="N13" s="20">
-        <f>J13*0.45+L13*0.25+M13*0.3+3</f>
-        <v>45.6875</v>
+        <f>MIN(100,J13*(0.2+0.25)+L13*(0.25+0.1)+M13*(0.55+0.15))</f>
+        <v>55.5</v>
       </c>
       <c r="O13" s="20">
-        <f>D13*0.4+N13*0.6</f>
-        <v>52.862499999999997</v>
-      </c>
-      <c r="P13" s="77" t="s">
-        <v>102</v>
+        <f>ROUND(D13,2)*0.4+N13*0.6</f>
+        <v>62.123999999999995</v>
+      </c>
+      <c r="P13" s="82" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
-      <c r="B14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>19</v>
+      <c r="B14" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="56" t="s">
+        <v>4</v>
       </c>
       <c r="D14" s="70">
-        <v>47.633333333333333</v>
+        <v>0</v>
       </c>
       <c r="E14" s="37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="7">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="G14" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H14" s="7">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="I14" s="46">
         <v>0</v>
       </c>
       <c r="J14" s="15">
         <f>SUM(E14:H14)*50/(A$1-I14)</f>
-        <v>81.25</v>
+        <v>0</v>
       </c>
       <c r="K14" s="6">
         <v>0</v>
@@ -5602,49 +5648,49 @@
         <v>0</v>
       </c>
       <c r="M14" s="6">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="N14" s="20">
-        <f>J14*0.45+L14*0.25+M14*0.3+3</f>
-        <v>48.5625</v>
+        <f>MIN(100,J14*(0.2+0.25)+L14*(0.25+0.1)+M14*(0.55+0.15))</f>
+        <v>0</v>
       </c>
       <c r="O14" s="20">
-        <f>D14*0.4+N14*0.6</f>
-        <v>48.19083333333333</v>
-      </c>
-      <c r="P14" s="77" t="s">
-        <v>102</v>
+        <f>ROUND(D14,2)*0.4+N14*0.6</f>
+        <v>0</v>
+      </c>
+      <c r="P14" s="82" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
-      <c r="B15" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>69</v>
+      <c r="B15" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="56" t="s">
+        <v>22</v>
       </c>
       <c r="D15" s="70">
-        <v>60.866666666666674</v>
+        <v>0</v>
       </c>
       <c r="E15" s="37">
-        <v>2</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>93</v>
+        <v>0</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0</v>
       </c>
       <c r="G15" s="7">
         <v>0</v>
       </c>
       <c r="H15" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" s="46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" s="15">
         <f>SUM(E15:H15)*50/(A$1-I15)</f>
-        <v>66.666666666666671</v>
+        <v>0</v>
       </c>
       <c r="K15" s="6">
         <v>0</v>
@@ -5654,39 +5700,39 @@
         <v>0</v>
       </c>
       <c r="M15" s="6">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="N15" s="20">
-        <f>J15*0.45+L15*0.25+M15*0.3+3</f>
-        <v>37.5</v>
+        <f>MIN(100,J15*(0.2+0.25)+L15*(0.25+0.1)+M15*(0.55+0.15))</f>
+        <v>0</v>
       </c>
       <c r="O15" s="20">
-        <f>D15*0.4+N15*0.6</f>
-        <v>46.846666666666671</v>
-      </c>
-      <c r="P15" s="77" t="s">
-        <v>102</v>
+        <f>ROUND(D15,2)*0.4+N15*0.6</f>
+        <v>0</v>
+      </c>
+      <c r="P15" s="82" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
       <c r="B16" s="3" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="D16" s="70">
-        <v>39.75</v>
+        <v>44.083333333333336</v>
       </c>
       <c r="E16" s="37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F16" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G16" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5696,7 +5742,7 @@
       </c>
       <c r="J16" s="15">
         <f>SUM(E16:H16)*50/(A$1-I16)</f>
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="K16" s="6">
         <v>0</v>
@@ -5706,36 +5752,36 @@
         <v>0</v>
       </c>
       <c r="M16" s="6">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="N16" s="20">
-        <f>J16*0.45+L16*0.25+M16*0.3+3</f>
-        <v>47.25</v>
+        <f>MIN(100,J16*(0.2+0.25)+L16*(0.25+0.1)+M16*(0.55+0.15))</f>
+        <v>0</v>
       </c>
       <c r="O16" s="20">
-        <f>D16*0.4+N16*0.6</f>
-        <v>44.25</v>
-      </c>
-      <c r="P16" s="77" t="s">
-        <v>102</v>
+        <f>ROUND(D16,2)*0.4+N16*0.6</f>
+        <v>17.632000000000001</v>
+      </c>
+      <c r="P16" s="82" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19"/>
-      <c r="B17" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>74</v>
+      <c r="B17" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="56" t="s">
+        <v>6</v>
       </c>
       <c r="D17" s="70">
-        <v>43.75</v>
+        <v>0</v>
       </c>
       <c r="E17" s="37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F17" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G17" s="7">
         <v>0</v>
@@ -5748,7 +5794,7 @@
       </c>
       <c r="J17" s="15">
         <f>SUM(E17:H17)*50/(A$1-I17)</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="K17" s="6">
         <v>0</v>
@@ -5758,35 +5804,35 @@
         <v>0</v>
       </c>
       <c r="M17" s="6">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="N17" s="20">
-        <f>J17*0.45+L17*0.25+M17*0.3+3</f>
-        <v>34.5</v>
+        <f>MIN(100,J17*(0.2+0.25)+L17*(0.25+0.1)+M17*(0.55+0.15))</f>
+        <v>0</v>
       </c>
       <c r="O17" s="20">
-        <f>D17*0.4+N17*0.6</f>
-        <v>38.200000000000003</v>
-      </c>
-      <c r="P17" s="77" t="s">
-        <v>102</v>
+        <f>ROUND(D17,2)*0.4+N17*0.6</f>
+        <v>0</v>
+      </c>
+      <c r="P17" s="82" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19"/>
-      <c r="B18" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>91</v>
+      <c r="B18" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="56" t="s">
+        <v>16</v>
       </c>
       <c r="D18" s="70">
-        <v>54.858333333333334</v>
+        <v>0</v>
       </c>
       <c r="E18" s="37">
         <v>0</v>
       </c>
-      <c r="F18" s="40">
+      <c r="F18" s="7">
         <v>0</v>
       </c>
       <c r="G18" s="7">
@@ -5803,56 +5849,56 @@
         <v>0</v>
       </c>
       <c r="K18" s="6">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="L18" s="15">
         <f>K18</f>
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="M18" s="6">
         <v>0</v>
       </c>
       <c r="N18" s="20">
-        <f>J18*0.45+L18*0.25+M18*0.3+3</f>
-        <v>16.75</v>
+        <f>MIN(100,J18*(0.2+0.25)+L18*(0.25+0.1)+M18*(0.55+0.15))</f>
+        <v>0</v>
       </c>
       <c r="O18" s="20">
-        <f>D18*0.4+N18*0.6</f>
-        <v>31.993333333333332</v>
-      </c>
-      <c r="P18" s="77" t="s">
-        <v>102</v>
+        <f>ROUND(D18,2)*0.4+N18*0.6</f>
+        <v>0</v>
+      </c>
+      <c r="P18" s="82" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19"/>
       <c r="B19" s="3" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="D19" s="70">
-        <v>52.2</v>
+        <v>60.866666666666674</v>
       </c>
       <c r="E19" s="37">
-        <v>0</v>
-      </c>
-      <c r="F19" s="7">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>93</v>
       </c>
       <c r="G19" s="7">
         <v>0</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" s="46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" s="15">
         <f>SUM(E19:H19)*50/(A$1-I19)</f>
-        <v>0</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="K19" s="6">
         <v>0</v>
@@ -5862,39 +5908,39 @@
         <v>0</v>
       </c>
       <c r="M19" s="6">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N19" s="20">
-        <f>J19*0.45+L19*0.25+M19*0.3+3</f>
-        <v>3</v>
+        <f>MIN(100,J19*(0.2+0.25)+L19*(0.25+0.1)+M19*(0.55+0.15))</f>
+        <v>40.500000000000007</v>
       </c>
       <c r="O19" s="20">
-        <f>D19*0.4+N19*0.6</f>
-        <v>22.680000000000003</v>
-      </c>
-      <c r="P19" s="77" t="s">
-        <v>102</v>
+        <f>ROUND(D19,2)*0.4+N19*0.6</f>
+        <v>48.648000000000003</v>
+      </c>
+      <c r="P19" s="82" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="19"/>
       <c r="B20" s="3" t="s">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="D20" s="70">
-        <v>44.083333333333336</v>
+        <v>39.75</v>
       </c>
       <c r="E20" s="37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F20" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G20" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5904,7 +5950,7 @@
       </c>
       <c r="J20" s="15">
         <f>SUM(E20:H20)*50/(A$1-I20)</f>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="K20" s="6">
         <v>0</v>
@@ -5914,131 +5960,131 @@
         <v>0</v>
       </c>
       <c r="M20" s="6">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="N20" s="20">
-        <f>J20*0.45+L20*0.25+M20*0.3+3</f>
-        <v>3</v>
+        <f>MIN(100,J20*(0.2+0.25)+L20*(0.25+0.1)+M20*(0.55+0.15))</f>
+        <v>58.25</v>
       </c>
       <c r="O20" s="20">
-        <f>D20*0.4+N20*0.6</f>
-        <v>19.433333333333337</v>
-      </c>
-      <c r="P20" s="77" t="s">
-        <v>102</v>
+        <f>ROUND(D20,2)*0.4+N20*0.6</f>
+        <v>50.849999999999994</v>
+      </c>
+      <c r="P20" s="82" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="19"/>
       <c r="B21" s="3" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D21" s="70">
-        <v>9.5833333333333339</v>
+        <v>100</v>
       </c>
       <c r="E21" s="37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F21" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G21" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H21" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" s="46">
         <v>0</v>
       </c>
       <c r="J21" s="15">
         <f>SUM(E21:H21)*50/(A$1-I21)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K21" s="6">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="L21" s="15">
         <f>K21</f>
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="M21" s="6">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="N21" s="20">
-        <f>J21*0.45+L21*0.25+M21*0.3+3</f>
-        <v>3</v>
+        <f>MIN(100,J21*(0.2+0.25)+L21*(0.25+0.1)+M21*(0.55+0.15))</f>
+        <v>100</v>
       </c>
       <c r="O21" s="20">
-        <f>D21*0.4+N21*0.6</f>
-        <v>5.6333333333333337</v>
-      </c>
-      <c r="P21" s="77" t="s">
-        <v>104</v>
+        <f>ROUND(D21,2)*0.4+N21*0.6</f>
+        <v>100</v>
+      </c>
+      <c r="P21" s="82" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="19"/>
-      <c r="B22" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="56" t="s">
-        <v>4</v>
+      <c r="B22" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>82</v>
       </c>
       <c r="D22" s="70">
-        <v>0</v>
+        <v>92.333333333333329</v>
       </c>
       <c r="E22" s="37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F22" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G22" s="7">
-        <v>0</v>
-      </c>
-      <c r="H22" s="7">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>93</v>
       </c>
       <c r="I22" s="46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" s="15">
         <f>SUM(E22:H22)*50/(A$1-I22)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K22" s="6">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="L22" s="15">
         <f>K22</f>
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="M22" s="6">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="N22" s="20">
-        <f>J22*0.45+L22*0.25+M22*0.3+3</f>
-        <v>3</v>
+        <f>MIN(100,J22*(0.2+0.25)+L22*(0.25+0.1)+M22*(0.55+0.15))</f>
+        <v>100</v>
       </c>
       <c r="O22" s="20">
-        <f>D22*0.4+N22*0.6</f>
-        <v>1.7999999999999998</v>
-      </c>
-      <c r="P22" s="77" t="s">
-        <v>104</v>
+        <f>ROUND(D22,2)*0.4+N22*0.6</f>
+        <v>96.932000000000002</v>
+      </c>
+      <c r="P22" s="82" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="19"/>
       <c r="B23" s="55" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="C23" s="56" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D23" s="70">
         <v>0</v>
@@ -6073,27 +6119,27 @@
         <v>0</v>
       </c>
       <c r="N23" s="20">
-        <f>J23*0.45+L23*0.25+M23*0.3+3</f>
-        <v>3</v>
+        <f>MIN(100,J23*(0.2+0.25)+L23*(0.25+0.1)+M23*(0.55+0.15))</f>
+        <v>0</v>
       </c>
       <c r="O23" s="20">
-        <f>D23*0.4+N23*0.6</f>
-        <v>1.7999999999999998</v>
-      </c>
-      <c r="P23" s="77" t="s">
-        <v>104</v>
+        <f>ROUND(D23,2)*0.4+N23*0.6</f>
+        <v>0</v>
+      </c>
+      <c r="P23" s="82" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="19"/>
-      <c r="B24" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="56" t="s">
-        <v>9</v>
+      <c r="B24" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>85</v>
       </c>
       <c r="D24" s="70">
-        <v>0</v>
+        <v>52.2</v>
       </c>
       <c r="E24" s="37">
         <v>0</v>
@@ -6125,46 +6171,46 @@
         <v>0</v>
       </c>
       <c r="N24" s="20">
-        <f>J24*0.45+L24*0.25+M24*0.3+3</f>
-        <v>3</v>
+        <f>MIN(100,J24*(0.2+0.25)+L24*(0.25+0.1)+M24*(0.55+0.15))</f>
+        <v>0</v>
       </c>
       <c r="O24" s="20">
-        <f>D24*0.4+N24*0.6</f>
-        <v>1.7999999999999998</v>
-      </c>
-      <c r="P24" s="77" t="s">
-        <v>104</v>
+        <f>ROUND(D24,2)*0.4+N24*0.6</f>
+        <v>20.880000000000003</v>
+      </c>
+      <c r="P24" s="82" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="19"/>
-      <c r="B25" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="56" t="s">
-        <v>13</v>
+      <c r="B25" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="D25" s="70">
-        <v>0</v>
+        <v>47.633333333333333</v>
       </c>
       <c r="E25" s="37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" s="12">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="G25" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H25" s="7">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="I25" s="46">
         <v>0</v>
       </c>
       <c r="J25" s="15">
         <f>SUM(E25:H25)*50/(A$1-I25)</f>
-        <v>0</v>
+        <v>81.25</v>
       </c>
       <c r="K25" s="6">
         <v>0</v>
@@ -6174,27 +6220,27 @@
         <v>0</v>
       </c>
       <c r="M25" s="6">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="N25" s="20">
-        <f>J25*0.45+L25*0.25+M25*0.3+3</f>
-        <v>3</v>
+        <f>MIN(100,J25*(0.2+0.25)+L25*(0.25+0.1)+M25*(0.55+0.15))</f>
+        <v>57.5625</v>
       </c>
       <c r="O25" s="20">
-        <f>D25*0.4+N25*0.6</f>
-        <v>1.7999999999999998</v>
-      </c>
-      <c r="P25" s="77" t="s">
-        <v>104</v>
+        <f>ROUND(D25,2)*0.4+N25*0.6</f>
+        <v>53.589500000000001</v>
+      </c>
+      <c r="P25" s="82" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="19"/>
       <c r="B26" s="55" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C26" s="56" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D26" s="70">
         <v>0</v>
@@ -6229,79 +6275,79 @@
         <v>0</v>
       </c>
       <c r="N26" s="20">
-        <f>J26*0.45+L26*0.25+M26*0.3+3</f>
-        <v>3</v>
+        <f>MIN(100,J26*(0.2+0.25)+L26*(0.25+0.1)+M26*(0.55+0.15))</f>
+        <v>0</v>
       </c>
       <c r="O26" s="20">
-        <f>D26*0.4+N26*0.6</f>
-        <v>1.7999999999999998</v>
-      </c>
-      <c r="P26" s="77" t="s">
-        <v>104</v>
+        <f>ROUND(D26,2)*0.4+N26*0.6</f>
+        <v>0</v>
+      </c>
+      <c r="P26" s="82" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="19"/>
-      <c r="B27" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" s="56" t="s">
-        <v>22</v>
+      <c r="B27" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>79</v>
       </c>
       <c r="D27" s="70">
-        <v>0</v>
+        <v>72.258333333333326</v>
       </c>
       <c r="E27" s="37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F27" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G27" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H27" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" s="46">
         <v>0</v>
       </c>
       <c r="J27" s="15">
         <f>SUM(E27:H27)*50/(A$1-I27)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K27" s="6">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="L27" s="15">
         <f>K27</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="M27" s="6">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N27" s="20">
-        <f>J27*0.45+L27*0.25+M27*0.3+3</f>
-        <v>3</v>
+        <f>MIN(100,J27*(0.2+0.25)+L27*(0.25+0.1)+M27*(0.55+0.15))</f>
+        <v>71.25</v>
       </c>
       <c r="O27" s="20">
-        <f>D27*0.4+N27*0.6</f>
-        <v>1.7999999999999998</v>
-      </c>
-      <c r="P27" s="77" t="s">
-        <v>104</v>
+        <f>ROUND(D27,2)*0.4+N27*0.6</f>
+        <v>71.653999999999996</v>
+      </c>
+      <c r="P27" s="82" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="19"/>
-      <c r="B28" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="56" t="s">
-        <v>25</v>
+      <c r="B28" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="D28" s="70">
-        <v>0</v>
+        <v>9.5833333333333339</v>
       </c>
       <c r="E28" s="37">
         <v>0</v>
@@ -6333,76 +6379,73 @@
         <v>0</v>
       </c>
       <c r="N28" s="20">
-        <f>J28*0.45+L28*0.25+M28*0.3+3</f>
-        <v>3</v>
+        <f>MIN(100,J28*(0.2+0.25)+L28*(0.25+0.1)+M28*(0.55+0.15))</f>
+        <v>0</v>
       </c>
       <c r="O28" s="20">
-        <f>D28*0.4+N28*0.6</f>
-        <v>1.7999999999999998</v>
-      </c>
-      <c r="P28" s="77" t="s">
-        <v>104</v>
+        <f>ROUND(D28,2)*0.4+N28*0.6</f>
+        <v>3.8320000000000003</v>
+      </c>
+      <c r="P28" s="82" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="19"/>
-      <c r="B29" s="55" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" s="56" t="s">
-        <v>28</v>
+      <c r="B29" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>91</v>
       </c>
       <c r="D29" s="70">
-        <v>0</v>
+        <v>54.858333333333334</v>
       </c>
       <c r="E29" s="37">
         <v>0</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F29" s="40">
         <v>0</v>
       </c>
       <c r="G29" s="7">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H29" s="7">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I29" s="46">
         <v>0</v>
       </c>
       <c r="J29" s="15">
         <f>SUM(E29:H29)*50/(A$1-I29)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K29" s="6">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="L29" s="15">
         <f>K29</f>
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="M29" s="6">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="N29" s="20">
-        <f>J29*0.45+L29*0.25+M29*0.3+3</f>
-        <v>3</v>
+        <f>MIN(100,J29*(0.2+0.25)+L29*(0.25+0.1)+M29*(0.55+0.15))</f>
+        <v>63.500000000000007</v>
       </c>
       <c r="O29" s="20">
-        <f>D29*0.4+N29*0.6</f>
-        <v>1.7999999999999998</v>
-      </c>
-      <c r="P29" s="77" t="s">
-        <v>104</v>
+        <f>ROUND(D29,2)*0.4+N29*0.6</f>
+        <v>60.044000000000004</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="19"/>
       <c r="B30" s="55" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="C30" s="56" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="D30" s="70">
         <v>0</v>
@@ -6437,15 +6480,15 @@
         <v>0</v>
       </c>
       <c r="N30" s="20">
-        <f>J30*0.45+L30*0.25+M30*0.3+3</f>
-        <v>3</v>
+        <f>MIN(100,J30*(0.2+0.25)+L30*(0.25+0.1)+M30*(0.55+0.15))</f>
+        <v>0</v>
       </c>
       <c r="O30" s="20">
-        <f>D30*0.4+N30*0.6</f>
-        <v>1.7999999999999998</v>
-      </c>
-      <c r="P30" s="77" t="s">
-        <v>104</v>
+        <f>ROUND(D30,2)*0.4+N30*0.6</f>
+        <v>0</v>
+      </c>
+      <c r="P30" s="82" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6509,7 +6552,7 @@
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
-      <c r="P34" s="78"/>
+      <c r="P34" s="83"/>
     </row>
     <row r="35" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
@@ -7124,7 +7167,7 @@
     </row>
   </sheetData>
   <sortState ref="A3:P30">
-    <sortCondition descending="1" ref="O3"/>
+    <sortCondition ref="B3"/>
   </sortState>
   <mergeCells count="2">
     <mergeCell ref="E1:J1"/>

--- a/AdvancedJava/_docs/Notlar.xlsx
+++ b/AdvancedJava/_docs/Notlar.xlsx
@@ -16,6 +16,7 @@
     <sheet name="Final" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -95,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="113">
   <si>
     <t>Adı</t>
   </si>
@@ -434,6 +435,9 @@
   </si>
   <si>
     <t>GEÇTİ: 70</t>
+  </si>
+  <si>
+    <t>GEÇTİ: 60</t>
   </si>
 </sst>
 </file>
@@ -996,6 +1000,18 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1010,18 +1026,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1557,32 +1561,32 @@
       <c r="A1" s="29"/>
       <c r="B1" s="17"/>
       <c r="C1" s="28"/>
-      <c r="D1" s="75" t="s">
+      <c r="D1" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
       <c r="L1" s="44">
         <v>6</v>
       </c>
-      <c r="M1" s="77" t="s">
+      <c r="M1" s="81" t="s">
         <v>92</v>
       </c>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
       <c r="Q1" s="43">
         <v>3</v>
       </c>
-      <c r="R1" s="77" t="s">
+      <c r="R1" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="S1" s="78"/>
+      <c r="S1" s="82"/>
       <c r="T1" s="43">
         <v>2</v>
       </c>
@@ -4938,8 +4942,8 @@
   <dimension ref="A1:P81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P20" sqref="P20"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4956,7 +4960,7 @@
     <col min="12" max="12" width="4.77734375" style="1" customWidth="1"/>
     <col min="13" max="13" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="5.77734375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="37.88671875" style="82" customWidth="1"/>
+    <col min="16" max="16" width="37.88671875" style="77" customWidth="1"/>
     <col min="17" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
@@ -4967,18 +4971,18 @@
       <c r="B1" s="17"/>
       <c r="C1" s="33"/>
       <c r="D1" s="68"/>
-      <c r="E1" s="77" t="s">
+      <c r="E1" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="78" t="s">
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="82" t="s">
         <v>102</v>
       </c>
-      <c r="L1" s="79"/>
+      <c r="L1" s="83"/>
       <c r="M1" s="32" t="s">
         <v>103</v>
       </c>
@@ -4988,7 +4992,7 @@
       <c r="O1" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="P1" s="80"/>
+      <c r="P1" s="75"/>
     </row>
     <row r="2" spans="1:16" s="5" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
@@ -5036,70 +5040,70 @@
       <c r="O2" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="81"/>
+      <c r="P2" s="76"/>
     </row>
     <row r="3" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
-      <c r="B3" s="55" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" s="56" t="s">
-        <v>88</v>
+      <c r="B3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="D3" s="70">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E3" s="37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F3" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G3" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H3" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" s="46">
         <v>0</v>
       </c>
       <c r="J3" s="15">
         <f>SUM(E3:H3)*50/(A$1-I3)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K3" s="6">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="L3" s="15">
         <f>K3</f>
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="M3" s="6">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="N3" s="20">
         <f>MIN(100,J3*(0.2+0.25)+L3*(0.25+0.1)+M3*(0.55+0.15))</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O3" s="20">
         <f>ROUND(D3,2)*0.4+N3*0.6</f>
-        <v>0</v>
-      </c>
-      <c r="P3" s="82" t="s">
         <v>100</v>
+      </c>
+      <c r="P3" s="77" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
       <c r="B4" s="3" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="D4" s="70">
-        <v>73.291666666666671</v>
+        <v>92.333333333333329</v>
       </c>
       <c r="E4" s="37">
         <v>2</v>
@@ -5110,48 +5114,48 @@
       <c r="G4" s="7">
         <v>2</v>
       </c>
-      <c r="H4" s="7">
-        <v>1.7</v>
+      <c r="H4" s="7" t="s">
+        <v>93</v>
       </c>
       <c r="I4" s="46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="15">
         <f>SUM(E4:H4)*50/(A$1-I4)</f>
-        <v>96.25</v>
+        <v>100</v>
       </c>
       <c r="K4" s="6">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="L4" s="15">
         <f>K4</f>
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M4" s="6">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="N4" s="20">
         <f>MIN(100,J4*(0.2+0.25)+L4*(0.25+0.1)+M4*(0.55+0.15))</f>
-        <v>75.512500000000003</v>
+        <v>100</v>
       </c>
       <c r="O4" s="20">
         <f>ROUND(D4,2)*0.4+N4*0.6</f>
-        <v>74.623500000000007</v>
-      </c>
-      <c r="P4" s="82" t="s">
-        <v>110</v>
+        <v>96.932000000000002</v>
+      </c>
+      <c r="P4" s="77" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
       <c r="B5" s="3" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="D5" s="70">
-        <v>43.75</v>
+        <v>73.400000000000006</v>
       </c>
       <c r="E5" s="37">
         <v>2</v>
@@ -5160,102 +5164,102 @@
         <v>2</v>
       </c>
       <c r="G5" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" s="46">
         <v>0</v>
       </c>
       <c r="J5" s="15">
         <f>SUM(E5:H5)*50/(A$1-I5)</f>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K5" s="6">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L5" s="15">
         <f>K5</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M5" s="6">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N5" s="20">
         <f>MIN(100,J5*(0.2+0.25)+L5*(0.25+0.1)+M5*(0.55+0.15))</f>
-        <v>43.5</v>
+        <v>83.5</v>
       </c>
       <c r="O5" s="20">
         <f>ROUND(D5,2)*0.4+N5*0.6</f>
-        <v>43.599999999999994</v>
-      </c>
-      <c r="P5" s="82" t="s">
-        <v>99</v>
+        <v>79.460000000000008</v>
+      </c>
+      <c r="P5" s="77" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
       <c r="B6" s="3" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="D6" s="70">
-        <v>72.808333333333337</v>
+        <v>73.291666666666671</v>
       </c>
       <c r="E6" s="37">
         <v>2</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>93</v>
+      <c r="F6" s="7">
+        <v>2</v>
       </c>
       <c r="G6" s="7">
         <v>2</v>
       </c>
       <c r="H6" s="7">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="I6" s="46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="15">
         <f>SUM(E6:H6)*50/(A$1-I6)</f>
-        <v>98.333333333333329</v>
+        <v>96.25</v>
       </c>
       <c r="K6" s="6">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="L6" s="15">
         <f>K6</f>
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="M6" s="6">
         <v>15</v>
       </c>
       <c r="N6" s="20">
         <f>MIN(100,J6*(0.2+0.25)+L6*(0.25+0.1)+M6*(0.55+0.15))</f>
-        <v>54.75</v>
+        <v>75.512500000000003</v>
       </c>
       <c r="O6" s="20">
         <f>ROUND(D6,2)*0.4+N6*0.6</f>
-        <v>61.974000000000004</v>
-      </c>
-      <c r="P6" s="82" t="s">
-        <v>107</v>
+        <v>74.623500000000007</v>
+      </c>
+      <c r="P6" s="77" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7" s="3" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="D7" s="70">
-        <v>73.400000000000006</v>
+        <v>72.258333333333326</v>
       </c>
       <c r="E7" s="37">
         <v>2</v>
@@ -5277,77 +5281,77 @@
         <v>100</v>
       </c>
       <c r="K7" s="6">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="L7" s="15">
         <f>K7</f>
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="M7" s="6">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="N7" s="20">
         <f>MIN(100,J7*(0.2+0.25)+L7*(0.25+0.1)+M7*(0.55+0.15))</f>
-        <v>83.5</v>
+        <v>71.25</v>
       </c>
       <c r="O7" s="20">
         <f>ROUND(D7,2)*0.4+N7*0.6</f>
-        <v>79.460000000000008</v>
-      </c>
-      <c r="P7" s="82" t="s">
-        <v>104</v>
+        <v>71.653999999999996</v>
+      </c>
+      <c r="P7" s="77" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
-      <c r="B8" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="56" t="s">
-        <v>9</v>
+      <c r="B8" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="D8" s="70">
-        <v>0</v>
+        <v>81.55</v>
       </c>
       <c r="E8" s="37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F8" s="7">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="G8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" s="46">
         <v>0</v>
       </c>
       <c r="J8" s="15">
         <f>SUM(E8:H8)*50/(A$1-I8)</f>
-        <v>0</v>
+        <v>81.25</v>
       </c>
       <c r="K8" s="6">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L8" s="15">
         <f>K8</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M8" s="6">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N8" s="20">
         <f>MIN(100,J8*(0.2+0.25)+L8*(0.25+0.1)+M8*(0.55+0.15))</f>
-        <v>0</v>
+        <v>64.5625</v>
       </c>
       <c r="O8" s="20">
         <f>ROUND(D8,2)*0.4+N8*0.6</f>
-        <v>0</v>
-      </c>
-      <c r="P8" s="82" t="s">
-        <v>100</v>
+        <v>71.357499999999987</v>
+      </c>
+      <c r="P8" s="77" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -5398,32 +5402,32 @@
         <f>ROUND(D9,2)*0.4+N9*0.6</f>
         <v>69.890500000000003</v>
       </c>
-      <c r="P9" s="82" t="s">
+      <c r="P9" s="77" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
       <c r="B10" s="3" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="D10" s="70">
-        <v>63.625</v>
+        <v>65.558333333333337</v>
       </c>
       <c r="E10" s="37">
         <v>2</v>
       </c>
       <c r="F10" s="7">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="G10" s="7">
         <v>2</v>
       </c>
       <c r="H10" s="7">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="I10" s="46">
         <v>0</v>
@@ -5433,212 +5437,212 @@
         <v>98.75</v>
       </c>
       <c r="K10" s="6">
-        <v>-25</v>
+        <v>50</v>
       </c>
       <c r="L10" s="15">
         <f>K10</f>
-        <v>-25</v>
+        <v>50</v>
       </c>
       <c r="M10" s="6">
         <v>15</v>
       </c>
       <c r="N10" s="20">
         <f>MIN(100,J10*(0.2+0.25)+L10*(0.25+0.1)+M10*(0.55+0.15))</f>
-        <v>46.1875</v>
+        <v>72.4375</v>
       </c>
       <c r="O10" s="20">
         <f>ROUND(D10,2)*0.4+N10*0.6</f>
-        <v>53.164500000000004</v>
-      </c>
-      <c r="P10" s="82" t="s">
-        <v>99</v>
+        <v>69.686499999999995</v>
+      </c>
+      <c r="P10" s="77" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
       <c r="B11" s="3" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="D11" s="70">
-        <v>81.55</v>
+        <v>72.058333333333337</v>
       </c>
       <c r="E11" s="37">
         <v>2</v>
       </c>
-      <c r="F11" s="7">
-        <v>1.5</v>
+      <c r="F11" s="7" t="s">
+        <v>93</v>
       </c>
       <c r="G11" s="7">
+        <v>2</v>
+      </c>
+      <c r="H11" s="7">
+        <v>2</v>
+      </c>
+      <c r="I11" s="46">
         <v>1</v>
-      </c>
-      <c r="H11" s="7">
-        <v>2</v>
-      </c>
-      <c r="I11" s="46">
-        <v>0</v>
       </c>
       <c r="J11" s="15">
         <f>SUM(E11:H11)*50/(A$1-I11)</f>
-        <v>81.25</v>
+        <v>100</v>
       </c>
       <c r="K11" s="6">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L11" s="15">
         <f>K11</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M11" s="6">
         <v>15</v>
       </c>
       <c r="N11" s="20">
         <f>MIN(100,J11*(0.2+0.25)+L11*(0.25+0.1)+M11*(0.55+0.15))</f>
-        <v>64.5625</v>
+        <v>55.5</v>
       </c>
       <c r="O11" s="20">
         <f>ROUND(D11,2)*0.4+N11*0.6</f>
-        <v>71.357499999999987</v>
-      </c>
-      <c r="P11" s="82" t="s">
-        <v>109</v>
+        <v>62.123999999999995</v>
+      </c>
+      <c r="P11" s="77" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
       <c r="B12" s="3" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="D12" s="70">
-        <v>65.558333333333337</v>
+        <v>72.808333333333337</v>
       </c>
       <c r="E12" s="37">
         <v>2</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G12" s="7">
+        <v>2</v>
+      </c>
+      <c r="H12" s="7">
         <v>1.9</v>
       </c>
-      <c r="G12" s="7">
-        <v>2</v>
-      </c>
-      <c r="H12" s="7">
-        <v>2</v>
-      </c>
       <c r="I12" s="46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" s="15">
         <f>SUM(E12:H12)*50/(A$1-I12)</f>
-        <v>98.75</v>
+        <v>98.333333333333329</v>
       </c>
       <c r="K12" s="6">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L12" s="15">
         <f>K12</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M12" s="6">
         <v>15</v>
       </c>
       <c r="N12" s="20">
         <f>MIN(100,J12*(0.2+0.25)+L12*(0.25+0.1)+M12*(0.55+0.15))</f>
-        <v>72.4375</v>
+        <v>54.75</v>
       </c>
       <c r="O12" s="20">
         <f>ROUND(D12,2)*0.4+N12*0.6</f>
-        <v>69.686499999999995</v>
-      </c>
-      <c r="P12" s="82" t="s">
-        <v>111</v>
+        <v>61.974000000000004</v>
+      </c>
+      <c r="P12" s="77" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="B13" s="3" t="s">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="D13" s="70">
-        <v>72.058333333333337</v>
+        <v>54.858333333333334</v>
       </c>
       <c r="E13" s="37">
-        <v>2</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>93</v>
+        <v>0</v>
+      </c>
+      <c r="F13" s="40">
+        <v>0</v>
       </c>
       <c r="G13" s="7">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="H13" s="7">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="I13" s="46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" s="15">
         <f>SUM(E13:H13)*50/(A$1-I13)</f>
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="K13" s="6">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="L13" s="15">
         <f>K13</f>
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="M13" s="6">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="N13" s="20">
         <f>MIN(100,J13*(0.2+0.25)+L13*(0.25+0.1)+M13*(0.55+0.15))</f>
-        <v>55.5</v>
+        <v>63.500000000000007</v>
       </c>
       <c r="O13" s="20">
         <f>ROUND(D13,2)*0.4+N13*0.6</f>
-        <v>62.123999999999995</v>
-      </c>
-      <c r="P13" s="82" t="s">
-        <v>107</v>
+        <v>60.044000000000004</v>
+      </c>
+      <c r="P13" s="77" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
-      <c r="B14" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="56" t="s">
-        <v>4</v>
+      <c r="B14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="D14" s="70">
-        <v>0</v>
+        <v>47.633333333333333</v>
       </c>
       <c r="E14" s="37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="7">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="G14" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="I14" s="46">
         <v>0</v>
       </c>
       <c r="J14" s="15">
         <f>SUM(E14:H14)*50/(A$1-I14)</f>
-        <v>0</v>
+        <v>81.25</v>
       </c>
       <c r="K14" s="6">
         <v>0</v>
@@ -5648,91 +5652,91 @@
         <v>0</v>
       </c>
       <c r="M14" s="6">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="N14" s="20">
         <f>MIN(100,J14*(0.2+0.25)+L14*(0.25+0.1)+M14*(0.55+0.15))</f>
-        <v>0</v>
+        <v>57.5625</v>
       </c>
       <c r="O14" s="20">
         <f>ROUND(D14,2)*0.4+N14*0.6</f>
-        <v>0</v>
-      </c>
-      <c r="P14" s="82" t="s">
-        <v>100</v>
+        <v>53.589500000000001</v>
+      </c>
+      <c r="P14" s="77" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
-      <c r="B15" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="56" t="s">
-        <v>22</v>
+      <c r="B15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>51</v>
       </c>
       <c r="D15" s="70">
-        <v>0</v>
+        <v>63.625</v>
       </c>
       <c r="E15" s="37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F15" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G15" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H15" s="7">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="I15" s="46">
         <v>0</v>
       </c>
       <c r="J15" s="15">
         <f>SUM(E15:H15)*50/(A$1-I15)</f>
-        <v>0</v>
+        <v>98.75</v>
       </c>
       <c r="K15" s="6">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="L15" s="15">
         <f>K15</f>
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="M15" s="6">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N15" s="20">
         <f>MIN(100,J15*(0.2+0.25)+L15*(0.25+0.1)+M15*(0.55+0.15))</f>
-        <v>0</v>
+        <v>46.1875</v>
       </c>
       <c r="O15" s="20">
         <f>ROUND(D15,2)*0.4+N15*0.6</f>
-        <v>0</v>
-      </c>
-      <c r="P15" s="82" t="s">
-        <v>100</v>
+        <v>53.164500000000004</v>
+      </c>
+      <c r="P15" s="77" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
       <c r="B16" s="3" t="s">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="D16" s="70">
-        <v>44.083333333333336</v>
+        <v>39.75</v>
       </c>
       <c r="E16" s="37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F16" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G16" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5742,7 +5746,7 @@
       </c>
       <c r="J16" s="15">
         <f>SUM(E16:H16)*50/(A$1-I16)</f>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="K16" s="6">
         <v>0</v>
@@ -5752,49 +5756,49 @@
         <v>0</v>
       </c>
       <c r="M16" s="6">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="N16" s="20">
         <f>MIN(100,J16*(0.2+0.25)+L16*(0.25+0.1)+M16*(0.55+0.15))</f>
-        <v>0</v>
+        <v>58.25</v>
       </c>
       <c r="O16" s="20">
         <f>ROUND(D16,2)*0.4+N16*0.6</f>
-        <v>17.632000000000001</v>
-      </c>
-      <c r="P16" s="82" t="s">
+        <v>50.849999999999994</v>
+      </c>
+      <c r="P16" s="77" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19"/>
-      <c r="B17" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="56" t="s">
-        <v>6</v>
+      <c r="B17" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>69</v>
       </c>
       <c r="D17" s="70">
-        <v>0</v>
+        <v>60.866666666666674</v>
       </c>
       <c r="E17" s="37">
-        <v>0</v>
-      </c>
-      <c r="F17" s="7">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>93</v>
       </c>
       <c r="G17" s="7">
         <v>0</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" s="46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" s="15">
         <f>SUM(E17:H17)*50/(A$1-I17)</f>
-        <v>0</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="K17" s="6">
         <v>0</v>
@@ -5804,36 +5808,36 @@
         <v>0</v>
       </c>
       <c r="M17" s="6">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N17" s="20">
         <f>MIN(100,J17*(0.2+0.25)+L17*(0.25+0.1)+M17*(0.55+0.15))</f>
-        <v>0</v>
+        <v>40.500000000000007</v>
       </c>
       <c r="O17" s="20">
         <f>ROUND(D17,2)*0.4+N17*0.6</f>
-        <v>0</v>
-      </c>
-      <c r="P17" s="82" t="s">
-        <v>100</v>
+        <v>48.648000000000003</v>
+      </c>
+      <c r="P17" s="77" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19"/>
-      <c r="B18" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="56" t="s">
-        <v>16</v>
+      <c r="B18" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>74</v>
       </c>
       <c r="D18" s="70">
-        <v>0</v>
+        <v>43.75</v>
       </c>
       <c r="E18" s="37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F18" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G18" s="7">
         <v>0</v>
@@ -5846,7 +5850,7 @@
       </c>
       <c r="J18" s="15">
         <f>SUM(E18:H18)*50/(A$1-I18)</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K18" s="6">
         <v>0</v>
@@ -5856,49 +5860,49 @@
         <v>0</v>
       </c>
       <c r="M18" s="6">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="N18" s="20">
         <f>MIN(100,J18*(0.2+0.25)+L18*(0.25+0.1)+M18*(0.55+0.15))</f>
-        <v>0</v>
+        <v>43.5</v>
       </c>
       <c r="O18" s="20">
         <f>ROUND(D18,2)*0.4+N18*0.6</f>
-        <v>0</v>
-      </c>
-      <c r="P18" s="82" t="s">
-        <v>100</v>
+        <v>43.599999999999994</v>
+      </c>
+      <c r="P18" s="77" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19"/>
       <c r="B19" s="3" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="D19" s="70">
-        <v>60.866666666666674</v>
+        <v>52.2</v>
       </c>
       <c r="E19" s="37">
-        <v>2</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>93</v>
+        <v>0</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0</v>
       </c>
       <c r="G19" s="7">
         <v>0</v>
       </c>
       <c r="H19" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" s="46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" s="15">
         <f>SUM(E19:H19)*50/(A$1-I19)</f>
-        <v>66.666666666666671</v>
+        <v>0</v>
       </c>
       <c r="K19" s="6">
         <v>0</v>
@@ -5908,39 +5912,39 @@
         <v>0</v>
       </c>
       <c r="M19" s="6">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="N19" s="20">
         <f>MIN(100,J19*(0.2+0.25)+L19*(0.25+0.1)+M19*(0.55+0.15))</f>
-        <v>40.500000000000007</v>
+        <v>0</v>
       </c>
       <c r="O19" s="20">
         <f>ROUND(D19,2)*0.4+N19*0.6</f>
-        <v>48.648000000000003</v>
-      </c>
-      <c r="P19" s="82" t="s">
+        <v>20.880000000000003</v>
+      </c>
+      <c r="P19" s="77" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="19"/>
       <c r="B20" s="3" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="D20" s="70">
-        <v>39.75</v>
+        <v>44.083333333333336</v>
       </c>
       <c r="E20" s="37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F20" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G20" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5950,7 +5954,7 @@
       </c>
       <c r="J20" s="15">
         <f>SUM(E20:H20)*50/(A$1-I20)</f>
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="K20" s="6">
         <v>0</v>
@@ -5960,131 +5964,131 @@
         <v>0</v>
       </c>
       <c r="M20" s="6">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="N20" s="20">
         <f>MIN(100,J20*(0.2+0.25)+L20*(0.25+0.1)+M20*(0.55+0.15))</f>
-        <v>58.25</v>
+        <v>0</v>
       </c>
       <c r="O20" s="20">
         <f>ROUND(D20,2)*0.4+N20*0.6</f>
-        <v>50.849999999999994</v>
-      </c>
-      <c r="P20" s="82" t="s">
+        <v>17.632000000000001</v>
+      </c>
+      <c r="P20" s="77" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="19"/>
       <c r="B21" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D21" s="70">
-        <v>100</v>
+        <v>9.5833333333333339</v>
       </c>
       <c r="E21" s="37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F21" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G21" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H21" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" s="46">
         <v>0</v>
       </c>
       <c r="J21" s="15">
         <f>SUM(E21:H21)*50/(A$1-I21)</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K21" s="6">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="L21" s="15">
         <f>K21</f>
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="M21" s="6">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="N21" s="20">
         <f>MIN(100,J21*(0.2+0.25)+L21*(0.25+0.1)+M21*(0.55+0.15))</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O21" s="20">
         <f>ROUND(D21,2)*0.4+N21*0.6</f>
-        <v>100</v>
-      </c>
-      <c r="P21" s="82" t="s">
-        <v>106</v>
+        <v>3.8320000000000003</v>
+      </c>
+      <c r="P21" s="77" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="19"/>
-      <c r="B22" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>82</v>
+      <c r="B22" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="56" t="s">
+        <v>88</v>
       </c>
       <c r="D22" s="70">
-        <v>92.333333333333329</v>
+        <v>0</v>
       </c>
       <c r="E22" s="37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F22" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G22" s="7">
-        <v>2</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>93</v>
+        <v>0</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0</v>
       </c>
       <c r="I22" s="46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" s="15">
         <f>SUM(E22:H22)*50/(A$1-I22)</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K22" s="6">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="L22" s="15">
         <f>K22</f>
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="M22" s="6">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="N22" s="20">
         <f>MIN(100,J22*(0.2+0.25)+L22*(0.25+0.1)+M22*(0.55+0.15))</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O22" s="20">
         <f>ROUND(D22,2)*0.4+N22*0.6</f>
-        <v>96.932000000000002</v>
-      </c>
-      <c r="P22" s="82" t="s">
-        <v>108</v>
+        <v>0</v>
+      </c>
+      <c r="P22" s="77" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="19"/>
       <c r="B23" s="55" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C23" s="56" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D23" s="70">
         <v>0</v>
@@ -6126,20 +6130,20 @@
         <f>ROUND(D23,2)*0.4+N23*0.6</f>
         <v>0</v>
       </c>
-      <c r="P23" s="82" t="s">
+      <c r="P23" s="77" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="19"/>
-      <c r="B24" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>85</v>
+      <c r="B24" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="56" t="s">
+        <v>4</v>
       </c>
       <c r="D24" s="70">
-        <v>52.2</v>
+        <v>0</v>
       </c>
       <c r="E24" s="37">
         <v>0</v>
@@ -6176,41 +6180,41 @@
       </c>
       <c r="O24" s="20">
         <f>ROUND(D24,2)*0.4+N24*0.6</f>
-        <v>20.880000000000003</v>
-      </c>
-      <c r="P24" s="82" t="s">
-        <v>99</v>
+        <v>0</v>
+      </c>
+      <c r="P24" s="77" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="19"/>
-      <c r="B25" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>19</v>
+      <c r="B25" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="56" t="s">
+        <v>22</v>
       </c>
       <c r="D25" s="70">
-        <v>47.633333333333333</v>
+        <v>0</v>
       </c>
       <c r="E25" s="37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" s="12">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="G25" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H25" s="7">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="I25" s="46">
         <v>0</v>
       </c>
       <c r="J25" s="15">
         <f>SUM(E25:H25)*50/(A$1-I25)</f>
-        <v>81.25</v>
+        <v>0</v>
       </c>
       <c r="K25" s="6">
         <v>0</v>
@@ -6220,27 +6224,27 @@
         <v>0</v>
       </c>
       <c r="M25" s="6">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="N25" s="20">
         <f>MIN(100,J25*(0.2+0.25)+L25*(0.25+0.1)+M25*(0.55+0.15))</f>
-        <v>57.5625</v>
+        <v>0</v>
       </c>
       <c r="O25" s="20">
         <f>ROUND(D25,2)*0.4+N25*0.6</f>
-        <v>53.589500000000001</v>
-      </c>
-      <c r="P25" s="82" t="s">
-        <v>99</v>
+        <v>0</v>
+      </c>
+      <c r="P25" s="77" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="19"/>
       <c r="B26" s="55" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="C26" s="56" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D26" s="70">
         <v>0</v>
@@ -6282,72 +6286,72 @@
         <f>ROUND(D26,2)*0.4+N26*0.6</f>
         <v>0</v>
       </c>
-      <c r="P26" s="82" t="s">
+      <c r="P26" s="77" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="19"/>
-      <c r="B27" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>79</v>
+      <c r="B27" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="56" t="s">
+        <v>16</v>
       </c>
       <c r="D27" s="70">
-        <v>72.258333333333326</v>
+        <v>0</v>
       </c>
       <c r="E27" s="37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F27" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G27" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H27" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" s="46">
         <v>0</v>
       </c>
       <c r="J27" s="15">
         <f>SUM(E27:H27)*50/(A$1-I27)</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K27" s="6">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="L27" s="15">
         <f>K27</f>
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="M27" s="6">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="N27" s="20">
         <f>MIN(100,J27*(0.2+0.25)+L27*(0.25+0.1)+M27*(0.55+0.15))</f>
-        <v>71.25</v>
+        <v>0</v>
       </c>
       <c r="O27" s="20">
         <f>ROUND(D27,2)*0.4+N27*0.6</f>
-        <v>71.653999999999996</v>
-      </c>
-      <c r="P27" s="82" t="s">
-        <v>105</v>
+        <v>0</v>
+      </c>
+      <c r="P27" s="77" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="19"/>
-      <c r="B28" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>36</v>
+      <c r="B28" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="56" t="s">
+        <v>13</v>
       </c>
       <c r="D28" s="70">
-        <v>9.5833333333333339</v>
+        <v>0</v>
       </c>
       <c r="E28" s="37">
         <v>0</v>
@@ -6384,59 +6388,62 @@
       </c>
       <c r="O28" s="20">
         <f>ROUND(D28,2)*0.4+N28*0.6</f>
-        <v>3.8320000000000003</v>
-      </c>
-      <c r="P28" s="82" t="s">
-        <v>99</v>
+        <v>0</v>
+      </c>
+      <c r="P28" s="77" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="19"/>
-      <c r="B29" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>91</v>
+      <c r="B29" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="56" t="s">
+        <v>28</v>
       </c>
       <c r="D29" s="70">
-        <v>54.858333333333334</v>
+        <v>0</v>
       </c>
       <c r="E29" s="37">
         <v>0</v>
       </c>
-      <c r="F29" s="40">
+      <c r="F29" s="7">
         <v>0</v>
       </c>
       <c r="G29" s="7">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H29" s="7">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I29" s="46">
         <v>0</v>
       </c>
       <c r="J29" s="15">
         <f>SUM(E29:H29)*50/(A$1-I29)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K29" s="6">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="L29" s="15">
         <f>K29</f>
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="M29" s="6">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="N29" s="20">
         <f>MIN(100,J29*(0.2+0.25)+L29*(0.25+0.1)+M29*(0.55+0.15))</f>
-        <v>63.500000000000007</v>
+        <v>0</v>
       </c>
       <c r="O29" s="20">
         <f>ROUND(D29,2)*0.4+N29*0.6</f>
-        <v>60.044000000000004</v>
+        <v>0</v>
+      </c>
+      <c r="P29" s="77" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6487,7 +6494,7 @@
         <f>ROUND(D30,2)*0.4+N30*0.6</f>
         <v>0</v>
       </c>
-      <c r="P30" s="82" t="s">
+      <c r="P30" s="77" t="s">
         <v>100</v>
       </c>
     </row>
@@ -6552,7 +6559,7 @@
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
-      <c r="P34" s="83"/>
+      <c r="P34" s="78"/>
     </row>
     <row r="35" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
@@ -7167,7 +7174,7 @@
     </row>
   </sheetData>
   <sortState ref="A3:P30">
-    <sortCondition ref="B3"/>
+    <sortCondition descending="1" ref="O12"/>
   </sortState>
   <mergeCells count="2">
     <mergeCell ref="E1:J1"/>

--- a/AdvancedJava/_docs/Notlar.xlsx
+++ b/AdvancedJava/_docs/Notlar.xlsx
@@ -16,7 +16,6 @@
     <sheet name="Final" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -96,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="116">
   <si>
     <t>Adı</t>
   </si>
@@ -438,6 +437,15 @@
   </si>
   <si>
     <t>GEÇTİ: 60</t>
+  </si>
+  <si>
+    <t>BÜT PROJESİ</t>
+  </si>
+  <si>
+    <t>BÜT NOTU</t>
+  </si>
+  <si>
+    <t>DERS NOTU SONUÇ</t>
   </si>
 </sst>
 </file>
@@ -545,7 +553,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -858,11 +866,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1025,6 +1059,12 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4939,11 +4979,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:P81"/>
+  <dimension ref="A1:T81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P14" sqref="P14"/>
+      <pane ySplit="2" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4960,11 +5000,13 @@
     <col min="12" max="12" width="4.77734375" style="1" customWidth="1"/>
     <col min="13" max="13" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="5.77734375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="37.88671875" style="77" customWidth="1"/>
-    <col min="17" max="16384" width="8.88671875" style="1"/>
+    <col min="16" max="16" width="8.21875" style="77" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.88671875" style="1"/>
+    <col min="18" max="20" width="5.77734375" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="4" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" s="4" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="29">
         <v>4</v>
       </c>
@@ -4993,8 +5035,17 @@
         <v>40</v>
       </c>
       <c r="P1" s="75"/>
-    </row>
-    <row r="2" spans="1:16" s="5" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R1" s="84" t="s">
+        <v>113</v>
+      </c>
+      <c r="S1" s="84" t="s">
+        <v>114</v>
+      </c>
+      <c r="T1" s="84" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" s="5" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>29</v>
       </c>
@@ -5041,8 +5092,11 @@
         <v>32</v>
       </c>
       <c r="P2" s="76"/>
-    </row>
-    <row r="3" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R2" s="85"/>
+      <c r="S2" s="85"/>
+      <c r="T2" s="85"/>
+    </row>
+    <row r="3" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
       <c r="B3" s="3" t="s">
         <v>44</v>
@@ -5069,32 +5123,35 @@
         <v>0</v>
       </c>
       <c r="J3" s="15">
-        <f>SUM(E3:H3)*50/(A$1-I3)</f>
+        <f t="shared" ref="J3:J30" si="0">SUM(E3:H3)*50/(A$1-I3)</f>
         <v>100</v>
       </c>
       <c r="K3" s="6">
         <v>95</v>
       </c>
       <c r="L3" s="15">
-        <f>K3</f>
+        <f t="shared" ref="L3:L30" si="1">K3</f>
         <v>95</v>
       </c>
       <c r="M3" s="6">
         <v>95</v>
       </c>
       <c r="N3" s="20">
-        <f>MIN(100,J3*(0.2+0.25)+L3*(0.25+0.1)+M3*(0.55+0.15))</f>
+        <f t="shared" ref="N3:N30" si="2">MIN(100,J3*(0.2+0.25)+L3*(0.25+0.1)+M3*(0.55+0.15))</f>
         <v>100</v>
       </c>
       <c r="O3" s="20">
-        <f>ROUND(D3,2)*0.4+N3*0.6</f>
+        <f t="shared" ref="O3:O30" si="3">ROUND(D3,2)*0.4+N3*0.6</f>
         <v>100</v>
       </c>
       <c r="P3" s="77" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+    </row>
+    <row r="4" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
       <c r="B4" s="3" t="s">
         <v>81</v>
@@ -5121,32 +5178,35 @@
         <v>1</v>
       </c>
       <c r="J4" s="15">
-        <f>SUM(E4:H4)*50/(A$1-I4)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="K4" s="6">
         <v>65</v>
       </c>
       <c r="L4" s="15">
-        <f>K4</f>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="M4" s="6">
         <v>80</v>
       </c>
       <c r="N4" s="20">
-        <f>MIN(100,J4*(0.2+0.25)+L4*(0.25+0.1)+M4*(0.55+0.15))</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="O4" s="20">
-        <f>ROUND(D4,2)*0.4+N4*0.6</f>
+        <f t="shared" si="3"/>
         <v>96.932000000000002</v>
       </c>
       <c r="P4" s="77" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+    </row>
+    <row r="5" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
       <c r="B5" s="3" t="s">
         <v>60</v>
@@ -5173,32 +5233,35 @@
         <v>0</v>
       </c>
       <c r="J5" s="15">
-        <f>SUM(E5:H5)*50/(A$1-I5)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="K5" s="6">
         <v>30</v>
       </c>
       <c r="L5" s="15">
-        <f>K5</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="M5" s="6">
         <v>40</v>
       </c>
       <c r="N5" s="20">
-        <f>MIN(100,J5*(0.2+0.25)+L5*(0.25+0.1)+M5*(0.55+0.15))</f>
+        <f t="shared" si="2"/>
         <v>83.5</v>
       </c>
       <c r="O5" s="20">
-        <f>ROUND(D5,2)*0.4+N5*0.6</f>
+        <f t="shared" si="3"/>
         <v>79.460000000000008</v>
       </c>
       <c r="P5" s="77" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
+    </row>
+    <row r="6" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
       <c r="B6" s="3" t="s">
         <v>63</v>
@@ -5225,32 +5288,35 @@
         <v>0</v>
       </c>
       <c r="J6" s="15">
-        <f>SUM(E6:H6)*50/(A$1-I6)</f>
+        <f t="shared" si="0"/>
         <v>96.25</v>
       </c>
       <c r="K6" s="6">
         <v>62</v>
       </c>
       <c r="L6" s="15">
-        <f>K6</f>
+        <f t="shared" si="1"/>
         <v>62</v>
       </c>
       <c r="M6" s="6">
         <v>15</v>
       </c>
       <c r="N6" s="20">
-        <f>MIN(100,J6*(0.2+0.25)+L6*(0.25+0.1)+M6*(0.55+0.15))</f>
+        <f t="shared" si="2"/>
         <v>75.512500000000003</v>
       </c>
       <c r="O6" s="20">
-        <f>ROUND(D6,2)*0.4+N6*0.6</f>
+        <f t="shared" si="3"/>
         <v>74.623500000000007</v>
       </c>
       <c r="P6" s="77" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
+    </row>
+    <row r="7" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7" s="3" t="s">
         <v>78</v>
@@ -5277,32 +5343,35 @@
         <v>0</v>
       </c>
       <c r="J7" s="15">
-        <f>SUM(E7:H7)*50/(A$1-I7)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="K7" s="6">
         <v>45</v>
       </c>
       <c r="L7" s="15">
-        <f>K7</f>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="M7" s="6">
         <v>15</v>
       </c>
       <c r="N7" s="20">
-        <f>MIN(100,J7*(0.2+0.25)+L7*(0.25+0.1)+M7*(0.55+0.15))</f>
+        <f t="shared" si="2"/>
         <v>71.25</v>
       </c>
       <c r="O7" s="20">
-        <f>ROUND(D7,2)*0.4+N7*0.6</f>
+        <f t="shared" si="3"/>
         <v>71.653999999999996</v>
       </c>
       <c r="P7" s="77" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+    </row>
+    <row r="8" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
       <c r="B8" s="3" t="s">
         <v>71</v>
@@ -5329,32 +5398,35 @@
         <v>0</v>
       </c>
       <c r="J8" s="15">
-        <f>SUM(E8:H8)*50/(A$1-I8)</f>
+        <f t="shared" si="0"/>
         <v>81.25</v>
       </c>
       <c r="K8" s="6">
         <v>50</v>
       </c>
       <c r="L8" s="15">
-        <f>K8</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="M8" s="6">
         <v>15</v>
       </c>
       <c r="N8" s="20">
-        <f>MIN(100,J8*(0.2+0.25)+L8*(0.25+0.1)+M8*(0.55+0.15))</f>
+        <f t="shared" si="2"/>
         <v>64.5625</v>
       </c>
       <c r="O8" s="20">
-        <f>ROUND(D8,2)*0.4+N8*0.6</f>
+        <f t="shared" si="3"/>
         <v>71.357499999999987</v>
       </c>
       <c r="P8" s="77" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+    </row>
+    <row r="9" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
       <c r="B9" s="3" t="s">
         <v>54</v>
@@ -5381,32 +5453,35 @@
         <v>0</v>
       </c>
       <c r="J9" s="15">
-        <f>SUM(E9:H9)*50/(A$1-I9)</f>
+        <f t="shared" si="0"/>
         <v>98.75</v>
       </c>
       <c r="K9" s="6">
         <v>0</v>
       </c>
       <c r="L9" s="15">
-        <f>K9</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M9" s="6">
         <v>38</v>
       </c>
       <c r="N9" s="20">
-        <f>MIN(100,J9*(0.2+0.25)+L9*(0.25+0.1)+M9*(0.55+0.15))</f>
+        <f t="shared" si="2"/>
         <v>71.037499999999994</v>
       </c>
       <c r="O9" s="20">
-        <f>ROUND(D9,2)*0.4+N9*0.6</f>
+        <f t="shared" si="3"/>
         <v>69.890500000000003</v>
       </c>
       <c r="P9" s="77" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+    </row>
+    <row r="10" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
       <c r="B10" s="3" t="s">
         <v>10</v>
@@ -5433,32 +5508,35 @@
         <v>0</v>
       </c>
       <c r="J10" s="15">
-        <f>SUM(E10:H10)*50/(A$1-I10)</f>
+        <f t="shared" si="0"/>
         <v>98.75</v>
       </c>
       <c r="K10" s="6">
         <v>50</v>
       </c>
       <c r="L10" s="15">
-        <f>K10</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="M10" s="6">
         <v>15</v>
       </c>
       <c r="N10" s="20">
-        <f>MIN(100,J10*(0.2+0.25)+L10*(0.25+0.1)+M10*(0.55+0.15))</f>
+        <f t="shared" si="2"/>
         <v>72.4375</v>
       </c>
       <c r="O10" s="20">
-        <f>ROUND(D10,2)*0.4+N10*0.6</f>
+        <f t="shared" si="3"/>
         <v>69.686499999999995</v>
       </c>
       <c r="P10" s="77" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+    </row>
+    <row r="11" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
       <c r="B11" s="3" t="s">
         <v>10</v>
@@ -5485,32 +5563,35 @@
         <v>1</v>
       </c>
       <c r="J11" s="15">
-        <f>SUM(E11:H11)*50/(A$1-I11)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="K11" s="6">
         <v>0</v>
       </c>
       <c r="L11" s="15">
-        <f>K11</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M11" s="6">
         <v>15</v>
       </c>
       <c r="N11" s="20">
-        <f>MIN(100,J11*(0.2+0.25)+L11*(0.25+0.1)+M11*(0.55+0.15))</f>
+        <f t="shared" si="2"/>
         <v>55.5</v>
       </c>
       <c r="O11" s="20">
-        <f>ROUND(D11,2)*0.4+N11*0.6</f>
+        <f t="shared" si="3"/>
         <v>62.123999999999995</v>
       </c>
       <c r="P11" s="77" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+    </row>
+    <row r="12" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
       <c r="B12" s="3" t="s">
         <v>46</v>
@@ -5537,32 +5618,35 @@
         <v>1</v>
       </c>
       <c r="J12" s="15">
-        <f>SUM(E12:H12)*50/(A$1-I12)</f>
+        <f t="shared" si="0"/>
         <v>98.333333333333329</v>
       </c>
       <c r="K12" s="6">
         <v>0</v>
       </c>
       <c r="L12" s="15">
-        <f>K12</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M12" s="6">
         <v>15</v>
       </c>
       <c r="N12" s="20">
-        <f>MIN(100,J12*(0.2+0.25)+L12*(0.25+0.1)+M12*(0.55+0.15))</f>
+        <f t="shared" si="2"/>
         <v>54.75</v>
       </c>
       <c r="O12" s="20">
-        <f>ROUND(D12,2)*0.4+N12*0.6</f>
+        <f t="shared" si="3"/>
         <v>61.974000000000004</v>
       </c>
       <c r="P12" s="77" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+    </row>
+    <row r="13" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="B13" s="3" t="s">
         <v>90</v>
@@ -5589,32 +5673,35 @@
         <v>0</v>
       </c>
       <c r="J13" s="15">
-        <f>SUM(E13:H13)*50/(A$1-I13)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="K13" s="6">
         <v>55</v>
       </c>
       <c r="L13" s="15">
-        <f>K13</f>
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="M13" s="6">
         <v>60</v>
       </c>
       <c r="N13" s="20">
-        <f>MIN(100,J13*(0.2+0.25)+L13*(0.25+0.1)+M13*(0.55+0.15))</f>
+        <f t="shared" si="2"/>
         <v>63.500000000000007</v>
       </c>
       <c r="O13" s="20">
-        <f>ROUND(D13,2)*0.4+N13*0.6</f>
+        <f t="shared" si="3"/>
         <v>60.044000000000004</v>
       </c>
       <c r="P13" s="77" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
+    </row>
+    <row r="14" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
       <c r="B14" s="3" t="s">
         <v>18</v>
@@ -5641,32 +5728,43 @@
         <v>0</v>
       </c>
       <c r="J14" s="15">
-        <f>SUM(E14:H14)*50/(A$1-I14)</f>
+        <f t="shared" si="0"/>
         <v>81.25</v>
       </c>
       <c r="K14" s="6">
         <v>0</v>
       </c>
       <c r="L14" s="15">
-        <f>K14</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M14" s="6">
         <v>30</v>
       </c>
       <c r="N14" s="20">
-        <f>MIN(100,J14*(0.2+0.25)+L14*(0.25+0.1)+M14*(0.55+0.15))</f>
+        <f t="shared" si="2"/>
         <v>57.5625</v>
       </c>
       <c r="O14" s="20">
-        <f>ROUND(D14,2)*0.4+N14*0.6</f>
+        <f t="shared" si="3"/>
         <v>53.589500000000001</v>
       </c>
       <c r="P14" s="77" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R14" s="20">
+        <v>68</v>
+      </c>
+      <c r="S14" s="20">
+        <f t="shared" ref="S14" si="4">R14</f>
+        <v>68</v>
+      </c>
+      <c r="T14" s="20">
+        <f t="shared" ref="T14" si="5">D14*0.4+S14*0.6</f>
+        <v>59.853333333333332</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
       <c r="B15" s="3" t="s">
         <v>50</v>
@@ -5693,32 +5791,43 @@
         <v>0</v>
       </c>
       <c r="J15" s="15">
-        <f>SUM(E15:H15)*50/(A$1-I15)</f>
+        <f t="shared" si="0"/>
         <v>98.75</v>
       </c>
       <c r="K15" s="6">
         <v>-25</v>
       </c>
       <c r="L15" s="15">
-        <f>K15</f>
+        <f t="shared" si="1"/>
         <v>-25</v>
       </c>
       <c r="M15" s="6">
         <v>15</v>
       </c>
       <c r="N15" s="20">
-        <f>MIN(100,J15*(0.2+0.25)+L15*(0.25+0.1)+M15*(0.55+0.15))</f>
+        <f t="shared" si="2"/>
         <v>46.1875</v>
       </c>
       <c r="O15" s="20">
-        <f>ROUND(D15,2)*0.4+N15*0.6</f>
+        <f t="shared" si="3"/>
         <v>53.164500000000004</v>
       </c>
       <c r="P15" s="77" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R15" s="20">
+        <v>59</v>
+      </c>
+      <c r="S15" s="20">
+        <f t="shared" ref="S15:S21" si="6">R15</f>
+        <v>59</v>
+      </c>
+      <c r="T15" s="20">
+        <f t="shared" ref="T14:T21" si="7">D15*0.4+S15*0.6</f>
+        <v>60.85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
       <c r="B16" s="3" t="s">
         <v>48</v>
@@ -5745,32 +5854,43 @@
         <v>0</v>
       </c>
       <c r="J16" s="15">
-        <f>SUM(E16:H16)*50/(A$1-I16)</f>
+        <f t="shared" si="0"/>
         <v>75</v>
       </c>
       <c r="K16" s="6">
         <v>0</v>
       </c>
       <c r="L16" s="15">
-        <f>K16</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M16" s="6">
         <v>35</v>
       </c>
       <c r="N16" s="20">
-        <f>MIN(100,J16*(0.2+0.25)+L16*(0.25+0.1)+M16*(0.55+0.15))</f>
+        <f t="shared" si="2"/>
         <v>58.25</v>
       </c>
       <c r="O16" s="20">
-        <f>ROUND(D16,2)*0.4+N16*0.6</f>
+        <f t="shared" si="3"/>
         <v>50.849999999999994</v>
       </c>
       <c r="P16" s="77" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R16" s="20">
+        <v>90</v>
+      </c>
+      <c r="S16" s="20">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="T16" s="20">
+        <f t="shared" si="7"/>
+        <v>69.900000000000006</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19"/>
       <c r="B17" s="3" t="s">
         <v>68</v>
@@ -5797,32 +5917,43 @@
         <v>1</v>
       </c>
       <c r="J17" s="15">
-        <f>SUM(E17:H17)*50/(A$1-I17)</f>
+        <f t="shared" si="0"/>
         <v>66.666666666666671</v>
       </c>
       <c r="K17" s="6">
         <v>0</v>
       </c>
       <c r="L17" s="15">
-        <f>K17</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M17" s="6">
         <v>15</v>
       </c>
       <c r="N17" s="20">
-        <f>MIN(100,J17*(0.2+0.25)+L17*(0.25+0.1)+M17*(0.55+0.15))</f>
+        <f t="shared" si="2"/>
         <v>40.500000000000007</v>
       </c>
       <c r="O17" s="20">
-        <f>ROUND(D17,2)*0.4+N17*0.6</f>
+        <f t="shared" si="3"/>
         <v>48.648000000000003</v>
       </c>
       <c r="P17" s="77" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R17" s="20">
+        <v>40</v>
+      </c>
+      <c r="S17" s="20">
+        <f t="shared" si="6"/>
+        <v>40</v>
+      </c>
+      <c r="T17" s="20">
+        <f t="shared" si="7"/>
+        <v>48.346666666666671</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19"/>
       <c r="B18" s="3" t="s">
         <v>73</v>
@@ -5849,32 +5980,35 @@
         <v>0</v>
       </c>
       <c r="J18" s="15">
-        <f>SUM(E18:H18)*50/(A$1-I18)</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="K18" s="6">
         <v>0</v>
       </c>
       <c r="L18" s="15">
-        <f>K18</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M18" s="6">
         <v>30</v>
       </c>
       <c r="N18" s="20">
-        <f>MIN(100,J18*(0.2+0.25)+L18*(0.25+0.1)+M18*(0.55+0.15))</f>
+        <f t="shared" si="2"/>
         <v>43.5</v>
       </c>
       <c r="O18" s="20">
-        <f>ROUND(D18,2)*0.4+N18*0.6</f>
+        <f t="shared" si="3"/>
         <v>43.599999999999994</v>
       </c>
       <c r="P18" s="77" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="20"/>
+    </row>
+    <row r="19" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19"/>
       <c r="B19" s="3" t="s">
         <v>84</v>
@@ -5901,32 +6035,35 @@
         <v>0</v>
       </c>
       <c r="J19" s="15">
-        <f>SUM(E19:H19)*50/(A$1-I19)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K19" s="6">
         <v>0</v>
       </c>
       <c r="L19" s="15">
-        <f>K19</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M19" s="6">
         <v>0</v>
       </c>
       <c r="N19" s="20">
-        <f>MIN(100,J19*(0.2+0.25)+L19*(0.25+0.1)+M19*(0.55+0.15))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O19" s="20">
-        <f>ROUND(D19,2)*0.4+N19*0.6</f>
+        <f t="shared" si="3"/>
         <v>20.880000000000003</v>
       </c>
       <c r="P19" s="77" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="20"/>
+    </row>
+    <row r="20" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="19"/>
       <c r="B20" s="3" t="s">
         <v>94</v>
@@ -5953,32 +6090,35 @@
         <v>0</v>
       </c>
       <c r="J20" s="15">
-        <f>SUM(E20:H20)*50/(A$1-I20)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K20" s="6">
         <v>0</v>
       </c>
       <c r="L20" s="15">
-        <f>K20</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M20" s="6">
         <v>0</v>
       </c>
       <c r="N20" s="20">
-        <f>MIN(100,J20*(0.2+0.25)+L20*(0.25+0.1)+M20*(0.55+0.15))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O20" s="20">
-        <f>ROUND(D20,2)*0.4+N20*0.6</f>
+        <f t="shared" si="3"/>
         <v>17.632000000000001</v>
       </c>
       <c r="P20" s="77" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R20" s="20"/>
+      <c r="S20" s="20"/>
+      <c r="T20" s="20"/>
+    </row>
+    <row r="21" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="19"/>
       <c r="B21" s="3" t="s">
         <v>35</v>
@@ -6005,32 +6145,35 @@
         <v>0</v>
       </c>
       <c r="J21" s="15">
-        <f>SUM(E21:H21)*50/(A$1-I21)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K21" s="6">
         <v>0</v>
       </c>
       <c r="L21" s="15">
-        <f>K21</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M21" s="6">
         <v>0</v>
       </c>
       <c r="N21" s="20">
-        <f>MIN(100,J21*(0.2+0.25)+L21*(0.25+0.1)+M21*(0.55+0.15))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O21" s="20">
-        <f>ROUND(D21,2)*0.4+N21*0.6</f>
+        <f t="shared" si="3"/>
         <v>3.8320000000000003</v>
       </c>
       <c r="P21" s="77" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R21" s="20"/>
+      <c r="S21" s="20"/>
+      <c r="T21" s="20"/>
+    </row>
+    <row r="22" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="19"/>
       <c r="B22" s="55" t="s">
         <v>87</v>
@@ -6057,32 +6200,35 @@
         <v>0</v>
       </c>
       <c r="J22" s="15">
-        <f>SUM(E22:H22)*50/(A$1-I22)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K22" s="6">
         <v>0</v>
       </c>
       <c r="L22" s="15">
-        <f>K22</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M22" s="6">
         <v>0</v>
       </c>
       <c r="N22" s="20">
-        <f>MIN(100,J22*(0.2+0.25)+L22*(0.25+0.1)+M22*(0.55+0.15))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O22" s="20">
-        <f>ROUND(D22,2)*0.4+N22*0.6</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P22" s="77" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R22" s="20"/>
+      <c r="S22" s="20"/>
+      <c r="T22" s="20"/>
+    </row>
+    <row r="23" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="19"/>
       <c r="B23" s="55" t="s">
         <v>8</v>
@@ -6109,32 +6255,35 @@
         <v>0</v>
       </c>
       <c r="J23" s="15">
-        <f>SUM(E23:H23)*50/(A$1-I23)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K23" s="6">
         <v>0</v>
       </c>
       <c r="L23" s="15">
-        <f>K23</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M23" s="6">
         <v>0</v>
       </c>
       <c r="N23" s="20">
-        <f>MIN(100,J23*(0.2+0.25)+L23*(0.25+0.1)+M23*(0.55+0.15))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O23" s="20">
-        <f>ROUND(D23,2)*0.4+N23*0.6</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P23" s="77" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R23" s="20"/>
+      <c r="S23" s="20"/>
+      <c r="T23" s="20"/>
+    </row>
+    <row r="24" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="19"/>
       <c r="B24" s="55" t="s">
         <v>3</v>
@@ -6161,32 +6310,35 @@
         <v>0</v>
       </c>
       <c r="J24" s="15">
-        <f>SUM(E24:H24)*50/(A$1-I24)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K24" s="6">
         <v>0</v>
       </c>
       <c r="L24" s="15">
-        <f>K24</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M24" s="6">
         <v>0</v>
       </c>
       <c r="N24" s="20">
-        <f>MIN(100,J24*(0.2+0.25)+L24*(0.25+0.1)+M24*(0.55+0.15))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O24" s="20">
-        <f>ROUND(D24,2)*0.4+N24*0.6</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P24" s="77" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R24" s="20"/>
+      <c r="S24" s="20"/>
+      <c r="T24" s="20"/>
+    </row>
+    <row r="25" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="19"/>
       <c r="B25" s="55" t="s">
         <v>21</v>
@@ -6213,32 +6365,35 @@
         <v>0</v>
       </c>
       <c r="J25" s="15">
-        <f>SUM(E25:H25)*50/(A$1-I25)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K25" s="6">
         <v>0</v>
       </c>
       <c r="L25" s="15">
-        <f>K25</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M25" s="6">
         <v>0</v>
       </c>
       <c r="N25" s="20">
-        <f>MIN(100,J25*(0.2+0.25)+L25*(0.25+0.1)+M25*(0.55+0.15))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O25" s="20">
-        <f>ROUND(D25,2)*0.4+N25*0.6</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P25" s="77" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R25" s="20"/>
+      <c r="S25" s="20"/>
+      <c r="T25" s="20"/>
+    </row>
+    <row r="26" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="19"/>
       <c r="B26" s="55" t="s">
         <v>57</v>
@@ -6265,32 +6420,35 @@
         <v>0</v>
       </c>
       <c r="J26" s="15">
-        <f>SUM(E26:H26)*50/(A$1-I26)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K26" s="6">
         <v>0</v>
       </c>
       <c r="L26" s="15">
-        <f>K26</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M26" s="6">
         <v>0</v>
       </c>
       <c r="N26" s="20">
-        <f>MIN(100,J26*(0.2+0.25)+L26*(0.25+0.1)+M26*(0.55+0.15))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O26" s="20">
-        <f>ROUND(D26,2)*0.4+N26*0.6</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P26" s="77" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R26" s="20"/>
+      <c r="S26" s="20"/>
+      <c r="T26" s="20"/>
+    </row>
+    <row r="27" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="19"/>
       <c r="B27" s="55" t="s">
         <v>15</v>
@@ -6317,32 +6475,35 @@
         <v>0</v>
       </c>
       <c r="J27" s="15">
-        <f>SUM(E27:H27)*50/(A$1-I27)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K27" s="6">
         <v>0</v>
       </c>
       <c r="L27" s="15">
-        <f>K27</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M27" s="6">
         <v>0</v>
       </c>
       <c r="N27" s="20">
-        <f>MIN(100,J27*(0.2+0.25)+L27*(0.25+0.1)+M27*(0.55+0.15))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O27" s="20">
-        <f>ROUND(D27,2)*0.4+N27*0.6</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P27" s="77" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R27" s="20"/>
+      <c r="S27" s="20"/>
+      <c r="T27" s="20"/>
+    </row>
+    <row r="28" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="19"/>
       <c r="B28" s="55" t="s">
         <v>12</v>
@@ -6369,32 +6530,35 @@
         <v>0</v>
       </c>
       <c r="J28" s="15">
-        <f>SUM(E28:H28)*50/(A$1-I28)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K28" s="6">
         <v>0</v>
       </c>
       <c r="L28" s="15">
-        <f>K28</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M28" s="6">
         <v>0</v>
       </c>
       <c r="N28" s="20">
-        <f>MIN(100,J28*(0.2+0.25)+L28*(0.25+0.1)+M28*(0.55+0.15))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O28" s="20">
-        <f>ROUND(D28,2)*0.4+N28*0.6</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P28" s="77" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R28" s="20"/>
+      <c r="S28" s="20"/>
+      <c r="T28" s="20"/>
+    </row>
+    <row r="29" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="19"/>
       <c r="B29" s="55" t="s">
         <v>27</v>
@@ -6421,32 +6585,35 @@
         <v>0</v>
       </c>
       <c r="J29" s="15">
-        <f>SUM(E29:H29)*50/(A$1-I29)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K29" s="6">
         <v>0</v>
       </c>
       <c r="L29" s="15">
-        <f>K29</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M29" s="6">
         <v>0</v>
       </c>
       <c r="N29" s="20">
-        <f>MIN(100,J29*(0.2+0.25)+L29*(0.25+0.1)+M29*(0.55+0.15))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O29" s="20">
-        <f>ROUND(D29,2)*0.4+N29*0.6</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P29" s="77" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R29" s="20"/>
+      <c r="S29" s="20"/>
+      <c r="T29" s="20"/>
+    </row>
+    <row r="30" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="19"/>
       <c r="B30" s="55" t="s">
         <v>24</v>
@@ -6473,32 +6640,35 @@
         <v>0</v>
       </c>
       <c r="J30" s="15">
-        <f>SUM(E30:H30)*50/(A$1-I30)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K30" s="6">
         <v>0</v>
       </c>
       <c r="L30" s="15">
-        <f>K30</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M30" s="6">
         <v>0</v>
       </c>
       <c r="N30" s="20">
-        <f>MIN(100,J30*(0.2+0.25)+L30*(0.25+0.1)+M30*(0.55+0.15))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O30" s="20">
-        <f>ROUND(D30,2)*0.4+N30*0.6</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P30" s="77" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R30" s="20"/>
+      <c r="S30" s="20"/>
+      <c r="T30" s="20"/>
+    </row>
+    <row r="31" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="19"/>
       <c r="B31" s="11"/>
       <c r="C31" s="35"/>
@@ -6514,8 +6684,11 @@
       <c r="M31" s="6"/>
       <c r="N31" s="20"/>
       <c r="O31" s="20"/>
-    </row>
-    <row r="32" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R31" s="20"/>
+      <c r="S31" s="20"/>
+      <c r="T31" s="20"/>
+    </row>
+    <row r="32" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="30"/>
       <c r="B32" s="31"/>
       <c r="C32" s="35"/>
@@ -6531,8 +6704,11 @@
       <c r="M32" s="6"/>
       <c r="N32" s="20"/>
       <c r="O32" s="20"/>
-    </row>
-    <row r="33" spans="1:16" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R32" s="20"/>
+      <c r="S32" s="20"/>
+      <c r="T32" s="20"/>
+    </row>
+    <row r="33" spans="1:20" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="21"/>
       <c r="B33" s="22"/>
       <c r="C33" s="35"/>
@@ -6548,8 +6724,11 @@
       <c r="M33" s="6"/>
       <c r="N33" s="20"/>
       <c r="O33" s="20"/>
-    </row>
-    <row r="34" spans="1:16" s="9" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R33" s="20"/>
+      <c r="S33" s="20"/>
+      <c r="T33" s="20"/>
+    </row>
+    <row r="34" spans="1:20" s="9" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -6561,7 +6740,7 @@
       <c r="I34" s="8"/>
       <c r="P34" s="78"/>
     </row>
-    <row r="35" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -6574,7 +6753,7 @@
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
     </row>
-    <row r="36" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -6587,7 +6766,7 @@
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
     </row>
-    <row r="37" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -6600,7 +6779,7 @@
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
     </row>
-    <row r="38" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -6613,7 +6792,7 @@
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
     </row>
-    <row r="39" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -6626,7 +6805,7 @@
       <c r="K39" s="9"/>
       <c r="L39" s="9"/>
     </row>
-    <row r="40" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -6639,7 +6818,7 @@
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
     </row>
-    <row r="41" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -6652,7 +6831,7 @@
       <c r="K41" s="9"/>
       <c r="L41" s="9"/>
     </row>
-    <row r="42" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -6665,7 +6844,7 @@
       <c r="K42" s="9"/>
       <c r="L42" s="9"/>
     </row>
-    <row r="43" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -6678,7 +6857,7 @@
       <c r="K43" s="9"/>
       <c r="L43" s="9"/>
     </row>
-    <row r="44" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -6691,7 +6870,7 @@
       <c r="K44" s="9"/>
       <c r="L44" s="9"/>
     </row>
-    <row r="45" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -6704,7 +6883,7 @@
       <c r="K45" s="9"/>
       <c r="L45" s="9"/>
     </row>
-    <row r="46" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -6717,7 +6896,7 @@
       <c r="K46" s="9"/>
       <c r="L46" s="9"/>
     </row>
-    <row r="47" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -6730,7 +6909,7 @@
       <c r="K47" s="9"/>
       <c r="L47" s="9"/>
     </row>
-    <row r="48" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -7176,24 +7355,27 @@
   <sortState ref="A3:P30">
     <sortCondition descending="1" ref="O12"/>
   </sortState>
-  <mergeCells count="2">
+  <mergeCells count="5">
     <mergeCell ref="E1:J1"/>
     <mergeCell ref="K1:L1"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="T1:T2"/>
   </mergeCells>
   <conditionalFormatting sqref="E31:I33 E3:H30">
-    <cfRule type="cellIs" dxfId="10" priority="26" operator="between">
+    <cfRule type="cellIs" dxfId="10" priority="29" operator="between">
       <formula>0.1</formula>
       <formula>1.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="30" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="31" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J33">
-    <cfRule type="dataBar" priority="25">
+    <cfRule type="dataBar" priority="28">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7207,7 +7389,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:L33">
-    <cfRule type="dataBar" priority="24">
+    <cfRule type="dataBar" priority="27">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7221,7 +7403,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3:N33">
-    <cfRule type="dataBar" priority="21">
+    <cfRule type="dataBar" priority="24">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7235,24 +7417,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K33">
-    <cfRule type="cellIs" dxfId="7" priority="17" operator="between">
+    <cfRule type="cellIs" dxfId="7" priority="20" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="21" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="19" operator="between">
+    <cfRule type="cellIs" dxfId="5" priority="22" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="20" operator="between">
+    <cfRule type="cellIs" dxfId="4" priority="23" operator="between">
       <formula>80</formula>
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3:O33">
-    <cfRule type="dataBar" priority="12">
+    <cfRule type="dataBar" priority="15">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7266,7 +7448,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D6 D8:D33">
-    <cfRule type="dataBar" priority="7">
+    <cfRule type="dataBar" priority="10">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7280,7 +7462,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="dataBar" priority="6">
+    <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7294,22 +7476,64 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3:M33">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="7" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="8" operator="greaterThanOrEqual">
       <formula>80</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{71125D8B-F38D-441C-A719-0BEE1515DAA1}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R3:R33">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{BF843C8A-B269-4D72-852C-A7007E8E7593}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S3:S33">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{FD11F04D-4F39-4ECF-9A10-1B557EAB081C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T3:T33">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -7318,7 +7542,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{71125D8B-F38D-441C-A719-0BEE1515DAA1}</x14:id>
+          <x14:id>{E17DD4D3-1A79-45E5-85F3-F9DE9D06FB78}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -7408,6 +7632,39 @@
           </x14:cfRule>
           <xm:sqref>D1:D1048576</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{BF843C8A-B269-4D72-852C-A7007E8E7593}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>R3:R33</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{FD11F04D-4F39-4ECF-9A10-1B557EAB081C}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>S3:S33</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E17DD4D3-1A79-45E5-85F3-F9DE9D06FB78}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>T3:T33</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>

--- a/AdvancedJava/_docs/Notlar.xlsx
+++ b/AdvancedJava/_docs/Notlar.xlsx
@@ -345,7 +345,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -484,49 +484,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
@@ -635,19 +592,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -688,7 +632,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -708,7 +652,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -716,14 +659,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -738,34 +679,30 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -806,16 +743,15 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -858,55 +794,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="34">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="30">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1489,9 +1387,9 @@
     <col min="2" max="2" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="3.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.21875" style="77" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.21875" style="69" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="2.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.44140625" style="49" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.44140625" style="42" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="2.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7" style="1" bestFit="1" customWidth="1"/>
@@ -1501,73 +1399,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28"/>
-      <c r="B1" s="16"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="78" t="s">
+      <c r="A1" s="25"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="42">
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="35">
         <v>5</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="L1" s="38" t="s">
+      <c r="L1" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="16" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="5" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="24">
+      <c r="D2" s="21">
         <v>1</v>
       </c>
-      <c r="E2" s="46">
-        <v>2</v>
-      </c>
-      <c r="F2" s="25">
+      <c r="E2" s="39">
+        <v>2</v>
+      </c>
+      <c r="F2" s="22">
         <v>3</v>
       </c>
-      <c r="G2" s="25">
+      <c r="G2" s="22">
         <v>4</v>
       </c>
-      <c r="H2" s="46">
+      <c r="H2" s="39">
         <v>5</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="J2" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="24" t="s">
+      <c r="K2" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="40" t="s">
+      <c r="L2" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="17" t="s">
+      <c r="M2" s="16" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
+      <c r="A3" s="17"/>
       <c r="B3" s="3" t="s">
         <v>34</v>
       </c>
@@ -1577,7 +1475,7 @@
       <c r="D3" s="12">
         <v>2</v>
       </c>
-      <c r="E3" s="73">
+      <c r="E3" s="65">
         <v>0</v>
       </c>
       <c r="F3" s="7">
@@ -1586,29 +1484,29 @@
       <c r="G3" s="7">
         <v>1.5</v>
       </c>
-      <c r="H3" s="47">
+      <c r="H3" s="40">
         <v>1.5</v>
       </c>
-      <c r="I3" s="44">
-        <v>0</v>
-      </c>
-      <c r="J3" s="14">
+      <c r="I3" s="37">
+        <v>0</v>
+      </c>
+      <c r="J3" s="13">
         <f t="shared" ref="J3:J30" si="0">SUM(D3:H3)*50/(J$1-I3)</f>
         <v>50</v>
       </c>
       <c r="K3" s="6">
         <v>98</v>
       </c>
-      <c r="L3" s="41">
+      <c r="L3" s="34">
         <v>16</v>
       </c>
-      <c r="M3" s="19">
+      <c r="M3" s="18">
         <f t="shared" ref="M3:M30" si="1">J3*0.3+K3*0.7+L3</f>
         <v>99.6</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="17" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1620,7 +1518,7 @@
       <c r="D4" s="12">
         <v>2</v>
       </c>
-      <c r="E4" s="73">
+      <c r="E4" s="65">
         <v>2</v>
       </c>
       <c r="F4" s="7">
@@ -1629,29 +1527,29 @@
       <c r="G4" s="7">
         <v>2</v>
       </c>
-      <c r="H4" s="47">
-        <v>2</v>
-      </c>
-      <c r="I4" s="44">
-        <v>0</v>
-      </c>
-      <c r="J4" s="14">
+      <c r="H4" s="40">
+        <v>2</v>
+      </c>
+      <c r="I4" s="37">
+        <v>0</v>
+      </c>
+      <c r="J4" s="13">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="K4" s="6">
         <v>67</v>
       </c>
-      <c r="L4" s="41">
+      <c r="L4" s="34">
         <v>16</v>
       </c>
-      <c r="M4" s="19">
+      <c r="M4" s="18">
         <f t="shared" si="1"/>
         <v>92.9</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="3" t="s">
         <v>24</v>
       </c>
@@ -1661,7 +1559,7 @@
       <c r="D5" s="12">
         <v>2</v>
       </c>
-      <c r="E5" s="73">
+      <c r="E5" s="65">
         <v>2</v>
       </c>
       <c r="F5" s="7">
@@ -1670,29 +1568,29 @@
       <c r="G5" s="7">
         <v>2</v>
       </c>
-      <c r="H5" s="47">
-        <v>0</v>
-      </c>
-      <c r="I5" s="44">
-        <v>0</v>
-      </c>
-      <c r="J5" s="14">
+      <c r="H5" s="40">
+        <v>0</v>
+      </c>
+      <c r="I5" s="37">
+        <v>0</v>
+      </c>
+      <c r="J5" s="13">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="K5" s="6">
         <v>75</v>
       </c>
-      <c r="L5" s="41">
+      <c r="L5" s="34">
         <v>16</v>
       </c>
-      <c r="M5" s="19">
+      <c r="M5" s="18">
         <f t="shared" si="1"/>
         <v>92.5</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="3" t="s">
         <v>35</v>
       </c>
@@ -1702,7 +1600,7 @@
       <c r="D6" s="12">
         <v>0.9</v>
       </c>
-      <c r="E6" s="73">
+      <c r="E6" s="65">
         <v>2</v>
       </c>
       <c r="F6" s="7">
@@ -1711,29 +1609,29 @@
       <c r="G6" s="7">
         <v>0</v>
       </c>
-      <c r="H6" s="47">
-        <v>2</v>
-      </c>
-      <c r="I6" s="44">
-        <v>0</v>
-      </c>
-      <c r="J6" s="14">
+      <c r="H6" s="40">
+        <v>2</v>
+      </c>
+      <c r="I6" s="37">
+        <v>0</v>
+      </c>
+      <c r="J6" s="13">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="K6" s="6">
         <v>77</v>
       </c>
-      <c r="L6" s="41">
+      <c r="L6" s="34">
         <v>16</v>
       </c>
-      <c r="M6" s="19">
+      <c r="M6" s="18">
         <f t="shared" si="1"/>
         <v>89.1</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="3" t="s">
         <v>37</v>
       </c>
@@ -1743,7 +1641,7 @@
       <c r="D7" s="12">
         <v>0</v>
       </c>
-      <c r="E7" s="73">
+      <c r="E7" s="65">
         <v>2</v>
       </c>
       <c r="F7" s="7">
@@ -1752,29 +1650,29 @@
       <c r="G7" s="7">
         <v>2</v>
       </c>
-      <c r="H7" s="47">
-        <v>2</v>
-      </c>
-      <c r="I7" s="44">
-        <v>0</v>
-      </c>
-      <c r="J7" s="14">
+      <c r="H7" s="40">
+        <v>2</v>
+      </c>
+      <c r="I7" s="37">
+        <v>0</v>
+      </c>
+      <c r="J7" s="13">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="K7" s="6">
         <v>78</v>
       </c>
-      <c r="L7" s="41">
+      <c r="L7" s="34">
         <v>16</v>
       </c>
-      <c r="M7" s="19">
+      <c r="M7" s="18">
         <f t="shared" si="1"/>
         <v>88.6</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="3" t="s">
         <v>26</v>
       </c>
@@ -1784,7 +1682,7 @@
       <c r="D8" s="12">
         <v>2</v>
       </c>
-      <c r="E8" s="73">
+      <c r="E8" s="65">
         <v>2</v>
       </c>
       <c r="F8" s="7">
@@ -1793,29 +1691,29 @@
       <c r="G8" s="7">
         <v>1.5</v>
       </c>
-      <c r="H8" s="47">
-        <v>0</v>
-      </c>
-      <c r="I8" s="44">
-        <v>0</v>
-      </c>
-      <c r="J8" s="14">
+      <c r="H8" s="40">
+        <v>0</v>
+      </c>
+      <c r="I8" s="37">
+        <v>0</v>
+      </c>
+      <c r="J8" s="13">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
       <c r="K8" s="6">
         <v>70</v>
       </c>
-      <c r="L8" s="41">
+      <c r="L8" s="34">
         <v>16</v>
       </c>
-      <c r="M8" s="19">
+      <c r="M8" s="18">
         <f t="shared" si="1"/>
         <v>87.5</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="3" t="s">
         <v>23</v>
       </c>
@@ -1825,7 +1723,7 @@
       <c r="D9" s="12">
         <v>2</v>
       </c>
-      <c r="E9" s="73">
+      <c r="E9" s="65">
         <v>2</v>
       </c>
       <c r="F9" s="7">
@@ -1834,29 +1732,29 @@
       <c r="G9" s="7">
         <v>0</v>
       </c>
-      <c r="H9" s="47">
-        <v>0</v>
-      </c>
-      <c r="I9" s="44">
-        <v>0</v>
-      </c>
-      <c r="J9" s="14">
+      <c r="H9" s="40">
+        <v>0</v>
+      </c>
+      <c r="I9" s="37">
+        <v>0</v>
+      </c>
+      <c r="J9" s="13">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="K9" s="6">
         <v>75</v>
       </c>
-      <c r="L9" s="41">
+      <c r="L9" s="34">
         <v>16</v>
       </c>
-      <c r="M9" s="19">
+      <c r="M9" s="18">
         <f t="shared" si="1"/>
         <v>86.5</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="3" t="s">
         <v>32</v>
       </c>
@@ -1866,7 +1764,7 @@
       <c r="D10" s="12">
         <v>2</v>
       </c>
-      <c r="E10" s="73">
+      <c r="E10" s="65">
         <v>2</v>
       </c>
       <c r="F10" s="7">
@@ -1875,29 +1773,29 @@
       <c r="G10" s="7">
         <v>2</v>
       </c>
-      <c r="H10" s="47">
-        <v>2</v>
-      </c>
-      <c r="I10" s="44">
-        <v>0</v>
-      </c>
-      <c r="J10" s="14">
+      <c r="H10" s="40">
+        <v>2</v>
+      </c>
+      <c r="I10" s="37">
+        <v>0</v>
+      </c>
+      <c r="J10" s="13">
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
       <c r="K10" s="6">
         <v>56</v>
       </c>
-      <c r="L10" s="41">
+      <c r="L10" s="34">
         <v>16</v>
       </c>
-      <c r="M10" s="19">
+      <c r="M10" s="18">
         <f t="shared" si="1"/>
         <v>83.699999999999989</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="17" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -1909,7 +1807,7 @@
       <c r="D11" s="12">
         <v>1.5</v>
       </c>
-      <c r="E11" s="73">
+      <c r="E11" s="65">
         <v>0</v>
       </c>
       <c r="F11" s="7">
@@ -1918,23 +1816,23 @@
       <c r="G11" s="7">
         <v>0</v>
       </c>
-      <c r="H11" s="47">
+      <c r="H11" s="40">
         <v>1.8</v>
       </c>
-      <c r="I11" s="44">
-        <v>0</v>
-      </c>
-      <c r="J11" s="14">
+      <c r="I11" s="37">
+        <v>0</v>
+      </c>
+      <c r="J11" s="13">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="K11" s="6">
         <v>58</v>
       </c>
-      <c r="L11" s="41">
+      <c r="L11" s="34">
         <v>16</v>
       </c>
-      <c r="M11" s="19">
+      <c r="M11" s="18">
         <f t="shared" si="1"/>
         <v>72.5</v>
       </c>
@@ -1943,7 +1841,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
+      <c r="A12" s="17"/>
       <c r="B12" s="3" t="s">
         <v>30</v>
       </c>
@@ -1953,7 +1851,7 @@
       <c r="D12" s="12">
         <v>2</v>
       </c>
-      <c r="E12" s="73">
+      <c r="E12" s="65">
         <v>0.5</v>
       </c>
       <c r="F12" s="7">
@@ -1962,29 +1860,29 @@
       <c r="G12" s="7">
         <v>1.4</v>
       </c>
-      <c r="H12" s="47">
-        <v>0</v>
-      </c>
-      <c r="I12" s="44">
-        <v>0</v>
-      </c>
-      <c r="J12" s="14">
+      <c r="H12" s="40">
+        <v>0</v>
+      </c>
+      <c r="I12" s="37">
+        <v>0</v>
+      </c>
+      <c r="J12" s="13">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="K12" s="6">
         <v>54</v>
       </c>
-      <c r="L12" s="41">
+      <c r="L12" s="34">
         <v>16</v>
       </c>
-      <c r="M12" s="19">
+      <c r="M12" s="18">
         <f t="shared" si="1"/>
         <v>65.5</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="3" t="s">
         <v>60</v>
       </c>
@@ -1994,7 +1892,7 @@
       <c r="D13" s="12">
         <v>0</v>
       </c>
-      <c r="E13" s="73">
+      <c r="E13" s="65">
         <v>0</v>
       </c>
       <c r="F13" s="7">
@@ -2003,29 +1901,29 @@
       <c r="G13" s="7">
         <v>0</v>
       </c>
-      <c r="H13" s="47">
-        <v>0</v>
-      </c>
-      <c r="I13" s="44">
-        <v>0</v>
-      </c>
-      <c r="J13" s="14">
+      <c r="H13" s="40">
+        <v>0</v>
+      </c>
+      <c r="I13" s="37">
+        <v>0</v>
+      </c>
+      <c r="J13" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K13" s="6">
         <v>69</v>
       </c>
-      <c r="L13" s="41">
+      <c r="L13" s="34">
         <v>16</v>
       </c>
-      <c r="M13" s="19">
+      <c r="M13" s="18">
         <f t="shared" si="1"/>
         <v>64.3</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="3" t="s">
         <v>39</v>
       </c>
@@ -2035,7 +1933,7 @@
       <c r="D14" s="12">
         <v>0</v>
       </c>
-      <c r="E14" s="73">
+      <c r="E14" s="65">
         <v>2</v>
       </c>
       <c r="F14" s="7">
@@ -2044,29 +1942,29 @@
       <c r="G14" s="7">
         <v>2</v>
       </c>
-      <c r="H14" s="47">
-        <v>2</v>
-      </c>
-      <c r="I14" s="44">
-        <v>0</v>
-      </c>
-      <c r="J14" s="14">
+      <c r="H14" s="40">
+        <v>2</v>
+      </c>
+      <c r="I14" s="37">
+        <v>0</v>
+      </c>
+      <c r="J14" s="13">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="K14" s="6">
         <v>35</v>
       </c>
-      <c r="L14" s="41">
+      <c r="L14" s="34">
         <v>16</v>
       </c>
-      <c r="M14" s="19">
+      <c r="M14" s="18">
         <f t="shared" si="1"/>
         <v>58.5</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
+      <c r="A15" s="17"/>
       <c r="B15" s="3" t="s">
         <v>41</v>
       </c>
@@ -2076,7 +1974,7 @@
       <c r="D15" s="12">
         <v>0</v>
       </c>
-      <c r="E15" s="73">
+      <c r="E15" s="65">
         <v>2</v>
       </c>
       <c r="F15" s="7">
@@ -2085,30 +1983,30 @@
       <c r="G15" s="7">
         <v>2</v>
       </c>
-      <c r="H15" s="47">
-        <v>2</v>
-      </c>
-      <c r="I15" s="45">
+      <c r="H15" s="40">
+        <v>2</v>
+      </c>
+      <c r="I15" s="38">
         <v>1</v>
       </c>
-      <c r="J15" s="14">
+      <c r="J15" s="13">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
       <c r="K15" s="6">
         <v>20</v>
       </c>
-      <c r="L15" s="41">
+      <c r="L15" s="34">
         <v>16</v>
       </c>
-      <c r="M15" s="19">
+      <c r="M15" s="18">
         <f t="shared" si="1"/>
         <v>52.5</v>
       </c>
       <c r="N15" s="9"/>
     </row>
     <row r="16" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="3" t="s">
         <v>28</v>
       </c>
@@ -2118,7 +2016,7 @@
       <c r="D16" s="12">
         <v>2</v>
       </c>
-      <c r="E16" s="73">
+      <c r="E16" s="65">
         <v>2</v>
       </c>
       <c r="F16" s="7">
@@ -2127,29 +2025,29 @@
       <c r="G16" s="7">
         <v>0</v>
       </c>
-      <c r="H16" s="47">
-        <v>0</v>
-      </c>
-      <c r="I16" s="44">
-        <v>0</v>
-      </c>
-      <c r="J16" s="14">
+      <c r="H16" s="40">
+        <v>0</v>
+      </c>
+      <c r="I16" s="37">
+        <v>0</v>
+      </c>
+      <c r="J16" s="13">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="K16" s="6">
         <v>34</v>
       </c>
-      <c r="L16" s="41">
+      <c r="L16" s="34">
         <v>16</v>
       </c>
-      <c r="M16" s="19">
+      <c r="M16" s="18">
         <f t="shared" si="1"/>
         <v>51.8</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="3" t="s">
         <v>47</v>
       </c>
@@ -2159,7 +2057,7 @@
       <c r="D17" s="12">
         <v>0</v>
       </c>
-      <c r="E17" s="73">
+      <c r="E17" s="65">
         <v>0</v>
       </c>
       <c r="F17" s="7">
@@ -2168,29 +2066,29 @@
       <c r="G17" s="7">
         <v>2</v>
       </c>
-      <c r="H17" s="47">
-        <v>0</v>
-      </c>
-      <c r="I17" s="44">
-        <v>0</v>
-      </c>
-      <c r="J17" s="14">
+      <c r="H17" s="40">
+        <v>0</v>
+      </c>
+      <c r="I17" s="37">
+        <v>0</v>
+      </c>
+      <c r="J17" s="13">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="K17" s="6">
         <v>10</v>
       </c>
-      <c r="L17" s="41">
+      <c r="L17" s="34">
         <v>16</v>
       </c>
-      <c r="M17" s="19">
+      <c r="M17" s="18">
         <f t="shared" si="1"/>
         <v>33.5</v>
       </c>
     </row>
-    <row r="18" spans="1:14" s="43" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
+    <row r="18" spans="1:14" s="36" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="17"/>
       <c r="B18" s="3" t="s">
         <v>42</v>
       </c>
@@ -2200,7 +2098,7 @@
       <c r="D18" s="12">
         <v>0</v>
       </c>
-      <c r="E18" s="50">
+      <c r="E18" s="43">
         <v>2</v>
       </c>
       <c r="F18" s="12">
@@ -2209,30 +2107,30 @@
       <c r="G18" s="12">
         <v>2</v>
       </c>
-      <c r="H18" s="47">
-        <v>0</v>
-      </c>
-      <c r="I18" s="44">
-        <v>0</v>
-      </c>
-      <c r="J18" s="14">
+      <c r="H18" s="40">
+        <v>0</v>
+      </c>
+      <c r="I18" s="37">
+        <v>0</v>
+      </c>
+      <c r="J18" s="13">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="K18" s="6">
         <v>0</v>
       </c>
-      <c r="L18" s="41">
+      <c r="L18" s="34">
         <v>16</v>
       </c>
-      <c r="M18" s="19">
+      <c r="M18" s="18">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="N18" s="1"/>
     </row>
     <row r="19" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
+      <c r="A19" s="17"/>
       <c r="B19" s="3" t="s">
         <v>45</v>
       </c>
@@ -2242,38 +2140,38 @@
       <c r="D19" s="12">
         <v>0</v>
       </c>
-      <c r="E19" s="50">
-        <v>2</v>
-      </c>
-      <c r="F19" s="50">
-        <v>0</v>
-      </c>
-      <c r="G19" s="50">
-        <v>2</v>
-      </c>
-      <c r="H19" s="47">
-        <v>0</v>
-      </c>
-      <c r="I19" s="44">
-        <v>0</v>
-      </c>
-      <c r="J19" s="14">
+      <c r="E19" s="43">
+        <v>2</v>
+      </c>
+      <c r="F19" s="43">
+        <v>0</v>
+      </c>
+      <c r="G19" s="43">
+        <v>2</v>
+      </c>
+      <c r="H19" s="40">
+        <v>0</v>
+      </c>
+      <c r="I19" s="37">
+        <v>0</v>
+      </c>
+      <c r="J19" s="13">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="K19" s="6">
         <v>0</v>
       </c>
-      <c r="L19" s="41">
+      <c r="L19" s="34">
         <v>16</v>
       </c>
-      <c r="M19" s="19">
+      <c r="M19" s="18">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:14" s="43" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
+    <row r="20" spans="1:14" s="36" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="17"/>
       <c r="B20" s="3" t="s">
         <v>44</v>
       </c>
@@ -2283,7 +2181,7 @@
       <c r="D20" s="12">
         <v>0</v>
       </c>
-      <c r="E20" s="74">
+      <c r="E20" s="66">
         <v>2</v>
       </c>
       <c r="F20" s="12">
@@ -2292,268 +2190,268 @@
       <c r="G20" s="12">
         <v>0</v>
       </c>
-      <c r="H20" s="47">
+      <c r="H20" s="40">
         <v>1.8</v>
       </c>
-      <c r="I20" s="44">
-        <v>0</v>
-      </c>
-      <c r="J20" s="14">
+      <c r="I20" s="37">
+        <v>0</v>
+      </c>
+      <c r="J20" s="13">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="K20" s="6">
         <v>0</v>
       </c>
-      <c r="L20" s="41">
+      <c r="L20" s="34">
         <v>16</v>
       </c>
-      <c r="M20" s="19">
+      <c r="M20" s="18">
         <f t="shared" si="1"/>
         <v>27.4</v>
       </c>
       <c r="N20" s="1"/>
     </row>
     <row r="21" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
+      <c r="A21" s="17"/>
       <c r="B21" s="3"/>
       <c r="C21" s="11"/>
       <c r="D21" s="12"/>
-      <c r="E21" s="74"/>
+      <c r="E21" s="66"/>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="44">
-        <v>0</v>
-      </c>
-      <c r="J21" s="14">
+      <c r="H21" s="40"/>
+      <c r="I21" s="37">
+        <v>0</v>
+      </c>
+      <c r="J21" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K21" s="6"/>
-      <c r="L21" s="41"/>
-      <c r="M21" s="19">
+      <c r="L21" s="34"/>
+      <c r="M21" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14" s="60" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="51"/>
-      <c r="B22" s="52"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="75"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="56">
-        <v>0</v>
-      </c>
-      <c r="J22" s="57">
+    <row r="22" spans="1:14" s="53" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="44"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="49">
+        <v>0</v>
+      </c>
+      <c r="J22" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K22" s="58"/>
-      <c r="L22" s="59"/>
-      <c r="M22" s="19">
+      <c r="K22" s="51"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:14" s="60" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="51"/>
-      <c r="B23" s="52"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="56">
-        <v>0</v>
-      </c>
-      <c r="J23" s="57">
+    <row r="23" spans="1:14" s="53" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="44"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="49">
+        <v>0</v>
+      </c>
+      <c r="J23" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K23" s="58"/>
-      <c r="L23" s="59"/>
-      <c r="M23" s="19">
+      <c r="K23" s="51"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" s="60" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="51"/>
-      <c r="B24" s="52"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="75"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="56">
-        <v>0</v>
-      </c>
-      <c r="J24" s="57">
+    <row r="24" spans="1:14" s="53" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="44"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="49">
+        <v>0</v>
+      </c>
+      <c r="J24" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K24" s="58"/>
-      <c r="L24" s="59"/>
-      <c r="M24" s="19">
+      <c r="K24" s="51"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14" s="60" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="51"/>
-      <c r="B25" s="52"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="75"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="56">
-        <v>0</v>
-      </c>
-      <c r="J25" s="57">
+    <row r="25" spans="1:14" s="53" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="44"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="49">
+        <v>0</v>
+      </c>
+      <c r="J25" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K25" s="58"/>
-      <c r="L25" s="59"/>
-      <c r="M25" s="19">
+      <c r="K25" s="51"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14" s="60" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="51"/>
-      <c r="B26" s="52"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="75"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="56">
-        <v>0</v>
-      </c>
-      <c r="J26" s="57">
+    <row r="26" spans="1:14" s="53" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="44"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="49">
+        <v>0</v>
+      </c>
+      <c r="J26" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K26" s="58"/>
-      <c r="L26" s="59"/>
-      <c r="M26" s="19">
+      <c r="K26" s="51"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14" s="60" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="51"/>
-      <c r="B27" s="52"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="75"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="56">
-        <v>0</v>
-      </c>
-      <c r="J27" s="57">
+    <row r="27" spans="1:14" s="53" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="44"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="49">
+        <v>0</v>
+      </c>
+      <c r="J27" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K27" s="58"/>
-      <c r="L27" s="59"/>
-      <c r="M27" s="19">
+      <c r="K27" s="51"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:14" s="60" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="51"/>
-      <c r="B28" s="52"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="75"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="56">
-        <v>0</v>
-      </c>
-      <c r="J28" s="57">
+    <row r="28" spans="1:14" s="53" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="44"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="49">
+        <v>0</v>
+      </c>
+      <c r="J28" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K28" s="58"/>
-      <c r="L28" s="59"/>
-      <c r="M28" s="19">
+      <c r="K28" s="51"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:14" s="60" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="51"/>
-      <c r="B29" s="52"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="75"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="56">
-        <v>0</v>
-      </c>
-      <c r="J29" s="57">
+    <row r="29" spans="1:14" s="53" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="44"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="49">
+        <v>0</v>
+      </c>
+      <c r="J29" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K29" s="58"/>
-      <c r="L29" s="59"/>
-      <c r="M29" s="19">
+      <c r="K29" s="51"/>
+      <c r="L29" s="52"/>
+      <c r="M29" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:14" s="61" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="51"/>
-      <c r="B30" s="52"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="75"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="54"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="56">
-        <v>0</v>
-      </c>
-      <c r="J30" s="57">
+    <row r="30" spans="1:14" s="54" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="44"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="49">
+        <v>0</v>
+      </c>
+      <c r="J30" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K30" s="58"/>
-      <c r="L30" s="59"/>
-      <c r="M30" s="19">
+      <c r="K30" s="51"/>
+      <c r="L30" s="52"/>
+      <c r="M30" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N30" s="60"/>
+      <c r="N30" s="53"/>
     </row>
     <row r="31" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
-      <c r="E31" s="76"/>
+      <c r="E31" s="68"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
-      <c r="H31" s="48"/>
+      <c r="H31" s="41"/>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
     </row>
@@ -2562,10 +2460,10 @@
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
-      <c r="E32" s="76"/>
+      <c r="E32" s="68"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
-      <c r="H32" s="48"/>
+      <c r="H32" s="41"/>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
     </row>
@@ -2574,10 +2472,10 @@
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
-      <c r="E33" s="76"/>
+      <c r="E33" s="68"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
-      <c r="H33" s="48"/>
+      <c r="H33" s="41"/>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
     </row>
@@ -2586,10 +2484,10 @@
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
-      <c r="E34" s="76"/>
+      <c r="E34" s="68"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
-      <c r="H34" s="48"/>
+      <c r="H34" s="41"/>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
     </row>
@@ -2598,10 +2496,10 @@
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
-      <c r="E35" s="76"/>
+      <c r="E35" s="68"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
-      <c r="H35" s="48"/>
+      <c r="H35" s="41"/>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
     </row>
@@ -2610,10 +2508,10 @@
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
-      <c r="E36" s="76"/>
+      <c r="E36" s="68"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
-      <c r="H36" s="48"/>
+      <c r="H36" s="41"/>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
     </row>
@@ -2622,10 +2520,10 @@
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
-      <c r="E37" s="76"/>
+      <c r="E37" s="68"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
-      <c r="H37" s="48"/>
+      <c r="H37" s="41"/>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
     </row>
@@ -2634,10 +2532,10 @@
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
-      <c r="E38" s="76"/>
+      <c r="E38" s="68"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
-      <c r="H38" s="48"/>
+      <c r="H38" s="41"/>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
     </row>
@@ -2646,10 +2544,10 @@
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
-      <c r="E39" s="76"/>
+      <c r="E39" s="68"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
-      <c r="H39" s="48"/>
+      <c r="H39" s="41"/>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
     </row>
@@ -2658,10 +2556,10 @@
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
-      <c r="E40" s="76"/>
+      <c r="E40" s="68"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
-      <c r="H40" s="48"/>
+      <c r="H40" s="41"/>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
     </row>
@@ -2670,10 +2568,10 @@
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
-      <c r="E41" s="76"/>
+      <c r="E41" s="68"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
-      <c r="H41" s="48"/>
+      <c r="H41" s="41"/>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
     </row>
@@ -2682,10 +2580,10 @@
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
-      <c r="E42" s="76"/>
+      <c r="E42" s="68"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
-      <c r="H42" s="48"/>
+      <c r="H42" s="41"/>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
     </row>
@@ -2694,10 +2592,10 @@
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
-      <c r="E43" s="76"/>
+      <c r="E43" s="68"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
-      <c r="H43" s="48"/>
+      <c r="H43" s="41"/>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
     </row>
@@ -2706,10 +2604,10 @@
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
-      <c r="E44" s="76"/>
+      <c r="E44" s="68"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
-      <c r="H44" s="48"/>
+      <c r="H44" s="41"/>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
     </row>
@@ -2718,10 +2616,10 @@
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
-      <c r="E45" s="76"/>
+      <c r="E45" s="68"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
-      <c r="H45" s="48"/>
+      <c r="H45" s="41"/>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
     </row>
@@ -2730,10 +2628,10 @@
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
-      <c r="E46" s="76"/>
+      <c r="E46" s="68"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
-      <c r="H46" s="48"/>
+      <c r="H46" s="41"/>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
     </row>
@@ -2742,10 +2640,10 @@
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
-      <c r="E47" s="76"/>
+      <c r="E47" s="68"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
-      <c r="H47" s="48"/>
+      <c r="H47" s="41"/>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
     </row>
@@ -2754,10 +2652,10 @@
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
-      <c r="E48" s="76"/>
+      <c r="E48" s="68"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
-      <c r="H48" s="48"/>
+      <c r="H48" s="41"/>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
     </row>
@@ -2766,10 +2664,10 @@
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
-      <c r="E49" s="76"/>
+      <c r="E49" s="68"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
-      <c r="H49" s="48"/>
+      <c r="H49" s="41"/>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
     </row>
@@ -2778,10 +2676,10 @@
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
-      <c r="E50" s="76"/>
+      <c r="E50" s="68"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
-      <c r="H50" s="48"/>
+      <c r="H50" s="41"/>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
     </row>
@@ -2790,10 +2688,10 @@
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
-      <c r="E51" s="76"/>
+      <c r="E51" s="68"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
-      <c r="H51" s="48"/>
+      <c r="H51" s="41"/>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
     </row>
@@ -2802,10 +2700,10 @@
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
-      <c r="E52" s="76"/>
+      <c r="E52" s="68"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
-      <c r="H52" s="48"/>
+      <c r="H52" s="41"/>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
     </row>
@@ -2814,10 +2712,10 @@
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
-      <c r="E53" s="76"/>
+      <c r="E53" s="68"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
-      <c r="H53" s="48"/>
+      <c r="H53" s="41"/>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
     </row>
@@ -2826,10 +2724,10 @@
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
-      <c r="E54" s="76"/>
+      <c r="E54" s="68"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
-      <c r="H54" s="48"/>
+      <c r="H54" s="41"/>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
     </row>
@@ -2838,10 +2736,10 @@
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
-      <c r="E55" s="76"/>
+      <c r="E55" s="68"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
-      <c r="H55" s="48"/>
+      <c r="H55" s="41"/>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
     </row>
@@ -2850,10 +2748,10 @@
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
-      <c r="E56" s="76"/>
+      <c r="E56" s="68"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
-      <c r="H56" s="48"/>
+      <c r="H56" s="41"/>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
     </row>
@@ -2862,10 +2760,10 @@
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
-      <c r="E57" s="76"/>
+      <c r="E57" s="68"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
-      <c r="H57" s="48"/>
+      <c r="H57" s="41"/>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
     </row>
@@ -2874,10 +2772,10 @@
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
-      <c r="E58" s="76"/>
+      <c r="E58" s="68"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
-      <c r="H58" s="48"/>
+      <c r="H58" s="41"/>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
     </row>
@@ -2886,10 +2784,10 @@
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
-      <c r="E59" s="76"/>
+      <c r="E59" s="68"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
-      <c r="H59" s="48"/>
+      <c r="H59" s="41"/>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
     </row>
@@ -2898,10 +2796,10 @@
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
       <c r="D60" s="8"/>
-      <c r="E60" s="76"/>
+      <c r="E60" s="68"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
-      <c r="H60" s="48"/>
+      <c r="H60" s="41"/>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
     </row>
@@ -2910,10 +2808,10 @@
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
-      <c r="E61" s="76"/>
+      <c r="E61" s="68"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
-      <c r="H61" s="48"/>
+      <c r="H61" s="41"/>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
     </row>
@@ -2922,10 +2820,10 @@
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
       <c r="D62" s="8"/>
-      <c r="E62" s="76"/>
+      <c r="E62" s="68"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
-      <c r="H62" s="48"/>
+      <c r="H62" s="41"/>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
     </row>
@@ -2934,10 +2832,10 @@
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
       <c r="D63" s="8"/>
-      <c r="E63" s="76"/>
+      <c r="E63" s="68"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
-      <c r="H63" s="48"/>
+      <c r="H63" s="41"/>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
     </row>
@@ -2946,10 +2844,10 @@
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
-      <c r="E64" s="76"/>
+      <c r="E64" s="68"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
-      <c r="H64" s="48"/>
+      <c r="H64" s="41"/>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
     </row>
@@ -2958,10 +2856,10 @@
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
-      <c r="E65" s="76"/>
+      <c r="E65" s="68"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
-      <c r="H65" s="48"/>
+      <c r="H65" s="41"/>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
     </row>
@@ -2970,10 +2868,10 @@
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
       <c r="D66" s="8"/>
-      <c r="E66" s="76"/>
+      <c r="E66" s="68"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
-      <c r="H66" s="48"/>
+      <c r="H66" s="41"/>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
     </row>
@@ -2982,10 +2880,10 @@
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
-      <c r="E67" s="76"/>
+      <c r="E67" s="68"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
-      <c r="H67" s="48"/>
+      <c r="H67" s="41"/>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
     </row>
@@ -2994,10 +2892,10 @@
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
       <c r="D68" s="8"/>
-      <c r="E68" s="76"/>
+      <c r="E68" s="68"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
-      <c r="H68" s="48"/>
+      <c r="H68" s="41"/>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
     </row>
@@ -3006,10 +2904,10 @@
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
       <c r="D69" s="8"/>
-      <c r="E69" s="76"/>
+      <c r="E69" s="68"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
-      <c r="H69" s="48"/>
+      <c r="H69" s="41"/>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
     </row>
@@ -3018,10 +2916,10 @@
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
-      <c r="E70" s="76"/>
+      <c r="E70" s="68"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
-      <c r="H70" s="48"/>
+      <c r="H70" s="41"/>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
     </row>
@@ -3030,10 +2928,10 @@
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
       <c r="D71" s="8"/>
-      <c r="E71" s="76"/>
+      <c r="E71" s="68"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
-      <c r="H71" s="48"/>
+      <c r="H71" s="41"/>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
     </row>
@@ -3042,10 +2940,10 @@
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
       <c r="D72" s="8"/>
-      <c r="E72" s="76"/>
+      <c r="E72" s="68"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
-      <c r="H72" s="48"/>
+      <c r="H72" s="41"/>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
     </row>
@@ -3054,10 +2952,10 @@
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
-      <c r="E73" s="76"/>
+      <c r="E73" s="68"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
-      <c r="H73" s="48"/>
+      <c r="H73" s="41"/>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
     </row>
@@ -3066,10 +2964,10 @@
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
       <c r="D74" s="8"/>
-      <c r="E74" s="76"/>
+      <c r="E74" s="68"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
-      <c r="H74" s="48"/>
+      <c r="H74" s="41"/>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
     </row>
@@ -3078,10 +2976,10 @@
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
       <c r="D75" s="8"/>
-      <c r="E75" s="76"/>
+      <c r="E75" s="68"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
-      <c r="H75" s="48"/>
+      <c r="H75" s="41"/>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
     </row>
@@ -3090,10 +2988,10 @@
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
       <c r="D76" s="8"/>
-      <c r="E76" s="76"/>
+      <c r="E76" s="68"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
-      <c r="H76" s="48"/>
+      <c r="H76" s="41"/>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
     </row>
@@ -3105,30 +3003,30 @@
     <mergeCell ref="D1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:H30">
-    <cfRule type="cellIs" dxfId="33" priority="19" operator="between">
+    <cfRule type="cellIs" dxfId="29" priority="19" operator="between">
       <formula>0.1</formula>
       <formula>1.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="20" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="21" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:L30">
-    <cfRule type="cellIs" dxfId="30" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="26" priority="10" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="12" operator="between">
+    <cfRule type="cellIs" dxfId="24" priority="12" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="13" operator="between">
+    <cfRule type="cellIs" dxfId="23" priority="13" operator="between">
       <formula>80</formula>
       <formula>100</formula>
     </cfRule>
@@ -3200,11 +3098,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AC81"/>
+  <dimension ref="A1:AB78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3212,7 +3110,7 @@
     <col min="1" max="1" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" style="66" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="59" customWidth="1"/>
     <col min="5" max="6" width="3.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="2.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="2.44140625" style="2" customWidth="1"/>
@@ -3221,146 +3119,143 @@
     <col min="13" max="13" width="4.44140625" style="1" customWidth="1"/>
     <col min="14" max="15" width="2.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="2.77734375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="2.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.77734375" style="1" customWidth="1"/>
-    <col min="19" max="20" width="2.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4.77734375" style="1" customWidth="1"/>
-    <col min="22" max="22" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="5.77734375" style="1" customWidth="1"/>
-    <col min="25" max="25" width="8.21875" style="71" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.88671875" style="1"/>
-    <col min="27" max="29" width="5.77734375" style="1" customWidth="1"/>
-    <col min="30" max="16384" width="8.88671875" style="1"/>
+    <col min="17" max="17" width="4.77734375" style="1" customWidth="1"/>
+    <col min="18" max="19" width="2.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.77734375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="5.77734375" style="1" customWidth="1"/>
+    <col min="24" max="24" width="8.21875" style="63" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.88671875" style="1"/>
+    <col min="26" max="28" width="5.77734375" style="1" customWidth="1"/>
+    <col min="29" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="4" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28">
+    <row r="1" spans="1:28" s="4" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="25">
+        <v>7</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="72" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="72" t="s">
+        <v>55</v>
+      </c>
+      <c r="S1" s="73"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="V1" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="W1" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="X1" s="61"/>
+      <c r="Z1" s="75" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA1" s="75" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB1" s="75" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" s="5" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="80" t="s">
-        <v>54</v>
-      </c>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="80" t="s">
-        <v>57</v>
-      </c>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="80" t="s">
-        <v>55</v>
-      </c>
-      <c r="T1" s="81"/>
-      <c r="U1" s="82"/>
-      <c r="V1" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="W1" s="17" t="s">
+      <c r="B2" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="29">
+        <v>6</v>
+      </c>
+      <c r="F2" s="22">
+        <v>7</v>
+      </c>
+      <c r="G2" s="22">
+        <v>8</v>
+      </c>
+      <c r="H2" s="22">
+        <v>9</v>
+      </c>
+      <c r="I2" s="22">
+        <v>10</v>
+      </c>
+      <c r="J2" s="22">
+        <v>11</v>
+      </c>
+      <c r="K2" s="22">
         <v>12</v>
       </c>
-      <c r="X1" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y1" s="69"/>
-      <c r="AA1" s="83" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB1" s="83" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC1" s="83" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" s="5" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="33" t="s">
+      <c r="L2" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="22">
+        <v>7</v>
+      </c>
+      <c r="O2" s="22">
+        <v>8</v>
+      </c>
+      <c r="P2" s="22">
+        <v>11</v>
+      </c>
+      <c r="Q2" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="R2" s="22">
         <v>1</v>
       </c>
-      <c r="D2" s="63" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="35">
-        <v>6</v>
-      </c>
-      <c r="F2" s="25">
+      <c r="S2" s="22">
+        <v>2</v>
+      </c>
+      <c r="T2" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="25">
-        <v>8</v>
-      </c>
-      <c r="H2" s="25">
+      <c r="U2" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="V2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="25">
-        <v>10</v>
-      </c>
-      <c r="J2" s="25">
-        <v>11</v>
-      </c>
-      <c r="K2" s="25">
-        <v>12</v>
-      </c>
-      <c r="L2" s="67" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="N2" s="25">
-        <v>7</v>
-      </c>
-      <c r="O2" s="25">
-        <v>8</v>
-      </c>
-      <c r="P2" s="25">
-        <v>11</v>
-      </c>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="S2" s="25">
-        <v>1</v>
-      </c>
-      <c r="T2" s="25">
-        <v>2</v>
-      </c>
-      <c r="U2" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="V2" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="W2" s="17" t="s">
+      <c r="W2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="X2" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y2" s="70"/>
-      <c r="AA2" s="84"/>
-      <c r="AB2" s="84"/>
-      <c r="AC2" s="84"/>
-    </row>
-    <row r="3" spans="1:29" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="X2" s="62"/>
+      <c r="Z2" s="76"/>
+      <c r="AA2" s="76"/>
+      <c r="AB2" s="76"/>
+    </row>
+    <row r="3" spans="1:28" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -3369,10 +3264,10 @@
       <c r="C3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="18">
         <v>72.5</v>
       </c>
-      <c r="E3" s="36">
+      <c r="E3" s="30">
         <v>0</v>
       </c>
       <c r="F3" s="7">
@@ -3390,11 +3285,13 @@
       <c r="J3" s="7">
         <v>0</v>
       </c>
-      <c r="K3" s="7"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="14">
+      <c r="K3" s="7">
+        <v>0</v>
+      </c>
+      <c r="L3" s="37"/>
+      <c r="M3" s="13">
         <f t="shared" ref="M3:M30" si="0">SUM(E3:K3)*50/(A$1-L3)</f>
-        <v>4.166666666666667</v>
+        <v>3.5714285714285716</v>
       </c>
       <c r="N3" s="6">
         <v>0</v>
@@ -3405,32 +3302,37 @@
       <c r="P3" s="6">
         <v>0</v>
       </c>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="14">
-        <f t="shared" ref="R3:R30" si="1">Q3</f>
-        <v>0</v>
-      </c>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="14">
-        <f t="shared" ref="U3:U30" si="2">T3</f>
-        <v>0</v>
-      </c>
-      <c r="V3" s="6"/>
-      <c r="W3" s="19">
-        <f t="shared" ref="W3:W30" si="3">MIN(100,M3*(0.2+0.25)+U3*(0.25+0.1)+V3*(0.55+0.15))</f>
-        <v>1.8750000000000002</v>
-      </c>
-      <c r="X3" s="19">
-        <f t="shared" ref="X3:X30" si="4">ROUND(D3,2)*0.4+W3*0.6</f>
-        <v>30.125</v>
-      </c>
-      <c r="AA3" s="19"/>
-      <c r="AB3" s="19"/>
-      <c r="AC3" s="19"/>
-    </row>
-    <row r="4" spans="1:29" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="Q3" s="13">
+        <f>SUM(N3:P3)/3</f>
+        <v>0</v>
+      </c>
+      <c r="R3" s="6">
+        <v>0</v>
+      </c>
+      <c r="S3" s="6">
+        <v>0</v>
+      </c>
+      <c r="T3" s="13">
+        <f>SUM(R3:S3)/2</f>
+        <v>0</v>
+      </c>
+      <c r="U3" s="6">
+        <v>75</v>
+      </c>
+      <c r="V3" s="18">
+        <f>MIN(100,M3*(0.25+0.1)+T3*(0.2+0.1)+U3*(0.55+0.15))</f>
+        <v>53.750000000000007</v>
+      </c>
+      <c r="W3" s="18">
+        <f>ROUND(D3,2)*0.4+V3*0.6</f>
+        <v>61.25</v>
+      </c>
+      <c r="Z3" s="18"/>
+      <c r="AA3" s="18"/>
+      <c r="AB3" s="18"/>
+    </row>
+    <row r="4" spans="1:28" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -3439,10 +3341,10 @@
       <c r="C4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="18">
         <v>92.9</v>
       </c>
-      <c r="E4" s="36">
+      <c r="E4" s="30">
         <v>2</v>
       </c>
       <c r="F4" s="7">
@@ -3460,11 +3362,13 @@
       <c r="J4" s="7">
         <v>2</v>
       </c>
-      <c r="K4" s="7"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="14">
+      <c r="K4" s="7">
+        <v>2</v>
+      </c>
+      <c r="L4" s="37"/>
+      <c r="M4" s="13">
         <f t="shared" si="0"/>
-        <v>66.666666666666671</v>
+        <v>71.428571428571431</v>
       </c>
       <c r="N4" s="6">
         <v>0</v>
@@ -3475,42 +3379,47 @@
       <c r="P4" s="6">
         <v>100</v>
       </c>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V4" s="6"/>
-      <c r="W4" s="19">
-        <f t="shared" si="3"/>
-        <v>30.000000000000004</v>
-      </c>
-      <c r="X4" s="19">
-        <f t="shared" si="4"/>
-        <v>55.160000000000004</v>
-      </c>
-      <c r="AA4" s="19"/>
-      <c r="AB4" s="19"/>
-      <c r="AC4" s="19"/>
-    </row>
-    <row r="5" spans="1:29" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
+      <c r="Q4" s="13">
+        <f t="shared" ref="Q4:Q30" si="1">SUM(N4:P4)/3</f>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="R4" s="6">
+        <v>0</v>
+      </c>
+      <c r="S4" s="6">
+        <v>0</v>
+      </c>
+      <c r="T4" s="13">
+        <f t="shared" ref="T4:T30" si="2">SUM(R4:S4)/2</f>
+        <v>0</v>
+      </c>
+      <c r="U4" s="6">
+        <v>89</v>
+      </c>
+      <c r="V4" s="18">
+        <f t="shared" ref="V4:V30" si="3">MIN(100,M4*(0.25+0.1)+T4*(0.2+0.1)+U4*(0.55+0.15))</f>
+        <v>87.300000000000011</v>
+      </c>
+      <c r="W4" s="18">
+        <f>ROUND(D4,2)*0.4+V4*0.6</f>
+        <v>89.54</v>
+      </c>
+      <c r="Z4" s="18"/>
+      <c r="AA4" s="18"/>
+      <c r="AB4" s="18"/>
+    </row>
+    <row r="5" spans="1:28" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="17"/>
       <c r="B5" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="18">
         <v>86.5</v>
       </c>
-      <c r="E5" s="36">
+      <c r="E5" s="30">
         <v>2</v>
       </c>
       <c r="F5" s="7">
@@ -3528,11 +3437,13 @@
       <c r="J5" s="7">
         <v>2</v>
       </c>
-      <c r="K5" s="7"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="14">
+      <c r="K5" s="7">
+        <v>2</v>
+      </c>
+      <c r="L5" s="37"/>
+      <c r="M5" s="13">
         <f t="shared" si="0"/>
-        <v>66.666666666666671</v>
+        <v>71.428571428571431</v>
       </c>
       <c r="N5" s="6">
         <v>100</v>
@@ -3543,42 +3454,47 @@
       <c r="P5" s="6">
         <v>75</v>
       </c>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="14">
+      <c r="Q5" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="14">
+        <v>58.333333333333336</v>
+      </c>
+      <c r="R5" s="6">
+        <v>100</v>
+      </c>
+      <c r="S5" s="6">
+        <v>100</v>
+      </c>
+      <c r="T5" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V5" s="6"/>
-      <c r="W5" s="19">
+        <v>100</v>
+      </c>
+      <c r="U5" s="6">
+        <v>49</v>
+      </c>
+      <c r="V5" s="18">
         <f t="shared" si="3"/>
-        <v>30.000000000000004</v>
-      </c>
-      <c r="X5" s="19">
-        <f t="shared" si="4"/>
-        <v>52.6</v>
-      </c>
-      <c r="AA5" s="19"/>
-      <c r="AB5" s="19"/>
-      <c r="AC5" s="19"/>
-    </row>
-    <row r="6" spans="1:29" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
+        <v>89.300000000000011</v>
+      </c>
+      <c r="W5" s="18">
+        <f>ROUND(D5,2)*0.4+V5*0.6</f>
+        <v>88.18</v>
+      </c>
+      <c r="Z5" s="18"/>
+      <c r="AA5" s="18"/>
+      <c r="AB5" s="18"/>
+    </row>
+    <row r="6" spans="1:28" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
       <c r="B6" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="18">
         <v>92.5</v>
       </c>
-      <c r="E6" s="36">
+      <c r="E6" s="30">
         <v>1.5</v>
       </c>
       <c r="F6" s="7">
@@ -3596,11 +3512,13 @@
       <c r="J6" s="7">
         <v>2</v>
       </c>
-      <c r="K6" s="7"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="14">
+      <c r="K6" s="7">
+        <v>2</v>
+      </c>
+      <c r="L6" s="37"/>
+      <c r="M6" s="13">
         <f t="shared" si="0"/>
-        <v>95.833333333333329</v>
+        <v>96.428571428571431</v>
       </c>
       <c r="N6" s="6">
         <v>100</v>
@@ -3611,42 +3529,47 @@
       <c r="P6" s="6">
         <v>70</v>
       </c>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="14">
+      <c r="Q6" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="14">
+        <v>89.666666666666671</v>
+      </c>
+      <c r="R6" s="6">
+        <v>80</v>
+      </c>
+      <c r="S6" s="6">
+        <v>99</v>
+      </c>
+      <c r="T6" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V6" s="6"/>
-      <c r="W6" s="19">
+        <v>89.5</v>
+      </c>
+      <c r="U6" s="6">
+        <v>95</v>
+      </c>
+      <c r="V6" s="18">
         <f t="shared" si="3"/>
-        <v>43.125</v>
-      </c>
-      <c r="X6" s="19">
-        <f t="shared" si="4"/>
-        <v>62.875</v>
-      </c>
-      <c r="AA6" s="19"/>
-      <c r="AB6" s="19"/>
-      <c r="AC6" s="19"/>
-    </row>
-    <row r="7" spans="1:29" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
+        <v>100</v>
+      </c>
+      <c r="W6" s="18">
+        <f>ROUND(D6,2)*0.4+V6*0.6</f>
+        <v>97</v>
+      </c>
+      <c r="Z6" s="18"/>
+      <c r="AA6" s="18"/>
+      <c r="AB6" s="18"/>
+    </row>
+    <row r="7" spans="1:28" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17"/>
       <c r="B7" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="18">
         <v>87.5</v>
       </c>
-      <c r="E7" s="36">
+      <c r="E7" s="30">
         <v>2</v>
       </c>
       <c r="F7" s="7">
@@ -3664,11 +3587,13 @@
       <c r="J7" s="7">
         <v>2</v>
       </c>
-      <c r="K7" s="7"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="14">
+      <c r="K7" s="7">
+        <v>2</v>
+      </c>
+      <c r="L7" s="37"/>
+      <c r="M7" s="13">
         <f t="shared" si="0"/>
-        <v>83.333333333333329</v>
+        <v>85.714285714285708</v>
       </c>
       <c r="N7" s="6">
         <v>100</v>
@@ -3679,42 +3604,47 @@
       <c r="P7" s="6">
         <v>75</v>
       </c>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="14">
+      <c r="Q7" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="14">
+        <v>58.333333333333336</v>
+      </c>
+      <c r="R7" s="6">
+        <v>0</v>
+      </c>
+      <c r="S7" s="6">
+        <v>100</v>
+      </c>
+      <c r="T7" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V7" s="6"/>
-      <c r="W7" s="19">
+        <v>50</v>
+      </c>
+      <c r="U7" s="6">
+        <v>47</v>
+      </c>
+      <c r="V7" s="18">
         <f t="shared" si="3"/>
-        <v>37.5</v>
-      </c>
-      <c r="X7" s="19">
-        <f t="shared" si="4"/>
-        <v>57.5</v>
-      </c>
-      <c r="AA7" s="19"/>
-      <c r="AB7" s="19"/>
-      <c r="AC7" s="19"/>
-    </row>
-    <row r="8" spans="1:29" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
+        <v>77.900000000000006</v>
+      </c>
+      <c r="W7" s="18">
+        <f>ROUND(D7,2)*0.4+V7*0.6</f>
+        <v>81.740000000000009</v>
+      </c>
+      <c r="Z7" s="18"/>
+      <c r="AA7" s="18"/>
+      <c r="AB7" s="18"/>
+    </row>
+    <row r="8" spans="1:28" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="17"/>
       <c r="B8" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="18">
         <v>51.8</v>
       </c>
-      <c r="E8" s="36">
+      <c r="E8" s="30">
         <v>0</v>
       </c>
       <c r="F8" s="7">
@@ -3732,11 +3662,13 @@
       <c r="J8" s="7">
         <v>0</v>
       </c>
-      <c r="K8" s="7"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="14">
+      <c r="K8" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="L8" s="37"/>
+      <c r="M8" s="13">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>12.142857142857142</v>
       </c>
       <c r="N8" s="6">
         <v>0</v>
@@ -3747,42 +3679,47 @@
       <c r="P8" s="6">
         <v>0</v>
       </c>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="14">
+      <c r="Q8" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="14">
+        <v>10</v>
+      </c>
+      <c r="R8" s="6">
+        <v>0</v>
+      </c>
+      <c r="S8" s="6">
+        <v>0</v>
+      </c>
+      <c r="T8" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V8" s="6"/>
-      <c r="W8" s="19">
+      <c r="U8" s="6">
+        <v>24</v>
+      </c>
+      <c r="V8" s="18">
         <f t="shared" si="3"/>
-        <v>4.5</v>
-      </c>
-      <c r="X8" s="19">
-        <f t="shared" si="4"/>
-        <v>23.419999999999998</v>
-      </c>
-      <c r="AA8" s="19"/>
-      <c r="AB8" s="19"/>
-      <c r="AC8" s="19"/>
-    </row>
-    <row r="9" spans="1:29" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
+        <v>21.05</v>
+      </c>
+      <c r="W8" s="18">
+        <f>ROUND(D8,2)*0.4+V8*0.6</f>
+        <v>33.35</v>
+      </c>
+      <c r="Z8" s="18"/>
+      <c r="AA8" s="18"/>
+      <c r="AB8" s="18"/>
+    </row>
+    <row r="9" spans="1:28" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="17"/>
       <c r="B9" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="18">
         <v>65.5</v>
       </c>
-      <c r="E9" s="36">
+      <c r="E9" s="30">
         <v>0</v>
       </c>
       <c r="F9" s="7">
@@ -3800,11 +3737,13 @@
       <c r="J9" s="7">
         <v>1.5</v>
       </c>
-      <c r="K9" s="7"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="14">
+      <c r="K9" s="7">
+        <v>2</v>
+      </c>
+      <c r="L9" s="37"/>
+      <c r="M9" s="13">
         <f t="shared" si="0"/>
-        <v>58.333333333333336</v>
+        <v>64.285714285714292</v>
       </c>
       <c r="N9" s="6">
         <v>75</v>
@@ -3815,42 +3754,47 @@
       <c r="P9" s="6">
         <v>75</v>
       </c>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="14">
+      <c r="Q9" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="14">
+        <v>82.666666666666671</v>
+      </c>
+      <c r="R9" s="6">
+        <v>80</v>
+      </c>
+      <c r="S9" s="6">
+        <v>95</v>
+      </c>
+      <c r="T9" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V9" s="6"/>
-      <c r="W9" s="19">
+        <v>87.5</v>
+      </c>
+      <c r="U9" s="6">
+        <v>77</v>
+      </c>
+      <c r="V9" s="18">
         <f t="shared" si="3"/>
-        <v>26.25</v>
-      </c>
-      <c r="X9" s="19">
-        <f t="shared" si="4"/>
-        <v>41.95</v>
-      </c>
-      <c r="AA9" s="19"/>
-      <c r="AB9" s="19"/>
-      <c r="AC9" s="19"/>
-    </row>
-    <row r="10" spans="1:29" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
+        <v>100</v>
+      </c>
+      <c r="W9" s="18">
+        <f>ROUND(D9,2)*0.4+V9*0.6</f>
+        <v>86.2</v>
+      </c>
+      <c r="Z9" s="18"/>
+      <c r="AA9" s="18"/>
+      <c r="AB9" s="18"/>
+    </row>
+    <row r="10" spans="1:28" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
       <c r="B10" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="18">
         <v>83.699999999999989</v>
       </c>
-      <c r="E10" s="36">
+      <c r="E10" s="30">
         <v>0</v>
       </c>
       <c r="F10" s="7">
@@ -3868,11 +3812,13 @@
       <c r="J10" s="7">
         <v>2</v>
       </c>
-      <c r="K10" s="7"/>
-      <c r="L10" s="44"/>
-      <c r="M10" s="14">
+      <c r="K10" s="7">
+        <v>2</v>
+      </c>
+      <c r="L10" s="37"/>
+      <c r="M10" s="13">
         <f t="shared" si="0"/>
-        <v>83.333333333333329</v>
+        <v>85.714285714285708</v>
       </c>
       <c r="N10" s="6">
         <v>75</v>
@@ -3883,42 +3829,47 @@
       <c r="P10" s="6">
         <v>80</v>
       </c>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="14">
+      <c r="Q10" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="14">
+        <v>71.666666666666671</v>
+      </c>
+      <c r="R10" s="6">
+        <v>0</v>
+      </c>
+      <c r="S10" s="6">
+        <v>90</v>
+      </c>
+      <c r="T10" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V10" s="6"/>
-      <c r="W10" s="19">
+        <v>45</v>
+      </c>
+      <c r="U10" s="6">
+        <v>26</v>
+      </c>
+      <c r="V10" s="18">
         <f t="shared" si="3"/>
-        <v>37.5</v>
-      </c>
-      <c r="X10" s="19">
-        <f t="shared" si="4"/>
-        <v>55.980000000000004</v>
-      </c>
-      <c r="AA10" s="19"/>
-      <c r="AB10" s="19"/>
-      <c r="AC10" s="19"/>
-    </row>
-    <row r="11" spans="1:29" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
+        <v>61.7</v>
+      </c>
+      <c r="W10" s="18">
+        <f>ROUND(D10,2)*0.4+V10*0.6</f>
+        <v>70.5</v>
+      </c>
+      <c r="Z10" s="18"/>
+      <c r="AA10" s="18"/>
+      <c r="AB10" s="18"/>
+    </row>
+    <row r="11" spans="1:28" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="17"/>
       <c r="B11" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="18">
         <v>99.6</v>
       </c>
-      <c r="E11" s="36">
+      <c r="E11" s="30">
         <v>0</v>
       </c>
       <c r="F11" s="7">
@@ -3936,11 +3887,13 @@
       <c r="J11" s="7">
         <v>0</v>
       </c>
-      <c r="K11" s="7"/>
-      <c r="L11" s="44"/>
-      <c r="M11" s="14">
+      <c r="K11" s="7">
+        <v>2</v>
+      </c>
+      <c r="L11" s="37"/>
+      <c r="M11" s="13">
         <f t="shared" si="0"/>
-        <v>15.833333333333334</v>
+        <v>27.857142857142858</v>
       </c>
       <c r="N11" s="6">
         <v>0</v>
@@ -3951,42 +3904,47 @@
       <c r="P11" s="6">
         <v>0</v>
       </c>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="14">
+      <c r="Q11" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="14">
+      <c r="R11" s="6">
+        <v>0</v>
+      </c>
+      <c r="S11" s="6">
+        <v>0</v>
+      </c>
+      <c r="T11" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V11" s="6"/>
-      <c r="W11" s="19">
+      <c r="U11" s="6">
+        <v>96</v>
+      </c>
+      <c r="V11" s="18">
         <f t="shared" si="3"/>
-        <v>7.125</v>
-      </c>
-      <c r="X11" s="19">
-        <f t="shared" si="4"/>
-        <v>44.115000000000002</v>
-      </c>
-      <c r="AA11" s="19"/>
-      <c r="AB11" s="19"/>
-      <c r="AC11" s="19"/>
-    </row>
-    <row r="12" spans="1:29" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
+        <v>76.95</v>
+      </c>
+      <c r="W11" s="18">
+        <f>ROUND(D11,2)*0.4+V11*0.6</f>
+        <v>86.01</v>
+      </c>
+      <c r="Z11" s="18"/>
+      <c r="AA11" s="18"/>
+      <c r="AB11" s="18"/>
+    </row>
+    <row r="12" spans="1:28" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="17"/>
       <c r="B12" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="18">
         <v>89.1</v>
       </c>
-      <c r="E12" s="36">
+      <c r="E12" s="30">
         <v>2</v>
       </c>
       <c r="F12" s="7">
@@ -4004,11 +3962,13 @@
       <c r="J12" s="7">
         <v>2</v>
       </c>
-      <c r="K12" s="7"/>
-      <c r="L12" s="44"/>
-      <c r="M12" s="14">
+      <c r="K12" s="7">
+        <v>2</v>
+      </c>
+      <c r="L12" s="37"/>
+      <c r="M12" s="13">
         <f t="shared" si="0"/>
-        <v>83.333333333333329</v>
+        <v>85.714285714285708</v>
       </c>
       <c r="N12" s="6">
         <v>100</v>
@@ -4019,45 +3979,50 @@
       <c r="P12" s="6">
         <v>90</v>
       </c>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="14">
+      <c r="Q12" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="14">
+        <v>96.666666666666671</v>
+      </c>
+      <c r="R12" s="6">
+        <v>85</v>
+      </c>
+      <c r="S12" s="6">
+        <v>70</v>
+      </c>
+      <c r="T12" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V12" s="6"/>
-      <c r="W12" s="19">
+        <v>77.5</v>
+      </c>
+      <c r="U12" s="6">
+        <v>73</v>
+      </c>
+      <c r="V12" s="18">
         <f t="shared" si="3"/>
-        <v>37.5</v>
-      </c>
-      <c r="X12" s="19">
-        <f t="shared" si="4"/>
-        <v>58.14</v>
-      </c>
-      <c r="AA12" s="19"/>
-      <c r="AB12" s="19"/>
-      <c r="AC12" s="19"/>
-    </row>
-    <row r="13" spans="1:29" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
+        <v>100</v>
+      </c>
+      <c r="W12" s="18">
+        <f>ROUND(D12,2)*0.4+V12*0.6</f>
+        <v>95.64</v>
+      </c>
+      <c r="Z12" s="18"/>
+      <c r="AA12" s="18"/>
+      <c r="AB12" s="18"/>
+    </row>
+    <row r="13" spans="1:28" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="17"/>
       <c r="B13" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="18">
         <v>88.6</v>
       </c>
-      <c r="E13" s="36">
-        <v>0</v>
-      </c>
-      <c r="F13" s="39">
+      <c r="E13" s="30">
+        <v>0</v>
+      </c>
+      <c r="F13" s="32">
         <v>2</v>
       </c>
       <c r="G13" s="7">
@@ -4072,11 +4037,13 @@
       <c r="J13" s="7">
         <v>2</v>
       </c>
-      <c r="K13" s="7"/>
-      <c r="L13" s="44"/>
-      <c r="M13" s="14">
+      <c r="K13" s="7">
+        <v>2</v>
+      </c>
+      <c r="L13" s="37"/>
+      <c r="M13" s="13">
         <f t="shared" si="0"/>
-        <v>66.666666666666671</v>
+        <v>71.428571428571431</v>
       </c>
       <c r="N13" s="6">
         <v>75</v>
@@ -4087,42 +4054,47 @@
       <c r="P13" s="6">
         <v>80</v>
       </c>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="14">
+      <c r="Q13" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="14">
+        <v>65</v>
+      </c>
+      <c r="R13" s="6">
+        <v>0</v>
+      </c>
+      <c r="S13" s="6">
+        <v>0</v>
+      </c>
+      <c r="T13" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V13" s="6"/>
-      <c r="W13" s="19">
+      <c r="U13" s="6">
+        <v>65</v>
+      </c>
+      <c r="V13" s="18">
         <f t="shared" si="3"/>
-        <v>30.000000000000004</v>
-      </c>
-      <c r="X13" s="19">
-        <f t="shared" si="4"/>
-        <v>53.44</v>
-      </c>
-      <c r="AA13" s="19"/>
-      <c r="AB13" s="19"/>
-      <c r="AC13" s="19"/>
-    </row>
-    <row r="14" spans="1:29" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
+        <v>70.5</v>
+      </c>
+      <c r="W13" s="18">
+        <f>ROUND(D13,2)*0.4+V13*0.6</f>
+        <v>77.739999999999995</v>
+      </c>
+      <c r="Z13" s="18"/>
+      <c r="AA13" s="18"/>
+      <c r="AB13" s="18"/>
+    </row>
+    <row r="14" spans="1:28" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="17"/>
       <c r="B14" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="18">
         <v>58.5</v>
       </c>
-      <c r="E14" s="36">
+      <c r="E14" s="30">
         <v>2</v>
       </c>
       <c r="F14" s="7">
@@ -4140,11 +4112,13 @@
       <c r="J14" s="7">
         <v>0</v>
       </c>
-      <c r="K14" s="7"/>
-      <c r="L14" s="44"/>
-      <c r="M14" s="14">
+      <c r="K14" s="7">
+        <v>0</v>
+      </c>
+      <c r="L14" s="37"/>
+      <c r="M14" s="13">
         <f t="shared" si="0"/>
-        <v>64.166666666666671</v>
+        <v>55</v>
       </c>
       <c r="N14" s="6">
         <v>30</v>
@@ -4155,42 +4129,47 @@
       <c r="P14" s="6">
         <v>0</v>
       </c>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="14">
+      <c r="Q14" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="14">
+        <v>20</v>
+      </c>
+      <c r="R14" s="6">
+        <v>0</v>
+      </c>
+      <c r="S14" s="6">
+        <v>0</v>
+      </c>
+      <c r="T14" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V14" s="6"/>
-      <c r="W14" s="19">
+      <c r="U14" s="6">
+        <v>0</v>
+      </c>
+      <c r="V14" s="18">
         <f t="shared" si="3"/>
-        <v>28.875000000000004</v>
-      </c>
-      <c r="X14" s="19">
-        <f t="shared" si="4"/>
-        <v>40.725000000000009</v>
-      </c>
-      <c r="AA14" s="19"/>
-      <c r="AB14" s="19"/>
-      <c r="AC14" s="19"/>
-    </row>
-    <row r="15" spans="1:29" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
+        <v>19.25</v>
+      </c>
+      <c r="W14" s="18">
+        <f>ROUND(D14,2)*0.4+V14*0.6</f>
+        <v>34.950000000000003</v>
+      </c>
+      <c r="Z14" s="18"/>
+      <c r="AA14" s="18"/>
+      <c r="AB14" s="18"/>
+    </row>
+    <row r="15" spans="1:28" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="17"/>
       <c r="B15" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="18">
         <v>52.5</v>
       </c>
-      <c r="E15" s="36">
+      <c r="E15" s="30">
         <v>2</v>
       </c>
       <c r="F15" s="7">
@@ -4208,11 +4187,13 @@
       <c r="J15" s="7">
         <v>1.5</v>
       </c>
-      <c r="K15" s="7"/>
-      <c r="L15" s="44"/>
-      <c r="M15" s="14">
+      <c r="K15" s="7">
+        <v>0</v>
+      </c>
+      <c r="L15" s="37"/>
+      <c r="M15" s="13">
         <f t="shared" si="0"/>
-        <v>79.166666666666671</v>
+        <v>67.857142857142861</v>
       </c>
       <c r="N15" s="6">
         <v>0</v>
@@ -4223,42 +4204,47 @@
       <c r="P15" s="6">
         <v>20</v>
       </c>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="14">
+      <c r="Q15" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="14">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="R15" s="6">
+        <v>0</v>
+      </c>
+      <c r="S15" s="6">
+        <v>0</v>
+      </c>
+      <c r="T15" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V15" s="6"/>
-      <c r="W15" s="19">
+      <c r="U15" s="6">
+        <v>0</v>
+      </c>
+      <c r="V15" s="18">
         <f t="shared" si="3"/>
-        <v>35.625</v>
-      </c>
-      <c r="X15" s="19">
-        <f t="shared" si="4"/>
-        <v>42.375</v>
-      </c>
-      <c r="AA15" s="19"/>
-      <c r="AB15" s="19"/>
-      <c r="AC15" s="19"/>
-    </row>
-    <row r="16" spans="1:29" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
+        <v>23.75</v>
+      </c>
+      <c r="W15" s="18">
+        <f>ROUND(D15,2)*0.4+V15*0.6</f>
+        <v>35.25</v>
+      </c>
+      <c r="Z15" s="18"/>
+      <c r="AA15" s="18"/>
+      <c r="AB15" s="18"/>
+    </row>
+    <row r="16" spans="1:28" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="17"/>
       <c r="B16" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="18">
         <v>28</v>
       </c>
-      <c r="E16" s="36">
+      <c r="E16" s="30">
         <v>2</v>
       </c>
       <c r="F16" s="7">
@@ -4276,11 +4262,13 @@
       <c r="J16" s="7">
         <v>2</v>
       </c>
-      <c r="K16" s="7"/>
-      <c r="L16" s="44"/>
-      <c r="M16" s="14">
+      <c r="K16" s="7">
+        <v>0</v>
+      </c>
+      <c r="L16" s="37"/>
+      <c r="M16" s="13">
         <f t="shared" si="0"/>
-        <v>63.333333333333336</v>
+        <v>54.285714285714285</v>
       </c>
       <c r="N16" s="6">
         <v>0</v>
@@ -4291,42 +4279,47 @@
       <c r="P16" s="6">
         <v>40</v>
       </c>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="14">
+      <c r="Q16" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="14">
+        <v>13.333333333333334</v>
+      </c>
+      <c r="R16" s="6">
+        <v>0</v>
+      </c>
+      <c r="S16" s="6">
+        <v>0</v>
+      </c>
+      <c r="T16" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V16" s="6"/>
-      <c r="W16" s="19">
+      <c r="U16" s="6">
+        <v>26</v>
+      </c>
+      <c r="V16" s="18">
         <f t="shared" si="3"/>
-        <v>28.5</v>
-      </c>
-      <c r="X16" s="19">
-        <f t="shared" si="4"/>
-        <v>28.299999999999997</v>
-      </c>
-      <c r="AA16" s="19"/>
-      <c r="AB16" s="19"/>
-      <c r="AC16" s="19"/>
-    </row>
-    <row r="17" spans="1:29" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
+        <v>37.200000000000003</v>
+      </c>
+      <c r="W16" s="18">
+        <f>ROUND(D16,2)*0.4+V16*0.6</f>
+        <v>33.520000000000003</v>
+      </c>
+      <c r="Z16" s="18"/>
+      <c r="AA16" s="18"/>
+      <c r="AB16" s="18"/>
+    </row>
+    <row r="17" spans="1:28" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="17"/>
       <c r="B17" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17" s="18">
         <v>27.4</v>
       </c>
-      <c r="E17" s="36">
+      <c r="E17" s="30">
         <v>0</v>
       </c>
       <c r="F17" s="7">
@@ -4344,9 +4337,11 @@
       <c r="J17" s="7">
         <v>0</v>
       </c>
-      <c r="K17" s="7"/>
-      <c r="L17" s="44"/>
-      <c r="M17" s="14">
+      <c r="K17" s="7">
+        <v>0</v>
+      </c>
+      <c r="L17" s="37"/>
+      <c r="M17" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4359,42 +4354,47 @@
       <c r="P17" s="6">
         <v>0</v>
       </c>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="14">
+      <c r="Q17" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
-      <c r="U17" s="14">
+      <c r="R17" s="6">
+        <v>0</v>
+      </c>
+      <c r="S17" s="6">
+        <v>0</v>
+      </c>
+      <c r="T17" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V17" s="6"/>
-      <c r="W17" s="19">
+      <c r="U17" s="6">
+        <v>0</v>
+      </c>
+      <c r="V17" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X17" s="19">
-        <f t="shared" si="4"/>
+      <c r="W17" s="18">
+        <f>ROUND(D17,2)*0.4+V17*0.6</f>
         <v>10.96</v>
       </c>
-      <c r="AA17" s="19"/>
-      <c r="AB17" s="19"/>
-      <c r="AC17" s="19"/>
-    </row>
-    <row r="18" spans="1:29" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
+      <c r="Z17" s="18"/>
+      <c r="AA17" s="18"/>
+      <c r="AB17" s="18"/>
+    </row>
+    <row r="18" spans="1:28" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="17"/>
       <c r="B18" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D18" s="18">
         <v>28</v>
       </c>
-      <c r="E18" s="36">
+      <c r="E18" s="30">
         <v>0</v>
       </c>
       <c r="F18" s="7">
@@ -4412,9 +4412,11 @@
       <c r="J18" s="7">
         <v>0</v>
       </c>
-      <c r="K18" s="7"/>
-      <c r="L18" s="44"/>
-      <c r="M18" s="14">
+      <c r="K18" s="7">
+        <v>0</v>
+      </c>
+      <c r="L18" s="37"/>
+      <c r="M18" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4427,42 +4429,47 @@
       <c r="P18" s="6">
         <v>0</v>
       </c>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="14">
+      <c r="Q18" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
-      <c r="U18" s="14">
+      <c r="R18" s="6">
+        <v>0</v>
+      </c>
+      <c r="S18" s="6">
+        <v>0</v>
+      </c>
+      <c r="T18" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V18" s="6"/>
-      <c r="W18" s="19">
+      <c r="U18" s="6">
+        <v>0</v>
+      </c>
+      <c r="V18" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X18" s="19">
-        <f t="shared" si="4"/>
+      <c r="W18" s="18">
+        <f>ROUND(D18,2)*0.4+V18*0.6</f>
         <v>11.200000000000001</v>
       </c>
-      <c r="AA18" s="19"/>
-      <c r="AB18" s="19"/>
-      <c r="AC18" s="19"/>
-    </row>
-    <row r="19" spans="1:29" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
+      <c r="Z18" s="18"/>
+      <c r="AA18" s="18"/>
+      <c r="AB18" s="18"/>
+    </row>
+    <row r="19" spans="1:28" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="17"/>
       <c r="B19" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="19">
+      <c r="D19" s="18">
         <v>33.5</v>
       </c>
-      <c r="E19" s="36">
+      <c r="E19" s="30">
         <v>0</v>
       </c>
       <c r="F19" s="7">
@@ -4480,11 +4487,13 @@
       <c r="J19" s="7">
         <v>0</v>
       </c>
-      <c r="K19" s="7"/>
-      <c r="L19" s="44"/>
-      <c r="M19" s="14">
+      <c r="K19" s="7">
+        <v>0</v>
+      </c>
+      <c r="L19" s="37"/>
+      <c r="M19" s="13">
         <f t="shared" si="0"/>
-        <v>16.666666666666668</v>
+        <v>14.285714285714286</v>
       </c>
       <c r="N19" s="6">
         <v>0</v>
@@ -4495,42 +4504,47 @@
       <c r="P19" s="6">
         <v>0</v>
       </c>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="14">
+      <c r="Q19" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
-      <c r="U19" s="14">
+        <v>13.333333333333334</v>
+      </c>
+      <c r="R19" s="6">
+        <v>0</v>
+      </c>
+      <c r="S19" s="6">
+        <v>0</v>
+      </c>
+      <c r="T19" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V19" s="6"/>
-      <c r="W19" s="19">
+      <c r="U19" s="6">
+        <v>0</v>
+      </c>
+      <c r="V19" s="18">
         <f t="shared" si="3"/>
-        <v>7.5000000000000009</v>
-      </c>
-      <c r="X19" s="19">
-        <f t="shared" si="4"/>
-        <v>17.899999999999999</v>
-      </c>
-      <c r="AA19" s="19"/>
-      <c r="AB19" s="19"/>
-      <c r="AC19" s="19"/>
-    </row>
-    <row r="20" spans="1:29" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
+        <v>5</v>
+      </c>
+      <c r="W19" s="18">
+        <f>ROUND(D19,2)*0.4+V19*0.6</f>
+        <v>16.399999999999999</v>
+      </c>
+      <c r="Z19" s="18"/>
+      <c r="AA19" s="18"/>
+      <c r="AB19" s="18"/>
+    </row>
+    <row r="20" spans="1:28" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="17"/>
       <c r="B20" s="3" t="s">
         <v>60</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="19">
+      <c r="D20" s="18">
         <v>64.3</v>
       </c>
-      <c r="E20" s="36">
+      <c r="E20" s="30">
         <v>0</v>
       </c>
       <c r="F20" s="7">
@@ -4548,9 +4562,11 @@
       <c r="J20" s="7">
         <v>0</v>
       </c>
-      <c r="K20" s="7"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="14">
+      <c r="K20" s="7">
+        <v>0</v>
+      </c>
+      <c r="L20" s="37"/>
+      <c r="M20" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4563,562 +4579,527 @@
       <c r="P20" s="6">
         <v>0</v>
       </c>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="14">
+      <c r="Q20" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
-      <c r="U20" s="14">
+      <c r="R20" s="6">
+        <v>0</v>
+      </c>
+      <c r="S20" s="6">
+        <v>0</v>
+      </c>
+      <c r="T20" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V20" s="6"/>
-      <c r="W20" s="19">
+      <c r="U20" s="6">
+        <v>0</v>
+      </c>
+      <c r="V20" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X20" s="19">
-        <f t="shared" si="4"/>
+      <c r="W20" s="18">
+        <f>ROUND(D20,2)*0.4+V20*0.6</f>
         <v>25.72</v>
       </c>
-      <c r="AA20" s="19"/>
-      <c r="AB20" s="19"/>
-      <c r="AC20" s="19"/>
-    </row>
-    <row r="21" spans="1:29" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
+      <c r="Z20" s="18"/>
+      <c r="AA20" s="18"/>
+      <c r="AB20" s="18"/>
+    </row>
+    <row r="21" spans="1:28" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="17"/>
       <c r="B21" s="3"/>
       <c r="C21" s="11"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="36"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="30"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
-      <c r="L21" s="44"/>
-      <c r="M21" s="14">
+      <c r="L21" s="37"/>
+      <c r="M21" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="14">
+      <c r="Q21" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="R21" s="6"/>
       <c r="S21" s="6"/>
-      <c r="T21" s="6"/>
-      <c r="U21" s="14">
+      <c r="T21" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V21" s="6"/>
-      <c r="W21" s="19">
+      <c r="U21" s="6"/>
+      <c r="V21" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X21" s="19">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AA21" s="19"/>
-      <c r="AB21" s="19"/>
-      <c r="AC21" s="19"/>
-    </row>
-    <row r="22" spans="1:29" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="18"/>
-      <c r="B22" s="52"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="36"/>
+      <c r="W21" s="18">
+        <f>ROUND(D21,2)*0.4+V21*0.6</f>
+        <v>0</v>
+      </c>
+      <c r="Z21" s="18"/>
+      <c r="AA21" s="18"/>
+      <c r="AB21" s="18"/>
+    </row>
+    <row r="22" spans="1:28" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="17"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="30"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
-      <c r="L22" s="44"/>
-      <c r="M22" s="14">
+      <c r="L22" s="37"/>
+      <c r="M22" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="14">
+      <c r="Q22" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="R22" s="6"/>
       <c r="S22" s="6"/>
-      <c r="T22" s="6"/>
-      <c r="U22" s="14">
+      <c r="T22" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V22" s="6"/>
-      <c r="W22" s="19">
+      <c r="U22" s="6"/>
+      <c r="V22" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X22" s="19">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AA22" s="19"/>
-      <c r="AB22" s="19"/>
-      <c r="AC22" s="19"/>
-    </row>
-    <row r="23" spans="1:29" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="18"/>
-      <c r="B23" s="52"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="36"/>
+      <c r="W22" s="18">
+        <f>ROUND(D22,2)*0.4+V22*0.6</f>
+        <v>0</v>
+      </c>
+      <c r="Z22" s="18"/>
+      <c r="AA22" s="18"/>
+      <c r="AB22" s="18"/>
+    </row>
+    <row r="23" spans="1:28" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="17"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="30"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
-      <c r="L23" s="44"/>
-      <c r="M23" s="14">
+      <c r="L23" s="37"/>
+      <c r="M23" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N23" s="6"/>
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="14">
+      <c r="Q23" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="R23" s="6"/>
       <c r="S23" s="6"/>
-      <c r="T23" s="6"/>
-      <c r="U23" s="14">
+      <c r="T23" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V23" s="6"/>
-      <c r="W23" s="19">
+      <c r="U23" s="6"/>
+      <c r="V23" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X23" s="19">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AA23" s="19"/>
-      <c r="AB23" s="19"/>
-      <c r="AC23" s="19"/>
-    </row>
-    <row r="24" spans="1:29" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="18"/>
-      <c r="B24" s="52"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="36"/>
+      <c r="W23" s="18">
+        <f>ROUND(D23,2)*0.4+V23*0.6</f>
+        <v>0</v>
+      </c>
+      <c r="Z23" s="18"/>
+      <c r="AA23" s="18"/>
+      <c r="AB23" s="18"/>
+    </row>
+    <row r="24" spans="1:28" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="17"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="30"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
-      <c r="L24" s="44"/>
-      <c r="M24" s="14">
+      <c r="L24" s="37"/>
+      <c r="M24" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N24" s="6"/>
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="14">
+      <c r="Q24" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="R24" s="6"/>
       <c r="S24" s="6"/>
-      <c r="T24" s="6"/>
-      <c r="U24" s="14">
+      <c r="T24" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V24" s="6"/>
-      <c r="W24" s="19">
+      <c r="U24" s="6"/>
+      <c r="V24" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X24" s="19">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AA24" s="19"/>
-      <c r="AB24" s="19"/>
-      <c r="AC24" s="19"/>
-    </row>
-    <row r="25" spans="1:29" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="18"/>
-      <c r="B25" s="52"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="64"/>
-      <c r="E25" s="36"/>
+      <c r="W24" s="18">
+        <f>ROUND(D24,2)*0.4+V24*0.6</f>
+        <v>0</v>
+      </c>
+      <c r="Z24" s="18"/>
+      <c r="AA24" s="18"/>
+      <c r="AB24" s="18"/>
+    </row>
+    <row r="25" spans="1:28" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="17"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="30"/>
       <c r="F25" s="12"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
-      <c r="L25" s="44"/>
-      <c r="M25" s="14">
+      <c r="L25" s="37"/>
+      <c r="M25" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N25" s="6"/>
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="14">
+      <c r="Q25" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="R25" s="6"/>
       <c r="S25" s="6"/>
-      <c r="T25" s="6"/>
-      <c r="U25" s="14">
+      <c r="T25" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V25" s="6"/>
-      <c r="W25" s="19">
+      <c r="U25" s="6"/>
+      <c r="V25" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X25" s="19">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AA25" s="19"/>
-      <c r="AB25" s="19"/>
-      <c r="AC25" s="19"/>
-    </row>
-    <row r="26" spans="1:29" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="18"/>
-      <c r="B26" s="52"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="64"/>
-      <c r="E26" s="36"/>
+      <c r="W25" s="18">
+        <f>ROUND(D25,2)*0.4+V25*0.6</f>
+        <v>0</v>
+      </c>
+      <c r="Z25" s="18"/>
+      <c r="AA25" s="18"/>
+      <c r="AB25" s="18"/>
+    </row>
+    <row r="26" spans="1:28" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="17"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="30"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
-      <c r="L26" s="44"/>
-      <c r="M26" s="14">
+      <c r="L26" s="37"/>
+      <c r="M26" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N26" s="6"/>
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="14">
+      <c r="Q26" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="R26" s="6"/>
       <c r="S26" s="6"/>
-      <c r="T26" s="6"/>
-      <c r="U26" s="14">
+      <c r="T26" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V26" s="6"/>
-      <c r="W26" s="19">
+      <c r="U26" s="6"/>
+      <c r="V26" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X26" s="19">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AA26" s="19"/>
-      <c r="AB26" s="19"/>
-      <c r="AC26" s="19"/>
-    </row>
-    <row r="27" spans="1:29" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="18"/>
-      <c r="B27" s="52"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="64"/>
-      <c r="E27" s="36"/>
+      <c r="W26" s="18">
+        <f>ROUND(D26,2)*0.4+V26*0.6</f>
+        <v>0</v>
+      </c>
+      <c r="Z26" s="18"/>
+      <c r="AA26" s="18"/>
+      <c r="AB26" s="18"/>
+    </row>
+    <row r="27" spans="1:28" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="17"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="30"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
-      <c r="L27" s="44"/>
-      <c r="M27" s="14">
+      <c r="L27" s="37"/>
+      <c r="M27" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N27" s="6"/>
       <c r="O27" s="6"/>
       <c r="P27" s="6"/>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="14">
+      <c r="Q27" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="R27" s="6"/>
       <c r="S27" s="6"/>
-      <c r="T27" s="6"/>
-      <c r="U27" s="14">
+      <c r="T27" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V27" s="6"/>
-      <c r="W27" s="19">
+      <c r="U27" s="6"/>
+      <c r="V27" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X27" s="19">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AA27" s="19"/>
-      <c r="AB27" s="19"/>
-      <c r="AC27" s="19"/>
-    </row>
-    <row r="28" spans="1:29" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="18"/>
-      <c r="B28" s="52"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="36"/>
+      <c r="W27" s="18">
+        <f>ROUND(D27,2)*0.4+V27*0.6</f>
+        <v>0</v>
+      </c>
+      <c r="Z27" s="18"/>
+      <c r="AA27" s="18"/>
+      <c r="AB27" s="18"/>
+    </row>
+    <row r="28" spans="1:28" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="17"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="30"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
-      <c r="L28" s="44"/>
-      <c r="M28" s="14">
+      <c r="L28" s="37"/>
+      <c r="M28" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N28" s="6"/>
       <c r="O28" s="6"/>
       <c r="P28" s="6"/>
-      <c r="Q28" s="6"/>
-      <c r="R28" s="14">
+      <c r="Q28" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="R28" s="6"/>
       <c r="S28" s="6"/>
-      <c r="T28" s="6"/>
-      <c r="U28" s="14">
+      <c r="T28" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V28" s="6"/>
-      <c r="W28" s="19">
+      <c r="U28" s="6"/>
+      <c r="V28" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X28" s="19">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AA28" s="19"/>
-      <c r="AB28" s="19"/>
-      <c r="AC28" s="19"/>
-    </row>
-    <row r="29" spans="1:29" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="18"/>
-      <c r="B29" s="52"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="36"/>
+      <c r="W28" s="18">
+        <f>ROUND(D28,2)*0.4+V28*0.6</f>
+        <v>0</v>
+      </c>
+      <c r="Z28" s="18"/>
+      <c r="AA28" s="18"/>
+      <c r="AB28" s="18"/>
+    </row>
+    <row r="29" spans="1:28" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="17"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="30"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
-      <c r="L29" s="44"/>
-      <c r="M29" s="14">
+      <c r="L29" s="37"/>
+      <c r="M29" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N29" s="6"/>
       <c r="O29" s="6"/>
       <c r="P29" s="6"/>
-      <c r="Q29" s="6"/>
-      <c r="R29" s="14">
+      <c r="Q29" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="R29" s="6"/>
       <c r="S29" s="6"/>
-      <c r="T29" s="6"/>
-      <c r="U29" s="14">
+      <c r="T29" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V29" s="6"/>
-      <c r="W29" s="19">
+      <c r="U29" s="6"/>
+      <c r="V29" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X29" s="19">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AA29" s="19"/>
-      <c r="AB29" s="19"/>
-      <c r="AC29" s="19"/>
-    </row>
-    <row r="30" spans="1:29" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="18"/>
-      <c r="B30" s="52"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="64"/>
-      <c r="E30" s="36"/>
+      <c r="W29" s="18">
+        <f>ROUND(D29,2)*0.4+V29*0.6</f>
+        <v>0</v>
+      </c>
+      <c r="Z29" s="18"/>
+      <c r="AA29" s="18"/>
+      <c r="AB29" s="18"/>
+    </row>
+    <row r="30" spans="1:28" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="17"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="30"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
-      <c r="L30" s="44"/>
-      <c r="M30" s="14">
+      <c r="L30" s="37"/>
+      <c r="M30" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N30" s="6"/>
       <c r="O30" s="6"/>
       <c r="P30" s="6"/>
-      <c r="Q30" s="6"/>
-      <c r="R30" s="14">
+      <c r="Q30" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="R30" s="6"/>
       <c r="S30" s="6"/>
-      <c r="T30" s="6"/>
-      <c r="U30" s="14">
+      <c r="T30" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V30" s="6"/>
-      <c r="W30" s="19">
+      <c r="U30" s="6"/>
+      <c r="V30" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X30" s="19">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AA30" s="19"/>
-      <c r="AB30" s="19"/>
-      <c r="AC30" s="19"/>
-    </row>
-    <row r="31" spans="1:29" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="18"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="64"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="68"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="6"/>
-      <c r="R31" s="14"/>
-      <c r="S31" s="6"/>
-      <c r="T31" s="6"/>
-      <c r="U31" s="14"/>
-      <c r="V31" s="6"/>
-      <c r="W31" s="19"/>
-      <c r="X31" s="19"/>
-      <c r="AA31" s="19"/>
-      <c r="AB31" s="19"/>
-      <c r="AC31" s="19"/>
-    </row>
-    <row r="32" spans="1:29" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="29"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="64"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="68"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="6"/>
-      <c r="O32" s="6"/>
-      <c r="P32" s="6"/>
-      <c r="Q32" s="6"/>
-      <c r="R32" s="14"/>
-      <c r="S32" s="6"/>
-      <c r="T32" s="6"/>
-      <c r="U32" s="14"/>
-      <c r="V32" s="6"/>
-      <c r="W32" s="19"/>
-      <c r="X32" s="19"/>
-      <c r="AA32" s="19"/>
-      <c r="AB32" s="19"/>
-      <c r="AC32" s="19"/>
-    </row>
-    <row r="33" spans="1:29" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="20"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="64"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="68"/>
-      <c r="M33" s="14"/>
-      <c r="N33" s="6"/>
-      <c r="O33" s="6"/>
-      <c r="P33" s="6"/>
-      <c r="Q33" s="6"/>
-      <c r="R33" s="14"/>
-      <c r="S33" s="6"/>
-      <c r="T33" s="6"/>
-      <c r="U33" s="14"/>
-      <c r="V33" s="6"/>
-      <c r="W33" s="19"/>
-      <c r="X33" s="19"/>
-      <c r="AA33" s="19"/>
-      <c r="AB33" s="19"/>
-      <c r="AC33" s="19"/>
-    </row>
-    <row r="34" spans="1:29" s="9" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W30" s="18">
+        <f>ROUND(D30,2)*0.4+V30*0.6</f>
+        <v>0</v>
+      </c>
+      <c r="Z30" s="18"/>
+      <c r="AA30" s="18"/>
+      <c r="AB30" s="18"/>
+    </row>
+    <row r="31" spans="1:28" s="9" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="X31" s="64"/>
+    </row>
+    <row r="32" spans="1:28" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="9"/>
+    </row>
+    <row r="33" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="9"/>
+      <c r="T33" s="9"/>
+    </row>
+    <row r="34" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
-      <c r="D34" s="65"/>
+      <c r="D34" s="58"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
@@ -5126,14 +5107,20 @@
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="Y34" s="72"/>
-    </row>
-    <row r="35" spans="1:29" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="9"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="9"/>
+      <c r="T34" s="9"/>
+    </row>
+    <row r="35" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
-      <c r="D35" s="65"/>
+      <c r="D35" s="58"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
@@ -5149,13 +5136,12 @@
       <c r="R35" s="9"/>
       <c r="S35" s="9"/>
       <c r="T35" s="9"/>
-      <c r="U35" s="9"/>
-    </row>
-    <row r="36" spans="1:29" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
-      <c r="D36" s="65"/>
+      <c r="D36" s="58"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
@@ -5171,13 +5157,12 @@
       <c r="R36" s="9"/>
       <c r="S36" s="9"/>
       <c r="T36" s="9"/>
-      <c r="U36" s="9"/>
-    </row>
-    <row r="37" spans="1:29" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
-      <c r="D37" s="65"/>
+      <c r="D37" s="58"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
@@ -5193,13 +5178,12 @@
       <c r="R37" s="9"/>
       <c r="S37" s="9"/>
       <c r="T37" s="9"/>
-      <c r="U37" s="9"/>
-    </row>
-    <row r="38" spans="1:29" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
-      <c r="D38" s="65"/>
+      <c r="D38" s="58"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
@@ -5215,13 +5199,12 @@
       <c r="R38" s="9"/>
       <c r="S38" s="9"/>
       <c r="T38" s="9"/>
-      <c r="U38" s="9"/>
-    </row>
-    <row r="39" spans="1:29" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
-      <c r="D39" s="65"/>
+      <c r="D39" s="58"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
@@ -5237,13 +5220,12 @@
       <c r="R39" s="9"/>
       <c r="S39" s="9"/>
       <c r="T39" s="9"/>
-      <c r="U39" s="9"/>
-    </row>
-    <row r="40" spans="1:29" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
-      <c r="D40" s="65"/>
+      <c r="D40" s="58"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
@@ -5259,13 +5241,12 @@
       <c r="R40" s="9"/>
       <c r="S40" s="9"/>
       <c r="T40" s="9"/>
-      <c r="U40" s="9"/>
-    </row>
-    <row r="41" spans="1:29" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
-      <c r="D41" s="65"/>
+      <c r="D41" s="58"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
@@ -5281,13 +5262,12 @@
       <c r="R41" s="9"/>
       <c r="S41" s="9"/>
       <c r="T41" s="9"/>
-      <c r="U41" s="9"/>
-    </row>
-    <row r="42" spans="1:29" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
-      <c r="D42" s="65"/>
+      <c r="D42" s="58"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
@@ -5303,13 +5283,12 @@
       <c r="R42" s="9"/>
       <c r="S42" s="9"/>
       <c r="T42" s="9"/>
-      <c r="U42" s="9"/>
-    </row>
-    <row r="43" spans="1:29" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
-      <c r="D43" s="65"/>
+      <c r="D43" s="58"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
@@ -5325,13 +5304,12 @@
       <c r="R43" s="9"/>
       <c r="S43" s="9"/>
       <c r="T43" s="9"/>
-      <c r="U43" s="9"/>
-    </row>
-    <row r="44" spans="1:29" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
-      <c r="D44" s="65"/>
+      <c r="D44" s="58"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
@@ -5347,13 +5325,12 @@
       <c r="R44" s="9"/>
       <c r="S44" s="9"/>
       <c r="T44" s="9"/>
-      <c r="U44" s="9"/>
-    </row>
-    <row r="45" spans="1:29" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
-      <c r="D45" s="65"/>
+      <c r="D45" s="58"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
@@ -5369,13 +5346,12 @@
       <c r="R45" s="9"/>
       <c r="S45" s="9"/>
       <c r="T45" s="9"/>
-      <c r="U45" s="9"/>
-    </row>
-    <row r="46" spans="1:29" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
-      <c r="D46" s="65"/>
+      <c r="D46" s="58"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
@@ -5391,13 +5367,12 @@
       <c r="R46" s="9"/>
       <c r="S46" s="9"/>
       <c r="T46" s="9"/>
-      <c r="U46" s="9"/>
-    </row>
-    <row r="47" spans="1:29" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
-      <c r="D47" s="65"/>
+      <c r="D47" s="58"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
@@ -5413,13 +5388,12 @@
       <c r="R47" s="9"/>
       <c r="S47" s="9"/>
       <c r="T47" s="9"/>
-      <c r="U47" s="9"/>
-    </row>
-    <row r="48" spans="1:29" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
-      <c r="D48" s="65"/>
+      <c r="D48" s="58"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
@@ -5435,13 +5409,12 @@
       <c r="R48" s="9"/>
       <c r="S48" s="9"/>
       <c r="T48" s="9"/>
-      <c r="U48" s="9"/>
-    </row>
-    <row r="49" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
-      <c r="D49" s="65"/>
+      <c r="D49" s="58"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
@@ -5457,13 +5430,12 @@
       <c r="R49" s="9"/>
       <c r="S49" s="9"/>
       <c r="T49" s="9"/>
-      <c r="U49" s="9"/>
-    </row>
-    <row r="50" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
-      <c r="D50" s="65"/>
+      <c r="D50" s="58"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
@@ -5479,13 +5451,12 @@
       <c r="R50" s="9"/>
       <c r="S50" s="9"/>
       <c r="T50" s="9"/>
-      <c r="U50" s="9"/>
-    </row>
-    <row r="51" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
-      <c r="D51" s="65"/>
+      <c r="D51" s="58"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
@@ -5501,13 +5472,12 @@
       <c r="R51" s="9"/>
       <c r="S51" s="9"/>
       <c r="T51" s="9"/>
-      <c r="U51" s="9"/>
-    </row>
-    <row r="52" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
-      <c r="D52" s="65"/>
+      <c r="D52" s="58"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
@@ -5523,13 +5493,12 @@
       <c r="R52" s="9"/>
       <c r="S52" s="9"/>
       <c r="T52" s="9"/>
-      <c r="U52" s="9"/>
-    </row>
-    <row r="53" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
-      <c r="D53" s="65"/>
+      <c r="D53" s="58"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
@@ -5545,13 +5514,12 @@
       <c r="R53" s="9"/>
       <c r="S53" s="9"/>
       <c r="T53" s="9"/>
-      <c r="U53" s="9"/>
-    </row>
-    <row r="54" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
-      <c r="D54" s="65"/>
+      <c r="D54" s="58"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
@@ -5567,13 +5535,12 @@
       <c r="R54" s="9"/>
       <c r="S54" s="9"/>
       <c r="T54" s="9"/>
-      <c r="U54" s="9"/>
-    </row>
-    <row r="55" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
-      <c r="D55" s="65"/>
+      <c r="D55" s="58"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
@@ -5589,13 +5556,12 @@
       <c r="R55" s="9"/>
       <c r="S55" s="9"/>
       <c r="T55" s="9"/>
-      <c r="U55" s="9"/>
-    </row>
-    <row r="56" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
-      <c r="D56" s="65"/>
+      <c r="D56" s="58"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
@@ -5611,13 +5577,12 @@
       <c r="R56" s="9"/>
       <c r="S56" s="9"/>
       <c r="T56" s="9"/>
-      <c r="U56" s="9"/>
-    </row>
-    <row r="57" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
-      <c r="D57" s="65"/>
+      <c r="D57" s="58"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
@@ -5633,13 +5598,12 @@
       <c r="R57" s="9"/>
       <c r="S57" s="9"/>
       <c r="T57" s="9"/>
-      <c r="U57" s="9"/>
-    </row>
-    <row r="58" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
-      <c r="D58" s="65"/>
+      <c r="D58" s="58"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
@@ -5655,13 +5619,12 @@
       <c r="R58" s="9"/>
       <c r="S58" s="9"/>
       <c r="T58" s="9"/>
-      <c r="U58" s="9"/>
-    </row>
-    <row r="59" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
-      <c r="D59" s="65"/>
+      <c r="D59" s="58"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
@@ -5677,13 +5640,12 @@
       <c r="R59" s="9"/>
       <c r="S59" s="9"/>
       <c r="T59" s="9"/>
-      <c r="U59" s="9"/>
-    </row>
-    <row r="60" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
-      <c r="D60" s="65"/>
+      <c r="D60" s="58"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
@@ -5699,13 +5661,12 @@
       <c r="R60" s="9"/>
       <c r="S60" s="9"/>
       <c r="T60" s="9"/>
-      <c r="U60" s="9"/>
-    </row>
-    <row r="61" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
-      <c r="D61" s="65"/>
+      <c r="D61" s="58"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
@@ -5721,13 +5682,12 @@
       <c r="R61" s="9"/>
       <c r="S61" s="9"/>
       <c r="T61" s="9"/>
-      <c r="U61" s="9"/>
-    </row>
-    <row r="62" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
-      <c r="D62" s="65"/>
+      <c r="D62" s="58"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
@@ -5743,13 +5703,12 @@
       <c r="R62" s="9"/>
       <c r="S62" s="9"/>
       <c r="T62" s="9"/>
-      <c r="U62" s="9"/>
-    </row>
-    <row r="63" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
-      <c r="D63" s="65"/>
+      <c r="D63" s="58"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
@@ -5765,13 +5724,12 @@
       <c r="R63" s="9"/>
       <c r="S63" s="9"/>
       <c r="T63" s="9"/>
-      <c r="U63" s="9"/>
-    </row>
-    <row r="64" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
-      <c r="D64" s="65"/>
+      <c r="D64" s="58"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
@@ -5787,13 +5745,12 @@
       <c r="R64" s="9"/>
       <c r="S64" s="9"/>
       <c r="T64" s="9"/>
-      <c r="U64" s="9"/>
-    </row>
-    <row r="65" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
-      <c r="D65" s="65"/>
+      <c r="D65" s="58"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
@@ -5809,13 +5766,12 @@
       <c r="R65" s="9"/>
       <c r="S65" s="9"/>
       <c r="T65" s="9"/>
-      <c r="U65" s="9"/>
-    </row>
-    <row r="66" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
-      <c r="D66" s="65"/>
+      <c r="D66" s="58"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
@@ -5831,13 +5787,12 @@
       <c r="R66" s="9"/>
       <c r="S66" s="9"/>
       <c r="T66" s="9"/>
-      <c r="U66" s="9"/>
-    </row>
-    <row r="67" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
-      <c r="D67" s="65"/>
+      <c r="D67" s="58"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
@@ -5853,13 +5808,12 @@
       <c r="R67" s="9"/>
       <c r="S67" s="9"/>
       <c r="T67" s="9"/>
-      <c r="U67" s="9"/>
-    </row>
-    <row r="68" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
-      <c r="D68" s="65"/>
+      <c r="D68" s="58"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
@@ -5875,13 +5829,12 @@
       <c r="R68" s="9"/>
       <c r="S68" s="9"/>
       <c r="T68" s="9"/>
-      <c r="U68" s="9"/>
-    </row>
-    <row r="69" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
-      <c r="D69" s="65"/>
+      <c r="D69" s="58"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
@@ -5897,13 +5850,12 @@
       <c r="R69" s="9"/>
       <c r="S69" s="9"/>
       <c r="T69" s="9"/>
-      <c r="U69" s="9"/>
-    </row>
-    <row r="70" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
-      <c r="D70" s="65"/>
+      <c r="D70" s="58"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
@@ -5919,13 +5871,12 @@
       <c r="R70" s="9"/>
       <c r="S70" s="9"/>
       <c r="T70" s="9"/>
-      <c r="U70" s="9"/>
-    </row>
-    <row r="71" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
-      <c r="D71" s="65"/>
+      <c r="D71" s="58"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
@@ -5941,13 +5892,12 @@
       <c r="R71" s="9"/>
       <c r="S71" s="9"/>
       <c r="T71" s="9"/>
-      <c r="U71" s="9"/>
-    </row>
-    <row r="72" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
-      <c r="D72" s="65"/>
+      <c r="D72" s="58"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
@@ -5963,13 +5913,12 @@
       <c r="R72" s="9"/>
       <c r="S72" s="9"/>
       <c r="T72" s="9"/>
-      <c r="U72" s="9"/>
-    </row>
-    <row r="73" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
-      <c r="D73" s="65"/>
+      <c r="D73" s="58"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
@@ -5985,13 +5934,12 @@
       <c r="R73" s="9"/>
       <c r="S73" s="9"/>
       <c r="T73" s="9"/>
-      <c r="U73" s="9"/>
-    </row>
-    <row r="74" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
-      <c r="D74" s="65"/>
+      <c r="D74" s="58"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
@@ -6007,13 +5955,12 @@
       <c r="R74" s="9"/>
       <c r="S74" s="9"/>
       <c r="T74" s="9"/>
-      <c r="U74" s="9"/>
-    </row>
-    <row r="75" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
-      <c r="D75" s="65"/>
+      <c r="D75" s="58"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
@@ -6029,13 +5976,12 @@
       <c r="R75" s="9"/>
       <c r="S75" s="9"/>
       <c r="T75" s="9"/>
-      <c r="U75" s="9"/>
-    </row>
-    <row r="76" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
-      <c r="D76" s="65"/>
+      <c r="D76" s="58"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
@@ -6051,13 +5997,12 @@
       <c r="R76" s="9"/>
       <c r="S76" s="9"/>
       <c r="T76" s="9"/>
-      <c r="U76" s="9"/>
-    </row>
-    <row r="77" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
-      <c r="D77" s="65"/>
+      <c r="D77" s="58"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
@@ -6073,13 +6018,12 @@
       <c r="R77" s="9"/>
       <c r="S77" s="9"/>
       <c r="T77" s="9"/>
-      <c r="U77" s="9"/>
-    </row>
-    <row r="78" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
-      <c r="D78" s="65"/>
+      <c r="D78" s="58"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
@@ -6095,198 +6039,61 @@
       <c r="R78" s="9"/>
       <c r="S78" s="9"/>
       <c r="T78" s="9"/>
-      <c r="U78" s="9"/>
-    </row>
-    <row r="79" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="8"/>
-      <c r="B79" s="8"/>
-      <c r="C79" s="8"/>
-      <c r="D79" s="65"/>
-      <c r="E79" s="8"/>
-      <c r="F79" s="8"/>
-      <c r="G79" s="8"/>
-      <c r="H79" s="8"/>
-      <c r="I79" s="8"/>
-      <c r="J79" s="8"/>
-      <c r="K79" s="8"/>
-      <c r="M79" s="9"/>
-      <c r="N79" s="9"/>
-      <c r="O79" s="9"/>
-      <c r="P79" s="9"/>
-      <c r="Q79" s="9"/>
-      <c r="R79" s="9"/>
-      <c r="S79" s="9"/>
-      <c r="T79" s="9"/>
-      <c r="U79" s="9"/>
-    </row>
-    <row r="80" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="8"/>
-      <c r="B80" s="8"/>
-      <c r="C80" s="8"/>
-      <c r="D80" s="65"/>
-      <c r="E80" s="8"/>
-      <c r="F80" s="8"/>
-      <c r="G80" s="8"/>
-      <c r="H80" s="8"/>
-      <c r="I80" s="8"/>
-      <c r="J80" s="8"/>
-      <c r="K80" s="8"/>
-      <c r="M80" s="9"/>
-      <c r="N80" s="9"/>
-      <c r="O80" s="9"/>
-      <c r="P80" s="9"/>
-      <c r="Q80" s="9"/>
-      <c r="R80" s="9"/>
-      <c r="S80" s="9"/>
-      <c r="T80" s="9"/>
-      <c r="U80" s="9"/>
-    </row>
-    <row r="81" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="8"/>
-      <c r="B81" s="8"/>
-      <c r="C81" s="8"/>
-      <c r="D81" s="65"/>
-      <c r="E81" s="8"/>
-      <c r="F81" s="8"/>
-      <c r="G81" s="8"/>
-      <c r="H81" s="8"/>
-      <c r="I81" s="8"/>
-      <c r="J81" s="8"/>
-      <c r="K81" s="8"/>
-      <c r="M81" s="9"/>
-      <c r="N81" s="9"/>
-      <c r="O81" s="9"/>
-      <c r="P81" s="9"/>
-      <c r="Q81" s="9"/>
-      <c r="R81" s="9"/>
-      <c r="S81" s="9"/>
-      <c r="T81" s="9"/>
-      <c r="U81" s="9"/>
     </row>
   </sheetData>
   <sortState ref="A1:X30">
-    <sortCondition descending="1" ref="X12"/>
+    <sortCondition descending="1" ref="W12"/>
   </sortState>
   <mergeCells count="6">
     <mergeCell ref="E1:M1"/>
+    <mergeCell ref="Z1:Z2"/>
     <mergeCell ref="AA1:AA2"/>
     <mergeCell ref="AB1:AB2"/>
-    <mergeCell ref="AC1:AC2"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:T1"/>
   </mergeCells>
-  <conditionalFormatting sqref="E31:L33 E3:K30">
-    <cfRule type="cellIs" dxfId="26" priority="47" operator="between">
+  <conditionalFormatting sqref="E3:K30">
+    <cfRule type="cellIs" dxfId="22" priority="47" operator="between">
       <formula>0.1</formula>
       <formula>1.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="48" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="49" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M3:M33">
-    <cfRule type="dataBar" priority="46">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3F325F88-05E0-41BA-AA33-7B854FBE8033}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U3:U33">
-    <cfRule type="dataBar" priority="45">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{22C9DC09-E768-4CCB-8C68-41B5A3538743}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W3:W33">
-    <cfRule type="dataBar" priority="42">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{F9C7B28C-32E1-4B0D-97BC-F416D05D2AA7}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T3:T33">
-    <cfRule type="cellIs" dxfId="23" priority="38" operator="between">
+  <conditionalFormatting sqref="S3:S30">
+    <cfRule type="cellIs" dxfId="19" priority="38" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="39" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="40" operator="between">
+    <cfRule type="cellIs" dxfId="17" priority="40" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="41" operator="between">
+    <cfRule type="cellIs" dxfId="16" priority="41" operator="between">
       <formula>80</formula>
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X3:X33">
-    <cfRule type="dataBar" priority="33">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2008DEFA-B118-4E92-B0F8-C5059B874A32}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D21:D33">
-    <cfRule type="dataBar" priority="28">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{FF44BC67-0C1D-46A1-8F9C-F95AA3B0ECDF}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V3:V33">
-    <cfRule type="cellIs" dxfId="19" priority="23" operator="between">
+  <conditionalFormatting sqref="U3:U30">
+    <cfRule type="cellIs" dxfId="15" priority="23" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="24" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="25" operator="between">
+    <cfRule type="cellIs" dxfId="13" priority="25" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="26" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="12" priority="26" operator="greaterThanOrEqual">
       <formula>80</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6304,80 +6111,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA3:AA33">
-    <cfRule type="dataBar" priority="21">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{BF843C8A-B269-4D72-852C-A7007E8E7593}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB3:AB33">
-    <cfRule type="dataBar" priority="20">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{FD11F04D-4F39-4ECF-9A10-1B557EAB081C}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC3:AC33">
-    <cfRule type="dataBar" priority="19">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E17DD4D3-1A79-45E5-85F3-F9DE9D06FB78}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R3:R33">
-    <cfRule type="dataBar" priority="18">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{D2718067-88D6-484B-AA22-2C7835B5D49B}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q3:Q33">
-    <cfRule type="cellIs" dxfId="15" priority="14" operator="between">
-      <formula>0.1</formula>
-      <formula>59.9</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="16" operator="between">
-      <formula>60</formula>
-      <formula>79</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="17" operator="between">
-      <formula>80</formula>
-      <formula>100</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N3:N33">
+  <conditionalFormatting sqref="N3:N30">
     <cfRule type="cellIs" dxfId="11" priority="10" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
@@ -6394,7 +6128,7 @@
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O3:P33">
+  <conditionalFormatting sqref="O3:P30">
     <cfRule type="cellIs" dxfId="7" priority="6" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
@@ -6411,7 +6145,7 @@
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S3:S33">
+  <conditionalFormatting sqref="R3:R30">
     <cfRule type="cellIs" dxfId="3" priority="2" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
@@ -6442,67 +6176,138 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="M3:M30">
+    <cfRule type="dataBar" priority="193">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3F325F88-05E0-41BA-AA33-7B854FBE8033}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T3:T30">
+    <cfRule type="dataBar" priority="194">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{22C9DC09-E768-4CCB-8C68-41B5A3538743}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V3:V30">
+    <cfRule type="dataBar" priority="195">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{F9C7B28C-32E1-4B0D-97BC-F416D05D2AA7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W3:W30">
+    <cfRule type="dataBar" priority="196">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2008DEFA-B118-4E92-B0F8-C5059B874A32}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21:D30">
+    <cfRule type="dataBar" priority="197">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{FF44BC67-0C1D-46A1-8F9C-F95AA3B0ECDF}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z3:Z30">
+    <cfRule type="dataBar" priority="202">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{BF843C8A-B269-4D72-852C-A7007E8E7593}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA3:AA30">
+    <cfRule type="dataBar" priority="203">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{FD11F04D-4F39-4ECF-9A10-1B557EAB081C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB3:AB30">
+    <cfRule type="dataBar" priority="204">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E17DD4D3-1A79-45E5-85F3-F9DE9D06FB78}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q3:Q30">
+    <cfRule type="dataBar" priority="205">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{D2718067-88D6-484B-AA22-2C7835B5D49B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3F325F88-05E0-41BA-AA33-7B854FBE8033}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>M3:M33</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{22C9DC09-E768-4CCB-8C68-41B5A3538743}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>U3:U33</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{F9C7B28C-32E1-4B0D-97BC-F416D05D2AA7}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>W3:W33</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2008DEFA-B118-4E92-B0F8-C5059B874A32}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>X3:X33</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{FF44BC67-0C1D-46A1-8F9C-F95AA3B0ECDF}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D21:D33</xm:sqref>
-        </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{71125D8B-F38D-441C-A719-0BEE1515DAA1}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
@@ -6517,6 +6322,72 @@
           <xm:sqref>D1:D2 D21:D1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B106BE22-BE93-47CB-B67C-A8F2475DDA51}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D3:D20</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{3F325F88-05E0-41BA-AA33-7B854FBE8033}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>M3:M30</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{22C9DC09-E768-4CCB-8C68-41B5A3538743}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>T3:T30</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{F9C7B28C-32E1-4B0D-97BC-F416D05D2AA7}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>V3:V30</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{2008DEFA-B118-4E92-B0F8-C5059B874A32}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>W3:W30</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{FF44BC67-0C1D-46A1-8F9C-F95AA3B0ECDF}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D21:D30</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{BF843C8A-B269-4D72-852C-A7007E8E7593}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
@@ -6525,7 +6396,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>AA3:AA33</xm:sqref>
+          <xm:sqref>Z3:Z30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{FD11F04D-4F39-4ECF-9A10-1B557EAB081C}">
@@ -6536,7 +6407,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>AB3:AB33</xm:sqref>
+          <xm:sqref>AA3:AA30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{E17DD4D3-1A79-45E5-85F3-F9DE9D06FB78}">
@@ -6547,7 +6418,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>AC3:AC33</xm:sqref>
+          <xm:sqref>AB3:AB30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D2718067-88D6-484B-AA22-2C7835B5D49B}">
@@ -6558,18 +6429,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>R3:R33</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B106BE22-BE93-47CB-B67C-A8F2475DDA51}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D3:D20</xm:sqref>
+          <xm:sqref>Q3:Q30</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/AdvancedJava/_docs/Notlar.xlsx
+++ b/AdvancedJava/_docs/Notlar.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_SRC\_MEDIPOL\MyCourses\AdvancedJava\_docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_SRC\_MEDIPOL\MyCourses\SoftwareDevEnvAndTools\_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -68,10 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
-  <si>
-    <t>H5150017</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
   <si>
     <t>Öğrenci No</t>
   </si>
@@ -115,31 +112,148 @@
     <t>NO</t>
   </si>
   <si>
-    <t>H5170008</t>
-  </si>
-  <si>
-    <t>BONUS</t>
+    <t>SINAV (%70)</t>
   </si>
   <si>
     <t>DEVAM DURUMU (%30)</t>
   </si>
   <si>
-    <t>PROJE (%70)</t>
+    <t>ODEV 
+(yok)</t>
   </si>
   <si>
-    <t>DEVAM DURUMU</t>
+    <t>-</t>
   </si>
   <si>
-    <t>ODEV</t>
+    <t>DEVAM DURUMU 
+(%40)</t>
   </si>
   <si>
-    <t>PROJE</t>
-  </si>
-  <si>
-    <t>LAB</t>
+    <t>FINAL SINAVI
+(%60 + 13puan)</t>
   </si>
   <si>
     <t>Adı Soyadı</t>
+  </si>
+  <si>
+    <t>BERKEHAN DOĞRU</t>
+  </si>
+  <si>
+    <t>BARIŞ KÖKSAL</t>
+  </si>
+  <si>
+    <t>AHMET TAVAR</t>
+  </si>
+  <si>
+    <t>ENES DEMİRCİOĞLU</t>
+  </si>
+  <si>
+    <t>ORHAN BERKE BAÇ</t>
+  </si>
+  <si>
+    <t>AHMET ŞİMŞAK</t>
+  </si>
+  <si>
+    <t>ÜMİTCAN MUTİ</t>
+  </si>
+  <si>
+    <t>MUSTAFA EROĞUL</t>
+  </si>
+  <si>
+    <t>MUSA TURAN</t>
+  </si>
+  <si>
+    <t>AHMET SARIDAĞ</t>
+  </si>
+  <si>
+    <t>AZİZ BİRİNCİ</t>
+  </si>
+  <si>
+    <t>ALPER ŞENOL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABDULLAH ENES ÖZAYMAN </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ABDÜL </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>GANİ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> AKYÜZ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MUHAMMET </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>EMRE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ARSLAN</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">İHSAN </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>İLKER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> PİRİNÇ</t>
+    </r>
+  </si>
+  <si>
+    <t>YUSUF OGÜN YILDIRIM</t>
+  </si>
+  <si>
+    <t>MÜCAHİT ENSAR DÜZEN</t>
+  </si>
+  <si>
+    <t>VOLKAN PEKTAŞ</t>
   </si>
 </sst>
 </file>
@@ -234,7 +348,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -495,20 +609,29 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
         <color rgb="FF000000"/>
-      </top>
-      <bottom/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -528,9 +651,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -564,9 +684,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -629,26 +746,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -665,133 +777,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="22">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -895,6 +892,44 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1247,1341 +1282,1439 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N76"/>
+  <dimension ref="A1:O73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="122" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3:C20"/>
+      <selection pane="bottomLeft" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.21875" style="64" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="2.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.44140625" style="38" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7" style="1" customWidth="1"/>
-    <col min="13" max="13" width="5.77734375" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="3.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="2.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.44140625" style="36" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="5.77734375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7" style="1" customWidth="1"/>
+    <col min="14" max="14" width="5.77734375" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="4" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23"/>
-      <c r="B1" s="72"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="65" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="31">
+    <row r="1" spans="1:15" s="4" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="22"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="29">
         <v>1</v>
       </c>
-      <c r="K1" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" s="15" t="s">
+      <c r="J1" s="69"/>
+      <c r="K1" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="62"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="5" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="19">
+        <v>1</v>
+      </c>
+      <c r="D2" s="20">
+        <v>2</v>
+      </c>
+      <c r="E2" s="20">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="73" t="s">
+      <c r="F2" s="20">
+        <v>4</v>
+      </c>
+      <c r="G2" s="33">
+        <v>5</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="J2" s="70"/>
+      <c r="K2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15"/>
+      <c r="B3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="11">
+        <v>2</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="31">
+        <v>0</v>
+      </c>
+      <c r="I3" s="12">
+        <f t="shared" ref="I3:I27" si="0">SUM(C3:G3)*50/(I$1-H3)</f>
+        <v>100</v>
+      </c>
+      <c r="J3" s="71"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="28">
+        <f t="shared" ref="M3:M19" si="1">K3+L3</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="16">
+        <f t="shared" ref="N3:N19" si="2">MIN(100,I3*0.3+M3*0.7+M3*0.1)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="15"/>
+      <c r="B4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="11">
+        <v>2</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="31">
+        <v>0</v>
+      </c>
+      <c r="I4" s="12">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="J4" s="71"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N4" s="16">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15"/>
+      <c r="B5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="11">
+        <v>2</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="31">
+        <v>0</v>
+      </c>
+      <c r="I5" s="12">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="J5" s="71"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N5" s="16">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="15"/>
+      <c r="B6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="11">
+        <v>2</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="31">
+        <v>0</v>
+      </c>
+      <c r="I6" s="12">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="J6" s="71"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N6" s="16">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15"/>
+      <c r="B7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="11">
+        <v>2</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="32">
+        <v>0</v>
+      </c>
+      <c r="I7" s="12">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="J7" s="71"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N7" s="16">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="15"/>
+      <c r="B8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="20">
-        <v>1</v>
-      </c>
-      <c r="E2" s="35">
+      <c r="C8" s="11">
         <v>2</v>
       </c>
-      <c r="F2" s="21">
-        <v>3</v>
-      </c>
-      <c r="G2" s="21">
-        <v>4</v>
-      </c>
-      <c r="H2" s="35">
-        <v>5</v>
-      </c>
-      <c r="I2" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="L2" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="33">
-        <v>0</v>
-      </c>
-      <c r="J3" s="12">
-        <f t="shared" ref="J3:J30" si="0">SUM(D3:H3)*50/(J$1-I3)</f>
-        <v>0</v>
-      </c>
-      <c r="K3" s="6"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="17">
-        <f t="shared" ref="M3:M30" si="1">J3*0.3+K3*0.7+L3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="33">
-        <v>0</v>
-      </c>
-      <c r="J4" s="12">
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="31">
+        <v>0</v>
+      </c>
+      <c r="I8" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K4" s="6"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="17">
+        <v>100</v>
+      </c>
+      <c r="J8" s="71"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="74"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="33">
-        <v>0</v>
-      </c>
-      <c r="J5" s="12">
+      <c r="N8" s="16">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15"/>
+      <c r="B9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="31">
+        <v>0</v>
+      </c>
+      <c r="I9" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K5" s="6"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="17">
+      <c r="J9" s="71"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="74"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="33">
-        <v>0</v>
-      </c>
-      <c r="J6" s="12">
+      <c r="N9" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="15"/>
+      <c r="B10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="31">
+        <v>0</v>
+      </c>
+      <c r="I10" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K6" s="6"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="17">
+      <c r="J10" s="71"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="74"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="33">
-        <v>0</v>
-      </c>
-      <c r="J7" s="12">
+      <c r="N10" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="15"/>
+      <c r="B11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="31">
+        <v>0</v>
+      </c>
+      <c r="I11" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="17">
+      <c r="J11" s="71"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="74"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="33">
-        <v>0</v>
-      </c>
-      <c r="J8" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="6"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
-      <c r="B9" s="74"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="33">
-        <v>0</v>
-      </c>
-      <c r="J9" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="6"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="74"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="33">
-        <v>0</v>
-      </c>
-      <c r="J10" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="6"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="74"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="33">
-        <v>0</v>
-      </c>
-      <c r="J11" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="6"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="74"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="60"/>
+      <c r="N11" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="15"/>
+      <c r="B12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="33">
-        <v>0</v>
-      </c>
-      <c r="J12" s="12">
+      <c r="H12" s="31">
+        <v>0</v>
+      </c>
+      <c r="I12" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="J12" s="71"/>
       <c r="K12" s="6"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="17">
+      <c r="L12" s="31"/>
+      <c r="M12" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
-      <c r="B13" s="74"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="60"/>
+      <c r="N12" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="15"/>
+      <c r="B13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="33">
-        <v>0</v>
-      </c>
-      <c r="J13" s="12">
+      <c r="H13" s="31">
+        <v>0</v>
+      </c>
+      <c r="I13" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="J13" s="71"/>
       <c r="K13" s="6"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="17">
+      <c r="L13" s="31"/>
+      <c r="M13" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
-      <c r="B14" s="74"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="60"/>
+      <c r="N13" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
+      <c r="B14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="33">
-        <v>0</v>
-      </c>
-      <c r="J14" s="12">
+      <c r="H14" s="31">
+        <v>0</v>
+      </c>
+      <c r="I14" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="J14" s="71"/>
       <c r="K14" s="6"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="17">
+      <c r="L14" s="31"/>
+      <c r="M14" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
-      <c r="B15" s="74"/>
-      <c r="C15" s="3"/>
+      <c r="N14" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="15"/>
+      <c r="B15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="11"/>
       <c r="D15" s="11"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="34">
-        <v>0</v>
-      </c>
-      <c r="J15" s="12">
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="31">
+        <v>0</v>
+      </c>
+      <c r="I15" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="J15" s="71"/>
       <c r="K15" s="6"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="17">
+      <c r="L15" s="31"/>
+      <c r="M15" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N15" s="9"/>
-    </row>
-    <row r="16" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
-      <c r="B16" s="74"/>
-      <c r="C16" s="3"/>
+      <c r="N15" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="30" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="38"/>
+      <c r="B16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="11"/>
       <c r="D16" s="11"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="33">
-        <v>0</v>
-      </c>
-      <c r="J16" s="12">
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="31">
+        <v>0</v>
+      </c>
+      <c r="I16" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="J16" s="71"/>
       <c r="K16" s="6"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="17">
+      <c r="L16" s="31"/>
+      <c r="M16" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
-      <c r="B17" s="74"/>
-      <c r="C17" s="3"/>
+      <c r="N16" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O16" s="46"/>
+    </row>
+    <row r="17" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+      <c r="B17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="11"/>
       <c r="D17" s="11"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="33">
-        <v>0</v>
-      </c>
-      <c r="J17" s="12">
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="31">
+        <v>0</v>
+      </c>
+      <c r="I17" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="J17" s="71"/>
       <c r="K17" s="6"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="17">
+      <c r="L17" s="31"/>
+      <c r="M17" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" s="32" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
-      <c r="B18" s="74"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="39"/>
+      <c r="N17" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="15"/>
+      <c r="B18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="11"/>
       <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="33">
-        <v>0</v>
-      </c>
-      <c r="J18" s="12">
+      <c r="G18" s="37"/>
+      <c r="H18" s="31">
+        <v>0</v>
+      </c>
+      <c r="I18" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="J18" s="71"/>
       <c r="K18" s="6"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="17">
+      <c r="L18" s="31"/>
+      <c r="M18" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N18" s="1"/>
-    </row>
-    <row r="19" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
-      <c r="B19" s="74"/>
-      <c r="C19" s="3"/>
+      <c r="N18" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" s="46" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="15"/>
+      <c r="B19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="11"/>
       <c r="D19" s="11"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="33">
-        <v>0</v>
-      </c>
-      <c r="J19" s="12">
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="31">
+        <v>0</v>
+      </c>
+      <c r="I19" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="J19" s="71"/>
       <c r="K19" s="6"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="17">
+      <c r="L19" s="31"/>
+      <c r="M19" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" s="32" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
-      <c r="B20" s="74"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="33">
-        <v>0</v>
-      </c>
-      <c r="J20" s="12">
+      <c r="N19" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O19" s="9"/>
+    </row>
+    <row r="20" spans="1:15" s="46" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="38"/>
+      <c r="B20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="42">
+        <v>0</v>
+      </c>
+      <c r="I20" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K20" s="6"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N20" s="1"/>
-    </row>
-    <row r="21" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
-      <c r="B21" s="74"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="33">
-        <v>0</v>
-      </c>
-      <c r="J21" s="12">
+      <c r="J20" s="58"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="16">
+        <f t="shared" ref="N20:N27" si="3">I20*0.3+L20*0.7+M20*0.1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" s="46" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="38"/>
+      <c r="B21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="42">
+        <v>0</v>
+      </c>
+      <c r="I21" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K21" s="6"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" s="48" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="40"/>
-      <c r="B22" s="75"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="44">
-        <v>0</v>
-      </c>
-      <c r="J22" s="45">
+      <c r="J21" s="58"/>
+      <c r="K21" s="58"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" s="46" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="38"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="42">
+        <v>0</v>
+      </c>
+      <c r="I22" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K22" s="46"/>
-      <c r="L22" s="47"/>
-      <c r="M22" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" s="48" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="40"/>
-      <c r="B23" s="75"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="44">
-        <v>0</v>
-      </c>
-      <c r="J23" s="45">
+      <c r="J22" s="58"/>
+      <c r="K22" s="58"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" s="46" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="38"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="42">
+        <v>0</v>
+      </c>
+      <c r="I23" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K23" s="46"/>
-      <c r="L23" s="47"/>
-      <c r="M23" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" s="48" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="40"/>
-      <c r="B24" s="75"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="44">
-        <v>0</v>
-      </c>
-      <c r="J24" s="45">
+      <c r="J23" s="58"/>
+      <c r="K23" s="58"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="45"/>
+      <c r="N23" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" s="46" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="38"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="42">
+        <v>0</v>
+      </c>
+      <c r="I24" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K24" s="46"/>
-      <c r="L24" s="47"/>
-      <c r="M24" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" s="48" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="40"/>
-      <c r="B25" s="75"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="44">
-        <v>0</v>
-      </c>
-      <c r="J25" s="45">
+      <c r="J24" s="58"/>
+      <c r="K24" s="58"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="45"/>
+      <c r="N24" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" s="46" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="38"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="42">
+        <v>0</v>
+      </c>
+      <c r="I25" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K25" s="46"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" s="48" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="40"/>
-      <c r="B26" s="75"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="44">
-        <v>0</v>
-      </c>
-      <c r="J26" s="45">
+      <c r="J25" s="58"/>
+      <c r="K25" s="58"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" s="46" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="38"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="42">
+        <v>0</v>
+      </c>
+      <c r="I26" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K26" s="46"/>
-      <c r="L26" s="47"/>
-      <c r="M26" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" s="48" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="40"/>
-      <c r="B27" s="75"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="44">
-        <v>0</v>
-      </c>
-      <c r="J27" s="45">
+      <c r="J26" s="58"/>
+      <c r="K26" s="58"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" s="47" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="38"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="42">
+        <v>0</v>
+      </c>
+      <c r="I27" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K27" s="46"/>
-      <c r="L27" s="47"/>
-      <c r="M27" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" s="48" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="40"/>
-      <c r="B28" s="75"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="43"/>
-      <c r="I28" s="44">
-        <v>0</v>
-      </c>
-      <c r="J28" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K28" s="46"/>
-      <c r="L28" s="47"/>
-      <c r="M28" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" s="48" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="40"/>
-      <c r="B29" s="75"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="43"/>
-      <c r="I29" s="44">
-        <v>0</v>
-      </c>
-      <c r="J29" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K29" s="46"/>
-      <c r="L29" s="47"/>
-      <c r="M29" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" s="49" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="40"/>
-      <c r="B30" s="75"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="44">
-        <v>0</v>
-      </c>
-      <c r="J30" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K30" s="46"/>
-      <c r="L30" s="47"/>
-      <c r="M30" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N30" s="48"/>
-    </row>
-    <row r="31" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J27" s="58"/>
+      <c r="K27" s="58"/>
+      <c r="L27" s="44"/>
+      <c r="M27" s="45"/>
+      <c r="N27" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O27" s="46"/>
+    </row>
+    <row r="28" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+    </row>
+    <row r="29" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+    </row>
+    <row r="30" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+    </row>
+    <row r="31" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
-      <c r="E31" s="63"/>
+      <c r="E31" s="8"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="37"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="9"/>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
-    </row>
-    <row r="32" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K31" s="9"/>
+    </row>
+    <row r="32" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
-      <c r="E32" s="63"/>
+      <c r="E32" s="8"/>
       <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="37"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="9"/>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
-    </row>
-    <row r="33" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K32" s="9"/>
+    </row>
+    <row r="33" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
-      <c r="E33" s="63"/>
+      <c r="E33" s="8"/>
       <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="37"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="9"/>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
-    </row>
-    <row r="34" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K33" s="9"/>
+    </row>
+    <row r="34" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
-      <c r="E34" s="63"/>
+      <c r="E34" s="8"/>
       <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="37"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="9"/>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
-    </row>
-    <row r="35" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K34" s="9"/>
+    </row>
+    <row r="35" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
-      <c r="E35" s="63"/>
+      <c r="E35" s="8"/>
       <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="37"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="9"/>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
-    </row>
-    <row r="36" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K35" s="9"/>
+    </row>
+    <row r="36" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
-      <c r="E36" s="63"/>
+      <c r="E36" s="8"/>
       <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="37"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="9"/>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
-    </row>
-    <row r="37" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K36" s="9"/>
+    </row>
+    <row r="37" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
-      <c r="E37" s="63"/>
+      <c r="E37" s="8"/>
       <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="37"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="9"/>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
-    </row>
-    <row r="38" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K37" s="9"/>
+    </row>
+    <row r="38" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
-      <c r="E38" s="63"/>
+      <c r="E38" s="8"/>
       <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="37"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="9"/>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
-    </row>
-    <row r="39" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K38" s="9"/>
+    </row>
+    <row r="39" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
-      <c r="E39" s="63"/>
+      <c r="E39" s="8"/>
       <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="37"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="9"/>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
-    </row>
-    <row r="40" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K39" s="9"/>
+    </row>
+    <row r="40" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
-      <c r="E40" s="63"/>
+      <c r="E40" s="8"/>
       <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="37"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="9"/>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
-    </row>
-    <row r="41" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K40" s="9"/>
+    </row>
+    <row r="41" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
-      <c r="E41" s="63"/>
+      <c r="E41" s="8"/>
       <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="37"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="9"/>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
-    </row>
-    <row r="42" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K41" s="9"/>
+    </row>
+    <row r="42" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
-      <c r="E42" s="63"/>
+      <c r="E42" s="8"/>
       <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="37"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="9"/>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
-    </row>
-    <row r="43" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K42" s="9"/>
+    </row>
+    <row r="43" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
-      <c r="E43" s="63"/>
+      <c r="E43" s="8"/>
       <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="37"/>
+      <c r="G43" s="35"/>
+      <c r="H43" s="9"/>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
-    </row>
-    <row r="44" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K43" s="9"/>
+    </row>
+    <row r="44" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
-      <c r="E44" s="63"/>
+      <c r="E44" s="8"/>
       <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="37"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="9"/>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
-    </row>
-    <row r="45" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K44" s="9"/>
+    </row>
+    <row r="45" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
-      <c r="E45" s="63"/>
+      <c r="E45" s="8"/>
       <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="37"/>
+      <c r="G45" s="35"/>
+      <c r="H45" s="9"/>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
-    </row>
-    <row r="46" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K45" s="9"/>
+    </row>
+    <row r="46" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
-      <c r="E46" s="63"/>
+      <c r="E46" s="8"/>
       <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="37"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="9"/>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
-    </row>
-    <row r="47" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K46" s="9"/>
+    </row>
+    <row r="47" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
-      <c r="E47" s="63"/>
+      <c r="E47" s="8"/>
       <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="37"/>
+      <c r="G47" s="35"/>
+      <c r="H47" s="9"/>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
-    </row>
-    <row r="48" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K47" s="9"/>
+    </row>
+    <row r="48" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
-      <c r="E48" s="63"/>
+      <c r="E48" s="8"/>
       <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="37"/>
+      <c r="G48" s="35"/>
+      <c r="H48" s="9"/>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
-    </row>
-    <row r="49" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K48" s="9"/>
+    </row>
+    <row r="49" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
-      <c r="E49" s="63"/>
+      <c r="E49" s="8"/>
       <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="37"/>
+      <c r="G49" s="35"/>
+      <c r="H49" s="9"/>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
-    </row>
-    <row r="50" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K49" s="9"/>
+    </row>
+    <row r="50" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
-      <c r="E50" s="63"/>
+      <c r="E50" s="8"/>
       <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="37"/>
+      <c r="G50" s="35"/>
+      <c r="H50" s="9"/>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
-    </row>
-    <row r="51" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K50" s="9"/>
+    </row>
+    <row r="51" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
-      <c r="E51" s="63"/>
+      <c r="E51" s="8"/>
       <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="37"/>
+      <c r="G51" s="35"/>
+      <c r="H51" s="9"/>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
-    </row>
-    <row r="52" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K51" s="9"/>
+    </row>
+    <row r="52" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
-      <c r="E52" s="63"/>
+      <c r="E52" s="8"/>
       <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="37"/>
+      <c r="G52" s="35"/>
+      <c r="H52" s="9"/>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
-    </row>
-    <row r="53" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K52" s="9"/>
+    </row>
+    <row r="53" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
-      <c r="E53" s="63"/>
+      <c r="E53" s="8"/>
       <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="37"/>
+      <c r="G53" s="35"/>
+      <c r="H53" s="9"/>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
-    </row>
-    <row r="54" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K53" s="9"/>
+    </row>
+    <row r="54" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
-      <c r="E54" s="63"/>
+      <c r="E54" s="8"/>
       <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="37"/>
+      <c r="G54" s="35"/>
+      <c r="H54" s="9"/>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
-    </row>
-    <row r="55" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K54" s="9"/>
+    </row>
+    <row r="55" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
-      <c r="E55" s="63"/>
+      <c r="E55" s="8"/>
       <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="37"/>
+      <c r="G55" s="35"/>
+      <c r="H55" s="9"/>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
-    </row>
-    <row r="56" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K55" s="9"/>
+    </row>
+    <row r="56" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
-      <c r="E56" s="63"/>
+      <c r="E56" s="8"/>
       <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="37"/>
+      <c r="G56" s="35"/>
+      <c r="H56" s="9"/>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
-    </row>
-    <row r="57" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K56" s="9"/>
+    </row>
+    <row r="57" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
-      <c r="E57" s="63"/>
+      <c r="E57" s="8"/>
       <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="37"/>
+      <c r="G57" s="35"/>
+      <c r="H57" s="9"/>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
-    </row>
-    <row r="58" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K57" s="9"/>
+    </row>
+    <row r="58" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
-      <c r="E58" s="63"/>
+      <c r="E58" s="8"/>
       <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="37"/>
+      <c r="G58" s="35"/>
+      <c r="H58" s="9"/>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
-    </row>
-    <row r="59" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K58" s="9"/>
+    </row>
+    <row r="59" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
-      <c r="E59" s="63"/>
+      <c r="E59" s="8"/>
       <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="37"/>
+      <c r="G59" s="35"/>
+      <c r="H59" s="9"/>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
-    </row>
-    <row r="60" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K59" s="9"/>
+    </row>
+    <row r="60" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
       <c r="D60" s="8"/>
-      <c r="E60" s="63"/>
+      <c r="E60" s="8"/>
       <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="37"/>
+      <c r="G60" s="35"/>
+      <c r="H60" s="9"/>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
-    </row>
-    <row r="61" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K60" s="9"/>
+    </row>
+    <row r="61" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
-      <c r="E61" s="63"/>
+      <c r="E61" s="8"/>
       <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="37"/>
+      <c r="G61" s="35"/>
+      <c r="H61" s="9"/>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
-    </row>
-    <row r="62" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K61" s="9"/>
+    </row>
+    <row r="62" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
       <c r="D62" s="8"/>
-      <c r="E62" s="63"/>
+      <c r="E62" s="8"/>
       <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="37"/>
+      <c r="G62" s="35"/>
+      <c r="H62" s="9"/>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
-    </row>
-    <row r="63" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K62" s="9"/>
+    </row>
+    <row r="63" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
       <c r="D63" s="8"/>
-      <c r="E63" s="63"/>
+      <c r="E63" s="8"/>
       <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="37"/>
+      <c r="G63" s="35"/>
+      <c r="H63" s="9"/>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
-    </row>
-    <row r="64" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K63" s="9"/>
+    </row>
+    <row r="64" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
-      <c r="E64" s="63"/>
+      <c r="E64" s="8"/>
       <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="37"/>
+      <c r="G64" s="35"/>
+      <c r="H64" s="9"/>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
-    </row>
-    <row r="65" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K64" s="9"/>
+    </row>
+    <row r="65" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
-      <c r="E65" s="63"/>
+      <c r="E65" s="8"/>
       <c r="F65" s="8"/>
-      <c r="G65" s="8"/>
-      <c r="H65" s="37"/>
+      <c r="G65" s="35"/>
+      <c r="H65" s="9"/>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
-    </row>
-    <row r="66" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K65" s="9"/>
+    </row>
+    <row r="66" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
       <c r="D66" s="8"/>
-      <c r="E66" s="63"/>
+      <c r="E66" s="8"/>
       <c r="F66" s="8"/>
-      <c r="G66" s="8"/>
-      <c r="H66" s="37"/>
+      <c r="G66" s="35"/>
+      <c r="H66" s="9"/>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
-    </row>
-    <row r="67" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K66" s="9"/>
+    </row>
+    <row r="67" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
-      <c r="E67" s="63"/>
+      <c r="E67" s="8"/>
       <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
-      <c r="H67" s="37"/>
+      <c r="G67" s="35"/>
+      <c r="H67" s="9"/>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
-    </row>
-    <row r="68" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K67" s="9"/>
+    </row>
+    <row r="68" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
       <c r="D68" s="8"/>
-      <c r="E68" s="63"/>
+      <c r="E68" s="8"/>
       <c r="F68" s="8"/>
-      <c r="G68" s="8"/>
-      <c r="H68" s="37"/>
+      <c r="G68" s="35"/>
+      <c r="H68" s="9"/>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
-    </row>
-    <row r="69" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K68" s="9"/>
+    </row>
+    <row r="69" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
       <c r="D69" s="8"/>
-      <c r="E69" s="63"/>
+      <c r="E69" s="8"/>
       <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
-      <c r="H69" s="37"/>
+      <c r="G69" s="35"/>
+      <c r="H69" s="9"/>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
-    </row>
-    <row r="70" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K69" s="9"/>
+    </row>
+    <row r="70" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
-      <c r="E70" s="63"/>
+      <c r="E70" s="8"/>
       <c r="F70" s="8"/>
-      <c r="G70" s="8"/>
-      <c r="H70" s="37"/>
+      <c r="G70" s="35"/>
+      <c r="H70" s="9"/>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
-    </row>
-    <row r="71" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K70" s="9"/>
+    </row>
+    <row r="71" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
       <c r="D71" s="8"/>
-      <c r="E71" s="63"/>
+      <c r="E71" s="8"/>
       <c r="F71" s="8"/>
-      <c r="G71" s="8"/>
-      <c r="H71" s="37"/>
+      <c r="G71" s="35"/>
+      <c r="H71" s="9"/>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
-    </row>
-    <row r="72" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K71" s="9"/>
+    </row>
+    <row r="72" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
       <c r="D72" s="8"/>
-      <c r="E72" s="63"/>
+      <c r="E72" s="8"/>
       <c r="F72" s="8"/>
-      <c r="G72" s="8"/>
-      <c r="H72" s="37"/>
+      <c r="G72" s="35"/>
+      <c r="H72" s="9"/>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
-    </row>
-    <row r="73" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K72" s="9"/>
+    </row>
+    <row r="73" spans="1:11" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
-      <c r="E73" s="63"/>
+      <c r="E73" s="8"/>
       <c r="F73" s="8"/>
-      <c r="G73" s="8"/>
-      <c r="H73" s="37"/>
+      <c r="G73" s="35"/>
+      <c r="H73" s="9"/>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
-    </row>
-    <row r="74" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="8"/>
-      <c r="B74" s="8"/>
-      <c r="C74" s="8"/>
-      <c r="D74" s="8"/>
-      <c r="E74" s="63"/>
-      <c r="F74" s="8"/>
-      <c r="G74" s="8"/>
-      <c r="H74" s="37"/>
-      <c r="I74" s="9"/>
-      <c r="J74" s="9"/>
-    </row>
-    <row r="75" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="8"/>
-      <c r="B75" s="8"/>
-      <c r="C75" s="8"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="63"/>
-      <c r="F75" s="8"/>
-      <c r="G75" s="8"/>
-      <c r="H75" s="37"/>
-      <c r="I75" s="9"/>
-      <c r="J75" s="9"/>
-    </row>
-    <row r="76" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="8"/>
-      <c r="B76" s="8"/>
-      <c r="C76" s="8"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="63"/>
-      <c r="F76" s="8"/>
-      <c r="G76" s="8"/>
-      <c r="H76" s="37"/>
-      <c r="I76" s="9"/>
-      <c r="J76" s="9"/>
+      <c r="K73" s="9"/>
     </row>
   </sheetData>
-  <sortState ref="A3:O30">
-    <sortCondition descending="1" ref="M3"/>
+  <sortState ref="A3:P27">
+    <sortCondition descending="1" ref="N2"/>
   </sortState>
-  <mergeCells count="1">
-    <mergeCell ref="D1:I1"/>
+  <mergeCells count="2">
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="K1:M1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D3:H30">
-    <cfRule type="cellIs" dxfId="29" priority="19" operator="between">
+  <conditionalFormatting sqref="C3:G27">
+    <cfRule type="cellIs" dxfId="21" priority="23" operator="between">
       <formula>0.1</formula>
       <formula>1.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="24" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="25" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K3:L30">
-    <cfRule type="cellIs" dxfId="26" priority="10" operator="between">
+  <conditionalFormatting sqref="L20:M27 M3:M19">
+    <cfRule type="cellIs" dxfId="18" priority="14" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="15" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="12" operator="between">
+    <cfRule type="cellIs" dxfId="16" priority="16" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="13" operator="between">
+    <cfRule type="cellIs" dxfId="15" priority="17" operator="between">
       <formula>80</formula>
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J30">
-    <cfRule type="dataBar" priority="189">
+  <conditionalFormatting sqref="I20:K27 I3:J19">
+    <cfRule type="dataBar" priority="301">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2594,8 +2727,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M3:M30">
-    <cfRule type="dataBar" priority="192">
+  <conditionalFormatting sqref="N3:N27">
+    <cfRule type="dataBar" priority="307">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2606,6 +2739,23 @@
           <x14:id>{43DC70F4-8291-4430-AFF0-577FC5E79CD9}</x14:id>
         </ext>
       </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3:K19">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="between">
+      <formula>0.1</formula>
+      <formula>59.9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="between">
+      <formula>60</formula>
+      <formula>79</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="between">
+      <formula>80</formula>
+      <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2623,7 +2773,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>J3:J30</xm:sqref>
+          <xm:sqref>I20:K27 I3:J19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{43DC70F4-8291-4430-AFF0-577FC5E79CD9}">
@@ -2634,7 +2784,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>M3:M30</xm:sqref>
+          <xm:sqref>N3:N27</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -2647,1337 +2797,1007 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AA78"/>
+  <dimension ref="A1:V78"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="54" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="52" customWidth="1"/>
     <col min="4" max="5" width="3.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="2.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="2.44140625" style="2" customWidth="1"/>
     <col min="10" max="10" width="2.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="2.44140625" style="8" customWidth="1"/>
     <col min="12" max="12" width="4.44140625" style="1" customWidth="1"/>
-    <col min="13" max="14" width="2.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="2.77734375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="4.77734375" style="1" customWidth="1"/>
-    <col min="17" max="18" width="2.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.77734375" style="1" customWidth="1"/>
-    <col min="20" max="20" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="5.77734375" style="1" customWidth="1"/>
-    <col min="23" max="23" width="8.21875" style="58" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.88671875" style="1"/>
-    <col min="25" max="27" width="5.77734375" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="8.88671875" style="1"/>
+    <col min="13" max="13" width="2.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.77734375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="5.77734375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.21875" style="56" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.88671875" style="1"/>
+    <col min="20" max="22" width="5.77734375" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="4" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23">
+    <row r="1" spans="1:22" s="4" customFormat="1" ht="42" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="22">
         <v>1</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="67" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="66"/>
+      <c r="O1" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="67" t="s">
+      <c r="P1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="R1" s="54"/>
+      <c r="T1" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="U1" s="67" t="s">
+        <v>11</v>
+      </c>
+      <c r="V1" s="67" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" s="5" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="68"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="U1" s="15" t="s">
+      <c r="C2" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="24">
+        <v>6</v>
+      </c>
+      <c r="E2" s="20">
         <v>7</v>
       </c>
-      <c r="V1" s="15" t="s">
+      <c r="F2" s="20">
         <v>8</v>
       </c>
-      <c r="W1" s="56"/>
-      <c r="Y1" s="70" t="s">
+      <c r="G2" s="20">
+        <v>9</v>
+      </c>
+      <c r="H2" s="20">
+        <v>10</v>
+      </c>
+      <c r="I2" s="20">
         <v>11</v>
       </c>
-      <c r="Z1" s="70" t="s">
+      <c r="J2" s="20">
         <v>12</v>
       </c>
-      <c r="AA1" s="70" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" s="5" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="K2" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="51" t="s">
+      <c r="M2" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="25">
-        <v>6</v>
-      </c>
-      <c r="E2" s="21">
-        <v>7</v>
-      </c>
-      <c r="F2" s="21">
-        <v>8</v>
-      </c>
-      <c r="G2" s="21">
-        <v>9</v>
-      </c>
-      <c r="H2" s="21">
-        <v>10</v>
-      </c>
-      <c r="I2" s="21">
-        <v>11</v>
-      </c>
-      <c r="J2" s="21">
-        <v>12</v>
-      </c>
-      <c r="K2" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" s="21">
-        <v>7</v>
-      </c>
-      <c r="N2" s="21">
-        <v>8</v>
-      </c>
-      <c r="O2" s="21">
-        <v>11</v>
-      </c>
-      <c r="P2" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q2" s="21">
-        <v>1</v>
-      </c>
-      <c r="R2" s="21">
-        <v>2</v>
-      </c>
-      <c r="S2" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="T2" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="U2" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="V2" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="W2" s="57"/>
-      <c r="Y2" s="71"/>
-      <c r="Z2" s="71"/>
-      <c r="AA2" s="71"/>
-    </row>
-    <row r="3" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
+      <c r="Q2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="R2" s="55"/>
+      <c r="T2" s="68"/>
+      <c r="U2" s="68"/>
+      <c r="V2" s="68"/>
+    </row>
+    <row r="3" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15"/>
       <c r="B3" s="3"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="26"/>
+      <c r="C3" s="50">
+        <f>Vize!N3</f>
+        <v>30</v>
+      </c>
+      <c r="D3" s="25"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
-      <c r="K3" s="33"/>
+      <c r="K3" s="31"/>
       <c r="L3" s="12">
-        <f>SUM(D3:J3)*50/(A$1-K3)</f>
+        <f t="shared" ref="L3:L19" si="0">SUM(D3:J3)*50/(A$1-K3)</f>
         <v>0</v>
       </c>
       <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
+      <c r="N3" s="12">
+        <f t="shared" ref="N3:N19" si="1">M3</f>
+        <v>0</v>
+      </c>
       <c r="O3" s="6"/>
-      <c r="P3" s="12">
-        <f>SUM(M3:O3)/3</f>
-        <v>0</v>
-      </c>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="12">
-        <f>SUM(Q3:R3)/2</f>
-        <v>0</v>
-      </c>
-      <c r="T3" s="6"/>
-      <c r="U3" s="17">
-        <f>MIN(100,L3*(0.25+0.1)+S3*(0.2+0.1)+T3*(0.55+0.15))</f>
-        <v>0</v>
-      </c>
-      <c r="V3" s="17">
-        <f t="shared" ref="V3:V30" si="0">ROUND(C3,2)*0.4+U3*0.6</f>
-        <v>0</v>
-      </c>
-      <c r="Y3" s="17"/>
-      <c r="Z3" s="17"/>
-      <c r="AA3" s="17"/>
-    </row>
-    <row r="4" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
+      <c r="P3" s="16">
+        <f>MIN(100,L3*(0.4+0.1)+N3*(0)+(O3)*(0.6+0.15))</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="16">
+        <f>ROUND(C3,2)*0.4+P3*0.6</f>
+        <v>12</v>
+      </c>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
+      <c r="V3" s="16"/>
+    </row>
+    <row r="4" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="15"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="26"/>
+      <c r="C4" s="50">
+        <f>Vize!N4</f>
+        <v>30</v>
+      </c>
+      <c r="D4" s="25"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="33"/>
+      <c r="K4" s="31"/>
       <c r="L4" s="12">
-        <f>SUM(D4:J4)*50/(A$1-K4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
+      <c r="N4" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="O4" s="6"/>
-      <c r="P4" s="12">
-        <f t="shared" ref="P4:P30" si="1">SUM(M4:O4)/3</f>
-        <v>0</v>
-      </c>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="12">
-        <f t="shared" ref="S4:S30" si="2">SUM(Q4:R4)/2</f>
-        <v>0</v>
-      </c>
-      <c r="T4" s="6"/>
-      <c r="U4" s="17">
-        <f t="shared" ref="U4:U30" si="3">MIN(100,L4*(0.25+0.1)+S4*(0.2+0.1)+T4*(0.55+0.15))</f>
-        <v>0</v>
-      </c>
-      <c r="V4" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y4" s="17"/>
-      <c r="Z4" s="17"/>
-      <c r="AA4" s="17"/>
-    </row>
-    <row r="5" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
+      <c r="P4" s="16">
+        <f t="shared" ref="P4:P19" si="2">MIN(100,L4*(0.4+0.1)+N4*(0)+(O4)*(0.6+0.15))</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="16">
+        <f t="shared" ref="Q3:Q19" si="3">ROUND(C4,2)*0.4+P4*0.6</f>
+        <v>12</v>
+      </c>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="16"/>
+    </row>
+    <row r="5" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15"/>
       <c r="B5" s="3"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="26"/>
+      <c r="C5" s="50">
+        <f>Vize!N5</f>
+        <v>30</v>
+      </c>
+      <c r="D5" s="25"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
-      <c r="K5" s="33"/>
+      <c r="K5" s="31"/>
       <c r="L5" s="12">
-        <f>SUM(D5:J5)*50/(A$1-K5)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
+      <c r="N5" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="O5" s="6"/>
-      <c r="P5" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="12">
+      <c r="P5" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T5" s="6"/>
-      <c r="U5" s="17">
+      <c r="Q5" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V5" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y5" s="17"/>
-      <c r="Z5" s="17"/>
-      <c r="AA5" s="17"/>
-    </row>
-    <row r="6" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
+        <v>12</v>
+      </c>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="16"/>
+    </row>
+    <row r="6" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="15"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="26"/>
+      <c r="C6" s="50">
+        <f>Vize!N6</f>
+        <v>30</v>
+      </c>
+      <c r="D6" s="25"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
-      <c r="K6" s="33"/>
+      <c r="K6" s="31"/>
       <c r="L6" s="12">
-        <f>SUM(D6:J6)*50/(A$1-K6)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
+      <c r="N6" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="O6" s="6"/>
-      <c r="P6" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="12">
+      <c r="P6" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T6" s="6"/>
-      <c r="U6" s="17">
+      <c r="Q6" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V6" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y6" s="17"/>
-      <c r="Z6" s="17"/>
-      <c r="AA6" s="17"/>
-    </row>
-    <row r="7" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
+        <v>12</v>
+      </c>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="16"/>
+    </row>
+    <row r="7" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="26"/>
+      <c r="C7" s="50">
+        <f>Vize!N7</f>
+        <v>30</v>
+      </c>
+      <c r="D7" s="25"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
-      <c r="K7" s="33"/>
+      <c r="K7" s="31"/>
       <c r="L7" s="12">
-        <f>SUM(D7:J7)*50/(A$1-K7)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
+      <c r="N7" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="O7" s="6"/>
-      <c r="P7" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="12">
+      <c r="P7" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T7" s="6"/>
-      <c r="U7" s="17">
+      <c r="Q7" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V7" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y7" s="17"/>
-      <c r="Z7" s="17"/>
-      <c r="AA7" s="17"/>
-    </row>
-    <row r="8" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
+        <v>12</v>
+      </c>
+      <c r="T7" s="16"/>
+      <c r="U7" s="16"/>
+      <c r="V7" s="16"/>
+    </row>
+    <row r="8" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="15"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="26"/>
+      <c r="C8" s="50">
+        <f>Vize!N8</f>
+        <v>30</v>
+      </c>
+      <c r="D8" s="25"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
-      <c r="K8" s="33"/>
+      <c r="K8" s="31"/>
       <c r="L8" s="12">
-        <f>SUM(D8:J8)*50/(A$1-K8)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
+      <c r="N8" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="O8" s="6"/>
-      <c r="P8" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="12">
+      <c r="P8" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T8" s="6"/>
-      <c r="U8" s="17">
+      <c r="Q8" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V8" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y8" s="17"/>
-      <c r="Z8" s="17"/>
-      <c r="AA8" s="17"/>
-    </row>
-    <row r="9" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
+        <v>12</v>
+      </c>
+      <c r="T8" s="16"/>
+      <c r="U8" s="16"/>
+      <c r="V8" s="16"/>
+    </row>
+    <row r="9" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="26"/>
+      <c r="C9" s="50">
+        <f>Vize!N9</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="25"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
-      <c r="K9" s="33"/>
+      <c r="K9" s="31"/>
       <c r="L9" s="12">
-        <f>SUM(D9:J9)*50/(A$1-K9)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
+      <c r="N9" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="O9" s="6"/>
-      <c r="P9" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="12">
+      <c r="P9" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T9" s="6"/>
-      <c r="U9" s="17">
+      <c r="Q9" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V9" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y9" s="17"/>
-      <c r="Z9" s="17"/>
-      <c r="AA9" s="17"/>
-    </row>
-    <row r="10" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="16"/>
+    </row>
+    <row r="10" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="15"/>
       <c r="B10" s="3"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="26"/>
+      <c r="C10" s="50">
+        <f>Vize!N10</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="25"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
-      <c r="K10" s="33"/>
+      <c r="K10" s="31"/>
       <c r="L10" s="12">
-        <f>SUM(D10:J10)*50/(A$1-K10)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
+      <c r="N10" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="O10" s="6"/>
-      <c r="P10" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="12">
+      <c r="P10" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T10" s="6"/>
-      <c r="U10" s="17">
+      <c r="Q10" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V10" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y10" s="17"/>
-      <c r="Z10" s="17"/>
-      <c r="AA10" s="17"/>
-    </row>
-    <row r="11" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="16"/>
+      <c r="V10" s="16"/>
+    </row>
+    <row r="11" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="15"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="26"/>
+      <c r="C11" s="50">
+        <f>Vize!N11</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="25"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
-      <c r="K11" s="33"/>
+      <c r="K11" s="31"/>
       <c r="L11" s="12">
-        <f>SUM(D11:J11)*50/(A$1-K11)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
+      <c r="N11" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="O11" s="6"/>
-      <c r="P11" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="12">
+      <c r="P11" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T11" s="6"/>
-      <c r="U11" s="17">
+      <c r="Q11" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V11" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y11" s="17"/>
-      <c r="Z11" s="17"/>
-      <c r="AA11" s="17"/>
-    </row>
-    <row r="12" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
+    </row>
+    <row r="12" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="15"/>
       <c r="B12" s="3"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="26"/>
+      <c r="C12" s="50">
+        <f>Vize!N12</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="25"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
-      <c r="K12" s="33"/>
+      <c r="K12" s="31"/>
       <c r="L12" s="12">
-        <f>SUM(D12:J12)*50/(A$1-K12)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
+      <c r="N12" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="O12" s="6"/>
-      <c r="P12" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="12">
+      <c r="P12" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T12" s="6"/>
-      <c r="U12" s="17">
+      <c r="Q12" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V12" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y12" s="17"/>
-      <c r="Z12" s="17"/>
-      <c r="AA12" s="17"/>
-    </row>
-    <row r="13" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="16"/>
+    </row>
+    <row r="13" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="15"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="28"/>
+      <c r="C13" s="50">
+        <f>Vize!N13</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="25"/>
+      <c r="E13" s="26"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
-      <c r="K13" s="33"/>
+      <c r="K13" s="31"/>
       <c r="L13" s="12">
-        <f>SUM(D13:J13)*50/(A$1-K13)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
+      <c r="N13" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="O13" s="6"/>
-      <c r="P13" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="12">
+      <c r="P13" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T13" s="6"/>
-      <c r="U13" s="17">
+      <c r="Q13" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V13" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y13" s="17"/>
-      <c r="Z13" s="17"/>
-      <c r="AA13" s="17"/>
-    </row>
-    <row r="14" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="16"/>
+    </row>
+    <row r="14" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
       <c r="B14" s="3"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="26"/>
+      <c r="C14" s="50">
+        <f>Vize!N14</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="25"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
-      <c r="K14" s="33"/>
+      <c r="K14" s="31"/>
       <c r="L14" s="12">
-        <f>SUM(D14:J14)*50/(A$1-K14)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
+      <c r="N14" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="O14" s="6"/>
-      <c r="P14" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="12">
+      <c r="P14" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T14" s="6"/>
-      <c r="U14" s="17">
+      <c r="Q14" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V14" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y14" s="17"/>
-      <c r="Z14" s="17"/>
-      <c r="AA14" s="17"/>
-    </row>
-    <row r="15" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
+      <c r="T14" s="16"/>
+      <c r="U14" s="16"/>
+      <c r="V14" s="16"/>
+    </row>
+    <row r="15" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="15"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="26"/>
+      <c r="C15" s="50">
+        <f>Vize!N15</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="25"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
-      <c r="K15" s="33"/>
+      <c r="K15" s="31"/>
       <c r="L15" s="12">
-        <f>SUM(D15:J15)*50/(A$1-K15)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
+      <c r="N15" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="O15" s="6"/>
-      <c r="P15" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="12">
+      <c r="P15" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T15" s="6"/>
-      <c r="U15" s="17">
+      <c r="Q15" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V15" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y15" s="17"/>
-      <c r="Z15" s="17"/>
-      <c r="AA15" s="17"/>
-    </row>
-    <row r="16" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="16"/>
+      <c r="V15" s="16"/>
+    </row>
+    <row r="16" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
       <c r="B16" s="3"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="26"/>
+      <c r="C16" s="50">
+        <f>Vize!N16</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="25"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
-      <c r="K16" s="33"/>
+      <c r="K16" s="31"/>
       <c r="L16" s="12">
-        <f>SUM(D16:J16)*50/(A$1-K16)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
+      <c r="N16" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="O16" s="6"/>
-      <c r="P16" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="12">
+      <c r="P16" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T16" s="6"/>
-      <c r="U16" s="17">
+      <c r="Q16" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V16" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y16" s="17"/>
-      <c r="Z16" s="17"/>
-      <c r="AA16" s="17"/>
-    </row>
-    <row r="17" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
+      <c r="T16" s="16"/>
+      <c r="U16" s="16"/>
+      <c r="V16" s="16"/>
+    </row>
+    <row r="17" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
       <c r="B17" s="3"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="26"/>
+      <c r="C17" s="50">
+        <f>Vize!N17</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="25"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
-      <c r="K17" s="33"/>
+      <c r="K17" s="31"/>
       <c r="L17" s="12">
-        <f>SUM(D17:J17)*50/(A$1-K17)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
+      <c r="N17" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="O17" s="6"/>
-      <c r="P17" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="12">
+      <c r="P17" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T17" s="6"/>
-      <c r="U17" s="17">
+      <c r="Q17" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V17" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y17" s="17"/>
-      <c r="Z17" s="17"/>
-      <c r="AA17" s="17"/>
-    </row>
-    <row r="18" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="16"/>
+      <c r="V17" s="16"/>
+    </row>
+    <row r="18" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="15"/>
       <c r="B18" s="3"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="26"/>
+      <c r="C18" s="50">
+        <f>Vize!N18</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="25"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
-      <c r="K18" s="33"/>
+      <c r="K18" s="31"/>
       <c r="L18" s="12">
-        <f>SUM(D18:J18)*50/(A$1-K18)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
+      <c r="N18" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="O18" s="6"/>
-      <c r="P18" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="12">
+      <c r="P18" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T18" s="6"/>
-      <c r="U18" s="17">
+      <c r="Q18" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V18" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y18" s="17"/>
-      <c r="Z18" s="17"/>
-      <c r="AA18" s="17"/>
-    </row>
-    <row r="19" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
+      <c r="T18" s="16"/>
+      <c r="U18" s="16"/>
+      <c r="V18" s="16"/>
+    </row>
+    <row r="19" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="15"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="26"/>
+      <c r="C19" s="50">
+        <f>Vize!N19</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="25"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
-      <c r="K19" s="33"/>
+      <c r="K19" s="31"/>
       <c r="L19" s="12">
-        <f>SUM(D19:J19)*50/(A$1-K19)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
+      <c r="N19" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="O19" s="6"/>
-      <c r="P19" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="12">
+      <c r="P19" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T19" s="6"/>
-      <c r="U19" s="17">
+      <c r="Q19" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V19" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y19" s="17"/>
-      <c r="Z19" s="17"/>
-      <c r="AA19" s="17"/>
-    </row>
-    <row r="20" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
+      <c r="T19" s="16"/>
+      <c r="U19" s="16"/>
+      <c r="V19" s="16"/>
+    </row>
+    <row r="20" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="15"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="26"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="25"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="12">
-        <f>SUM(D20:J20)*50/(A$1-K20)</f>
-        <v>0</v>
-      </c>
+      <c r="K20" s="31"/>
+      <c r="L20" s="12"/>
       <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
+      <c r="N20" s="12"/>
       <c r="O20" s="6"/>
-      <c r="P20" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T20" s="6"/>
-      <c r="U20" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V20" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y20" s="17"/>
-      <c r="Z20" s="17"/>
-      <c r="AA20" s="17"/>
-    </row>
-    <row r="21" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+      <c r="T20" s="16"/>
+      <c r="U20" s="16"/>
+      <c r="V20" s="16"/>
+    </row>
+    <row r="21" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="15"/>
       <c r="B21" s="3"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="26"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="25"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="12">
-        <f>SUM(D21:J21)*50/(A$1-K21)</f>
-        <v>0</v>
-      </c>
+      <c r="K21" s="31"/>
+      <c r="L21" s="12"/>
       <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
+      <c r="N21" s="12"/>
       <c r="O21" s="6"/>
-      <c r="P21" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
-      <c r="S21" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T21" s="6"/>
-      <c r="U21" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V21" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y21" s="17"/>
-      <c r="Z21" s="17"/>
-      <c r="AA21" s="17"/>
-    </row>
-    <row r="22" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
-      <c r="B22" s="41"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="26"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+      <c r="T21" s="16"/>
+      <c r="U21" s="16"/>
+      <c r="V21" s="16"/>
+    </row>
+    <row r="22" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="15"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="25"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="12">
-        <f>SUM(D22:J22)*50/(A$1-K22)</f>
-        <v>0</v>
-      </c>
+      <c r="K22" s="31"/>
+      <c r="L22" s="12"/>
       <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
+      <c r="N22" s="12"/>
       <c r="O22" s="6"/>
-      <c r="P22" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6"/>
-      <c r="S22" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T22" s="6"/>
-      <c r="U22" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V22" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y22" s="17"/>
-      <c r="Z22" s="17"/>
-      <c r="AA22" s="17"/>
-    </row>
-    <row r="23" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="26"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
+      <c r="T22" s="16"/>
+      <c r="U22" s="16"/>
+      <c r="V22" s="16"/>
+    </row>
+    <row r="23" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="15"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="25"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="12">
-        <f>SUM(D23:J23)*50/(A$1-K23)</f>
-        <v>0</v>
-      </c>
+      <c r="K23" s="31"/>
+      <c r="L23" s="12"/>
       <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
+      <c r="N23" s="12"/>
       <c r="O23" s="6"/>
-      <c r="P23" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
-      <c r="S23" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T23" s="6"/>
-      <c r="U23" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V23" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y23" s="17"/>
-      <c r="Z23" s="17"/>
-      <c r="AA23" s="17"/>
-    </row>
-    <row r="24" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="26"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
+      <c r="T23" s="16"/>
+      <c r="U23" s="16"/>
+      <c r="V23" s="16"/>
+    </row>
+    <row r="24" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="15"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="25"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="12">
-        <f>SUM(D24:J24)*50/(A$1-K24)</f>
-        <v>0</v>
-      </c>
+      <c r="K24" s="31"/>
+      <c r="L24" s="12"/>
       <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
+      <c r="N24" s="12"/>
       <c r="O24" s="6"/>
-      <c r="P24" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6"/>
-      <c r="S24" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T24" s="6"/>
-      <c r="U24" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V24" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y24" s="17"/>
-      <c r="Z24" s="17"/>
-      <c r="AA24" s="17"/>
-    </row>
-    <row r="25" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="26"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+      <c r="T24" s="16"/>
+      <c r="U24" s="16"/>
+      <c r="V24" s="16"/>
+    </row>
+    <row r="25" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="15"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="25"/>
       <c r="E25" s="11"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="12">
-        <f>SUM(D25:J25)*50/(A$1-K25)</f>
-        <v>0</v>
-      </c>
+      <c r="K25" s="31"/>
+      <c r="L25" s="12"/>
       <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
+      <c r="N25" s="12"/>
       <c r="O25" s="6"/>
-      <c r="P25" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="6"/>
-      <c r="S25" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T25" s="6"/>
-      <c r="U25" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V25" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y25" s="17"/>
-      <c r="Z25" s="17"/>
-      <c r="AA25" s="17"/>
-    </row>
-    <row r="26" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="26"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="16"/>
+      <c r="T25" s="16"/>
+      <c r="U25" s="16"/>
+      <c r="V25" s="16"/>
+    </row>
+    <row r="26" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="15"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="25"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="12">
-        <f>SUM(D26:J26)*50/(A$1-K26)</f>
-        <v>0</v>
-      </c>
+      <c r="K26" s="31"/>
+      <c r="L26" s="12"/>
       <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
+      <c r="N26" s="12"/>
       <c r="O26" s="6"/>
-      <c r="P26" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="6"/>
-      <c r="S26" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T26" s="6"/>
-      <c r="U26" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V26" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y26" s="17"/>
-      <c r="Z26" s="17"/>
-      <c r="AA26" s="17"/>
-    </row>
-    <row r="27" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
-      <c r="B27" s="41"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="26"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="16"/>
+      <c r="T26" s="16"/>
+      <c r="U26" s="16"/>
+      <c r="V26" s="16"/>
+    </row>
+    <row r="27" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="15"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="25"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="12">
-        <f>SUM(D27:J27)*50/(A$1-K27)</f>
-        <v>0</v>
-      </c>
+      <c r="K27" s="31"/>
+      <c r="L27" s="12"/>
       <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
+      <c r="N27" s="12"/>
       <c r="O27" s="6"/>
-      <c r="P27" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="6"/>
-      <c r="S27" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T27" s="6"/>
-      <c r="U27" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V27" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y27" s="17"/>
-      <c r="Z27" s="17"/>
-      <c r="AA27" s="17"/>
-    </row>
-    <row r="28" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
-      <c r="B28" s="41"/>
-      <c r="C28" s="52"/>
-      <c r="D28" s="26"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="16"/>
+      <c r="T27" s="16"/>
+      <c r="U27" s="16"/>
+      <c r="V27" s="16"/>
+    </row>
+    <row r="28" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="15"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="25"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="12">
-        <f>SUM(D28:J28)*50/(A$1-K28)</f>
-        <v>0</v>
-      </c>
+      <c r="K28" s="31"/>
+      <c r="L28" s="12"/>
       <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
+      <c r="N28" s="12"/>
       <c r="O28" s="6"/>
-      <c r="P28" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q28" s="6"/>
-      <c r="R28" s="6"/>
-      <c r="S28" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T28" s="6"/>
-      <c r="U28" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V28" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y28" s="17"/>
-      <c r="Z28" s="17"/>
-      <c r="AA28" s="17"/>
-    </row>
-    <row r="29" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
-      <c r="B29" s="41"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="26"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="16"/>
+      <c r="T28" s="16"/>
+      <c r="U28" s="16"/>
+      <c r="V28" s="16"/>
+    </row>
+    <row r="29" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="15"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="25"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="12">
-        <f>SUM(D29:J29)*50/(A$1-K29)</f>
-        <v>0</v>
-      </c>
+      <c r="K29" s="31"/>
+      <c r="L29" s="12"/>
       <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
+      <c r="N29" s="12"/>
       <c r="O29" s="6"/>
-      <c r="P29" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q29" s="6"/>
-      <c r="R29" s="6"/>
-      <c r="S29" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T29" s="6"/>
-      <c r="U29" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V29" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y29" s="17"/>
-      <c r="Z29" s="17"/>
-      <c r="AA29" s="17"/>
-    </row>
-    <row r="30" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
-      <c r="B30" s="41"/>
-      <c r="C30" s="52"/>
-      <c r="D30" s="26"/>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="16"/>
+      <c r="T29" s="16"/>
+      <c r="U29" s="16"/>
+      <c r="V29" s="16"/>
+    </row>
+    <row r="30" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="15"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="25"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="12">
-        <f>SUM(D30:J30)*50/(A$1-K30)</f>
-        <v>0</v>
-      </c>
+      <c r="K30" s="31"/>
+      <c r="L30" s="12"/>
       <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
+      <c r="N30" s="12"/>
       <c r="O30" s="6"/>
-      <c r="P30" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q30" s="6"/>
-      <c r="R30" s="6"/>
-      <c r="S30" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T30" s="6"/>
-      <c r="U30" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V30" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y30" s="17"/>
-      <c r="Z30" s="17"/>
-      <c r="AA30" s="17"/>
-    </row>
-    <row r="31" spans="1:27" s="9" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P30" s="16"/>
+      <c r="Q30" s="16"/>
+      <c r="T30" s="16"/>
+      <c r="U30" s="16"/>
+      <c r="V30" s="16"/>
+    </row>
+    <row r="31" spans="1:22" s="9" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
-      <c r="C31" s="53"/>
+      <c r="C31" s="51"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
@@ -3986,12 +3806,12 @@
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
-      <c r="W31" s="59"/>
-    </row>
-    <row r="32" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R31" s="57"/>
+    </row>
+    <row r="32" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
-      <c r="C32" s="53"/>
+      <c r="C32" s="51"/>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
@@ -4002,16 +3822,11 @@
       <c r="L32" s="9"/>
       <c r="M32" s="9"/>
       <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="9"/>
-      <c r="R32" s="9"/>
-      <c r="S32" s="9"/>
-    </row>
-    <row r="33" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
-      <c r="C33" s="53"/>
+      <c r="C33" s="51"/>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
@@ -4022,16 +3837,11 @@
       <c r="L33" s="9"/>
       <c r="M33" s="9"/>
       <c r="N33" s="9"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="9"/>
-      <c r="Q33" s="9"/>
-      <c r="R33" s="9"/>
-      <c r="S33" s="9"/>
-    </row>
-    <row r="34" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
-      <c r="C34" s="53"/>
+      <c r="C34" s="51"/>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
@@ -4042,16 +3852,11 @@
       <c r="L34" s="9"/>
       <c r="M34" s="9"/>
       <c r="N34" s="9"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="9"/>
-      <c r="R34" s="9"/>
-      <c r="S34" s="9"/>
-    </row>
-    <row r="35" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
-      <c r="C35" s="53"/>
+      <c r="C35" s="51"/>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
@@ -4062,16 +3867,11 @@
       <c r="L35" s="9"/>
       <c r="M35" s="9"/>
       <c r="N35" s="9"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="9"/>
-      <c r="Q35" s="9"/>
-      <c r="R35" s="9"/>
-      <c r="S35" s="9"/>
-    </row>
-    <row r="36" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
-      <c r="C36" s="53"/>
+      <c r="C36" s="51"/>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
@@ -4082,16 +3882,11 @@
       <c r="L36" s="9"/>
       <c r="M36" s="9"/>
       <c r="N36" s="9"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="9"/>
-      <c r="Q36" s="9"/>
-      <c r="R36" s="9"/>
-      <c r="S36" s="9"/>
-    </row>
-    <row r="37" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
-      <c r="C37" s="53"/>
+      <c r="C37" s="51"/>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
@@ -4102,16 +3897,11 @@
       <c r="L37" s="9"/>
       <c r="M37" s="9"/>
       <c r="N37" s="9"/>
-      <c r="O37" s="9"/>
-      <c r="P37" s="9"/>
-      <c r="Q37" s="9"/>
-      <c r="R37" s="9"/>
-      <c r="S37" s="9"/>
-    </row>
-    <row r="38" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
-      <c r="C38" s="53"/>
+      <c r="C38" s="51"/>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
@@ -4122,16 +3912,11 @@
       <c r="L38" s="9"/>
       <c r="M38" s="9"/>
       <c r="N38" s="9"/>
-      <c r="O38" s="9"/>
-      <c r="P38" s="9"/>
-      <c r="Q38" s="9"/>
-      <c r="R38" s="9"/>
-      <c r="S38" s="9"/>
-    </row>
-    <row r="39" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
-      <c r="C39" s="53"/>
+      <c r="C39" s="51"/>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
@@ -4142,16 +3927,11 @@
       <c r="L39" s="9"/>
       <c r="M39" s="9"/>
       <c r="N39" s="9"/>
-      <c r="O39" s="9"/>
-      <c r="P39" s="9"/>
-      <c r="Q39" s="9"/>
-      <c r="R39" s="9"/>
-      <c r="S39" s="9"/>
-    </row>
-    <row r="40" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
-      <c r="C40" s="53"/>
+      <c r="C40" s="51"/>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
@@ -4162,16 +3942,11 @@
       <c r="L40" s="9"/>
       <c r="M40" s="9"/>
       <c r="N40" s="9"/>
-      <c r="O40" s="9"/>
-      <c r="P40" s="9"/>
-      <c r="Q40" s="9"/>
-      <c r="R40" s="9"/>
-      <c r="S40" s="9"/>
-    </row>
-    <row r="41" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
-      <c r="C41" s="53"/>
+      <c r="C41" s="51"/>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
@@ -4182,16 +3957,11 @@
       <c r="L41" s="9"/>
       <c r="M41" s="9"/>
       <c r="N41" s="9"/>
-      <c r="O41" s="9"/>
-      <c r="P41" s="9"/>
-      <c r="Q41" s="9"/>
-      <c r="R41" s="9"/>
-      <c r="S41" s="9"/>
-    </row>
-    <row r="42" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
-      <c r="C42" s="53"/>
+      <c r="C42" s="51"/>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
@@ -4202,16 +3972,11 @@
       <c r="L42" s="9"/>
       <c r="M42" s="9"/>
       <c r="N42" s="9"/>
-      <c r="O42" s="9"/>
-      <c r="P42" s="9"/>
-      <c r="Q42" s="9"/>
-      <c r="R42" s="9"/>
-      <c r="S42" s="9"/>
-    </row>
-    <row r="43" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
-      <c r="C43" s="53"/>
+      <c r="C43" s="51"/>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
@@ -4222,16 +3987,11 @@
       <c r="L43" s="9"/>
       <c r="M43" s="9"/>
       <c r="N43" s="9"/>
-      <c r="O43" s="9"/>
-      <c r="P43" s="9"/>
-      <c r="Q43" s="9"/>
-      <c r="R43" s="9"/>
-      <c r="S43" s="9"/>
-    </row>
-    <row r="44" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
-      <c r="C44" s="53"/>
+      <c r="C44" s="51"/>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
@@ -4242,16 +4002,11 @@
       <c r="L44" s="9"/>
       <c r="M44" s="9"/>
       <c r="N44" s="9"/>
-      <c r="O44" s="9"/>
-      <c r="P44" s="9"/>
-      <c r="Q44" s="9"/>
-      <c r="R44" s="9"/>
-      <c r="S44" s="9"/>
-    </row>
-    <row r="45" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
-      <c r="C45" s="53"/>
+      <c r="C45" s="51"/>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
@@ -4262,16 +4017,11 @@
       <c r="L45" s="9"/>
       <c r="M45" s="9"/>
       <c r="N45" s="9"/>
-      <c r="O45" s="9"/>
-      <c r="P45" s="9"/>
-      <c r="Q45" s="9"/>
-      <c r="R45" s="9"/>
-      <c r="S45" s="9"/>
-    </row>
-    <row r="46" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
-      <c r="C46" s="53"/>
+      <c r="C46" s="51"/>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
@@ -4282,16 +4032,11 @@
       <c r="L46" s="9"/>
       <c r="M46" s="9"/>
       <c r="N46" s="9"/>
-      <c r="O46" s="9"/>
-      <c r="P46" s="9"/>
-      <c r="Q46" s="9"/>
-      <c r="R46" s="9"/>
-      <c r="S46" s="9"/>
-    </row>
-    <row r="47" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
-      <c r="C47" s="53"/>
+      <c r="C47" s="51"/>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
@@ -4302,16 +4047,11 @@
       <c r="L47" s="9"/>
       <c r="M47" s="9"/>
       <c r="N47" s="9"/>
-      <c r="O47" s="9"/>
-      <c r="P47" s="9"/>
-      <c r="Q47" s="9"/>
-      <c r="R47" s="9"/>
-      <c r="S47" s="9"/>
-    </row>
-    <row r="48" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
-      <c r="C48" s="53"/>
+      <c r="C48" s="51"/>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
@@ -4322,16 +4062,11 @@
       <c r="L48" s="9"/>
       <c r="M48" s="9"/>
       <c r="N48" s="9"/>
-      <c r="O48" s="9"/>
-      <c r="P48" s="9"/>
-      <c r="Q48" s="9"/>
-      <c r="R48" s="9"/>
-      <c r="S48" s="9"/>
-    </row>
-    <row r="49" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
-      <c r="C49" s="53"/>
+      <c r="C49" s="51"/>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
@@ -4342,16 +4077,11 @@
       <c r="L49" s="9"/>
       <c r="M49" s="9"/>
       <c r="N49" s="9"/>
-      <c r="O49" s="9"/>
-      <c r="P49" s="9"/>
-      <c r="Q49" s="9"/>
-      <c r="R49" s="9"/>
-      <c r="S49" s="9"/>
-    </row>
-    <row r="50" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
-      <c r="C50" s="53"/>
+      <c r="C50" s="51"/>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
@@ -4362,16 +4092,11 @@
       <c r="L50" s="9"/>
       <c r="M50" s="9"/>
       <c r="N50" s="9"/>
-      <c r="O50" s="9"/>
-      <c r="P50" s="9"/>
-      <c r="Q50" s="9"/>
-      <c r="R50" s="9"/>
-      <c r="S50" s="9"/>
-    </row>
-    <row r="51" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
-      <c r="C51" s="53"/>
+      <c r="C51" s="51"/>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
@@ -4382,16 +4107,11 @@
       <c r="L51" s="9"/>
       <c r="M51" s="9"/>
       <c r="N51" s="9"/>
-      <c r="O51" s="9"/>
-      <c r="P51" s="9"/>
-      <c r="Q51" s="9"/>
-      <c r="R51" s="9"/>
-      <c r="S51" s="9"/>
-    </row>
-    <row r="52" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
-      <c r="C52" s="53"/>
+      <c r="C52" s="51"/>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
@@ -4402,16 +4122,11 @@
       <c r="L52" s="9"/>
       <c r="M52" s="9"/>
       <c r="N52" s="9"/>
-      <c r="O52" s="9"/>
-      <c r="P52" s="9"/>
-      <c r="Q52" s="9"/>
-      <c r="R52" s="9"/>
-      <c r="S52" s="9"/>
-    </row>
-    <row r="53" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
-      <c r="C53" s="53"/>
+      <c r="C53" s="51"/>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
@@ -4422,16 +4137,11 @@
       <c r="L53" s="9"/>
       <c r="M53" s="9"/>
       <c r="N53" s="9"/>
-      <c r="O53" s="9"/>
-      <c r="P53" s="9"/>
-      <c r="Q53" s="9"/>
-      <c r="R53" s="9"/>
-      <c r="S53" s="9"/>
-    </row>
-    <row r="54" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
-      <c r="C54" s="53"/>
+      <c r="C54" s="51"/>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
@@ -4442,16 +4152,11 @@
       <c r="L54" s="9"/>
       <c r="M54" s="9"/>
       <c r="N54" s="9"/>
-      <c r="O54" s="9"/>
-      <c r="P54" s="9"/>
-      <c r="Q54" s="9"/>
-      <c r="R54" s="9"/>
-      <c r="S54" s="9"/>
-    </row>
-    <row r="55" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
-      <c r="C55" s="53"/>
+      <c r="C55" s="51"/>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
@@ -4462,16 +4167,11 @@
       <c r="L55" s="9"/>
       <c r="M55" s="9"/>
       <c r="N55" s="9"/>
-      <c r="O55" s="9"/>
-      <c r="P55" s="9"/>
-      <c r="Q55" s="9"/>
-      <c r="R55" s="9"/>
-      <c r="S55" s="9"/>
-    </row>
-    <row r="56" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
-      <c r="C56" s="53"/>
+      <c r="C56" s="51"/>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
@@ -4482,16 +4182,11 @@
       <c r="L56" s="9"/>
       <c r="M56" s="9"/>
       <c r="N56" s="9"/>
-      <c r="O56" s="9"/>
-      <c r="P56" s="9"/>
-      <c r="Q56" s="9"/>
-      <c r="R56" s="9"/>
-      <c r="S56" s="9"/>
-    </row>
-    <row r="57" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
-      <c r="C57" s="53"/>
+      <c r="C57" s="51"/>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
@@ -4502,16 +4197,11 @@
       <c r="L57" s="9"/>
       <c r="M57" s="9"/>
       <c r="N57" s="9"/>
-      <c r="O57" s="9"/>
-      <c r="P57" s="9"/>
-      <c r="Q57" s="9"/>
-      <c r="R57" s="9"/>
-      <c r="S57" s="9"/>
-    </row>
-    <row r="58" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
-      <c r="C58" s="53"/>
+      <c r="C58" s="51"/>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
@@ -4522,16 +4212,11 @@
       <c r="L58" s="9"/>
       <c r="M58" s="9"/>
       <c r="N58" s="9"/>
-      <c r="O58" s="9"/>
-      <c r="P58" s="9"/>
-      <c r="Q58" s="9"/>
-      <c r="R58" s="9"/>
-      <c r="S58" s="9"/>
-    </row>
-    <row r="59" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
-      <c r="C59" s="53"/>
+      <c r="C59" s="51"/>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
@@ -4542,16 +4227,11 @@
       <c r="L59" s="9"/>
       <c r="M59" s="9"/>
       <c r="N59" s="9"/>
-      <c r="O59" s="9"/>
-      <c r="P59" s="9"/>
-      <c r="Q59" s="9"/>
-      <c r="R59" s="9"/>
-      <c r="S59" s="9"/>
-    </row>
-    <row r="60" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
-      <c r="C60" s="53"/>
+      <c r="C60" s="51"/>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
@@ -4562,16 +4242,11 @@
       <c r="L60" s="9"/>
       <c r="M60" s="9"/>
       <c r="N60" s="9"/>
-      <c r="O60" s="9"/>
-      <c r="P60" s="9"/>
-      <c r="Q60" s="9"/>
-      <c r="R60" s="9"/>
-      <c r="S60" s="9"/>
-    </row>
-    <row r="61" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
-      <c r="C61" s="53"/>
+      <c r="C61" s="51"/>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
@@ -4582,16 +4257,11 @@
       <c r="L61" s="9"/>
       <c r="M61" s="9"/>
       <c r="N61" s="9"/>
-      <c r="O61" s="9"/>
-      <c r="P61" s="9"/>
-      <c r="Q61" s="9"/>
-      <c r="R61" s="9"/>
-      <c r="S61" s="9"/>
-    </row>
-    <row r="62" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
-      <c r="C62" s="53"/>
+      <c r="C62" s="51"/>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
@@ -4602,16 +4272,11 @@
       <c r="L62" s="9"/>
       <c r="M62" s="9"/>
       <c r="N62" s="9"/>
-      <c r="O62" s="9"/>
-      <c r="P62" s="9"/>
-      <c r="Q62" s="9"/>
-      <c r="R62" s="9"/>
-      <c r="S62" s="9"/>
-    </row>
-    <row r="63" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
-      <c r="C63" s="53"/>
+      <c r="C63" s="51"/>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
@@ -4622,16 +4287,11 @@
       <c r="L63" s="9"/>
       <c r="M63" s="9"/>
       <c r="N63" s="9"/>
-      <c r="O63" s="9"/>
-      <c r="P63" s="9"/>
-      <c r="Q63" s="9"/>
-      <c r="R63" s="9"/>
-      <c r="S63" s="9"/>
-    </row>
-    <row r="64" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
-      <c r="C64" s="53"/>
+      <c r="C64" s="51"/>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
@@ -4642,16 +4302,11 @@
       <c r="L64" s="9"/>
       <c r="M64" s="9"/>
       <c r="N64" s="9"/>
-      <c r="O64" s="9"/>
-      <c r="P64" s="9"/>
-      <c r="Q64" s="9"/>
-      <c r="R64" s="9"/>
-      <c r="S64" s="9"/>
-    </row>
-    <row r="65" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
-      <c r="C65" s="53"/>
+      <c r="C65" s="51"/>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
@@ -4662,16 +4317,11 @@
       <c r="L65" s="9"/>
       <c r="M65" s="9"/>
       <c r="N65" s="9"/>
-      <c r="O65" s="9"/>
-      <c r="P65" s="9"/>
-      <c r="Q65" s="9"/>
-      <c r="R65" s="9"/>
-      <c r="S65" s="9"/>
-    </row>
-    <row r="66" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
-      <c r="C66" s="53"/>
+      <c r="C66" s="51"/>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
@@ -4682,16 +4332,11 @@
       <c r="L66" s="9"/>
       <c r="M66" s="9"/>
       <c r="N66" s="9"/>
-      <c r="O66" s="9"/>
-      <c r="P66" s="9"/>
-      <c r="Q66" s="9"/>
-      <c r="R66" s="9"/>
-      <c r="S66" s="9"/>
-    </row>
-    <row r="67" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
-      <c r="C67" s="53"/>
+      <c r="C67" s="51"/>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
@@ -4702,16 +4347,11 @@
       <c r="L67" s="9"/>
       <c r="M67" s="9"/>
       <c r="N67" s="9"/>
-      <c r="O67" s="9"/>
-      <c r="P67" s="9"/>
-      <c r="Q67" s="9"/>
-      <c r="R67" s="9"/>
-      <c r="S67" s="9"/>
-    </row>
-    <row r="68" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
-      <c r="C68" s="53"/>
+      <c r="C68" s="51"/>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
@@ -4722,16 +4362,11 @@
       <c r="L68" s="9"/>
       <c r="M68" s="9"/>
       <c r="N68" s="9"/>
-      <c r="O68" s="9"/>
-      <c r="P68" s="9"/>
-      <c r="Q68" s="9"/>
-      <c r="R68" s="9"/>
-      <c r="S68" s="9"/>
-    </row>
-    <row r="69" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
-      <c r="C69" s="53"/>
+      <c r="C69" s="51"/>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
@@ -4742,16 +4377,11 @@
       <c r="L69" s="9"/>
       <c r="M69" s="9"/>
       <c r="N69" s="9"/>
-      <c r="O69" s="9"/>
-      <c r="P69" s="9"/>
-      <c r="Q69" s="9"/>
-      <c r="R69" s="9"/>
-      <c r="S69" s="9"/>
-    </row>
-    <row r="70" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
-      <c r="C70" s="53"/>
+      <c r="C70" s="51"/>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
@@ -4762,16 +4392,11 @@
       <c r="L70" s="9"/>
       <c r="M70" s="9"/>
       <c r="N70" s="9"/>
-      <c r="O70" s="9"/>
-      <c r="P70" s="9"/>
-      <c r="Q70" s="9"/>
-      <c r="R70" s="9"/>
-      <c r="S70" s="9"/>
-    </row>
-    <row r="71" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
-      <c r="C71" s="53"/>
+      <c r="C71" s="51"/>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
@@ -4782,16 +4407,11 @@
       <c r="L71" s="9"/>
       <c r="M71" s="9"/>
       <c r="N71" s="9"/>
-      <c r="O71" s="9"/>
-      <c r="P71" s="9"/>
-      <c r="Q71" s="9"/>
-      <c r="R71" s="9"/>
-      <c r="S71" s="9"/>
-    </row>
-    <row r="72" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
-      <c r="C72" s="53"/>
+      <c r="C72" s="51"/>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
@@ -4802,16 +4422,11 @@
       <c r="L72" s="9"/>
       <c r="M72" s="9"/>
       <c r="N72" s="9"/>
-      <c r="O72" s="9"/>
-      <c r="P72" s="9"/>
-      <c r="Q72" s="9"/>
-      <c r="R72" s="9"/>
-      <c r="S72" s="9"/>
-    </row>
-    <row r="73" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
-      <c r="C73" s="53"/>
+      <c r="C73" s="51"/>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
@@ -4822,16 +4437,11 @@
       <c r="L73" s="9"/>
       <c r="M73" s="9"/>
       <c r="N73" s="9"/>
-      <c r="O73" s="9"/>
-      <c r="P73" s="9"/>
-      <c r="Q73" s="9"/>
-      <c r="R73" s="9"/>
-      <c r="S73" s="9"/>
-    </row>
-    <row r="74" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
-      <c r="C74" s="53"/>
+      <c r="C74" s="51"/>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
@@ -4842,16 +4452,11 @@
       <c r="L74" s="9"/>
       <c r="M74" s="9"/>
       <c r="N74" s="9"/>
-      <c r="O74" s="9"/>
-      <c r="P74" s="9"/>
-      <c r="Q74" s="9"/>
-      <c r="R74" s="9"/>
-      <c r="S74" s="9"/>
-    </row>
-    <row r="75" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
-      <c r="C75" s="53"/>
+      <c r="C75" s="51"/>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
@@ -4862,16 +4467,11 @@
       <c r="L75" s="9"/>
       <c r="M75" s="9"/>
       <c r="N75" s="9"/>
-      <c r="O75" s="9"/>
-      <c r="P75" s="9"/>
-      <c r="Q75" s="9"/>
-      <c r="R75" s="9"/>
-      <c r="S75" s="9"/>
-    </row>
-    <row r="76" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
-      <c r="C76" s="53"/>
+      <c r="C76" s="51"/>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
@@ -4882,16 +4482,11 @@
       <c r="L76" s="9"/>
       <c r="M76" s="9"/>
       <c r="N76" s="9"/>
-      <c r="O76" s="9"/>
-      <c r="P76" s="9"/>
-      <c r="Q76" s="9"/>
-      <c r="R76" s="9"/>
-      <c r="S76" s="9"/>
-    </row>
-    <row r="77" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
-      <c r="C77" s="53"/>
+      <c r="C77" s="51"/>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
@@ -4902,16 +4497,11 @@
       <c r="L77" s="9"/>
       <c r="M77" s="9"/>
       <c r="N77" s="9"/>
-      <c r="O77" s="9"/>
-      <c r="P77" s="9"/>
-      <c r="Q77" s="9"/>
-      <c r="R77" s="9"/>
-      <c r="S77" s="9"/>
-    </row>
-    <row r="78" spans="1:19" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
-      <c r="C78" s="53"/>
+      <c r="C78" s="51"/>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
@@ -4922,71 +4512,79 @@
       <c r="L78" s="9"/>
       <c r="M78" s="9"/>
       <c r="N78" s="9"/>
-      <c r="O78" s="9"/>
-      <c r="P78" s="9"/>
-      <c r="Q78" s="9"/>
-      <c r="R78" s="9"/>
-      <c r="S78" s="9"/>
     </row>
   </sheetData>
-  <sortState ref="A1:X30">
-    <sortCondition descending="1" ref="V12"/>
+  <sortState ref="A3:S30">
+    <sortCondition descending="1" ref="Q12"/>
   </sortState>
-  <mergeCells count="6">
+  <mergeCells count="5">
     <mergeCell ref="D1:L1"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="Z1:Z2"/>
-    <mergeCell ref="AA1:AA2"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:J30">
-    <cfRule type="cellIs" dxfId="22" priority="47" operator="between">
+    <cfRule type="cellIs" dxfId="10" priority="29" operator="between">
       <formula>0.1</formula>
       <formula>1.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="30" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="31" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R3:R30">
-    <cfRule type="cellIs" dxfId="19" priority="38" operator="between">
+  <conditionalFormatting sqref="M3:M30">
+    <cfRule type="cellIs" dxfId="7" priority="20" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="21" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="40" operator="between">
+    <cfRule type="cellIs" dxfId="5" priority="22" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="41" operator="between">
+    <cfRule type="cellIs" dxfId="4" priority="23" operator="between">
       <formula>80</formula>
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T3:T30">
-    <cfRule type="cellIs" dxfId="15" priority="23" operator="between">
+  <conditionalFormatting sqref="C7">
+    <cfRule type="dataBar" priority="9">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5152AADF-8FC6-4ED1-821D-0A79F65C7F2C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O3:O30">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="25" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="7" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="26" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="8" operator="greaterThanOrEqual">
       <formula>80</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C2 C21:C1048576">
-    <cfRule type="dataBar" priority="22">
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4999,73 +4597,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M3:M30">
-    <cfRule type="cellIs" dxfId="11" priority="10" operator="between">
-      <formula>0.1</formula>
-      <formula>59.9</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="12" operator="between">
-      <formula>60</formula>
-      <formula>79</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="13" operator="between">
-      <formula>80</formula>
-      <formula>100</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N3:O30">
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="between">
-      <formula>0.1</formula>
-      <formula>59.9</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="8" operator="between">
-      <formula>60</formula>
-      <formula>79</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="9" operator="between">
-      <formula>80</formula>
-      <formula>100</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q3:Q30">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="between">
-      <formula>0.1</formula>
-      <formula>59.9</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="between">
-      <formula>60</formula>
-      <formula>79</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="between">
-      <formula>80</formula>
-      <formula>100</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C20">
-    <cfRule type="dataBar" priority="1">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{B106BE22-BE93-47CB-B67C-A8F2475DDA51}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="L3:L30">
-    <cfRule type="dataBar" priority="193">
+    <cfRule type="dataBar" priority="348">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5078,8 +4611,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S3:S30">
-    <cfRule type="dataBar" priority="194">
+  <conditionalFormatting sqref="N3:N30">
+    <cfRule type="dataBar" priority="349">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5092,8 +4625,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U3:U30">
-    <cfRule type="dataBar" priority="195">
+  <conditionalFormatting sqref="P3:P30">
+    <cfRule type="dataBar" priority="350">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5106,8 +4639,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V3:V30">
-    <cfRule type="dataBar" priority="196">
+  <conditionalFormatting sqref="Q3:Q30">
+    <cfRule type="dataBar" priority="351">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5120,8 +4653,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C21:C30">
-    <cfRule type="dataBar" priority="197">
+  <conditionalFormatting sqref="C3:C30">
+    <cfRule type="dataBar" priority="352">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5134,8 +4667,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y3:Y30">
-    <cfRule type="dataBar" priority="202">
+  <conditionalFormatting sqref="T3:T30">
+    <cfRule type="dataBar" priority="353">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5148,8 +4681,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z3:Z30">
-    <cfRule type="dataBar" priority="203">
+  <conditionalFormatting sqref="U3:U30">
+    <cfRule type="dataBar" priority="354">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5162,8 +4695,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA3:AA30">
-    <cfRule type="dataBar" priority="204">
+  <conditionalFormatting sqref="V3:V30">
+    <cfRule type="dataBar" priority="355">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5176,26 +4709,23 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P3:P30">
-    <cfRule type="dataBar" priority="205">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{D2718067-88D6-484B-AA22-2C7835B5D49B}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5152AADF-8FC6-4ED1-821D-0A79F65C7F2C}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C7</xm:sqref>
+        </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{71125D8B-F38D-441C-A719-0BEE1515DAA1}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
@@ -5207,18 +4737,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C1:C2 C21:C1048576</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B106BE22-BE93-47CB-B67C-A8F2475DDA51}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>C3:C20</xm:sqref>
+          <xm:sqref>C1:C1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{3F325F88-05E0-41BA-AA33-7B854FBE8033}">
@@ -5240,7 +4759,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>S3:S30</xm:sqref>
+          <xm:sqref>N3:N30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F9C7B28C-32E1-4B0D-97BC-F416D05D2AA7}">
@@ -5251,7 +4770,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>U3:U30</xm:sqref>
+          <xm:sqref>P3:P30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{2008DEFA-B118-4E92-B0F8-C5059B874A32}">
@@ -5262,7 +4781,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>V3:V30</xm:sqref>
+          <xm:sqref>Q3:Q30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{FF44BC67-0C1D-46A1-8F9C-F95AA3B0ECDF}">
@@ -5273,7 +4792,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C21:C30</xm:sqref>
+          <xm:sqref>C3:C30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{BF843C8A-B269-4D72-852C-A7007E8E7593}">
@@ -5284,7 +4803,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>Y3:Y30</xm:sqref>
+          <xm:sqref>T3:T30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{FD11F04D-4F39-4ECF-9A10-1B557EAB081C}">
@@ -5295,7 +4814,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>Z3:Z30</xm:sqref>
+          <xm:sqref>U3:U30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{E17DD4D3-1A79-45E5-85F3-F9DE9D06FB78}">
@@ -5306,18 +4825,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>AA3:AA30</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{D2718067-88D6-484B-AA22-2C7835B5D49B}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>P3:P30</xm:sqref>
+          <xm:sqref>V3:V30</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/AdvancedJava/_docs/Notlar.xlsx
+++ b/AdvancedJava/_docs/Notlar.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_SRC\_MEDIPOL\MyCourses\SoftwareDevEnvAndTools\_docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_SRC\_MEDIPOL\MyCourses\AdvancedJava\_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="63">
   <si>
     <t>Öğrenci No</t>
   </si>
@@ -94,9 +94,6 @@
     <t>DERS NOTU</t>
   </si>
   <si>
-    <t>EKSTRA</t>
-  </si>
-  <si>
     <t>M</t>
   </si>
   <si>
@@ -112,21 +109,11 @@
     <t>NO</t>
   </si>
   <si>
-    <t>SINAV (%70)</t>
-  </si>
-  <si>
-    <t>DEVAM DURUMU (%30)</t>
-  </si>
-  <si>
     <t>ODEV 
 (yok)</t>
   </si>
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>DEVAM DURUMU 
-(%40)</t>
   </si>
   <si>
     <t>FINAL SINAVI
@@ -255,6 +242,88 @@
   <si>
     <t>VOLKAN PEKTAŞ</t>
   </si>
+  <si>
+    <t>DOĞUKAN DEMİR</t>
+  </si>
+  <si>
+    <t>BATUHAN KÖZ</t>
+  </si>
+  <si>
+    <t>BATUHAN AKKAYA</t>
+  </si>
+  <si>
+    <t>İBRAHİM DEMİR</t>
+  </si>
+  <si>
+    <t>DEVAM DURUMU (%20)</t>
+  </si>
+  <si>
+    <t>SINAV (%40)</t>
+  </si>
+  <si>
+    <t>DEVAM DURUMU 
+(%20)</t>
+  </si>
+  <si>
+    <t>LAB (%15)</t>
+  </si>
+  <si>
+    <t>PROJE (%25)</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>T5</t>
+  </si>
+  <si>
+    <t>SONUÇ6</t>
+  </si>
+  <si>
+    <t>SONUÇ7</t>
+  </si>
+  <si>
+    <t>Ekstra</t>
+  </si>
+  <si>
+    <t>Puan</t>
+  </si>
+  <si>
+    <t>MERTCAN ABLAK</t>
+  </si>
+  <si>
+    <t>EBRU GÜVEN</t>
+  </si>
+  <si>
+    <t>NECMİ MURAT ÇAKIN</t>
+  </si>
 </sst>
 </file>
 
@@ -322,7 +391,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -347,8 +416,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="22">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -574,17 +649,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -609,19 +673,83 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
+      </left>
+      <right/>
+      <top style="thin">
         <color rgb="FF000000"/>
-      </bottom>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -631,7 +759,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -685,16 +813,9 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -707,19 +828,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -746,21 +859,39 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -771,24 +902,42 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="4" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="106">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -877,36 +1026,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C6500"/>
       </font>
       <fill>
@@ -945,6 +1064,36 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C6500"/>
       </font>
       <fill>
@@ -983,6 +1132,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -992,6 +1151,34 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C6500"/>
       </font>
@@ -1000,6 +1187,1320 @@
           <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Arial Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Arial Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Arial Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="2" tint="-0.249977111117893"/>
+        <name val="Arial Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Arial Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Arial Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Arial Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Arial Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Arial Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Arial Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Arial Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="2" tint="-0.249977111117893"/>
+        <name val="Arial Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="2" tint="-0.249977111117893"/>
+        <name val="Arial Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Arial Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Arial Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Arial Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Arial Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="2" tint="-0.249977111117893"/>
+        <name val="Arial Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Arial Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="2" tint="-0.249977111117893"/>
+        <name val="Arial Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Arial Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
@@ -1014,6 +2515,40 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:T27" totalsRowShown="0" headerRowDxfId="105" tableBorderDxfId="104">
+  <autoFilter ref="A2:T27"/>
+  <sortState ref="A3:T27">
+    <sortCondition descending="1" ref="T2:T27"/>
+  </sortState>
+  <tableColumns count="20">
+    <tableColumn id="1" name="NO" dataDxfId="103"/>
+    <tableColumn id="2" name="Adı Soyadı" dataDxfId="102"/>
+    <tableColumn id="3" name="1" dataDxfId="101"/>
+    <tableColumn id="4" name="2" dataDxfId="100"/>
+    <tableColumn id="5" name="3" dataDxfId="99"/>
+    <tableColumn id="6" name="4" dataDxfId="98"/>
+    <tableColumn id="7" name="5" dataDxfId="97"/>
+    <tableColumn id="8" name="6" dataDxfId="96"/>
+    <tableColumn id="9" name="7" dataDxfId="95"/>
+    <tableColumn id="10" name="M" dataDxfId="94"/>
+    <tableColumn id="11" name="T" dataDxfId="93"/>
+    <tableColumn id="12" name="12" dataDxfId="92"/>
+    <tableColumn id="13" name="23" dataDxfId="91"/>
+    <tableColumn id="14" name="34" dataDxfId="90"/>
+    <tableColumn id="15" name="T5" dataDxfId="89"/>
+    <tableColumn id="16" name="SONUÇ" dataDxfId="83"/>
+    <tableColumn id="19" name="Puan" dataDxfId="43"/>
+    <tableColumn id="20" name="Ekstra" dataDxfId="41"/>
+    <tableColumn id="17" name="SONUÇ6" dataDxfId="42">
+      <calculatedColumnFormula>Table1[[#This Row],[Puan]]+Table1[[#This Row],[Ekstra]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="18" name="SONUÇ7" dataDxfId="88"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1282,1439 +2817,2463 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:O73"/>
+  <dimension ref="A1:U72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomLeft" activeCell="L1" sqref="L1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="3.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="2.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.44140625" style="36" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="5.77734375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7" style="1" customWidth="1"/>
-    <col min="14" max="14" width="5.77734375" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="1"/>
+    <col min="3" max="4" width="3.44140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="4.5546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="2.88671875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="3.5546875" style="8" customWidth="1"/>
+    <col min="8" max="8" width="3.109375" style="8" customWidth="1"/>
+    <col min="9" max="9" width="3.109375" style="33" customWidth="1"/>
+    <col min="10" max="10" width="3.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="3.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.77734375" style="1" customWidth="1"/>
+    <col min="16" max="18" width="6.21875" style="77" customWidth="1"/>
+    <col min="19" max="19" width="7" style="77" customWidth="1"/>
+    <col min="20" max="20" width="6.88671875" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="4" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22"/>
-      <c r="B1" s="13"/>
+    <row r="1" spans="1:21" s="4" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="54"/>
+      <c r="B1" s="55"/>
       <c r="C1" s="59" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D1" s="60"/>
       <c r="E1" s="60"/>
       <c r="F1" s="60"/>
       <c r="G1" s="60"/>
       <c r="H1" s="60"/>
-      <c r="I1" s="29">
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="57">
+        <v>6</v>
+      </c>
+      <c r="L1" s="61" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="56">
+        <v>3</v>
+      </c>
+      <c r="P1" s="71" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q1" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="70" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" s="5" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="69"/>
-      <c r="K1" s="61" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" s="62"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" s="5" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="19">
-        <v>1</v>
-      </c>
-      <c r="D2" s="20">
-        <v>2</v>
-      </c>
-      <c r="E2" s="20">
+      <c r="L2" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="M2" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="N2" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="O2" s="69" t="s">
+        <v>55</v>
+      </c>
+      <c r="P2" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="20">
-        <v>4</v>
-      </c>
-      <c r="G2" s="33">
-        <v>5</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="70"/>
-      <c r="K2" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="L2" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="N2" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
+      <c r="Q2" s="73" t="s">
+        <v>59</v>
+      </c>
+      <c r="R2" s="73" t="s">
+        <v>58</v>
+      </c>
+      <c r="S2" s="73" t="s">
+        <v>56</v>
+      </c>
+      <c r="T2" s="50" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="52"/>
       <c r="B3" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C3" s="11">
         <v>2</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="34"/>
+      <c r="D3" s="7">
+        <v>1.9</v>
+      </c>
+      <c r="E3" s="7">
+        <v>1.7</v>
+      </c>
+      <c r="F3" s="7">
+        <v>1.7</v>
+      </c>
+      <c r="G3" s="31">
+        <v>0</v>
+      </c>
       <c r="H3" s="31">
-        <v>0</v>
-      </c>
-      <c r="I3" s="12">
-        <f t="shared" ref="I3:I27" si="0">SUM(C3:G3)*50/(I$1-H3)</f>
+        <v>1.9</v>
+      </c>
+      <c r="I3" s="31">
+        <v>1.9</v>
+      </c>
+      <c r="J3" s="29">
+        <v>0</v>
+      </c>
+      <c r="K3" s="12">
+        <f>SUM(C3:I3)*50/(K$1-J3)</f>
+        <v>92.5</v>
+      </c>
+      <c r="L3" s="6">
+        <v>99</v>
+      </c>
+      <c r="M3" s="6">
+        <v>75</v>
+      </c>
+      <c r="N3" s="6">
         <v>100</v>
       </c>
-      <c r="J3" s="71"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="28">
-        <f t="shared" ref="M3:M19" si="1">K3+L3</f>
-        <v>0</v>
-      </c>
-      <c r="N3" s="16">
-        <f t="shared" ref="N3:N19" si="2">MIN(100,I3*0.3+M3*0.7+M3*0.1)</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
+      <c r="O3" s="49">
+        <f>SUM(L3:N3)/3</f>
+        <v>91.333333333333329</v>
+      </c>
+      <c r="P3" s="74"/>
+      <c r="Q3" s="74">
+        <v>78</v>
+      </c>
+      <c r="R3" s="74">
+        <v>22</v>
+      </c>
+      <c r="S3" s="75">
+        <f>Table1[[#This Row],[Puan]]+Table1[[#This Row],[Ekstra]]</f>
+        <v>100</v>
+      </c>
+      <c r="T3" s="27">
+        <f>MIN(100,K3*0.2+O3*0.15+P3*0.25+S3*0.4)</f>
+        <v>72.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="52"/>
       <c r="B4" s="3" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C4" s="11">
         <v>2</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="34"/>
+      <c r="D4" s="7">
+        <v>2</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7">
+        <v>2</v>
+      </c>
+      <c r="G4" s="31">
+        <v>2</v>
+      </c>
       <c r="H4" s="31">
-        <v>0</v>
-      </c>
-      <c r="I4" s="12">
-        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I4" s="31">
+        <v>2</v>
+      </c>
+      <c r="J4" s="29">
+        <v>0</v>
+      </c>
+      <c r="K4" s="12">
+        <f>SUM(C4:I4)*50/(K$1-J4)</f>
         <v>100</v>
       </c>
-      <c r="J4" s="71"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N4" s="16">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
+      <c r="L4" s="6">
+        <v>95</v>
+      </c>
+      <c r="M4" s="6">
+        <v>70</v>
+      </c>
+      <c r="N4" s="6">
+        <v>100</v>
+      </c>
+      <c r="O4" s="49">
+        <f>SUM(L4:N4)/3</f>
+        <v>88.333333333333329</v>
+      </c>
+      <c r="P4" s="74"/>
+      <c r="Q4" s="74">
+        <v>40</v>
+      </c>
+      <c r="R4" s="74">
+        <v>22</v>
+      </c>
+      <c r="S4" s="75">
+        <f>Table1[[#This Row],[Puan]]+Table1[[#This Row],[Ekstra]]</f>
+        <v>62</v>
+      </c>
+      <c r="T4" s="27">
+        <f>MIN(100,K4*0.2+O4*0.15+P4*0.25+S4*0.4)</f>
+        <v>58.05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="52"/>
       <c r="B5" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="11">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
         <v>2</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="34"/>
+      <c r="E5" s="7">
+        <v>1.9</v>
+      </c>
+      <c r="F5" s="7">
+        <v>2</v>
+      </c>
+      <c r="G5" s="31">
+        <v>0</v>
+      </c>
       <c r="H5" s="31">
-        <v>0</v>
-      </c>
-      <c r="I5" s="12">
-        <f t="shared" si="0"/>
+        <v>1.9</v>
+      </c>
+      <c r="I5" s="31">
+        <v>2</v>
+      </c>
+      <c r="J5" s="29">
+        <v>0</v>
+      </c>
+      <c r="K5" s="12">
+        <f>SUM(C5:I5)*50/(K$1-J5)</f>
+        <v>81.666666666666671</v>
+      </c>
+      <c r="L5" s="6">
+        <v>0</v>
+      </c>
+      <c r="M5" s="6">
+        <v>85</v>
+      </c>
+      <c r="N5" s="6">
         <v>100</v>
       </c>
-      <c r="J5" s="71"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N5" s="16">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="O5" s="1" t="s">
+      <c r="O5" s="49">
+        <f>SUM(L5:N5)/3</f>
+        <v>61.666666666666664</v>
+      </c>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="74">
+        <v>57</v>
+      </c>
+      <c r="R5" s="74">
+        <v>22</v>
+      </c>
+      <c r="S5" s="75">
+        <f>Table1[[#This Row],[Puan]]+Table1[[#This Row],[Ekstra]]</f>
+        <v>79</v>
+      </c>
+      <c r="T5" s="27">
+        <f>MIN(100,K5*0.2+O5*0.15+P5*0.25+S5*0.4)</f>
+        <v>57.183333333333337</v>
+      </c>
+      <c r="U5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
+    <row r="6" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="53"/>
       <c r="B6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="11">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
+        <v>2</v>
+      </c>
+      <c r="E6" s="7">
+        <v>2</v>
+      </c>
+      <c r="F6" s="7">
+        <v>2</v>
+      </c>
+      <c r="G6" s="7">
+        <v>2</v>
+      </c>
+      <c r="H6" s="7">
+        <v>2</v>
+      </c>
+      <c r="I6" s="7">
+        <v>2</v>
+      </c>
+      <c r="J6" s="29">
+        <v>0</v>
+      </c>
+      <c r="K6" s="12">
+        <f>SUM(C6:I6)*50/(K$1-J6)</f>
+        <v>100</v>
+      </c>
+      <c r="L6" s="6">
+        <v>0</v>
+      </c>
+      <c r="M6" s="6">
+        <v>70</v>
+      </c>
+      <c r="N6" s="6">
+        <v>70</v>
+      </c>
+      <c r="O6" s="49">
+        <f>SUM(L6:N6)/3</f>
+        <v>46.666666666666664</v>
+      </c>
+      <c r="P6" s="74"/>
+      <c r="Q6" s="74">
+        <v>47</v>
+      </c>
+      <c r="R6" s="74">
         <v>22</v>
       </c>
-      <c r="C6" s="11">
-        <v>2</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="31">
-        <v>0</v>
-      </c>
-      <c r="I6" s="12">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="J6" s="71"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N6" s="16">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
+      <c r="S6" s="75">
+        <f>Table1[[#This Row],[Puan]]+Table1[[#This Row],[Ekstra]]</f>
+        <v>69</v>
+      </c>
+      <c r="T6" s="27">
+        <f>MIN(100,K6*0.2+O6*0.15+P6*0.25+S6*0.4)</f>
+        <v>54.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="52"/>
       <c r="B7" s="3" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C7" s="11">
         <v>2</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="32">
-        <v>0</v>
-      </c>
-      <c r="I7" s="12">
-        <f t="shared" si="0"/>
+      <c r="D7" s="7">
+        <v>2</v>
+      </c>
+      <c r="E7" s="7">
+        <v>2</v>
+      </c>
+      <c r="F7" s="7">
+        <v>2</v>
+      </c>
+      <c r="G7" s="31">
+        <v>0</v>
+      </c>
+      <c r="H7" s="31">
+        <v>2</v>
+      </c>
+      <c r="I7" s="31">
+        <v>1.8</v>
+      </c>
+      <c r="J7" s="29">
+        <v>1</v>
+      </c>
+      <c r="K7" s="12">
+        <f>SUM(C7:I7)*50/(K$1-J7)</f>
+        <v>118</v>
+      </c>
+      <c r="L7" s="6">
+        <v>94</v>
+      </c>
+      <c r="M7" s="6">
+        <v>50</v>
+      </c>
+      <c r="N7" s="6">
         <v>100</v>
       </c>
-      <c r="J7" s="71"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N7" s="16">
-        <f t="shared" si="2"/>
+      <c r="O7" s="49">
+        <f>SUM(L7:N7)/3</f>
+        <v>81.333333333333329</v>
+      </c>
+      <c r="P7" s="74"/>
+      <c r="Q7" s="74">
+        <v>25</v>
+      </c>
+      <c r="R7" s="74">
+        <v>22</v>
+      </c>
+      <c r="S7" s="75">
+        <f>Table1[[#This Row],[Puan]]+Table1[[#This Row],[Ekstra]]</f>
+        <v>47</v>
+      </c>
+      <c r="T7" s="27">
+        <f>MIN(100,K7*0.2+O7*0.15+P7*0.25+S7*0.4)</f>
+        <v>54.599999999999994</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="52"/>
+      <c r="B8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="11">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>2</v>
+      </c>
+      <c r="E8" s="7">
+        <v>2</v>
+      </c>
+      <c r="F8" s="7">
+        <v>2</v>
+      </c>
+      <c r="G8" s="31">
+        <v>2</v>
+      </c>
+      <c r="H8" s="31">
+        <v>2</v>
+      </c>
+      <c r="I8" s="31">
+        <v>2</v>
+      </c>
+      <c r="J8" s="29">
+        <v>0</v>
+      </c>
+      <c r="K8" s="12">
+        <f>SUM(C8:I8)*50/(K$1-J8)</f>
+        <v>100</v>
+      </c>
+      <c r="L8" s="6">
+        <v>0</v>
+      </c>
+      <c r="M8" s="6">
+        <v>0</v>
+      </c>
+      <c r="N8" s="6">
+        <v>40</v>
+      </c>
+      <c r="O8" s="49">
+        <f>SUM(L8:N8)/3</f>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="P8" s="74"/>
+      <c r="Q8" s="74">
+        <v>56</v>
+      </c>
+      <c r="R8" s="74">
+        <v>22</v>
+      </c>
+      <c r="S8" s="75">
+        <f>Table1[[#This Row],[Puan]]+Table1[[#This Row],[Ekstra]]</f>
+        <v>78</v>
+      </c>
+      <c r="T8" s="27">
+        <f>MIN(100,K8*0.2+O8*0.15+P8*0.25+S8*0.4)</f>
+        <v>53.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="52"/>
+      <c r="B9" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="B8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="11">
+      <c r="C9" s="11">
         <v>2</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="31">
-        <v>0</v>
-      </c>
-      <c r="I8" s="12">
-        <f t="shared" si="0"/>
+      <c r="D9" s="7">
+        <v>2</v>
+      </c>
+      <c r="E9" s="7">
+        <v>2</v>
+      </c>
+      <c r="F9" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="G9" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="H9" s="31">
+        <v>1.4</v>
+      </c>
+      <c r="I9" s="31">
+        <v>1.7</v>
+      </c>
+      <c r="J9" s="29">
+        <v>0</v>
+      </c>
+      <c r="K9" s="12">
+        <f>SUM(C9:I9)*50/(K$1-J9)</f>
+        <v>89.166666666666671</v>
+      </c>
+      <c r="L9" s="6">
+        <v>70</v>
+      </c>
+      <c r="M9" s="6">
+        <v>0</v>
+      </c>
+      <c r="N9" s="6">
         <v>100</v>
       </c>
-      <c r="J8" s="71"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N8" s="16">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-      <c r="B9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="31">
-        <v>0</v>
-      </c>
-      <c r="I9" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="71"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N9" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
+      <c r="O9" s="49">
+        <f>SUM(L9:N9)/3</f>
+        <v>56.666666666666664</v>
+      </c>
+      <c r="P9" s="74"/>
+      <c r="Q9" s="74">
+        <v>45</v>
+      </c>
+      <c r="R9" s="74">
+        <v>22</v>
+      </c>
+      <c r="S9" s="75">
+        <f>Table1[[#This Row],[Puan]]+Table1[[#This Row],[Ekstra]]</f>
+        <v>67</v>
+      </c>
+      <c r="T9" s="27">
+        <f>MIN(100,K9*0.2+O9*0.15+P9*0.25+S9*0.4)</f>
+        <v>53.13333333333334</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="53"/>
       <c r="B10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>